--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Vektorizace, první sada</t>
   </si>
@@ -74,6 +74,39 @@
   </si>
   <si>
     <t>28.9.</t>
+  </si>
+  <si>
+    <t>23.kk - poster</t>
+  </si>
+  <si>
+    <t>5.10.</t>
+  </si>
+  <si>
+    <t>NAHLASENO 3.10.2019 - Janata</t>
+  </si>
+  <si>
+    <t>8.10.</t>
+  </si>
+  <si>
+    <t>10.10.</t>
+  </si>
+  <si>
+    <t>11.10.</t>
+  </si>
+  <si>
+    <t>12.10.</t>
+  </si>
+  <si>
+    <t>REMIZKY</t>
+  </si>
+  <si>
+    <t>LESY</t>
+  </si>
+  <si>
+    <t>OHEN</t>
+  </si>
+  <si>
+    <t>13.10.</t>
   </si>
 </sst>
 </file>
@@ -133,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -211,11 +244,133 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -266,17 +421,43 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,16 +763,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X36"/>
+  <dimension ref="B1:X70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="2" max="2" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="6"/>
     <col min="5" max="5" width="7.85546875" style="23" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="25"/>
@@ -607,10 +788,10 @@
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="43" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="21" t="s">
@@ -631,8 +812,8 @@
       <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="30"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="16" t="s">
         <v>14</v>
       </c>
@@ -687,108 +868,40 @@
         <v>3.8055555555555554</v>
       </c>
       <c r="I7" s="27">
-        <f t="shared" ref="I5:I33" si="0">H7*24*$J$2</f>
+        <f>H7*24*$J$2</f>
         <v>12330</v>
       </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H9" s="19">
+        <f>H7+G9</f>
+        <v>4.0138888888888884</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" ref="I9" si="0">H9*24*$J$2</f>
+        <v>13004.999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="22">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="E10" s="24">
-        <f t="shared" ref="E10:E21" si="1">D10-C10</f>
-        <v>4.8611111111111049E-2</v>
-      </c>
-      <c r="F10" s="25">
-        <f>E10</f>
-        <v>4.8611111111111049E-2</v>
-      </c>
-      <c r="G10" s="19">
-        <f>F10</f>
-        <v>4.8611111111111049E-2</v>
-      </c>
-      <c r="H10" s="19">
-        <f t="shared" ref="H10:H32" si="2">($H$7+F10)</f>
-        <v>3.8541666666666665</v>
-      </c>
-      <c r="I10" s="27">
-        <f t="shared" si="0"/>
-        <v>12487.5</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="22">
-        <v>0.53472222222222221</v>
-      </c>
-      <c r="E11" s="24">
-        <f t="shared" si="1"/>
-        <v>3.472222222222221E-2</v>
-      </c>
-      <c r="F11" s="25">
-        <f>F10+E11</f>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="G11" s="19">
-        <f t="shared" ref="G11:G32" si="3">F11</f>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="H11" s="19">
-        <f t="shared" si="2"/>
-        <v>3.8888888888888884</v>
-      </c>
-      <c r="I11" s="27">
-        <f t="shared" si="0"/>
-        <v>12599.999999999998</v>
-      </c>
       <c r="J11" s="9"/>
-      <c r="K11" s="28"/>
+      <c r="K11" s="10"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="12"/>
@@ -804,37 +917,37 @@
       <c r="X11" s="9"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="29" t="s">
-        <v>10</v>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="D12" s="22">
-        <v>0.67361111111111116</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="E12" s="24">
-        <f t="shared" si="1"/>
-        <v>4.861111111111116E-2</v>
+        <f t="shared" ref="E12:E23" si="1">D12-C12</f>
+        <v>4.8611111111111049E-2</v>
       </c>
       <c r="F12" s="25">
-        <f t="shared" ref="F12:F32" si="4">F11+E12</f>
-        <v>0.13194444444444442</v>
+        <f>E12</f>
+        <v>4.8611111111111049E-2</v>
       </c>
       <c r="G12" s="19">
-        <f t="shared" si="3"/>
-        <v>0.13194444444444442</v>
+        <f>F12</f>
+        <v>4.8611111111111049E-2</v>
       </c>
       <c r="H12" s="19">
-        <f t="shared" si="2"/>
-        <v>3.9375</v>
+        <f>(H9+G12)</f>
+        <v>4.0624999999999991</v>
       </c>
       <c r="I12" s="27">
-        <f t="shared" si="0"/>
-        <v>12757.5</v>
+        <f>H12*24*$J$2</f>
+        <v>13162.499999999996</v>
       </c>
       <c r="J12" s="9"/>
-      <c r="K12" s="28"/>
+      <c r="K12" s="10"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="12"/>
@@ -850,35 +963,37 @@
       <c r="X12" s="9"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
-      <c r="C13" s="7">
-        <v>0.68402777777777779</v>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.5</v>
       </c>
       <c r="D13" s="22">
-        <v>0.75</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="E13" s="24">
         <f t="shared" si="1"/>
-        <v>6.597222222222221E-2</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="F13" s="25">
-        <f t="shared" si="4"/>
-        <v>0.19791666666666663</v>
+        <f>F12+E13</f>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="G13" s="19">
-        <f t="shared" si="3"/>
-        <v>0.19791666666666663</v>
+        <f t="shared" ref="G13:G37" si="2">F13</f>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="H13" s="19">
-        <f t="shared" si="2"/>
-        <v>4.0034722222222223</v>
+        <f>(H12+G13-G12)</f>
+        <v>4.0972222222222214</v>
       </c>
       <c r="I13" s="27">
-        <f t="shared" si="0"/>
-        <v>12971.250000000002</v>
+        <f t="shared" ref="I13:I29" si="3">H13*24*$J$2</f>
+        <v>13274.999999999998</v>
       </c>
       <c r="J13" s="9"/>
-      <c r="K13" s="28"/>
+      <c r="K13" s="47"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="12"/>
@@ -894,35 +1009,37 @@
       <c r="X13" s="9"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
+      <c r="B14" s="45" t="s">
+        <v>10</v>
+      </c>
       <c r="C14" s="7">
-        <v>0.76041666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="D14" s="22">
-        <v>0.78125</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="E14" s="24">
         <f t="shared" si="1"/>
-        <v>2.083333333333337E-2</v>
+        <v>4.861111111111116E-2</v>
       </c>
       <c r="F14" s="25">
-        <f t="shared" si="4"/>
-        <v>0.21875</v>
+        <f t="shared" ref="F14:F37" si="4">F13+E14</f>
+        <v>0.13194444444444442</v>
       </c>
       <c r="G14" s="19">
+        <f t="shared" si="2"/>
+        <v>0.13194444444444442</v>
+      </c>
+      <c r="H14" s="19">
+        <f t="shared" ref="H14:H41" si="5">(H13+G14-G13)</f>
+        <v>4.145833333333333</v>
+      </c>
+      <c r="I14" s="27">
         <f t="shared" si="3"/>
-        <v>0.21875</v>
-      </c>
-      <c r="H14" s="19">
-        <f t="shared" si="2"/>
-        <v>4.0243055555555554</v>
-      </c>
-      <c r="I14" s="27">
-        <f t="shared" si="0"/>
-        <v>13038.75</v>
+        <v>13432.5</v>
       </c>
       <c r="J14" s="9"/>
-      <c r="K14" s="28"/>
+      <c r="K14" s="47"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="12"/>
@@ -938,35 +1055,35 @@
       <c r="X14" s="9"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="7">
-        <v>0.80208333333333337</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="D15" s="22">
-        <v>0.86458333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E15" s="24">
         <f t="shared" si="1"/>
-        <v>6.25E-2</v>
+        <v>6.597222222222221E-2</v>
       </c>
       <c r="F15" s="25">
         <f t="shared" si="4"/>
-        <v>0.28125</v>
+        <v>0.19791666666666663</v>
       </c>
       <c r="G15" s="19">
+        <f t="shared" si="2"/>
+        <v>0.19791666666666663</v>
+      </c>
+      <c r="H15" s="19">
+        <f t="shared" si="5"/>
+        <v>4.2118055555555554</v>
+      </c>
+      <c r="I15" s="27">
         <f t="shared" si="3"/>
-        <v>0.28125</v>
-      </c>
-      <c r="H15" s="19">
-        <f t="shared" si="2"/>
-        <v>4.0868055555555554</v>
-      </c>
-      <c r="I15" s="27">
-        <f t="shared" si="0"/>
-        <v>13241.25</v>
+        <v>13646.25</v>
       </c>
       <c r="J15" s="9"/>
-      <c r="K15" s="28"/>
+      <c r="K15" s="47"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="12"/>
@@ -982,35 +1099,35 @@
       <c r="X15" s="9"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="29"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="7">
-        <v>0.875</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="D16" s="22">
-        <v>0.90625</v>
+        <v>0.78125</v>
       </c>
       <c r="E16" s="24">
         <f t="shared" si="1"/>
-        <v>3.125E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="F16" s="25">
         <f t="shared" si="4"/>
-        <v>0.3125</v>
+        <v>0.21875</v>
       </c>
       <c r="G16" s="19">
+        <f t="shared" si="2"/>
+        <v>0.21875</v>
+      </c>
+      <c r="H16" s="19">
+        <f t="shared" si="5"/>
+        <v>4.2326388888888884</v>
+      </c>
+      <c r="I16" s="27">
         <f t="shared" si="3"/>
-        <v>0.3125</v>
-      </c>
-      <c r="H16" s="19">
-        <f t="shared" si="2"/>
-        <v>4.1180555555555554</v>
-      </c>
-      <c r="I16" s="27">
-        <f t="shared" si="0"/>
-        <v>13342.5</v>
+        <v>13713.749999999998</v>
       </c>
       <c r="J16" s="9"/>
-      <c r="K16" s="28"/>
+      <c r="K16" s="47"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="12"/>
@@ -1026,37 +1143,35 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
-        <v>11</v>
-      </c>
+      <c r="B17" s="45"/>
       <c r="C17" s="7">
-        <v>0.49305555555555558</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="D17" s="22">
-        <v>0.54861111111111105</v>
+        <v>0.86458333333333337</v>
       </c>
       <c r="E17" s="24">
         <f t="shared" si="1"/>
-        <v>5.5555555555555469E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F17" s="25">
         <f t="shared" si="4"/>
-        <v>0.36805555555555547</v>
+        <v>0.28125</v>
       </c>
       <c r="G17" s="19">
+        <f t="shared" si="2"/>
+        <v>0.28125</v>
+      </c>
+      <c r="H17" s="19">
+        <f t="shared" si="5"/>
+        <v>4.2951388888888884</v>
+      </c>
+      <c r="I17" s="27">
         <f t="shared" si="3"/>
-        <v>0.36805555555555547</v>
-      </c>
-      <c r="H17" s="19">
-        <f t="shared" si="2"/>
-        <v>4.1736111111111107</v>
-      </c>
-      <c r="I17" s="27">
-        <f t="shared" si="0"/>
-        <v>13522.499999999998</v>
+        <v>13916.249999999998</v>
       </c>
       <c r="J17" s="9"/>
-      <c r="K17" s="28"/>
+      <c r="K17" s="47"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="12"/>
@@ -1072,35 +1187,35 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="7">
-        <v>0.59722222222222221</v>
+        <v>0.875</v>
       </c>
       <c r="D18" s="22">
-        <v>0.6875</v>
+        <v>0.90625</v>
       </c>
       <c r="E18" s="24">
         <f t="shared" si="1"/>
-        <v>9.027777777777779E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="F18" s="25">
         <f t="shared" si="4"/>
-        <v>0.45833333333333326</v>
+        <v>0.3125</v>
       </c>
       <c r="G18" s="19">
+        <f t="shared" si="2"/>
+        <v>0.3125</v>
+      </c>
+      <c r="H18" s="19">
+        <f t="shared" si="5"/>
+        <v>4.3263888888888884</v>
+      </c>
+      <c r="I18" s="27">
         <f t="shared" si="3"/>
-        <v>0.45833333333333326</v>
-      </c>
-      <c r="H18" s="19">
-        <f t="shared" si="2"/>
-        <v>4.2638888888888884</v>
-      </c>
-      <c r="I18" s="27">
-        <f t="shared" si="0"/>
-        <v>13814.999999999998</v>
+        <v>14017.499999999998</v>
       </c>
       <c r="J18" s="9"/>
-      <c r="K18" s="28"/>
+      <c r="K18" s="47"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="12"/>
@@ -1116,35 +1231,37 @@
       <c r="X18" s="9"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
+      <c r="B19" s="45" t="s">
+        <v>11</v>
+      </c>
       <c r="C19" s="7">
-        <v>0.69444444444444453</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="D19" s="22">
-        <v>0.72916666666666663</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="E19" s="24">
         <f t="shared" si="1"/>
-        <v>3.4722222222222099E-2</v>
+        <v>5.5555555555555469E-2</v>
       </c>
       <c r="F19" s="25">
         <f t="shared" si="4"/>
-        <v>0.49305555555555536</v>
+        <v>0.36805555555555547</v>
       </c>
       <c r="G19" s="19">
+        <f t="shared" si="2"/>
+        <v>0.36805555555555547</v>
+      </c>
+      <c r="H19" s="19">
+        <f t="shared" si="5"/>
+        <v>4.3819444444444438</v>
+      </c>
+      <c r="I19" s="27">
         <f t="shared" si="3"/>
-        <v>0.49305555555555536</v>
-      </c>
-      <c r="H19" s="19">
-        <f t="shared" si="2"/>
-        <v>4.2986111111111107</v>
-      </c>
-      <c r="I19" s="27">
-        <f t="shared" si="0"/>
-        <v>13927.499999999998</v>
+        <v>14197.499999999998</v>
       </c>
       <c r="J19" s="9"/>
-      <c r="K19" s="28"/>
+      <c r="K19" s="47"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="12"/>
@@ -1160,35 +1277,35 @@
       <c r="X19" s="9"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="7">
-        <v>0.75</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="D20" s="22">
-        <v>0.78125</v>
+        <v>0.6875</v>
       </c>
       <c r="E20" s="24">
         <f t="shared" si="1"/>
-        <v>3.125E-2</v>
+        <v>9.027777777777779E-2</v>
       </c>
       <c r="F20" s="25">
         <f t="shared" si="4"/>
-        <v>0.52430555555555536</v>
+        <v>0.45833333333333326</v>
       </c>
       <c r="G20" s="19">
+        <f t="shared" si="2"/>
+        <v>0.45833333333333326</v>
+      </c>
+      <c r="H20" s="19">
+        <f t="shared" si="5"/>
+        <v>4.4722222222222214</v>
+      </c>
+      <c r="I20" s="27">
         <f t="shared" si="3"/>
-        <v>0.52430555555555536</v>
-      </c>
-      <c r="H20" s="19">
-        <f t="shared" si="2"/>
-        <v>4.3298611111111107</v>
-      </c>
-      <c r="I20" s="27">
-        <f t="shared" si="0"/>
-        <v>14028.749999999998</v>
+        <v>14489.999999999998</v>
       </c>
       <c r="J20" s="9"/>
-      <c r="K20" s="28"/>
+      <c r="K20" s="47"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="12"/>
@@ -1204,38 +1321,38 @@
       <c r="X20" s="9"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="7">
-        <v>0.79513888888888884</v>
+        <v>0.69444444444444453</v>
       </c>
       <c r="D21" s="22">
-        <v>0.83680555555555547</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E21" s="24">
         <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
+        <v>3.4722222222222099E-2</v>
       </c>
       <c r="F21" s="25">
         <f t="shared" si="4"/>
-        <v>0.56597222222222199</v>
+        <v>0.49305555555555536</v>
       </c>
       <c r="G21" s="19">
+        <f t="shared" si="2"/>
+        <v>0.49305555555555536</v>
+      </c>
+      <c r="H21" s="19">
+        <f t="shared" si="5"/>
+        <v>4.5069444444444438</v>
+      </c>
+      <c r="I21" s="27">
         <f t="shared" si="3"/>
-        <v>0.56597222222222199</v>
-      </c>
-      <c r="H21" s="19">
-        <f t="shared" si="2"/>
-        <v>4.3715277777777777</v>
-      </c>
-      <c r="I21" s="27">
-        <f t="shared" si="0"/>
-        <v>14163.749999999998</v>
+        <v>14602.499999999998</v>
       </c>
       <c r="J21" s="9"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="8"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="12"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
@@ -1248,40 +1365,38 @@
       <c r="X21" s="9"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="B22" s="45"/>
       <c r="C22" s="7">
-        <v>0.51041666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="D22" s="22">
-        <v>0.5625</v>
+        <v>0.78125</v>
       </c>
       <c r="E22" s="24">
-        <f>D22-C22</f>
-        <v>5.208333333333337E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.125E-2</v>
       </c>
       <c r="F22" s="25">
         <f t="shared" si="4"/>
-        <v>0.61805555555555536</v>
+        <v>0.52430555555555536</v>
       </c>
       <c r="G22" s="19">
+        <f t="shared" si="2"/>
+        <v>0.52430555555555536</v>
+      </c>
+      <c r="H22" s="19">
+        <f t="shared" si="5"/>
+        <v>4.5381944444444438</v>
+      </c>
+      <c r="I22" s="27">
         <f t="shared" si="3"/>
-        <v>0.61805555555555536</v>
-      </c>
-      <c r="H22" s="19">
-        <f t="shared" si="2"/>
-        <v>4.4236111111111107</v>
-      </c>
-      <c r="I22" s="27">
-        <f t="shared" si="0"/>
-        <v>14332.499999999998</v>
+        <v>14703.749999999998</v>
       </c>
       <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="12"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
@@ -1294,38 +1409,38 @@
       <c r="X22" s="9"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="7">
-        <v>0.58333333333333337</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D23" s="22">
-        <v>0.59027777777777779</v>
+        <v>0.83680555555555547</v>
       </c>
       <c r="E23" s="24">
-        <f>D23-C23</f>
-        <v>6.9444444444444198E-3</v>
+        <f t="shared" si="1"/>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="F23" s="25">
-        <f>F22+E23</f>
-        <v>0.62499999999999978</v>
+        <f t="shared" si="4"/>
+        <v>0.56597222222222199</v>
       </c>
       <c r="G23" s="19">
+        <f t="shared" si="2"/>
+        <v>0.56597222222222199</v>
+      </c>
+      <c r="H23" s="19">
+        <f t="shared" si="5"/>
+        <v>4.5798611111111107</v>
+      </c>
+      <c r="I23" s="27">
         <f t="shared" si="3"/>
-        <v>0.62499999999999978</v>
-      </c>
-      <c r="H23" s="19">
-        <f t="shared" si="2"/>
-        <v>4.4305555555555554</v>
-      </c>
-      <c r="I23" s="27">
-        <f t="shared" si="0"/>
-        <v>14355</v>
+        <v>14838.749999999998</v>
       </c>
       <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="8"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
@@ -1338,32 +1453,34 @@
       <c r="X23" s="9"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
+      <c r="B24" s="47" t="s">
+        <v>12</v>
+      </c>
       <c r="C24" s="7">
-        <v>0.69444444444444453</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D24" s="22">
-        <v>0.81944444444444453</v>
+        <v>0.5625</v>
       </c>
       <c r="E24" s="24">
         <f>D24-C24</f>
-        <v>0.125</v>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="F24" s="25">
         <f t="shared" si="4"/>
-        <v>0.74999999999999978</v>
+        <v>0.61805555555555536</v>
       </c>
       <c r="G24" s="19">
+        <f t="shared" si="2"/>
+        <v>0.61805555555555536</v>
+      </c>
+      <c r="H24" s="19">
+        <f t="shared" si="5"/>
+        <v>4.6319444444444438</v>
+      </c>
+      <c r="I24" s="27">
         <f t="shared" si="3"/>
-        <v>0.74999999999999978</v>
-      </c>
-      <c r="H24" s="19">
-        <f t="shared" si="2"/>
-        <v>4.5555555555555554</v>
-      </c>
-      <c r="I24" s="27">
-        <f t="shared" si="0"/>
-        <v>14760</v>
+        <v>15007.499999999998</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -1382,32 +1499,32 @@
       <c r="X24" s="9"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="7">
-        <v>0.83333333333333337</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D25" s="22">
-        <v>0.85416666666666663</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="E25" s="24">
         <f>D25-C25</f>
-        <v>2.0833333333333259E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="F25" s="25">
-        <f t="shared" si="4"/>
-        <v>0.77083333333333304</v>
+        <f>F24+E25</f>
+        <v>0.62499999999999978</v>
       </c>
       <c r="G25" s="19">
+        <f t="shared" si="2"/>
+        <v>0.62499999999999978</v>
+      </c>
+      <c r="H25" s="19">
+        <f t="shared" si="5"/>
+        <v>4.6388888888888884</v>
+      </c>
+      <c r="I25" s="27">
         <f t="shared" si="3"/>
-        <v>0.77083333333333304</v>
-      </c>
-      <c r="H25" s="19">
-        <f t="shared" si="2"/>
-        <v>4.5763888888888884</v>
-      </c>
-      <c r="I25" s="27">
-        <f t="shared" si="0"/>
-        <v>14827.499999999998</v>
+        <v>15029.999999999998</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -1426,34 +1543,32 @@
       <c r="X25" s="9"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="29" t="s">
-        <v>19</v>
-      </c>
+      <c r="B26" s="47"/>
       <c r="C26" s="7">
-        <v>0.58333333333333337</v>
+        <v>0.69444444444444453</v>
       </c>
       <c r="D26" s="22">
-        <v>0.60763888888888895</v>
+        <v>0.81944444444444453</v>
       </c>
       <c r="E26" s="24">
-        <f t="shared" ref="E26:E32" si="5">D26-C26</f>
-        <v>2.430555555555558E-2</v>
+        <f>D26-C26</f>
+        <v>0.125</v>
       </c>
       <c r="F26" s="25">
-        <f>F25+E26</f>
-        <v>0.79513888888888862</v>
+        <f t="shared" si="4"/>
+        <v>0.74999999999999978</v>
       </c>
       <c r="G26" s="19">
+        <f t="shared" si="2"/>
+        <v>0.74999999999999978</v>
+      </c>
+      <c r="H26" s="19">
+        <f t="shared" si="5"/>
+        <v>4.7638888888888884</v>
+      </c>
+      <c r="I26" s="27">
         <f t="shared" si="3"/>
-        <v>0.79513888888888862</v>
-      </c>
-      <c r="H26" s="19">
-        <f t="shared" si="2"/>
-        <v>4.6006944444444438</v>
-      </c>
-      <c r="I26" s="27">
-        <f t="shared" si="0"/>
-        <v>14906.249999999998</v>
+        <v>15434.999999999998</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -1472,269 +1587,1259 @@
       <c r="X26" s="9"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="7">
-        <v>0.61111111111111105</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D27" s="22">
-        <v>0.6875</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E27" s="24">
-        <f t="shared" si="5"/>
-        <v>7.6388888888888951E-2</v>
+        <f>D27-C27</f>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="F27" s="25">
         <f t="shared" si="4"/>
-        <v>0.87152777777777757</v>
+        <v>0.77083333333333304</v>
       </c>
       <c r="G27" s="19">
+        <f t="shared" si="2"/>
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="H27" s="19">
+        <f t="shared" si="5"/>
+        <v>4.7847222222222214</v>
+      </c>
+      <c r="I27" s="27">
         <f t="shared" si="3"/>
-        <v>0.87152777777777757</v>
-      </c>
-      <c r="H27" s="19">
+        <v>15502.499999999998</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B28" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D28" s="22">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="E28" s="24">
+        <f t="shared" ref="E28:E37" si="6">D28-C28</f>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="F28" s="25">
+        <f>F27+E28</f>
+        <v>0.79513888888888862</v>
+      </c>
+      <c r="G28" s="19">
         <f t="shared" si="2"/>
-        <v>4.677083333333333</v>
-      </c>
-      <c r="I27" s="27">
-        <f t="shared" si="0"/>
-        <v>15153.75</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="24">
+        <v>0.79513888888888862</v>
+      </c>
+      <c r="H28" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="25">
+        <v>4.8090277777777768</v>
+      </c>
+      <c r="I28" s="27">
+        <f t="shared" si="3"/>
+        <v>15581.249999999996</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+    </row>
+    <row r="29" spans="2:24" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="46"/>
+      <c r="C29" s="31">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D29" s="32">
+        <v>0.6875</v>
+      </c>
+      <c r="E29" s="33">
+        <f t="shared" si="6"/>
+        <v>7.6388888888888951E-2</v>
+      </c>
+      <c r="F29" s="34">
         <f t="shared" si="4"/>
         <v>0.87152777777777757</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G29" s="35">
+        <f t="shared" si="2"/>
+        <v>0.87152777777777757</v>
+      </c>
+      <c r="H29" s="35">
+        <f t="shared" si="5"/>
+        <v>4.8854166666666661</v>
+      </c>
+      <c r="I29" s="36">
         <f t="shared" si="3"/>
-        <v>0.87152777777777757</v>
-      </c>
-      <c r="H28" s="19">
-        <f t="shared" si="2"/>
-        <v>4.677083333333333</v>
-      </c>
-      <c r="I28" s="27">
-        <f t="shared" si="0"/>
-        <v>15153.75</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="25">
-        <f t="shared" si="4"/>
-        <v>0.87152777777777757</v>
-      </c>
-      <c r="G29" s="19">
-        <f t="shared" si="3"/>
-        <v>0.87152777777777757</v>
-      </c>
-      <c r="H29" s="19">
-        <f t="shared" si="2"/>
-        <v>4.677083333333333</v>
-      </c>
-      <c r="I29" s="27">
-        <f t="shared" si="0"/>
-        <v>15153.75</v>
-      </c>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="25">
-        <f t="shared" si="4"/>
-        <v>0.87152777777777757</v>
-      </c>
-      <c r="G30" s="19">
-        <f t="shared" si="3"/>
-        <v>0.87152777777777757</v>
-      </c>
-      <c r="H30" s="19">
-        <f t="shared" si="2"/>
-        <v>4.677083333333333</v>
-      </c>
-      <c r="I30" s="27">
-        <f t="shared" si="0"/>
-        <v>15153.75</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="25">
-        <f t="shared" si="4"/>
-        <v>0.87152777777777757</v>
-      </c>
-      <c r="G31" s="19">
-        <f t="shared" si="3"/>
-        <v>0.87152777777777757</v>
-      </c>
-      <c r="H31" s="19">
-        <f t="shared" si="2"/>
-        <v>4.677083333333333</v>
-      </c>
-      <c r="I31" s="27">
-        <f t="shared" si="0"/>
-        <v>15153.75</v>
-      </c>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="25">
-        <f t="shared" si="4"/>
-        <v>0.87152777777777757</v>
-      </c>
-      <c r="G32" s="19">
-        <f t="shared" si="3"/>
-        <v>0.87152777777777757</v>
-      </c>
-      <c r="H32" s="19">
-        <f t="shared" si="2"/>
-        <v>4.677083333333333</v>
-      </c>
-      <c r="I32" s="27">
-        <f t="shared" si="0"/>
-        <v>15153.75</v>
+        <v>15828.749999999998</v>
+      </c>
+      <c r="K29" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="39"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="27"/>
+    </row>
+    <row r="31" spans="2:24" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="26"/>
+    </row>
+    <row r="32" spans="2:24" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="44"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="38">
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="24">
-        <f t="shared" ref="E33:E36" si="6">D33-C33</f>
-        <v>0</v>
+      <c r="B33" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="28">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D33" s="29">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E33" s="30">
+        <f>D33-C33</f>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="F33" s="25">
-        <f t="shared" ref="F33:F36" si="7">F32+E33</f>
-        <v>0.87152777777777757</v>
+        <f>E33</f>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="G33" s="19">
-        <f t="shared" ref="G33:G36" si="8">F33</f>
-        <v>0.87152777777777757</v>
+        <f>F33</f>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H33" s="19">
-        <f t="shared" ref="H33:H36" si="9">($H$7+F33)</f>
-        <v>4.677083333333333</v>
+        <f>G33</f>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="I33" s="27">
-        <f t="shared" si="0"/>
-        <v>15153.75</v>
+        <f>H33*24*$J$32</f>
+        <v>22.499999999999922</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="22"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="7">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D34" s="22">
+        <v>0.65625</v>
+      </c>
       <c r="E34" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.4722222222222099E-3</v>
       </c>
       <c r="F34" s="25">
-        <f t="shared" si="7"/>
-        <v>0.87152777777777757</v>
+        <f t="shared" si="4"/>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="G34" s="19">
-        <f t="shared" si="8"/>
-        <v>0.87152777777777757</v>
+        <f t="shared" si="2"/>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H34" s="19">
-        <f t="shared" si="9"/>
-        <v>4.677083333333333</v>
+        <f>(H33+G34-G33)</f>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="I34" s="27">
-        <f t="shared" ref="I33:I36" si="10">H34*24*130</f>
-        <v>14592.5</v>
+        <f>H34*24*$J$32</f>
+        <v>33.749999999999879</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="22"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="7">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="D35" s="22">
+        <v>0.68055555555555547</v>
+      </c>
       <c r="E35" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="F35" s="25">
-        <f t="shared" si="7"/>
-        <v>0.87152777777777757</v>
+        <f t="shared" si="4"/>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="G35" s="19">
-        <f t="shared" si="8"/>
-        <v>0.87152777777777757</v>
+        <f t="shared" si="2"/>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="H35" s="19">
-        <f t="shared" si="9"/>
-        <v>4.677083333333333</v>
+        <f t="shared" si="5"/>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="I35" s="27">
-        <f t="shared" si="10"/>
-        <v>14592.5</v>
+        <f t="shared" ref="I35:I41" si="7">H35*24*$J$32</f>
+        <v>67.499999999999758</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="22"/>
+      <c r="B36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D36" s="22">
+        <v>0.86805555555555547</v>
+      </c>
       <c r="E36" s="24">
         <f t="shared" si="6"/>
+        <v>4.513888888888884E-2</v>
+      </c>
+      <c r="F36" s="25">
+        <f t="shared" si="4"/>
+        <v>6.5972222222222099E-2</v>
+      </c>
+      <c r="G36" s="19">
+        <f t="shared" si="2"/>
+        <v>6.5972222222222099E-2</v>
+      </c>
+      <c r="H36" s="19">
+        <f t="shared" si="5"/>
+        <v>6.5972222222222099E-2</v>
+      </c>
+      <c r="I36" s="27">
+        <f t="shared" si="7"/>
+        <v>213.7499999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D37" s="22">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="E37" s="24">
+        <f t="shared" si="6"/>
+        <v>5.5555555555555691E-2</v>
+      </c>
+      <c r="F37" s="25">
+        <f t="shared" si="4"/>
+        <v>0.12152777777777779</v>
+      </c>
+      <c r="G37" s="19">
+        <f t="shared" si="2"/>
+        <v>0.12152777777777779</v>
+      </c>
+      <c r="H37" s="19">
+        <f t="shared" si="5"/>
+        <v>0.12152777777777779</v>
+      </c>
+      <c r="I37" s="27">
+        <f t="shared" si="7"/>
+        <v>393.75000000000006</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="45"/>
+      <c r="C38" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D38" s="22">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="E38" s="24">
+        <f t="shared" ref="E38:E41" si="8">D38-C38</f>
+        <v>4.513888888888884E-2</v>
+      </c>
+      <c r="F38" s="25">
+        <f t="shared" ref="F38:F41" si="9">F37+E38</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="G38" s="19">
+        <f t="shared" ref="G38:G41" si="10">F38</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="H38" s="19">
+        <f t="shared" si="5"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="I38" s="27">
+        <f t="shared" si="7"/>
+        <v>539.99999999999989</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="45"/>
+      <c r="C39" s="7">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D39" s="22">
+        <v>0.85069444444444453</v>
+      </c>
+      <c r="E39" s="24">
+        <f t="shared" si="8"/>
+        <v>7.2916666666666741E-2</v>
+      </c>
+      <c r="F39" s="25">
+        <f t="shared" si="9"/>
+        <v>0.23958333333333337</v>
+      </c>
+      <c r="G39" s="19">
+        <f t="shared" si="10"/>
+        <v>0.23958333333333337</v>
+      </c>
+      <c r="H39" s="19">
+        <f t="shared" si="5"/>
+        <v>0.23958333333333337</v>
+      </c>
+      <c r="I39" s="27">
+        <f t="shared" si="7"/>
+        <v>776.25000000000011</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="45"/>
+      <c r="C40" s="7">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="D40" s="22">
+        <v>1</v>
+      </c>
+      <c r="E40" s="24">
+        <f t="shared" si="8"/>
+        <v>6.9444444444444531E-2</v>
+      </c>
+      <c r="F40" s="25">
+        <f t="shared" si="9"/>
+        <v>0.3090277777777779</v>
+      </c>
+      <c r="G40" s="19">
+        <f t="shared" si="10"/>
+        <v>0.3090277777777779</v>
+      </c>
+      <c r="H40" s="19">
+        <f t="shared" si="5"/>
+        <v>0.3090277777777779</v>
+      </c>
+      <c r="I40" s="27">
+        <f t="shared" si="7"/>
+        <v>1001.2500000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="7">
         <v>0</v>
       </c>
-      <c r="F36" s="25">
+      <c r="D41" s="22">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E41" s="24">
+        <f t="shared" si="8"/>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="F41" s="25">
+        <f t="shared" si="9"/>
+        <v>0.31944444444444459</v>
+      </c>
+      <c r="G41" s="19">
+        <f t="shared" si="10"/>
+        <v>0.31944444444444459</v>
+      </c>
+      <c r="H41" s="19">
+        <f t="shared" si="5"/>
+        <v>0.31944444444444464</v>
+      </c>
+      <c r="I41" s="27">
         <f t="shared" si="7"/>
-        <v>0.87152777777777757</v>
-      </c>
-      <c r="G36" s="19">
-        <f t="shared" si="8"/>
-        <v>0.87152777777777757</v>
-      </c>
-      <c r="H36" s="19">
-        <f t="shared" si="9"/>
-        <v>4.677083333333333</v>
-      </c>
-      <c r="I36" s="27">
-        <f t="shared" si="10"/>
-        <v>14592.5</v>
+        <v>1035.0000000000007</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="45"/>
+      <c r="C42" s="7">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="D42" s="22">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="E42" s="24">
+        <f t="shared" ref="E42:E50" si="11">D42-C42</f>
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="F42" s="25">
+        <f t="shared" ref="F42:F50" si="12">F41+E42</f>
+        <v>0.39930555555555569</v>
+      </c>
+      <c r="G42" s="19">
+        <f t="shared" ref="G42:G50" si="13">F42</f>
+        <v>0.39930555555555569</v>
+      </c>
+      <c r="H42" s="19">
+        <f t="shared" ref="H42:H50" si="14">(H41+G42-G41)</f>
+        <v>0.39930555555555575</v>
+      </c>
+      <c r="I42" s="27">
+        <f t="shared" ref="I42:I50" si="15">H42*24*$J$32</f>
+        <v>1293.7500000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="45"/>
+      <c r="C43" s="7">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="D43" s="22">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="E43" s="24">
+        <f t="shared" si="11"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="F43" s="25">
+        <f t="shared" si="12"/>
+        <v>0.48263888888888906</v>
+      </c>
+      <c r="G43" s="19">
+        <f t="shared" si="13"/>
+        <v>0.48263888888888906</v>
+      </c>
+      <c r="H43" s="19">
+        <f t="shared" si="14"/>
+        <v>0.48263888888888917</v>
+      </c>
+      <c r="I43" s="27">
+        <f t="shared" si="15"/>
+        <v>1563.7500000000009</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="45"/>
+      <c r="C44" s="7">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D44" s="22">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="E44" s="24">
+        <f t="shared" si="11"/>
+        <v>4.5138888888888951E-2</v>
+      </c>
+      <c r="F44" s="25">
+        <f t="shared" si="12"/>
+        <v>0.52777777777777801</v>
+      </c>
+      <c r="G44" s="19">
+        <f t="shared" si="13"/>
+        <v>0.52777777777777801</v>
+      </c>
+      <c r="H44" s="19">
+        <f t="shared" si="14"/>
+        <v>0.52777777777777812</v>
+      </c>
+      <c r="I44" s="27">
+        <f t="shared" si="15"/>
+        <v>1710.0000000000011</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="45"/>
+      <c r="C45" s="7">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="D45" s="22">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="E45" s="24">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="F45" s="25">
+        <f t="shared" si="12"/>
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="G45" s="19">
+        <f t="shared" si="13"/>
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="H45" s="19">
+        <f t="shared" si="14"/>
+        <v>0.65277777777777823</v>
+      </c>
+      <c r="I45" s="27">
+        <f t="shared" si="15"/>
+        <v>2115.0000000000018</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="45"/>
+      <c r="C46" s="7">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="D46" s="22">
+        <v>1</v>
+      </c>
+      <c r="E46" s="24">
+        <f t="shared" si="11"/>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="F46" s="25">
+        <f t="shared" si="12"/>
+        <v>0.72569444444444464</v>
+      </c>
+      <c r="G46" s="19">
+        <f t="shared" si="13"/>
+        <v>0.72569444444444464</v>
+      </c>
+      <c r="H46" s="19">
+        <f t="shared" si="14"/>
+        <v>0.72569444444444475</v>
+      </c>
+      <c r="I46" s="27">
+        <f t="shared" si="15"/>
+        <v>2351.2500000000009</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0</v>
+      </c>
+      <c r="D47" s="22">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="E47" s="24">
+        <f t="shared" si="11"/>
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="F47" s="25">
+        <f t="shared" si="12"/>
+        <v>0.92013888888888906</v>
+      </c>
+      <c r="G47" s="19">
+        <f t="shared" si="13"/>
+        <v>0.92013888888888906</v>
+      </c>
+      <c r="H47" s="19">
+        <f t="shared" si="14"/>
+        <v>0.92013888888888928</v>
+      </c>
+      <c r="I47" s="27">
+        <f t="shared" si="15"/>
+        <v>2981.2500000000014</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="45"/>
+      <c r="C48" s="7">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D48" s="22">
+        <v>0.6875</v>
+      </c>
+      <c r="E48" s="24">
+        <f t="shared" si="11"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="F48" s="25">
+        <f t="shared" si="12"/>
+        <v>0.97222222222222243</v>
+      </c>
+      <c r="G48" s="19">
+        <f t="shared" si="13"/>
+        <v>0.97222222222222243</v>
+      </c>
+      <c r="H48" s="19">
+        <f t="shared" si="14"/>
+        <v>0.97222222222222254</v>
+      </c>
+      <c r="I48" s="27">
+        <f t="shared" si="15"/>
+        <v>3150.0000000000014</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="45"/>
+      <c r="C49" s="7">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="D49" s="22">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="E49" s="24">
+        <f t="shared" si="11"/>
+        <v>1.3888888888889062E-2</v>
+      </c>
+      <c r="F49" s="25">
+        <f t="shared" si="12"/>
+        <v>0.98611111111111149</v>
+      </c>
+      <c r="G49" s="19">
+        <f t="shared" si="13"/>
+        <v>0.98611111111111149</v>
+      </c>
+      <c r="H49" s="19">
+        <f t="shared" si="14"/>
+        <v>0.98611111111111149</v>
+      </c>
+      <c r="I49" s="27">
+        <f t="shared" si="15"/>
+        <v>3195.0000000000009</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="45"/>
+      <c r="C50" s="7">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D50" s="22">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="E50" s="24">
+        <f t="shared" si="11"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="F50" s="25">
+        <f t="shared" si="12"/>
+        <v>1.0069444444444446</v>
+      </c>
+      <c r="G50" s="19">
+        <f t="shared" si="13"/>
+        <v>1.0069444444444446</v>
+      </c>
+      <c r="H50" s="19">
+        <f t="shared" si="14"/>
+        <v>1.0069444444444446</v>
+      </c>
+      <c r="I50" s="27">
+        <f t="shared" si="15"/>
+        <v>3262.5000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="45"/>
+      <c r="C51" s="7">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="D51" s="22">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E51" s="24">
+        <f t="shared" ref="E51:E59" si="16">D51-C51</f>
+        <v>1.736111111111116E-2</v>
+      </c>
+      <c r="F51" s="25">
+        <f t="shared" ref="F51:F59" si="17">F50+E51</f>
+        <v>1.0243055555555558</v>
+      </c>
+      <c r="G51" s="19">
+        <f t="shared" ref="G51:G59" si="18">F51</f>
+        <v>1.0243055555555558</v>
+      </c>
+      <c r="H51" s="19">
+        <f t="shared" ref="H51:H59" si="19">(H50+G51-G50)</f>
+        <v>1.0243055555555558</v>
+      </c>
+      <c r="I51" s="27">
+        <f t="shared" ref="I51:I59" si="20">H51*24*$J$32</f>
+        <v>3318.7500000000009</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="45"/>
+      <c r="C52" s="7">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D52" s="22">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="E52" s="24">
+        <f t="shared" si="16"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="F52" s="25">
+        <f t="shared" si="17"/>
+        <v>1.0520833333333335</v>
+      </c>
+      <c r="G52" s="19">
+        <f t="shared" si="18"/>
+        <v>1.0520833333333335</v>
+      </c>
+      <c r="H52" s="19">
+        <f t="shared" si="19"/>
+        <v>1.0520833333333335</v>
+      </c>
+      <c r="I52" s="27">
+        <f t="shared" si="20"/>
+        <v>3408.7500000000005</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="45"/>
+      <c r="C53" s="7">
+        <v>0.99652777777777779</v>
+      </c>
+      <c r="D53" s="22">
+        <v>1</v>
+      </c>
+      <c r="E53" s="24">
+        <f t="shared" si="16"/>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="F53" s="25">
+        <f t="shared" si="17"/>
+        <v>1.0555555555555558</v>
+      </c>
+      <c r="G53" s="19">
+        <f t="shared" si="18"/>
+        <v>1.0555555555555558</v>
+      </c>
+      <c r="H53" s="19">
+        <f t="shared" si="19"/>
+        <v>1.0555555555555558</v>
+      </c>
+      <c r="I53" s="27">
+        <f t="shared" si="20"/>
+        <v>3420.0000000000009</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0</v>
+      </c>
+      <c r="D54" s="22">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="E54" s="24">
+        <f t="shared" si="16"/>
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="F54" s="25">
+        <f t="shared" si="17"/>
+        <v>1.1076388888888891</v>
+      </c>
+      <c r="G54" s="19">
+        <f t="shared" si="18"/>
+        <v>1.1076388888888891</v>
+      </c>
+      <c r="H54" s="19">
+        <f t="shared" si="19"/>
+        <v>1.1076388888888888</v>
+      </c>
+      <c r="I54" s="27">
+        <f t="shared" si="20"/>
+        <v>3588.75</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C55" s="7">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="D55" s="22">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="E55" s="24">
+        <f t="shared" si="16"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F55" s="25">
+        <f t="shared" si="17"/>
+        <v>1.1388888888888891</v>
+      </c>
+      <c r="G55" s="19">
+        <f t="shared" si="18"/>
+        <v>1.1388888888888891</v>
+      </c>
+      <c r="H55" s="19">
+        <f t="shared" si="19"/>
+        <v>1.1388888888888886</v>
+      </c>
+      <c r="I55" s="27">
+        <f t="shared" si="20"/>
+        <v>3689.9999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C56" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="D56" s="22">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="E56" s="24">
+        <f t="shared" si="16"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="F56" s="25">
+        <f t="shared" si="17"/>
+        <v>1.1736111111111112</v>
+      </c>
+      <c r="G56" s="19">
+        <f t="shared" si="18"/>
+        <v>1.1736111111111112</v>
+      </c>
+      <c r="H56" s="19">
+        <f t="shared" si="19"/>
+        <v>1.1736111111111109</v>
+      </c>
+      <c r="I56" s="27">
+        <f t="shared" si="20"/>
+        <v>3802.4999999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C57" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D57" s="22">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E57" s="24">
+        <f t="shared" si="16"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F57" s="25">
+        <f t="shared" si="17"/>
+        <v>1.2048611111111112</v>
+      </c>
+      <c r="G57" s="19">
+        <f t="shared" si="18"/>
+        <v>1.2048611111111112</v>
+      </c>
+      <c r="H57" s="19">
+        <f t="shared" si="19"/>
+        <v>1.2048611111111112</v>
+      </c>
+      <c r="I57" s="27">
+        <f t="shared" si="20"/>
+        <v>3903.75</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C58" s="7">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D58" s="22">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="E58" s="24">
+        <f t="shared" si="16"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="F58" s="25">
+        <f t="shared" si="17"/>
+        <v>1.2152777777777777</v>
+      </c>
+      <c r="G58" s="19">
+        <f t="shared" si="18"/>
+        <v>1.2152777777777777</v>
+      </c>
+      <c r="H58" s="19">
+        <f t="shared" si="19"/>
+        <v>1.2152777777777777</v>
+      </c>
+      <c r="I58" s="27">
+        <f t="shared" si="20"/>
+        <v>3937.4999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C59" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D59" s="22">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="E59" s="24">
+        <f t="shared" si="16"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F59" s="25">
+        <f t="shared" si="17"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="G59" s="19">
+        <f t="shared" si="18"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="H59" s="19">
+        <f t="shared" si="19"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="I59" s="27">
+        <f t="shared" si="20"/>
+        <v>4038.7499999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C60" s="7"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="24">
+        <f t="shared" ref="E60:E70" si="21">D60-C60</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="25">
+        <f t="shared" ref="F60:F70" si="22">F59+E60</f>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="G60" s="19">
+        <f t="shared" ref="G60:G70" si="23">F60</f>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="H60" s="19">
+        <f t="shared" ref="H60:H70" si="24">(H59+G60-G59)</f>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="I60" s="27">
+        <f t="shared" ref="I60:I70" si="25">H60*24*$J$32</f>
+        <v>4038.7499999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="7"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="25">
+        <f t="shared" si="22"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="G61" s="19">
+        <f t="shared" si="23"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="H61" s="19">
+        <f t="shared" si="24"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="I61" s="27">
+        <f t="shared" si="25"/>
+        <v>4038.7499999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="7"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="25">
+        <f t="shared" si="22"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="G62" s="19">
+        <f t="shared" si="23"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="H62" s="19">
+        <f t="shared" si="24"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="I62" s="27">
+        <f t="shared" si="25"/>
+        <v>4038.7499999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C63" s="7"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="25">
+        <f t="shared" si="22"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="G63" s="19">
+        <f t="shared" si="23"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="H63" s="19">
+        <f t="shared" si="24"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="I63" s="27">
+        <f t="shared" si="25"/>
+        <v>4038.7499999999995</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C64" s="7"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="25">
+        <f t="shared" si="22"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="G64" s="19">
+        <f t="shared" si="23"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="H64" s="19">
+        <f t="shared" si="24"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="I64" s="27">
+        <f t="shared" si="25"/>
+        <v>4038.7499999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C65" s="7"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="25">
+        <f t="shared" si="22"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="G65" s="19">
+        <f t="shared" si="23"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="H65" s="19">
+        <f t="shared" si="24"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="I65" s="27">
+        <f t="shared" si="25"/>
+        <v>4038.7499999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C66" s="7"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="25">
+        <f t="shared" si="22"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="G66" s="19">
+        <f t="shared" si="23"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="H66" s="19">
+        <f t="shared" si="24"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="I66" s="27">
+        <f t="shared" si="25"/>
+        <v>4038.7499999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C67" s="7"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F67" s="25">
+        <f t="shared" si="22"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="G67" s="19">
+        <f t="shared" si="23"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="H67" s="19">
+        <f t="shared" si="24"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="I67" s="27">
+        <f t="shared" si="25"/>
+        <v>4038.7499999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C68" s="7"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F68" s="25">
+        <f t="shared" si="22"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="G68" s="19">
+        <f t="shared" si="23"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="H68" s="19">
+        <f t="shared" si="24"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="I68" s="27">
+        <f t="shared" si="25"/>
+        <v>4038.7499999999995</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C69" s="7"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="25">
+        <f t="shared" si="22"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="G69" s="19">
+        <f t="shared" si="23"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="H69" s="19">
+        <f t="shared" si="24"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="I69" s="27">
+        <f t="shared" si="25"/>
+        <v>4038.7499999999995</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C70" s="7"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="25">
+        <f t="shared" si="22"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="G70" s="19">
+        <f t="shared" si="23"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="H70" s="19">
+        <f t="shared" si="24"/>
+        <v>1.2465277777777777</v>
+      </c>
+      <c r="I70" s="27">
+        <f t="shared" si="25"/>
+        <v>4038.7499999999995</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="14">
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B37:B40"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="K11:K15"/>
-    <mergeCell ref="K16:K20"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Vektorizace, první sada</t>
   </si>
@@ -107,6 +107,30 @@
   </si>
   <si>
     <t>13.10.</t>
+  </si>
+  <si>
+    <t>15.10.</t>
+  </si>
+  <si>
+    <t>16.10.</t>
+  </si>
+  <si>
+    <t>17.10.</t>
+  </si>
+  <si>
+    <t>18.10.</t>
+  </si>
+  <si>
+    <t>19.10.</t>
+  </si>
+  <si>
+    <t>EyeTracking</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>23.10.</t>
   </si>
 </sst>
 </file>
@@ -370,15 +394,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -393,9 +411,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -444,6 +459,9 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -763,64 +781,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X70"/>
+  <dimension ref="B1:X78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="6"/>
-    <col min="5" max="5" width="7.85546875" style="23" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="25"/>
-    <col min="7" max="7" width="9.140625" style="17"/>
-    <col min="8" max="8" width="11.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="4"/>
+    <col min="5" max="5" width="7.85546875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="22"/>
+    <col min="7" max="7" width="9.140625" style="14"/>
+    <col min="8" max="8" width="11.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="44" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="26"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="16" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="1">
@@ -828,1525 +846,1525 @@
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="16">
         <v>0.83333333333333337</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="16">
         <v>0.83333333333333337</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="24">
         <f>H4*24*$J$2</f>
         <v>2700</v>
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="H5" s="19"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="16">
         <v>2.9722222222222219</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="16">
         <f>H4+G7</f>
         <v>3.8055555555555554</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="24">
         <f>H7*24*$J$2</f>
         <v>12330</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="16">
         <v>0.20833333333333334</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="16">
         <f>H7+G9</f>
         <v>4.0138888888888884</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="24">
         <f t="shared" ref="I9" si="0">H9*24*$J$2</f>
         <v>13004.999999999998</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>0.5</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="19">
         <v>0.54861111111111105</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="21">
         <f t="shared" ref="E12:E23" si="1">D12-C12</f>
         <v>4.8611111111111049E-2</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="22">
         <f>E12</f>
         <v>4.8611111111111049E-2</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="16">
         <f>F12</f>
         <v>4.8611111111111049E-2</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="16">
         <f>(H9+G12)</f>
         <v>4.0624999999999991</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="24">
         <f>H12*24*$J$2</f>
         <v>13162.499999999996</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>0.5</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="19">
         <v>0.53472222222222221</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="21">
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="22">
         <f>F12+E13</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="16">
         <f t="shared" ref="G13:G37" si="2">F13</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="16">
         <f>(H12+G13-G12)</f>
         <v>4.0972222222222214</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="24">
         <f t="shared" ref="I13:I29" si="3">H13*24*$J$2</f>
         <v>13274.999999999998</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <v>0.625</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="19">
         <v>0.67361111111111116</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="21">
         <f t="shared" si="1"/>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="22">
         <f t="shared" ref="F14:F37" si="4">F13+E14</f>
         <v>0.13194444444444442</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="16">
         <f t="shared" si="2"/>
         <v>0.13194444444444442</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="16">
         <f t="shared" ref="H14:H41" si="5">(H13+G14-G13)</f>
         <v>4.145833333333333</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="24">
         <f t="shared" si="3"/>
         <v>13432.5</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
-      <c r="C15" s="7">
+      <c r="B15" s="43"/>
+      <c r="C15" s="5">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="19">
         <v>0.75</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="21">
         <f t="shared" si="1"/>
         <v>6.597222222222221E-2</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="22">
         <f t="shared" si="4"/>
         <v>0.19791666666666663</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="16">
         <f t="shared" si="2"/>
         <v>0.19791666666666663</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="16">
         <f t="shared" si="5"/>
         <v>4.2118055555555554</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="24">
         <f t="shared" si="3"/>
         <v>13646.25</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="45"/>
-      <c r="C16" s="7">
+      <c r="B16" s="43"/>
+      <c r="C16" s="5">
         <v>0.76041666666666663</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="19">
         <v>0.78125</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="21">
         <f t="shared" si="1"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="22">
         <f t="shared" si="4"/>
         <v>0.21875</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="16">
         <f t="shared" si="2"/>
         <v>0.21875</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="16">
         <f t="shared" si="5"/>
         <v>4.2326388888888884</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="24">
         <f t="shared" si="3"/>
         <v>13713.749999999998</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="45"/>
-      <c r="C17" s="7">
+      <c r="B17" s="43"/>
+      <c r="C17" s="5">
         <v>0.80208333333333337</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="19">
         <v>0.86458333333333337</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="21">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="22">
         <f t="shared" si="4"/>
         <v>0.28125</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="16">
         <f t="shared" si="2"/>
         <v>0.28125</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="16">
         <f t="shared" si="5"/>
         <v>4.2951388888888884</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="24">
         <f t="shared" si="3"/>
         <v>13916.249999999998</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="45"/>
-      <c r="C18" s="7">
+      <c r="B18" s="43"/>
+      <c r="C18" s="5">
         <v>0.875</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="19">
         <v>0.90625</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="21">
         <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="22">
         <f t="shared" si="4"/>
         <v>0.3125</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="16">
         <f t="shared" si="2"/>
         <v>0.3125</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="16">
         <f t="shared" si="5"/>
         <v>4.3263888888888884</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="24">
         <f t="shared" si="3"/>
         <v>14017.499999999998</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <v>0.49305555555555558</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="19">
         <v>0.54861111111111105</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="21">
         <f t="shared" si="1"/>
         <v>5.5555555555555469E-2</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="22">
         <f t="shared" si="4"/>
         <v>0.36805555555555547</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="16">
         <f t="shared" si="2"/>
         <v>0.36805555555555547</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="16">
         <f t="shared" si="5"/>
         <v>4.3819444444444438</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="24">
         <f t="shared" si="3"/>
         <v>14197.499999999998</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="45"/>
-      <c r="C20" s="7">
+      <c r="B20" s="43"/>
+      <c r="C20" s="5">
         <v>0.59722222222222221</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="19">
         <v>0.6875</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="21">
         <f t="shared" si="1"/>
         <v>9.027777777777779E-2</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="22">
         <f t="shared" si="4"/>
         <v>0.45833333333333326</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="16">
         <f t="shared" si="2"/>
         <v>0.45833333333333326</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="16">
         <f t="shared" si="5"/>
         <v>4.4722222222222214</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="24">
         <f t="shared" si="3"/>
         <v>14489.999999999998</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-      <c r="C21" s="7">
+      <c r="B21" s="43"/>
+      <c r="C21" s="5">
         <v>0.69444444444444453</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="19">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="21">
         <f t="shared" si="1"/>
         <v>3.4722222222222099E-2</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="22">
         <f t="shared" si="4"/>
         <v>0.49305555555555536</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="16">
         <f t="shared" si="2"/>
         <v>0.49305555555555536</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="16">
         <f t="shared" si="5"/>
         <v>4.5069444444444438</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="24">
         <f t="shared" si="3"/>
         <v>14602.499999999998</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="45"/>
-      <c r="C22" s="7">
+      <c r="B22" s="43"/>
+      <c r="C22" s="5">
         <v>0.75</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="19">
         <v>0.78125</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="21">
         <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="22">
         <f t="shared" si="4"/>
         <v>0.52430555555555536</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="16">
         <f t="shared" si="2"/>
         <v>0.52430555555555536</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="16">
         <f t="shared" si="5"/>
         <v>4.5381944444444438</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="24">
         <f t="shared" si="3"/>
         <v>14703.749999999998</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="45"/>
-      <c r="C23" s="7">
+      <c r="B23" s="43"/>
+      <c r="C23" s="5">
         <v>0.79513888888888884</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="19">
         <v>0.83680555555555547</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="21">
         <f t="shared" si="1"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="22">
         <f t="shared" si="4"/>
         <v>0.56597222222222199</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="16">
         <f t="shared" si="2"/>
         <v>0.56597222222222199</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="16">
         <f t="shared" si="5"/>
         <v>4.5798611111111107</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="24">
         <f t="shared" si="3"/>
         <v>14838.749999999998</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="19">
         <v>0.5625</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="21">
         <f>D24-C24</f>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="22">
         <f t="shared" si="4"/>
         <v>0.61805555555555536</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="16">
         <f t="shared" si="2"/>
         <v>0.61805555555555536</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="16">
         <f t="shared" si="5"/>
         <v>4.6319444444444438</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="24">
         <f t="shared" si="3"/>
         <v>15007.499999999998</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="47"/>
-      <c r="C25" s="7">
+      <c r="B25" s="45"/>
+      <c r="C25" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="19">
         <v>0.59027777777777779</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="21">
         <f>D25-C25</f>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="22">
         <f>F24+E25</f>
         <v>0.62499999999999978</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="16">
         <f t="shared" si="2"/>
         <v>0.62499999999999978</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="16">
         <f t="shared" si="5"/>
         <v>4.6388888888888884</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="24">
         <f t="shared" si="3"/>
         <v>15029.999999999998</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="47"/>
-      <c r="C26" s="7">
+      <c r="B26" s="45"/>
+      <c r="C26" s="5">
         <v>0.69444444444444453</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="19">
         <v>0.81944444444444453</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="21">
         <f>D26-C26</f>
         <v>0.125</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="22">
         <f t="shared" si="4"/>
         <v>0.74999999999999978</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="16">
         <f t="shared" si="2"/>
         <v>0.74999999999999978</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="16">
         <f t="shared" si="5"/>
         <v>4.7638888888888884</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="24">
         <f t="shared" si="3"/>
         <v>15434.999999999998</v>
       </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="47"/>
-      <c r="C27" s="7">
+      <c r="B27" s="45"/>
+      <c r="C27" s="5">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="19">
         <v>0.85416666666666663</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="21">
         <f>D27-C27</f>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="22">
         <f t="shared" si="4"/>
         <v>0.77083333333333304</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="16">
         <f t="shared" si="2"/>
         <v>0.77083333333333304</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="16">
         <f t="shared" si="5"/>
         <v>4.7847222222222214</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="24">
         <f t="shared" si="3"/>
         <v>15502.499999999998</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="19">
         <v>0.60763888888888895</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="21">
         <f t="shared" ref="E28:E37" si="6">D28-C28</f>
         <v>2.430555555555558E-2</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="22">
         <f>F27+E28</f>
         <v>0.79513888888888862</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="16">
         <f t="shared" si="2"/>
         <v>0.79513888888888862</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="16">
         <f t="shared" si="5"/>
         <v>4.8090277777777768</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="24">
         <f t="shared" si="3"/>
         <v>15581.249999999996</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-    </row>
-    <row r="29" spans="2:24" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="46"/>
-      <c r="C29" s="31">
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+    </row>
+    <row r="29" spans="2:24" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="44"/>
+      <c r="C29" s="28">
         <v>0.61111111111111105</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="29">
         <v>0.6875</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="30">
         <f t="shared" si="6"/>
         <v>7.6388888888888951E-2</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="31">
         <f t="shared" si="4"/>
         <v>0.87152777777777757</v>
       </c>
-      <c r="G29" s="35">
+      <c r="G29" s="32">
         <f t="shared" si="2"/>
         <v>0.87152777777777757</v>
       </c>
-      <c r="H29" s="35">
+      <c r="H29" s="32">
         <f t="shared" si="5"/>
         <v>4.8854166666666661</v>
       </c>
-      <c r="I29" s="36">
+      <c r="I29" s="33">
         <f t="shared" si="3"/>
         <v>15828.749999999998</v>
       </c>
-      <c r="K29" s="37" t="s">
+      <c r="K29" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:24" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="39"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="27"/>
-    </row>
-    <row r="31" spans="2:24" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="44" t="s">
+    <row r="30" spans="2:24" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="36"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="24"/>
+    </row>
+    <row r="31" spans="2:24" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="40"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="26"/>
-    </row>
-    <row r="32" spans="2:24" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="14" t="s">
+      <c r="I31" s="23"/>
+    </row>
+    <row r="32" spans="2:24" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="16" t="s">
+      <c r="E32" s="42"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="26" t="s">
+      <c r="I32" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J32" s="38">
+      <c r="J32" s="35">
         <v>135</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="25">
         <v>0.63888888888888895</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="27">
         <f>D33-C33</f>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="22">
         <f>E33</f>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="16">
         <f>F33</f>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="16">
         <f>G33</f>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="I33" s="27">
+      <c r="I33" s="24">
         <f>H33*24*$J$32</f>
         <v>22.499999999999922</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="45"/>
-      <c r="C34" s="7">
+      <c r="B34" s="43"/>
+      <c r="C34" s="5">
         <v>0.65277777777777779</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="19">
         <v>0.65625</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="21">
         <f t="shared" si="6"/>
         <v>3.4722222222222099E-3</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="22">
         <f t="shared" si="4"/>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="16">
         <f t="shared" si="2"/>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="16">
         <f>(H33+G34-G33)</f>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="I34" s="27">
+      <c r="I34" s="24">
         <f>H34*24*$J$32</f>
         <v>33.749999999999879</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="45"/>
-      <c r="C35" s="7">
+      <c r="B35" s="43"/>
+      <c r="C35" s="5">
         <v>0.67013888888888884</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="19">
         <v>0.68055555555555547</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="21">
         <f t="shared" si="6"/>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="22">
         <f t="shared" si="4"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="16">
         <f t="shared" si="2"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="16">
         <f t="shared" si="5"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="I35" s="27">
+      <c r="I35" s="24">
         <f t="shared" ref="I35:I41" si="7">H35*24*$J$32</f>
         <v>67.499999999999758</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="5">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="19">
         <v>0.86805555555555547</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="21">
         <f t="shared" si="6"/>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="22">
         <f t="shared" si="4"/>
         <v>6.5972222222222099E-2</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="16">
         <f t="shared" si="2"/>
         <v>6.5972222222222099E-2</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="16">
         <f t="shared" si="5"/>
         <v>6.5972222222222099E-2</v>
       </c>
-      <c r="I36" s="27">
+      <c r="I36" s="24">
         <f t="shared" si="7"/>
         <v>213.7499999999996</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="5">
         <v>0.70138888888888884</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="19">
         <v>0.75694444444444453</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="21">
         <f t="shared" si="6"/>
         <v>5.5555555555555691E-2</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="22">
         <f t="shared" si="4"/>
         <v>0.12152777777777779</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="16">
         <f t="shared" si="2"/>
         <v>0.12152777777777779</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H37" s="16">
         <f t="shared" si="5"/>
         <v>0.12152777777777779</v>
       </c>
-      <c r="I37" s="27">
+      <c r="I37" s="24">
         <f t="shared" si="7"/>
         <v>393.75000000000006</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="45"/>
-      <c r="C38" s="7">
+      <c r="B38" s="43"/>
+      <c r="C38" s="5">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="19">
         <v>0.81597222222222221</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="21">
         <f t="shared" ref="E38:E41" si="8">D38-C38</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="22">
         <f t="shared" ref="F38:F41" si="9">F37+E38</f>
         <v>0.16666666666666663</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G38" s="16">
         <f t="shared" ref="G38:G41" si="10">F38</f>
         <v>0.16666666666666663</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="16">
         <f t="shared" si="5"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="I38" s="27">
+      <c r="I38" s="24">
         <f t="shared" si="7"/>
         <v>539.99999999999989</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="45"/>
-      <c r="C39" s="7">
+      <c r="B39" s="43"/>
+      <c r="C39" s="5">
         <v>0.77777777777777779</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="19">
         <v>0.85069444444444453</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="21">
         <f t="shared" si="8"/>
         <v>7.2916666666666741E-2</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F39" s="22">
         <f t="shared" si="9"/>
         <v>0.23958333333333337</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="16">
         <f t="shared" si="10"/>
         <v>0.23958333333333337</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="16">
         <f t="shared" si="5"/>
         <v>0.23958333333333337</v>
       </c>
-      <c r="I39" s="27">
+      <c r="I39" s="24">
         <f t="shared" si="7"/>
         <v>776.25000000000011</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="45"/>
-      <c r="C40" s="7">
+      <c r="B40" s="43"/>
+      <c r="C40" s="5">
         <v>0.93055555555555547</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="19">
         <v>1</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="21">
         <f t="shared" si="8"/>
         <v>6.9444444444444531E-2</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="22">
         <f t="shared" si="9"/>
         <v>0.3090277777777779</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="16">
         <f t="shared" si="10"/>
         <v>0.3090277777777779</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="16">
         <f t="shared" si="5"/>
         <v>0.3090277777777779</v>
       </c>
-      <c r="I40" s="27">
+      <c r="I40" s="24">
         <f t="shared" si="7"/>
         <v>1001.2500000000005</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="5">
         <v>0</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="19">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="21">
         <f t="shared" si="8"/>
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="F41" s="25">
+      <c r="F41" s="22">
         <f t="shared" si="9"/>
         <v>0.31944444444444459</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="16">
         <f t="shared" si="10"/>
         <v>0.31944444444444459</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H41" s="16">
         <f t="shared" si="5"/>
         <v>0.31944444444444464</v>
       </c>
-      <c r="I41" s="27">
+      <c r="I41" s="24">
         <f t="shared" si="7"/>
         <v>1035.0000000000007</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="45"/>
-      <c r="C42" s="7">
+      <c r="B42" s="43"/>
+      <c r="C42" s="5">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="19">
         <v>0.13194444444444445</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="21">
         <f t="shared" ref="E42:E50" si="11">D42-C42</f>
         <v>7.9861111111111105E-2</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F42" s="22">
         <f t="shared" ref="F42:F50" si="12">F41+E42</f>
         <v>0.39930555555555569</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G42" s="16">
         <f t="shared" ref="G42:G50" si="13">F42</f>
         <v>0.39930555555555569</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H42" s="16">
         <f t="shared" ref="H42:H50" si="14">(H41+G42-G41)</f>
         <v>0.39930555555555575</v>
       </c>
-      <c r="I42" s="27">
+      <c r="I42" s="24">
         <f t="shared" ref="I42:I50" si="15">H42*24*$J$32</f>
         <v>1293.7500000000005</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="45"/>
-      <c r="C43" s="7">
+      <c r="B43" s="43"/>
+      <c r="C43" s="5">
         <v>0.60069444444444442</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="19">
         <v>0.68402777777777779</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="21">
         <f t="shared" si="11"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="F43" s="25">
+      <c r="F43" s="22">
         <f t="shared" si="12"/>
         <v>0.48263888888888906</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="16">
         <f t="shared" si="13"/>
         <v>0.48263888888888906</v>
       </c>
-      <c r="H43" s="19">
+      <c r="H43" s="16">
         <f t="shared" si="14"/>
         <v>0.48263888888888917</v>
       </c>
-      <c r="I43" s="27">
+      <c r="I43" s="24">
         <f t="shared" si="15"/>
         <v>1563.7500000000009</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="45"/>
-      <c r="C44" s="7">
+      <c r="B44" s="43"/>
+      <c r="C44" s="5">
         <v>0.70138888888888884</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="19">
         <v>0.74652777777777779</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="21">
         <f t="shared" si="11"/>
         <v>4.5138888888888951E-2</v>
       </c>
-      <c r="F44" s="25">
+      <c r="F44" s="22">
         <f t="shared" si="12"/>
         <v>0.52777777777777801</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44" s="16">
         <f t="shared" si="13"/>
         <v>0.52777777777777801</v>
       </c>
-      <c r="H44" s="19">
+      <c r="H44" s="16">
         <f t="shared" si="14"/>
         <v>0.52777777777777812</v>
       </c>
-      <c r="I44" s="27">
+      <c r="I44" s="24">
         <f t="shared" si="15"/>
         <v>1710.0000000000011</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="45"/>
-      <c r="C45" s="7">
+      <c r="B45" s="43"/>
+      <c r="C45" s="5">
         <v>0.78472222222222221</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="19">
         <v>0.90972222222222221</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="21">
         <f t="shared" si="11"/>
         <v>0.125</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F45" s="22">
         <f t="shared" si="12"/>
         <v>0.65277777777777801</v>
       </c>
-      <c r="G45" s="19">
+      <c r="G45" s="16">
         <f t="shared" si="13"/>
         <v>0.65277777777777801</v>
       </c>
-      <c r="H45" s="19">
+      <c r="H45" s="16">
         <f t="shared" si="14"/>
         <v>0.65277777777777823</v>
       </c>
-      <c r="I45" s="27">
+      <c r="I45" s="24">
         <f t="shared" si="15"/>
         <v>2115.0000000000018</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="45"/>
-      <c r="C46" s="7">
+      <c r="B46" s="43"/>
+      <c r="C46" s="5">
         <v>0.92708333333333337</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="19">
         <v>1</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="21">
         <f t="shared" si="11"/>
         <v>7.291666666666663E-2</v>
       </c>
-      <c r="F46" s="25">
+      <c r="F46" s="22">
         <f t="shared" si="12"/>
         <v>0.72569444444444464</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G46" s="16">
         <f t="shared" si="13"/>
         <v>0.72569444444444464</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H46" s="16">
         <f t="shared" si="14"/>
         <v>0.72569444444444475</v>
       </c>
-      <c r="I46" s="27">
+      <c r="I46" s="24">
         <f t="shared" si="15"/>
         <v>2351.2500000000009</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="5">
         <v>0</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="19">
         <v>0.19444444444444445</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E47" s="21">
         <f t="shared" si="11"/>
         <v>0.19444444444444445</v>
       </c>
-      <c r="F47" s="25">
+      <c r="F47" s="22">
         <f t="shared" si="12"/>
         <v>0.92013888888888906</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47" s="16">
         <f t="shared" si="13"/>
         <v>0.92013888888888906</v>
       </c>
-      <c r="H47" s="19">
+      <c r="H47" s="16">
         <f t="shared" si="14"/>
         <v>0.92013888888888928</v>
       </c>
-      <c r="I47" s="27">
+      <c r="I47" s="24">
         <f t="shared" si="15"/>
         <v>2981.2500000000014</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="45"/>
-      <c r="C48" s="7">
+      <c r="B48" s="43"/>
+      <c r="C48" s="5">
         <v>0.63541666666666663</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="19">
         <v>0.6875</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E48" s="21">
         <f t="shared" si="11"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F48" s="25">
+      <c r="F48" s="22">
         <f t="shared" si="12"/>
         <v>0.97222222222222243</v>
       </c>
-      <c r="G48" s="19">
+      <c r="G48" s="16">
         <f t="shared" si="13"/>
         <v>0.97222222222222243</v>
       </c>
-      <c r="H48" s="19">
+      <c r="H48" s="16">
         <f t="shared" si="14"/>
         <v>0.97222222222222254</v>
       </c>
-      <c r="I48" s="27">
+      <c r="I48" s="24">
         <f t="shared" si="15"/>
         <v>3150.0000000000014</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="45"/>
-      <c r="C49" s="7">
+      <c r="B49" s="43"/>
+      <c r="C49" s="5">
         <v>0.74305555555555547</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="19">
         <v>0.75694444444444453</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="21">
         <f t="shared" si="11"/>
         <v>1.3888888888889062E-2</v>
       </c>
-      <c r="F49" s="25">
+      <c r="F49" s="22">
         <f t="shared" si="12"/>
         <v>0.98611111111111149</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G49" s="16">
         <f t="shared" si="13"/>
         <v>0.98611111111111149</v>
       </c>
-      <c r="H49" s="19">
+      <c r="H49" s="16">
         <f t="shared" si="14"/>
         <v>0.98611111111111149</v>
       </c>
-      <c r="I49" s="27">
+      <c r="I49" s="24">
         <f t="shared" si="15"/>
         <v>3195.0000000000009</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="45"/>
-      <c r="C50" s="7">
+      <c r="B50" s="43"/>
+      <c r="C50" s="5">
         <v>0.78819444444444453</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="19">
         <v>0.80902777777777779</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="21">
         <f t="shared" si="11"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="F50" s="25">
+      <c r="F50" s="22">
         <f t="shared" si="12"/>
         <v>1.0069444444444446</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G50" s="16">
         <f t="shared" si="13"/>
         <v>1.0069444444444446</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H50" s="16">
         <f t="shared" si="14"/>
         <v>1.0069444444444446</v>
       </c>
-      <c r="I50" s="27">
+      <c r="I50" s="24">
         <f t="shared" si="15"/>
         <v>3262.5000000000005</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="45"/>
-      <c r="C51" s="7">
+      <c r="B51" s="43"/>
+      <c r="C51" s="5">
         <v>0.81597222222222221</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="19">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E51" s="24">
+      <c r="E51" s="21">
         <f t="shared" ref="E51:E59" si="16">D51-C51</f>
         <v>1.736111111111116E-2</v>
       </c>
-      <c r="F51" s="25">
+      <c r="F51" s="22">
         <f t="shared" ref="F51:F59" si="17">F50+E51</f>
         <v>1.0243055555555558</v>
       </c>
-      <c r="G51" s="19">
+      <c r="G51" s="16">
         <f t="shared" ref="G51:G59" si="18">F51</f>
         <v>1.0243055555555558</v>
       </c>
-      <c r="H51" s="19">
+      <c r="H51" s="16">
         <f t="shared" ref="H51:H59" si="19">(H50+G51-G50)</f>
         <v>1.0243055555555558</v>
       </c>
-      <c r="I51" s="27">
+      <c r="I51" s="24">
         <f t="shared" ref="I51:I59" si="20">H51*24*$J$32</f>
         <v>3318.7500000000009</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="45"/>
-      <c r="C52" s="7">
+      <c r="B52" s="43"/>
+      <c r="C52" s="5">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="19">
         <v>0.92361111111111116</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="21">
         <f t="shared" si="16"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="F52" s="25">
+      <c r="F52" s="22">
         <f t="shared" si="17"/>
         <v>1.0520833333333335</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G52" s="16">
         <f t="shared" si="18"/>
         <v>1.0520833333333335</v>
       </c>
-      <c r="H52" s="19">
+      <c r="H52" s="16">
         <f t="shared" si="19"/>
         <v>1.0520833333333335</v>
       </c>
-      <c r="I52" s="27">
+      <c r="I52" s="24">
         <f t="shared" si="20"/>
         <v>3408.7500000000005</v>
       </c>
@@ -2355,30 +2373,30 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="45"/>
-      <c r="C53" s="7">
+      <c r="B53" s="43"/>
+      <c r="C53" s="5">
         <v>0.99652777777777779</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="19">
         <v>1</v>
       </c>
-      <c r="E53" s="24">
+      <c r="E53" s="21">
         <f t="shared" si="16"/>
         <v>3.4722222222222099E-3</v>
       </c>
-      <c r="F53" s="25">
+      <c r="F53" s="22">
         <f t="shared" si="17"/>
         <v>1.0555555555555558</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="16">
         <f t="shared" si="18"/>
         <v>1.0555555555555558</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H53" s="16">
         <f t="shared" si="19"/>
         <v>1.0555555555555558</v>
       </c>
-      <c r="I53" s="27">
+      <c r="I53" s="24">
         <f t="shared" si="20"/>
         <v>3420.0000000000009</v>
       </c>
@@ -2387,32 +2405,32 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="5">
         <v>0</v>
       </c>
-      <c r="D54" s="22">
+      <c r="D54" s="19">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="E54" s="24">
+      <c r="E54" s="21">
         <f t="shared" si="16"/>
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="F54" s="25">
+      <c r="F54" s="22">
         <f t="shared" si="17"/>
         <v>1.1076388888888891</v>
       </c>
-      <c r="G54" s="19">
+      <c r="G54" s="16">
         <f t="shared" si="18"/>
         <v>1.1076388888888891</v>
       </c>
-      <c r="H54" s="19">
+      <c r="H54" s="16">
         <f t="shared" si="19"/>
         <v>1.1076388888888888</v>
       </c>
-      <c r="I54" s="27">
+      <c r="I54" s="24">
         <f t="shared" si="20"/>
         <v>3588.75</v>
       </c>
@@ -2421,411 +2439,696 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C55" s="7">
+      <c r="B55" s="43"/>
+      <c r="C55" s="5">
         <v>0.19444444444444445</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="19">
         <v>0.22569444444444445</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E55" s="21">
         <f t="shared" si="16"/>
         <v>3.125E-2</v>
       </c>
-      <c r="F55" s="25">
+      <c r="F55" s="22">
         <f t="shared" si="17"/>
         <v>1.1388888888888891</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G55" s="16">
         <f t="shared" si="18"/>
         <v>1.1388888888888891</v>
       </c>
-      <c r="H55" s="19">
+      <c r="H55" s="16">
         <f t="shared" si="19"/>
         <v>1.1388888888888886</v>
       </c>
-      <c r="I55" s="27">
+      <c r="I55" s="24">
         <f t="shared" si="20"/>
         <v>3689.9999999999995</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C56" s="7">
+      <c r="B56" s="43"/>
+      <c r="C56" s="5">
         <v>0.625</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D56" s="19">
         <v>0.65972222222222221</v>
       </c>
-      <c r="E56" s="24">
+      <c r="E56" s="21">
         <f t="shared" si="16"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="F56" s="25">
+      <c r="F56" s="22">
         <f t="shared" si="17"/>
         <v>1.1736111111111112</v>
       </c>
-      <c r="G56" s="19">
+      <c r="G56" s="16">
         <f t="shared" si="18"/>
         <v>1.1736111111111112</v>
       </c>
-      <c r="H56" s="19">
+      <c r="H56" s="16">
         <f t="shared" si="19"/>
         <v>1.1736111111111109</v>
       </c>
-      <c r="I56" s="27">
+      <c r="I56" s="24">
         <f t="shared" si="20"/>
         <v>3802.4999999999995</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C57" s="7">
+      <c r="B57" s="43"/>
+      <c r="C57" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="19">
         <v>0.69791666666666663</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="21">
         <f t="shared" si="16"/>
         <v>3.125E-2</v>
       </c>
-      <c r="F57" s="25">
+      <c r="F57" s="22">
         <f t="shared" si="17"/>
         <v>1.2048611111111112</v>
       </c>
-      <c r="G57" s="19">
+      <c r="G57" s="16">
         <f t="shared" si="18"/>
         <v>1.2048611111111112</v>
       </c>
-      <c r="H57" s="19">
+      <c r="H57" s="16">
         <f t="shared" si="19"/>
         <v>1.2048611111111112</v>
       </c>
-      <c r="I57" s="27">
+      <c r="I57" s="24">
         <f t="shared" si="20"/>
         <v>3903.75</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C58" s="7">
+      <c r="B58" s="43"/>
+      <c r="C58" s="5">
         <v>0.70138888888888884</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="19">
         <v>0.71180555555555547</v>
       </c>
-      <c r="E58" s="24">
+      <c r="E58" s="21">
         <f t="shared" si="16"/>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="F58" s="25">
+      <c r="F58" s="22">
         <f t="shared" si="17"/>
         <v>1.2152777777777777</v>
       </c>
-      <c r="G58" s="19">
+      <c r="G58" s="16">
         <f t="shared" si="18"/>
         <v>1.2152777777777777</v>
       </c>
-      <c r="H58" s="19">
+      <c r="H58" s="16">
         <f t="shared" si="19"/>
         <v>1.2152777777777777</v>
       </c>
-      <c r="I58" s="27">
+      <c r="I58" s="24">
         <f t="shared" si="20"/>
         <v>3937.4999999999995</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="7">
+      <c r="B59" s="43"/>
+      <c r="C59" s="5">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="19">
         <v>0.76041666666666663</v>
       </c>
-      <c r="E59" s="24">
+      <c r="E59" s="21">
         <f t="shared" si="16"/>
         <v>3.125E-2</v>
       </c>
-      <c r="F59" s="25">
+      <c r="F59" s="22">
         <f t="shared" si="17"/>
         <v>1.2465277777777777</v>
       </c>
-      <c r="G59" s="19">
+      <c r="G59" s="16">
         <f t="shared" si="18"/>
         <v>1.2465277777777777</v>
       </c>
-      <c r="H59" s="19">
+      <c r="H59" s="16">
         <f t="shared" si="19"/>
         <v>1.2465277777777777</v>
       </c>
-      <c r="I59" s="27">
+      <c r="I59" s="24">
         <f t="shared" si="20"/>
         <v>4038.7499999999995</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="7"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="24">
+      <c r="B60" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="D60" s="19">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E60" s="21">
         <f t="shared" ref="E60:E70" si="21">D60-C60</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="F60" s="22">
+        <f t="shared" ref="F60:F70" si="22">F59+E60</f>
+        <v>1.2673611111111109</v>
+      </c>
+      <c r="G60" s="16">
+        <f t="shared" ref="G60:G70" si="23">F60</f>
+        <v>1.2673611111111109</v>
+      </c>
+      <c r="H60" s="16">
+        <f t="shared" ref="H60:H70" si="24">(H59+G60-G59)</f>
+        <v>1.2673611111111107</v>
+      </c>
+      <c r="I60" s="24">
+        <f t="shared" ref="I60:I70" si="25">H60*24*$J$32</f>
+        <v>4106.2499999999991</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D61" s="19">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="E61" s="21">
+        <f t="shared" si="21"/>
+        <v>5.9027777777777901E-2</v>
+      </c>
+      <c r="F61" s="22">
+        <f t="shared" si="22"/>
+        <v>1.3263888888888888</v>
+      </c>
+      <c r="G61" s="16">
+        <f t="shared" si="23"/>
+        <v>1.3263888888888888</v>
+      </c>
+      <c r="H61" s="16">
+        <f t="shared" si="24"/>
+        <v>1.3263888888888886</v>
+      </c>
+      <c r="I61" s="24">
+        <f t="shared" si="25"/>
+        <v>4297.4999999999991</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="43"/>
+      <c r="C62" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D62" s="19">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="E62" s="21">
+        <f t="shared" si="21"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="F62" s="22">
+        <f t="shared" si="22"/>
+        <v>1.3541666666666665</v>
+      </c>
+      <c r="G62" s="16">
+        <f t="shared" si="23"/>
+        <v>1.3541666666666665</v>
+      </c>
+      <c r="H62" s="16">
+        <f t="shared" si="24"/>
+        <v>1.3541666666666665</v>
+      </c>
+      <c r="I62" s="24">
+        <f t="shared" si="25"/>
+        <v>4387.5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="D63" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="E63" s="21">
+        <f t="shared" si="21"/>
+        <v>1.736111111111116E-2</v>
+      </c>
+      <c r="F63" s="22">
+        <f t="shared" si="22"/>
+        <v>1.3715277777777777</v>
+      </c>
+      <c r="G63" s="16">
+        <f t="shared" si="23"/>
+        <v>1.3715277777777777</v>
+      </c>
+      <c r="H63" s="16">
+        <f t="shared" si="24"/>
+        <v>1.3715277777777777</v>
+      </c>
+      <c r="I63" s="24">
+        <f t="shared" si="25"/>
+        <v>4443.75</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="43"/>
+      <c r="C64" s="5">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="D64" s="19">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="E64" s="21">
+        <f t="shared" si="21"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F64" s="22">
+        <f t="shared" si="22"/>
+        <v>1.3923611111111112</v>
+      </c>
+      <c r="G64" s="16">
+        <f t="shared" si="23"/>
+        <v>1.3923611111111112</v>
+      </c>
+      <c r="H64" s="16">
+        <f t="shared" si="24"/>
+        <v>1.3923611111111112</v>
+      </c>
+      <c r="I64" s="24">
+        <f t="shared" si="25"/>
+        <v>4511.2500000000009</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="43"/>
+      <c r="C65" s="5">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D65" s="19">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E65" s="21">
+        <f t="shared" si="21"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="F65" s="22">
+        <f t="shared" si="22"/>
+        <v>1.4201388888888888</v>
+      </c>
+      <c r="G65" s="16">
+        <f t="shared" si="23"/>
+        <v>1.4201388888888888</v>
+      </c>
+      <c r="H65" s="16">
+        <f t="shared" si="24"/>
+        <v>1.4201388888888888</v>
+      </c>
+      <c r="I65" s="24">
+        <f t="shared" si="25"/>
+        <v>4601.2499999999991</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="D66" s="19">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="E66" s="21">
+        <f t="shared" si="21"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="F66" s="22">
+        <f t="shared" si="22"/>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="G66" s="16">
+        <f t="shared" si="23"/>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="H66" s="16">
+        <f t="shared" si="24"/>
+        <v>1.4444444444444442</v>
+      </c>
+      <c r="I66" s="24">
+        <f t="shared" si="25"/>
+        <v>4679.9999999999991</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="43"/>
+      <c r="C67" s="5">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D67" s="19">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="E67" s="21">
+        <f t="shared" si="21"/>
+        <v>0.1215277777777779</v>
+      </c>
+      <c r="F67" s="22">
+        <f t="shared" si="22"/>
+        <v>1.5659722222222223</v>
+      </c>
+      <c r="G67" s="16">
+        <f t="shared" si="23"/>
+        <v>1.5659722222222223</v>
+      </c>
+      <c r="H67" s="16">
+        <f t="shared" si="24"/>
+        <v>1.5659722222222221</v>
+      </c>
+      <c r="I67" s="24">
+        <f t="shared" si="25"/>
+        <v>5073.7499999999991</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="43"/>
+      <c r="C68" s="5">
+        <v>0.89930555555555547</v>
+      </c>
+      <c r="D68" s="19">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="E68" s="21">
+        <f t="shared" si="21"/>
+        <v>1.3888888888889062E-2</v>
+      </c>
+      <c r="F68" s="22">
+        <f t="shared" si="22"/>
+        <v>1.5798611111111114</v>
+      </c>
+      <c r="G68" s="16">
+        <f t="shared" si="23"/>
+        <v>1.5798611111111114</v>
+      </c>
+      <c r="H68" s="16">
+        <f t="shared" si="24"/>
+        <v>1.5798611111111112</v>
+      </c>
+      <c r="I68" s="24">
+        <f t="shared" si="25"/>
+        <v>5118.7500000000009</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="43"/>
+      <c r="C69" s="5">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="D69" s="19">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E69" s="21">
+        <f t="shared" si="21"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="F69" s="22">
+        <f t="shared" si="22"/>
+        <v>1.6145833333333335</v>
+      </c>
+      <c r="G69" s="16">
+        <f t="shared" si="23"/>
+        <v>1.6145833333333335</v>
+      </c>
+      <c r="H69" s="16">
+        <f t="shared" si="24"/>
+        <v>1.6145833333333333</v>
+      </c>
+      <c r="I69" s="24">
+        <f t="shared" si="25"/>
+        <v>5231.25</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="D70" s="19">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="E70" s="21">
+        <f t="shared" si="21"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F70" s="22">
+        <f t="shared" si="22"/>
+        <v>1.635416666666667</v>
+      </c>
+      <c r="G70" s="16">
+        <f t="shared" si="23"/>
+        <v>1.635416666666667</v>
+      </c>
+      <c r="H70" s="16">
+        <f t="shared" si="24"/>
+        <v>1.6354166666666665</v>
+      </c>
+      <c r="I70" s="24">
+        <f t="shared" si="25"/>
+        <v>5298.75</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="43"/>
+      <c r="C71" s="5">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D71" s="19">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E71" s="21">
+        <f t="shared" ref="E71:E78" si="26">D71-C71</f>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="F71" s="22">
+        <f t="shared" ref="F71:F78" si="27">F70+E71</f>
+        <v>1.6909722222222225</v>
+      </c>
+      <c r="G71" s="16">
+        <f t="shared" ref="G71:G78" si="28">F71</f>
+        <v>1.6909722222222225</v>
+      </c>
+      <c r="H71" s="16">
+        <f t="shared" ref="H71:H78" si="29">(H70+G71-G70)</f>
+        <v>1.6909722222222223</v>
+      </c>
+      <c r="I71" s="24">
+        <f t="shared" ref="I71:I78" si="30">H71*24*$J$32</f>
+        <v>5478.75</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="5">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="D72" s="19">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E72" s="21">
+        <f t="shared" si="26"/>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="F72" s="22">
+        <f t="shared" si="27"/>
+        <v>1.7812500000000002</v>
+      </c>
+      <c r="G72" s="16">
+        <f t="shared" si="28"/>
+        <v>1.7812500000000002</v>
+      </c>
+      <c r="H72" s="16">
+        <f t="shared" si="29"/>
+        <v>1.7812499999999998</v>
+      </c>
+      <c r="I72" s="24">
+        <f t="shared" si="30"/>
+        <v>5771.2499999999991</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C73" s="5"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="21">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F60" s="25">
-        <f t="shared" ref="F60:F70" si="22">F59+E60</f>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="G60" s="19">
-        <f t="shared" ref="G60:G70" si="23">F60</f>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="H60" s="19">
-        <f t="shared" ref="H60:H70" si="24">(H59+G60-G59)</f>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="I60" s="27">
-        <f t="shared" ref="I60:I70" si="25">H60*24*$J$32</f>
-        <v>4038.7499999999995</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="7"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="24">
-        <f t="shared" si="21"/>
+      <c r="F73" s="22">
+        <f t="shared" si="27"/>
+        <v>1.7812500000000002</v>
+      </c>
+      <c r="G73" s="16">
+        <f t="shared" si="28"/>
+        <v>1.7812500000000002</v>
+      </c>
+      <c r="H73" s="16">
+        <f t="shared" si="29"/>
+        <v>1.7812499999999998</v>
+      </c>
+      <c r="I73" s="24">
+        <f t="shared" si="30"/>
+        <v>5771.2499999999991</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C74" s="5"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="21">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F61" s="25">
-        <f t="shared" si="22"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="G61" s="19">
-        <f t="shared" si="23"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="H61" s="19">
-        <f t="shared" si="24"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="I61" s="27">
-        <f t="shared" si="25"/>
-        <v>4038.7499999999995</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="7"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="24">
-        <f t="shared" si="21"/>
+      <c r="F74" s="22">
+        <f t="shared" si="27"/>
+        <v>1.7812500000000002</v>
+      </c>
+      <c r="G74" s="16">
+        <f t="shared" si="28"/>
+        <v>1.7812500000000002</v>
+      </c>
+      <c r="H74" s="16">
+        <f t="shared" si="29"/>
+        <v>1.7812499999999998</v>
+      </c>
+      <c r="I74" s="24">
+        <f t="shared" si="30"/>
+        <v>5771.2499999999991</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C75" s="5"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="21">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F62" s="25">
-        <f t="shared" si="22"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="G62" s="19">
-        <f t="shared" si="23"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="H62" s="19">
-        <f t="shared" si="24"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="I62" s="27">
-        <f t="shared" si="25"/>
-        <v>4038.7499999999995</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C63" s="7"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="24">
-        <f t="shared" si="21"/>
+      <c r="F75" s="22">
+        <f t="shared" si="27"/>
+        <v>1.7812500000000002</v>
+      </c>
+      <c r="G75" s="16">
+        <f t="shared" si="28"/>
+        <v>1.7812500000000002</v>
+      </c>
+      <c r="H75" s="16">
+        <f t="shared" si="29"/>
+        <v>1.7812499999999998</v>
+      </c>
+      <c r="I75" s="24">
+        <f t="shared" si="30"/>
+        <v>5771.2499999999991</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C76" s="5"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="21">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F63" s="25">
-        <f t="shared" si="22"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="G63" s="19">
-        <f t="shared" si="23"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="H63" s="19">
-        <f t="shared" si="24"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="I63" s="27">
-        <f t="shared" si="25"/>
-        <v>4038.7499999999995</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="7"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="24">
-        <f t="shared" si="21"/>
+      <c r="F76" s="22">
+        <f t="shared" si="27"/>
+        <v>1.7812500000000002</v>
+      </c>
+      <c r="G76" s="16">
+        <f t="shared" si="28"/>
+        <v>1.7812500000000002</v>
+      </c>
+      <c r="H76" s="16">
+        <f t="shared" si="29"/>
+        <v>1.7812499999999998</v>
+      </c>
+      <c r="I76" s="24">
+        <f t="shared" si="30"/>
+        <v>5771.2499999999991</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C77" s="5"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="21">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F64" s="25">
-        <f t="shared" si="22"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="G64" s="19">
-        <f t="shared" si="23"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="H64" s="19">
-        <f t="shared" si="24"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="I64" s="27">
-        <f t="shared" si="25"/>
-        <v>4038.7499999999995</v>
-      </c>
-    </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="7"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="24">
-        <f t="shared" si="21"/>
+      <c r="F77" s="22">
+        <f t="shared" si="27"/>
+        <v>1.7812500000000002</v>
+      </c>
+      <c r="G77" s="16">
+        <f t="shared" si="28"/>
+        <v>1.7812500000000002</v>
+      </c>
+      <c r="H77" s="16">
+        <f t="shared" si="29"/>
+        <v>1.7812499999999998</v>
+      </c>
+      <c r="I77" s="24">
+        <f t="shared" si="30"/>
+        <v>5771.2499999999991</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C78" s="5"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="21">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F65" s="25">
-        <f t="shared" si="22"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="G65" s="19">
-        <f t="shared" si="23"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="H65" s="19">
-        <f t="shared" si="24"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="I65" s="27">
-        <f t="shared" si="25"/>
-        <v>4038.7499999999995</v>
-      </c>
-    </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="7"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="24">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F66" s="25">
-        <f t="shared" si="22"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="G66" s="19">
-        <f t="shared" si="23"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="H66" s="19">
-        <f t="shared" si="24"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="I66" s="27">
-        <f t="shared" si="25"/>
-        <v>4038.7499999999995</v>
-      </c>
-    </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="7"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="24">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F67" s="25">
-        <f t="shared" si="22"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="G67" s="19">
-        <f t="shared" si="23"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="H67" s="19">
-        <f t="shared" si="24"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="I67" s="27">
-        <f t="shared" si="25"/>
-        <v>4038.7499999999995</v>
-      </c>
-    </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="7"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="24">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F68" s="25">
-        <f t="shared" si="22"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="G68" s="19">
-        <f t="shared" si="23"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="H68" s="19">
-        <f t="shared" si="24"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="I68" s="27">
-        <f t="shared" si="25"/>
-        <v>4038.7499999999995</v>
-      </c>
-    </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="7"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="24">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F69" s="25">
-        <f t="shared" si="22"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="G69" s="19">
-        <f t="shared" si="23"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="H69" s="19">
-        <f t="shared" si="24"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="I69" s="27">
-        <f t="shared" si="25"/>
-        <v>4038.7499999999995</v>
-      </c>
-    </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="7"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="24">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F70" s="25">
-        <f t="shared" si="22"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="G70" s="19">
-        <f t="shared" si="23"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="H70" s="19">
-        <f t="shared" si="24"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="I70" s="27">
-        <f t="shared" si="25"/>
-        <v>4038.7499999999995</v>
+      <c r="F78" s="22">
+        <f t="shared" si="27"/>
+        <v>1.7812500000000002</v>
+      </c>
+      <c r="G78" s="16">
+        <f t="shared" si="28"/>
+        <v>1.7812500000000002</v>
+      </c>
+      <c r="H78" s="16">
+        <f t="shared" si="29"/>
+        <v>1.7812499999999998</v>
+      </c>
+      <c r="I78" s="24">
+        <f t="shared" si="30"/>
+        <v>5771.2499999999991</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="19">
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
     <mergeCell ref="B47:B53"/>
     <mergeCell ref="B41:B46"/>
     <mergeCell ref="E31:E32"/>
@@ -2836,10 +3139,10 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B24:B27"/>
-    <mergeCell ref="K13:K17"/>
-    <mergeCell ref="K18:K22"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B61:B62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>Vektorizace, první sada</t>
   </si>
@@ -131,6 +131,27 @@
   </si>
   <si>
     <t>23.10.</t>
+  </si>
+  <si>
+    <t>24.10.</t>
+  </si>
+  <si>
+    <t>25.10.</t>
+  </si>
+  <si>
+    <t>27.10.</t>
+  </si>
+  <si>
+    <t>zacatek posunut o 1h drive kvui zmene casu</t>
+  </si>
+  <si>
+    <t>28.10.</t>
+  </si>
+  <si>
+    <t>1.11.</t>
+  </si>
+  <si>
+    <t>2.11.</t>
   </si>
 </sst>
 </file>
@@ -781,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X78"/>
+  <dimension ref="B1:X97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="J32" s="35">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -1807,7 +1828,7 @@
       </c>
       <c r="I33" s="24">
         <f>H33*24*$J$32</f>
-        <v>22.499999999999922</v>
+        <v>21.66666666666659</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -1836,7 +1857,7 @@
       </c>
       <c r="I34" s="24">
         <f>H34*24*$J$32</f>
-        <v>33.749999999999879</v>
+        <v>32.499999999999886</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -1865,7 +1886,7 @@
       </c>
       <c r="I35" s="24">
         <f t="shared" ref="I35:I41" si="7">H35*24*$J$32</f>
-        <v>67.499999999999758</v>
+        <v>64.999999999999773</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -1896,7 +1917,7 @@
       </c>
       <c r="I36" s="24">
         <f t="shared" si="7"/>
-        <v>213.7499999999996</v>
+        <v>205.83333333333294</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -1927,7 +1948,7 @@
       </c>
       <c r="I37" s="24">
         <f t="shared" si="7"/>
-        <v>393.75000000000006</v>
+        <v>379.16666666666669</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -1956,7 +1977,7 @@
       </c>
       <c r="I38" s="24">
         <f t="shared" si="7"/>
-        <v>539.99999999999989</v>
+        <v>519.99999999999989</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -1985,7 +2006,7 @@
       </c>
       <c r="I39" s="24">
         <f t="shared" si="7"/>
-        <v>776.25000000000011</v>
+        <v>747.50000000000011</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
@@ -2014,7 +2035,7 @@
       </c>
       <c r="I40" s="24">
         <f t="shared" si="7"/>
-        <v>1001.2500000000005</v>
+        <v>964.16666666666708</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -2045,7 +2066,7 @@
       </c>
       <c r="I41" s="24">
         <f t="shared" si="7"/>
-        <v>1035.0000000000007</v>
+        <v>996.66666666666731</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -2074,7 +2095,7 @@
       </c>
       <c r="I42" s="24">
         <f t="shared" ref="I42:I50" si="15">H42*24*$J$32</f>
-        <v>1293.7500000000005</v>
+        <v>1245.8333333333339</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -2103,7 +2124,7 @@
       </c>
       <c r="I43" s="24">
         <f t="shared" si="15"/>
-        <v>1563.7500000000009</v>
+        <v>1505.8333333333342</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
@@ -2132,7 +2153,7 @@
       </c>
       <c r="I44" s="24">
         <f t="shared" si="15"/>
-        <v>1710.0000000000011</v>
+        <v>1646.6666666666677</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
@@ -2161,7 +2182,7 @@
       </c>
       <c r="I45" s="24">
         <f t="shared" si="15"/>
-        <v>2115.0000000000018</v>
+        <v>2036.6666666666681</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
@@ -2190,7 +2211,7 @@
       </c>
       <c r="I46" s="24">
         <f t="shared" si="15"/>
-        <v>2351.2500000000009</v>
+        <v>2264.1666666666679</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
@@ -2221,7 +2242,7 @@
       </c>
       <c r="I47" s="24">
         <f t="shared" si="15"/>
-        <v>2981.2500000000014</v>
+        <v>2870.8333333333344</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
@@ -2250,7 +2271,7 @@
       </c>
       <c r="I48" s="24">
         <f t="shared" si="15"/>
-        <v>3150.0000000000014</v>
+        <v>3033.3333333333344</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
@@ -2279,7 +2300,7 @@
       </c>
       <c r="I49" s="24">
         <f t="shared" si="15"/>
-        <v>3195.0000000000009</v>
+        <v>3076.6666666666679</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
@@ -2308,7 +2329,7 @@
       </c>
       <c r="I50" s="24">
         <f t="shared" si="15"/>
-        <v>3262.5000000000005</v>
+        <v>3141.6666666666674</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
@@ -2337,7 +2358,7 @@
       </c>
       <c r="I51" s="24">
         <f t="shared" ref="I51:I59" si="20">H51*24*$J$32</f>
-        <v>3318.7500000000009</v>
+        <v>3195.8333333333339</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
@@ -2366,7 +2387,7 @@
       </c>
       <c r="I52" s="24">
         <f t="shared" si="20"/>
-        <v>3408.7500000000005</v>
+        <v>3282.5000000000005</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>29</v>
@@ -2398,7 +2419,7 @@
       </c>
       <c r="I53" s="24">
         <f t="shared" si="20"/>
-        <v>3420.0000000000009</v>
+        <v>3293.3333333333339</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>28</v>
@@ -2432,7 +2453,7 @@
       </c>
       <c r="I54" s="24">
         <f t="shared" si="20"/>
-        <v>3588.75</v>
+        <v>3455.833333333333</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>27</v>
@@ -2464,7 +2485,7 @@
       </c>
       <c r="I55" s="24">
         <f t="shared" si="20"/>
-        <v>3689.9999999999995</v>
+        <v>3553.3333333333326</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
@@ -2493,7 +2514,7 @@
       </c>
       <c r="I56" s="24">
         <f t="shared" si="20"/>
-        <v>3802.4999999999995</v>
+        <v>3661.6666666666665</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
@@ -2522,7 +2543,7 @@
       </c>
       <c r="I57" s="24">
         <f t="shared" si="20"/>
-        <v>3903.75</v>
+        <v>3759.166666666667</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
@@ -2551,7 +2572,7 @@
       </c>
       <c r="I58" s="24">
         <f t="shared" si="20"/>
-        <v>3937.4999999999995</v>
+        <v>3791.6666666666665</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
@@ -2580,7 +2601,7 @@
       </c>
       <c r="I59" s="24">
         <f t="shared" si="20"/>
-        <v>4038.7499999999995</v>
+        <v>3889.1666666666665</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
@@ -2611,7 +2632,7 @@
       </c>
       <c r="I60" s="24">
         <f t="shared" ref="I60:I70" si="25">H60*24*$J$32</f>
-        <v>4106.2499999999991</v>
+        <v>3954.1666666666656</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
@@ -2642,7 +2663,7 @@
       </c>
       <c r="I61" s="24">
         <f t="shared" si="25"/>
-        <v>4297.4999999999991</v>
+        <v>4138.333333333333</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
@@ -2671,7 +2692,7 @@
       </c>
       <c r="I62" s="24">
         <f t="shared" si="25"/>
-        <v>4387.5</v>
+        <v>4225</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
@@ -2702,7 +2723,7 @@
       </c>
       <c r="I63" s="24">
         <f t="shared" si="25"/>
-        <v>4443.75</v>
+        <v>4279.1666666666661</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
@@ -2731,7 +2752,7 @@
       </c>
       <c r="I64" s="24">
         <f t="shared" si="25"/>
-        <v>4511.2500000000009</v>
+        <v>4344.166666666667</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
@@ -2760,7 +2781,7 @@
       </c>
       <c r="I65" s="24">
         <f t="shared" si="25"/>
-        <v>4601.2499999999991</v>
+        <v>4430.833333333333</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
@@ -2791,7 +2812,7 @@
       </c>
       <c r="I66" s="24">
         <f t="shared" si="25"/>
-        <v>4679.9999999999991</v>
+        <v>4506.6666666666652</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
@@ -2820,7 +2841,7 @@
       </c>
       <c r="I67" s="24">
         <f t="shared" si="25"/>
-        <v>5073.7499999999991</v>
+        <v>4885.833333333333</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
@@ -2849,7 +2870,7 @@
       </c>
       <c r="I68" s="24">
         <f t="shared" si="25"/>
-        <v>5118.7500000000009</v>
+        <v>4929.166666666667</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
@@ -2878,7 +2899,7 @@
       </c>
       <c r="I69" s="24">
         <f t="shared" si="25"/>
-        <v>5231.25</v>
+        <v>5037.5</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
@@ -2909,7 +2930,7 @@
       </c>
       <c r="I70" s="24">
         <f t="shared" si="25"/>
-        <v>5298.75</v>
+        <v>5102.5</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
@@ -2938,7 +2959,7 @@
       </c>
       <c r="I71" s="24">
         <f t="shared" ref="I71:I78" si="30">H71*24*$J$32</f>
-        <v>5478.75</v>
+        <v>5275.8333333333339</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
@@ -2969,55 +2990,67 @@
       </c>
       <c r="I72" s="24">
         <f t="shared" si="30"/>
-        <v>5771.2499999999991</v>
+        <v>5557.4999999999991</v>
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C73" s="5"/>
-      <c r="D73" s="19"/>
+      <c r="B73" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D73" s="19">
+        <v>0.67361111111111116</v>
+      </c>
       <c r="E73" s="21">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="F73" s="22">
         <f t="shared" si="27"/>
-        <v>1.7812500000000002</v>
+        <v>1.8090277777777781</v>
       </c>
       <c r="G73" s="16">
         <f t="shared" si="28"/>
-        <v>1.7812500000000002</v>
+        <v>1.8090277777777781</v>
       </c>
       <c r="H73" s="16">
         <f t="shared" si="29"/>
-        <v>1.7812499999999998</v>
+        <v>1.8090277777777775</v>
       </c>
       <c r="I73" s="24">
         <f t="shared" si="30"/>
-        <v>5771.2499999999991</v>
+        <v>5644.1666666666652</v>
       </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C74" s="5"/>
-      <c r="D74" s="19"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="5">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="D74" s="19">
+        <v>0.69444444444444453</v>
+      </c>
       <c r="E74" s="21">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1.3888888888889062E-2</v>
       </c>
       <c r="F74" s="22">
         <f t="shared" si="27"/>
-        <v>1.7812500000000002</v>
+        <v>1.8229166666666672</v>
       </c>
       <c r="G74" s="16">
         <f t="shared" si="28"/>
-        <v>1.7812500000000002</v>
+        <v>1.8229166666666672</v>
       </c>
       <c r="H74" s="16">
         <f t="shared" si="29"/>
-        <v>1.7812499999999998</v>
+        <v>1.8229166666666665</v>
       </c>
       <c r="I74" s="24">
         <f t="shared" si="30"/>
-        <v>5771.2499999999991</v>
+        <v>5687.5</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>36</v>
@@ -3027,104 +3060,644 @@
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C75" s="5"/>
-      <c r="D75" s="19"/>
+      <c r="B75" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="5">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="D75" s="19">
+        <v>0.67013888888888884</v>
+      </c>
       <c r="E75" s="21">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="F75" s="22">
         <f t="shared" si="27"/>
-        <v>1.7812500000000002</v>
+        <v>1.8298611111111116</v>
       </c>
       <c r="G75" s="16">
         <f t="shared" si="28"/>
-        <v>1.7812500000000002</v>
+        <v>1.8298611111111116</v>
       </c>
       <c r="H75" s="16">
         <f t="shared" si="29"/>
-        <v>1.7812499999999998</v>
+        <v>1.8298611111111109</v>
       </c>
       <c r="I75" s="24">
         <f t="shared" si="30"/>
-        <v>5771.2499999999991</v>
+        <v>5709.1666666666661</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C76" s="5"/>
-      <c r="D76" s="19"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="5">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="D76" s="19">
+        <v>0.75347222222222221</v>
+      </c>
       <c r="E76" s="21">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>6.944444444444442E-2</v>
       </c>
       <c r="F76" s="22">
         <f t="shared" si="27"/>
-        <v>1.7812500000000002</v>
+        <v>1.899305555555556</v>
       </c>
       <c r="G76" s="16">
         <f t="shared" si="28"/>
-        <v>1.7812500000000002</v>
+        <v>1.899305555555556</v>
       </c>
       <c r="H76" s="16">
         <f t="shared" si="29"/>
-        <v>1.7812499999999998</v>
+        <v>1.8993055555555554</v>
       </c>
       <c r="I76" s="24">
         <f t="shared" si="30"/>
-        <v>5771.2499999999991</v>
+        <v>5925.833333333333</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C77" s="5"/>
-      <c r="D77" s="19"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="5">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D77" s="19">
+        <v>0.82638888888888884</v>
+      </c>
       <c r="E77" s="21">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="F77" s="22">
         <f t="shared" si="27"/>
-        <v>1.7812500000000002</v>
+        <v>1.930555555555556</v>
       </c>
       <c r="G77" s="16">
         <f t="shared" si="28"/>
-        <v>1.7812500000000002</v>
+        <v>1.930555555555556</v>
       </c>
       <c r="H77" s="16">
         <f t="shared" si="29"/>
-        <v>1.7812499999999998</v>
+        <v>1.9305555555555556</v>
       </c>
       <c r="I77" s="24">
         <f t="shared" si="30"/>
-        <v>5771.2499999999991</v>
+        <v>6023.3333333333339</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C78" s="5"/>
-      <c r="D78" s="19"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="5">
+        <v>0.96875</v>
+      </c>
+      <c r="D78" s="19">
+        <v>0.99652777777777779</v>
+      </c>
       <c r="E78" s="21">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="F78" s="22">
         <f t="shared" si="27"/>
-        <v>1.7812500000000002</v>
+        <v>1.9583333333333339</v>
       </c>
       <c r="G78" s="16">
         <f t="shared" si="28"/>
-        <v>1.7812500000000002</v>
+        <v>1.9583333333333339</v>
       </c>
       <c r="H78" s="16">
         <f t="shared" si="29"/>
-        <v>1.7812499999999998</v>
+        <v>1.9583333333333333</v>
       </c>
       <c r="I78" s="24">
         <f t="shared" si="30"/>
-        <v>5771.2499999999991</v>
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="5">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="D79" s="19">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E79" s="21">
+        <f t="shared" ref="E79:E86" si="31">D79-C79</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F79" s="22">
+        <f t="shared" ref="F79:F86" si="32">F78+E79</f>
+        <v>1.9895833333333339</v>
+      </c>
+      <c r="G79" s="16">
+        <f t="shared" ref="G79:G86" si="33">F79</f>
+        <v>1.9895833333333339</v>
+      </c>
+      <c r="H79" s="16">
+        <f t="shared" ref="H79:H86" si="34">(H78+G79-G78)</f>
+        <v>1.989583333333333</v>
+      </c>
+      <c r="I79" s="24">
+        <f t="shared" ref="I79:I86" si="35">H79*24*$J$32</f>
+        <v>6207.4999999999991</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="43"/>
+      <c r="C80" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="D80" s="19">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="E80" s="21">
+        <f t="shared" si="31"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="F80" s="22">
+        <f t="shared" si="32"/>
+        <v>2.0243055555555562</v>
+      </c>
+      <c r="G80" s="16">
+        <f t="shared" si="33"/>
+        <v>2.0243055555555562</v>
+      </c>
+      <c r="H80" s="16">
+        <f t="shared" si="34"/>
+        <v>2.0243055555555554</v>
+      </c>
+      <c r="I80" s="24">
+        <f t="shared" si="35"/>
+        <v>6315.833333333333</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" s="5">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D81" s="19">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E81" s="21">
+        <f t="shared" si="31"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="F81" s="22">
+        <f t="shared" si="32"/>
+        <v>2.0347222222222232</v>
+      </c>
+      <c r="G81" s="16">
+        <f t="shared" si="33"/>
+        <v>2.0347222222222232</v>
+      </c>
+      <c r="H81" s="16">
+        <f t="shared" si="34"/>
+        <v>2.0347222222222223</v>
+      </c>
+      <c r="I81" s="24">
+        <f t="shared" si="35"/>
+        <v>6348.3333333333339</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="43"/>
+      <c r="C82" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D82" s="19">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="E82" s="21">
+        <f t="shared" si="31"/>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="F82" s="22">
+        <f t="shared" si="32"/>
+        <v>2.0416666666666679</v>
+      </c>
+      <c r="G82" s="16">
+        <f t="shared" si="33"/>
+        <v>2.0416666666666679</v>
+      </c>
+      <c r="H82" s="16">
+        <f t="shared" si="34"/>
+        <v>2.041666666666667</v>
+      </c>
+      <c r="I82" s="24">
+        <f t="shared" si="35"/>
+        <v>6370.0000000000009</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="43"/>
+      <c r="C83" s="5">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D83" s="19">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="E83" s="21">
+        <f t="shared" si="31"/>
+        <v>4.513888888888884E-2</v>
+      </c>
+      <c r="F83" s="22">
+        <f t="shared" si="32"/>
+        <v>2.0868055555555567</v>
+      </c>
+      <c r="G83" s="16">
+        <f t="shared" si="33"/>
+        <v>2.0868055555555567</v>
+      </c>
+      <c r="H83" s="16">
+        <f t="shared" si="34"/>
+        <v>2.0868055555555554</v>
+      </c>
+      <c r="I83" s="24">
+        <f t="shared" si="35"/>
+        <v>6510.833333333333</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C84" s="5">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D84" s="19">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E84" s="21">
+        <f t="shared" si="31"/>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="F84" s="22">
+        <f t="shared" si="32"/>
+        <v>2.1250000000000009</v>
+      </c>
+      <c r="G84" s="16">
+        <f t="shared" si="33"/>
+        <v>2.1250000000000009</v>
+      </c>
+      <c r="H84" s="16">
+        <f t="shared" si="34"/>
+        <v>2.1249999999999996</v>
+      </c>
+      <c r="I84" s="24">
+        <f t="shared" si="35"/>
+        <v>6629.9999999999982</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="43"/>
+      <c r="C85" s="5">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="D85" s="19">
+        <v>0.625</v>
+      </c>
+      <c r="E85" s="21">
+        <f t="shared" si="31"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F85" s="22">
+        <f t="shared" si="32"/>
+        <v>2.1319444444444455</v>
+      </c>
+      <c r="G85" s="16">
+        <f t="shared" si="33"/>
+        <v>2.1319444444444455</v>
+      </c>
+      <c r="H85" s="16">
+        <f t="shared" si="34"/>
+        <v>2.1319444444444438</v>
+      </c>
+      <c r="I85" s="24">
+        <f t="shared" si="35"/>
+        <v>6651.6666666666642</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="43"/>
+      <c r="C86" s="5">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="D86" s="19">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="E86" s="21">
+        <f t="shared" si="31"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="F86" s="22">
+        <f t="shared" si="32"/>
+        <v>2.1736111111111125</v>
+      </c>
+      <c r="G86" s="16">
+        <f t="shared" si="33"/>
+        <v>2.1736111111111125</v>
+      </c>
+      <c r="H86" s="16">
+        <f t="shared" si="34"/>
+        <v>2.1736111111111107</v>
+      </c>
+      <c r="I86" s="24">
+        <f t="shared" si="35"/>
+        <v>6781.6666666666652</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" s="5">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="D87" s="19">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E87" s="21">
+        <f t="shared" ref="E87:E97" si="36">D87-C87</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="F87" s="22">
+        <f t="shared" ref="F87:F97" si="37">F86+E87</f>
+        <v>2.2673611111111125</v>
+      </c>
+      <c r="G87" s="16">
+        <f t="shared" ref="G87:G97" si="38">F87</f>
+        <v>2.2673611111111125</v>
+      </c>
+      <c r="H87" s="16">
+        <f t="shared" ref="H87:H97" si="39">(H86+G87-G86)</f>
+        <v>2.2673611111111107</v>
+      </c>
+      <c r="I87" s="24">
+        <f t="shared" ref="I87:I97" si="40">H87*24*$J$32</f>
+        <v>7074.1666666666652</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="43"/>
+      <c r="C88" s="5">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="D88" s="19">
+        <v>0.94097222222222221</v>
+      </c>
+      <c r="E88" s="21">
+        <f t="shared" si="36"/>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="F88" s="22">
+        <f t="shared" si="37"/>
+        <v>2.3229166666666679</v>
+      </c>
+      <c r="G88" s="16">
+        <f t="shared" si="38"/>
+        <v>2.3229166666666679</v>
+      </c>
+      <c r="H88" s="16">
+        <f t="shared" si="39"/>
+        <v>2.3229166666666661</v>
+      </c>
+      <c r="I88" s="24">
+        <f t="shared" si="40"/>
+        <v>7247.4999999999982</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C89" s="5"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="21">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F89" s="22">
+        <f t="shared" si="37"/>
+        <v>2.3229166666666679</v>
+      </c>
+      <c r="G89" s="16">
+        <f t="shared" si="38"/>
+        <v>2.3229166666666679</v>
+      </c>
+      <c r="H89" s="16">
+        <f t="shared" si="39"/>
+        <v>2.3229166666666661</v>
+      </c>
+      <c r="I89" s="24">
+        <f t="shared" si="40"/>
+        <v>7247.4999999999982</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C90" s="5"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="21">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="22">
+        <f t="shared" si="37"/>
+        <v>2.3229166666666679</v>
+      </c>
+      <c r="G90" s="16">
+        <f t="shared" si="38"/>
+        <v>2.3229166666666679</v>
+      </c>
+      <c r="H90" s="16">
+        <f t="shared" si="39"/>
+        <v>2.3229166666666661</v>
+      </c>
+      <c r="I90" s="24">
+        <f t="shared" si="40"/>
+        <v>7247.4999999999982</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C91" s="5"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="21">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="22">
+        <f t="shared" si="37"/>
+        <v>2.3229166666666679</v>
+      </c>
+      <c r="G91" s="16">
+        <f t="shared" si="38"/>
+        <v>2.3229166666666679</v>
+      </c>
+      <c r="H91" s="16">
+        <f t="shared" si="39"/>
+        <v>2.3229166666666661</v>
+      </c>
+      <c r="I91" s="24">
+        <f t="shared" si="40"/>
+        <v>7247.4999999999982</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C92" s="5"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="21">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="22">
+        <f t="shared" si="37"/>
+        <v>2.3229166666666679</v>
+      </c>
+      <c r="G92" s="16">
+        <f t="shared" si="38"/>
+        <v>2.3229166666666679</v>
+      </c>
+      <c r="H92" s="16">
+        <f t="shared" si="39"/>
+        <v>2.3229166666666661</v>
+      </c>
+      <c r="I92" s="24">
+        <f t="shared" si="40"/>
+        <v>7247.4999999999982</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C93" s="5"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="21">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F93" s="22">
+        <f t="shared" si="37"/>
+        <v>2.3229166666666679</v>
+      </c>
+      <c r="G93" s="16">
+        <f t="shared" si="38"/>
+        <v>2.3229166666666679</v>
+      </c>
+      <c r="H93" s="16">
+        <f t="shared" si="39"/>
+        <v>2.3229166666666661</v>
+      </c>
+      <c r="I93" s="24">
+        <f t="shared" si="40"/>
+        <v>7247.4999999999982</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C94" s="5"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="21">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F94" s="22">
+        <f t="shared" si="37"/>
+        <v>2.3229166666666679</v>
+      </c>
+      <c r="G94" s="16">
+        <f t="shared" si="38"/>
+        <v>2.3229166666666679</v>
+      </c>
+      <c r="H94" s="16">
+        <f t="shared" si="39"/>
+        <v>2.3229166666666661</v>
+      </c>
+      <c r="I94" s="24">
+        <f t="shared" si="40"/>
+        <v>7247.4999999999982</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C95" s="5"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="21">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F95" s="22">
+        <f t="shared" si="37"/>
+        <v>2.3229166666666679</v>
+      </c>
+      <c r="G95" s="16">
+        <f t="shared" si="38"/>
+        <v>2.3229166666666679</v>
+      </c>
+      <c r="H95" s="16">
+        <f t="shared" si="39"/>
+        <v>2.3229166666666661</v>
+      </c>
+      <c r="I95" s="24">
+        <f t="shared" si="40"/>
+        <v>7247.4999999999982</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C96" s="5"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="21">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F96" s="22">
+        <f t="shared" si="37"/>
+        <v>2.3229166666666679</v>
+      </c>
+      <c r="G96" s="16">
+        <f t="shared" si="38"/>
+        <v>2.3229166666666679</v>
+      </c>
+      <c r="H96" s="16">
+        <f t="shared" si="39"/>
+        <v>2.3229166666666661</v>
+      </c>
+      <c r="I96" s="24">
+        <f t="shared" si="40"/>
+        <v>7247.4999999999982</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C97" s="5"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="21">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F97" s="22">
+        <f t="shared" si="37"/>
+        <v>2.3229166666666679</v>
+      </c>
+      <c r="G97" s="16">
+        <f t="shared" si="38"/>
+        <v>2.3229166666666679</v>
+      </c>
+      <c r="H97" s="16">
+        <f t="shared" si="39"/>
+        <v>2.3229166666666661</v>
+      </c>
+      <c r="I97" s="24">
+        <f t="shared" si="40"/>
+        <v>7247.4999999999982</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B70:B71"/>
+  <mergeCells count="25">
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
     <mergeCell ref="K13:K17"/>
     <mergeCell ref="K18:K22"/>
     <mergeCell ref="B14:B18"/>
@@ -3135,6 +3708,11 @@
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B70:B71"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="B28:B29"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>Vektorizace, první sada</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>2.11.</t>
+  </si>
+  <si>
+    <t>9.11.</t>
+  </si>
+  <si>
+    <t>10.11.</t>
   </si>
 </sst>
 </file>
@@ -483,19 +489,19 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -804,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="K81" sqref="K81"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,10 +833,10 @@
       <c r="B1" s="40"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="44" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="18" t="s">
@@ -851,8 +857,8 @@
       <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="41"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="13" t="s">
         <v>14</v>
       </c>
@@ -863,7 +869,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="1">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
@@ -883,7 +889,7 @@
       </c>
       <c r="I4" s="24">
         <f>H4*24*$J$2</f>
-        <v>2700</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
@@ -908,7 +914,7 @@
       </c>
       <c r="I7" s="24">
         <f>H7*24*$J$2</f>
-        <v>12330</v>
+        <v>15526.666666666666</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
@@ -928,7 +934,7 @@
       </c>
       <c r="I9" s="24">
         <f t="shared" ref="I9" si="0">H9*24*$J$2</f>
-        <v>13004.999999999998</v>
+        <v>16376.666666666664</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
@@ -983,7 +989,7 @@
       </c>
       <c r="I12" s="24">
         <f>H12*24*$J$2</f>
-        <v>13162.499999999996</v>
+        <v>16574.999999999996</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="8"/>
@@ -1029,10 +1035,10 @@
       </c>
       <c r="I13" s="24">
         <f t="shared" ref="I13:I29" si="3">H13*24*$J$2</f>
-        <v>13274.999999999998</v>
+        <v>16716.666666666664</v>
       </c>
       <c r="J13" s="7"/>
-      <c r="K13" s="45"/>
+      <c r="K13" s="42"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="10"/>
@@ -1048,7 +1054,7 @@
       <c r="X13" s="7"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="41" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5">
@@ -1075,10 +1081,10 @@
       </c>
       <c r="I14" s="24">
         <f t="shared" si="3"/>
-        <v>13432.5</v>
+        <v>16915</v>
       </c>
       <c r="J14" s="7"/>
-      <c r="K14" s="45"/>
+      <c r="K14" s="42"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="10"/>
@@ -1094,7 +1100,7 @@
       <c r="X14" s="7"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="43"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="5">
         <v>0.68402777777777779</v>
       </c>
@@ -1119,10 +1125,10 @@
       </c>
       <c r="I15" s="24">
         <f t="shared" si="3"/>
-        <v>13646.25</v>
+        <v>17184.166666666664</v>
       </c>
       <c r="J15" s="7"/>
-      <c r="K15" s="45"/>
+      <c r="K15" s="42"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="10"/>
@@ -1138,7 +1144,7 @@
       <c r="X15" s="7"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="43"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="5">
         <v>0.76041666666666663</v>
       </c>
@@ -1163,10 +1169,10 @@
       </c>
       <c r="I16" s="24">
         <f t="shared" si="3"/>
-        <v>13713.749999999998</v>
+        <v>17269.166666666664</v>
       </c>
       <c r="J16" s="7"/>
-      <c r="K16" s="45"/>
+      <c r="K16" s="42"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="10"/>
@@ -1182,7 +1188,7 @@
       <c r="X16" s="7"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="43"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="5">
         <v>0.80208333333333337</v>
       </c>
@@ -1207,10 +1213,10 @@
       </c>
       <c r="I17" s="24">
         <f t="shared" si="3"/>
-        <v>13916.249999999998</v>
+        <v>17524.166666666664</v>
       </c>
       <c r="J17" s="7"/>
-      <c r="K17" s="45"/>
+      <c r="K17" s="42"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="10"/>
@@ -1226,7 +1232,7 @@
       <c r="X17" s="7"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="43"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="5">
         <v>0.875</v>
       </c>
@@ -1251,10 +1257,10 @@
       </c>
       <c r="I18" s="24">
         <f t="shared" si="3"/>
-        <v>14017.499999999998</v>
+        <v>17651.666666666664</v>
       </c>
       <c r="J18" s="7"/>
-      <c r="K18" s="45"/>
+      <c r="K18" s="42"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="10"/>
@@ -1270,7 +1276,7 @@
       <c r="X18" s="7"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="5">
@@ -1297,10 +1303,10 @@
       </c>
       <c r="I19" s="24">
         <f t="shared" si="3"/>
-        <v>14197.499999999998</v>
+        <v>17878.333333333332</v>
       </c>
       <c r="J19" s="7"/>
-      <c r="K19" s="45"/>
+      <c r="K19" s="42"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="10"/>
@@ -1316,7 +1322,7 @@
       <c r="X19" s="7"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="43"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="5">
         <v>0.59722222222222221</v>
       </c>
@@ -1341,10 +1347,10 @@
       </c>
       <c r="I20" s="24">
         <f t="shared" si="3"/>
-        <v>14489.999999999998</v>
+        <v>18246.666666666664</v>
       </c>
       <c r="J20" s="7"/>
-      <c r="K20" s="45"/>
+      <c r="K20" s="42"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="10"/>
@@ -1360,7 +1366,7 @@
       <c r="X20" s="7"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="43"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="5">
         <v>0.69444444444444453</v>
       </c>
@@ -1385,10 +1391,10 @@
       </c>
       <c r="I21" s="24">
         <f t="shared" si="3"/>
-        <v>14602.499999999998</v>
+        <v>18388.333333333332</v>
       </c>
       <c r="J21" s="7"/>
-      <c r="K21" s="45"/>
+      <c r="K21" s="42"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="10"/>
@@ -1404,7 +1410,7 @@
       <c r="X21" s="7"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="43"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="5">
         <v>0.75</v>
       </c>
@@ -1429,10 +1435,10 @@
       </c>
       <c r="I22" s="24">
         <f t="shared" si="3"/>
-        <v>14703.749999999998</v>
+        <v>18515.833333333332</v>
       </c>
       <c r="J22" s="7"/>
-      <c r="K22" s="45"/>
+      <c r="K22" s="42"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="10"/>
@@ -1448,7 +1454,7 @@
       <c r="X22" s="7"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="43"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="5">
         <v>0.79513888888888884</v>
       </c>
@@ -1473,7 +1479,7 @@
       </c>
       <c r="I23" s="24">
         <f t="shared" si="3"/>
-        <v>14838.749999999998</v>
+        <v>18685.833333333332</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="8"/>
@@ -1492,7 +1498,7 @@
       <c r="X23" s="7"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="42" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="5">
@@ -1519,7 +1525,7 @@
       </c>
       <c r="I24" s="24">
         <f t="shared" si="3"/>
-        <v>15007.499999999998</v>
+        <v>18898.333333333332</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -1538,7 +1544,7 @@
       <c r="X24" s="7"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="45"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -1563,7 +1569,7 @@
       </c>
       <c r="I25" s="24">
         <f t="shared" si="3"/>
-        <v>15029.999999999998</v>
+        <v>18926.666666666664</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -1582,7 +1588,7 @@
       <c r="X25" s="7"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="45"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="5">
         <v>0.69444444444444453</v>
       </c>
@@ -1607,7 +1613,7 @@
       </c>
       <c r="I26" s="24">
         <f t="shared" si="3"/>
-        <v>15434.999999999998</v>
+        <v>19436.666666666664</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -1626,7 +1632,7 @@
       <c r="X26" s="7"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="45"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="5">
         <v>0.83333333333333337</v>
       </c>
@@ -1651,7 +1657,7 @@
       </c>
       <c r="I27" s="24">
         <f t="shared" si="3"/>
-        <v>15502.499999999998</v>
+        <v>19521.666666666664</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -1670,7 +1676,7 @@
       <c r="X27" s="7"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="41" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="5">
@@ -1697,7 +1703,7 @@
       </c>
       <c r="I28" s="24">
         <f t="shared" si="3"/>
-        <v>15581.249999999996</v>
+        <v>19620.833333333328</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -1716,7 +1722,7 @@
       <c r="X28" s="7"/>
     </row>
     <row r="29" spans="2:24" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="44"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="28">
         <v>0.61111111111111105</v>
       </c>
@@ -1741,7 +1747,7 @@
       </c>
       <c r="I29" s="33">
         <f t="shared" si="3"/>
-        <v>15828.749999999998</v>
+        <v>19932.499999999996</v>
       </c>
       <c r="K29" s="34" t="s">
         <v>22</v>
@@ -1761,10 +1767,10 @@
       <c r="B31" s="40"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="41" t="s">
+      <c r="F31" s="44" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="18" t="s">
@@ -1785,8 +1791,8 @@
       <c r="D32" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="41"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
       <c r="G32" s="13" t="s">
         <v>14</v>
       </c>
@@ -1797,11 +1803,11 @@
         <v>13</v>
       </c>
       <c r="J32" s="35">
-        <v>130</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="25">
@@ -1828,11 +1834,11 @@
       </c>
       <c r="I33" s="24">
         <f>H33*24*$J$32</f>
-        <v>21.66666666666659</v>
+        <v>28.333333333333233</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="43"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="5">
         <v>0.65277777777777779</v>
       </c>
@@ -1857,11 +1863,11 @@
       </c>
       <c r="I34" s="24">
         <f>H34*24*$J$32</f>
-        <v>32.499999999999886</v>
+        <v>42.499999999999851</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="43"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="5">
         <v>0.67013888888888884</v>
       </c>
@@ -1886,7 +1892,7 @@
       </c>
       <c r="I35" s="24">
         <f t="shared" ref="I35:I41" si="7">H35*24*$J$32</f>
-        <v>64.999999999999773</v>
+        <v>84.999999999999702</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -1917,11 +1923,11 @@
       </c>
       <c r="I36" s="24">
         <f t="shared" si="7"/>
-        <v>205.83333333333294</v>
+        <v>269.16666666666617</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="5">
@@ -1948,11 +1954,11 @@
       </c>
       <c r="I37" s="24">
         <f t="shared" si="7"/>
-        <v>379.16666666666669</v>
+        <v>495.83333333333337</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="43"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="5">
         <v>0.77083333333333337</v>
       </c>
@@ -1977,11 +1983,11 @@
       </c>
       <c r="I38" s="24">
         <f t="shared" si="7"/>
-        <v>519.99999999999989</v>
+        <v>679.99999999999989</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="43"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="5">
         <v>0.77777777777777779</v>
       </c>
@@ -2006,11 +2012,11 @@
       </c>
       <c r="I39" s="24">
         <f t="shared" si="7"/>
-        <v>747.50000000000011</v>
+        <v>977.50000000000011</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="43"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="5">
         <v>0.93055555555555547</v>
       </c>
@@ -2035,11 +2041,11 @@
       </c>
       <c r="I40" s="24">
         <f t="shared" si="7"/>
-        <v>964.16666666666708</v>
+        <v>1260.8333333333339</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="41" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="5">
@@ -2066,11 +2072,11 @@
       </c>
       <c r="I41" s="24">
         <f t="shared" si="7"/>
-        <v>996.66666666666731</v>
+        <v>1303.3333333333342</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="43"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="5">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -2095,11 +2101,11 @@
       </c>
       <c r="I42" s="24">
         <f t="shared" ref="I42:I50" si="15">H42*24*$J$32</f>
-        <v>1245.8333333333339</v>
+        <v>1629.1666666666674</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="43"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="5">
         <v>0.60069444444444442</v>
       </c>
@@ -2124,11 +2130,11 @@
       </c>
       <c r="I43" s="24">
         <f t="shared" si="15"/>
-        <v>1505.8333333333342</v>
+        <v>1969.1666666666677</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="43"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="5">
         <v>0.70138888888888884</v>
       </c>
@@ -2153,11 +2159,11 @@
       </c>
       <c r="I44" s="24">
         <f t="shared" si="15"/>
-        <v>1646.6666666666677</v>
+        <v>2153.3333333333348</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="43"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="5">
         <v>0.78472222222222221</v>
       </c>
@@ -2182,11 +2188,11 @@
       </c>
       <c r="I45" s="24">
         <f t="shared" si="15"/>
-        <v>2036.6666666666681</v>
+        <v>2663.3333333333353</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="43"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="5">
         <v>0.92708333333333337</v>
       </c>
@@ -2211,11 +2217,11 @@
       </c>
       <c r="I46" s="24">
         <f t="shared" si="15"/>
-        <v>2264.1666666666679</v>
+        <v>2960.8333333333348</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="41" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="5">
@@ -2242,11 +2248,11 @@
       </c>
       <c r="I47" s="24">
         <f t="shared" si="15"/>
-        <v>2870.8333333333344</v>
+        <v>3754.1666666666683</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="43"/>
+      <c r="B48" s="41"/>
       <c r="C48" s="5">
         <v>0.63541666666666663</v>
       </c>
@@ -2271,11 +2277,11 @@
       </c>
       <c r="I48" s="24">
         <f t="shared" si="15"/>
-        <v>3033.3333333333344</v>
+        <v>3966.6666666666683</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="43"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="5">
         <v>0.74305555555555547</v>
       </c>
@@ -2300,11 +2306,11 @@
       </c>
       <c r="I49" s="24">
         <f t="shared" si="15"/>
-        <v>3076.6666666666679</v>
+        <v>4023.3333333333348</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="43"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="5">
         <v>0.78819444444444453</v>
       </c>
@@ -2329,11 +2335,11 @@
       </c>
       <c r="I50" s="24">
         <f t="shared" si="15"/>
-        <v>3141.6666666666674</v>
+        <v>4108.3333333333339</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="43"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="5">
         <v>0.81597222222222221</v>
       </c>
@@ -2358,11 +2364,11 @@
       </c>
       <c r="I51" s="24">
         <f t="shared" ref="I51:I59" si="20">H51*24*$J$32</f>
-        <v>3195.8333333333339</v>
+        <v>4179.1666666666679</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="43"/>
+      <c r="B52" s="41"/>
       <c r="C52" s="5">
         <v>0.89583333333333337</v>
       </c>
@@ -2387,14 +2393,14 @@
       </c>
       <c r="I52" s="24">
         <f t="shared" si="20"/>
-        <v>3282.5000000000005</v>
+        <v>4292.5000000000009</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="43"/>
+      <c r="B53" s="41"/>
       <c r="C53" s="5">
         <v>0.99652777777777779</v>
       </c>
@@ -2419,14 +2425,14 @@
       </c>
       <c r="I53" s="24">
         <f t="shared" si="20"/>
-        <v>3293.3333333333339</v>
+        <v>4306.6666666666679</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="41" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="5">
@@ -2453,14 +2459,14 @@
       </c>
       <c r="I54" s="24">
         <f t="shared" si="20"/>
-        <v>3455.833333333333</v>
+        <v>4519.1666666666661</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="43"/>
+      <c r="B55" s="41"/>
       <c r="C55" s="5">
         <v>0.19444444444444445</v>
       </c>
@@ -2485,11 +2491,11 @@
       </c>
       <c r="I55" s="24">
         <f t="shared" si="20"/>
-        <v>3553.3333333333326</v>
+        <v>4646.6666666666661</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="43"/>
+      <c r="B56" s="41"/>
       <c r="C56" s="5">
         <v>0.625</v>
       </c>
@@ -2514,11 +2520,11 @@
       </c>
       <c r="I56" s="24">
         <f t="shared" si="20"/>
-        <v>3661.6666666666665</v>
+        <v>4788.333333333333</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="43"/>
+      <c r="B57" s="41"/>
       <c r="C57" s="5">
         <v>0.66666666666666663</v>
       </c>
@@ -2543,11 +2549,11 @@
       </c>
       <c r="I57" s="24">
         <f t="shared" si="20"/>
-        <v>3759.166666666667</v>
+        <v>4915.8333333333339</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="43"/>
+      <c r="B58" s="41"/>
       <c r="C58" s="5">
         <v>0.70138888888888884</v>
       </c>
@@ -2572,11 +2578,11 @@
       </c>
       <c r="I58" s="24">
         <f t="shared" si="20"/>
-        <v>3791.6666666666665</v>
+        <v>4958.333333333333</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="43"/>
+      <c r="B59" s="41"/>
       <c r="C59" s="5">
         <v>0.72916666666666663</v>
       </c>
@@ -2601,7 +2607,7 @@
       </c>
       <c r="I59" s="24">
         <f t="shared" si="20"/>
-        <v>3889.1666666666665</v>
+        <v>5085.833333333333</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
@@ -2632,11 +2638,11 @@
       </c>
       <c r="I60" s="24">
         <f t="shared" ref="I60:I70" si="25">H60*24*$J$32</f>
-        <v>3954.1666666666656</v>
+        <v>5170.8333333333321</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="41" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="5">
@@ -2663,11 +2669,11 @@
       </c>
       <c r="I61" s="24">
         <f t="shared" si="25"/>
-        <v>4138.333333333333</v>
+        <v>5411.6666666666661</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="43"/>
+      <c r="B62" s="41"/>
       <c r="C62" s="5">
         <v>0.77083333333333337</v>
       </c>
@@ -2692,11 +2698,11 @@
       </c>
       <c r="I62" s="24">
         <f t="shared" si="25"/>
-        <v>4225</v>
+        <v>5525</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="41" t="s">
         <v>33</v>
       </c>
       <c r="C63" s="5">
@@ -2723,11 +2729,11 @@
       </c>
       <c r="I63" s="24">
         <f t="shared" si="25"/>
-        <v>4279.1666666666661</v>
+        <v>5595.833333333333</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="43"/>
+      <c r="B64" s="41"/>
       <c r="C64" s="5">
         <v>0.86111111111111116</v>
       </c>
@@ -2752,11 +2758,11 @@
       </c>
       <c r="I64" s="24">
         <f t="shared" si="25"/>
-        <v>4344.166666666667</v>
+        <v>5680.8333333333339</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B65" s="43"/>
+      <c r="B65" s="41"/>
       <c r="C65" s="5">
         <v>0.88888888888888884</v>
       </c>
@@ -2781,11 +2787,11 @@
       </c>
       <c r="I65" s="24">
         <f t="shared" si="25"/>
-        <v>4430.833333333333</v>
+        <v>5794.1666666666661</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="41" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="5">
@@ -2812,11 +2818,11 @@
       </c>
       <c r="I66" s="24">
         <f t="shared" si="25"/>
-        <v>4506.6666666666652</v>
+        <v>5893.3333333333321</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B67" s="43"/>
+      <c r="B67" s="41"/>
       <c r="C67" s="5">
         <v>0.76041666666666663</v>
       </c>
@@ -2841,11 +2847,11 @@
       </c>
       <c r="I67" s="24">
         <f t="shared" si="25"/>
-        <v>4885.833333333333</v>
+        <v>6389.1666666666661</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B68" s="43"/>
+      <c r="B68" s="41"/>
       <c r="C68" s="5">
         <v>0.89930555555555547</v>
       </c>
@@ -2870,11 +2876,11 @@
       </c>
       <c r="I68" s="24">
         <f t="shared" si="25"/>
-        <v>4929.166666666667</v>
+        <v>6445.8333333333339</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B69" s="43"/>
+      <c r="B69" s="41"/>
       <c r="C69" s="5">
         <v>0.92361111111111116</v>
       </c>
@@ -2899,11 +2905,11 @@
       </c>
       <c r="I69" s="24">
         <f t="shared" si="25"/>
-        <v>5037.5</v>
+        <v>6587.5</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="5">
@@ -2930,11 +2936,11 @@
       </c>
       <c r="I70" s="24">
         <f t="shared" si="25"/>
-        <v>5102.5</v>
+        <v>6672.5</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B71" s="43"/>
+      <c r="B71" s="41"/>
       <c r="C71" s="5">
         <v>0.72222222222222221</v>
       </c>
@@ -2959,7 +2965,7 @@
       </c>
       <c r="I71" s="24">
         <f t="shared" ref="I71:I78" si="30">H71*24*$J$32</f>
-        <v>5275.8333333333339</v>
+        <v>6899.166666666667</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
@@ -2990,11 +2996,11 @@
       </c>
       <c r="I72" s="24">
         <f t="shared" si="30"/>
-        <v>5557.4999999999991</v>
+        <v>7267.4999999999991</v>
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B73" s="43" t="s">
+      <c r="B73" s="41" t="s">
         <v>39</v>
       </c>
       <c r="C73" s="5">
@@ -3021,11 +3027,11 @@
       </c>
       <c r="I73" s="24">
         <f t="shared" si="30"/>
-        <v>5644.1666666666652</v>
+        <v>7380.8333333333321</v>
       </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B74" s="43"/>
+      <c r="B74" s="41"/>
       <c r="C74" s="5">
         <v>0.68055555555555547</v>
       </c>
@@ -3050,7 +3056,7 @@
       </c>
       <c r="I74" s="24">
         <f t="shared" si="30"/>
-        <v>5687.5</v>
+        <v>7437.5</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>36</v>
@@ -3060,7 +3066,7 @@
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B75" s="43" t="s">
+      <c r="B75" s="41" t="s">
         <v>40</v>
       </c>
       <c r="C75" s="5">
@@ -3087,11 +3093,11 @@
       </c>
       <c r="I75" s="24">
         <f t="shared" si="30"/>
-        <v>5709.1666666666661</v>
+        <v>7465.833333333333</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B76" s="43"/>
+      <c r="B76" s="41"/>
       <c r="C76" s="5">
         <v>0.68402777777777779</v>
       </c>
@@ -3116,11 +3122,11 @@
       </c>
       <c r="I76" s="24">
         <f t="shared" si="30"/>
-        <v>5925.833333333333</v>
+        <v>7749.1666666666661</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B77" s="43"/>
+      <c r="B77" s="41"/>
       <c r="C77" s="5">
         <v>0.79513888888888884</v>
       </c>
@@ -3145,11 +3151,11 @@
       </c>
       <c r="I77" s="24">
         <f t="shared" si="30"/>
-        <v>6023.3333333333339</v>
+        <v>7876.666666666667</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="43"/>
+      <c r="B78" s="41"/>
       <c r="C78" s="5">
         <v>0.96875</v>
       </c>
@@ -3174,11 +3180,11 @@
       </c>
       <c r="I78" s="24">
         <f t="shared" si="30"/>
-        <v>6110</v>
+        <v>7990</v>
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B79" s="43" t="s">
+      <c r="B79" s="41" t="s">
         <v>41</v>
       </c>
       <c r="C79" s="5">
@@ -3205,14 +3211,14 @@
       </c>
       <c r="I79" s="24">
         <f t="shared" ref="I79:I86" si="35">H79*24*$J$32</f>
-        <v>6207.4999999999991</v>
+        <v>8117.4999999999991</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B80" s="43"/>
+      <c r="B80" s="41"/>
       <c r="C80" s="5">
         <v>0.65625</v>
       </c>
@@ -3237,11 +3243,11 @@
       </c>
       <c r="I80" s="24">
         <f t="shared" si="35"/>
-        <v>6315.833333333333</v>
+        <v>8259.1666666666661</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="43" t="s">
+      <c r="B81" s="41" t="s">
         <v>43</v>
       </c>
       <c r="C81" s="5">
@@ -3268,11 +3274,11 @@
       </c>
       <c r="I81" s="24">
         <f t="shared" si="35"/>
-        <v>6348.3333333333339</v>
+        <v>8301.6666666666679</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="43"/>
+      <c r="B82" s="41"/>
       <c r="C82" s="5">
         <v>0.66666666666666663</v>
       </c>
@@ -3297,11 +3303,11 @@
       </c>
       <c r="I82" s="24">
         <f t="shared" si="35"/>
-        <v>6370.0000000000009</v>
+        <v>8330.0000000000018</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="43"/>
+      <c r="B83" s="41"/>
       <c r="C83" s="5">
         <v>0.69791666666666663</v>
       </c>
@@ -3326,11 +3332,11 @@
       </c>
       <c r="I83" s="24">
         <f t="shared" si="35"/>
-        <v>6510.833333333333</v>
+        <v>8514.1666666666661</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="43" t="s">
+      <c r="B84" s="41" t="s">
         <v>44</v>
       </c>
       <c r="C84" s="5">
@@ -3357,11 +3363,11 @@
       </c>
       <c r="I84" s="24">
         <f t="shared" si="35"/>
-        <v>6629.9999999999982</v>
+        <v>8669.9999999999982</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="43"/>
+      <c r="B85" s="41"/>
       <c r="C85" s="5">
         <v>0.61805555555555558</v>
       </c>
@@ -3386,11 +3392,11 @@
       </c>
       <c r="I85" s="24">
         <f t="shared" si="35"/>
-        <v>6651.6666666666642</v>
+        <v>8698.3333333333303</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="43"/>
+      <c r="B86" s="41"/>
       <c r="C86" s="5">
         <v>0.86805555555555547</v>
       </c>
@@ -3415,11 +3421,11 @@
       </c>
       <c r="I86" s="24">
         <f t="shared" si="35"/>
-        <v>6781.6666666666652</v>
+        <v>8868.3333333333321</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="43" t="s">
+      <c r="B87" s="41" t="s">
         <v>45</v>
       </c>
       <c r="C87" s="5">
@@ -3446,11 +3452,11 @@
       </c>
       <c r="I87" s="24">
         <f t="shared" ref="I87:I97" si="40">H87*24*$J$32</f>
-        <v>7074.1666666666652</v>
+        <v>9250.8333333333321</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="43"/>
+      <c r="B88" s="41"/>
       <c r="C88" s="5">
         <v>0.88541666666666663</v>
       </c>
@@ -3475,151 +3481,181 @@
       </c>
       <c r="I88" s="24">
         <f t="shared" si="40"/>
-        <v>7247.4999999999982</v>
+        <v>9477.4999999999982</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C89" s="5"/>
-      <c r="D89" s="19"/>
+      <c r="B89" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" s="5">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="D89" s="19">
+        <v>0.47569444444444442</v>
+      </c>
       <c r="E89" s="21">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="F89" s="22">
         <f t="shared" si="37"/>
-        <v>2.3229166666666679</v>
+        <v>2.3437500000000013</v>
       </c>
       <c r="G89" s="16">
         <f t="shared" si="38"/>
-        <v>2.3229166666666679</v>
+        <v>2.3437500000000013</v>
       </c>
       <c r="H89" s="16">
         <f t="shared" si="39"/>
-        <v>2.3229166666666661</v>
+        <v>2.34375</v>
       </c>
       <c r="I89" s="24">
         <f t="shared" si="40"/>
-        <v>7247.4999999999982</v>
+        <v>9562.5</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C90" s="5"/>
-      <c r="D90" s="19"/>
+      <c r="B90" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" s="5">
+        <v>0.3125</v>
+      </c>
+      <c r="D90" s="19">
+        <v>0.33680555555555558</v>
+      </c>
       <c r="E90" s="21">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>2.430555555555558E-2</v>
       </c>
       <c r="F90" s="22">
         <f t="shared" si="37"/>
-        <v>2.3229166666666679</v>
+        <v>2.3680555555555571</v>
       </c>
       <c r="G90" s="16">
         <f t="shared" si="38"/>
-        <v>2.3229166666666679</v>
+        <v>2.3680555555555571</v>
       </c>
       <c r="H90" s="16">
         <f t="shared" si="39"/>
-        <v>2.3229166666666661</v>
+        <v>2.3680555555555558</v>
       </c>
       <c r="I90" s="24">
         <f t="shared" si="40"/>
-        <v>7247.4999999999982</v>
+        <v>9661.6666666666679</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C91" s="5"/>
-      <c r="D91" s="19"/>
+      <c r="C91" s="5">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="D91" s="19">
+        <v>0.375</v>
+      </c>
       <c r="E91" s="21">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1.7361111111111105E-2</v>
       </c>
       <c r="F91" s="22">
         <f t="shared" si="37"/>
-        <v>2.3229166666666679</v>
+        <v>2.3854166666666683</v>
       </c>
       <c r="G91" s="16">
         <f t="shared" si="38"/>
-        <v>2.3229166666666679</v>
+        <v>2.3854166666666683</v>
       </c>
       <c r="H91" s="16">
         <f t="shared" si="39"/>
-        <v>2.3229166666666661</v>
+        <v>2.385416666666667</v>
       </c>
       <c r="I91" s="24">
         <f t="shared" si="40"/>
-        <v>7247.4999999999982</v>
+        <v>9732.5000000000018</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C92" s="5"/>
-      <c r="D92" s="19"/>
+      <c r="C92" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D92" s="19">
+        <v>0.43055555555555558</v>
+      </c>
       <c r="E92" s="21">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>3.4722222222222265E-2</v>
       </c>
       <c r="F92" s="22">
         <f t="shared" si="37"/>
-        <v>2.3229166666666679</v>
+        <v>2.4201388888888906</v>
       </c>
       <c r="G92" s="16">
         <f t="shared" si="38"/>
-        <v>2.3229166666666679</v>
+        <v>2.4201388888888906</v>
       </c>
       <c r="H92" s="16">
         <f t="shared" si="39"/>
-        <v>2.3229166666666661</v>
+        <v>2.4201388888888888</v>
       </c>
       <c r="I92" s="24">
         <f t="shared" si="40"/>
-        <v>7247.4999999999982</v>
+        <v>9874.1666666666661</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C93" s="5"/>
-      <c r="D93" s="19"/>
+      <c r="C93" s="5">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="D93" s="19">
+        <v>0.46875</v>
+      </c>
       <c r="E93" s="21">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="F93" s="22">
         <f t="shared" si="37"/>
-        <v>2.3229166666666679</v>
+        <v>2.4340277777777795</v>
       </c>
       <c r="G93" s="16">
         <f t="shared" si="38"/>
-        <v>2.3229166666666679</v>
+        <v>2.4340277777777795</v>
       </c>
       <c r="H93" s="16">
         <f t="shared" si="39"/>
-        <v>2.3229166666666661</v>
+        <v>2.4340277777777772</v>
       </c>
       <c r="I93" s="24">
         <f t="shared" si="40"/>
-        <v>7247.4999999999982</v>
+        <v>9930.8333333333321</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C94" s="5"/>
-      <c r="D94" s="19"/>
+      <c r="C94" s="5">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D94" s="19">
+        <v>0.50347222222222221</v>
+      </c>
       <c r="E94" s="21">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="F94" s="22">
         <f t="shared" si="37"/>
-        <v>2.3229166666666679</v>
+        <v>2.4479166666666683</v>
       </c>
       <c r="G94" s="16">
         <f t="shared" si="38"/>
-        <v>2.3229166666666679</v>
+        <v>2.4479166666666683</v>
       </c>
       <c r="H94" s="16">
         <f t="shared" si="39"/>
-        <v>2.3229166666666661</v>
+        <v>2.4479166666666661</v>
       </c>
       <c r="I94" s="24">
         <f t="shared" si="40"/>
-        <v>7247.4999999999982</v>
+        <v>9987.4999999999982</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
@@ -3631,19 +3667,19 @@
       </c>
       <c r="F95" s="22">
         <f t="shared" si="37"/>
-        <v>2.3229166666666679</v>
+        <v>2.4479166666666683</v>
       </c>
       <c r="G95" s="16">
         <f t="shared" si="38"/>
-        <v>2.3229166666666679</v>
+        <v>2.4479166666666683</v>
       </c>
       <c r="H95" s="16">
         <f t="shared" si="39"/>
-        <v>2.3229166666666661</v>
+        <v>2.4479166666666656</v>
       </c>
       <c r="I95" s="24">
         <f t="shared" si="40"/>
-        <v>7247.4999999999982</v>
+        <v>9987.4999999999945</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
@@ -3655,19 +3691,19 @@
       </c>
       <c r="F96" s="22">
         <f t="shared" si="37"/>
-        <v>2.3229166666666679</v>
+        <v>2.4479166666666683</v>
       </c>
       <c r="G96" s="16">
         <f t="shared" si="38"/>
-        <v>2.3229166666666679</v>
+        <v>2.4479166666666683</v>
       </c>
       <c r="H96" s="16">
         <f t="shared" si="39"/>
-        <v>2.3229166666666661</v>
+        <v>2.4479166666666656</v>
       </c>
       <c r="I96" s="24">
         <f t="shared" si="40"/>
-        <v>7247.4999999999982</v>
+        <v>9987.4999999999945</v>
       </c>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.25">
@@ -3679,23 +3715,32 @@
       </c>
       <c r="F97" s="22">
         <f t="shared" si="37"/>
-        <v>2.3229166666666679</v>
+        <v>2.4479166666666683</v>
       </c>
       <c r="G97" s="16">
         <f t="shared" si="38"/>
-        <v>2.3229166666666679</v>
+        <v>2.4479166666666683</v>
       </c>
       <c r="H97" s="16">
         <f t="shared" si="39"/>
-        <v>2.3229166666666661</v>
+        <v>2.4479166666666656</v>
       </c>
       <c r="I97" s="24">
         <f t="shared" si="40"/>
-        <v>7247.4999999999982</v>
+        <v>9987.4999999999945</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B61:B62"/>
     <mergeCell ref="B84:B86"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="K13:K17"/>
@@ -3712,15 +3757,6 @@
     <mergeCell ref="B81:B83"/>
     <mergeCell ref="B75:B78"/>
     <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B61:B62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>Vektorizace, první sada</t>
   </si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>10.11.</t>
+  </si>
+  <si>
+    <t>22.11.</t>
+  </si>
+  <si>
+    <t>23.11.</t>
+  </si>
+  <si>
+    <t>24.11.</t>
   </si>
 </sst>
 </file>
@@ -808,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X97"/>
+  <dimension ref="B1:X122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3516,7 +3525,7 @@
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="41" t="s">
         <v>47</v>
       </c>
       <c r="C90" s="5">
@@ -3547,6 +3556,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="41"/>
       <c r="C91" s="5">
         <v>0.3576388888888889</v>
       </c>
@@ -3575,6 +3585,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="41"/>
       <c r="C92" s="5">
         <v>0.39583333333333331</v>
       </c>
@@ -3603,6 +3614,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="41"/>
       <c r="C93" s="5">
         <v>0.4548611111111111</v>
       </c>
@@ -3631,6 +3643,7 @@
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="41"/>
       <c r="C94" s="5">
         <v>0.48958333333333331</v>
       </c>
@@ -3659,80 +3672,724 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C95" s="5"/>
-      <c r="D95" s="19"/>
+      <c r="B95" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95" s="5">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="D95" s="19">
+        <v>0.47569444444444442</v>
+      </c>
       <c r="E95" s="21">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="F95" s="22">
         <f t="shared" si="37"/>
-        <v>2.4479166666666683</v>
+        <v>2.4895833333333348</v>
       </c>
       <c r="G95" s="16">
         <f t="shared" si="38"/>
-        <v>2.4479166666666683</v>
+        <v>2.4895833333333348</v>
       </c>
       <c r="H95" s="16">
         <f t="shared" si="39"/>
-        <v>2.4479166666666656</v>
+        <v>2.4895833333333326</v>
       </c>
       <c r="I95" s="24">
         <f t="shared" si="40"/>
-        <v>9987.4999999999945</v>
+        <v>10157.499999999998</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C96" s="5"/>
-      <c r="D96" s="19"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D96" s="19">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="E96" s="21">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="F96" s="22">
         <f t="shared" si="37"/>
-        <v>2.4479166666666683</v>
+        <v>2.5104166666666683</v>
       </c>
       <c r="G96" s="16">
         <f t="shared" si="38"/>
-        <v>2.4479166666666683</v>
+        <v>2.5104166666666683</v>
       </c>
       <c r="H96" s="16">
         <f t="shared" si="39"/>
-        <v>2.4479166666666656</v>
+        <v>2.5104166666666661</v>
       </c>
       <c r="I96" s="24">
         <f t="shared" si="40"/>
-        <v>9987.4999999999945</v>
-      </c>
-    </row>
-    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C97" s="5"/>
-      <c r="D97" s="19"/>
+        <v>10242.499999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="41"/>
+      <c r="C97" s="5">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D97" s="19">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="E97" s="21">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>3.8194444444444531E-2</v>
       </c>
       <c r="F97" s="22">
         <f t="shared" si="37"/>
-        <v>2.4479166666666683</v>
+        <v>2.5486111111111129</v>
       </c>
       <c r="G97" s="16">
         <f t="shared" si="38"/>
-        <v>2.4479166666666683</v>
+        <v>2.5486111111111129</v>
       </c>
       <c r="H97" s="16">
         <f t="shared" si="39"/>
-        <v>2.4479166666666656</v>
+        <v>2.5486111111111103</v>
       </c>
       <c r="I97" s="24">
         <f t="shared" si="40"/>
-        <v>9987.4999999999945</v>
+        <v>10398.333333333328</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" s="5">
+        <v>0.46875</v>
+      </c>
+      <c r="D98" s="19">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="E98" s="21">
+        <f t="shared" ref="E98:E122" si="41">D98-C98</f>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="F98" s="22">
+        <f t="shared" ref="F98:F122" si="42">F97+E98</f>
+        <v>2.5625000000000018</v>
+      </c>
+      <c r="G98" s="16">
+        <f t="shared" ref="G98:G122" si="43">F98</f>
+        <v>2.5625000000000018</v>
+      </c>
+      <c r="H98" s="16">
+        <f t="shared" ref="H98:H122" si="44">(H97+G98-G97)</f>
+        <v>2.5624999999999996</v>
+      </c>
+      <c r="I98" s="24">
+        <f t="shared" ref="I98:I122" si="45">H98*24*$J$32</f>
+        <v>10454.999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="41"/>
+      <c r="C99" s="5">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="D99" s="19">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E99" s="21">
+        <f t="shared" si="41"/>
+        <v>3.4722222222223209E-3</v>
+      </c>
+      <c r="F99" s="22">
+        <f t="shared" si="42"/>
+        <v>2.5659722222222241</v>
+      </c>
+      <c r="G99" s="16">
+        <f t="shared" si="43"/>
+        <v>2.5659722222222241</v>
+      </c>
+      <c r="H99" s="16">
+        <f t="shared" si="44"/>
+        <v>2.5659722222222214</v>
+      </c>
+      <c r="I99" s="24">
+        <f t="shared" si="45"/>
+        <v>10469.166666666664</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="41"/>
+      <c r="C100" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D100" s="19">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="E100" s="21">
+        <f t="shared" si="41"/>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="F100" s="22">
+        <f t="shared" si="42"/>
+        <v>2.5937500000000018</v>
+      </c>
+      <c r="G100" s="16">
+        <f t="shared" si="43"/>
+        <v>2.5937500000000018</v>
+      </c>
+      <c r="H100" s="16">
+        <f t="shared" si="44"/>
+        <v>2.5937499999999991</v>
+      </c>
+      <c r="I100" s="24">
+        <f t="shared" si="45"/>
+        <v>10582.499999999996</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C101" s="5">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="D101" s="19">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="E101" s="21">
+        <f t="shared" si="41"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="F101" s="22">
+        <f t="shared" si="42"/>
+        <v>2.6354166666666683</v>
+      </c>
+      <c r="G101" s="16">
+        <f t="shared" si="43"/>
+        <v>2.6354166666666683</v>
+      </c>
+      <c r="H101" s="16">
+        <f t="shared" si="44"/>
+        <v>2.6354166666666661</v>
+      </c>
+      <c r="I101" s="24">
+        <f t="shared" si="45"/>
+        <v>10752.499999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C102" s="5">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D102" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E102" s="21">
+        <f t="shared" si="41"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="F102" s="22">
+        <f t="shared" si="42"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="G102" s="16">
+        <f t="shared" si="43"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="H102" s="16">
+        <f t="shared" si="44"/>
+        <v>2.6493055555555549</v>
+      </c>
+      <c r="I102" s="24">
+        <f t="shared" si="45"/>
+        <v>10809.166666666664</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C103" s="5"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="21">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F103" s="22">
+        <f t="shared" si="42"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="G103" s="16">
+        <f t="shared" si="43"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="H103" s="16">
+        <f t="shared" si="44"/>
+        <v>2.6493055555555554</v>
+      </c>
+      <c r="I103" s="24">
+        <f t="shared" si="45"/>
+        <v>10809.166666666666</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C104" s="5"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="21">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F104" s="22">
+        <f t="shared" si="42"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="G104" s="16">
+        <f t="shared" si="43"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="H104" s="16">
+        <f t="shared" si="44"/>
+        <v>2.6493055555555554</v>
+      </c>
+      <c r="I104" s="24">
+        <f t="shared" si="45"/>
+        <v>10809.166666666666</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C105" s="5"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="21">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F105" s="22">
+        <f t="shared" si="42"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="G105" s="16">
+        <f t="shared" si="43"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="H105" s="16">
+        <f t="shared" si="44"/>
+        <v>2.6493055555555554</v>
+      </c>
+      <c r="I105" s="24">
+        <f t="shared" si="45"/>
+        <v>10809.166666666666</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C106" s="5"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="21">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F106" s="22">
+        <f t="shared" si="42"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="G106" s="16">
+        <f t="shared" si="43"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="H106" s="16">
+        <f t="shared" si="44"/>
+        <v>2.6493055555555554</v>
+      </c>
+      <c r="I106" s="24">
+        <f t="shared" si="45"/>
+        <v>10809.166666666666</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C107" s="5"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="21">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F107" s="22">
+        <f t="shared" si="42"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="G107" s="16">
+        <f t="shared" si="43"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="H107" s="16">
+        <f t="shared" si="44"/>
+        <v>2.6493055555555554</v>
+      </c>
+      <c r="I107" s="24">
+        <f t="shared" si="45"/>
+        <v>10809.166666666666</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C108" s="5"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="21">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F108" s="22">
+        <f t="shared" si="42"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="G108" s="16">
+        <f t="shared" si="43"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="H108" s="16">
+        <f t="shared" si="44"/>
+        <v>2.6493055555555554</v>
+      </c>
+      <c r="I108" s="24">
+        <f t="shared" si="45"/>
+        <v>10809.166666666666</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C109" s="5"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="21">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F109" s="22">
+        <f t="shared" si="42"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="G109" s="16">
+        <f t="shared" si="43"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="H109" s="16">
+        <f t="shared" si="44"/>
+        <v>2.6493055555555554</v>
+      </c>
+      <c r="I109" s="24">
+        <f t="shared" si="45"/>
+        <v>10809.166666666666</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C110" s="5"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="21">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F110" s="22">
+        <f t="shared" si="42"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="G110" s="16">
+        <f t="shared" si="43"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="H110" s="16">
+        <f t="shared" si="44"/>
+        <v>2.6493055555555554</v>
+      </c>
+      <c r="I110" s="24">
+        <f t="shared" si="45"/>
+        <v>10809.166666666666</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C111" s="5"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="21">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F111" s="22">
+        <f t="shared" si="42"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="G111" s="16">
+        <f t="shared" si="43"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="H111" s="16">
+        <f t="shared" si="44"/>
+        <v>2.6493055555555554</v>
+      </c>
+      <c r="I111" s="24">
+        <f t="shared" si="45"/>
+        <v>10809.166666666666</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C112" s="5"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="21">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F112" s="22">
+        <f t="shared" si="42"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="G112" s="16">
+        <f t="shared" si="43"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="H112" s="16">
+        <f t="shared" si="44"/>
+        <v>2.6493055555555554</v>
+      </c>
+      <c r="I112" s="24">
+        <f t="shared" si="45"/>
+        <v>10809.166666666666</v>
+      </c>
+    </row>
+    <row r="113" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C113" s="5"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="21">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F113" s="22">
+        <f t="shared" si="42"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="G113" s="16">
+        <f t="shared" si="43"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="H113" s="16">
+        <f t="shared" si="44"/>
+        <v>2.6493055555555554</v>
+      </c>
+      <c r="I113" s="24">
+        <f t="shared" si="45"/>
+        <v>10809.166666666666</v>
+      </c>
+    </row>
+    <row r="114" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C114" s="5"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="21">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F114" s="22">
+        <f t="shared" si="42"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="G114" s="16">
+        <f t="shared" si="43"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="H114" s="16">
+        <f t="shared" si="44"/>
+        <v>2.6493055555555554</v>
+      </c>
+      <c r="I114" s="24">
+        <f t="shared" si="45"/>
+        <v>10809.166666666666</v>
+      </c>
+    </row>
+    <row r="115" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C115" s="5"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="21">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F115" s="22">
+        <f t="shared" si="42"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="G115" s="16">
+        <f t="shared" si="43"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="H115" s="16">
+        <f t="shared" si="44"/>
+        <v>2.6493055555555554</v>
+      </c>
+      <c r="I115" s="24">
+        <f t="shared" si="45"/>
+        <v>10809.166666666666</v>
+      </c>
+    </row>
+    <row r="116" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C116" s="5"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="21">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F116" s="22">
+        <f t="shared" si="42"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="G116" s="16">
+        <f t="shared" si="43"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="H116" s="16">
+        <f t="shared" si="44"/>
+        <v>2.6493055555555554</v>
+      </c>
+      <c r="I116" s="24">
+        <f t="shared" si="45"/>
+        <v>10809.166666666666</v>
+      </c>
+    </row>
+    <row r="117" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C117" s="5"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="21">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F117" s="22">
+        <f t="shared" si="42"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="G117" s="16">
+        <f t="shared" si="43"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="H117" s="16">
+        <f t="shared" si="44"/>
+        <v>2.6493055555555554</v>
+      </c>
+      <c r="I117" s="24">
+        <f t="shared" si="45"/>
+        <v>10809.166666666666</v>
+      </c>
+    </row>
+    <row r="118" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C118" s="5"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="21">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F118" s="22">
+        <f t="shared" si="42"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="G118" s="16">
+        <f t="shared" si="43"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="H118" s="16">
+        <f t="shared" si="44"/>
+        <v>2.6493055555555554</v>
+      </c>
+      <c r="I118" s="24">
+        <f t="shared" si="45"/>
+        <v>10809.166666666666</v>
+      </c>
+    </row>
+    <row r="119" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C119" s="5"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="21">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F119" s="22">
+        <f t="shared" si="42"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="G119" s="16">
+        <f t="shared" si="43"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="H119" s="16">
+        <f t="shared" si="44"/>
+        <v>2.6493055555555554</v>
+      </c>
+      <c r="I119" s="24">
+        <f t="shared" si="45"/>
+        <v>10809.166666666666</v>
+      </c>
+    </row>
+    <row r="120" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C120" s="5"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="21">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F120" s="22">
+        <f t="shared" si="42"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="G120" s="16">
+        <f t="shared" si="43"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="H120" s="16">
+        <f t="shared" si="44"/>
+        <v>2.6493055555555554</v>
+      </c>
+      <c r="I120" s="24">
+        <f t="shared" si="45"/>
+        <v>10809.166666666666</v>
+      </c>
+    </row>
+    <row r="121" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C121" s="5"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="21">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F121" s="22">
+        <f t="shared" si="42"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="G121" s="16">
+        <f t="shared" si="43"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="H121" s="16">
+        <f t="shared" si="44"/>
+        <v>2.6493055555555554</v>
+      </c>
+      <c r="I121" s="24">
+        <f t="shared" si="45"/>
+        <v>10809.166666666666</v>
+      </c>
+    </row>
+    <row r="122" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C122" s="5"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="21">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F122" s="22">
+        <f t="shared" si="42"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="G122" s="16">
+        <f t="shared" si="43"/>
+        <v>2.6493055555555571</v>
+      </c>
+      <c r="H122" s="16">
+        <f t="shared" si="44"/>
+        <v>2.6493055555555554</v>
+      </c>
+      <c r="I122" s="24">
+        <f t="shared" si="45"/>
+        <v>10809.166666666666</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B70:B71"/>
+  <mergeCells count="28">
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="B28:B29"/>
@@ -3741,8 +4398,11 @@
     <mergeCell ref="B63:B65"/>
     <mergeCell ref="B54:B59"/>
     <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B70:B71"/>
     <mergeCell ref="K13:K17"/>
     <mergeCell ref="K18:K22"/>
     <mergeCell ref="B14:B18"/>
@@ -3753,10 +4413,11 @@
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719973FE-3505-49A8-9F06-3DD200993394}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>Vektorizace, první sada</t>
   </si>
@@ -167,12 +176,15 @@
   </si>
   <si>
     <t>24.11.</t>
+  </si>
+  <si>
+    <t>25.11.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
@@ -498,24 +510,24 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -531,7 +543,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -606,6 +618,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -641,6 +670,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -816,11 +862,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,10 +888,10 @@
       <c r="B1" s="40"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="41" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="18" t="s">
@@ -866,8 +912,8 @@
       <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="13" t="s">
         <v>14</v>
       </c>
@@ -1047,7 +1093,7 @@
         <v>16716.666666666664</v>
       </c>
       <c r="J13" s="7"/>
-      <c r="K13" s="42"/>
+      <c r="K13" s="45"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="10"/>
@@ -1063,7 +1109,7 @@
       <c r="X13" s="7"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5">
@@ -1093,7 +1139,7 @@
         <v>16915</v>
       </c>
       <c r="J14" s="7"/>
-      <c r="K14" s="42"/>
+      <c r="K14" s="45"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="10"/>
@@ -1109,7 +1155,7 @@
       <c r="X14" s="7"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="5">
         <v>0.68402777777777779</v>
       </c>
@@ -1137,7 +1183,7 @@
         <v>17184.166666666664</v>
       </c>
       <c r="J15" s="7"/>
-      <c r="K15" s="42"/>
+      <c r="K15" s="45"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="10"/>
@@ -1153,7 +1199,7 @@
       <c r="X15" s="7"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="41"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="5">
         <v>0.76041666666666663</v>
       </c>
@@ -1181,7 +1227,7 @@
         <v>17269.166666666664</v>
       </c>
       <c r="J16" s="7"/>
-      <c r="K16" s="42"/>
+      <c r="K16" s="45"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="10"/>
@@ -1197,7 +1243,7 @@
       <c r="X16" s="7"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="41"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="5">
         <v>0.80208333333333337</v>
       </c>
@@ -1225,7 +1271,7 @@
         <v>17524.166666666664</v>
       </c>
       <c r="J17" s="7"/>
-      <c r="K17" s="42"/>
+      <c r="K17" s="45"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="10"/>
@@ -1241,7 +1287,7 @@
       <c r="X17" s="7"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="41"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="5">
         <v>0.875</v>
       </c>
@@ -1269,7 +1315,7 @@
         <v>17651.666666666664</v>
       </c>
       <c r="J18" s="7"/>
-      <c r="K18" s="42"/>
+      <c r="K18" s="45"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="10"/>
@@ -1285,7 +1331,7 @@
       <c r="X18" s="7"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="5">
@@ -1315,7 +1361,7 @@
         <v>17878.333333333332</v>
       </c>
       <c r="J19" s="7"/>
-      <c r="K19" s="42"/>
+      <c r="K19" s="45"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="10"/>
@@ -1331,7 +1377,7 @@
       <c r="X19" s="7"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="41"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="5">
         <v>0.59722222222222221</v>
       </c>
@@ -1359,7 +1405,7 @@
         <v>18246.666666666664</v>
       </c>
       <c r="J20" s="7"/>
-      <c r="K20" s="42"/>
+      <c r="K20" s="45"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="10"/>
@@ -1375,7 +1421,7 @@
       <c r="X20" s="7"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="41"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="5">
         <v>0.69444444444444453</v>
       </c>
@@ -1403,7 +1449,7 @@
         <v>18388.333333333332</v>
       </c>
       <c r="J21" s="7"/>
-      <c r="K21" s="42"/>
+      <c r="K21" s="45"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="10"/>
@@ -1419,7 +1465,7 @@
       <c r="X21" s="7"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="41"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="5">
         <v>0.75</v>
       </c>
@@ -1447,7 +1493,7 @@
         <v>18515.833333333332</v>
       </c>
       <c r="J22" s="7"/>
-      <c r="K22" s="42"/>
+      <c r="K22" s="45"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="10"/>
@@ -1463,7 +1509,7 @@
       <c r="X22" s="7"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="41"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="5">
         <v>0.79513888888888884</v>
       </c>
@@ -1507,7 +1553,7 @@
       <c r="X23" s="7"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="5">
@@ -1553,7 +1599,7 @@
       <c r="X24" s="7"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="42"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -1597,7 +1643,7 @@
       <c r="X25" s="7"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="42"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="5">
         <v>0.69444444444444453</v>
       </c>
@@ -1641,7 +1687,7 @@
       <c r="X26" s="7"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="42"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="5">
         <v>0.83333333333333337</v>
       </c>
@@ -1685,7 +1731,7 @@
       <c r="X27" s="7"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="43" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="5">
@@ -1731,7 +1777,7 @@
       <c r="X28" s="7"/>
     </row>
     <row r="29" spans="2:24" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="45"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="28">
         <v>0.61111111111111105</v>
       </c>
@@ -1776,10 +1822,10 @@
       <c r="B31" s="40"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="43" t="s">
+      <c r="E31" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="44" t="s">
+      <c r="F31" s="41" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="18" t="s">
@@ -1800,8 +1846,8 @@
       <c r="D32" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="44"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="13" t="s">
         <v>14</v>
       </c>
@@ -1816,7 +1862,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="25">
@@ -1847,7 +1893,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="41"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="5">
         <v>0.65277777777777779</v>
       </c>
@@ -1876,7 +1922,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="41"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="5">
         <v>0.67013888888888884</v>
       </c>
@@ -1936,7 +1982,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="5">
@@ -1967,7 +2013,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="41"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="5">
         <v>0.77083333333333337</v>
       </c>
@@ -1996,7 +2042,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="41"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="5">
         <v>0.77777777777777779</v>
       </c>
@@ -2025,7 +2071,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="41"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="5">
         <v>0.93055555555555547</v>
       </c>
@@ -2054,7 +2100,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="43" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="5">
@@ -2085,7 +2131,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="41"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="5">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -2114,7 +2160,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="41"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="5">
         <v>0.60069444444444442</v>
       </c>
@@ -2143,7 +2189,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="41"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="5">
         <v>0.70138888888888884</v>
       </c>
@@ -2172,7 +2218,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="41"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="5">
         <v>0.78472222222222221</v>
       </c>
@@ -2201,7 +2247,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="41"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="5">
         <v>0.92708333333333337</v>
       </c>
@@ -2230,7 +2276,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="43" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="5">
@@ -2261,7 +2307,7 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="41"/>
+      <c r="B48" s="43"/>
       <c r="C48" s="5">
         <v>0.63541666666666663</v>
       </c>
@@ -2290,7 +2336,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="41"/>
+      <c r="B49" s="43"/>
       <c r="C49" s="5">
         <v>0.74305555555555547</v>
       </c>
@@ -2319,7 +2365,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="41"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="5">
         <v>0.78819444444444453</v>
       </c>
@@ -2348,7 +2394,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="41"/>
+      <c r="B51" s="43"/>
       <c r="C51" s="5">
         <v>0.81597222222222221</v>
       </c>
@@ -2377,7 +2423,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="41"/>
+      <c r="B52" s="43"/>
       <c r="C52" s="5">
         <v>0.89583333333333337</v>
       </c>
@@ -2409,7 +2455,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="41"/>
+      <c r="B53" s="43"/>
       <c r="C53" s="5">
         <v>0.99652777777777779</v>
       </c>
@@ -2441,7 +2487,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="43" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="5">
@@ -2475,7 +2521,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="41"/>
+      <c r="B55" s="43"/>
       <c r="C55" s="5">
         <v>0.19444444444444445</v>
       </c>
@@ -2504,7 +2550,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="41"/>
+      <c r="B56" s="43"/>
       <c r="C56" s="5">
         <v>0.625</v>
       </c>
@@ -2533,7 +2579,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="41"/>
+      <c r="B57" s="43"/>
       <c r="C57" s="5">
         <v>0.66666666666666663</v>
       </c>
@@ -2562,7 +2608,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="41"/>
+      <c r="B58" s="43"/>
       <c r="C58" s="5">
         <v>0.70138888888888884</v>
       </c>
@@ -2591,7 +2637,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="41"/>
+      <c r="B59" s="43"/>
       <c r="C59" s="5">
         <v>0.72916666666666663</v>
       </c>
@@ -2651,7 +2697,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="43" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="5">
@@ -2682,7 +2728,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="41"/>
+      <c r="B62" s="43"/>
       <c r="C62" s="5">
         <v>0.77083333333333337</v>
       </c>
@@ -2711,7 +2757,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C63" s="5">
@@ -2742,7 +2788,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="41"/>
+      <c r="B64" s="43"/>
       <c r="C64" s="5">
         <v>0.86111111111111116</v>
       </c>
@@ -2771,7 +2817,7 @@
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B65" s="41"/>
+      <c r="B65" s="43"/>
       <c r="C65" s="5">
         <v>0.88888888888888884</v>
       </c>
@@ -2800,7 +2846,7 @@
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B66" s="41" t="s">
+      <c r="B66" s="43" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="5">
@@ -2831,7 +2877,7 @@
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B67" s="41"/>
+      <c r="B67" s="43"/>
       <c r="C67" s="5">
         <v>0.76041666666666663</v>
       </c>
@@ -2860,7 +2906,7 @@
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B68" s="41"/>
+      <c r="B68" s="43"/>
       <c r="C68" s="5">
         <v>0.89930555555555547</v>
       </c>
@@ -2889,7 +2935,7 @@
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B69" s="41"/>
+      <c r="B69" s="43"/>
       <c r="C69" s="5">
         <v>0.92361111111111116</v>
       </c>
@@ -2918,7 +2964,7 @@
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B70" s="41" t="s">
+      <c r="B70" s="43" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="5">
@@ -2949,7 +2995,7 @@
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B71" s="41"/>
+      <c r="B71" s="43"/>
       <c r="C71" s="5">
         <v>0.72222222222222221</v>
       </c>
@@ -3009,7 +3055,7 @@
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B73" s="41" t="s">
+      <c r="B73" s="43" t="s">
         <v>39</v>
       </c>
       <c r="C73" s="5">
@@ -3040,7 +3086,7 @@
       </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B74" s="41"/>
+      <c r="B74" s="43"/>
       <c r="C74" s="5">
         <v>0.68055555555555547</v>
       </c>
@@ -3075,7 +3121,7 @@
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="43" t="s">
         <v>40</v>
       </c>
       <c r="C75" s="5">
@@ -3106,7 +3152,7 @@
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B76" s="41"/>
+      <c r="B76" s="43"/>
       <c r="C76" s="5">
         <v>0.68402777777777779</v>
       </c>
@@ -3135,7 +3181,7 @@
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B77" s="41"/>
+      <c r="B77" s="43"/>
       <c r="C77" s="5">
         <v>0.79513888888888884</v>
       </c>
@@ -3164,7 +3210,7 @@
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="41"/>
+      <c r="B78" s="43"/>
       <c r="C78" s="5">
         <v>0.96875</v>
       </c>
@@ -3193,7 +3239,7 @@
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B79" s="41" t="s">
+      <c r="B79" s="43" t="s">
         <v>41</v>
       </c>
       <c r="C79" s="5">
@@ -3227,7 +3273,7 @@
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B80" s="41"/>
+      <c r="B80" s="43"/>
       <c r="C80" s="5">
         <v>0.65625</v>
       </c>
@@ -3256,7 +3302,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="41" t="s">
+      <c r="B81" s="43" t="s">
         <v>43</v>
       </c>
       <c r="C81" s="5">
@@ -3287,7 +3333,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="41"/>
+      <c r="B82" s="43"/>
       <c r="C82" s="5">
         <v>0.66666666666666663</v>
       </c>
@@ -3316,7 +3362,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="41"/>
+      <c r="B83" s="43"/>
       <c r="C83" s="5">
         <v>0.69791666666666663</v>
       </c>
@@ -3345,7 +3391,7 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="41" t="s">
+      <c r="B84" s="43" t="s">
         <v>44</v>
       </c>
       <c r="C84" s="5">
@@ -3376,7 +3422,7 @@
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="41"/>
+      <c r="B85" s="43"/>
       <c r="C85" s="5">
         <v>0.61805555555555558</v>
       </c>
@@ -3405,7 +3451,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="41"/>
+      <c r="B86" s="43"/>
       <c r="C86" s="5">
         <v>0.86805555555555547</v>
       </c>
@@ -3434,7 +3480,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="41" t="s">
+      <c r="B87" s="43" t="s">
         <v>45</v>
       </c>
       <c r="C87" s="5">
@@ -3465,7 +3511,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="41"/>
+      <c r="B88" s="43"/>
       <c r="C88" s="5">
         <v>0.88541666666666663</v>
       </c>
@@ -3525,7 +3571,7 @@
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="41" t="s">
+      <c r="B90" s="43" t="s">
         <v>47</v>
       </c>
       <c r="C90" s="5">
@@ -3556,7 +3602,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="41"/>
+      <c r="B91" s="43"/>
       <c r="C91" s="5">
         <v>0.3576388888888889</v>
       </c>
@@ -3585,7 +3631,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="41"/>
+      <c r="B92" s="43"/>
       <c r="C92" s="5">
         <v>0.39583333333333331</v>
       </c>
@@ -3614,7 +3660,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="41"/>
+      <c r="B93" s="43"/>
       <c r="C93" s="5">
         <v>0.4548611111111111</v>
       </c>
@@ -3643,7 +3689,7 @@
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="41"/>
+      <c r="B94" s="43"/>
       <c r="C94" s="5">
         <v>0.48958333333333331</v>
       </c>
@@ -3672,7 +3718,7 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="41" t="s">
+      <c r="B95" s="43" t="s">
         <v>48</v>
       </c>
       <c r="C95" s="5">
@@ -3703,7 +3749,7 @@
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="41"/>
+      <c r="B96" s="43"/>
       <c r="C96" s="5">
         <v>0.5</v>
       </c>
@@ -3732,7 +3778,7 @@
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97" s="41"/>
+      <c r="B97" s="43"/>
       <c r="C97" s="5">
         <v>0.70138888888888884</v>
       </c>
@@ -3761,7 +3807,7 @@
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="41" t="s">
+      <c r="B98" s="43" t="s">
         <v>49</v>
       </c>
       <c r="C98" s="5">
@@ -3792,7 +3838,7 @@
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="41"/>
+      <c r="B99" s="43"/>
       <c r="C99" s="5">
         <v>0.51736111111111105</v>
       </c>
@@ -3821,7 +3867,7 @@
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="41"/>
+      <c r="B100" s="43"/>
       <c r="C100" s="5">
         <v>0.67361111111111116</v>
       </c>
@@ -3850,7 +3896,7 @@
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="43" t="s">
         <v>50</v>
       </c>
       <c r="C101" s="5">
@@ -3881,6 +3927,7 @@
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="43"/>
       <c r="C102" s="5">
         <v>0.65277777777777779</v>
       </c>
@@ -3909,75 +3956,90 @@
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C103" s="5"/>
-      <c r="D103" s="19"/>
+      <c r="B103" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C103" s="5">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="D103" s="19">
+        <v>0.5083333333333333</v>
+      </c>
       <c r="E103" s="21">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1.7361111111111105E-2</v>
       </c>
       <c r="F103" s="22">
         <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
+        <v>2.6666666666666683</v>
       </c>
       <c r="G103" s="16">
         <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
+        <v>2.6666666666666683</v>
       </c>
       <c r="H103" s="16">
         <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
+        <v>2.6666666666666661</v>
       </c>
       <c r="I103" s="24">
         <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
+        <v>10879.999999999998</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C104" s="5"/>
-      <c r="D104" s="19"/>
+      <c r="C104" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="D104" s="19">
+        <v>0.57291666666666663</v>
+      </c>
       <c r="E104" s="21">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="F104" s="22">
         <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
+        <v>2.6770833333333348</v>
       </c>
       <c r="G104" s="16">
         <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
+        <v>2.6770833333333348</v>
       </c>
       <c r="H104" s="16">
         <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
+        <v>2.6770833333333326</v>
       </c>
       <c r="I104" s="24">
         <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
+        <v>10922.499999999998</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C105" s="5"/>
-      <c r="D105" s="19"/>
+      <c r="C105" s="5">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D105" s="19">
+        <v>0.60069444444444442</v>
+      </c>
       <c r="E105" s="21">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>3.4722222222222099E-3</v>
       </c>
       <c r="F105" s="22">
         <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="G105" s="16">
         <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="H105" s="16">
         <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
+        <v>2.6805555555555545</v>
       </c>
       <c r="I105" s="24">
         <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
+        <v>10936.666666666664</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
@@ -3989,19 +4051,19 @@
       </c>
       <c r="F106" s="22">
         <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="G106" s="16">
         <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="H106" s="16">
         <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
+        <v>2.6805555555555545</v>
       </c>
       <c r="I106" s="24">
         <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
+        <v>10936.666666666664</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
@@ -4013,19 +4075,19 @@
       </c>
       <c r="F107" s="22">
         <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="G107" s="16">
         <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="H107" s="16">
         <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
+        <v>2.6805555555555545</v>
       </c>
       <c r="I107" s="24">
         <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
+        <v>10936.666666666664</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
@@ -4037,19 +4099,19 @@
       </c>
       <c r="F108" s="22">
         <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="G108" s="16">
         <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="H108" s="16">
         <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
+        <v>2.6805555555555545</v>
       </c>
       <c r="I108" s="24">
         <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
+        <v>10936.666666666664</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
@@ -4061,19 +4123,19 @@
       </c>
       <c r="F109" s="22">
         <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="G109" s="16">
         <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="H109" s="16">
         <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
+        <v>2.6805555555555545</v>
       </c>
       <c r="I109" s="24">
         <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
+        <v>10936.666666666664</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
@@ -4085,19 +4147,19 @@
       </c>
       <c r="F110" s="22">
         <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="G110" s="16">
         <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="H110" s="16">
         <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
+        <v>2.6805555555555545</v>
       </c>
       <c r="I110" s="24">
         <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
+        <v>10936.666666666664</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
@@ -4109,19 +4171,19 @@
       </c>
       <c r="F111" s="22">
         <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="G111" s="16">
         <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="H111" s="16">
         <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
+        <v>2.6805555555555545</v>
       </c>
       <c r="I111" s="24">
         <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
+        <v>10936.666666666664</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
@@ -4133,19 +4195,19 @@
       </c>
       <c r="F112" s="22">
         <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="G112" s="16">
         <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="H112" s="16">
         <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
+        <v>2.6805555555555545</v>
       </c>
       <c r="I112" s="24">
         <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
+        <v>10936.666666666664</v>
       </c>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.25">
@@ -4157,19 +4219,19 @@
       </c>
       <c r="F113" s="22">
         <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="G113" s="16">
         <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="H113" s="16">
         <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
+        <v>2.6805555555555545</v>
       </c>
       <c r="I113" s="24">
         <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
+        <v>10936.666666666664</v>
       </c>
     </row>
     <row r="114" spans="3:9" x14ac:dyDescent="0.25">
@@ -4181,19 +4243,19 @@
       </c>
       <c r="F114" s="22">
         <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="G114" s="16">
         <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="H114" s="16">
         <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
+        <v>2.6805555555555545</v>
       </c>
       <c r="I114" s="24">
         <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
+        <v>10936.666666666664</v>
       </c>
     </row>
     <row r="115" spans="3:9" x14ac:dyDescent="0.25">
@@ -4205,19 +4267,19 @@
       </c>
       <c r="F115" s="22">
         <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="G115" s="16">
         <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="H115" s="16">
         <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
+        <v>2.6805555555555545</v>
       </c>
       <c r="I115" s="24">
         <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
+        <v>10936.666666666664</v>
       </c>
     </row>
     <row r="116" spans="3:9" x14ac:dyDescent="0.25">
@@ -4229,19 +4291,19 @@
       </c>
       <c r="F116" s="22">
         <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="G116" s="16">
         <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="H116" s="16">
         <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
+        <v>2.6805555555555545</v>
       </c>
       <c r="I116" s="24">
         <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
+        <v>10936.666666666664</v>
       </c>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.25">
@@ -4253,19 +4315,19 @@
       </c>
       <c r="F117" s="22">
         <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="G117" s="16">
         <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="H117" s="16">
         <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
+        <v>2.6805555555555545</v>
       </c>
       <c r="I117" s="24">
         <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
+        <v>10936.666666666664</v>
       </c>
     </row>
     <row r="118" spans="3:9" x14ac:dyDescent="0.25">
@@ -4277,19 +4339,19 @@
       </c>
       <c r="F118" s="22">
         <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="G118" s="16">
         <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="H118" s="16">
         <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
+        <v>2.6805555555555545</v>
       </c>
       <c r="I118" s="24">
         <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
+        <v>10936.666666666664</v>
       </c>
     </row>
     <row r="119" spans="3:9" x14ac:dyDescent="0.25">
@@ -4301,19 +4363,19 @@
       </c>
       <c r="F119" s="22">
         <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="G119" s="16">
         <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="H119" s="16">
         <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
+        <v>2.6805555555555545</v>
       </c>
       <c r="I119" s="24">
         <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
+        <v>10936.666666666664</v>
       </c>
     </row>
     <row r="120" spans="3:9" x14ac:dyDescent="0.25">
@@ -4325,19 +4387,19 @@
       </c>
       <c r="F120" s="22">
         <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="G120" s="16">
         <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="H120" s="16">
         <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
+        <v>2.6805555555555545</v>
       </c>
       <c r="I120" s="24">
         <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
+        <v>10936.666666666664</v>
       </c>
     </row>
     <row r="121" spans="3:9" x14ac:dyDescent="0.25">
@@ -4349,19 +4411,19 @@
       </c>
       <c r="F121" s="22">
         <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="G121" s="16">
         <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="H121" s="16">
         <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
+        <v>2.6805555555555545</v>
       </c>
       <c r="I121" s="24">
         <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
+        <v>10936.666666666664</v>
       </c>
     </row>
     <row r="122" spans="3:9" x14ac:dyDescent="0.25">
@@ -4373,36 +4435,29 @@
       </c>
       <c r="F122" s="22">
         <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="G122" s="16">
         <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
+        <v>2.6805555555555571</v>
       </c>
       <c r="H122" s="16">
         <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
+        <v>2.6805555555555545</v>
       </c>
       <c r="I122" s="24">
         <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
+        <v>10936.666666666664</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B70:B71"/>
+  <mergeCells count="29">
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
     <mergeCell ref="K13:K17"/>
     <mergeCell ref="K18:K22"/>
     <mergeCell ref="B14:B18"/>
@@ -4413,11 +4468,19 @@
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B61:B62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>Vektorizace, první sada</t>
   </si>
@@ -124,12 +124,6 @@
     <t>19.10.</t>
   </si>
   <si>
-    <t>EyeTracking</t>
-  </si>
-  <si>
-    <t>1h</t>
-  </si>
-  <si>
     <t>23.10.</t>
   </si>
   <si>
@@ -167,6 +161,48 @@
   </si>
   <si>
     <t>24.11.</t>
+  </si>
+  <si>
+    <t>ZACATEK 3ti casti - Lipno</t>
+  </si>
+  <si>
+    <t>13.12.</t>
+  </si>
+  <si>
+    <t>14.12.</t>
+  </si>
+  <si>
+    <t>15.12.</t>
+  </si>
+  <si>
+    <t>17.12.</t>
+  </si>
+  <si>
+    <t>18.12.</t>
+  </si>
+  <si>
+    <t>19.12.</t>
+  </si>
+  <si>
+    <t>ArcGIS PRO</t>
+  </si>
+  <si>
+    <t>nahlaseno 84h 20min - SMS Cajthaml</t>
+  </si>
+  <si>
+    <t>20.12.</t>
+  </si>
+  <si>
+    <t>Vektorizace Lipno</t>
+  </si>
+  <si>
+    <t>21.12.</t>
+  </si>
+  <si>
+    <t>22.12.</t>
+  </si>
+  <si>
+    <t>29.12.</t>
   </si>
 </sst>
 </file>
@@ -226,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -426,16 +462,130 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -487,19 +637,40 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -511,6 +682,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -817,64 +994,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X122"/>
+  <dimension ref="A1:X154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="K136" sqref="K136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="4"/>
-    <col min="5" max="5" width="7.85546875" style="20" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="22"/>
-    <col min="7" max="7" width="9.140625" style="14"/>
-    <col min="8" max="8" width="11.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="7.85546875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="21"/>
+    <col min="7" max="7" width="9.140625" style="13"/>
+    <col min="8" max="8" width="11.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="40"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="43" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="23"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="13" t="s">
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="22" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="1">
@@ -882,1525 +1059,1525 @@
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="49" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>0.83333333333333337</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>0.83333333333333337</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="23">
         <f>H4*24*$J$2</f>
         <v>3400</v>
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="H5" s="16"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>2.9722222222222219</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <f>H4+G7</f>
         <v>3.8055555555555554</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="23">
         <f>H7*24*$J$2</f>
         <v>15526.666666666666</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>0.20833333333333334</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <f>H7+G9</f>
         <v>4.0138888888888884</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="23">
         <f t="shared" ref="I9" si="0">H9*24*$J$2</f>
         <v>16376.666666666664</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>0.5</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>0.54861111111111105</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <f t="shared" ref="E12:E23" si="1">D12-C12</f>
         <v>4.8611111111111049E-2</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="21">
         <f>E12</f>
         <v>4.8611111111111049E-2</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <f>F12</f>
         <v>4.8611111111111049E-2</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <f>(H9+G12)</f>
         <v>4.0624999999999991</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="23">
         <f>H12*24*$J$2</f>
         <v>16574.999999999996</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.5</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>0.53472222222222221</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="21">
         <f>F12+E13</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <f t="shared" ref="G13:G37" si="2">F13</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="15">
         <f>(H12+G13-G12)</f>
         <v>4.0972222222222214</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="23">
         <f t="shared" ref="I13:I29" si="3">H13*24*$J$2</f>
         <v>16716.666666666664</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>0.625</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>0.67361111111111116</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <f t="shared" si="1"/>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="21">
         <f t="shared" ref="F14:F37" si="4">F13+E14</f>
         <v>0.13194444444444442</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <f t="shared" si="2"/>
         <v>0.13194444444444442</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
         <f t="shared" ref="H14:H41" si="5">(H13+G14-G13)</f>
         <v>4.145833333333333</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="23">
         <f t="shared" si="3"/>
         <v>16915</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
-      <c r="C15" s="5">
+      <c r="B15" s="53"/>
+      <c r="C15" s="4">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>0.75</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <f t="shared" si="1"/>
         <v>6.597222222222221E-2</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="21">
         <f t="shared" si="4"/>
         <v>0.19791666666666663</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="15">
         <f t="shared" si="2"/>
         <v>0.19791666666666663</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="15">
         <f t="shared" si="5"/>
         <v>4.2118055555555554</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="23">
         <f t="shared" si="3"/>
         <v>17184.166666666664</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="41"/>
-      <c r="C16" s="5">
+      <c r="B16" s="53"/>
+      <c r="C16" s="4">
         <v>0.76041666666666663</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>0.78125</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <f t="shared" si="1"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="21">
         <f t="shared" si="4"/>
         <v>0.21875</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="15">
         <f t="shared" si="2"/>
         <v>0.21875</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="15">
         <f t="shared" si="5"/>
         <v>4.2326388888888884</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="23">
         <f t="shared" si="3"/>
         <v>17269.166666666664</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="41"/>
-      <c r="C17" s="5">
+      <c r="B17" s="53"/>
+      <c r="C17" s="4">
         <v>0.80208333333333337</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <v>0.86458333333333337</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="21">
         <f t="shared" si="4"/>
         <v>0.28125</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="15">
         <f t="shared" si="2"/>
         <v>0.28125</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="15">
         <f t="shared" si="5"/>
         <v>4.2951388888888884</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="23">
         <f t="shared" si="3"/>
         <v>17524.166666666664</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="41"/>
-      <c r="C18" s="5">
+      <c r="B18" s="53"/>
+      <c r="C18" s="4">
         <v>0.875</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <v>0.90625</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="21">
         <f t="shared" si="4"/>
         <v>0.3125</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="15">
         <f t="shared" si="2"/>
         <v>0.3125</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="15">
         <f t="shared" si="5"/>
         <v>4.3263888888888884</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="23">
         <f t="shared" si="3"/>
         <v>17651.666666666664</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>0.49305555555555558</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="18">
         <v>0.54861111111111105</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <f t="shared" si="1"/>
         <v>5.5555555555555469E-2</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="21">
         <f t="shared" si="4"/>
         <v>0.36805555555555547</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="15">
         <f t="shared" si="2"/>
         <v>0.36805555555555547</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="15">
         <f t="shared" si="5"/>
         <v>4.3819444444444438</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="23">
         <f t="shared" si="3"/>
         <v>17878.333333333332</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="41"/>
-      <c r="C20" s="5">
+      <c r="B20" s="53"/>
+      <c r="C20" s="4">
         <v>0.59722222222222221</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="18">
         <v>0.6875</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <f t="shared" si="1"/>
         <v>9.027777777777779E-2</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="21">
         <f t="shared" si="4"/>
         <v>0.45833333333333326</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="15">
         <f t="shared" si="2"/>
         <v>0.45833333333333326</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="15">
         <f t="shared" si="5"/>
         <v>4.4722222222222214</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="23">
         <f t="shared" si="3"/>
         <v>18246.666666666664</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="41"/>
-      <c r="C21" s="5">
+      <c r="B21" s="53"/>
+      <c r="C21" s="4">
         <v>0.69444444444444453</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <f t="shared" si="1"/>
         <v>3.4722222222222099E-2</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="21">
         <f t="shared" si="4"/>
         <v>0.49305555555555536</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="15">
         <f t="shared" si="2"/>
         <v>0.49305555555555536</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="15">
         <f t="shared" si="5"/>
         <v>4.5069444444444438</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="23">
         <f t="shared" si="3"/>
         <v>18388.333333333332</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="41"/>
-      <c r="C22" s="5">
+      <c r="B22" s="53"/>
+      <c r="C22" s="4">
         <v>0.75</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <v>0.78125</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="21">
         <f t="shared" si="4"/>
         <v>0.52430555555555536</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="15">
         <f t="shared" si="2"/>
         <v>0.52430555555555536</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="15">
         <f t="shared" si="5"/>
         <v>4.5381944444444438</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="23">
         <f t="shared" si="3"/>
         <v>18515.833333333332</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="41"/>
-      <c r="C23" s="5">
+      <c r="B23" s="53"/>
+      <c r="C23" s="4">
         <v>0.79513888888888884</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="18">
         <v>0.83680555555555547</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="20">
         <f t="shared" si="1"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="21">
         <f t="shared" si="4"/>
         <v>0.56597222222222199</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="15">
         <f t="shared" si="2"/>
         <v>0.56597222222222199</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="15">
         <f t="shared" si="5"/>
         <v>4.5798611111111107</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="23">
         <f t="shared" si="3"/>
         <v>18685.833333333332</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="18">
         <v>0.5625</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="20">
         <f>D24-C24</f>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="21">
         <f t="shared" si="4"/>
         <v>0.61805555555555536</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="15">
         <f t="shared" si="2"/>
         <v>0.61805555555555536</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="15">
         <f t="shared" si="5"/>
         <v>4.6319444444444438</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="23">
         <f t="shared" si="3"/>
         <v>18898.333333333332</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="42"/>
-      <c r="C25" s="5">
+      <c r="B25" s="58"/>
+      <c r="C25" s="4">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="18">
         <v>0.59027777777777779</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="20">
         <f>D25-C25</f>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="21">
         <f>F24+E25</f>
         <v>0.62499999999999978</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="15">
         <f t="shared" si="2"/>
         <v>0.62499999999999978</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="15">
         <f t="shared" si="5"/>
         <v>4.6388888888888884</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="23">
         <f t="shared" si="3"/>
         <v>18926.666666666664</v>
       </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="42"/>
-      <c r="C26" s="5">
+      <c r="B26" s="58"/>
+      <c r="C26" s="4">
         <v>0.69444444444444453</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="18">
         <v>0.81944444444444453</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="20">
         <f>D26-C26</f>
         <v>0.125</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="21">
         <f t="shared" si="4"/>
         <v>0.74999999999999978</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="15">
         <f t="shared" si="2"/>
         <v>0.74999999999999978</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="15">
         <f t="shared" si="5"/>
         <v>4.7638888888888884</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="23">
         <f t="shared" si="3"/>
         <v>19436.666666666664</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="42"/>
-      <c r="C27" s="5">
+      <c r="B27" s="58"/>
+      <c r="C27" s="4">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="18">
         <v>0.85416666666666663</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="20">
         <f>D27-C27</f>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="21">
         <f t="shared" si="4"/>
         <v>0.77083333333333304</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="15">
         <f t="shared" si="2"/>
         <v>0.77083333333333304</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="15">
         <f t="shared" si="5"/>
         <v>4.7847222222222214</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="23">
         <f t="shared" si="3"/>
         <v>19521.666666666664</v>
       </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="18">
         <v>0.60763888888888895</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="20">
         <f t="shared" ref="E28:E37" si="6">D28-C28</f>
         <v>2.430555555555558E-2</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="21">
         <f>F27+E28</f>
         <v>0.79513888888888862</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="15">
         <f t="shared" si="2"/>
         <v>0.79513888888888862</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="15">
         <f t="shared" si="5"/>
         <v>4.8090277777777768</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="23">
         <f t="shared" si="3"/>
         <v>19620.833333333328</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-    </row>
-    <row r="29" spans="2:24" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="45"/>
-      <c r="C29" s="28">
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+    </row>
+    <row r="29" spans="2:24" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="57"/>
+      <c r="C29" s="27">
         <v>0.61111111111111105</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="28">
         <v>0.6875</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="29">
         <f t="shared" si="6"/>
         <v>7.6388888888888951E-2</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="30">
         <f t="shared" si="4"/>
         <v>0.87152777777777757</v>
       </c>
-      <c r="G29" s="32">
+      <c r="G29" s="31">
         <f t="shared" si="2"/>
         <v>0.87152777777777757</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="31">
         <f t="shared" si="5"/>
         <v>4.8854166666666661</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="32">
         <f t="shared" si="3"/>
         <v>19932.499999999996</v>
       </c>
-      <c r="K29" s="34" t="s">
+      <c r="K29" s="33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:24" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="36"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="24"/>
-    </row>
-    <row r="31" spans="2:24" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="40"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="43" t="s">
+    <row r="30" spans="2:24" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="52"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="2:24" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="51"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="44" t="s">
+      <c r="F31" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="23"/>
-    </row>
-    <row r="32" spans="2:24" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="40" t="s">
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="2:24" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="13" t="s">
+      <c r="E32" s="55"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="23" t="s">
+      <c r="I32" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J32" s="34">
         <v>170</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="24">
         <v>0.63888888888888895</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="25">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="26">
         <f>D33-C33</f>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="21">
         <f>E33</f>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="15">
         <f>F33</f>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H33" s="15">
         <f>G33</f>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="23">
         <f>H33*24*$J$32</f>
         <v>28.333333333333233</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="41"/>
-      <c r="C34" s="5">
+      <c r="B34" s="53"/>
+      <c r="C34" s="4">
         <v>0.65277777777777779</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="18">
         <v>0.65625</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="20">
         <f t="shared" si="6"/>
         <v>3.4722222222222099E-3</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="21">
         <f t="shared" si="4"/>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="15">
         <f t="shared" si="2"/>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="15">
         <f>(H33+G34-G33)</f>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I34" s="23">
         <f>H34*24*$J$32</f>
         <v>42.499999999999851</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="41"/>
-      <c r="C35" s="5">
+      <c r="B35" s="53"/>
+      <c r="C35" s="4">
         <v>0.67013888888888884</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="18">
         <v>0.68055555555555547</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="20">
         <f t="shared" si="6"/>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="21">
         <f t="shared" si="4"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="15">
         <f t="shared" si="2"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="15">
         <f t="shared" si="5"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I35" s="23">
         <f t="shared" ref="I35:I41" si="7">H35*24*$J$32</f>
         <v>84.999999999999702</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="18">
         <v>0.86805555555555547</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="20">
         <f t="shared" si="6"/>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F36" s="21">
         <f t="shared" si="4"/>
         <v>6.5972222222222099E-2</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="15">
         <f t="shared" si="2"/>
         <v>6.5972222222222099E-2</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="15">
         <f t="shared" si="5"/>
         <v>6.5972222222222099E-2</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="23">
         <f t="shared" si="7"/>
         <v>269.16666666666617</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>0.70138888888888884</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="18">
         <v>0.75694444444444453</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="20">
         <f t="shared" si="6"/>
         <v>5.5555555555555691E-2</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="21">
         <f t="shared" si="4"/>
         <v>0.12152777777777779</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="15">
         <f t="shared" si="2"/>
         <v>0.12152777777777779</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H37" s="15">
         <f t="shared" si="5"/>
         <v>0.12152777777777779</v>
       </c>
-      <c r="I37" s="24">
+      <c r="I37" s="23">
         <f t="shared" si="7"/>
         <v>495.83333333333337</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="41"/>
-      <c r="C38" s="5">
+      <c r="B38" s="53"/>
+      <c r="C38" s="4">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="18">
         <v>0.81597222222222221</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="20">
         <f t="shared" ref="E38:E41" si="8">D38-C38</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F38" s="21">
         <f t="shared" ref="F38:F41" si="9">F37+E38</f>
         <v>0.16666666666666663</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="15">
         <f t="shared" ref="G38:G41" si="10">F38</f>
         <v>0.16666666666666663</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H38" s="15">
         <f t="shared" si="5"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="23">
         <f t="shared" si="7"/>
         <v>679.99999999999989</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="41"/>
-      <c r="C39" s="5">
+      <c r="B39" s="53"/>
+      <c r="C39" s="4">
         <v>0.77777777777777779</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="18">
         <v>0.85069444444444453</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="20">
         <f t="shared" si="8"/>
         <v>7.2916666666666741E-2</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="21">
         <f t="shared" si="9"/>
         <v>0.23958333333333337</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G39" s="15">
         <f t="shared" si="10"/>
         <v>0.23958333333333337</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H39" s="15">
         <f t="shared" si="5"/>
         <v>0.23958333333333337</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I39" s="23">
         <f t="shared" si="7"/>
         <v>977.50000000000011</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="41"/>
-      <c r="C40" s="5">
+      <c r="B40" s="53"/>
+      <c r="C40" s="4">
         <v>0.93055555555555547</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="18">
         <v>1</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="20">
         <f t="shared" si="8"/>
         <v>6.9444444444444531E-2</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="21">
         <f t="shared" si="9"/>
         <v>0.3090277777777779</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="15">
         <f t="shared" si="10"/>
         <v>0.3090277777777779</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H40" s="15">
         <f t="shared" si="5"/>
         <v>0.3090277777777779</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I40" s="23">
         <f t="shared" si="7"/>
         <v>1260.8333333333339</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>0</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="18">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="20">
         <f t="shared" si="8"/>
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="21">
         <f t="shared" si="9"/>
         <v>0.31944444444444459</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G41" s="15">
         <f t="shared" si="10"/>
         <v>0.31944444444444459</v>
       </c>
-      <c r="H41" s="16">
+      <c r="H41" s="15">
         <f t="shared" si="5"/>
         <v>0.31944444444444464</v>
       </c>
-      <c r="I41" s="24">
+      <c r="I41" s="23">
         <f t="shared" si="7"/>
         <v>1303.3333333333342</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="41"/>
-      <c r="C42" s="5">
+      <c r="B42" s="53"/>
+      <c r="C42" s="4">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="18">
         <v>0.13194444444444445</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="20">
         <f t="shared" ref="E42:E50" si="11">D42-C42</f>
         <v>7.9861111111111105E-2</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="21">
         <f t="shared" ref="F42:F50" si="12">F41+E42</f>
         <v>0.39930555555555569</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="15">
         <f t="shared" ref="G42:G50" si="13">F42</f>
         <v>0.39930555555555569</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H42" s="15">
         <f t="shared" ref="H42:H50" si="14">(H41+G42-G41)</f>
         <v>0.39930555555555575</v>
       </c>
-      <c r="I42" s="24">
+      <c r="I42" s="23">
         <f t="shared" ref="I42:I50" si="15">H42*24*$J$32</f>
         <v>1629.1666666666674</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="41"/>
-      <c r="C43" s="5">
+      <c r="B43" s="53"/>
+      <c r="C43" s="4">
         <v>0.60069444444444442</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="18">
         <v>0.68402777777777779</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="20">
         <f t="shared" si="11"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="21">
         <f t="shared" si="12"/>
         <v>0.48263888888888906</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="15">
         <f t="shared" si="13"/>
         <v>0.48263888888888906</v>
       </c>
-      <c r="H43" s="16">
+      <c r="H43" s="15">
         <f t="shared" si="14"/>
         <v>0.48263888888888917</v>
       </c>
-      <c r="I43" s="24">
+      <c r="I43" s="23">
         <f t="shared" si="15"/>
         <v>1969.1666666666677</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="41"/>
-      <c r="C44" s="5">
+      <c r="B44" s="53"/>
+      <c r="C44" s="4">
         <v>0.70138888888888884</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="18">
         <v>0.74652777777777779</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="20">
         <f t="shared" si="11"/>
         <v>4.5138888888888951E-2</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F44" s="21">
         <f t="shared" si="12"/>
         <v>0.52777777777777801</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G44" s="15">
         <f t="shared" si="13"/>
         <v>0.52777777777777801</v>
       </c>
-      <c r="H44" s="16">
+      <c r="H44" s="15">
         <f t="shared" si="14"/>
         <v>0.52777777777777812</v>
       </c>
-      <c r="I44" s="24">
+      <c r="I44" s="23">
         <f t="shared" si="15"/>
         <v>2153.3333333333348</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="41"/>
-      <c r="C45" s="5">
+      <c r="B45" s="53"/>
+      <c r="C45" s="4">
         <v>0.78472222222222221</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D45" s="18">
         <v>0.90972222222222221</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="20">
         <f t="shared" si="11"/>
         <v>0.125</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F45" s="21">
         <f t="shared" si="12"/>
         <v>0.65277777777777801</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G45" s="15">
         <f t="shared" si="13"/>
         <v>0.65277777777777801</v>
       </c>
-      <c r="H45" s="16">
+      <c r="H45" s="15">
         <f t="shared" si="14"/>
         <v>0.65277777777777823</v>
       </c>
-      <c r="I45" s="24">
+      <c r="I45" s="23">
         <f t="shared" si="15"/>
         <v>2663.3333333333353</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="41"/>
-      <c r="C46" s="5">
+      <c r="B46" s="53"/>
+      <c r="C46" s="4">
         <v>0.92708333333333337</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="18">
         <v>1</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="20">
         <f t="shared" si="11"/>
         <v>7.291666666666663E-2</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F46" s="21">
         <f t="shared" si="12"/>
         <v>0.72569444444444464</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="15">
         <f t="shared" si="13"/>
         <v>0.72569444444444464</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H46" s="15">
         <f t="shared" si="14"/>
         <v>0.72569444444444475</v>
       </c>
-      <c r="I46" s="24">
+      <c r="I46" s="23">
         <f t="shared" si="15"/>
         <v>2960.8333333333348</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>0</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="18">
         <v>0.19444444444444445</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="20">
         <f t="shared" si="11"/>
         <v>0.19444444444444445</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="21">
         <f t="shared" si="12"/>
         <v>0.92013888888888906</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G47" s="15">
         <f t="shared" si="13"/>
         <v>0.92013888888888906</v>
       </c>
-      <c r="H47" s="16">
+      <c r="H47" s="15">
         <f t="shared" si="14"/>
         <v>0.92013888888888928</v>
       </c>
-      <c r="I47" s="24">
+      <c r="I47" s="23">
         <f t="shared" si="15"/>
         <v>3754.1666666666683</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="41"/>
-      <c r="C48" s="5">
+      <c r="B48" s="53"/>
+      <c r="C48" s="4">
         <v>0.63541666666666663</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="18">
         <v>0.6875</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="20">
         <f t="shared" si="11"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F48" s="22">
+      <c r="F48" s="21">
         <f t="shared" si="12"/>
         <v>0.97222222222222243</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G48" s="15">
         <f t="shared" si="13"/>
         <v>0.97222222222222243</v>
       </c>
-      <c r="H48" s="16">
+      <c r="H48" s="15">
         <f t="shared" si="14"/>
         <v>0.97222222222222254</v>
       </c>
-      <c r="I48" s="24">
+      <c r="I48" s="23">
         <f t="shared" si="15"/>
         <v>3966.6666666666683</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="41"/>
-      <c r="C49" s="5">
+      <c r="B49" s="53"/>
+      <c r="C49" s="4">
         <v>0.74305555555555547</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="18">
         <v>0.75694444444444453</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="20">
         <f t="shared" si="11"/>
         <v>1.3888888888889062E-2</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F49" s="21">
         <f t="shared" si="12"/>
         <v>0.98611111111111149</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="15">
         <f t="shared" si="13"/>
         <v>0.98611111111111149</v>
       </c>
-      <c r="H49" s="16">
+      <c r="H49" s="15">
         <f t="shared" si="14"/>
         <v>0.98611111111111149</v>
       </c>
-      <c r="I49" s="24">
+      <c r="I49" s="23">
         <f t="shared" si="15"/>
         <v>4023.3333333333348</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="41"/>
-      <c r="C50" s="5">
+      <c r="B50" s="53"/>
+      <c r="C50" s="4">
         <v>0.78819444444444453</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="18">
         <v>0.80902777777777779</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="20">
         <f t="shared" si="11"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F50" s="21">
         <f t="shared" si="12"/>
         <v>1.0069444444444446</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G50" s="15">
         <f t="shared" si="13"/>
         <v>1.0069444444444446</v>
       </c>
-      <c r="H50" s="16">
+      <c r="H50" s="15">
         <f t="shared" si="14"/>
         <v>1.0069444444444446</v>
       </c>
-      <c r="I50" s="24">
+      <c r="I50" s="23">
         <f t="shared" si="15"/>
         <v>4108.3333333333339</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="41"/>
-      <c r="C51" s="5">
+      <c r="B51" s="53"/>
+      <c r="C51" s="4">
         <v>0.81597222222222221</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="18">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="20">
         <f t="shared" ref="E51:E59" si="16">D51-C51</f>
         <v>1.736111111111116E-2</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F51" s="21">
         <f t="shared" ref="F51:F59" si="17">F50+E51</f>
         <v>1.0243055555555558</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G51" s="15">
         <f t="shared" ref="G51:G59" si="18">F51</f>
         <v>1.0243055555555558</v>
       </c>
-      <c r="H51" s="16">
+      <c r="H51" s="15">
         <f t="shared" ref="H51:H59" si="19">(H50+G51-G50)</f>
         <v>1.0243055555555558</v>
       </c>
-      <c r="I51" s="24">
+      <c r="I51" s="23">
         <f t="shared" ref="I51:I59" si="20">H51*24*$J$32</f>
         <v>4179.1666666666679</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="41"/>
-      <c r="C52" s="5">
+      <c r="B52" s="53"/>
+      <c r="C52" s="4">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="18">
         <v>0.92361111111111116</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="20">
         <f t="shared" si="16"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F52" s="21">
         <f t="shared" si="17"/>
         <v>1.0520833333333335</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G52" s="15">
         <f t="shared" si="18"/>
         <v>1.0520833333333335</v>
       </c>
-      <c r="H52" s="16">
+      <c r="H52" s="15">
         <f t="shared" si="19"/>
         <v>1.0520833333333335</v>
       </c>
-      <c r="I52" s="24">
+      <c r="I52" s="23">
         <f t="shared" si="20"/>
         <v>4292.5000000000009</v>
       </c>
@@ -2409,30 +2586,30 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="41"/>
-      <c r="C53" s="5">
+      <c r="B53" s="53"/>
+      <c r="C53" s="4">
         <v>0.99652777777777779</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D53" s="18">
         <v>1</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="20">
         <f t="shared" si="16"/>
         <v>3.4722222222222099E-3</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="21">
         <f t="shared" si="17"/>
         <v>1.0555555555555558</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G53" s="15">
         <f t="shared" si="18"/>
         <v>1.0555555555555558</v>
       </c>
-      <c r="H53" s="16">
+      <c r="H53" s="15">
         <f t="shared" si="19"/>
         <v>1.0555555555555558</v>
       </c>
-      <c r="I53" s="24">
+      <c r="I53" s="23">
         <f t="shared" si="20"/>
         <v>4306.6666666666679</v>
       </c>
@@ -2441,32 +2618,32 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="4">
         <v>0</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="18">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="20">
         <f t="shared" si="16"/>
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F54" s="21">
         <f t="shared" si="17"/>
         <v>1.1076388888888891</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="15">
         <f t="shared" si="18"/>
         <v>1.1076388888888891</v>
       </c>
-      <c r="H54" s="16">
+      <c r="H54" s="15">
         <f t="shared" si="19"/>
         <v>1.1076388888888888</v>
       </c>
-      <c r="I54" s="24">
+      <c r="I54" s="23">
         <f t="shared" si="20"/>
         <v>4519.1666666666661</v>
       </c>
@@ -2475,1921 +2652,2895 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="41"/>
-      <c r="C55" s="5">
+      <c r="B55" s="53"/>
+      <c r="C55" s="4">
         <v>0.19444444444444445</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="18">
         <v>0.22569444444444445</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="20">
         <f t="shared" si="16"/>
         <v>3.125E-2</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F55" s="21">
         <f t="shared" si="17"/>
         <v>1.1388888888888891</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G55" s="15">
         <f t="shared" si="18"/>
         <v>1.1388888888888891</v>
       </c>
-      <c r="H55" s="16">
+      <c r="H55" s="15">
         <f t="shared" si="19"/>
         <v>1.1388888888888886</v>
       </c>
-      <c r="I55" s="24">
+      <c r="I55" s="23">
         <f t="shared" si="20"/>
         <v>4646.6666666666661</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="41"/>
-      <c r="C56" s="5">
+      <c r="B56" s="53"/>
+      <c r="C56" s="4">
         <v>0.625</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="18">
         <v>0.65972222222222221</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="20">
         <f t="shared" si="16"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F56" s="21">
         <f t="shared" si="17"/>
         <v>1.1736111111111112</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G56" s="15">
         <f t="shared" si="18"/>
         <v>1.1736111111111112</v>
       </c>
-      <c r="H56" s="16">
+      <c r="H56" s="15">
         <f t="shared" si="19"/>
         <v>1.1736111111111109</v>
       </c>
-      <c r="I56" s="24">
+      <c r="I56" s="23">
         <f t="shared" si="20"/>
         <v>4788.333333333333</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="41"/>
-      <c r="C57" s="5">
+      <c r="B57" s="53"/>
+      <c r="C57" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="18">
         <v>0.69791666666666663</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E57" s="20">
         <f t="shared" si="16"/>
         <v>3.125E-2</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F57" s="21">
         <f t="shared" si="17"/>
         <v>1.2048611111111112</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="15">
         <f t="shared" si="18"/>
         <v>1.2048611111111112</v>
       </c>
-      <c r="H57" s="16">
+      <c r="H57" s="15">
         <f t="shared" si="19"/>
         <v>1.2048611111111112</v>
       </c>
-      <c r="I57" s="24">
+      <c r="I57" s="23">
         <f t="shared" si="20"/>
         <v>4915.8333333333339</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="41"/>
-      <c r="C58" s="5">
+      <c r="B58" s="53"/>
+      <c r="C58" s="4">
         <v>0.70138888888888884</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="18">
         <v>0.71180555555555547</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="20">
         <f t="shared" si="16"/>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F58" s="21">
         <f t="shared" si="17"/>
         <v>1.2152777777777777</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G58" s="15">
         <f t="shared" si="18"/>
         <v>1.2152777777777777</v>
       </c>
-      <c r="H58" s="16">
+      <c r="H58" s="15">
         <f t="shared" si="19"/>
         <v>1.2152777777777777</v>
       </c>
-      <c r="I58" s="24">
+      <c r="I58" s="23">
         <f t="shared" si="20"/>
         <v>4958.333333333333</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="41"/>
-      <c r="C59" s="5">
+      <c r="B59" s="53"/>
+      <c r="C59" s="4">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D59" s="18">
         <v>0.76041666666666663</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E59" s="20">
         <f t="shared" si="16"/>
         <v>3.125E-2</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F59" s="21">
         <f t="shared" si="17"/>
         <v>1.2465277777777777</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G59" s="15">
         <f t="shared" si="18"/>
         <v>1.2465277777777777</v>
       </c>
-      <c r="H59" s="16">
+      <c r="H59" s="15">
         <f t="shared" si="19"/>
         <v>1.2465277777777777</v>
       </c>
-      <c r="I59" s="24">
+      <c r="I59" s="23">
         <f t="shared" si="20"/>
         <v>5085.833333333333</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="4">
         <v>0.69444444444444453</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D60" s="18">
         <v>0.71527777777777779</v>
       </c>
-      <c r="E60" s="21">
+      <c r="E60" s="20">
         <f t="shared" ref="E60:E70" si="21">D60-C60</f>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="F60" s="22">
+      <c r="F60" s="21">
         <f t="shared" ref="F60:F70" si="22">F59+E60</f>
         <v>1.2673611111111109</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="15">
         <f t="shared" ref="G60:G70" si="23">F60</f>
         <v>1.2673611111111109</v>
       </c>
-      <c r="H60" s="16">
+      <c r="H60" s="15">
         <f t="shared" ref="H60:H70" si="24">(H59+G60-G59)</f>
         <v>1.2673611111111107</v>
       </c>
-      <c r="I60" s="24">
+      <c r="I60" s="23">
         <f t="shared" ref="I60:I70" si="25">H60*24*$J$32</f>
         <v>5170.8333333333321</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D61" s="19">
+      <c r="D61" s="18">
         <v>0.72569444444444453</v>
       </c>
-      <c r="E61" s="21">
+      <c r="E61" s="20">
         <f t="shared" si="21"/>
         <v>5.9027777777777901E-2</v>
       </c>
-      <c r="F61" s="22">
+      <c r="F61" s="21">
         <f t="shared" si="22"/>
         <v>1.3263888888888888</v>
       </c>
-      <c r="G61" s="16">
+      <c r="G61" s="15">
         <f t="shared" si="23"/>
         <v>1.3263888888888888</v>
       </c>
-      <c r="H61" s="16">
+      <c r="H61" s="15">
         <f t="shared" si="24"/>
         <v>1.3263888888888886</v>
       </c>
-      <c r="I61" s="24">
+      <c r="I61" s="23">
         <f t="shared" si="25"/>
         <v>5411.6666666666661</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="41"/>
-      <c r="C62" s="5">
+      <c r="B62" s="53"/>
+      <c r="C62" s="4">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D62" s="19">
+      <c r="D62" s="18">
         <v>0.79861111111111116</v>
       </c>
-      <c r="E62" s="21">
+      <c r="E62" s="20">
         <f t="shared" si="21"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="F62" s="22">
+      <c r="F62" s="21">
         <f t="shared" si="22"/>
         <v>1.3541666666666665</v>
       </c>
-      <c r="G62" s="16">
+      <c r="G62" s="15">
         <f t="shared" si="23"/>
         <v>1.3541666666666665</v>
       </c>
-      <c r="H62" s="16">
+      <c r="H62" s="15">
         <f t="shared" si="24"/>
         <v>1.3541666666666665</v>
       </c>
-      <c r="I62" s="24">
+      <c r="I62" s="23">
         <f t="shared" si="25"/>
         <v>5525</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="4">
         <v>0.73263888888888884</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D63" s="18">
         <v>0.75</v>
       </c>
-      <c r="E63" s="21">
+      <c r="E63" s="20">
         <f t="shared" si="21"/>
         <v>1.736111111111116E-2</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F63" s="21">
         <f t="shared" si="22"/>
         <v>1.3715277777777777</v>
       </c>
-      <c r="G63" s="16">
+      <c r="G63" s="15">
         <f t="shared" si="23"/>
         <v>1.3715277777777777</v>
       </c>
-      <c r="H63" s="16">
+      <c r="H63" s="15">
         <f t="shared" si="24"/>
         <v>1.3715277777777777</v>
       </c>
-      <c r="I63" s="24">
+      <c r="I63" s="23">
         <f t="shared" si="25"/>
         <v>5595.833333333333</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="41"/>
-      <c r="C64" s="5">
+      <c r="B64" s="53"/>
+      <c r="C64" s="4">
         <v>0.86111111111111116</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D64" s="18">
         <v>0.88194444444444453</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E64" s="20">
         <f t="shared" si="21"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="F64" s="22">
+      <c r="F64" s="21">
         <f t="shared" si="22"/>
         <v>1.3923611111111112</v>
       </c>
-      <c r="G64" s="16">
+      <c r="G64" s="15">
         <f t="shared" si="23"/>
         <v>1.3923611111111112</v>
       </c>
-      <c r="H64" s="16">
+      <c r="H64" s="15">
         <f t="shared" si="24"/>
         <v>1.3923611111111112</v>
       </c>
-      <c r="I64" s="24">
+      <c r="I64" s="23">
         <f t="shared" si="25"/>
         <v>5680.8333333333339</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B65" s="41"/>
-      <c r="C65" s="5">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="53"/>
+      <c r="C65" s="4">
         <v>0.88888888888888884</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D65" s="18">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E65" s="20">
         <f t="shared" si="21"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F65" s="21">
         <f t="shared" si="22"/>
         <v>1.4201388888888888</v>
       </c>
-      <c r="G65" s="16">
+      <c r="G65" s="15">
         <f t="shared" si="23"/>
         <v>1.4201388888888888</v>
       </c>
-      <c r="H65" s="16">
+      <c r="H65" s="15">
         <f t="shared" si="24"/>
         <v>1.4201388888888888</v>
       </c>
-      <c r="I65" s="24">
+      <c r="I65" s="23">
         <f t="shared" si="25"/>
         <v>5794.1666666666661</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B66" s="41" t="s">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="4">
         <v>0.71527777777777779</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D66" s="18">
         <v>0.73958333333333337</v>
       </c>
-      <c r="E66" s="21">
+      <c r="E66" s="20">
         <f t="shared" si="21"/>
         <v>2.430555555555558E-2</v>
       </c>
-      <c r="F66" s="22">
+      <c r="F66" s="21">
         <f t="shared" si="22"/>
         <v>1.4444444444444444</v>
       </c>
-      <c r="G66" s="16">
+      <c r="G66" s="15">
         <f t="shared" si="23"/>
         <v>1.4444444444444444</v>
       </c>
-      <c r="H66" s="16">
+      <c r="H66" s="15">
         <f t="shared" si="24"/>
         <v>1.4444444444444442</v>
       </c>
-      <c r="I66" s="24">
+      <c r="I66" s="23">
         <f t="shared" si="25"/>
         <v>5893.3333333333321</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B67" s="41"/>
-      <c r="C67" s="5">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="53"/>
+      <c r="C67" s="4">
         <v>0.76041666666666663</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D67" s="18">
         <v>0.88194444444444453</v>
       </c>
-      <c r="E67" s="21">
+      <c r="E67" s="20">
         <f t="shared" si="21"/>
         <v>0.1215277777777779</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F67" s="21">
         <f t="shared" si="22"/>
         <v>1.5659722222222223</v>
       </c>
-      <c r="G67" s="16">
+      <c r="G67" s="15">
         <f t="shared" si="23"/>
         <v>1.5659722222222223</v>
       </c>
-      <c r="H67" s="16">
+      <c r="H67" s="15">
         <f t="shared" si="24"/>
         <v>1.5659722222222221</v>
       </c>
-      <c r="I67" s="24">
+      <c r="I67" s="23">
         <f t="shared" si="25"/>
         <v>6389.1666666666661</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B68" s="41"/>
-      <c r="C68" s="5">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="53"/>
+      <c r="C68" s="4">
         <v>0.89930555555555547</v>
       </c>
-      <c r="D68" s="19">
+      <c r="D68" s="18">
         <v>0.91319444444444453</v>
       </c>
-      <c r="E68" s="21">
+      <c r="E68" s="20">
         <f t="shared" si="21"/>
         <v>1.3888888888889062E-2</v>
       </c>
-      <c r="F68" s="22">
+      <c r="F68" s="21">
         <f t="shared" si="22"/>
         <v>1.5798611111111114</v>
       </c>
-      <c r="G68" s="16">
+      <c r="G68" s="15">
         <f t="shared" si="23"/>
         <v>1.5798611111111114</v>
       </c>
-      <c r="H68" s="16">
+      <c r="H68" s="15">
         <f t="shared" si="24"/>
         <v>1.5798611111111112</v>
       </c>
-      <c r="I68" s="24">
+      <c r="I68" s="23">
         <f t="shared" si="25"/>
         <v>6445.8333333333339</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B69" s="41"/>
-      <c r="C69" s="5">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="53"/>
+      <c r="C69" s="4">
         <v>0.92361111111111116</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D69" s="18">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E69" s="21">
+      <c r="E69" s="20">
         <f t="shared" si="21"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F69" s="21">
         <f t="shared" si="22"/>
         <v>1.6145833333333335</v>
       </c>
-      <c r="G69" s="16">
+      <c r="G69" s="15">
         <f t="shared" si="23"/>
         <v>1.6145833333333335</v>
       </c>
-      <c r="H69" s="16">
+      <c r="H69" s="15">
         <f t="shared" si="24"/>
         <v>1.6145833333333333</v>
       </c>
-      <c r="I69" s="24">
+      <c r="I69" s="23">
         <f t="shared" si="25"/>
         <v>6587.5</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B70" s="41" t="s">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="4">
         <v>0.68055555555555547</v>
       </c>
-      <c r="D70" s="19">
+      <c r="D70" s="18">
         <v>0.70138888888888884</v>
       </c>
-      <c r="E70" s="21">
+      <c r="E70" s="20">
         <f t="shared" si="21"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F70" s="21">
         <f t="shared" si="22"/>
         <v>1.635416666666667</v>
       </c>
-      <c r="G70" s="16">
+      <c r="G70" s="15">
         <f t="shared" si="23"/>
         <v>1.635416666666667</v>
       </c>
-      <c r="H70" s="16">
+      <c r="H70" s="15">
         <f t="shared" si="24"/>
         <v>1.6354166666666665</v>
       </c>
-      <c r="I70" s="24">
+      <c r="I70" s="23">
         <f t="shared" si="25"/>
         <v>6672.5</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B71" s="41"/>
-      <c r="C71" s="5">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="53"/>
+      <c r="C71" s="4">
         <v>0.72222222222222221</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D71" s="18">
         <v>0.77777777777777779</v>
       </c>
-      <c r="E71" s="21">
+      <c r="E71" s="20">
         <f t="shared" ref="E71:E78" si="26">D71-C71</f>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F71" s="21">
         <f t="shared" ref="F71:F78" si="27">F70+E71</f>
         <v>1.6909722222222225</v>
       </c>
-      <c r="G71" s="16">
+      <c r="G71" s="15">
         <f t="shared" ref="G71:G78" si="28">F71</f>
         <v>1.6909722222222225</v>
       </c>
-      <c r="H71" s="16">
+      <c r="H71" s="15">
         <f t="shared" ref="H71:H78" si="29">(H70+G71-G70)</f>
         <v>1.6909722222222223</v>
       </c>
-      <c r="I71" s="24">
+      <c r="I71" s="23">
         <f t="shared" ref="I71:I78" si="30">H71*24*$J$32</f>
         <v>6899.166666666667</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B72" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C72" s="5">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" s="4">
         <v>0.51388888888888895</v>
       </c>
-      <c r="D72" s="19">
+      <c r="D72" s="18">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E72" s="21">
+      <c r="E72" s="20">
         <f t="shared" si="26"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F72" s="21">
         <f t="shared" si="27"/>
         <v>1.7812500000000002</v>
       </c>
-      <c r="G72" s="16">
+      <c r="G72" s="15">
         <f t="shared" si="28"/>
         <v>1.7812500000000002</v>
       </c>
-      <c r="H72" s="16">
+      <c r="H72" s="15">
         <f t="shared" si="29"/>
         <v>1.7812499999999998</v>
       </c>
-      <c r="I72" s="24">
+      <c r="I72" s="23">
         <f t="shared" si="30"/>
         <v>7267.4999999999991</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B73" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C73" s="5">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" s="4">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D73" s="19">
+      <c r="D73" s="18">
         <v>0.67361111111111116</v>
       </c>
-      <c r="E73" s="21">
+      <c r="E73" s="20">
         <f t="shared" si="26"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="F73" s="22">
+      <c r="F73" s="21">
         <f t="shared" si="27"/>
         <v>1.8090277777777781</v>
       </c>
-      <c r="G73" s="16">
+      <c r="G73" s="15">
         <f t="shared" si="28"/>
         <v>1.8090277777777781</v>
       </c>
-      <c r="H73" s="16">
+      <c r="H73" s="15">
         <f t="shared" si="29"/>
         <v>1.8090277777777775</v>
       </c>
-      <c r="I73" s="24">
+      <c r="I73" s="23">
         <f t="shared" si="30"/>
         <v>7380.8333333333321</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B74" s="41"/>
-      <c r="C74" s="5">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="53"/>
+      <c r="C74" s="4">
         <v>0.68055555555555547</v>
       </c>
-      <c r="D74" s="19">
+      <c r="D74" s="18">
         <v>0.69444444444444453</v>
       </c>
-      <c r="E74" s="21">
+      <c r="E74" s="20">
         <f t="shared" si="26"/>
         <v>1.3888888888889062E-2</v>
       </c>
-      <c r="F74" s="22">
+      <c r="F74" s="21">
         <f t="shared" si="27"/>
         <v>1.8229166666666672</v>
       </c>
-      <c r="G74" s="16">
+      <c r="G74" s="15">
         <f t="shared" si="28"/>
         <v>1.8229166666666672</v>
       </c>
-      <c r="H74" s="16">
+      <c r="H74" s="15">
         <f t="shared" si="29"/>
         <v>1.8229166666666665</v>
       </c>
-      <c r="I74" s="24">
+      <c r="I74" s="23">
         <f t="shared" si="30"/>
         <v>7437.5</v>
       </c>
-      <c r="L74" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B75" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C75" s="5">
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="4">
         <v>0.66319444444444442</v>
       </c>
-      <c r="D75" s="19">
+      <c r="D75" s="18">
         <v>0.67013888888888884</v>
       </c>
-      <c r="E75" s="21">
+      <c r="E75" s="20">
         <f t="shared" si="26"/>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="F75" s="22">
+      <c r="F75" s="21">
         <f t="shared" si="27"/>
         <v>1.8298611111111116</v>
       </c>
-      <c r="G75" s="16">
+      <c r="G75" s="15">
         <f t="shared" si="28"/>
         <v>1.8298611111111116</v>
       </c>
-      <c r="H75" s="16">
+      <c r="H75" s="15">
         <f t="shared" si="29"/>
         <v>1.8298611111111109</v>
       </c>
-      <c r="I75" s="24">
+      <c r="I75" s="23">
         <f t="shared" si="30"/>
         <v>7465.833333333333</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B76" s="41"/>
-      <c r="C76" s="5">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="53"/>
+      <c r="C76" s="4">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D76" s="19">
+      <c r="D76" s="18">
         <v>0.75347222222222221</v>
       </c>
-      <c r="E76" s="21">
+      <c r="E76" s="20">
         <f t="shared" si="26"/>
         <v>6.944444444444442E-2</v>
       </c>
-      <c r="F76" s="22">
+      <c r="F76" s="21">
         <f t="shared" si="27"/>
         <v>1.899305555555556</v>
       </c>
-      <c r="G76" s="16">
+      <c r="G76" s="15">
         <f t="shared" si="28"/>
         <v>1.899305555555556</v>
       </c>
-      <c r="H76" s="16">
+      <c r="H76" s="15">
         <f t="shared" si="29"/>
         <v>1.8993055555555554</v>
       </c>
-      <c r="I76" s="24">
+      <c r="I76" s="23">
         <f t="shared" si="30"/>
         <v>7749.1666666666661</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B77" s="41"/>
-      <c r="C77" s="5">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="53"/>
+      <c r="C77" s="4">
         <v>0.79513888888888884</v>
       </c>
-      <c r="D77" s="19">
+      <c r="D77" s="18">
         <v>0.82638888888888884</v>
       </c>
-      <c r="E77" s="21">
+      <c r="E77" s="20">
         <f t="shared" si="26"/>
         <v>3.125E-2</v>
       </c>
-      <c r="F77" s="22">
+      <c r="F77" s="21">
         <f t="shared" si="27"/>
         <v>1.930555555555556</v>
       </c>
-      <c r="G77" s="16">
+      <c r="G77" s="15">
         <f t="shared" si="28"/>
         <v>1.930555555555556</v>
       </c>
-      <c r="H77" s="16">
+      <c r="H77" s="15">
         <f t="shared" si="29"/>
         <v>1.9305555555555556</v>
       </c>
-      <c r="I77" s="24">
+      <c r="I77" s="23">
         <f t="shared" si="30"/>
         <v>7876.666666666667</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="41"/>
-      <c r="C78" s="5">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="53"/>
+      <c r="C78" s="4">
         <v>0.96875</v>
       </c>
-      <c r="D78" s="19">
+      <c r="D78" s="18">
         <v>0.99652777777777779</v>
       </c>
-      <c r="E78" s="21">
+      <c r="E78" s="20">
         <f t="shared" si="26"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="F78" s="22">
+      <c r="F78" s="21">
         <f t="shared" si="27"/>
         <v>1.9583333333333339</v>
       </c>
-      <c r="G78" s="16">
+      <c r="G78" s="15">
         <f t="shared" si="28"/>
         <v>1.9583333333333339</v>
       </c>
-      <c r="H78" s="16">
+      <c r="H78" s="15">
         <f t="shared" si="29"/>
         <v>1.9583333333333333</v>
       </c>
-      <c r="I78" s="24">
+      <c r="I78" s="23">
         <f t="shared" si="30"/>
         <v>7990</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B79" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C79" s="5">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" s="4">
         <v>7.9861111111111105E-2</v>
       </c>
-      <c r="D79" s="19">
+      <c r="D79" s="18">
         <v>0.1111111111111111</v>
       </c>
-      <c r="E79" s="21">
+      <c r="E79" s="20">
         <f t="shared" ref="E79:E86" si="31">D79-C79</f>
         <v>3.125E-2</v>
       </c>
-      <c r="F79" s="22">
+      <c r="F79" s="21">
         <f t="shared" ref="F79:F86" si="32">F78+E79</f>
         <v>1.9895833333333339</v>
       </c>
-      <c r="G79" s="16">
+      <c r="G79" s="15">
         <f t="shared" ref="G79:G86" si="33">F79</f>
         <v>1.9895833333333339</v>
       </c>
-      <c r="H79" s="16">
+      <c r="H79" s="15">
         <f t="shared" ref="H79:H86" si="34">(H78+G79-G78)</f>
         <v>1.989583333333333</v>
       </c>
-      <c r="I79" s="24">
+      <c r="I79" s="23">
         <f t="shared" ref="I79:I86" si="35">H79*24*$J$32</f>
         <v>8117.4999999999991</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B80" s="41"/>
-      <c r="C80" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="53"/>
+      <c r="C80" s="4">
         <v>0.65625</v>
       </c>
-      <c r="D80" s="19">
+      <c r="D80" s="18">
         <v>0.69097222222222221</v>
       </c>
-      <c r="E80" s="21">
+      <c r="E80" s="20">
         <f t="shared" si="31"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="F80" s="22">
+      <c r="F80" s="21">
         <f t="shared" si="32"/>
         <v>2.0243055555555562</v>
       </c>
-      <c r="G80" s="16">
+      <c r="G80" s="15">
         <f t="shared" si="33"/>
         <v>2.0243055555555562</v>
       </c>
-      <c r="H80" s="16">
+      <c r="H80" s="15">
         <f t="shared" si="34"/>
         <v>2.0243055555555554</v>
       </c>
-      <c r="I80" s="24">
+      <c r="I80" s="23">
         <f t="shared" si="35"/>
         <v>8259.1666666666661</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C81" s="5">
+      <c r="B81" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="4">
         <v>0.63541666666666663</v>
       </c>
-      <c r="D81" s="19">
+      <c r="D81" s="18">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E81" s="21">
+      <c r="E81" s="20">
         <f t="shared" si="31"/>
         <v>1.0416666666666741E-2</v>
       </c>
-      <c r="F81" s="22">
+      <c r="F81" s="21">
         <f t="shared" si="32"/>
         <v>2.0347222222222232</v>
       </c>
-      <c r="G81" s="16">
+      <c r="G81" s="15">
         <f t="shared" si="33"/>
         <v>2.0347222222222232</v>
       </c>
-      <c r="H81" s="16">
+      <c r="H81" s="15">
         <f t="shared" si="34"/>
         <v>2.0347222222222223</v>
       </c>
-      <c r="I81" s="24">
+      <c r="I81" s="23">
         <f t="shared" si="35"/>
         <v>8301.6666666666679</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="41"/>
-      <c r="C82" s="5">
+      <c r="B82" s="53"/>
+      <c r="C82" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D82" s="19">
+      <c r="D82" s="18">
         <v>0.67361111111111116</v>
       </c>
-      <c r="E82" s="21">
+      <c r="E82" s="20">
         <f t="shared" si="31"/>
         <v>6.9444444444445308E-3</v>
       </c>
-      <c r="F82" s="22">
+      <c r="F82" s="21">
         <f t="shared" si="32"/>
         <v>2.0416666666666679</v>
       </c>
-      <c r="G82" s="16">
+      <c r="G82" s="15">
         <f t="shared" si="33"/>
         <v>2.0416666666666679</v>
       </c>
-      <c r="H82" s="16">
+      <c r="H82" s="15">
         <f t="shared" si="34"/>
         <v>2.041666666666667</v>
       </c>
-      <c r="I82" s="24">
+      <c r="I82" s="23">
         <f t="shared" si="35"/>
         <v>8330.0000000000018</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="41"/>
-      <c r="C83" s="5">
+      <c r="B83" s="53"/>
+      <c r="C83" s="4">
         <v>0.69791666666666663</v>
       </c>
-      <c r="D83" s="19">
+      <c r="D83" s="18">
         <v>0.74305555555555547</v>
       </c>
-      <c r="E83" s="21">
+      <c r="E83" s="20">
         <f t="shared" si="31"/>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="F83" s="22">
+      <c r="F83" s="21">
         <f t="shared" si="32"/>
         <v>2.0868055555555567</v>
       </c>
-      <c r="G83" s="16">
+      <c r="G83" s="15">
         <f t="shared" si="33"/>
         <v>2.0868055555555567</v>
       </c>
-      <c r="H83" s="16">
+      <c r="H83" s="15">
         <f t="shared" si="34"/>
         <v>2.0868055555555554</v>
       </c>
-      <c r="I83" s="24">
+      <c r="I83" s="23">
         <f t="shared" si="35"/>
         <v>8514.1666666666661</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C84" s="5">
+      <c r="B84" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" s="4">
         <v>0.57638888888888895</v>
       </c>
-      <c r="D84" s="19">
+      <c r="D84" s="18">
         <v>0.61458333333333337</v>
       </c>
-      <c r="E84" s="21">
+      <c r="E84" s="20">
         <f t="shared" si="31"/>
         <v>3.819444444444442E-2</v>
       </c>
-      <c r="F84" s="22">
+      <c r="F84" s="21">
         <f t="shared" si="32"/>
         <v>2.1250000000000009</v>
       </c>
-      <c r="G84" s="16">
+      <c r="G84" s="15">
         <f t="shared" si="33"/>
         <v>2.1250000000000009</v>
       </c>
-      <c r="H84" s="16">
+      <c r="H84" s="15">
         <f t="shared" si="34"/>
         <v>2.1249999999999996</v>
       </c>
-      <c r="I84" s="24">
+      <c r="I84" s="23">
         <f t="shared" si="35"/>
         <v>8669.9999999999982</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="41"/>
-      <c r="C85" s="5">
+      <c r="B85" s="53"/>
+      <c r="C85" s="4">
         <v>0.61805555555555558</v>
       </c>
-      <c r="D85" s="19">
+      <c r="D85" s="18">
         <v>0.625</v>
       </c>
-      <c r="E85" s="21">
+      <c r="E85" s="20">
         <f t="shared" si="31"/>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="F85" s="22">
+      <c r="F85" s="21">
         <f t="shared" si="32"/>
         <v>2.1319444444444455</v>
       </c>
-      <c r="G85" s="16">
+      <c r="G85" s="15">
         <f t="shared" si="33"/>
         <v>2.1319444444444455</v>
       </c>
-      <c r="H85" s="16">
+      <c r="H85" s="15">
         <f t="shared" si="34"/>
         <v>2.1319444444444438</v>
       </c>
-      <c r="I85" s="24">
+      <c r="I85" s="23">
         <f t="shared" si="35"/>
         <v>8698.3333333333303</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="41"/>
-      <c r="C86" s="5">
+      <c r="B86" s="53"/>
+      <c r="C86" s="4">
         <v>0.86805555555555547</v>
       </c>
-      <c r="D86" s="19">
+      <c r="D86" s="18">
         <v>0.90972222222222221</v>
       </c>
-      <c r="E86" s="21">
+      <c r="E86" s="20">
         <f t="shared" si="31"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="F86" s="22">
+      <c r="F86" s="21">
         <f t="shared" si="32"/>
         <v>2.1736111111111125</v>
       </c>
-      <c r="G86" s="16">
+      <c r="G86" s="15">
         <f t="shared" si="33"/>
         <v>2.1736111111111125</v>
       </c>
-      <c r="H86" s="16">
+      <c r="H86" s="15">
         <f t="shared" si="34"/>
         <v>2.1736111111111107</v>
       </c>
-      <c r="I86" s="24">
+      <c r="I86" s="23">
         <f t="shared" si="35"/>
         <v>8868.3333333333321</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C87" s="5">
+      <c r="B87" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" s="4">
         <v>0.52430555555555558</v>
       </c>
-      <c r="D87" s="19">
+      <c r="D87" s="18">
         <v>0.61805555555555558</v>
       </c>
-      <c r="E87" s="21">
+      <c r="E87" s="20">
         <f t="shared" ref="E87:E97" si="36">D87-C87</f>
         <v>9.375E-2</v>
       </c>
-      <c r="F87" s="22">
+      <c r="F87" s="21">
         <f t="shared" ref="F87:F97" si="37">F86+E87</f>
         <v>2.2673611111111125</v>
       </c>
-      <c r="G87" s="16">
+      <c r="G87" s="15">
         <f t="shared" ref="G87:G97" si="38">F87</f>
         <v>2.2673611111111125</v>
       </c>
-      <c r="H87" s="16">
+      <c r="H87" s="15">
         <f t="shared" ref="H87:H97" si="39">(H86+G87-G86)</f>
         <v>2.2673611111111107</v>
       </c>
-      <c r="I87" s="24">
+      <c r="I87" s="23">
         <f t="shared" ref="I87:I97" si="40">H87*24*$J$32</f>
         <v>9250.8333333333321</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="41"/>
-      <c r="C88" s="5">
+      <c r="B88" s="53"/>
+      <c r="C88" s="4">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D88" s="19">
+      <c r="D88" s="18">
         <v>0.94097222222222221</v>
       </c>
-      <c r="E88" s="21">
+      <c r="E88" s="20">
         <f t="shared" si="36"/>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="F88" s="22">
+      <c r="F88" s="21">
         <f t="shared" si="37"/>
         <v>2.3229166666666679</v>
       </c>
-      <c r="G88" s="16">
+      <c r="G88" s="15">
         <f t="shared" si="38"/>
         <v>2.3229166666666679</v>
       </c>
-      <c r="H88" s="16">
+      <c r="H88" s="15">
         <f t="shared" si="39"/>
         <v>2.3229166666666661</v>
       </c>
-      <c r="I88" s="24">
+      <c r="I88" s="23">
         <f t="shared" si="40"/>
         <v>9477.4999999999982</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C89" s="5">
+      <c r="B89" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C89" s="4">
         <v>0.4548611111111111</v>
       </c>
-      <c r="D89" s="19">
+      <c r="D89" s="18">
         <v>0.47569444444444442</v>
       </c>
-      <c r="E89" s="21">
+      <c r="E89" s="20">
         <f t="shared" si="36"/>
         <v>2.0833333333333315E-2</v>
       </c>
-      <c r="F89" s="22">
+      <c r="F89" s="21">
         <f t="shared" si="37"/>
         <v>2.3437500000000013</v>
       </c>
-      <c r="G89" s="16">
+      <c r="G89" s="15">
         <f t="shared" si="38"/>
         <v>2.3437500000000013</v>
       </c>
-      <c r="H89" s="16">
+      <c r="H89" s="15">
         <f t="shared" si="39"/>
         <v>2.34375</v>
       </c>
-      <c r="I89" s="24">
+      <c r="I89" s="23">
         <f t="shared" si="40"/>
         <v>9562.5</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C90" s="5">
+      <c r="B90" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" s="4">
         <v>0.3125</v>
       </c>
-      <c r="D90" s="19">
+      <c r="D90" s="18">
         <v>0.33680555555555558</v>
       </c>
-      <c r="E90" s="21">
+      <c r="E90" s="20">
         <f t="shared" si="36"/>
         <v>2.430555555555558E-2</v>
       </c>
-      <c r="F90" s="22">
+      <c r="F90" s="21">
         <f t="shared" si="37"/>
         <v>2.3680555555555571</v>
       </c>
-      <c r="G90" s="16">
+      <c r="G90" s="15">
         <f t="shared" si="38"/>
         <v>2.3680555555555571</v>
       </c>
-      <c r="H90" s="16">
+      <c r="H90" s="15">
         <f t="shared" si="39"/>
         <v>2.3680555555555558</v>
       </c>
-      <c r="I90" s="24">
+      <c r="I90" s="23">
         <f t="shared" si="40"/>
         <v>9661.6666666666679</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="41"/>
-      <c r="C91" s="5">
+      <c r="B91" s="53"/>
+      <c r="C91" s="4">
         <v>0.3576388888888889</v>
       </c>
-      <c r="D91" s="19">
+      <c r="D91" s="18">
         <v>0.375</v>
       </c>
-      <c r="E91" s="21">
+      <c r="E91" s="20">
         <f t="shared" si="36"/>
         <v>1.7361111111111105E-2</v>
       </c>
-      <c r="F91" s="22">
+      <c r="F91" s="21">
         <f t="shared" si="37"/>
         <v>2.3854166666666683</v>
       </c>
-      <c r="G91" s="16">
+      <c r="G91" s="15">
         <f t="shared" si="38"/>
         <v>2.3854166666666683</v>
       </c>
-      <c r="H91" s="16">
+      <c r="H91" s="15">
         <f t="shared" si="39"/>
         <v>2.385416666666667</v>
       </c>
-      <c r="I91" s="24">
+      <c r="I91" s="23">
         <f t="shared" si="40"/>
         <v>9732.5000000000018</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="41"/>
-      <c r="C92" s="5">
+      <c r="B92" s="53"/>
+      <c r="C92" s="4">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D92" s="19">
+      <c r="D92" s="18">
         <v>0.43055555555555558</v>
       </c>
-      <c r="E92" s="21">
+      <c r="E92" s="20">
         <f t="shared" si="36"/>
         <v>3.4722222222222265E-2</v>
       </c>
-      <c r="F92" s="22">
+      <c r="F92" s="21">
         <f t="shared" si="37"/>
         <v>2.4201388888888906</v>
       </c>
-      <c r="G92" s="16">
+      <c r="G92" s="15">
         <f t="shared" si="38"/>
         <v>2.4201388888888906</v>
       </c>
-      <c r="H92" s="16">
+      <c r="H92" s="15">
         <f t="shared" si="39"/>
         <v>2.4201388888888888</v>
       </c>
-      <c r="I92" s="24">
+      <c r="I92" s="23">
         <f t="shared" si="40"/>
         <v>9874.1666666666661</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="41"/>
-      <c r="C93" s="5">
+      <c r="B93" s="53"/>
+      <c r="C93" s="4">
         <v>0.4548611111111111</v>
       </c>
-      <c r="D93" s="19">
+      <c r="D93" s="18">
         <v>0.46875</v>
       </c>
-      <c r="E93" s="21">
+      <c r="E93" s="20">
         <f t="shared" si="36"/>
         <v>1.3888888888888895E-2</v>
       </c>
-      <c r="F93" s="22">
+      <c r="F93" s="21">
         <f t="shared" si="37"/>
         <v>2.4340277777777795</v>
       </c>
-      <c r="G93" s="16">
+      <c r="G93" s="15">
         <f t="shared" si="38"/>
         <v>2.4340277777777795</v>
       </c>
-      <c r="H93" s="16">
+      <c r="H93" s="15">
         <f t="shared" si="39"/>
         <v>2.4340277777777772</v>
       </c>
-      <c r="I93" s="24">
+      <c r="I93" s="23">
         <f t="shared" si="40"/>
         <v>9930.8333333333321</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="41"/>
-      <c r="C94" s="5">
+      <c r="B94" s="53"/>
+      <c r="C94" s="4">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D94" s="19">
+      <c r="D94" s="18">
         <v>0.50347222222222221</v>
       </c>
-      <c r="E94" s="21">
+      <c r="E94" s="20">
         <f t="shared" si="36"/>
         <v>1.3888888888888895E-2</v>
       </c>
-      <c r="F94" s="22">
+      <c r="F94" s="21">
         <f t="shared" si="37"/>
         <v>2.4479166666666683</v>
       </c>
-      <c r="G94" s="16">
+      <c r="G94" s="15">
         <f t="shared" si="38"/>
         <v>2.4479166666666683</v>
       </c>
-      <c r="H94" s="16">
+      <c r="H94" s="15">
         <f t="shared" si="39"/>
         <v>2.4479166666666661</v>
       </c>
-      <c r="I94" s="24">
+      <c r="I94" s="23">
         <f t="shared" si="40"/>
         <v>9987.4999999999982</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C95" s="5">
+      <c r="B95" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C95" s="4">
         <v>0.43402777777777773</v>
       </c>
-      <c r="D95" s="19">
+      <c r="D95" s="18">
         <v>0.47569444444444442</v>
       </c>
-      <c r="E95" s="21">
+      <c r="E95" s="20">
         <f t="shared" si="36"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="F95" s="22">
+      <c r="F95" s="21">
         <f t="shared" si="37"/>
         <v>2.4895833333333348</v>
       </c>
-      <c r="G95" s="16">
+      <c r="G95" s="15">
         <f t="shared" si="38"/>
         <v>2.4895833333333348</v>
       </c>
-      <c r="H95" s="16">
+      <c r="H95" s="15">
         <f t="shared" si="39"/>
         <v>2.4895833333333326</v>
       </c>
-      <c r="I95" s="24">
+      <c r="I95" s="23">
         <f t="shared" si="40"/>
         <v>10157.499999999998</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="41"/>
-      <c r="C96" s="5">
+      <c r="B96" s="53"/>
+      <c r="C96" s="4">
         <v>0.5</v>
       </c>
-      <c r="D96" s="19">
+      <c r="D96" s="18">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E96" s="21">
+      <c r="E96" s="20">
         <f t="shared" si="36"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="F96" s="22">
+      <c r="F96" s="21">
         <f t="shared" si="37"/>
         <v>2.5104166666666683</v>
       </c>
-      <c r="G96" s="16">
+      <c r="G96" s="15">
         <f t="shared" si="38"/>
         <v>2.5104166666666683</v>
       </c>
-      <c r="H96" s="16">
+      <c r="H96" s="15">
         <f t="shared" si="39"/>
         <v>2.5104166666666661</v>
       </c>
-      <c r="I96" s="24">
+      <c r="I96" s="23">
         <f t="shared" si="40"/>
         <v>10242.499999999998</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97" s="41"/>
-      <c r="C97" s="5">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="53"/>
+      <c r="C97" s="4">
         <v>0.70138888888888884</v>
       </c>
-      <c r="D97" s="19">
+      <c r="D97" s="18">
         <v>0.73958333333333337</v>
       </c>
-      <c r="E97" s="21">
+      <c r="E97" s="20">
         <f t="shared" si="36"/>
         <v>3.8194444444444531E-2</v>
       </c>
-      <c r="F97" s="22">
+      <c r="F97" s="21">
         <f t="shared" si="37"/>
         <v>2.5486111111111129</v>
       </c>
-      <c r="G97" s="16">
+      <c r="G97" s="15">
         <f t="shared" si="38"/>
         <v>2.5486111111111129</v>
       </c>
-      <c r="H97" s="16">
+      <c r="H97" s="15">
         <f t="shared" si="39"/>
         <v>2.5486111111111103</v>
       </c>
-      <c r="I97" s="24">
+      <c r="I97" s="23">
         <f t="shared" si="40"/>
         <v>10398.333333333328</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C98" s="5">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C98" s="4">
         <v>0.46875</v>
       </c>
-      <c r="D98" s="19">
+      <c r="D98" s="18">
         <v>0.4826388888888889</v>
       </c>
-      <c r="E98" s="21">
-        <f t="shared" ref="E98:E122" si="41">D98-C98</f>
+      <c r="E98" s="20">
+        <f t="shared" ref="E98:E121" si="41">D98-C98</f>
         <v>1.3888888888888895E-2</v>
       </c>
-      <c r="F98" s="22">
-        <f t="shared" ref="F98:F122" si="42">F97+E98</f>
+      <c r="F98" s="21">
+        <f t="shared" ref="F98:F121" si="42">F97+E98</f>
         <v>2.5625000000000018</v>
       </c>
-      <c r="G98" s="16">
-        <f t="shared" ref="G98:G122" si="43">F98</f>
+      <c r="G98" s="15">
+        <f t="shared" ref="G98:G121" si="43">F98</f>
         <v>2.5625000000000018</v>
       </c>
-      <c r="H98" s="16">
-        <f t="shared" ref="H98:H122" si="44">(H97+G98-G97)</f>
+      <c r="H98" s="15">
+        <f t="shared" ref="H98:H121" si="44">(H97+G98-G97)</f>
         <v>2.5624999999999996</v>
       </c>
-      <c r="I98" s="24">
-        <f t="shared" ref="I98:I122" si="45">H98*24*$J$32</f>
+      <c r="I98" s="23">
+        <f t="shared" ref="I98:I121" si="45">H98*24*$J$32</f>
         <v>10454.999999999998</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="41"/>
-      <c r="C99" s="5">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="53"/>
+      <c r="C99" s="4">
         <v>0.51736111111111105</v>
       </c>
-      <c r="D99" s="19">
+      <c r="D99" s="18">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E99" s="21">
+      <c r="E99" s="20">
         <f t="shared" si="41"/>
         <v>3.4722222222223209E-3</v>
       </c>
-      <c r="F99" s="22">
+      <c r="F99" s="21">
         <f t="shared" si="42"/>
         <v>2.5659722222222241</v>
       </c>
-      <c r="G99" s="16">
+      <c r="G99" s="15">
         <f t="shared" si="43"/>
         <v>2.5659722222222241</v>
       </c>
-      <c r="H99" s="16">
+      <c r="H99" s="15">
         <f t="shared" si="44"/>
         <v>2.5659722222222214</v>
       </c>
-      <c r="I99" s="24">
+      <c r="I99" s="23">
         <f t="shared" si="45"/>
         <v>10469.166666666664</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="41"/>
-      <c r="C100" s="5">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" s="53"/>
+      <c r="C100" s="4">
         <v>0.67361111111111116</v>
       </c>
-      <c r="D100" s="19">
+      <c r="D100" s="18">
         <v>0.70138888888888884</v>
       </c>
-      <c r="E100" s="21">
+      <c r="E100" s="20">
         <f t="shared" si="41"/>
         <v>2.7777777777777679E-2</v>
       </c>
-      <c r="F100" s="22">
+      <c r="F100" s="21">
         <f t="shared" si="42"/>
         <v>2.5937500000000018</v>
       </c>
-      <c r="G100" s="16">
+      <c r="G100" s="15">
         <f t="shared" si="43"/>
         <v>2.5937500000000018</v>
       </c>
-      <c r="H100" s="16">
+      <c r="H100" s="15">
         <f t="shared" si="44"/>
         <v>2.5937499999999991</v>
       </c>
-      <c r="I100" s="24">
+      <c r="I100" s="23">
         <f t="shared" si="45"/>
         <v>10582.499999999996</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C101" s="5">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B101" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C101" s="4">
         <v>0.4826388888888889</v>
       </c>
-      <c r="D101" s="19">
+      <c r="D101" s="18">
         <v>0.52430555555555558</v>
       </c>
-      <c r="E101" s="21">
+      <c r="E101" s="20">
         <f t="shared" si="41"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="F101" s="22">
+      <c r="F101" s="21">
         <f t="shared" si="42"/>
         <v>2.6354166666666683</v>
       </c>
-      <c r="G101" s="16">
+      <c r="G101" s="15">
         <f t="shared" si="43"/>
         <v>2.6354166666666683</v>
       </c>
-      <c r="H101" s="16">
+      <c r="H101" s="15">
         <f t="shared" si="44"/>
         <v>2.6354166666666661</v>
       </c>
-      <c r="I101" s="24">
+      <c r="I101" s="23">
         <f t="shared" si="45"/>
         <v>10752.499999999998</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C102" s="5">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" s="53"/>
+      <c r="C102" s="4">
         <v>0.65277777777777779</v>
       </c>
-      <c r="D102" s="19">
+      <c r="D102" s="18">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E102" s="21">
+      <c r="E102" s="20">
         <f t="shared" si="41"/>
         <v>1.388888888888884E-2</v>
       </c>
-      <c r="F102" s="22">
+      <c r="F102" s="21">
         <f t="shared" si="42"/>
         <v>2.6493055555555571</v>
       </c>
-      <c r="G102" s="16">
+      <c r="G102" s="15">
         <f t="shared" si="43"/>
         <v>2.6493055555555571</v>
       </c>
-      <c r="H102" s="16">
+      <c r="H102" s="15">
         <f t="shared" si="44"/>
         <v>2.6493055555555549</v>
       </c>
-      <c r="I102" s="24">
+      <c r="I102" s="23">
         <f t="shared" si="45"/>
         <v>10809.166666666664</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C103" s="5"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="21">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" s="4">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D103" s="18">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E103" s="20">
         <f t="shared" si="41"/>
+        <v>9.027777777777779E-2</v>
+      </c>
+      <c r="F103" s="21">
+        <f t="shared" si="42"/>
+        <v>2.7395833333333348</v>
+      </c>
+      <c r="G103" s="15">
+        <f t="shared" si="43"/>
+        <v>2.7395833333333348</v>
+      </c>
+      <c r="H103" s="15">
+        <f t="shared" si="44"/>
+        <v>2.7395833333333321</v>
+      </c>
+      <c r="I103" s="23">
+        <f t="shared" si="45"/>
+        <v>11177.499999999995</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B104" s="53"/>
+      <c r="C104" s="4">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="D104" s="18">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="E104" s="20">
+        <f t="shared" si="41"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="F104" s="21">
+        <f t="shared" si="42"/>
+        <v>2.8229166666666683</v>
+      </c>
+      <c r="G104" s="15">
+        <f t="shared" si="43"/>
+        <v>2.8229166666666683</v>
+      </c>
+      <c r="H104" s="15">
+        <f t="shared" si="44"/>
+        <v>2.8229166666666652</v>
+      </c>
+      <c r="I104" s="23">
+        <f t="shared" si="45"/>
+        <v>11517.499999999995</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105" s="53"/>
+      <c r="C105" s="4">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="D105" s="18">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E105" s="20">
+        <f t="shared" si="41"/>
+        <v>1.736111111111116E-2</v>
+      </c>
+      <c r="F105" s="21">
+        <f t="shared" si="42"/>
+        <v>2.8402777777777795</v>
+      </c>
+      <c r="G105" s="15">
+        <f t="shared" si="43"/>
+        <v>2.8402777777777795</v>
+      </c>
+      <c r="H105" s="15">
+        <f t="shared" si="44"/>
+        <v>2.8402777777777763</v>
+      </c>
+      <c r="I105" s="23">
+        <f t="shared" si="45"/>
+        <v>11588.333333333327</v>
+      </c>
+      <c r="K105" s="1">
+        <v>5060</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106" s="53"/>
+      <c r="C106" s="4">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D106" s="18">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E106" s="20">
+        <f t="shared" si="41"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F106" s="21">
+        <f t="shared" si="42"/>
+        <v>2.8715277777777795</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="43"/>
+        <v>2.8715277777777795</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="44"/>
+        <v>2.8715277777777759</v>
+      </c>
+      <c r="I106" s="23">
+        <f t="shared" si="45"/>
+        <v>11715.833333333327</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B107" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C107" s="4">
+        <v>0.96180555555555547</v>
+      </c>
+      <c r="D107" s="18">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="E107" s="20">
+        <f t="shared" si="41"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="F107" s="21">
+        <f t="shared" si="42"/>
+        <v>2.8819444444444464</v>
+      </c>
+      <c r="G107" s="15">
+        <f t="shared" si="43"/>
+        <v>2.8819444444444464</v>
+      </c>
+      <c r="H107" s="15">
+        <f t="shared" si="44"/>
+        <v>2.8819444444444429</v>
+      </c>
+      <c r="I107" s="23">
+        <f t="shared" si="45"/>
+        <v>11758.333333333327</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B108" s="53"/>
+      <c r="C108" s="4">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="D108" s="18">
+        <v>1</v>
+      </c>
+      <c r="E108" s="20">
+        <f t="shared" si="41"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="F108" s="21">
+        <f t="shared" si="42"/>
+        <v>2.8923611111111129</v>
+      </c>
+      <c r="G108" s="15">
+        <f t="shared" si="43"/>
+        <v>2.8923611111111129</v>
+      </c>
+      <c r="H108" s="15">
+        <f t="shared" si="44"/>
+        <v>2.8923611111111089</v>
+      </c>
+      <c r="I108" s="23">
+        <f t="shared" si="45"/>
+        <v>11800.833333333325</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B109" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C109" s="4">
         <v>0</v>
       </c>
-      <c r="F103" s="22">
+      <c r="D109" s="18">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="E109" s="20">
+        <f t="shared" si="41"/>
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="F109" s="21">
         <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="G103" s="16">
+        <v>2.9826388888888906</v>
+      </c>
+      <c r="G109" s="15">
         <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="H103" s="16">
+        <v>2.9826388888888906</v>
+      </c>
+      <c r="H109" s="15">
         <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
-      </c>
-      <c r="I103" s="24">
+        <v>2.9826388888888871</v>
+      </c>
+      <c r="I109" s="23">
         <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C104" s="5"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="21">
+        <v>12169.166666666659</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="53"/>
+      <c r="C110" s="4">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D110" s="18">
+        <v>0.625</v>
+      </c>
+      <c r="E110" s="20">
         <f t="shared" si="41"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="F110" s="21">
+        <f t="shared" si="42"/>
+        <v>2.9930555555555571</v>
+      </c>
+      <c r="G110" s="15">
+        <f t="shared" si="43"/>
+        <v>2.9930555555555571</v>
+      </c>
+      <c r="H110" s="15">
+        <f t="shared" si="44"/>
+        <v>2.993055555555554</v>
+      </c>
+      <c r="I110" s="23">
+        <f t="shared" si="45"/>
+        <v>12211.666666666661</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B111" s="53"/>
+      <c r="C111" s="4">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="D111" s="18">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="E111" s="20">
+        <f t="shared" si="41"/>
+        <v>6.944444444444442E-2</v>
+      </c>
+      <c r="F111" s="21">
+        <f t="shared" si="42"/>
+        <v>3.0625000000000018</v>
+      </c>
+      <c r="G111" s="15">
+        <f t="shared" si="43"/>
+        <v>3.0625000000000018</v>
+      </c>
+      <c r="H111" s="15">
+        <f t="shared" si="44"/>
+        <v>3.0624999999999982</v>
+      </c>
+      <c r="I111" s="23">
+        <f t="shared" si="45"/>
+        <v>12494.999999999993</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B112" s="53"/>
+      <c r="C112" s="4">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D112" s="18">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="E112" s="20">
+        <f t="shared" si="41"/>
+        <v>2.4305555555555469E-2</v>
+      </c>
+      <c r="F112" s="21">
+        <f t="shared" si="42"/>
+        <v>3.0868055555555571</v>
+      </c>
+      <c r="G112" s="15">
+        <f t="shared" si="43"/>
+        <v>3.0868055555555571</v>
+      </c>
+      <c r="H112" s="15">
+        <f t="shared" si="44"/>
+        <v>3.0868055555555536</v>
+      </c>
+      <c r="I112" s="23">
+        <f t="shared" si="45"/>
+        <v>12594.166666666659</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B113" s="53"/>
+      <c r="C113" s="4">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="D113" s="18">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="E113" s="20">
+        <f t="shared" si="41"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F113" s="21">
+        <f t="shared" si="42"/>
+        <v>3.1180555555555571</v>
+      </c>
+      <c r="G113" s="15">
+        <f t="shared" si="43"/>
+        <v>3.1180555555555571</v>
+      </c>
+      <c r="H113" s="15">
+        <f t="shared" si="44"/>
+        <v>3.1180555555555536</v>
+      </c>
+      <c r="I113" s="23">
+        <f t="shared" si="45"/>
+        <v>12721.666666666659</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B114" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C114" s="4">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D114" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E114" s="20">
+        <f t="shared" si="41"/>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="F114" s="21">
+        <f t="shared" si="42"/>
+        <v>3.1458333333333348</v>
+      </c>
+      <c r="G114" s="15">
+        <f t="shared" si="43"/>
+        <v>3.1458333333333348</v>
+      </c>
+      <c r="H114" s="15">
+        <f t="shared" si="44"/>
+        <v>3.1458333333333313</v>
+      </c>
+      <c r="I114" s="23">
+        <f t="shared" si="45"/>
+        <v>12834.999999999991</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="53"/>
+      <c r="C115" s="4">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="D115" s="18">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="E115" s="20">
+        <f t="shared" si="41"/>
+        <v>7.6388888888888951E-2</v>
+      </c>
+      <c r="F115" s="21">
+        <f t="shared" si="42"/>
+        <v>3.2222222222222237</v>
+      </c>
+      <c r="G115" s="15">
+        <f t="shared" si="43"/>
+        <v>3.2222222222222237</v>
+      </c>
+      <c r="H115" s="15">
+        <f t="shared" si="44"/>
+        <v>3.2222222222222205</v>
+      </c>
+      <c r="I115" s="23">
+        <f t="shared" si="45"/>
+        <v>13146.666666666659</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B116" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C116" s="4">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D116" s="18">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="E116" s="20">
+        <f t="shared" si="41"/>
+        <v>9.027777777777779E-2</v>
+      </c>
+      <c r="F116" s="21">
+        <f t="shared" si="42"/>
+        <v>3.3125000000000013</v>
+      </c>
+      <c r="G116" s="15">
+        <f t="shared" si="43"/>
+        <v>3.3125000000000013</v>
+      </c>
+      <c r="H116" s="15">
+        <f t="shared" si="44"/>
+        <v>3.3124999999999978</v>
+      </c>
+      <c r="I116" s="23">
+        <f t="shared" si="45"/>
+        <v>13514.999999999991</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B117" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C117" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D117" s="18">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E117" s="20">
+        <f t="shared" si="41"/>
+        <v>5.5555555555555636E-2</v>
+      </c>
+      <c r="F117" s="21">
+        <f t="shared" si="42"/>
+        <v>3.3680555555555571</v>
+      </c>
+      <c r="G117" s="15">
+        <f t="shared" si="43"/>
+        <v>3.3680555555555571</v>
+      </c>
+      <c r="H117" s="15">
+        <f t="shared" si="44"/>
+        <v>3.368055555555554</v>
+      </c>
+      <c r="I117" s="23">
+        <f t="shared" si="45"/>
+        <v>13741.666666666661</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B118" s="53"/>
+      <c r="C118" s="4">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="D118" s="18">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E118" s="20">
+        <f t="shared" si="41"/>
+        <v>5.9027777777777901E-2</v>
+      </c>
+      <c r="F118" s="21">
+        <f t="shared" si="42"/>
+        <v>3.4270833333333348</v>
+      </c>
+      <c r="G118" s="15">
+        <f t="shared" si="43"/>
+        <v>3.4270833333333348</v>
+      </c>
+      <c r="H118" s="15">
+        <f t="shared" si="44"/>
+        <v>3.4270833333333321</v>
+      </c>
+      <c r="I118" s="23">
+        <f t="shared" si="45"/>
+        <v>13982.499999999995</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B119" s="53"/>
+      <c r="C119" s="4">
+        <v>0.59375</v>
+      </c>
+      <c r="D119" s="18">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="E119" s="20">
+        <f t="shared" si="41"/>
+        <v>4.5138888888888951E-2</v>
+      </c>
+      <c r="F119" s="21">
+        <f t="shared" si="42"/>
+        <v>3.4722222222222237</v>
+      </c>
+      <c r="G119" s="15">
+        <f t="shared" si="43"/>
+        <v>3.4722222222222237</v>
+      </c>
+      <c r="H119" s="15">
+        <f t="shared" si="44"/>
+        <v>3.4722222222222205</v>
+      </c>
+      <c r="I119" s="23">
+        <f t="shared" si="45"/>
+        <v>14166.666666666659</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B120" s="53"/>
+      <c r="C120" s="4">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D120" s="18">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="E120" s="20">
+        <f t="shared" si="41"/>
+        <v>0.11458333333333337</v>
+      </c>
+      <c r="F120" s="21">
+        <f t="shared" si="42"/>
+        <v>3.5868055555555571</v>
+      </c>
+      <c r="G120" s="15">
+        <f t="shared" si="43"/>
+        <v>3.5868055555555571</v>
+      </c>
+      <c r="H120" s="15">
+        <f t="shared" si="44"/>
+        <v>3.586805555555554</v>
+      </c>
+      <c r="I120" s="23">
+        <f t="shared" si="45"/>
+        <v>14634.166666666661</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B121" s="57"/>
+      <c r="C121" s="38">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D121" s="39">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="E121" s="40">
+        <f t="shared" si="41"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="F121" s="21">
+        <f t="shared" si="42"/>
+        <v>3.6041666666666683</v>
+      </c>
+      <c r="G121" s="15">
+        <f t="shared" si="43"/>
+        <v>3.6041666666666683</v>
+      </c>
+      <c r="H121" s="15">
+        <f t="shared" si="44"/>
+        <v>3.6041666666666652</v>
+      </c>
+      <c r="I121" s="23">
+        <f t="shared" si="45"/>
+        <v>14704.999999999995</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="41"/>
+      <c r="B122" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C122" s="42"/>
+      <c r="D122" s="43"/>
+      <c r="E122" s="44"/>
+      <c r="F122" s="45"/>
+      <c r="G122" s="46"/>
+      <c r="H122" s="46"/>
+      <c r="I122" s="47"/>
+      <c r="J122" s="48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="34"/>
+      <c r="B123" s="51"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G123" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I123" s="22"/>
+      <c r="J123" s="34"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="34"/>
+      <c r="B124" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="55"/>
+      <c r="F124" s="56"/>
+      <c r="G124" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J124" s="34">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C125" s="4">
+        <v>3.5138888888888888</v>
+      </c>
+      <c r="D125" s="18">
+        <v>3.6041666666666665</v>
+      </c>
+      <c r="E125" s="26">
+        <f>D125-C125</f>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="F125" s="21">
+        <f>E125</f>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="G125" s="15">
+        <f>F125</f>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="H125" s="15">
+        <f>G125</f>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="I125" s="23">
+        <f>H125*24*$J$32</f>
+        <v>368.33333333333292</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B126" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C126" s="4">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="D126" s="18">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="E126" s="20">
+        <f t="shared" ref="E126:E154" si="46">D126-C126</f>
+        <v>6.944444444444442E-2</v>
+      </c>
+      <c r="F126" s="21">
+        <f>F125+E126</f>
+        <v>0.1597222222222221</v>
+      </c>
+      <c r="G126" s="15">
+        <f t="shared" ref="G126:G154" si="47">F126</f>
+        <v>0.1597222222222221</v>
+      </c>
+      <c r="H126" s="15">
+        <f t="shared" ref="H126:H154" si="48">(H125+G126-G125)</f>
+        <v>0.1597222222222221</v>
+      </c>
+      <c r="I126" s="23">
+        <f t="shared" ref="I126:I154" si="49">H126*24*$J$32</f>
+        <v>651.66666666666617</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B127" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C127" s="4">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D127" s="18">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E127" s="20">
+        <f t="shared" si="46"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F127" s="21">
+        <f t="shared" ref="F127:F154" si="50">F126+E127</f>
+        <v>0.1909722222222221</v>
+      </c>
+      <c r="G127" s="15">
+        <f t="shared" si="47"/>
+        <v>0.1909722222222221</v>
+      </c>
+      <c r="H127" s="15">
+        <f t="shared" si="48"/>
+        <v>0.1909722222222221</v>
+      </c>
+      <c r="I127" s="23">
+        <f t="shared" si="49"/>
+        <v>779.16666666666617</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B128" s="59"/>
+      <c r="C128" s="4">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="D128" s="18">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E128" s="20">
+        <f t="shared" si="46"/>
+        <v>3.4722222222222321E-2</v>
+      </c>
+      <c r="F128" s="21">
+        <f t="shared" si="50"/>
+        <v>0.22569444444444442</v>
+      </c>
+      <c r="G128" s="15">
+        <f t="shared" si="47"/>
+        <v>0.22569444444444442</v>
+      </c>
+      <c r="H128" s="15">
+        <f t="shared" si="48"/>
+        <v>0.22569444444444442</v>
+      </c>
+      <c r="I128" s="23">
+        <f t="shared" si="49"/>
+        <v>920.83333333333326</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="59"/>
+      <c r="C129" s="4">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D129" s="18">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E129" s="20">
+        <f t="shared" si="46"/>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="F129" s="21">
+        <f t="shared" si="50"/>
+        <v>0.23263888888888895</v>
+      </c>
+      <c r="G129" s="15">
+        <f t="shared" si="47"/>
+        <v>0.23263888888888895</v>
+      </c>
+      <c r="H129" s="15">
+        <f t="shared" si="48"/>
+        <v>0.23263888888888895</v>
+      </c>
+      <c r="I129" s="23">
+        <f t="shared" si="49"/>
+        <v>949.16666666666697</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="59"/>
+      <c r="C130" s="4">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="D130" s="18">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="E130" s="20">
+        <f t="shared" si="46"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="F130" s="21">
+        <f t="shared" si="50"/>
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="G130" s="15">
+        <f t="shared" si="47"/>
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="H130" s="15">
+        <f t="shared" si="48"/>
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="I130" s="23">
+        <f t="shared" si="49"/>
+        <v>1034.1666666666665</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C131" s="4">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D131" s="18">
+        <v>0.65625</v>
+      </c>
+      <c r="E131" s="20">
+        <f t="shared" si="46"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="F131" s="21">
+        <f t="shared" si="50"/>
+        <v>0.27083333333333326</v>
+      </c>
+      <c r="G131" s="15">
+        <f t="shared" si="47"/>
+        <v>0.27083333333333326</v>
+      </c>
+      <c r="H131" s="15">
+        <f t="shared" si="48"/>
+        <v>0.27083333333333326</v>
+      </c>
+      <c r="I131" s="23">
+        <f t="shared" si="49"/>
+        <v>1104.9999999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="59"/>
+      <c r="C132" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D132" s="18">
+        <v>0.6875</v>
+      </c>
+      <c r="E132" s="20">
+        <f t="shared" si="46"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F132" s="21">
+        <f t="shared" si="50"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="G132" s="15">
+        <f t="shared" si="47"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="H132" s="15">
+        <f t="shared" si="48"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="I132" s="23">
+        <f t="shared" si="49"/>
+        <v>1189.9999999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="59"/>
+      <c r="C133" s="4">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="D133" s="18">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="E133" s="20">
+        <f t="shared" si="46"/>
+        <v>5.5555555555555691E-2</v>
+      </c>
+      <c r="F133" s="21">
+        <f t="shared" si="50"/>
+        <v>0.34722222222222232</v>
+      </c>
+      <c r="G133" s="15">
+        <f t="shared" si="47"/>
+        <v>0.34722222222222232</v>
+      </c>
+      <c r="H133" s="15">
+        <f t="shared" si="48"/>
+        <v>0.34722222222222232</v>
+      </c>
+      <c r="I133" s="23">
+        <f t="shared" si="49"/>
+        <v>1416.666666666667</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="59"/>
+      <c r="C134" s="4">
+        <v>0.84375</v>
+      </c>
+      <c r="D134" s="18">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="E134" s="20">
+        <f t="shared" si="46"/>
+        <v>7.986111111111116E-2</v>
+      </c>
+      <c r="F134" s="21">
+        <f t="shared" si="50"/>
+        <v>0.42708333333333348</v>
+      </c>
+      <c r="G134" s="15">
+        <f t="shared" si="47"/>
+        <v>0.42708333333333348</v>
+      </c>
+      <c r="H134" s="15">
+        <f t="shared" si="48"/>
+        <v>0.42708333333333348</v>
+      </c>
+      <c r="I134" s="23">
+        <f t="shared" si="49"/>
+        <v>1742.5000000000007</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C135" s="4">
+        <v>0.6875</v>
+      </c>
+      <c r="D135" s="18">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E135" s="20">
+        <f t="shared" si="46"/>
+        <v>4.861111111111116E-2</v>
+      </c>
+      <c r="F135" s="21">
+        <f t="shared" si="50"/>
+        <v>0.47569444444444464</v>
+      </c>
+      <c r="G135" s="15">
+        <f t="shared" si="47"/>
+        <v>0.47569444444444464</v>
+      </c>
+      <c r="H135" s="15">
+        <f t="shared" si="48"/>
+        <v>0.47569444444444464</v>
+      </c>
+      <c r="I135" s="23">
+        <f t="shared" si="49"/>
+        <v>1940.8333333333342</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="59"/>
+      <c r="C136" s="4">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="D136" s="18">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="E136" s="20">
+        <f t="shared" si="46"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F136" s="21">
+        <f t="shared" si="50"/>
+        <v>0.49652777777777801</v>
+      </c>
+      <c r="G136" s="15">
+        <f t="shared" si="47"/>
+        <v>0.49652777777777801</v>
+      </c>
+      <c r="H136" s="15">
+        <f t="shared" si="48"/>
+        <v>0.49652777777777801</v>
+      </c>
+      <c r="I136" s="23">
+        <f t="shared" si="49"/>
+        <v>2025.8333333333342</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B137" s="59"/>
+      <c r="C137" s="4">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="D137" s="18">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="E137" s="20">
+        <f t="shared" si="46"/>
+        <v>2.4305555555555469E-2</v>
+      </c>
+      <c r="F137" s="21">
+        <f t="shared" si="50"/>
+        <v>0.52083333333333348</v>
+      </c>
+      <c r="G137" s="15">
+        <f t="shared" si="47"/>
+        <v>0.52083333333333348</v>
+      </c>
+      <c r="H137" s="15">
+        <f t="shared" si="48"/>
+        <v>0.52083333333333359</v>
+      </c>
+      <c r="I137" s="23">
+        <f t="shared" si="49"/>
+        <v>2125.0000000000014</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C138" s="4">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="D138" s="18">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="E138" s="20">
+        <f t="shared" si="46"/>
+        <v>0.13194444444444448</v>
+      </c>
+      <c r="F138" s="21">
+        <f t="shared" si="50"/>
+        <v>0.6527777777777779</v>
+      </c>
+      <c r="G138" s="15">
+        <f t="shared" si="47"/>
+        <v>0.6527777777777779</v>
+      </c>
+      <c r="H138" s="15">
+        <f t="shared" si="48"/>
+        <v>0.65277777777777812</v>
+      </c>
+      <c r="I138" s="23">
+        <f t="shared" si="49"/>
+        <v>2663.3333333333348</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="59"/>
+      <c r="C139" s="4">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D139" s="18">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="E139" s="20">
+        <f t="shared" si="46"/>
+        <v>7.638888888888884E-2</v>
+      </c>
+      <c r="F139" s="21">
+        <f t="shared" si="50"/>
+        <v>0.72916666666666674</v>
+      </c>
+      <c r="G139" s="15">
+        <f t="shared" si="47"/>
+        <v>0.72916666666666674</v>
+      </c>
+      <c r="H139" s="15">
+        <f t="shared" si="48"/>
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="I139" s="23">
+        <f t="shared" si="49"/>
+        <v>2975.0000000000014</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B140" s="59"/>
+      <c r="C140" s="4">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D140" s="18">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="E140" s="20">
+        <f t="shared" si="46"/>
+        <v>6.9444444444444531E-2</v>
+      </c>
+      <c r="F140" s="21">
+        <f t="shared" si="50"/>
+        <v>0.79861111111111127</v>
+      </c>
+      <c r="G140" s="15">
+        <f t="shared" si="47"/>
+        <v>0.79861111111111127</v>
+      </c>
+      <c r="H140" s="15">
+        <f t="shared" si="48"/>
+        <v>0.79861111111111138</v>
+      </c>
+      <c r="I140" s="23">
+        <f t="shared" si="49"/>
+        <v>3258.3333333333339</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B141" s="59"/>
+      <c r="C141" s="4">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="D141" s="18">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="E141" s="20">
+        <f t="shared" si="46"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F141" s="21">
+        <f t="shared" si="50"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="G141" s="15">
+        <f t="shared" si="47"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="H141" s="15">
+        <f t="shared" si="48"/>
+        <v>0.81944444444444475</v>
+      </c>
+      <c r="I141" s="23">
+        <f t="shared" si="49"/>
+        <v>3343.3333333333348</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C142" s="4"/>
+      <c r="D142" s="18"/>
+      <c r="E142" s="20">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F104" s="22">
-        <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="G104" s="16">
-        <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="H104" s="16">
-        <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
-      </c>
-      <c r="I104" s="24">
-        <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C105" s="5"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="21">
-        <f t="shared" si="41"/>
+      <c r="F142" s="21">
+        <f t="shared" si="50"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="G142" s="15">
+        <f t="shared" si="47"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="H142" s="15">
+        <f t="shared" si="48"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="I142" s="23">
+        <f t="shared" si="49"/>
+        <v>3343.3333333333339</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C143" s="4"/>
+      <c r="D143" s="18"/>
+      <c r="E143" s="20">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F105" s="22">
-        <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="G105" s="16">
-        <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="H105" s="16">
-        <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
-      </c>
-      <c r="I105" s="24">
-        <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C106" s="5"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="21">
-        <f t="shared" si="41"/>
+      <c r="F143" s="21">
+        <f t="shared" si="50"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="G143" s="15">
+        <f t="shared" si="47"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="H143" s="15">
+        <f t="shared" si="48"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="I143" s="23">
+        <f t="shared" si="49"/>
+        <v>3343.3333333333339</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C144" s="4"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="20">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F106" s="22">
-        <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="G106" s="16">
-        <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="H106" s="16">
-        <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
-      </c>
-      <c r="I106" s="24">
-        <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C107" s="5"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="21">
-        <f t="shared" si="41"/>
+      <c r="F144" s="21">
+        <f t="shared" si="50"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="G144" s="15">
+        <f t="shared" si="47"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="H144" s="15">
+        <f t="shared" si="48"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="I144" s="23">
+        <f t="shared" si="49"/>
+        <v>3343.3333333333339</v>
+      </c>
+    </row>
+    <row r="145" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C145" s="4"/>
+      <c r="D145" s="18"/>
+      <c r="E145" s="20">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F107" s="22">
-        <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="G107" s="16">
-        <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="H107" s="16">
-        <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
-      </c>
-      <c r="I107" s="24">
-        <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C108" s="5"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="21">
-        <f t="shared" si="41"/>
+      <c r="F145" s="21">
+        <f t="shared" si="50"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="G145" s="15">
+        <f t="shared" si="47"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="H145" s="15">
+        <f t="shared" si="48"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="I145" s="23">
+        <f t="shared" si="49"/>
+        <v>3343.3333333333339</v>
+      </c>
+    </row>
+    <row r="146" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C146" s="4"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="20">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F108" s="22">
-        <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="G108" s="16">
-        <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="H108" s="16">
-        <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
-      </c>
-      <c r="I108" s="24">
-        <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C109" s="5"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="21">
-        <f t="shared" si="41"/>
+      <c r="F146" s="21">
+        <f t="shared" si="50"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="G146" s="15">
+        <f t="shared" si="47"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="H146" s="15">
+        <f t="shared" si="48"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="I146" s="23">
+        <f t="shared" si="49"/>
+        <v>3343.3333333333339</v>
+      </c>
+    </row>
+    <row r="147" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C147" s="4"/>
+      <c r="D147" s="18"/>
+      <c r="E147" s="20">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F109" s="22">
-        <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="G109" s="16">
-        <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="H109" s="16">
-        <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
-      </c>
-      <c r="I109" s="24">
-        <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C110" s="5"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="21">
-        <f t="shared" si="41"/>
+      <c r="F147" s="21">
+        <f t="shared" si="50"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="G147" s="15">
+        <f t="shared" si="47"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="H147" s="15">
+        <f t="shared" si="48"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="I147" s="23">
+        <f t="shared" si="49"/>
+        <v>3343.3333333333339</v>
+      </c>
+    </row>
+    <row r="148" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C148" s="4"/>
+      <c r="D148" s="18"/>
+      <c r="E148" s="20">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F110" s="22">
-        <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="G110" s="16">
-        <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="H110" s="16">
-        <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
-      </c>
-      <c r="I110" s="24">
-        <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C111" s="5"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="21">
-        <f t="shared" si="41"/>
+      <c r="F148" s="21">
+        <f t="shared" si="50"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="G148" s="15">
+        <f t="shared" si="47"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="H148" s="15">
+        <f t="shared" si="48"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="I148" s="23">
+        <f t="shared" si="49"/>
+        <v>3343.3333333333339</v>
+      </c>
+    </row>
+    <row r="149" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C149" s="4"/>
+      <c r="D149" s="18"/>
+      <c r="E149" s="20">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F111" s="22">
-        <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="G111" s="16">
-        <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="H111" s="16">
-        <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
-      </c>
-      <c r="I111" s="24">
-        <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C112" s="5"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="21">
-        <f t="shared" si="41"/>
+      <c r="F149" s="21">
+        <f t="shared" si="50"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="G149" s="15">
+        <f t="shared" si="47"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="H149" s="15">
+        <f t="shared" si="48"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="I149" s="23">
+        <f t="shared" si="49"/>
+        <v>3343.3333333333339</v>
+      </c>
+    </row>
+    <row r="150" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C150" s="4"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="20">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F112" s="22">
-        <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="G112" s="16">
-        <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="H112" s="16">
-        <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
-      </c>
-      <c r="I112" s="24">
-        <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
-      </c>
-    </row>
-    <row r="113" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C113" s="5"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="21">
-        <f t="shared" si="41"/>
+      <c r="F150" s="21">
+        <f t="shared" si="50"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="G150" s="15">
+        <f t="shared" si="47"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="H150" s="15">
+        <f t="shared" si="48"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="I150" s="23">
+        <f t="shared" si="49"/>
+        <v>3343.3333333333339</v>
+      </c>
+    </row>
+    <row r="151" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C151" s="4"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="20">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F113" s="22">
-        <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="G113" s="16">
-        <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="H113" s="16">
-        <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
-      </c>
-      <c r="I113" s="24">
-        <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
-      </c>
-    </row>
-    <row r="114" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C114" s="5"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="21">
-        <f t="shared" si="41"/>
+      <c r="F151" s="21">
+        <f t="shared" si="50"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="G151" s="15">
+        <f t="shared" si="47"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="H151" s="15">
+        <f t="shared" si="48"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="I151" s="23">
+        <f t="shared" si="49"/>
+        <v>3343.3333333333339</v>
+      </c>
+    </row>
+    <row r="152" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C152" s="4"/>
+      <c r="D152" s="18"/>
+      <c r="E152" s="20">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F114" s="22">
-        <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="G114" s="16">
-        <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="H114" s="16">
-        <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
-      </c>
-      <c r="I114" s="24">
-        <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
-      </c>
-    </row>
-    <row r="115" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C115" s="5"/>
-      <c r="D115" s="19"/>
-      <c r="E115" s="21">
-        <f t="shared" si="41"/>
+      <c r="F152" s="21">
+        <f t="shared" si="50"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="G152" s="15">
+        <f t="shared" si="47"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="H152" s="15">
+        <f t="shared" si="48"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="I152" s="23">
+        <f t="shared" si="49"/>
+        <v>3343.3333333333339</v>
+      </c>
+    </row>
+    <row r="153" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C153" s="4"/>
+      <c r="D153" s="18"/>
+      <c r="E153" s="20">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F115" s="22">
-        <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="G115" s="16">
-        <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="H115" s="16">
-        <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
-      </c>
-      <c r="I115" s="24">
-        <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
-      </c>
-    </row>
-    <row r="116" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C116" s="5"/>
-      <c r="D116" s="19"/>
-      <c r="E116" s="21">
-        <f t="shared" si="41"/>
+      <c r="F153" s="21">
+        <f t="shared" si="50"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="G153" s="15">
+        <f t="shared" si="47"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="H153" s="15">
+        <f t="shared" si="48"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="I153" s="23">
+        <f t="shared" si="49"/>
+        <v>3343.3333333333339</v>
+      </c>
+    </row>
+    <row r="154" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C154" s="4"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="20">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F116" s="22">
-        <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="G116" s="16">
-        <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="H116" s="16">
-        <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
-      </c>
-      <c r="I116" s="24">
-        <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
-      </c>
-    </row>
-    <row r="117" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C117" s="5"/>
-      <c r="D117" s="19"/>
-      <c r="E117" s="21">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="F117" s="22">
-        <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="G117" s="16">
-        <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="H117" s="16">
-        <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
-      </c>
-      <c r="I117" s="24">
-        <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
-      </c>
-    </row>
-    <row r="118" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C118" s="5"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="21">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="F118" s="22">
-        <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="G118" s="16">
-        <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="H118" s="16">
-        <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
-      </c>
-      <c r="I118" s="24">
-        <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
-      </c>
-    </row>
-    <row r="119" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C119" s="5"/>
-      <c r="D119" s="19"/>
-      <c r="E119" s="21">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="F119" s="22">
-        <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="G119" s="16">
-        <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="H119" s="16">
-        <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
-      </c>
-      <c r="I119" s="24">
-        <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
-      </c>
-    </row>
-    <row r="120" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C120" s="5"/>
-      <c r="D120" s="19"/>
-      <c r="E120" s="21">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="F120" s="22">
-        <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="G120" s="16">
-        <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="H120" s="16">
-        <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
-      </c>
-      <c r="I120" s="24">
-        <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
-      </c>
-    </row>
-    <row r="121" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C121" s="5"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="21">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="F121" s="22">
-        <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="G121" s="16">
-        <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="H121" s="16">
-        <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
-      </c>
-      <c r="I121" s="24">
-        <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
-      </c>
-    </row>
-    <row r="122" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C122" s="5"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="21">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="F122" s="22">
-        <f t="shared" si="42"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="G122" s="16">
-        <f t="shared" si="43"/>
-        <v>2.6493055555555571</v>
-      </c>
-      <c r="H122" s="16">
-        <f t="shared" si="44"/>
-        <v>2.6493055555555554</v>
-      </c>
-      <c r="I122" s="24">
-        <f t="shared" si="45"/>
-        <v>10809.166666666666</v>
+      <c r="F154" s="21">
+        <f t="shared" si="50"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="G154" s="15">
+        <f t="shared" si="47"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="H154" s="15">
+        <f t="shared" si="48"/>
+        <v>0.81944444444444464</v>
+      </c>
+      <c r="I154" s="23">
+        <f t="shared" si="49"/>
+        <v>3343.3333333333339</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="40">
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B109:B113"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="B28:B29"/>
@@ -4398,11 +5549,10 @@
     <mergeCell ref="B63:B65"/>
     <mergeCell ref="B54:B59"/>
     <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
     <mergeCell ref="K13:K17"/>
     <mergeCell ref="K18:K22"/>
     <mergeCell ref="B14:B18"/>
@@ -4413,11 +5563,13 @@
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B114:B115"/>
     <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58C7BE6-F7D4-4256-BE9A-A35DE5299A77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-25215" yWindow="1785" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t>Vektorizace, první sada</t>
   </si>
@@ -203,12 +212,21 @@
   </si>
   <si>
     <t>29.12.</t>
+  </si>
+  <si>
+    <t>1.1.</t>
+  </si>
+  <si>
+    <t>2.1.</t>
+  </si>
+  <si>
+    <t>3.1.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
@@ -672,13 +690,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -687,12 +705,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -708,7 +726,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -783,6 +801,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -818,6 +853,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -993,11 +1045,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="K136" sqref="K136"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,10 +1071,10 @@
       <c r="B1" s="51"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="55" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -1043,8 +1095,8 @@
       <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="55"/>
       <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
@@ -1224,7 +1276,7 @@
         <v>16716.666666666664</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="54"/>
+      <c r="K13" s="59"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
@@ -1270,7 +1322,7 @@
         <v>16915</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="54"/>
+      <c r="K14" s="59"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
@@ -1314,7 +1366,7 @@
         <v>17184.166666666664</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="54"/>
+      <c r="K15" s="59"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
@@ -1358,7 +1410,7 @@
         <v>17269.166666666664</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="54"/>
+      <c r="K16" s="59"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
@@ -1402,7 +1454,7 @@
         <v>17524.166666666664</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="54"/>
+      <c r="K17" s="59"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
@@ -1446,7 +1498,7 @@
         <v>17651.666666666664</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="54"/>
+      <c r="K18" s="59"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
@@ -1492,7 +1544,7 @@
         <v>17878.333333333332</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="54"/>
+      <c r="K19" s="59"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
@@ -1536,7 +1588,7 @@
         <v>18246.666666666664</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="54"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
@@ -1580,7 +1632,7 @@
         <v>18388.333333333332</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="54"/>
+      <c r="K21" s="59"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
@@ -1624,7 +1676,7 @@
         <v>18515.833333333332</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="54"/>
+      <c r="K22" s="59"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="9"/>
@@ -1953,10 +2005,10 @@
       <c r="B31" s="51"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="56" t="s">
+      <c r="F31" s="55" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="17" t="s">
@@ -1977,8 +2029,8 @@
       <c r="D32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="55"/>
-      <c r="F32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="55"/>
       <c r="G32" s="12" t="s">
         <v>14</v>
       </c>
@@ -4673,10 +4725,10 @@
       <c r="B123" s="51"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
-      <c r="E123" s="55" t="s">
+      <c r="E123" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F123" s="56" t="s">
+      <c r="F123" s="55" t="s">
         <v>18</v>
       </c>
       <c r="G123" s="17" t="s">
@@ -4699,8 +4751,8 @@
       <c r="D124" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="55"/>
-      <c r="F124" s="56"/>
+      <c r="E124" s="56"/>
+      <c r="F124" s="55"/>
       <c r="G124" s="12" t="s">
         <v>14</v>
       </c>
@@ -4774,7 +4826,7 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B127" s="59" t="s">
+      <c r="B127" s="54" t="s">
         <v>58</v>
       </c>
       <c r="C127" s="4">
@@ -4805,7 +4857,7 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B128" s="59"/>
+      <c r="B128" s="54"/>
       <c r="C128" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -4834,7 +4886,7 @@
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="59"/>
+      <c r="B129" s="54"/>
       <c r="C129" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -4863,7 +4915,7 @@
       </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="59"/>
+      <c r="B130" s="54"/>
       <c r="C130" s="4">
         <v>0.78472222222222221</v>
       </c>
@@ -4892,7 +4944,7 @@
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B131" s="59" t="s">
+      <c r="B131" s="54" t="s">
         <v>60</v>
       </c>
       <c r="C131" s="4">
@@ -4923,7 +4975,7 @@
       </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B132" s="59"/>
+      <c r="B132" s="54"/>
       <c r="C132" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -4952,7 +5004,7 @@
       </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B133" s="59"/>
+      <c r="B133" s="54"/>
       <c r="C133" s="4">
         <v>0.71180555555555547</v>
       </c>
@@ -4981,7 +5033,7 @@
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B134" s="59"/>
+      <c r="B134" s="54"/>
       <c r="C134" s="4">
         <v>0.84375</v>
       </c>
@@ -5010,7 +5062,7 @@
       </c>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B135" s="59" t="s">
+      <c r="B135" s="54" t="s">
         <v>61</v>
       </c>
       <c r="C135" s="4">
@@ -5041,7 +5093,7 @@
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B136" s="59"/>
+      <c r="B136" s="54"/>
       <c r="C136" s="4">
         <v>0.74305555555555547</v>
       </c>
@@ -5070,7 +5122,7 @@
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B137" s="59"/>
+      <c r="B137" s="54"/>
       <c r="C137" s="4">
         <v>0.79861111111111116</v>
       </c>
@@ -5099,7 +5151,7 @@
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B138" s="59" t="s">
+      <c r="B138" s="54" t="s">
         <v>62</v>
       </c>
       <c r="C138" s="4">
@@ -5130,7 +5182,7 @@
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B139" s="59"/>
+      <c r="B139" s="54"/>
       <c r="C139" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -5159,7 +5211,7 @@
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B140" s="59"/>
+      <c r="B140" s="54"/>
       <c r="C140" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -5188,7 +5240,7 @@
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B141" s="59"/>
+      <c r="B141" s="54"/>
       <c r="C141" s="4">
         <v>0.83680555555555547</v>
       </c>
@@ -5217,198 +5269,241 @@
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C142" s="4"/>
-      <c r="D142" s="18"/>
+      <c r="B142" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C142" s="4">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D142" s="18">
+        <v>0.69097222222222221</v>
+      </c>
       <c r="E142" s="20">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>3.819444444444442E-2</v>
       </c>
       <c r="F142" s="21">
         <f t="shared" si="50"/>
-        <v>0.81944444444444464</v>
+        <v>0.85763888888888906</v>
       </c>
       <c r="G142" s="15">
         <f t="shared" si="47"/>
-        <v>0.81944444444444464</v>
+        <v>0.85763888888888906</v>
       </c>
       <c r="H142" s="15">
         <f t="shared" si="48"/>
-        <v>0.81944444444444464</v>
+        <v>0.85763888888888928</v>
       </c>
       <c r="I142" s="23">
         <f t="shared" si="49"/>
-        <v>3343.3333333333339</v>
+        <v>3499.1666666666683</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C143" s="4"/>
-      <c r="D143" s="18"/>
+      <c r="B143" s="54"/>
+      <c r="C143" s="4">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D143" s="18">
+        <v>0.78472222222222221</v>
+      </c>
       <c r="E143" s="20">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F143" s="21">
         <f t="shared" si="50"/>
-        <v>0.81944444444444464</v>
+        <v>0.92013888888888906</v>
       </c>
       <c r="G143" s="15">
         <f t="shared" si="47"/>
-        <v>0.81944444444444464</v>
+        <v>0.92013888888888906</v>
       </c>
       <c r="H143" s="15">
         <f t="shared" si="48"/>
-        <v>0.81944444444444464</v>
+        <v>0.92013888888888928</v>
       </c>
       <c r="I143" s="23">
         <f t="shared" si="49"/>
-        <v>3343.3333333333339</v>
+        <v>3754.1666666666683</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C144" s="4"/>
-      <c r="D144" s="18"/>
+      <c r="B144" s="54"/>
+      <c r="C144" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D144" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="E144" s="20">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="F144" s="21">
         <f t="shared" si="50"/>
-        <v>0.81944444444444464</v>
+        <v>0.9618055555555558</v>
       </c>
       <c r="G144" s="15">
         <f t="shared" si="47"/>
-        <v>0.81944444444444464</v>
+        <v>0.9618055555555558</v>
       </c>
       <c r="H144" s="15">
         <f t="shared" si="48"/>
-        <v>0.81944444444444464</v>
+        <v>0.96180555555555602</v>
       </c>
       <c r="I144" s="23">
         <f t="shared" si="49"/>
-        <v>3343.3333333333339</v>
-      </c>
-    </row>
-    <row r="145" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C145" s="4"/>
-      <c r="D145" s="18"/>
+        <v>3924.1666666666683</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B145" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C145" s="4">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="D145" s="18">
+        <v>0.72222222222222221</v>
+      </c>
       <c r="E145" s="20">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="F145" s="21">
         <f t="shared" si="50"/>
-        <v>0.81944444444444464</v>
+        <v>1.0034722222222225</v>
       </c>
       <c r="G145" s="15">
         <f t="shared" si="47"/>
-        <v>0.81944444444444464</v>
+        <v>1.0034722222222225</v>
       </c>
       <c r="H145" s="15">
         <f t="shared" si="48"/>
-        <v>0.81944444444444464</v>
+        <v>1.0034722222222228</v>
       </c>
       <c r="I145" s="23">
         <f t="shared" si="49"/>
-        <v>3343.3333333333339</v>
-      </c>
-    </row>
-    <row r="146" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C146" s="4"/>
-      <c r="D146" s="18"/>
+        <v>4094.1666666666688</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B146" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C146" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D146" s="18">
+        <v>0.59722222222222221</v>
+      </c>
       <c r="E146" s="20">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>9.722222222222221E-2</v>
       </c>
       <c r="F146" s="21">
         <f t="shared" si="50"/>
-        <v>0.81944444444444464</v>
+        <v>1.1006944444444446</v>
       </c>
       <c r="G146" s="15">
         <f t="shared" si="47"/>
-        <v>0.81944444444444464</v>
+        <v>1.1006944444444446</v>
       </c>
       <c r="H146" s="15">
         <f t="shared" si="48"/>
-        <v>0.81944444444444464</v>
+        <v>1.1006944444444449</v>
       </c>
       <c r="I146" s="23">
         <f t="shared" si="49"/>
-        <v>3343.3333333333339</v>
-      </c>
-    </row>
-    <row r="147" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C147" s="4"/>
-      <c r="D147" s="18"/>
+        <v>4490.8333333333358</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C147" s="4">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="D147" s="18">
+        <v>0.69444444444444453</v>
+      </c>
       <c r="E147" s="20">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>3.1250000000000111E-2</v>
       </c>
       <c r="F147" s="21">
         <f t="shared" si="50"/>
-        <v>0.81944444444444464</v>
+        <v>1.1319444444444446</v>
       </c>
       <c r="G147" s="15">
         <f t="shared" si="47"/>
-        <v>0.81944444444444464</v>
+        <v>1.1319444444444446</v>
       </c>
       <c r="H147" s="15">
         <f t="shared" si="48"/>
-        <v>0.81944444444444464</v>
+        <v>1.1319444444444446</v>
       </c>
       <c r="I147" s="23">
         <f t="shared" si="49"/>
-        <v>3343.3333333333339</v>
-      </c>
-    </row>
-    <row r="148" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C148" s="4"/>
-      <c r="D148" s="18"/>
+        <v>4618.3333333333339</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C148" s="4">
+        <v>0.78125</v>
+      </c>
+      <c r="D148" s="18">
+        <v>0.84722222222222221</v>
+      </c>
       <c r="E148" s="20">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>6.597222222222221E-2</v>
       </c>
       <c r="F148" s="21">
         <f t="shared" si="50"/>
-        <v>0.81944444444444464</v>
+        <v>1.197916666666667</v>
       </c>
       <c r="G148" s="15">
         <f t="shared" si="47"/>
-        <v>0.81944444444444464</v>
+        <v>1.197916666666667</v>
       </c>
       <c r="H148" s="15">
         <f t="shared" si="48"/>
-        <v>0.81944444444444464</v>
+        <v>1.197916666666667</v>
       </c>
       <c r="I148" s="23">
         <f t="shared" si="49"/>
-        <v>3343.3333333333339</v>
-      </c>
-    </row>
-    <row r="149" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C149" s="4"/>
-      <c r="D149" s="18"/>
+        <v>4887.5000000000009</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C149" s="4">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="D149" s="18">
+        <v>0.90277777777777779</v>
+      </c>
       <c r="E149" s="20">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="F149" s="21">
         <f t="shared" si="50"/>
-        <v>0.81944444444444464</v>
+        <v>1.2395833333333335</v>
       </c>
       <c r="G149" s="15">
         <f t="shared" si="47"/>
-        <v>0.81944444444444464</v>
+        <v>1.2395833333333335</v>
       </c>
       <c r="H149" s="15">
         <f t="shared" si="48"/>
-        <v>0.81944444444444464</v>
+        <v>1.2395833333333335</v>
       </c>
       <c r="I149" s="23">
         <f t="shared" si="49"/>
-        <v>3343.3333333333339</v>
-      </c>
-    </row>
-    <row r="150" spans="3:9" x14ac:dyDescent="0.25">
+        <v>5057.5000000000009</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C150" s="4"/>
       <c r="D150" s="18"/>
       <c r="E150" s="20">
@@ -5417,22 +5512,22 @@
       </c>
       <c r="F150" s="21">
         <f t="shared" si="50"/>
-        <v>0.81944444444444464</v>
+        <v>1.2395833333333335</v>
       </c>
       <c r="G150" s="15">
         <f t="shared" si="47"/>
-        <v>0.81944444444444464</v>
+        <v>1.2395833333333335</v>
       </c>
       <c r="H150" s="15">
         <f t="shared" si="48"/>
-        <v>0.81944444444444464</v>
+        <v>1.2395833333333335</v>
       </c>
       <c r="I150" s="23">
         <f t="shared" si="49"/>
-        <v>3343.3333333333339</v>
-      </c>
-    </row>
-    <row r="151" spans="3:9" x14ac:dyDescent="0.25">
+        <v>5057.5000000000009</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C151" s="4"/>
       <c r="D151" s="18"/>
       <c r="E151" s="20">
@@ -5441,22 +5536,22 @@
       </c>
       <c r="F151" s="21">
         <f t="shared" si="50"/>
-        <v>0.81944444444444464</v>
+        <v>1.2395833333333335</v>
       </c>
       <c r="G151" s="15">
         <f t="shared" si="47"/>
-        <v>0.81944444444444464</v>
+        <v>1.2395833333333335</v>
       </c>
       <c r="H151" s="15">
         <f t="shared" si="48"/>
-        <v>0.81944444444444464</v>
+        <v>1.2395833333333335</v>
       </c>
       <c r="I151" s="23">
         <f t="shared" si="49"/>
-        <v>3343.3333333333339</v>
-      </c>
-    </row>
-    <row r="152" spans="3:9" x14ac:dyDescent="0.25">
+        <v>5057.5000000000009</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C152" s="4"/>
       <c r="D152" s="18"/>
       <c r="E152" s="20">
@@ -5465,22 +5560,22 @@
       </c>
       <c r="F152" s="21">
         <f t="shared" si="50"/>
-        <v>0.81944444444444464</v>
+        <v>1.2395833333333335</v>
       </c>
       <c r="G152" s="15">
         <f t="shared" si="47"/>
-        <v>0.81944444444444464</v>
+        <v>1.2395833333333335</v>
       </c>
       <c r="H152" s="15">
         <f t="shared" si="48"/>
-        <v>0.81944444444444464</v>
+        <v>1.2395833333333335</v>
       </c>
       <c r="I152" s="23">
         <f t="shared" si="49"/>
-        <v>3343.3333333333339</v>
-      </c>
-    </row>
-    <row r="153" spans="3:9" x14ac:dyDescent="0.25">
+        <v>5057.5000000000009</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C153" s="4"/>
       <c r="D153" s="18"/>
       <c r="E153" s="20">
@@ -5489,22 +5584,22 @@
       </c>
       <c r="F153" s="21">
         <f t="shared" si="50"/>
-        <v>0.81944444444444464</v>
+        <v>1.2395833333333335</v>
       </c>
       <c r="G153" s="15">
         <f t="shared" si="47"/>
-        <v>0.81944444444444464</v>
+        <v>1.2395833333333335</v>
       </c>
       <c r="H153" s="15">
         <f t="shared" si="48"/>
-        <v>0.81944444444444464</v>
+        <v>1.2395833333333335</v>
       </c>
       <c r="I153" s="23">
         <f t="shared" si="49"/>
-        <v>3343.3333333333339</v>
-      </c>
-    </row>
-    <row r="154" spans="3:9" x14ac:dyDescent="0.25">
+        <v>5057.5000000000009</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C154" s="4"/>
       <c r="D154" s="18"/>
       <c r="E154" s="20">
@@ -5513,46 +5608,24 @@
       </c>
       <c r="F154" s="21">
         <f t="shared" si="50"/>
-        <v>0.81944444444444464</v>
+        <v>1.2395833333333335</v>
       </c>
       <c r="G154" s="15">
         <f t="shared" si="47"/>
-        <v>0.81944444444444464</v>
+        <v>1.2395833333333335</v>
       </c>
       <c r="H154" s="15">
         <f t="shared" si="48"/>
-        <v>0.81944444444444464</v>
+        <v>1.2395833333333335</v>
       </c>
       <c r="I154" s="23">
         <f t="shared" si="49"/>
-        <v>3343.3333333333339</v>
+        <v>5057.5000000000009</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
+  <mergeCells count="41">
+    <mergeCell ref="B142:B144"/>
     <mergeCell ref="K13:K17"/>
     <mergeCell ref="K18:K22"/>
     <mergeCell ref="B14:B18"/>
@@ -5563,13 +5636,36 @@
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B138:B141"/>
     <mergeCell ref="B79:B80"/>
     <mergeCell ref="B81:B83"/>
     <mergeCell ref="B103:B106"/>
     <mergeCell ref="B107:B108"/>
     <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B95:B97"/>
     <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B127:B130"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58C7BE6-F7D4-4256-BE9A-A35DE5299A77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DB8D9C-E5E7-4C78-8F09-35A0FE95C45D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25215" yWindow="1785" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27915" yWindow="825" windowWidth="14670" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>Vektorizace, první sada</t>
   </si>
@@ -221,6 +221,24 @@
   </si>
   <si>
     <t>3.1.</t>
+  </si>
+  <si>
+    <t>4.1.</t>
+  </si>
+  <si>
+    <t>hotova oblast 3, navrat k 2</t>
+  </si>
+  <si>
+    <t>5.1.</t>
+  </si>
+  <si>
+    <t>konec vektorizace</t>
+  </si>
+  <si>
+    <t>6.1.</t>
+  </si>
+  <si>
+    <t>TOPOLOGIE x3</t>
   </si>
 </sst>
 </file>
@@ -601,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -688,19 +706,25 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1046,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X154"/>
+  <dimension ref="A1:X179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="D150" sqref="D150"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,10 +1095,10 @@
       <c r="B1" s="51"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="57" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -1095,8 +1119,8 @@
       <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="55"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="57"/>
       <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
@@ -1276,7 +1300,7 @@
         <v>16716.666666666664</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="59"/>
+      <c r="K13" s="61"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
@@ -1292,7 +1316,7 @@
       <c r="X13" s="6"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="56" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="4">
@@ -1322,7 +1346,7 @@
         <v>16915</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="59"/>
+      <c r="K14" s="61"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
@@ -1338,7 +1362,7 @@
       <c r="X14" s="6"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="53"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -1366,7 +1390,7 @@
         <v>17184.166666666664</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="59"/>
+      <c r="K15" s="61"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
@@ -1382,7 +1406,7 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="53"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -1410,7 +1434,7 @@
         <v>17269.166666666664</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="59"/>
+      <c r="K16" s="61"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
@@ -1426,7 +1450,7 @@
       <c r="X16" s="6"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="53"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="4">
         <v>0.80208333333333337</v>
       </c>
@@ -1454,7 +1478,7 @@
         <v>17524.166666666664</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="59"/>
+      <c r="K17" s="61"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
@@ -1470,7 +1494,7 @@
       <c r="X17" s="6"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="53"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="4">
         <v>0.875</v>
       </c>
@@ -1498,7 +1522,7 @@
         <v>17651.666666666664</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="59"/>
+      <c r="K18" s="61"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
@@ -1514,7 +1538,7 @@
       <c r="X18" s="6"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="4">
@@ -1544,7 +1568,7 @@
         <v>17878.333333333332</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="59"/>
+      <c r="K19" s="61"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
@@ -1560,7 +1584,7 @@
       <c r="X19" s="6"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="53"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1588,7 +1612,7 @@
         <v>18246.666666666664</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="59"/>
+      <c r="K20" s="61"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
@@ -1604,7 +1628,7 @@
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="53"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1632,7 +1656,7 @@
         <v>18388.333333333332</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="59"/>
+      <c r="K21" s="61"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
@@ -1648,7 +1672,7 @@
       <c r="X21" s="6"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="53"/>
+      <c r="B22" s="56"/>
       <c r="C22" s="4">
         <v>0.75</v>
       </c>
@@ -1676,7 +1700,7 @@
         <v>18515.833333333332</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="59"/>
+      <c r="K22" s="61"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="9"/>
@@ -1692,7 +1716,7 @@
       <c r="X22" s="6"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="53"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -1736,7 +1760,7 @@
       <c r="X23" s="6"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="60" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="4">
@@ -1782,7 +1806,7 @@
       <c r="X24" s="6"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="58"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -1826,7 +1850,7 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="58"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1870,7 +1894,7 @@
       <c r="X26" s="6"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="58"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="4">
         <v>0.83333333333333337</v>
       </c>
@@ -1914,7 +1938,7 @@
       <c r="X27" s="6"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="56" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="4">
@@ -1960,7 +1984,7 @@
       <c r="X28" s="6"/>
     </row>
     <row r="29" spans="2:24" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="57"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="27">
         <v>0.61111111111111105</v>
       </c>
@@ -2005,10 +2029,10 @@
       <c r="B31" s="51"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="55" t="s">
+      <c r="F31" s="57" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="17" t="s">
@@ -2029,8 +2053,8 @@
       <c r="D32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="56"/>
-      <c r="F32" s="55"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="12" t="s">
         <v>14</v>
       </c>
@@ -2045,7 +2069,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="56" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="24">
@@ -2076,7 +2100,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="53"/>
+      <c r="B34" s="56"/>
       <c r="C34" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -2105,7 +2129,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="53"/>
+      <c r="B35" s="56"/>
       <c r="C35" s="4">
         <v>0.67013888888888884</v>
       </c>
@@ -2165,7 +2189,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="56" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="4">
@@ -2196,7 +2220,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="53"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -2225,7 +2249,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="53"/>
+      <c r="B39" s="56"/>
       <c r="C39" s="4">
         <v>0.77777777777777779</v>
       </c>
@@ -2254,7 +2278,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="53"/>
+      <c r="B40" s="56"/>
       <c r="C40" s="4">
         <v>0.93055555555555547</v>
       </c>
@@ -2283,7 +2307,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="56" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="4">
@@ -2314,7 +2338,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="53"/>
+      <c r="B42" s="56"/>
       <c r="C42" s="4">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -2343,7 +2367,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="53"/>
+      <c r="B43" s="56"/>
       <c r="C43" s="4">
         <v>0.60069444444444442</v>
       </c>
@@ -2372,7 +2396,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="53"/>
+      <c r="B44" s="56"/>
       <c r="C44" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2401,7 +2425,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="53"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="4">
         <v>0.78472222222222221</v>
       </c>
@@ -2430,7 +2454,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="53"/>
+      <c r="B46" s="56"/>
       <c r="C46" s="4">
         <v>0.92708333333333337</v>
       </c>
@@ -2459,7 +2483,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="56" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="4">
@@ -2490,7 +2514,7 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="53"/>
+      <c r="B48" s="56"/>
       <c r="C48" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -2519,7 +2543,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="53"/>
+      <c r="B49" s="56"/>
       <c r="C49" s="4">
         <v>0.74305555555555547</v>
       </c>
@@ -2548,7 +2572,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="53"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="4">
         <v>0.78819444444444453</v>
       </c>
@@ -2577,7 +2601,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="53"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="4">
         <v>0.81597222222222221</v>
       </c>
@@ -2606,7 +2630,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="53"/>
+      <c r="B52" s="56"/>
       <c r="C52" s="4">
         <v>0.89583333333333337</v>
       </c>
@@ -2638,7 +2662,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="53"/>
+      <c r="B53" s="56"/>
       <c r="C53" s="4">
         <v>0.99652777777777779</v>
       </c>
@@ -2670,7 +2694,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="56" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="4">
@@ -2704,7 +2728,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="53"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="4">
         <v>0.19444444444444445</v>
       </c>
@@ -2733,7 +2757,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="53"/>
+      <c r="B56" s="56"/>
       <c r="C56" s="4">
         <v>0.625</v>
       </c>
@@ -2762,7 +2786,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="53"/>
+      <c r="B57" s="56"/>
       <c r="C57" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -2791,7 +2815,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="53"/>
+      <c r="B58" s="56"/>
       <c r="C58" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2820,7 +2844,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="53"/>
+      <c r="B59" s="56"/>
       <c r="C59" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -2880,7 +2904,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="56" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="4">
@@ -2911,7 +2935,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="53"/>
+      <c r="B62" s="56"/>
       <c r="C62" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -2940,7 +2964,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="53" t="s">
+      <c r="B63" s="56" t="s">
         <v>33</v>
       </c>
       <c r="C63" s="4">
@@ -2971,7 +2995,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="53"/>
+      <c r="B64" s="56"/>
       <c r="C64" s="4">
         <v>0.86111111111111116</v>
       </c>
@@ -3000,7 +3024,7 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="53"/>
+      <c r="B65" s="56"/>
       <c r="C65" s="4">
         <v>0.88888888888888884</v>
       </c>
@@ -3029,7 +3053,7 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="53" t="s">
+      <c r="B66" s="56" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="4">
@@ -3060,7 +3084,7 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="53"/>
+      <c r="B67" s="56"/>
       <c r="C67" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -3089,7 +3113,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="53"/>
+      <c r="B68" s="56"/>
       <c r="C68" s="4">
         <v>0.89930555555555547</v>
       </c>
@@ -3118,7 +3142,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="53"/>
+      <c r="B69" s="56"/>
       <c r="C69" s="4">
         <v>0.92361111111111116</v>
       </c>
@@ -3147,7 +3171,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="53" t="s">
+      <c r="B70" s="56" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="4">
@@ -3178,7 +3202,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="53"/>
+      <c r="B71" s="56"/>
       <c r="C71" s="4">
         <v>0.72222222222222221</v>
       </c>
@@ -3238,7 +3262,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C73" s="4">
@@ -3269,7 +3293,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="53"/>
+      <c r="B74" s="56"/>
       <c r="C74" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -3298,7 +3322,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="53" t="s">
+      <c r="B75" s="56" t="s">
         <v>38</v>
       </c>
       <c r="C75" s="4">
@@ -3329,7 +3353,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="53"/>
+      <c r="B76" s="56"/>
       <c r="C76" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -3358,7 +3382,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="53"/>
+      <c r="B77" s="56"/>
       <c r="C77" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -3387,7 +3411,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="53"/>
+      <c r="B78" s="56"/>
       <c r="C78" s="4">
         <v>0.96875</v>
       </c>
@@ -3416,7 +3440,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="53" t="s">
+      <c r="B79" s="56" t="s">
         <v>39</v>
       </c>
       <c r="C79" s="4">
@@ -3450,7 +3474,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="53"/>
+      <c r="B80" s="56"/>
       <c r="C80" s="4">
         <v>0.65625</v>
       </c>
@@ -3479,7 +3503,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="53" t="s">
+      <c r="B81" s="56" t="s">
         <v>41</v>
       </c>
       <c r="C81" s="4">
@@ -3510,7 +3534,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="53"/>
+      <c r="B82" s="56"/>
       <c r="C82" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -3539,7 +3563,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="53"/>
+      <c r="B83" s="56"/>
       <c r="C83" s="4">
         <v>0.69791666666666663</v>
       </c>
@@ -3568,7 +3592,7 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="53" t="s">
+      <c r="B84" s="56" t="s">
         <v>42</v>
       </c>
       <c r="C84" s="4">
@@ -3599,7 +3623,7 @@
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="53"/>
+      <c r="B85" s="56"/>
       <c r="C85" s="4">
         <v>0.61805555555555558</v>
       </c>
@@ -3628,7 +3652,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="53"/>
+      <c r="B86" s="56"/>
       <c r="C86" s="4">
         <v>0.86805555555555547</v>
       </c>
@@ -3657,7 +3681,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="53" t="s">
+      <c r="B87" s="56" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="4">
@@ -3688,7 +3712,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="53"/>
+      <c r="B88" s="56"/>
       <c r="C88" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -3748,7 +3772,7 @@
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="53" t="s">
+      <c r="B90" s="56" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="4">
@@ -3779,7 +3803,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="53"/>
+      <c r="B91" s="56"/>
       <c r="C91" s="4">
         <v>0.3576388888888889</v>
       </c>
@@ -3808,7 +3832,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="53"/>
+      <c r="B92" s="56"/>
       <c r="C92" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -3837,7 +3861,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="53"/>
+      <c r="B93" s="56"/>
       <c r="C93" s="4">
         <v>0.4548611111111111</v>
       </c>
@@ -3866,7 +3890,7 @@
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="53"/>
+      <c r="B94" s="56"/>
       <c r="C94" s="4">
         <v>0.48958333333333331</v>
       </c>
@@ -3895,7 +3919,7 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="53" t="s">
+      <c r="B95" s="56" t="s">
         <v>46</v>
       </c>
       <c r="C95" s="4">
@@ -3926,7 +3950,7 @@
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="53"/>
+      <c r="B96" s="56"/>
       <c r="C96" s="4">
         <v>0.5</v>
       </c>
@@ -3955,7 +3979,7 @@
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="53"/>
+      <c r="B97" s="56"/>
       <c r="C97" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -3984,7 +4008,7 @@
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="53" t="s">
+      <c r="B98" s="56" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="4">
@@ -4015,7 +4039,7 @@
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="53"/>
+      <c r="B99" s="56"/>
       <c r="C99" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4044,7 +4068,7 @@
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="53"/>
+      <c r="B100" s="56"/>
       <c r="C100" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -4073,7 +4097,7 @@
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="53" t="s">
+      <c r="B101" s="56" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="4">
@@ -4104,7 +4128,7 @@
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="53"/>
+      <c r="B102" s="56"/>
       <c r="C102" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4133,7 +4157,7 @@
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="53" t="s">
+      <c r="B103" s="56" t="s">
         <v>50</v>
       </c>
       <c r="C103" s="4">
@@ -4167,7 +4191,7 @@
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="53"/>
+      <c r="B104" s="56"/>
       <c r="C104" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -4196,7 +4220,7 @@
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="53"/>
+      <c r="B105" s="56"/>
       <c r="C105" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -4228,7 +4252,7 @@
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="53"/>
+      <c r="B106" s="56"/>
       <c r="C106" s="4">
         <v>0.70486111111111116</v>
       </c>
@@ -4257,7 +4281,7 @@
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="53" t="s">
+      <c r="B107" s="56" t="s">
         <v>51</v>
       </c>
       <c r="C107" s="4">
@@ -4288,7 +4312,7 @@
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="53"/>
+      <c r="B108" s="56"/>
       <c r="C108" s="4">
         <v>0.98958333333333337</v>
       </c>
@@ -4317,7 +4341,7 @@
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="53" t="s">
+      <c r="B109" s="56" t="s">
         <v>52</v>
       </c>
       <c r="C109" s="4">
@@ -4348,7 +4372,7 @@
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="53"/>
+      <c r="B110" s="56"/>
       <c r="C110" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -4377,7 +4401,7 @@
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="53"/>
+      <c r="B111" s="56"/>
       <c r="C111" s="4">
         <v>0.66319444444444442</v>
       </c>
@@ -4406,7 +4430,7 @@
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="53"/>
+      <c r="B112" s="56"/>
       <c r="C112" s="4">
         <v>0.73958333333333337</v>
       </c>
@@ -4435,7 +4459,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="53"/>
+      <c r="B113" s="56"/>
       <c r="C113" s="4">
         <v>0.80555555555555547</v>
       </c>
@@ -4464,7 +4488,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="53" t="s">
+      <c r="B114" s="56" t="s">
         <v>53</v>
       </c>
       <c r="C114" s="4">
@@ -4495,7 +4519,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="53"/>
+      <c r="B115" s="56"/>
       <c r="C115" s="4">
         <v>0.69097222222222221</v>
       </c>
@@ -4558,7 +4582,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="53" t="s">
+      <c r="B117" s="56" t="s">
         <v>55</v>
       </c>
       <c r="C117" s="4">
@@ -4589,7 +4613,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="53"/>
+      <c r="B118" s="56"/>
       <c r="C118" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4618,7 +4642,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="53"/>
+      <c r="B119" s="56"/>
       <c r="C119" s="4">
         <v>0.59375</v>
       </c>
@@ -4647,7 +4671,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="53"/>
+      <c r="B120" s="56"/>
       <c r="C120" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4676,7 +4700,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="57"/>
+      <c r="B121" s="58"/>
       <c r="C121" s="38">
         <v>0.77777777777777779</v>
       </c>
@@ -4725,10 +4749,10 @@
       <c r="B123" s="51"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
-      <c r="E123" s="56" t="s">
+      <c r="E123" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F123" s="55" t="s">
+      <c r="F123" s="57" t="s">
         <v>18</v>
       </c>
       <c r="G123" s="17" t="s">
@@ -4751,8 +4775,8 @@
       <c r="D124" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="56"/>
-      <c r="F124" s="55"/>
+      <c r="E124" s="59"/>
+      <c r="F124" s="57"/>
       <c r="G124" s="12" t="s">
         <v>14</v>
       </c>
@@ -4795,7 +4819,7 @@
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B126" s="49" t="s">
+      <c r="B126" s="54" t="s">
         <v>55</v>
       </c>
       <c r="C126" s="4">
@@ -4805,7 +4829,7 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="E126" s="20">
-        <f t="shared" ref="E126:E154" si="46">D126-C126</f>
+        <f t="shared" ref="E126:E155" si="46">D126-C126</f>
         <v>6.944444444444442E-2</v>
       </c>
       <c r="F126" s="21">
@@ -4813,20 +4837,20 @@
         <v>0.1597222222222221</v>
       </c>
       <c r="G126" s="15">
-        <f t="shared" ref="G126:G154" si="47">F126</f>
+        <f t="shared" ref="G126:G155" si="47">F126</f>
         <v>0.1597222222222221</v>
       </c>
       <c r="H126" s="15">
-        <f t="shared" ref="H126:H154" si="48">(H125+G126-G125)</f>
+        <f t="shared" ref="H126:H155" si="48">(H125+G126-G125)</f>
         <v>0.1597222222222221</v>
       </c>
       <c r="I126" s="23">
-        <f t="shared" ref="I126:I154" si="49">H126*24*$J$32</f>
+        <f t="shared" ref="I126:I155" si="49">H126*24*$J$32</f>
         <v>651.66666666666617</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B127" s="54" t="s">
+      <c r="B127" s="55" t="s">
         <v>58</v>
       </c>
       <c r="C127" s="4">
@@ -4840,7 +4864,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="F127" s="21">
-        <f t="shared" ref="F127:F154" si="50">F126+E127</f>
+        <f t="shared" ref="F127:F155" si="50">F126+E127</f>
         <v>0.1909722222222221</v>
       </c>
       <c r="G127" s="15">
@@ -4857,7 +4881,7 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B128" s="54"/>
+      <c r="B128" s="55"/>
       <c r="C128" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -4886,7 +4910,7 @@
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="54"/>
+      <c r="B129" s="55"/>
       <c r="C129" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -4915,7 +4939,7 @@
       </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="54"/>
+      <c r="B130" s="55"/>
       <c r="C130" s="4">
         <v>0.78472222222222221</v>
       </c>
@@ -4944,7 +4968,7 @@
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B131" s="54" t="s">
+      <c r="B131" s="55" t="s">
         <v>60</v>
       </c>
       <c r="C131" s="4">
@@ -4975,7 +4999,7 @@
       </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B132" s="54"/>
+      <c r="B132" s="55"/>
       <c r="C132" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -5004,7 +5028,7 @@
       </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B133" s="54"/>
+      <c r="B133" s="55"/>
       <c r="C133" s="4">
         <v>0.71180555555555547</v>
       </c>
@@ -5033,7 +5057,7 @@
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B134" s="54"/>
+      <c r="B134" s="55"/>
       <c r="C134" s="4">
         <v>0.84375</v>
       </c>
@@ -5062,7 +5086,7 @@
       </c>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B135" s="54" t="s">
+      <c r="B135" s="55" t="s">
         <v>61</v>
       </c>
       <c r="C135" s="4">
@@ -5093,7 +5117,7 @@
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B136" s="54"/>
+      <c r="B136" s="55"/>
       <c r="C136" s="4">
         <v>0.74305555555555547</v>
       </c>
@@ -5122,7 +5146,7 @@
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B137" s="54"/>
+      <c r="B137" s="55"/>
       <c r="C137" s="4">
         <v>0.79861111111111116</v>
       </c>
@@ -5151,7 +5175,7 @@
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B138" s="54" t="s">
+      <c r="B138" s="55" t="s">
         <v>62</v>
       </c>
       <c r="C138" s="4">
@@ -5182,7 +5206,7 @@
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B139" s="54"/>
+      <c r="B139" s="55"/>
       <c r="C139" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -5211,7 +5235,7 @@
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B140" s="54"/>
+      <c r="B140" s="55"/>
       <c r="C140" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -5240,7 +5264,7 @@
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B141" s="54"/>
+      <c r="B141" s="55"/>
       <c r="C141" s="4">
         <v>0.83680555555555547</v>
       </c>
@@ -5269,7 +5293,7 @@
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B142" s="54" t="s">
+      <c r="B142" s="55" t="s">
         <v>63</v>
       </c>
       <c r="C142" s="4">
@@ -5300,7 +5324,7 @@
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B143" s="54"/>
+      <c r="B143" s="55"/>
       <c r="C143" s="4">
         <v>0.72222222222222221</v>
       </c>
@@ -5329,7 +5353,7 @@
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B144" s="54"/>
+      <c r="B144" s="55"/>
       <c r="C144" s="4">
         <v>0.79166666666666663</v>
       </c>
@@ -5357,8 +5381,8 @@
         <v>3924.1666666666683</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B145" s="49" t="s">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B145" s="54" t="s">
         <v>64</v>
       </c>
       <c r="C145" s="4">
@@ -5388,8 +5412,8 @@
         <v>4094.1666666666688</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B146" s="49" t="s">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146" s="55" t="s">
         <v>65</v>
       </c>
       <c r="C146" s="4">
@@ -5419,7 +5443,8 @@
         <v>4490.8333333333358</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B147" s="55"/>
       <c r="C147" s="4">
         <v>0.66319444444444442</v>
       </c>
@@ -5447,7 +5472,8 @@
         <v>4618.3333333333339</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B148" s="55"/>
       <c r="C148" s="4">
         <v>0.78125</v>
       </c>
@@ -5475,7 +5501,8 @@
         <v>4887.5000000000009</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B149" s="55"/>
       <c r="C149" s="4">
         <v>0.86111111111111116</v>
       </c>
@@ -5503,128 +5530,801 @@
         <v>5057.5000000000009</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B150" s="53"/>
       <c r="C150" s="4"/>
       <c r="D150" s="18"/>
-      <c r="E150" s="20">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="F150" s="21">
-        <f t="shared" si="50"/>
-        <v>1.2395833333333335</v>
-      </c>
-      <c r="G150" s="15">
-        <f t="shared" si="47"/>
-        <v>1.2395833333333335</v>
-      </c>
-      <c r="H150" s="15">
-        <f t="shared" si="48"/>
-        <v>1.2395833333333335</v>
-      </c>
-      <c r="I150" s="23">
-        <f t="shared" si="49"/>
-        <v>5057.5000000000009</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C151" s="4"/>
-      <c r="D151" s="18"/>
+      <c r="E150" s="20"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B151" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C151" s="4">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="D151" s="18">
+        <v>0.55555555555555558</v>
+      </c>
       <c r="E151" s="20">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="F151" s="21">
-        <f t="shared" si="50"/>
-        <v>1.2395833333333335</v>
+        <f>E151</f>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="G151" s="15">
-        <f t="shared" si="47"/>
-        <v>1.2395833333333335</v>
+        <f>F151</f>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H151" s="15">
-        <f t="shared" si="48"/>
-        <v>1.2395833333333335</v>
+        <f>H149+G151</f>
+        <v>1.260416666666667</v>
       </c>
       <c r="I151" s="23">
-        <f t="shared" si="49"/>
-        <v>5057.5000000000009</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C152" s="4"/>
-      <c r="D152" s="18"/>
+        <f>H151*24*$J$32</f>
+        <v>5142.5000000000009</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B152" s="55"/>
+      <c r="C152" s="4">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D152" s="18">
+        <v>0.72569444444444453</v>
+      </c>
       <c r="E152" s="20">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="F152" s="21">
         <f t="shared" si="50"/>
-        <v>1.2395833333333335</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="G152" s="15">
         <f t="shared" si="47"/>
-        <v>1.2395833333333335</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="H152" s="15">
         <f t="shared" si="48"/>
-        <v>1.2395833333333335</v>
+        <v>1.2812500000000004</v>
       </c>
       <c r="I152" s="23">
         <f t="shared" si="49"/>
-        <v>5057.5000000000009</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C153" s="4"/>
-      <c r="D153" s="18"/>
+        <v>5227.5000000000018</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B153" s="55"/>
+      <c r="C153" s="4">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="D153" s="18">
+        <v>0.8125</v>
+      </c>
       <c r="E153" s="20">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>5.902777777777779E-2</v>
       </c>
       <c r="F153" s="21">
         <f t="shared" si="50"/>
-        <v>1.2395833333333335</v>
+        <v>0.10069444444444453</v>
       </c>
       <c r="G153" s="15">
         <f t="shared" si="47"/>
-        <v>1.2395833333333335</v>
+        <v>0.10069444444444453</v>
       </c>
       <c r="H153" s="15">
         <f t="shared" si="48"/>
-        <v>1.2395833333333335</v>
+        <v>1.3402777777777783</v>
       </c>
       <c r="I153" s="23">
         <f t="shared" si="49"/>
-        <v>5057.5000000000009</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C154" s="4"/>
-      <c r="D154" s="18"/>
+        <v>5468.3333333333358</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B154" s="55"/>
+      <c r="C154" s="4">
+        <v>0.84375</v>
+      </c>
+      <c r="D154" s="18">
+        <v>0.89930555555555547</v>
+      </c>
       <c r="E154" s="20">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>5.5555555555555469E-2</v>
       </c>
       <c r="F154" s="21">
         <f t="shared" si="50"/>
-        <v>1.2395833333333335</v>
+        <v>0.15625</v>
       </c>
       <c r="G154" s="15">
         <f t="shared" si="47"/>
-        <v>1.2395833333333335</v>
+        <v>0.15625</v>
       </c>
       <c r="H154" s="15">
         <f t="shared" si="48"/>
-        <v>1.2395833333333335</v>
+        <v>1.3958333333333339</v>
       </c>
       <c r="I154" s="23">
         <f t="shared" si="49"/>
-        <v>5057.5000000000009</v>
+        <v>5695.0000000000027</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B155" s="55"/>
+      <c r="C155" s="4">
+        <v>0.95486111111111116</v>
+      </c>
+      <c r="D155" s="18">
+        <v>1</v>
+      </c>
+      <c r="E155" s="20">
+        <f t="shared" si="46"/>
+        <v>4.513888888888884E-2</v>
+      </c>
+      <c r="F155" s="21">
+        <f t="shared" si="50"/>
+        <v>0.20138888888888884</v>
+      </c>
+      <c r="G155" s="15">
+        <f t="shared" si="47"/>
+        <v>0.20138888888888884</v>
+      </c>
+      <c r="H155" s="15">
+        <f t="shared" si="48"/>
+        <v>1.4409722222222228</v>
+      </c>
+      <c r="I155" s="23">
+        <f t="shared" si="49"/>
+        <v>5879.1666666666679</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B156" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C156" s="4">
+        <v>0</v>
+      </c>
+      <c r="D156" s="18">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="E156" s="20">
+        <f t="shared" ref="E156:E179" si="51">D156-C156</f>
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="F156" s="21">
+        <f t="shared" ref="F156:F179" si="52">F155+E156</f>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="G156" s="15">
+        <f t="shared" ref="G156:G179" si="53">F156</f>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="H156" s="15">
+        <f t="shared" ref="H156:H179" si="54">(H155+G156-G155)</f>
+        <v>1.5729166666666672</v>
+      </c>
+      <c r="I156" s="23">
+        <f t="shared" ref="I156:I179" si="55">H156*24*$J$32</f>
+        <v>6417.5000000000027</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B157" s="55"/>
+      <c r="C157" s="4">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="D157" s="18">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="E157" s="20">
+        <f t="shared" si="51"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F157" s="21">
+        <f t="shared" si="52"/>
+        <v>0.38888888888888884</v>
+      </c>
+      <c r="G157" s="15">
+        <f t="shared" si="53"/>
+        <v>0.38888888888888884</v>
+      </c>
+      <c r="H157" s="15">
+        <f t="shared" si="54"/>
+        <v>1.6284722222222228</v>
+      </c>
+      <c r="I157" s="23">
+        <f t="shared" si="55"/>
+        <v>6644.1666666666679</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B158" s="55"/>
+      <c r="C158" s="4">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="D158" s="18">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E158" s="20">
+        <f t="shared" si="51"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="F158" s="21">
+        <f t="shared" si="52"/>
+        <v>0.42361111111111105</v>
+      </c>
+      <c r="G158" s="15">
+        <f t="shared" si="53"/>
+        <v>0.42361111111111105</v>
+      </c>
+      <c r="H158" s="15">
+        <f t="shared" si="54"/>
+        <v>1.6631944444444451</v>
+      </c>
+      <c r="I158" s="23">
+        <f t="shared" si="55"/>
+        <v>6785.8333333333367</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B159" s="55"/>
+      <c r="C159" s="4">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D159" s="18">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E159" s="20">
+        <f t="shared" si="51"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="F159" s="21">
+        <f t="shared" si="52"/>
+        <v>0.45138888888888884</v>
+      </c>
+      <c r="G159" s="15">
+        <f t="shared" si="53"/>
+        <v>0.45138888888888884</v>
+      </c>
+      <c r="H159" s="15">
+        <f t="shared" si="54"/>
+        <v>1.6909722222222228</v>
+      </c>
+      <c r="I159" s="23">
+        <f t="shared" si="55"/>
+        <v>6899.1666666666679</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B160" s="55"/>
+      <c r="C160" s="4">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D160" s="18">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E160" s="20">
+        <f t="shared" si="51"/>
+        <v>5.5555555555555469E-2</v>
+      </c>
+      <c r="F160" s="21">
+        <f t="shared" si="52"/>
+        <v>0.50694444444444431</v>
+      </c>
+      <c r="G160" s="15">
+        <f t="shared" si="53"/>
+        <v>0.50694444444444431</v>
+      </c>
+      <c r="H160" s="15">
+        <f t="shared" si="54"/>
+        <v>1.7465277777777781</v>
+      </c>
+      <c r="I160" s="23">
+        <f t="shared" si="55"/>
+        <v>7125.8333333333339</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B161" s="55"/>
+      <c r="C161" s="4">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="D161" s="18">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="E161" s="20">
+        <f t="shared" si="51"/>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="F161" s="21">
+        <f t="shared" si="52"/>
+        <v>0.53472222222222199</v>
+      </c>
+      <c r="G161" s="15">
+        <f t="shared" si="53"/>
+        <v>0.53472222222222199</v>
+      </c>
+      <c r="H161" s="15">
+        <f t="shared" si="54"/>
+        <v>1.7743055555555558</v>
+      </c>
+      <c r="I161" s="23">
+        <f t="shared" si="55"/>
+        <v>7239.1666666666679</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B162" s="55"/>
+      <c r="C162" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="D162" s="18">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="E162" s="20">
+        <f t="shared" si="51"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="F162" s="21">
+        <f t="shared" si="52"/>
+        <v>0.56249999999999978</v>
+      </c>
+      <c r="G162" s="15">
+        <f t="shared" si="53"/>
+        <v>0.56249999999999978</v>
+      </c>
+      <c r="H162" s="15">
+        <f t="shared" si="54"/>
+        <v>1.8020833333333335</v>
+      </c>
+      <c r="I162" s="23">
+        <f t="shared" si="55"/>
+        <v>7352.5</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C163" s="4"/>
+      <c r="D163" s="18"/>
+      <c r="E163" s="20"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="15"/>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B164" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C164" s="4">
+        <v>0.1875</v>
+      </c>
+      <c r="D164" s="18">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="E164" s="20">
+        <f t="shared" si="51"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="F164" s="21">
+        <f t="shared" si="52"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="G164" s="15">
+        <f>F164</f>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="H164" s="15">
+        <f>H162+G164</f>
+        <v>1.8298611111111112</v>
+      </c>
+      <c r="I164" s="23">
+        <f t="shared" si="55"/>
+        <v>7465.8333333333339</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C165" s="4">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D165" s="18">
+        <v>0.6875</v>
+      </c>
+      <c r="E165" s="20">
+        <f t="shared" si="51"/>
+        <v>0.11458333333333337</v>
+      </c>
+      <c r="F165" s="21">
+        <f t="shared" si="52"/>
+        <v>0.14236111111111116</v>
+      </c>
+      <c r="G165" s="15">
+        <f t="shared" si="53"/>
+        <v>0.14236111111111116</v>
+      </c>
+      <c r="H165" s="15">
+        <f t="shared" si="54"/>
+        <v>1.9444444444444446</v>
+      </c>
+      <c r="I165" s="23">
+        <f t="shared" si="55"/>
+        <v>7933.3333333333339</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C166" s="4">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="D166" s="18">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="E166" s="20">
+        <f t="shared" si="51"/>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="F166" s="21">
+        <f t="shared" si="52"/>
+        <v>0.14930555555555569</v>
+      </c>
+      <c r="G166" s="15">
+        <f t="shared" si="53"/>
+        <v>0.14930555555555569</v>
+      </c>
+      <c r="H166" s="15">
+        <f t="shared" si="54"/>
+        <v>1.9513888888888893</v>
+      </c>
+      <c r="I166" s="23">
+        <f t="shared" si="55"/>
+        <v>7961.6666666666679</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C167" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D167" s="18">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="E167" s="20">
+        <f t="shared" si="51"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="F167" s="21">
+        <f t="shared" si="52"/>
+        <v>0.15972222222222232</v>
+      </c>
+      <c r="G167" s="15">
+        <f t="shared" si="53"/>
+        <v>0.15972222222222232</v>
+      </c>
+      <c r="H167" s="15">
+        <f t="shared" si="54"/>
+        <v>1.9618055555555558</v>
+      </c>
+      <c r="I167" s="23">
+        <f t="shared" si="55"/>
+        <v>8004.1666666666679</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C168" s="4">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="D168" s="18">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="E168" s="20">
+        <f t="shared" si="51"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="F168" s="21">
+        <f t="shared" si="52"/>
+        <v>0.17013888888888895</v>
+      </c>
+      <c r="G168" s="15">
+        <f t="shared" si="53"/>
+        <v>0.17013888888888895</v>
+      </c>
+      <c r="H168" s="15">
+        <f t="shared" si="54"/>
+        <v>1.9722222222222223</v>
+      </c>
+      <c r="I168" s="23">
+        <f t="shared" si="55"/>
+        <v>8046.666666666667</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C169" s="4">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="D169" s="18">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="E169" s="20">
+        <f t="shared" si="51"/>
+        <v>6.5972222222222321E-2</v>
+      </c>
+      <c r="F169" s="21">
+        <f t="shared" si="52"/>
+        <v>0.23611111111111127</v>
+      </c>
+      <c r="G169" s="15">
+        <f t="shared" si="53"/>
+        <v>0.23611111111111127</v>
+      </c>
+      <c r="H169" s="15">
+        <f t="shared" si="54"/>
+        <v>2.0381944444444446</v>
+      </c>
+      <c r="I169" s="23">
+        <f t="shared" si="55"/>
+        <v>8315.8333333333339</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C170" s="4">
+        <v>0.93402777777777779</v>
+      </c>
+      <c r="D170" s="18">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E170" s="20">
+        <f t="shared" si="51"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="F170" s="21">
+        <f t="shared" si="52"/>
+        <v>0.26041666666666685</v>
+      </c>
+      <c r="G170" s="15">
+        <f t="shared" si="53"/>
+        <v>0.26041666666666685</v>
+      </c>
+      <c r="H170" s="15">
+        <f t="shared" si="54"/>
+        <v>2.0625000000000004</v>
+      </c>
+      <c r="I170" s="23">
+        <f t="shared" si="55"/>
+        <v>8415.0000000000018</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C171" s="4"/>
+      <c r="D171" s="18"/>
+      <c r="E171" s="20">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="F171" s="21">
+        <f t="shared" si="52"/>
+        <v>0.26041666666666685</v>
+      </c>
+      <c r="G171" s="15">
+        <f t="shared" si="53"/>
+        <v>0.26041666666666685</v>
+      </c>
+      <c r="H171" s="15">
+        <f t="shared" si="54"/>
+        <v>2.0625000000000004</v>
+      </c>
+      <c r="I171" s="23">
+        <f t="shared" si="55"/>
+        <v>8415.0000000000018</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C172" s="4"/>
+      <c r="D172" s="18"/>
+      <c r="E172" s="20">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="F172" s="21">
+        <f t="shared" si="52"/>
+        <v>0.26041666666666685</v>
+      </c>
+      <c r="G172" s="15">
+        <f t="shared" si="53"/>
+        <v>0.26041666666666685</v>
+      </c>
+      <c r="H172" s="15">
+        <f t="shared" si="54"/>
+        <v>2.0625000000000004</v>
+      </c>
+      <c r="I172" s="23">
+        <f t="shared" si="55"/>
+        <v>8415.0000000000018</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C173" s="4"/>
+      <c r="D173" s="18"/>
+      <c r="E173" s="20">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="F173" s="21">
+        <f t="shared" si="52"/>
+        <v>0.26041666666666685</v>
+      </c>
+      <c r="G173" s="15">
+        <f t="shared" si="53"/>
+        <v>0.26041666666666685</v>
+      </c>
+      <c r="H173" s="15">
+        <f t="shared" si="54"/>
+        <v>2.0625000000000004</v>
+      </c>
+      <c r="I173" s="23">
+        <f t="shared" si="55"/>
+        <v>8415.0000000000018</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C174" s="4"/>
+      <c r="D174" s="18"/>
+      <c r="E174" s="20">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="F174" s="21">
+        <f t="shared" si="52"/>
+        <v>0.26041666666666685</v>
+      </c>
+      <c r="G174" s="15">
+        <f t="shared" si="53"/>
+        <v>0.26041666666666685</v>
+      </c>
+      <c r="H174" s="15">
+        <f t="shared" si="54"/>
+        <v>2.0625000000000004</v>
+      </c>
+      <c r="I174" s="23">
+        <f t="shared" si="55"/>
+        <v>8415.0000000000018</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C175" s="4"/>
+      <c r="D175" s="18"/>
+      <c r="E175" s="20">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="F175" s="21">
+        <f t="shared" si="52"/>
+        <v>0.26041666666666685</v>
+      </c>
+      <c r="G175" s="15">
+        <f t="shared" si="53"/>
+        <v>0.26041666666666685</v>
+      </c>
+      <c r="H175" s="15">
+        <f t="shared" si="54"/>
+        <v>2.0625000000000004</v>
+      </c>
+      <c r="I175" s="23">
+        <f t="shared" si="55"/>
+        <v>8415.0000000000018</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C176" s="4"/>
+      <c r="D176" s="18"/>
+      <c r="E176" s="20">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="F176" s="21">
+        <f t="shared" si="52"/>
+        <v>0.26041666666666685</v>
+      </c>
+      <c r="G176" s="15">
+        <f t="shared" si="53"/>
+        <v>0.26041666666666685</v>
+      </c>
+      <c r="H176" s="15">
+        <f t="shared" si="54"/>
+        <v>2.0625000000000004</v>
+      </c>
+      <c r="I176" s="23">
+        <f t="shared" si="55"/>
+        <v>8415.0000000000018</v>
+      </c>
+    </row>
+    <row r="177" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C177" s="4"/>
+      <c r="D177" s="18"/>
+      <c r="E177" s="20">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="F177" s="21">
+        <f t="shared" si="52"/>
+        <v>0.26041666666666685</v>
+      </c>
+      <c r="G177" s="15">
+        <f t="shared" si="53"/>
+        <v>0.26041666666666685</v>
+      </c>
+      <c r="H177" s="15">
+        <f t="shared" si="54"/>
+        <v>2.0625000000000004</v>
+      </c>
+      <c r="I177" s="23">
+        <f t="shared" si="55"/>
+        <v>8415.0000000000018</v>
+      </c>
+    </row>
+    <row r="178" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C178" s="4"/>
+      <c r="D178" s="18"/>
+      <c r="E178" s="20">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="F178" s="21">
+        <f t="shared" si="52"/>
+        <v>0.26041666666666685</v>
+      </c>
+      <c r="G178" s="15">
+        <f t="shared" si="53"/>
+        <v>0.26041666666666685</v>
+      </c>
+      <c r="H178" s="15">
+        <f t="shared" si="54"/>
+        <v>2.0625000000000004</v>
+      </c>
+      <c r="I178" s="23">
+        <f t="shared" si="55"/>
+        <v>8415.0000000000018</v>
+      </c>
+    </row>
+    <row r="179" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C179" s="4"/>
+      <c r="D179" s="18"/>
+      <c r="E179" s="20">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="F179" s="21">
+        <f t="shared" si="52"/>
+        <v>0.26041666666666685</v>
+      </c>
+      <c r="G179" s="15">
+        <f t="shared" si="53"/>
+        <v>0.26041666666666685</v>
+      </c>
+      <c r="H179" s="15">
+        <f t="shared" si="54"/>
+        <v>2.0625000000000004</v>
+      </c>
+      <c r="I179" s="23">
+        <f t="shared" si="55"/>
+        <v>8415.0000000000018</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="44">
+    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="B156:B162"/>
     <mergeCell ref="B142:B144"/>
     <mergeCell ref="K13:K17"/>
     <mergeCell ref="K18:K22"/>
@@ -5641,6 +6341,8 @@
     <mergeCell ref="E123:E124"/>
     <mergeCell ref="F123:F124"/>
     <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="B28:B29"/>
@@ -5649,6 +6351,12 @@
     <mergeCell ref="B63:B65"/>
     <mergeCell ref="B54:B59"/>
     <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B127:B130"/>
     <mergeCell ref="B135:B137"/>
     <mergeCell ref="B138:B141"/>
     <mergeCell ref="B79:B80"/>
@@ -5659,13 +6367,6 @@
     <mergeCell ref="B109:B113"/>
     <mergeCell ref="B90:B94"/>
     <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B127:B130"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DB8D9C-E5E7-4C78-8F09-35A0FE95C45D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F86E742-2646-4DC3-8B78-4CFD5C2FE6CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27915" yWindow="825" windowWidth="14670" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>Vektorizace, první sada</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>TOPOLOGIE x3</t>
+  </si>
+  <si>
+    <t>TOPOLOGIE DONE</t>
   </si>
 </sst>
 </file>
@@ -1072,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="D171" sqref="D171"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="L174" sqref="L174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5904,7 +5907,7 @@
       <c r="H163" s="15"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B164" s="49" t="s">
+      <c r="B164" s="55" t="s">
         <v>70</v>
       </c>
       <c r="C164" s="4">
@@ -5938,6 +5941,7 @@
       </c>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B165" s="55"/>
       <c r="C165" s="4">
         <v>0.57291666666666663</v>
       </c>
@@ -5966,6 +5970,7 @@
       </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B166" s="55"/>
       <c r="C166" s="4">
         <v>0.73263888888888884</v>
       </c>
@@ -5994,6 +5999,7 @@
       </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B167" s="55"/>
       <c r="C167" s="4">
         <v>0.75</v>
       </c>
@@ -6022,6 +6028,7 @@
       </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B168" s="55"/>
       <c r="C168" s="4">
         <v>0.82986111111111116</v>
       </c>
@@ -6050,6 +6057,7 @@
       </c>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B169" s="55"/>
       <c r="C169" s="4">
         <v>0.84722222222222221</v>
       </c>
@@ -6078,6 +6086,7 @@
       </c>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B170" s="55"/>
       <c r="C170" s="4">
         <v>0.93402777777777779</v>
       </c>
@@ -6103,6 +6112,9 @@
       <c r="I170" s="23">
         <f t="shared" si="55"/>
         <v>8415.0000000000018</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.25">
@@ -6322,7 +6334,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="45">
+    <mergeCell ref="B164:B170"/>
     <mergeCell ref="B151:B155"/>
     <mergeCell ref="B156:B162"/>
     <mergeCell ref="B142:B144"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F86E742-2646-4DC3-8B78-4CFD5C2FE6CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F527D08D-D223-4799-A29C-5A1F4D314802}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27915" yWindow="825" windowWidth="14670" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="1305" windowWidth="14670" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
   <si>
     <t>Vektorizace, první sada</t>
   </si>
@@ -242,6 +242,27 @@
   </si>
   <si>
     <t>TOPOLOGIE DONE</t>
+  </si>
+  <si>
+    <t>Lipno - 2. vektorizace</t>
+  </si>
+  <si>
+    <t>1.2.</t>
+  </si>
+  <si>
+    <t>2.2.</t>
+  </si>
+  <si>
+    <t>3.2.</t>
+  </si>
+  <si>
+    <t>4814 hotové</t>
+  </si>
+  <si>
+    <t>4.2.</t>
+  </si>
+  <si>
+    <t>5.2.</t>
   </si>
 </sst>
 </file>
@@ -622,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -714,6 +735,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -723,11 +747,11 @@
     <xf numFmtId="167" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1073,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X179"/>
+  <dimension ref="A1:X199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="L174" sqref="L174"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="D193" sqref="D193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,7 +1125,7 @@
       <c r="E1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -1123,7 +1147,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="59"/>
-      <c r="F2" s="57"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
@@ -1303,7 +1327,7 @@
         <v>16716.666666666664</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="61"/>
+      <c r="K13" s="62"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
@@ -1319,7 +1343,7 @@
       <c r="X13" s="6"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="57" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="4">
@@ -1349,7 +1373,7 @@
         <v>16915</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="61"/>
+      <c r="K14" s="62"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
@@ -1365,7 +1389,7 @@
       <c r="X14" s="6"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="56"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -1393,7 +1417,7 @@
         <v>17184.166666666664</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="61"/>
+      <c r="K15" s="62"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
@@ -1409,7 +1433,7 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -1437,7 +1461,7 @@
         <v>17269.166666666664</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="61"/>
+      <c r="K16" s="62"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
@@ -1453,7 +1477,7 @@
       <c r="X16" s="6"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="56"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="4">
         <v>0.80208333333333337</v>
       </c>
@@ -1481,7 +1505,7 @@
         <v>17524.166666666664</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="61"/>
+      <c r="K17" s="62"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
@@ -1497,7 +1521,7 @@
       <c r="X17" s="6"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="56"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="4">
         <v>0.875</v>
       </c>
@@ -1525,7 +1549,7 @@
         <v>17651.666666666664</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="61"/>
+      <c r="K18" s="62"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
@@ -1541,7 +1565,7 @@
       <c r="X18" s="6"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="57" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="4">
@@ -1571,7 +1595,7 @@
         <v>17878.333333333332</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="61"/>
+      <c r="K19" s="62"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
@@ -1587,7 +1611,7 @@
       <c r="X19" s="6"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="56"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1615,7 +1639,7 @@
         <v>18246.666666666664</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="61"/>
+      <c r="K20" s="62"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
@@ -1631,7 +1655,7 @@
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="56"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1659,7 +1683,7 @@
         <v>18388.333333333332</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="61"/>
+      <c r="K21" s="62"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
@@ -1675,7 +1699,7 @@
       <c r="X21" s="6"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="56"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="4">
         <v>0.75</v>
       </c>
@@ -1703,7 +1727,7 @@
         <v>18515.833333333332</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="61"/>
+      <c r="K22" s="62"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="9"/>
@@ -1719,7 +1743,7 @@
       <c r="X22" s="6"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="56"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -1763,7 +1787,7 @@
       <c r="X23" s="6"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="61" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="4">
@@ -1809,7 +1833,7 @@
       <c r="X24" s="6"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="60"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -1853,7 +1877,7 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="60"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1897,7 +1921,7 @@
       <c r="X26" s="6"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="60"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="4">
         <v>0.83333333333333337</v>
       </c>
@@ -1941,7 +1965,7 @@
       <c r="X27" s="6"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="57" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="4">
@@ -1987,7 +2011,7 @@
       <c r="X28" s="6"/>
     </row>
     <row r="29" spans="2:24" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="58"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="27">
         <v>0.61111111111111105</v>
       </c>
@@ -2035,7 +2059,7 @@
       <c r="E31" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="57" t="s">
+      <c r="F31" s="58" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="17" t="s">
@@ -2057,7 +2081,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="59"/>
-      <c r="F32" s="57"/>
+      <c r="F32" s="58"/>
       <c r="G32" s="12" t="s">
         <v>14</v>
       </c>
@@ -2072,7 +2096,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="57" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="24">
@@ -2103,7 +2127,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="56"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -2132,7 +2156,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="56"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="4">
         <v>0.67013888888888884</v>
       </c>
@@ -2192,7 +2216,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="57" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="4">
@@ -2223,7 +2247,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="56"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -2252,7 +2276,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="56"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="4">
         <v>0.77777777777777779</v>
       </c>
@@ -2281,7 +2305,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="56"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="4">
         <v>0.93055555555555547</v>
       </c>
@@ -2310,7 +2334,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="57" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="4">
@@ -2341,7 +2365,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="56"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="4">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -2370,7 +2394,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="56"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="4">
         <v>0.60069444444444442</v>
       </c>
@@ -2399,7 +2423,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="56"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2428,7 +2452,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="56"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="4">
         <v>0.78472222222222221</v>
       </c>
@@ -2457,7 +2481,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="56"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="4">
         <v>0.92708333333333337</v>
       </c>
@@ -2486,7 +2510,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="57" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="4">
@@ -2517,7 +2541,7 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="56"/>
+      <c r="B48" s="57"/>
       <c r="C48" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -2546,7 +2570,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="56"/>
+      <c r="B49" s="57"/>
       <c r="C49" s="4">
         <v>0.74305555555555547</v>
       </c>
@@ -2575,7 +2599,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="56"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="4">
         <v>0.78819444444444453</v>
       </c>
@@ -2604,7 +2628,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="56"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="4">
         <v>0.81597222222222221</v>
       </c>
@@ -2633,7 +2657,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="56"/>
+      <c r="B52" s="57"/>
       <c r="C52" s="4">
         <v>0.89583333333333337</v>
       </c>
@@ -2665,7 +2689,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="56"/>
+      <c r="B53" s="57"/>
       <c r="C53" s="4">
         <v>0.99652777777777779</v>
       </c>
@@ -2697,7 +2721,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="56" t="s">
+      <c r="B54" s="57" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="4">
@@ -2731,7 +2755,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="56"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="4">
         <v>0.19444444444444445</v>
       </c>
@@ -2760,7 +2784,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="56"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="4">
         <v>0.625</v>
       </c>
@@ -2789,7 +2813,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="56"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -2818,7 +2842,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="56"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2847,7 +2871,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="56"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -2907,7 +2931,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="56" t="s">
+      <c r="B61" s="57" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="4">
@@ -2938,7 +2962,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="56"/>
+      <c r="B62" s="57"/>
       <c r="C62" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -2967,7 +2991,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="56" t="s">
+      <c r="B63" s="57" t="s">
         <v>33</v>
       </c>
       <c r="C63" s="4">
@@ -2998,7 +3022,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="56"/>
+      <c r="B64" s="57"/>
       <c r="C64" s="4">
         <v>0.86111111111111116</v>
       </c>
@@ -3027,7 +3051,7 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="56"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="4">
         <v>0.88888888888888884</v>
       </c>
@@ -3056,7 +3080,7 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="56" t="s">
+      <c r="B66" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="4">
@@ -3087,7 +3111,7 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="56"/>
+      <c r="B67" s="57"/>
       <c r="C67" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -3116,7 +3140,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="56"/>
+      <c r="B68" s="57"/>
       <c r="C68" s="4">
         <v>0.89930555555555547</v>
       </c>
@@ -3145,7 +3169,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="56"/>
+      <c r="B69" s="57"/>
       <c r="C69" s="4">
         <v>0.92361111111111116</v>
       </c>
@@ -3174,7 +3198,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="56" t="s">
+      <c r="B70" s="57" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="4">
@@ -3205,7 +3229,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="56"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="4">
         <v>0.72222222222222221</v>
       </c>
@@ -3265,7 +3289,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="56" t="s">
+      <c r="B73" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C73" s="4">
@@ -3296,7 +3320,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="56"/>
+      <c r="B74" s="57"/>
       <c r="C74" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -3325,7 +3349,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="56" t="s">
+      <c r="B75" s="57" t="s">
         <v>38</v>
       </c>
       <c r="C75" s="4">
@@ -3356,7 +3380,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="56"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -3385,7 +3409,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="56"/>
+      <c r="B77" s="57"/>
       <c r="C77" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -3414,7 +3438,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="56"/>
+      <c r="B78" s="57"/>
       <c r="C78" s="4">
         <v>0.96875</v>
       </c>
@@ -3443,7 +3467,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="56" t="s">
+      <c r="B79" s="57" t="s">
         <v>39</v>
       </c>
       <c r="C79" s="4">
@@ -3477,7 +3501,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="56"/>
+      <c r="B80" s="57"/>
       <c r="C80" s="4">
         <v>0.65625</v>
       </c>
@@ -3506,7 +3530,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="56" t="s">
+      <c r="B81" s="57" t="s">
         <v>41</v>
       </c>
       <c r="C81" s="4">
@@ -3537,7 +3561,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="56"/>
+      <c r="B82" s="57"/>
       <c r="C82" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -3566,7 +3590,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="56"/>
+      <c r="B83" s="57"/>
       <c r="C83" s="4">
         <v>0.69791666666666663</v>
       </c>
@@ -3595,7 +3619,7 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="56" t="s">
+      <c r="B84" s="57" t="s">
         <v>42</v>
       </c>
       <c r="C84" s="4">
@@ -3626,7 +3650,7 @@
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="56"/>
+      <c r="B85" s="57"/>
       <c r="C85" s="4">
         <v>0.61805555555555558</v>
       </c>
@@ -3655,7 +3679,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="56"/>
+      <c r="B86" s="57"/>
       <c r="C86" s="4">
         <v>0.86805555555555547</v>
       </c>
@@ -3684,7 +3708,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="56" t="s">
+      <c r="B87" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="4">
@@ -3715,7 +3739,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="56"/>
+      <c r="B88" s="57"/>
       <c r="C88" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -3775,7 +3799,7 @@
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="56" t="s">
+      <c r="B90" s="57" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="4">
@@ -3806,7 +3830,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="56"/>
+      <c r="B91" s="57"/>
       <c r="C91" s="4">
         <v>0.3576388888888889</v>
       </c>
@@ -3835,7 +3859,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="56"/>
+      <c r="B92" s="57"/>
       <c r="C92" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -3864,7 +3888,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="56"/>
+      <c r="B93" s="57"/>
       <c r="C93" s="4">
         <v>0.4548611111111111</v>
       </c>
@@ -3893,7 +3917,7 @@
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="56"/>
+      <c r="B94" s="57"/>
       <c r="C94" s="4">
         <v>0.48958333333333331</v>
       </c>
@@ -3922,7 +3946,7 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="56" t="s">
+      <c r="B95" s="57" t="s">
         <v>46</v>
       </c>
       <c r="C95" s="4">
@@ -3953,7 +3977,7 @@
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="56"/>
+      <c r="B96" s="57"/>
       <c r="C96" s="4">
         <v>0.5</v>
       </c>
@@ -3982,7 +4006,7 @@
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="56"/>
+      <c r="B97" s="57"/>
       <c r="C97" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -4011,7 +4035,7 @@
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="56" t="s">
+      <c r="B98" s="57" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="4">
@@ -4042,7 +4066,7 @@
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="56"/>
+      <c r="B99" s="57"/>
       <c r="C99" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4071,7 +4095,7 @@
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="56"/>
+      <c r="B100" s="57"/>
       <c r="C100" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -4100,7 +4124,7 @@
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="56" t="s">
+      <c r="B101" s="57" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="4">
@@ -4131,7 +4155,7 @@
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="56"/>
+      <c r="B102" s="57"/>
       <c r="C102" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4160,7 +4184,7 @@
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="56" t="s">
+      <c r="B103" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C103" s="4">
@@ -4194,7 +4218,7 @@
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="56"/>
+      <c r="B104" s="57"/>
       <c r="C104" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -4223,7 +4247,7 @@
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="56"/>
+      <c r="B105" s="57"/>
       <c r="C105" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -4255,7 +4279,7 @@
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="56"/>
+      <c r="B106" s="57"/>
       <c r="C106" s="4">
         <v>0.70486111111111116</v>
       </c>
@@ -4284,7 +4308,7 @@
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="56" t="s">
+      <c r="B107" s="57" t="s">
         <v>51</v>
       </c>
       <c r="C107" s="4">
@@ -4315,7 +4339,7 @@
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="56"/>
+      <c r="B108" s="57"/>
       <c r="C108" s="4">
         <v>0.98958333333333337</v>
       </c>
@@ -4344,7 +4368,7 @@
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="56" t="s">
+      <c r="B109" s="57" t="s">
         <v>52</v>
       </c>
       <c r="C109" s="4">
@@ -4375,7 +4399,7 @@
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="56"/>
+      <c r="B110" s="57"/>
       <c r="C110" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -4404,7 +4428,7 @@
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="56"/>
+      <c r="B111" s="57"/>
       <c r="C111" s="4">
         <v>0.66319444444444442</v>
       </c>
@@ -4433,7 +4457,7 @@
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="56"/>
+      <c r="B112" s="57"/>
       <c r="C112" s="4">
         <v>0.73958333333333337</v>
       </c>
@@ -4462,7 +4486,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="56"/>
+      <c r="B113" s="57"/>
       <c r="C113" s="4">
         <v>0.80555555555555547</v>
       </c>
@@ -4491,7 +4515,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="56" t="s">
+      <c r="B114" s="57" t="s">
         <v>53</v>
       </c>
       <c r="C114" s="4">
@@ -4522,7 +4546,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="56"/>
+      <c r="B115" s="57"/>
       <c r="C115" s="4">
         <v>0.69097222222222221</v>
       </c>
@@ -4585,7 +4609,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="56" t="s">
+      <c r="B117" s="57" t="s">
         <v>55</v>
       </c>
       <c r="C117" s="4">
@@ -4616,7 +4640,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="56"/>
+      <c r="B118" s="57"/>
       <c r="C118" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4645,7 +4669,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="56"/>
+      <c r="B119" s="57"/>
       <c r="C119" s="4">
         <v>0.59375</v>
       </c>
@@ -4674,7 +4698,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="56"/>
+      <c r="B120" s="57"/>
       <c r="C120" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4703,7 +4727,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="58"/>
+      <c r="B121" s="60"/>
       <c r="C121" s="38">
         <v>0.77777777777777779</v>
       </c>
@@ -4755,7 +4779,7 @@
       <c r="E123" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F123" s="57" t="s">
+      <c r="F123" s="58" t="s">
         <v>18</v>
       </c>
       <c r="G123" s="17" t="s">
@@ -4779,7 +4803,7 @@
         <v>8</v>
       </c>
       <c r="E124" s="59"/>
-      <c r="F124" s="57"/>
+      <c r="F124" s="58"/>
       <c r="G124" s="12" t="s">
         <v>14</v>
       </c>
@@ -4853,7 +4877,7 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B127" s="55" t="s">
+      <c r="B127" s="56" t="s">
         <v>58</v>
       </c>
       <c r="C127" s="4">
@@ -4884,7 +4908,7 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B128" s="55"/>
+      <c r="B128" s="56"/>
       <c r="C128" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -4913,7 +4937,7 @@
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="55"/>
+      <c r="B129" s="56"/>
       <c r="C129" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -4942,7 +4966,7 @@
       </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="55"/>
+      <c r="B130" s="56"/>
       <c r="C130" s="4">
         <v>0.78472222222222221</v>
       </c>
@@ -4971,7 +4995,7 @@
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B131" s="55" t="s">
+      <c r="B131" s="56" t="s">
         <v>60</v>
       </c>
       <c r="C131" s="4">
@@ -5002,7 +5026,7 @@
       </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B132" s="55"/>
+      <c r="B132" s="56"/>
       <c r="C132" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -5031,7 +5055,7 @@
       </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B133" s="55"/>
+      <c r="B133" s="56"/>
       <c r="C133" s="4">
         <v>0.71180555555555547</v>
       </c>
@@ -5060,7 +5084,7 @@
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B134" s="55"/>
+      <c r="B134" s="56"/>
       <c r="C134" s="4">
         <v>0.84375</v>
       </c>
@@ -5089,7 +5113,7 @@
       </c>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B135" s="55" t="s">
+      <c r="B135" s="56" t="s">
         <v>61</v>
       </c>
       <c r="C135" s="4">
@@ -5120,7 +5144,7 @@
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B136" s="55"/>
+      <c r="B136" s="56"/>
       <c r="C136" s="4">
         <v>0.74305555555555547</v>
       </c>
@@ -5149,7 +5173,7 @@
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B137" s="55"/>
+      <c r="B137" s="56"/>
       <c r="C137" s="4">
         <v>0.79861111111111116</v>
       </c>
@@ -5178,7 +5202,7 @@
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B138" s="55" t="s">
+      <c r="B138" s="56" t="s">
         <v>62</v>
       </c>
       <c r="C138" s="4">
@@ -5209,7 +5233,7 @@
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B139" s="55"/>
+      <c r="B139" s="56"/>
       <c r="C139" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -5238,7 +5262,7 @@
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B140" s="55"/>
+      <c r="B140" s="56"/>
       <c r="C140" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -5267,7 +5291,7 @@
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B141" s="55"/>
+      <c r="B141" s="56"/>
       <c r="C141" s="4">
         <v>0.83680555555555547</v>
       </c>
@@ -5296,7 +5320,7 @@
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B142" s="55" t="s">
+      <c r="B142" s="56" t="s">
         <v>63</v>
       </c>
       <c r="C142" s="4">
@@ -5327,7 +5351,7 @@
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B143" s="55"/>
+      <c r="B143" s="56"/>
       <c r="C143" s="4">
         <v>0.72222222222222221</v>
       </c>
@@ -5356,7 +5380,7 @@
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B144" s="55"/>
+      <c r="B144" s="56"/>
       <c r="C144" s="4">
         <v>0.79166666666666663</v>
       </c>
@@ -5416,7 +5440,7 @@
       </c>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B146" s="55" t="s">
+      <c r="B146" s="56" t="s">
         <v>65</v>
       </c>
       <c r="C146" s="4">
@@ -5447,7 +5471,7 @@
       </c>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B147" s="55"/>
+      <c r="B147" s="56"/>
       <c r="C147" s="4">
         <v>0.66319444444444442</v>
       </c>
@@ -5476,7 +5500,7 @@
       </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B148" s="55"/>
+      <c r="B148" s="56"/>
       <c r="C148" s="4">
         <v>0.78125</v>
       </c>
@@ -5505,7 +5529,7 @@
       </c>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B149" s="55"/>
+      <c r="B149" s="56"/>
       <c r="C149" s="4">
         <v>0.86111111111111116</v>
       </c>
@@ -5542,7 +5566,7 @@
       <c r="H150" s="15"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B151" s="55" t="s">
+      <c r="B151" s="56" t="s">
         <v>66</v>
       </c>
       <c r="C151" s="4">
@@ -5576,7 +5600,7 @@
       </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B152" s="55"/>
+      <c r="B152" s="56"/>
       <c r="C152" s="4">
         <v>0.70486111111111116</v>
       </c>
@@ -5605,7 +5629,7 @@
       </c>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B153" s="55"/>
+      <c r="B153" s="56"/>
       <c r="C153" s="4">
         <v>0.75347222222222221</v>
       </c>
@@ -5634,7 +5658,7 @@
       </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B154" s="55"/>
+      <c r="B154" s="56"/>
       <c r="C154" s="4">
         <v>0.84375</v>
       </c>
@@ -5663,7 +5687,7 @@
       </c>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B155" s="55"/>
+      <c r="B155" s="56"/>
       <c r="C155" s="4">
         <v>0.95486111111111116</v>
       </c>
@@ -5692,7 +5716,7 @@
       </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B156" s="55" t="s">
+      <c r="B156" s="56" t="s">
         <v>68</v>
       </c>
       <c r="C156" s="4">
@@ -5702,28 +5726,28 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="E156" s="20">
-        <f t="shared" ref="E156:E179" si="51">D156-C156</f>
+        <f t="shared" ref="E156:E180" si="51">D156-C156</f>
         <v>0.13194444444444445</v>
       </c>
       <c r="F156" s="21">
-        <f t="shared" ref="F156:F179" si="52">F155+E156</f>
+        <f t="shared" ref="F156:F180" si="52">F155+E156</f>
         <v>0.33333333333333326</v>
       </c>
       <c r="G156" s="15">
-        <f t="shared" ref="G156:G179" si="53">F156</f>
+        <f t="shared" ref="G156:G180" si="53">F156</f>
         <v>0.33333333333333326</v>
       </c>
       <c r="H156" s="15">
-        <f t="shared" ref="H156:H179" si="54">(H155+G156-G155)</f>
+        <f t="shared" ref="H156:H180" si="54">(H155+G156-G155)</f>
         <v>1.5729166666666672</v>
       </c>
       <c r="I156" s="23">
-        <f t="shared" ref="I156:I179" si="55">H156*24*$J$32</f>
+        <f t="shared" ref="I156:I180" si="55">H156*24*$J$32</f>
         <v>6417.5000000000027</v>
       </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B157" s="55"/>
+      <c r="B157" s="56"/>
       <c r="C157" s="4">
         <v>0.1388888888888889</v>
       </c>
@@ -5752,7 +5776,7 @@
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B158" s="55"/>
+      <c r="B158" s="56"/>
       <c r="C158" s="4">
         <v>0.4548611111111111</v>
       </c>
@@ -5781,7 +5805,7 @@
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B159" s="55"/>
+      <c r="B159" s="56"/>
       <c r="C159" s="4">
         <v>0.49305555555555558</v>
       </c>
@@ -5810,7 +5834,7 @@
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B160" s="55"/>
+      <c r="B160" s="56"/>
       <c r="C160" s="4">
         <v>0.55555555555555558</v>
       </c>
@@ -5839,7 +5863,7 @@
       </c>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B161" s="55"/>
+      <c r="B161" s="56"/>
       <c r="C161" s="4">
         <v>0.84027777777777779</v>
       </c>
@@ -5868,7 +5892,7 @@
       </c>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B162" s="55"/>
+      <c r="B162" s="56"/>
       <c r="C162" s="4">
         <v>0.875</v>
       </c>
@@ -5907,7 +5931,7 @@
       <c r="H163" s="15"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B164" s="55" t="s">
+      <c r="B164" s="56" t="s">
         <v>70</v>
       </c>
       <c r="C164" s="4">
@@ -5941,7 +5965,7 @@
       </c>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B165" s="55"/>
+      <c r="B165" s="56"/>
       <c r="C165" s="4">
         <v>0.57291666666666663</v>
       </c>
@@ -5970,7 +5994,7 @@
       </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B166" s="55"/>
+      <c r="B166" s="56"/>
       <c r="C166" s="4">
         <v>0.73263888888888884</v>
       </c>
@@ -5999,7 +6023,7 @@
       </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B167" s="55"/>
+      <c r="B167" s="56"/>
       <c r="C167" s="4">
         <v>0.75</v>
       </c>
@@ -6028,7 +6052,7 @@
       </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B168" s="55"/>
+      <c r="B168" s="56"/>
       <c r="C168" s="4">
         <v>0.82986111111111116</v>
       </c>
@@ -6057,7 +6081,7 @@
       </c>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B169" s="55"/>
+      <c r="B169" s="56"/>
       <c r="C169" s="4">
         <v>0.84722222222222221</v>
       </c>
@@ -6086,7 +6110,7 @@
       </c>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B170" s="55"/>
+      <c r="B170" s="56"/>
       <c r="C170" s="4">
         <v>0.93402777777777779</v>
       </c>
@@ -6118,223 +6142,808 @@
       </c>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B171" s="55"/>
       <c r="C171" s="4"/>
       <c r="D171" s="18"/>
-      <c r="E171" s="20">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="F171" s="21">
-        <f t="shared" si="52"/>
-        <v>0.26041666666666685</v>
-      </c>
-      <c r="G171" s="15">
-        <f t="shared" si="53"/>
-        <v>0.26041666666666685</v>
-      </c>
-      <c r="H171" s="15">
-        <f t="shared" si="54"/>
-        <v>2.0625000000000004</v>
-      </c>
-      <c r="I171" s="23">
-        <f t="shared" si="55"/>
-        <v>8415.0000000000018</v>
-      </c>
+      <c r="E171" s="20"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="15"/>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C172" s="4"/>
-      <c r="D172" s="18"/>
+      <c r="B172" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C172" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D172" s="18">
+        <v>0.4861111111111111</v>
+      </c>
       <c r="E172" s="20">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="F172" s="21">
-        <f t="shared" si="52"/>
-        <v>0.26041666666666685</v>
+        <f>F171+E172</f>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="G172" s="15">
         <f t="shared" si="53"/>
-        <v>0.26041666666666685</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H172" s="15">
-        <f t="shared" si="54"/>
-        <v>2.0625000000000004</v>
+        <f>(H170+G172)</f>
+        <v>2.0694444444444446</v>
       </c>
       <c r="I172" s="23">
         <f t="shared" si="55"/>
-        <v>8415.0000000000018</v>
+        <v>8443.3333333333339</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C173" s="4"/>
-      <c r="D173" s="18"/>
+      <c r="B173" s="56"/>
+      <c r="C173" s="4">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D173" s="18">
+        <v>0.52777777777777779</v>
+      </c>
       <c r="E173" s="20">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1.736111111111116E-2</v>
       </c>
       <c r="F173" s="21">
         <f t="shared" si="52"/>
-        <v>0.26041666666666685</v>
+        <v>2.430555555555558E-2</v>
       </c>
       <c r="G173" s="15">
         <f t="shared" si="53"/>
-        <v>0.26041666666666685</v>
+        <v>2.430555555555558E-2</v>
       </c>
       <c r="H173" s="15">
-        <f t="shared" si="54"/>
-        <v>2.0625000000000004</v>
+        <f>(H172+G173-G172)</f>
+        <v>2.0868055555555554</v>
       </c>
       <c r="I173" s="23">
         <f t="shared" si="55"/>
-        <v>8415.0000000000018</v>
+        <v>8514.1666666666661</v>
       </c>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C174" s="4"/>
-      <c r="D174" s="18"/>
+      <c r="B174" s="56"/>
+      <c r="C174" s="4">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="D174" s="18">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="E174" s="20">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>0.10069444444444442</v>
       </c>
       <c r="F174" s="21">
         <f t="shared" si="52"/>
-        <v>0.26041666666666685</v>
+        <v>0.125</v>
       </c>
       <c r="G174" s="15">
         <f t="shared" si="53"/>
-        <v>0.26041666666666685</v>
+        <v>0.125</v>
       </c>
       <c r="H174" s="15">
         <f t="shared" si="54"/>
-        <v>2.0625000000000004</v>
+        <v>2.1875</v>
       </c>
       <c r="I174" s="23">
         <f t="shared" si="55"/>
-        <v>8415.0000000000018</v>
+        <v>8925</v>
       </c>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C175" s="4"/>
-      <c r="D175" s="18"/>
+      <c r="B175" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C175" s="4">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="D175" s="18">
+        <v>0.44444444444444442</v>
+      </c>
       <c r="E175" s="20">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>2.4305555555555525E-2</v>
       </c>
       <c r="F175" s="21">
         <f t="shared" si="52"/>
-        <v>0.26041666666666685</v>
+        <v>0.14930555555555552</v>
       </c>
       <c r="G175" s="15">
         <f t="shared" si="53"/>
-        <v>0.26041666666666685</v>
+        <v>0.14930555555555552</v>
       </c>
       <c r="H175" s="15">
         <f t="shared" si="54"/>
-        <v>2.0625000000000004</v>
+        <v>2.2118055555555554</v>
       </c>
       <c r="I175" s="23">
         <f t="shared" si="55"/>
-        <v>8415.0000000000018</v>
+        <v>9024.1666666666661</v>
       </c>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C176" s="4"/>
-      <c r="D176" s="18"/>
+      <c r="B176" s="56"/>
+      <c r="C176" s="4">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="D176" s="18">
+        <v>0.50347222222222221</v>
+      </c>
       <c r="E176" s="20">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>4.8611111111111105E-2</v>
       </c>
       <c r="F176" s="21">
         <f t="shared" si="52"/>
-        <v>0.26041666666666685</v>
+        <v>0.19791666666666663</v>
       </c>
       <c r="G176" s="15">
         <f t="shared" si="53"/>
-        <v>0.26041666666666685</v>
+        <v>0.19791666666666663</v>
       </c>
       <c r="H176" s="15">
         <f t="shared" si="54"/>
-        <v>2.0625000000000004</v>
+        <v>2.2604166666666665</v>
       </c>
       <c r="I176" s="23">
         <f t="shared" si="55"/>
-        <v>8415.0000000000018</v>
-      </c>
-    </row>
-    <row r="177" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C177" s="4"/>
-      <c r="D177" s="18"/>
+        <v>9222.5</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B177" s="56"/>
+      <c r="C177" s="4">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="D177" s="18">
+        <v>0.53472222222222221</v>
+      </c>
       <c r="E177" s="20">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="F177" s="21">
         <f t="shared" si="52"/>
-        <v>0.26041666666666685</v>
+        <v>0.20833333333333326</v>
       </c>
       <c r="G177" s="15">
         <f t="shared" si="53"/>
-        <v>0.26041666666666685</v>
+        <v>0.20833333333333326</v>
       </c>
       <c r="H177" s="15">
         <f t="shared" si="54"/>
-        <v>2.0625000000000004</v>
+        <v>2.2708333333333335</v>
       </c>
       <c r="I177" s="23">
         <f t="shared" si="55"/>
-        <v>8415.0000000000018</v>
-      </c>
-    </row>
-    <row r="178" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C178" s="4"/>
-      <c r="D178" s="18"/>
+        <v>9265</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B178" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C178" s="4">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D178" s="18">
+        <v>0.56944444444444442</v>
+      </c>
       <c r="E178" s="20">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>5.902777777777779E-2</v>
       </c>
       <c r="F178" s="21">
         <f t="shared" si="52"/>
-        <v>0.26041666666666685</v>
+        <v>0.26736111111111105</v>
       </c>
       <c r="G178" s="15">
         <f t="shared" si="53"/>
-        <v>0.26041666666666685</v>
+        <v>0.26736111111111105</v>
       </c>
       <c r="H178" s="15">
         <f t="shared" si="54"/>
-        <v>2.0625000000000004</v>
+        <v>2.3298611111111116</v>
       </c>
       <c r="I178" s="23">
         <f t="shared" si="55"/>
-        <v>8415.0000000000018</v>
-      </c>
-    </row>
-    <row r="179" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C179" s="4"/>
-      <c r="D179" s="18"/>
+        <v>9505.8333333333358</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B179" s="56"/>
+      <c r="C179" s="4">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D179" s="18">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="E179" s="20">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>2.7777777777777679E-2</v>
       </c>
       <c r="F179" s="21">
         <f t="shared" si="52"/>
-        <v>0.26041666666666685</v>
+        <v>0.29513888888888873</v>
       </c>
       <c r="G179" s="15">
         <f t="shared" si="53"/>
-        <v>0.26041666666666685</v>
+        <v>0.29513888888888873</v>
       </c>
       <c r="H179" s="15">
         <f t="shared" si="54"/>
-        <v>2.0625000000000004</v>
+        <v>2.3576388888888893</v>
       </c>
       <c r="I179" s="23">
         <f t="shared" si="55"/>
-        <v>8415.0000000000018</v>
+        <v>9619.1666666666679</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B180" s="56"/>
+      <c r="C180" s="4">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="D180" s="18">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="E180" s="20">
+        <f t="shared" si="51"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F180" s="21">
+        <f t="shared" si="52"/>
+        <v>0.32638888888888873</v>
+      </c>
+      <c r="G180" s="15">
+        <f t="shared" si="53"/>
+        <v>0.32638888888888873</v>
+      </c>
+      <c r="H180" s="15">
+        <f t="shared" si="54"/>
+        <v>2.3888888888888893</v>
+      </c>
+      <c r="I180" s="23">
+        <f t="shared" si="55"/>
+        <v>9746.6666666666679</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B181" s="56"/>
+      <c r="C181" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D181" s="18">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="E181" s="20">
+        <f t="shared" ref="E181:E199" si="56">D181-C181</f>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="F181" s="21">
+        <f t="shared" ref="F181:F199" si="57">F180+E181</f>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="G181" s="15">
+        <f t="shared" ref="G181:G199" si="58">F181</f>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="H181" s="15">
+        <f t="shared" ref="H181:H199" si="59">(H180+G181-G180)</f>
+        <v>2.3958333333333335</v>
+      </c>
+      <c r="I181" s="23">
+        <f t="shared" ref="I181:I199" si="60">H181*24*$J$32</f>
+        <v>9775</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B182" s="56"/>
+      <c r="C182" s="4">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D182" s="18">
+        <v>0.78125</v>
+      </c>
+      <c r="E182" s="20">
+        <f t="shared" si="56"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F182" s="21">
+        <f t="shared" si="57"/>
+        <v>0.35416666666666663</v>
+      </c>
+      <c r="G182" s="15">
+        <f t="shared" si="58"/>
+        <v>0.35416666666666663</v>
+      </c>
+      <c r="H182" s="15">
+        <f t="shared" si="59"/>
+        <v>2.416666666666667</v>
+      </c>
+      <c r="I182" s="23">
+        <f t="shared" si="60"/>
+        <v>9860.0000000000018</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B183" s="56"/>
+      <c r="C183" s="4">
+        <v>0.78125</v>
+      </c>
+      <c r="D183" s="18">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="E183" s="20">
+        <f t="shared" si="56"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="F183" s="21">
+        <f t="shared" si="57"/>
+        <v>0.36805555555555547</v>
+      </c>
+      <c r="G183" s="15">
+        <f t="shared" si="58"/>
+        <v>0.36805555555555547</v>
+      </c>
+      <c r="H183" s="15">
+        <f t="shared" si="59"/>
+        <v>2.4305555555555558</v>
+      </c>
+      <c r="I183" s="23">
+        <f t="shared" si="60"/>
+        <v>9916.6666666666679</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B184" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C184" s="4">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D184" s="18">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E184" s="20">
+        <f t="shared" si="56"/>
+        <v>4.8611111111111105E-2</v>
+      </c>
+      <c r="F184" s="21">
+        <f t="shared" si="57"/>
+        <v>0.41666666666666657</v>
+      </c>
+      <c r="G184" s="15">
+        <f t="shared" si="58"/>
+        <v>0.41666666666666657</v>
+      </c>
+      <c r="H184" s="15">
+        <f t="shared" si="59"/>
+        <v>2.479166666666667</v>
+      </c>
+      <c r="I184" s="23">
+        <f t="shared" si="60"/>
+        <v>10115.000000000002</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B185" s="56"/>
+      <c r="C185" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D185" s="18">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="E185" s="20">
+        <f t="shared" si="56"/>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="F185" s="21">
+        <f t="shared" si="57"/>
+        <v>0.42013888888888878</v>
+      </c>
+      <c r="G185" s="15">
+        <f t="shared" si="58"/>
+        <v>0.42013888888888878</v>
+      </c>
+      <c r="H185" s="15">
+        <f t="shared" si="59"/>
+        <v>2.4826388888888893</v>
+      </c>
+      <c r="I185" s="23">
+        <f t="shared" si="60"/>
+        <v>10129.166666666668</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B186" s="56"/>
+      <c r="C186" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D186" s="18">
+        <v>0.6875</v>
+      </c>
+      <c r="E186" s="20">
+        <f t="shared" si="56"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F186" s="21">
+        <f t="shared" si="57"/>
+        <v>0.44097222222222215</v>
+      </c>
+      <c r="G186" s="15">
+        <f t="shared" si="58"/>
+        <v>0.44097222222222215</v>
+      </c>
+      <c r="H186" s="15">
+        <f t="shared" si="59"/>
+        <v>2.5034722222222228</v>
+      </c>
+      <c r="I186" s="23">
+        <f t="shared" si="60"/>
+        <v>10214.166666666668</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B187" s="56"/>
+      <c r="C187" s="4">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D187" s="18">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="E187" s="20">
+        <f t="shared" si="56"/>
+        <v>4.5138888888888951E-2</v>
+      </c>
+      <c r="F187" s="21">
+        <f t="shared" si="57"/>
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="G187" s="15">
+        <f t="shared" si="58"/>
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="H187" s="15">
+        <f t="shared" si="59"/>
+        <v>2.5486111111111116</v>
+      </c>
+      <c r="I187" s="23">
+        <f t="shared" si="60"/>
+        <v>10398.333333333336</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B188" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C188" s="4">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D188" s="18">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E188" s="20">
+        <f t="shared" si="56"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="F188" s="21">
+        <f t="shared" si="57"/>
+        <v>0.51041666666666674</v>
+      </c>
+      <c r="G188" s="15">
+        <f t="shared" si="58"/>
+        <v>0.51041666666666674</v>
+      </c>
+      <c r="H188" s="15">
+        <f t="shared" si="59"/>
+        <v>2.5729166666666674</v>
+      </c>
+      <c r="I188" s="23">
+        <f t="shared" si="60"/>
+        <v>10497.500000000002</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C189" s="4">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="D189" s="18">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E189" s="20">
+        <f t="shared" si="56"/>
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="F189" s="21">
+        <f t="shared" si="57"/>
+        <v>0.53472222222222232</v>
+      </c>
+      <c r="G189" s="15">
+        <f t="shared" si="58"/>
+        <v>0.53472222222222232</v>
+      </c>
+      <c r="H189" s="15">
+        <f t="shared" si="59"/>
+        <v>2.5972222222222232</v>
+      </c>
+      <c r="I189" s="23">
+        <f t="shared" si="60"/>
+        <v>10596.666666666672</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C190" s="4">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D190" s="18">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="E190" s="20">
+        <f t="shared" si="56"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="F190" s="21">
+        <f t="shared" si="57"/>
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="G190" s="15">
+        <f t="shared" si="58"/>
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="H190" s="15">
+        <f t="shared" si="59"/>
+        <v>2.7013888888888897</v>
+      </c>
+      <c r="I190" s="23">
+        <f t="shared" si="60"/>
+        <v>11021.666666666672</v>
+      </c>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C191" s="4">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="D191" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E191" s="20">
+        <f t="shared" si="56"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="F191" s="21">
+        <f t="shared" si="57"/>
+        <v>0.66319444444444453</v>
+      </c>
+      <c r="G191" s="15">
+        <f t="shared" si="58"/>
+        <v>0.66319444444444453</v>
+      </c>
+      <c r="H191" s="15">
+        <f t="shared" si="59"/>
+        <v>2.7256944444444455</v>
+      </c>
+      <c r="I191" s="23">
+        <f t="shared" si="60"/>
+        <v>11120.833333333336</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C192" s="4">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="D192" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="E192" s="20">
+        <f t="shared" si="56"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="F192" s="21">
+        <f t="shared" si="57"/>
+        <v>0.69791666666666674</v>
+      </c>
+      <c r="G192" s="15">
+        <f t="shared" si="58"/>
+        <v>0.69791666666666674</v>
+      </c>
+      <c r="H192" s="15">
+        <f t="shared" si="59"/>
+        <v>2.7604166666666679</v>
+      </c>
+      <c r="I192" s="23">
+        <f t="shared" si="60"/>
+        <v>11262.500000000005</v>
+      </c>
+    </row>
+    <row r="193" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C193" s="4"/>
+      <c r="D193" s="18"/>
+      <c r="E193" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="F193" s="21">
+        <f t="shared" si="57"/>
+        <v>0.69791666666666674</v>
+      </c>
+      <c r="G193" s="15">
+        <f t="shared" si="58"/>
+        <v>0.69791666666666674</v>
+      </c>
+      <c r="H193" s="15">
+        <f t="shared" si="59"/>
+        <v>2.7604166666666679</v>
+      </c>
+      <c r="I193" s="23">
+        <f t="shared" si="60"/>
+        <v>11262.500000000005</v>
+      </c>
+    </row>
+    <row r="194" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C194" s="4"/>
+      <c r="D194" s="18"/>
+      <c r="E194" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="F194" s="21">
+        <f t="shared" si="57"/>
+        <v>0.69791666666666674</v>
+      </c>
+      <c r="G194" s="15">
+        <f t="shared" si="58"/>
+        <v>0.69791666666666674</v>
+      </c>
+      <c r="H194" s="15">
+        <f t="shared" si="59"/>
+        <v>2.7604166666666679</v>
+      </c>
+      <c r="I194" s="23">
+        <f t="shared" si="60"/>
+        <v>11262.500000000005</v>
+      </c>
+    </row>
+    <row r="195" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C195" s="4"/>
+      <c r="D195" s="18"/>
+      <c r="E195" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="F195" s="21">
+        <f t="shared" si="57"/>
+        <v>0.69791666666666674</v>
+      </c>
+      <c r="G195" s="15">
+        <f t="shared" si="58"/>
+        <v>0.69791666666666674</v>
+      </c>
+      <c r="H195" s="15">
+        <f t="shared" si="59"/>
+        <v>2.7604166666666679</v>
+      </c>
+      <c r="I195" s="23">
+        <f t="shared" si="60"/>
+        <v>11262.500000000005</v>
+      </c>
+    </row>
+    <row r="196" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C196" s="4"/>
+      <c r="D196" s="18"/>
+      <c r="E196" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="F196" s="21">
+        <f t="shared" si="57"/>
+        <v>0.69791666666666674</v>
+      </c>
+      <c r="G196" s="15">
+        <f t="shared" si="58"/>
+        <v>0.69791666666666674</v>
+      </c>
+      <c r="H196" s="15">
+        <f t="shared" si="59"/>
+        <v>2.7604166666666679</v>
+      </c>
+      <c r="I196" s="23">
+        <f t="shared" si="60"/>
+        <v>11262.500000000005</v>
+      </c>
+    </row>
+    <row r="197" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C197" s="4"/>
+      <c r="D197" s="18"/>
+      <c r="E197" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="F197" s="21">
+        <f t="shared" si="57"/>
+        <v>0.69791666666666674</v>
+      </c>
+      <c r="G197" s="15">
+        <f t="shared" si="58"/>
+        <v>0.69791666666666674</v>
+      </c>
+      <c r="H197" s="15">
+        <f t="shared" si="59"/>
+        <v>2.7604166666666679</v>
+      </c>
+      <c r="I197" s="23">
+        <f t="shared" si="60"/>
+        <v>11262.500000000005</v>
+      </c>
+    </row>
+    <row r="198" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C198" s="4"/>
+      <c r="D198" s="18"/>
+      <c r="E198" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="F198" s="21">
+        <f t="shared" si="57"/>
+        <v>0.69791666666666674</v>
+      </c>
+      <c r="G198" s="15">
+        <f t="shared" si="58"/>
+        <v>0.69791666666666674</v>
+      </c>
+      <c r="H198" s="15">
+        <f t="shared" si="59"/>
+        <v>2.7604166666666679</v>
+      </c>
+      <c r="I198" s="23">
+        <f t="shared" si="60"/>
+        <v>11262.500000000005</v>
+      </c>
+    </row>
+    <row r="199" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C199" s="4"/>
+      <c r="D199" s="18"/>
+      <c r="E199" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="F199" s="21">
+        <f t="shared" si="57"/>
+        <v>0.69791666666666674</v>
+      </c>
+      <c r="G199" s="15">
+        <f t="shared" si="58"/>
+        <v>0.69791666666666674</v>
+      </c>
+      <c r="H199" s="15">
+        <f t="shared" si="59"/>
+        <v>2.7604166666666679</v>
+      </c>
+      <c r="I199" s="23">
+        <f t="shared" si="60"/>
+        <v>11262.500000000005</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="49">
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="B184:B187"/>
     <mergeCell ref="B164:B170"/>
     <mergeCell ref="B151:B155"/>
     <mergeCell ref="B156:B162"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F527D08D-D223-4799-A29C-5A1F4D314802}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65528663-64E5-4131-8513-E6BDCA2F8230}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="1305" windowWidth="14670" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="82">
   <si>
     <t>Vektorizace, první sada</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>5.2.</t>
+  </si>
+  <si>
+    <t>9.2.</t>
+  </si>
+  <si>
+    <t>ZASRANY ONE DRIVE,SMAZAL MI DATA ZA 4 DNY</t>
   </si>
 </sst>
 </file>
@@ -741,13 +747,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -755,9 +764,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1099,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="D193" sqref="D193"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="H203" sqref="H203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,7 +1131,7 @@
       <c r="E1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="60" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -1147,7 +1153,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="59"/>
-      <c r="F2" s="58"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
@@ -1327,7 +1333,7 @@
         <v>16716.666666666664</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="62"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
@@ -1343,7 +1349,7 @@
       <c r="X13" s="6"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="58" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="4">
@@ -1373,7 +1379,7 @@
         <v>16915</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="62"/>
+      <c r="K14" s="57"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
@@ -1389,7 +1395,7 @@
       <c r="X14" s="6"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="57"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -1417,7 +1423,7 @@
         <v>17184.166666666664</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="62"/>
+      <c r="K15" s="57"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
@@ -1433,7 +1439,7 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="57"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -1461,7 +1467,7 @@
         <v>17269.166666666664</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="62"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
@@ -1477,7 +1483,7 @@
       <c r="X16" s="6"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="57"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="4">
         <v>0.80208333333333337</v>
       </c>
@@ -1505,7 +1511,7 @@
         <v>17524.166666666664</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="62"/>
+      <c r="K17" s="57"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
@@ -1521,7 +1527,7 @@
       <c r="X17" s="6"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="57"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="4">
         <v>0.875</v>
       </c>
@@ -1549,7 +1555,7 @@
         <v>17651.666666666664</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="62"/>
+      <c r="K18" s="57"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
@@ -1565,7 +1571,7 @@
       <c r="X18" s="6"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="4">
@@ -1595,7 +1601,7 @@
         <v>17878.333333333332</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="62"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
@@ -1611,7 +1617,7 @@
       <c r="X19" s="6"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="57"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1639,7 +1645,7 @@
         <v>18246.666666666664</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="62"/>
+      <c r="K20" s="57"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
@@ -1655,7 +1661,7 @@
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="57"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1683,7 +1689,7 @@
         <v>18388.333333333332</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="62"/>
+      <c r="K21" s="57"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
@@ -1699,7 +1705,7 @@
       <c r="X21" s="6"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="57"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="4">
         <v>0.75</v>
       </c>
@@ -1727,7 +1733,7 @@
         <v>18515.833333333332</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="62"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="9"/>
@@ -1743,7 +1749,7 @@
       <c r="X22" s="6"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="57"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -1787,7 +1793,7 @@
       <c r="X23" s="6"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="62" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="4">
@@ -1833,7 +1839,7 @@
       <c r="X24" s="6"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="61"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -1877,7 +1883,7 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="61"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1921,7 +1927,7 @@
       <c r="X26" s="6"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="61"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="4">
         <v>0.83333333333333337</v>
       </c>
@@ -1965,7 +1971,7 @@
       <c r="X27" s="6"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="58" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="4">
@@ -2011,7 +2017,7 @@
       <c r="X28" s="6"/>
     </row>
     <row r="29" spans="2:24" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="60"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="27">
         <v>0.61111111111111105</v>
       </c>
@@ -2059,7 +2065,7 @@
       <c r="E31" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="58" t="s">
+      <c r="F31" s="60" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="17" t="s">
@@ -2081,7 +2087,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="59"/>
-      <c r="F32" s="58"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="12" t="s">
         <v>14</v>
       </c>
@@ -2096,7 +2102,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="58" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="24">
@@ -2127,7 +2133,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="57"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -2156,7 +2162,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="57"/>
+      <c r="B35" s="58"/>
       <c r="C35" s="4">
         <v>0.67013888888888884</v>
       </c>
@@ -2216,7 +2222,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="4">
@@ -2247,7 +2253,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="57"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -2276,7 +2282,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="57"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="4">
         <v>0.77777777777777779</v>
       </c>
@@ -2305,7 +2311,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="57"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="4">
         <v>0.93055555555555547</v>
       </c>
@@ -2334,7 +2340,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="58" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="4">
@@ -2365,7 +2371,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="57"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="4">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -2394,7 +2400,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="57"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="4">
         <v>0.60069444444444442</v>
       </c>
@@ -2423,7 +2429,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="57"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2452,7 +2458,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="57"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="4">
         <v>0.78472222222222221</v>
       </c>
@@ -2481,7 +2487,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="57"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="4">
         <v>0.92708333333333337</v>
       </c>
@@ -2510,7 +2516,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="58" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="4">
@@ -2541,7 +2547,7 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="57"/>
+      <c r="B48" s="58"/>
       <c r="C48" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -2570,7 +2576,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="57"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="4">
         <v>0.74305555555555547</v>
       </c>
@@ -2599,7 +2605,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="57"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="4">
         <v>0.78819444444444453</v>
       </c>
@@ -2628,7 +2634,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="57"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="4">
         <v>0.81597222222222221</v>
       </c>
@@ -2657,7 +2663,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="57"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="4">
         <v>0.89583333333333337</v>
       </c>
@@ -2689,7 +2695,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="57"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="4">
         <v>0.99652777777777779</v>
       </c>
@@ -2721,7 +2727,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="58" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="4">
@@ -2755,7 +2761,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="57"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="4">
         <v>0.19444444444444445</v>
       </c>
@@ -2784,7 +2790,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="57"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="4">
         <v>0.625</v>
       </c>
@@ -2813,7 +2819,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="57"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -2842,7 +2848,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="57"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2871,7 +2877,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="57"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -2931,7 +2937,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="58" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="4">
@@ -2962,7 +2968,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="57"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -2991,7 +2997,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="58" t="s">
         <v>33</v>
       </c>
       <c r="C63" s="4">
@@ -3022,7 +3028,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="57"/>
+      <c r="B64" s="58"/>
       <c r="C64" s="4">
         <v>0.86111111111111116</v>
       </c>
@@ -3051,7 +3057,7 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="57"/>
+      <c r="B65" s="58"/>
       <c r="C65" s="4">
         <v>0.88888888888888884</v>
       </c>
@@ -3080,7 +3086,7 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="57" t="s">
+      <c r="B66" s="58" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="4">
@@ -3111,7 +3117,7 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="57"/>
+      <c r="B67" s="58"/>
       <c r="C67" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -3140,7 +3146,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="57"/>
+      <c r="B68" s="58"/>
       <c r="C68" s="4">
         <v>0.89930555555555547</v>
       </c>
@@ -3169,7 +3175,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="57"/>
+      <c r="B69" s="58"/>
       <c r="C69" s="4">
         <v>0.92361111111111116</v>
       </c>
@@ -3198,7 +3204,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="57" t="s">
+      <c r="B70" s="58" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="4">
@@ -3229,7 +3235,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="57"/>
+      <c r="B71" s="58"/>
       <c r="C71" s="4">
         <v>0.72222222222222221</v>
       </c>
@@ -3289,7 +3295,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="57" t="s">
+      <c r="B73" s="58" t="s">
         <v>37</v>
       </c>
       <c r="C73" s="4">
@@ -3320,7 +3326,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="57"/>
+      <c r="B74" s="58"/>
       <c r="C74" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -3349,7 +3355,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="58" t="s">
         <v>38</v>
       </c>
       <c r="C75" s="4">
@@ -3380,7 +3386,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="57"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -3409,7 +3415,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="57"/>
+      <c r="B77" s="58"/>
       <c r="C77" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -3438,7 +3444,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="57"/>
+      <c r="B78" s="58"/>
       <c r="C78" s="4">
         <v>0.96875</v>
       </c>
@@ -3467,7 +3473,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="57" t="s">
+      <c r="B79" s="58" t="s">
         <v>39</v>
       </c>
       <c r="C79" s="4">
@@ -3501,7 +3507,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="57"/>
+      <c r="B80" s="58"/>
       <c r="C80" s="4">
         <v>0.65625</v>
       </c>
@@ -3530,7 +3536,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="57" t="s">
+      <c r="B81" s="58" t="s">
         <v>41</v>
       </c>
       <c r="C81" s="4">
@@ -3561,7 +3567,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="57"/>
+      <c r="B82" s="58"/>
       <c r="C82" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -3590,7 +3596,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="57"/>
+      <c r="B83" s="58"/>
       <c r="C83" s="4">
         <v>0.69791666666666663</v>
       </c>
@@ -3619,7 +3625,7 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="57" t="s">
+      <c r="B84" s="58" t="s">
         <v>42</v>
       </c>
       <c r="C84" s="4">
@@ -3650,7 +3656,7 @@
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="57"/>
+      <c r="B85" s="58"/>
       <c r="C85" s="4">
         <v>0.61805555555555558</v>
       </c>
@@ -3679,7 +3685,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="57"/>
+      <c r="B86" s="58"/>
       <c r="C86" s="4">
         <v>0.86805555555555547</v>
       </c>
@@ -3708,7 +3714,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="57" t="s">
+      <c r="B87" s="58" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="4">
@@ -3739,7 +3745,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="57"/>
+      <c r="B88" s="58"/>
       <c r="C88" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -3799,7 +3805,7 @@
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="57" t="s">
+      <c r="B90" s="58" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="4">
@@ -3830,7 +3836,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="57"/>
+      <c r="B91" s="58"/>
       <c r="C91" s="4">
         <v>0.3576388888888889</v>
       </c>
@@ -3859,7 +3865,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="57"/>
+      <c r="B92" s="58"/>
       <c r="C92" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -3888,7 +3894,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="57"/>
+      <c r="B93" s="58"/>
       <c r="C93" s="4">
         <v>0.4548611111111111</v>
       </c>
@@ -3917,7 +3923,7 @@
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="57"/>
+      <c r="B94" s="58"/>
       <c r="C94" s="4">
         <v>0.48958333333333331</v>
       </c>
@@ -3946,7 +3952,7 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="57" t="s">
+      <c r="B95" s="58" t="s">
         <v>46</v>
       </c>
       <c r="C95" s="4">
@@ -3977,7 +3983,7 @@
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="57"/>
+      <c r="B96" s="58"/>
       <c r="C96" s="4">
         <v>0.5</v>
       </c>
@@ -4006,7 +4012,7 @@
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="57"/>
+      <c r="B97" s="58"/>
       <c r="C97" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -4035,7 +4041,7 @@
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="57" t="s">
+      <c r="B98" s="58" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="4">
@@ -4066,7 +4072,7 @@
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="57"/>
+      <c r="B99" s="58"/>
       <c r="C99" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4095,7 +4101,7 @@
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="57"/>
+      <c r="B100" s="58"/>
       <c r="C100" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -4124,7 +4130,7 @@
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="57" t="s">
+      <c r="B101" s="58" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="4">
@@ -4155,7 +4161,7 @@
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="57"/>
+      <c r="B102" s="58"/>
       <c r="C102" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4184,7 +4190,7 @@
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="57" t="s">
+      <c r="B103" s="58" t="s">
         <v>50</v>
       </c>
       <c r="C103" s="4">
@@ -4218,7 +4224,7 @@
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="57"/>
+      <c r="B104" s="58"/>
       <c r="C104" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -4247,7 +4253,7 @@
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="57"/>
+      <c r="B105" s="58"/>
       <c r="C105" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -4279,7 +4285,7 @@
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="57"/>
+      <c r="B106" s="58"/>
       <c r="C106" s="4">
         <v>0.70486111111111116</v>
       </c>
@@ -4308,7 +4314,7 @@
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="57" t="s">
+      <c r="B107" s="58" t="s">
         <v>51</v>
       </c>
       <c r="C107" s="4">
@@ -4339,7 +4345,7 @@
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="57"/>
+      <c r="B108" s="58"/>
       <c r="C108" s="4">
         <v>0.98958333333333337</v>
       </c>
@@ -4368,7 +4374,7 @@
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="57" t="s">
+      <c r="B109" s="58" t="s">
         <v>52</v>
       </c>
       <c r="C109" s="4">
@@ -4399,7 +4405,7 @@
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="57"/>
+      <c r="B110" s="58"/>
       <c r="C110" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -4428,7 +4434,7 @@
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="57"/>
+      <c r="B111" s="58"/>
       <c r="C111" s="4">
         <v>0.66319444444444442</v>
       </c>
@@ -4457,7 +4463,7 @@
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="57"/>
+      <c r="B112" s="58"/>
       <c r="C112" s="4">
         <v>0.73958333333333337</v>
       </c>
@@ -4486,7 +4492,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="57"/>
+      <c r="B113" s="58"/>
       <c r="C113" s="4">
         <v>0.80555555555555547</v>
       </c>
@@ -4515,7 +4521,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="57" t="s">
+      <c r="B114" s="58" t="s">
         <v>53</v>
       </c>
       <c r="C114" s="4">
@@ -4546,7 +4552,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="57"/>
+      <c r="B115" s="58"/>
       <c r="C115" s="4">
         <v>0.69097222222222221</v>
       </c>
@@ -4609,7 +4615,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="57" t="s">
+      <c r="B117" s="58" t="s">
         <v>55</v>
       </c>
       <c r="C117" s="4">
@@ -4640,7 +4646,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="57"/>
+      <c r="B118" s="58"/>
       <c r="C118" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4669,7 +4675,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="57"/>
+      <c r="B119" s="58"/>
       <c r="C119" s="4">
         <v>0.59375</v>
       </c>
@@ -4698,7 +4704,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="57"/>
+      <c r="B120" s="58"/>
       <c r="C120" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4727,7 +4733,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="60"/>
+      <c r="B121" s="61"/>
       <c r="C121" s="38">
         <v>0.77777777777777779</v>
       </c>
@@ -4779,7 +4785,7 @@
       <c r="E123" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F123" s="58" t="s">
+      <c r="F123" s="60" t="s">
         <v>18</v>
       </c>
       <c r="G123" s="17" t="s">
@@ -4803,7 +4809,7 @@
         <v>8</v>
       </c>
       <c r="E124" s="59"/>
-      <c r="F124" s="58"/>
+      <c r="F124" s="60"/>
       <c r="G124" s="12" t="s">
         <v>14</v>
       </c>
@@ -6628,7 +6634,7 @@
       </c>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B188" s="49" t="s">
+      <c r="B188" s="56" t="s">
         <v>79</v>
       </c>
       <c r="C188" s="4">
@@ -6659,6 +6665,7 @@
       </c>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B189" s="56"/>
       <c r="C189" s="4">
         <v>0.4201388888888889</v>
       </c>
@@ -6687,6 +6694,7 @@
       </c>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B190" s="56"/>
       <c r="C190" s="4">
         <v>0.52777777777777779</v>
       </c>
@@ -6715,6 +6723,7 @@
       </c>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B191" s="56"/>
       <c r="C191" s="4">
         <v>0.64236111111111105</v>
       </c>
@@ -6743,6 +6752,7 @@
       </c>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B192" s="56"/>
       <c r="C192" s="4">
         <v>0.71527777777777779</v>
       </c>
@@ -6770,7 +6780,7 @@
         <v>11262.500000000005</v>
       </c>
     </row>
-    <row r="193" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C193" s="4"/>
       <c r="D193" s="18"/>
       <c r="E193" s="20">
@@ -6789,36 +6799,42 @@
         <f t="shared" si="59"/>
         <v>2.7604166666666679</v>
       </c>
-      <c r="I193" s="23">
-        <f t="shared" si="60"/>
-        <v>11262.500000000005</v>
-      </c>
-    </row>
-    <row r="194" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C194" s="4"/>
-      <c r="D194" s="18"/>
+      <c r="J193" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B194" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C194" s="4">
+        <v>0.59375</v>
+      </c>
+      <c r="D194" s="18">
+        <v>0.65277777777777779</v>
+      </c>
       <c r="E194" s="20">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>5.902777777777779E-2</v>
       </c>
       <c r="F194" s="21">
         <f t="shared" si="57"/>
-        <v>0.69791666666666674</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="G194" s="15">
         <f t="shared" si="58"/>
-        <v>0.69791666666666674</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="H194" s="15">
         <f t="shared" si="59"/>
-        <v>2.7604166666666679</v>
+        <v>2.8194444444444455</v>
       </c>
       <c r="I194" s="23">
-        <f t="shared" si="60"/>
-        <v>11262.500000000005</v>
-      </c>
-    </row>
-    <row r="195" spans="3:9" x14ac:dyDescent="0.25">
+        <f>H194*24*$J$32</f>
+        <v>11503.333333333336</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C195" s="4"/>
       <c r="D195" s="18"/>
       <c r="E195" s="20">
@@ -6827,22 +6843,22 @@
       </c>
       <c r="F195" s="21">
         <f t="shared" si="57"/>
-        <v>0.69791666666666674</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="G195" s="15">
         <f t="shared" si="58"/>
-        <v>0.69791666666666674</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="H195" s="15">
         <f t="shared" si="59"/>
-        <v>2.7604166666666679</v>
+        <v>2.8194444444444455</v>
       </c>
       <c r="I195" s="23">
         <f t="shared" si="60"/>
-        <v>11262.500000000005</v>
-      </c>
-    </row>
-    <row r="196" spans="3:9" x14ac:dyDescent="0.25">
+        <v>11503.333333333336</v>
+      </c>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C196" s="4"/>
       <c r="D196" s="18"/>
       <c r="E196" s="20">
@@ -6851,22 +6867,22 @@
       </c>
       <c r="F196" s="21">
         <f t="shared" si="57"/>
-        <v>0.69791666666666674</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="G196" s="15">
         <f t="shared" si="58"/>
-        <v>0.69791666666666674</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="H196" s="15">
         <f t="shared" si="59"/>
-        <v>2.7604166666666679</v>
+        <v>2.8194444444444455</v>
       </c>
       <c r="I196" s="23">
         <f t="shared" si="60"/>
-        <v>11262.500000000005</v>
-      </c>
-    </row>
-    <row r="197" spans="3:9" x14ac:dyDescent="0.25">
+        <v>11503.333333333336</v>
+      </c>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C197" s="4"/>
       <c r="D197" s="18"/>
       <c r="E197" s="20">
@@ -6875,22 +6891,22 @@
       </c>
       <c r="F197" s="21">
         <f t="shared" si="57"/>
-        <v>0.69791666666666674</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="G197" s="15">
         <f t="shared" si="58"/>
-        <v>0.69791666666666674</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="H197" s="15">
         <f t="shared" si="59"/>
-        <v>2.7604166666666679</v>
+        <v>2.8194444444444455</v>
       </c>
       <c r="I197" s="23">
         <f t="shared" si="60"/>
-        <v>11262.500000000005</v>
-      </c>
-    </row>
-    <row r="198" spans="3:9" x14ac:dyDescent="0.25">
+        <v>11503.333333333336</v>
+      </c>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C198" s="4"/>
       <c r="D198" s="18"/>
       <c r="E198" s="20">
@@ -6899,22 +6915,22 @@
       </c>
       <c r="F198" s="21">
         <f t="shared" si="57"/>
-        <v>0.69791666666666674</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="G198" s="15">
         <f t="shared" si="58"/>
-        <v>0.69791666666666674</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="H198" s="15">
         <f t="shared" si="59"/>
-        <v>2.7604166666666679</v>
+        <v>2.8194444444444455</v>
       </c>
       <c r="I198" s="23">
         <f t="shared" si="60"/>
-        <v>11262.500000000005</v>
-      </c>
-    </row>
-    <row r="199" spans="3:9" x14ac:dyDescent="0.25">
+        <v>11503.333333333336</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C199" s="4"/>
       <c r="D199" s="18"/>
       <c r="E199" s="20">
@@ -6923,28 +6939,52 @@
       </c>
       <c r="F199" s="21">
         <f t="shared" si="57"/>
-        <v>0.69791666666666674</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="G199" s="15">
         <f t="shared" si="58"/>
-        <v>0.69791666666666674</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="H199" s="15">
         <f t="shared" si="59"/>
-        <v>2.7604166666666679</v>
+        <v>2.8194444444444455</v>
       </c>
       <c r="I199" s="23">
         <f t="shared" si="60"/>
-        <v>11262.500000000005</v>
+        <v>11503.333333333336</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="B178:B183"/>
-    <mergeCell ref="B184:B187"/>
-    <mergeCell ref="B164:B170"/>
+  <mergeCells count="50">
+    <mergeCell ref="B188:B192"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B61:B62"/>
     <mergeCell ref="B151:B155"/>
     <mergeCell ref="B156:B162"/>
     <mergeCell ref="B142:B144"/>
@@ -6961,34 +7001,11 @@
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="B70:B71"/>
     <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B164:B170"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65528663-64E5-4131-8513-E6BDCA2F8230}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB10DB5-B15E-4B3F-A19A-983C6334A300}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="1305" windowWidth="14670" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
   <si>
     <t>Vektorizace, první sada</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>ZASRANY ONE DRIVE,SMAZAL MI DATA ZA 4 DNY</t>
+  </si>
+  <si>
+    <t>11.2.</t>
   </si>
 </sst>
 </file>
@@ -747,14 +750,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -762,8 +759,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,7 +1109,7 @@
   <dimension ref="A1:X199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="H203" sqref="H203"/>
+      <selection activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,10 +1131,10 @@
       <c r="B1" s="51"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="58" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -1152,8 +1155,8 @@
       <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
@@ -1333,7 +1336,7 @@
         <v>16716.666666666664</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="57"/>
+      <c r="K13" s="62"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
@@ -1349,7 +1352,7 @@
       <c r="X13" s="6"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="57" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="4">
@@ -1379,7 +1382,7 @@
         <v>16915</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="57"/>
+      <c r="K14" s="62"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
@@ -1395,7 +1398,7 @@
       <c r="X14" s="6"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="58"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -1423,7 +1426,7 @@
         <v>17184.166666666664</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="57"/>
+      <c r="K15" s="62"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
@@ -1439,7 +1442,7 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="58"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -1467,7 +1470,7 @@
         <v>17269.166666666664</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="57"/>
+      <c r="K16" s="62"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
@@ -1483,7 +1486,7 @@
       <c r="X16" s="6"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="58"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="4">
         <v>0.80208333333333337</v>
       </c>
@@ -1511,7 +1514,7 @@
         <v>17524.166666666664</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="57"/>
+      <c r="K17" s="62"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
@@ -1527,7 +1530,7 @@
       <c r="X17" s="6"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="58"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="4">
         <v>0.875</v>
       </c>
@@ -1555,7 +1558,7 @@
         <v>17651.666666666664</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="57"/>
+      <c r="K18" s="62"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
@@ -1571,7 +1574,7 @@
       <c r="X18" s="6"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="57" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="4">
@@ -1601,7 +1604,7 @@
         <v>17878.333333333332</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="57"/>
+      <c r="K19" s="62"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
@@ -1617,7 +1620,7 @@
       <c r="X19" s="6"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="58"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1645,7 +1648,7 @@
         <v>18246.666666666664</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="57"/>
+      <c r="K20" s="62"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
@@ -1661,7 +1664,7 @@
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="58"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1689,7 +1692,7 @@
         <v>18388.333333333332</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="57"/>
+      <c r="K21" s="62"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
@@ -1705,7 +1708,7 @@
       <c r="X21" s="6"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="58"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="4">
         <v>0.75</v>
       </c>
@@ -1733,7 +1736,7 @@
         <v>18515.833333333332</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="57"/>
+      <c r="K22" s="62"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="9"/>
@@ -1749,7 +1752,7 @@
       <c r="X22" s="6"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="58"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -1793,7 +1796,7 @@
       <c r="X23" s="6"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="61" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="4">
@@ -1839,7 +1842,7 @@
       <c r="X24" s="6"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="62"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -1883,7 +1886,7 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="62"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1927,7 +1930,7 @@
       <c r="X26" s="6"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="62"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="4">
         <v>0.83333333333333337</v>
       </c>
@@ -1971,7 +1974,7 @@
       <c r="X27" s="6"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="57" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="4">
@@ -2017,7 +2020,7 @@
       <c r="X28" s="6"/>
     </row>
     <row r="29" spans="2:24" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="61"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="27">
         <v>0.61111111111111105</v>
       </c>
@@ -2062,10 +2065,10 @@
       <c r="B31" s="51"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="58" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="17" t="s">
@@ -2086,8 +2089,8 @@
       <c r="D32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="58"/>
       <c r="G32" s="12" t="s">
         <v>14</v>
       </c>
@@ -2102,7 +2105,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="57" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="24">
@@ -2133,7 +2136,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="58"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -2162,7 +2165,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="58"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="4">
         <v>0.67013888888888884</v>
       </c>
@@ -2222,7 +2225,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="57" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="4">
@@ -2253,7 +2256,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="58"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -2282,7 +2285,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="58"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="4">
         <v>0.77777777777777779</v>
       </c>
@@ -2311,7 +2314,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="58"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="4">
         <v>0.93055555555555547</v>
       </c>
@@ -2340,7 +2343,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="57" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="4">
@@ -2371,7 +2374,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="58"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="4">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -2400,7 +2403,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="58"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="4">
         <v>0.60069444444444442</v>
       </c>
@@ -2429,7 +2432,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="58"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2458,7 +2461,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="58"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="4">
         <v>0.78472222222222221</v>
       </c>
@@ -2487,7 +2490,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="58"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="4">
         <v>0.92708333333333337</v>
       </c>
@@ -2516,7 +2519,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="57" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="4">
@@ -2547,7 +2550,7 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="58"/>
+      <c r="B48" s="57"/>
       <c r="C48" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -2576,7 +2579,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="58"/>
+      <c r="B49" s="57"/>
       <c r="C49" s="4">
         <v>0.74305555555555547</v>
       </c>
@@ -2605,7 +2608,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="58"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="4">
         <v>0.78819444444444453</v>
       </c>
@@ -2634,7 +2637,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="58"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="4">
         <v>0.81597222222222221</v>
       </c>
@@ -2663,7 +2666,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="58"/>
+      <c r="B52" s="57"/>
       <c r="C52" s="4">
         <v>0.89583333333333337</v>
       </c>
@@ -2695,7 +2698,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="58"/>
+      <c r="B53" s="57"/>
       <c r="C53" s="4">
         <v>0.99652777777777779</v>
       </c>
@@ -2727,7 +2730,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="57" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="4">
@@ -2761,7 +2764,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="58"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="4">
         <v>0.19444444444444445</v>
       </c>
@@ -2790,7 +2793,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="58"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="4">
         <v>0.625</v>
       </c>
@@ -2819,7 +2822,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="58"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -2848,7 +2851,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="58"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2877,7 +2880,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="58"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -2937,7 +2940,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="57" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="4">
@@ -2968,7 +2971,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="58"/>
+      <c r="B62" s="57"/>
       <c r="C62" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -2997,7 +3000,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="58" t="s">
+      <c r="B63" s="57" t="s">
         <v>33</v>
       </c>
       <c r="C63" s="4">
@@ -3028,7 +3031,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="58"/>
+      <c r="B64" s="57"/>
       <c r="C64" s="4">
         <v>0.86111111111111116</v>
       </c>
@@ -3057,7 +3060,7 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="58"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="4">
         <v>0.88888888888888884</v>
       </c>
@@ -3086,7 +3089,7 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="58" t="s">
+      <c r="B66" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="4">
@@ -3117,7 +3120,7 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="58"/>
+      <c r="B67" s="57"/>
       <c r="C67" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -3146,7 +3149,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="58"/>
+      <c r="B68" s="57"/>
       <c r="C68" s="4">
         <v>0.89930555555555547</v>
       </c>
@@ -3175,7 +3178,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="58"/>
+      <c r="B69" s="57"/>
       <c r="C69" s="4">
         <v>0.92361111111111116</v>
       </c>
@@ -3204,7 +3207,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="57" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="4">
@@ -3235,7 +3238,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="58"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="4">
         <v>0.72222222222222221</v>
       </c>
@@ -3295,7 +3298,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="58" t="s">
+      <c r="B73" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C73" s="4">
@@ -3326,7 +3329,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="58"/>
+      <c r="B74" s="57"/>
       <c r="C74" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -3355,7 +3358,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="57" t="s">
         <v>38</v>
       </c>
       <c r="C75" s="4">
@@ -3386,7 +3389,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="58"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -3415,7 +3418,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="58"/>
+      <c r="B77" s="57"/>
       <c r="C77" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -3444,7 +3447,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="58"/>
+      <c r="B78" s="57"/>
       <c r="C78" s="4">
         <v>0.96875</v>
       </c>
@@ -3473,7 +3476,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="58" t="s">
+      <c r="B79" s="57" t="s">
         <v>39</v>
       </c>
       <c r="C79" s="4">
@@ -3507,7 +3510,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="58"/>
+      <c r="B80" s="57"/>
       <c r="C80" s="4">
         <v>0.65625</v>
       </c>
@@ -3536,7 +3539,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="58" t="s">
+      <c r="B81" s="57" t="s">
         <v>41</v>
       </c>
       <c r="C81" s="4">
@@ -3567,7 +3570,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="58"/>
+      <c r="B82" s="57"/>
       <c r="C82" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -3596,7 +3599,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="58"/>
+      <c r="B83" s="57"/>
       <c r="C83" s="4">
         <v>0.69791666666666663</v>
       </c>
@@ -3625,7 +3628,7 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="58" t="s">
+      <c r="B84" s="57" t="s">
         <v>42</v>
       </c>
       <c r="C84" s="4">
@@ -3656,7 +3659,7 @@
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="58"/>
+      <c r="B85" s="57"/>
       <c r="C85" s="4">
         <v>0.61805555555555558</v>
       </c>
@@ -3685,7 +3688,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="58"/>
+      <c r="B86" s="57"/>
       <c r="C86" s="4">
         <v>0.86805555555555547</v>
       </c>
@@ -3714,7 +3717,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="58" t="s">
+      <c r="B87" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="4">
@@ -3745,7 +3748,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="58"/>
+      <c r="B88" s="57"/>
       <c r="C88" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -3805,7 +3808,7 @@
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="58" t="s">
+      <c r="B90" s="57" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="4">
@@ -3836,7 +3839,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="58"/>
+      <c r="B91" s="57"/>
       <c r="C91" s="4">
         <v>0.3576388888888889</v>
       </c>
@@ -3865,7 +3868,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="58"/>
+      <c r="B92" s="57"/>
       <c r="C92" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -3894,7 +3897,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="58"/>
+      <c r="B93" s="57"/>
       <c r="C93" s="4">
         <v>0.4548611111111111</v>
       </c>
@@ -3923,7 +3926,7 @@
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="58"/>
+      <c r="B94" s="57"/>
       <c r="C94" s="4">
         <v>0.48958333333333331</v>
       </c>
@@ -3952,7 +3955,7 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="58" t="s">
+      <c r="B95" s="57" t="s">
         <v>46</v>
       </c>
       <c r="C95" s="4">
@@ -3983,7 +3986,7 @@
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="58"/>
+      <c r="B96" s="57"/>
       <c r="C96" s="4">
         <v>0.5</v>
       </c>
@@ -4012,7 +4015,7 @@
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="58"/>
+      <c r="B97" s="57"/>
       <c r="C97" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -4041,7 +4044,7 @@
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="58" t="s">
+      <c r="B98" s="57" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="4">
@@ -4072,7 +4075,7 @@
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="58"/>
+      <c r="B99" s="57"/>
       <c r="C99" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4101,7 +4104,7 @@
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="58"/>
+      <c r="B100" s="57"/>
       <c r="C100" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -4130,7 +4133,7 @@
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="58" t="s">
+      <c r="B101" s="57" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="4">
@@ -4161,7 +4164,7 @@
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="58"/>
+      <c r="B102" s="57"/>
       <c r="C102" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4190,7 +4193,7 @@
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="58" t="s">
+      <c r="B103" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C103" s="4">
@@ -4224,7 +4227,7 @@
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="58"/>
+      <c r="B104" s="57"/>
       <c r="C104" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -4253,7 +4256,7 @@
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="58"/>
+      <c r="B105" s="57"/>
       <c r="C105" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -4285,7 +4288,7 @@
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="58"/>
+      <c r="B106" s="57"/>
       <c r="C106" s="4">
         <v>0.70486111111111116</v>
       </c>
@@ -4314,7 +4317,7 @@
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="58" t="s">
+      <c r="B107" s="57" t="s">
         <v>51</v>
       </c>
       <c r="C107" s="4">
@@ -4345,7 +4348,7 @@
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="58"/>
+      <c r="B108" s="57"/>
       <c r="C108" s="4">
         <v>0.98958333333333337</v>
       </c>
@@ -4374,7 +4377,7 @@
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="58" t="s">
+      <c r="B109" s="57" t="s">
         <v>52</v>
       </c>
       <c r="C109" s="4">
@@ -4405,7 +4408,7 @@
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="58"/>
+      <c r="B110" s="57"/>
       <c r="C110" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -4434,7 +4437,7 @@
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="58"/>
+      <c r="B111" s="57"/>
       <c r="C111" s="4">
         <v>0.66319444444444442</v>
       </c>
@@ -4463,7 +4466,7 @@
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="58"/>
+      <c r="B112" s="57"/>
       <c r="C112" s="4">
         <v>0.73958333333333337</v>
       </c>
@@ -4492,7 +4495,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="58"/>
+      <c r="B113" s="57"/>
       <c r="C113" s="4">
         <v>0.80555555555555547</v>
       </c>
@@ -4521,7 +4524,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="58" t="s">
+      <c r="B114" s="57" t="s">
         <v>53</v>
       </c>
       <c r="C114" s="4">
@@ -4552,7 +4555,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="58"/>
+      <c r="B115" s="57"/>
       <c r="C115" s="4">
         <v>0.69097222222222221</v>
       </c>
@@ -4615,7 +4618,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="58" t="s">
+      <c r="B117" s="57" t="s">
         <v>55</v>
       </c>
       <c r="C117" s="4">
@@ -4646,7 +4649,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="58"/>
+      <c r="B118" s="57"/>
       <c r="C118" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4675,7 +4678,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="58"/>
+      <c r="B119" s="57"/>
       <c r="C119" s="4">
         <v>0.59375</v>
       </c>
@@ -4704,7 +4707,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="58"/>
+      <c r="B120" s="57"/>
       <c r="C120" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4733,7 +4736,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="61"/>
+      <c r="B121" s="59"/>
       <c r="C121" s="38">
         <v>0.77777777777777779</v>
       </c>
@@ -4782,10 +4785,10 @@
       <c r="B123" s="51"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
-      <c r="E123" s="59" t="s">
+      <c r="E123" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F123" s="60" t="s">
+      <c r="F123" s="58" t="s">
         <v>18</v>
       </c>
       <c r="G123" s="17" t="s">
@@ -4808,8 +4811,8 @@
       <c r="D124" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="59"/>
-      <c r="F124" s="60"/>
+      <c r="E124" s="60"/>
+      <c r="F124" s="58"/>
       <c r="G124" s="12" t="s">
         <v>14</v>
       </c>
@@ -6804,7 +6807,7 @@
       </c>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B194" s="49" t="s">
+      <c r="B194" s="54" t="s">
         <v>80</v>
       </c>
       <c r="C194" s="4">
@@ -6835,51 +6838,62 @@
       </c>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C195" s="4"/>
-      <c r="D195" s="18"/>
+      <c r="B195" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C195" s="4">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="D195" s="18">
+        <v>0.40763888888888888</v>
+      </c>
       <c r="E195" s="20">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>3.6111111111111149E-2</v>
       </c>
       <c r="F195" s="21">
         <f t="shared" si="57"/>
-        <v>0.75694444444444453</v>
+        <v>0.79305555555555562</v>
       </c>
       <c r="G195" s="15">
         <f t="shared" si="58"/>
-        <v>0.75694444444444453</v>
+        <v>0.79305555555555562</v>
       </c>
       <c r="H195" s="15">
         <f t="shared" si="59"/>
-        <v>2.8194444444444455</v>
+        <v>2.8555555555555565</v>
       </c>
       <c r="I195" s="23">
         <f t="shared" si="60"/>
-        <v>11503.333333333336</v>
+        <v>11650.666666666672</v>
       </c>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C196" s="4"/>
-      <c r="D196" s="18"/>
+      <c r="C196" s="4">
+        <v>0.41250000000000003</v>
+      </c>
+      <c r="D196" s="18">
+        <v>0.47291666666666665</v>
+      </c>
       <c r="E196" s="20">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>6.0416666666666619E-2</v>
       </c>
       <c r="F196" s="21">
         <f t="shared" si="57"/>
-        <v>0.75694444444444453</v>
+        <v>0.85347222222222219</v>
       </c>
       <c r="G196" s="15">
         <f t="shared" si="58"/>
-        <v>0.75694444444444453</v>
+        <v>0.85347222222222219</v>
       </c>
       <c r="H196" s="15">
         <f t="shared" si="59"/>
-        <v>2.8194444444444455</v>
+        <v>2.9159722222222233</v>
       </c>
       <c r="I196" s="23">
         <f t="shared" si="60"/>
-        <v>11503.333333333336</v>
+        <v>11897.166666666672</v>
       </c>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.25">
@@ -6891,19 +6905,19 @@
       </c>
       <c r="F197" s="21">
         <f t="shared" si="57"/>
-        <v>0.75694444444444453</v>
+        <v>0.85347222222222219</v>
       </c>
       <c r="G197" s="15">
         <f t="shared" si="58"/>
-        <v>0.75694444444444453</v>
+        <v>0.85347222222222219</v>
       </c>
       <c r="H197" s="15">
         <f t="shared" si="59"/>
-        <v>2.8194444444444455</v>
+        <v>2.9159722222222237</v>
       </c>
       <c r="I197" s="23">
         <f t="shared" si="60"/>
-        <v>11503.333333333336</v>
+        <v>11897.166666666673</v>
       </c>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.25">
@@ -6915,19 +6929,19 @@
       </c>
       <c r="F198" s="21">
         <f t="shared" si="57"/>
-        <v>0.75694444444444453</v>
+        <v>0.85347222222222219</v>
       </c>
       <c r="G198" s="15">
         <f t="shared" si="58"/>
-        <v>0.75694444444444453</v>
+        <v>0.85347222222222219</v>
       </c>
       <c r="H198" s="15">
         <f t="shared" si="59"/>
-        <v>2.8194444444444455</v>
+        <v>2.9159722222222237</v>
       </c>
       <c r="I198" s="23">
         <f t="shared" si="60"/>
-        <v>11503.333333333336</v>
+        <v>11897.166666666673</v>
       </c>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.25">
@@ -6939,23 +6953,57 @@
       </c>
       <c r="F199" s="21">
         <f t="shared" si="57"/>
-        <v>0.75694444444444453</v>
+        <v>0.85347222222222219</v>
       </c>
       <c r="G199" s="15">
         <f t="shared" si="58"/>
-        <v>0.75694444444444453</v>
+        <v>0.85347222222222219</v>
       </c>
       <c r="H199" s="15">
         <f t="shared" si="59"/>
-        <v>2.8194444444444455</v>
+        <v>2.9159722222222237</v>
       </c>
       <c r="I199" s="23">
         <f t="shared" si="60"/>
-        <v>11503.333333333336</v>
+        <v>11897.166666666673</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B164:B170"/>
+    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="B156:B162"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
     <mergeCell ref="B188:B192"/>
     <mergeCell ref="B146:B149"/>
     <mergeCell ref="B75:B78"/>
@@ -6972,40 +7020,6 @@
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="B109:B113"/>
     <mergeCell ref="B90:B94"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B151:B155"/>
-    <mergeCell ref="B156:B162"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="K13:K17"/>
-    <mergeCell ref="K18:K22"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B47:B53"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="B178:B183"/>
-    <mergeCell ref="B184:B187"/>
-    <mergeCell ref="B164:B170"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB10DB5-B15E-4B3F-A19A-983C6334A300}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5CA40E-6043-4B1C-B682-762E05219235}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="1305" windowWidth="14670" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,8 +750,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -759,14 +765,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:X199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="D197" sqref="D197"/>
+      <selection activeCell="D198" sqref="D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,10 +1131,10 @@
       <c r="B1" s="51"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="60" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -1155,8 +1155,8 @@
       <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>16716.666666666664</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="62"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
@@ -1352,7 +1352,7 @@
       <c r="X13" s="6"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="58" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="4">
@@ -1382,7 +1382,7 @@
         <v>16915</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="62"/>
+      <c r="K14" s="57"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
@@ -1398,7 +1398,7 @@
       <c r="X14" s="6"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="57"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>17184.166666666664</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="62"/>
+      <c r="K15" s="57"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
@@ -1442,7 +1442,7 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="57"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>17269.166666666664</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="62"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
@@ -1486,7 +1486,7 @@
       <c r="X16" s="6"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="57"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="4">
         <v>0.80208333333333337</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>17524.166666666664</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="62"/>
+      <c r="K17" s="57"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
@@ -1530,7 +1530,7 @@
       <c r="X17" s="6"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="57"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="4">
         <v>0.875</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>17651.666666666664</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="62"/>
+      <c r="K18" s="57"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
@@ -1574,7 +1574,7 @@
       <c r="X18" s="6"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="4">
@@ -1604,7 +1604,7 @@
         <v>17878.333333333332</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="62"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
@@ -1620,7 +1620,7 @@
       <c r="X19" s="6"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="57"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>18246.666666666664</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="62"/>
+      <c r="K20" s="57"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
@@ -1664,7 +1664,7 @@
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="57"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>18388.333333333332</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="62"/>
+      <c r="K21" s="57"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
@@ -1708,7 +1708,7 @@
       <c r="X21" s="6"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="57"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="4">
         <v>0.75</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>18515.833333333332</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="62"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="9"/>
@@ -1752,7 +1752,7 @@
       <c r="X22" s="6"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="57"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -1796,7 +1796,7 @@
       <c r="X23" s="6"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="62" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="4">
@@ -1842,7 +1842,7 @@
       <c r="X24" s="6"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="61"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -1886,7 +1886,7 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="61"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1930,7 +1930,7 @@
       <c r="X26" s="6"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="61"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="4">
         <v>0.83333333333333337</v>
       </c>
@@ -1974,7 +1974,7 @@
       <c r="X27" s="6"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="58" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="4">
@@ -2020,7 +2020,7 @@
       <c r="X28" s="6"/>
     </row>
     <row r="29" spans="2:24" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="59"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="27">
         <v>0.61111111111111105</v>
       </c>
@@ -2065,10 +2065,10 @@
       <c r="B31" s="51"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="60" t="s">
+      <c r="E31" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="58" t="s">
+      <c r="F31" s="60" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="17" t="s">
@@ -2089,8 +2089,8 @@
       <c r="D32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="60"/>
-      <c r="F32" s="58"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="12" t="s">
         <v>14</v>
       </c>
@@ -2105,7 +2105,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="58" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="24">
@@ -2136,7 +2136,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="57"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -2165,7 +2165,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="57"/>
+      <c r="B35" s="58"/>
       <c r="C35" s="4">
         <v>0.67013888888888884</v>
       </c>
@@ -2225,7 +2225,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="4">
@@ -2256,7 +2256,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="57"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -2285,7 +2285,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="57"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="4">
         <v>0.77777777777777779</v>
       </c>
@@ -2314,7 +2314,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="57"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="4">
         <v>0.93055555555555547</v>
       </c>
@@ -2343,7 +2343,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="58" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="4">
@@ -2374,7 +2374,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="57"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="4">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -2403,7 +2403,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="57"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="4">
         <v>0.60069444444444442</v>
       </c>
@@ -2432,7 +2432,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="57"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2461,7 +2461,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="57"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="4">
         <v>0.78472222222222221</v>
       </c>
@@ -2490,7 +2490,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="57"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="4">
         <v>0.92708333333333337</v>
       </c>
@@ -2519,7 +2519,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="58" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="4">
@@ -2550,7 +2550,7 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="57"/>
+      <c r="B48" s="58"/>
       <c r="C48" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -2579,7 +2579,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="57"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="4">
         <v>0.74305555555555547</v>
       </c>
@@ -2608,7 +2608,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="57"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="4">
         <v>0.78819444444444453</v>
       </c>
@@ -2637,7 +2637,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="57"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="4">
         <v>0.81597222222222221</v>
       </c>
@@ -2666,7 +2666,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="57"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="4">
         <v>0.89583333333333337</v>
       </c>
@@ -2698,7 +2698,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="57"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="4">
         <v>0.99652777777777779</v>
       </c>
@@ -2730,7 +2730,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="58" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="4">
@@ -2764,7 +2764,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="57"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="4">
         <v>0.19444444444444445</v>
       </c>
@@ -2793,7 +2793,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="57"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="4">
         <v>0.625</v>
       </c>
@@ -2822,7 +2822,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="57"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -2851,7 +2851,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="57"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2880,7 +2880,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="57"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -2940,7 +2940,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="58" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="4">
@@ -2971,7 +2971,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="57"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -3000,7 +3000,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="58" t="s">
         <v>33</v>
       </c>
       <c r="C63" s="4">
@@ -3031,7 +3031,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="57"/>
+      <c r="B64" s="58"/>
       <c r="C64" s="4">
         <v>0.86111111111111116</v>
       </c>
@@ -3060,7 +3060,7 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="57"/>
+      <c r="B65" s="58"/>
       <c r="C65" s="4">
         <v>0.88888888888888884</v>
       </c>
@@ -3089,7 +3089,7 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="57" t="s">
+      <c r="B66" s="58" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="4">
@@ -3120,7 +3120,7 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="57"/>
+      <c r="B67" s="58"/>
       <c r="C67" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -3149,7 +3149,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="57"/>
+      <c r="B68" s="58"/>
       <c r="C68" s="4">
         <v>0.89930555555555547</v>
       </c>
@@ -3178,7 +3178,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="57"/>
+      <c r="B69" s="58"/>
       <c r="C69" s="4">
         <v>0.92361111111111116</v>
       </c>
@@ -3207,7 +3207,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="57" t="s">
+      <c r="B70" s="58" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="4">
@@ -3238,7 +3238,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="57"/>
+      <c r="B71" s="58"/>
       <c r="C71" s="4">
         <v>0.72222222222222221</v>
       </c>
@@ -3298,7 +3298,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="57" t="s">
+      <c r="B73" s="58" t="s">
         <v>37</v>
       </c>
       <c r="C73" s="4">
@@ -3329,7 +3329,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="57"/>
+      <c r="B74" s="58"/>
       <c r="C74" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -3358,7 +3358,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="58" t="s">
         <v>38</v>
       </c>
       <c r="C75" s="4">
@@ -3389,7 +3389,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="57"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -3418,7 +3418,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="57"/>
+      <c r="B77" s="58"/>
       <c r="C77" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -3447,7 +3447,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="57"/>
+      <c r="B78" s="58"/>
       <c r="C78" s="4">
         <v>0.96875</v>
       </c>
@@ -3476,7 +3476,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="57" t="s">
+      <c r="B79" s="58" t="s">
         <v>39</v>
       </c>
       <c r="C79" s="4">
@@ -3510,7 +3510,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="57"/>
+      <c r="B80" s="58"/>
       <c r="C80" s="4">
         <v>0.65625</v>
       </c>
@@ -3539,7 +3539,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="57" t="s">
+      <c r="B81" s="58" t="s">
         <v>41</v>
       </c>
       <c r="C81" s="4">
@@ -3570,7 +3570,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="57"/>
+      <c r="B82" s="58"/>
       <c r="C82" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -3599,7 +3599,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="57"/>
+      <c r="B83" s="58"/>
       <c r="C83" s="4">
         <v>0.69791666666666663</v>
       </c>
@@ -3628,7 +3628,7 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="57" t="s">
+      <c r="B84" s="58" t="s">
         <v>42</v>
       </c>
       <c r="C84" s="4">
@@ -3659,7 +3659,7 @@
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="57"/>
+      <c r="B85" s="58"/>
       <c r="C85" s="4">
         <v>0.61805555555555558</v>
       </c>
@@ -3688,7 +3688,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="57"/>
+      <c r="B86" s="58"/>
       <c r="C86" s="4">
         <v>0.86805555555555547</v>
       </c>
@@ -3717,7 +3717,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="57" t="s">
+      <c r="B87" s="58" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="4">
@@ -3748,7 +3748,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="57"/>
+      <c r="B88" s="58"/>
       <c r="C88" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -3808,7 +3808,7 @@
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="57" t="s">
+      <c r="B90" s="58" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="4">
@@ -3839,7 +3839,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="57"/>
+      <c r="B91" s="58"/>
       <c r="C91" s="4">
         <v>0.3576388888888889</v>
       </c>
@@ -3868,7 +3868,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="57"/>
+      <c r="B92" s="58"/>
       <c r="C92" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -3897,7 +3897,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="57"/>
+      <c r="B93" s="58"/>
       <c r="C93" s="4">
         <v>0.4548611111111111</v>
       </c>
@@ -3926,7 +3926,7 @@
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="57"/>
+      <c r="B94" s="58"/>
       <c r="C94" s="4">
         <v>0.48958333333333331</v>
       </c>
@@ -3955,7 +3955,7 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="57" t="s">
+      <c r="B95" s="58" t="s">
         <v>46</v>
       </c>
       <c r="C95" s="4">
@@ -3986,7 +3986,7 @@
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="57"/>
+      <c r="B96" s="58"/>
       <c r="C96" s="4">
         <v>0.5</v>
       </c>
@@ -4015,7 +4015,7 @@
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="57"/>
+      <c r="B97" s="58"/>
       <c r="C97" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -4044,7 +4044,7 @@
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="57" t="s">
+      <c r="B98" s="58" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="4">
@@ -4075,7 +4075,7 @@
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="57"/>
+      <c r="B99" s="58"/>
       <c r="C99" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4104,7 +4104,7 @@
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="57"/>
+      <c r="B100" s="58"/>
       <c r="C100" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -4133,7 +4133,7 @@
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="57" t="s">
+      <c r="B101" s="58" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="4">
@@ -4164,7 +4164,7 @@
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="57"/>
+      <c r="B102" s="58"/>
       <c r="C102" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4193,7 +4193,7 @@
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="57" t="s">
+      <c r="B103" s="58" t="s">
         <v>50</v>
       </c>
       <c r="C103" s="4">
@@ -4227,7 +4227,7 @@
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="57"/>
+      <c r="B104" s="58"/>
       <c r="C104" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -4256,7 +4256,7 @@
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="57"/>
+      <c r="B105" s="58"/>
       <c r="C105" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -4288,7 +4288,7 @@
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="57"/>
+      <c r="B106" s="58"/>
       <c r="C106" s="4">
         <v>0.70486111111111116</v>
       </c>
@@ -4317,7 +4317,7 @@
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="57" t="s">
+      <c r="B107" s="58" t="s">
         <v>51</v>
       </c>
       <c r="C107" s="4">
@@ -4348,7 +4348,7 @@
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="57"/>
+      <c r="B108" s="58"/>
       <c r="C108" s="4">
         <v>0.98958333333333337</v>
       </c>
@@ -4377,7 +4377,7 @@
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="57" t="s">
+      <c r="B109" s="58" t="s">
         <v>52</v>
       </c>
       <c r="C109" s="4">
@@ -4408,7 +4408,7 @@
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="57"/>
+      <c r="B110" s="58"/>
       <c r="C110" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -4437,7 +4437,7 @@
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="57"/>
+      <c r="B111" s="58"/>
       <c r="C111" s="4">
         <v>0.66319444444444442</v>
       </c>
@@ -4466,7 +4466,7 @@
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="57"/>
+      <c r="B112" s="58"/>
       <c r="C112" s="4">
         <v>0.73958333333333337</v>
       </c>
@@ -4495,7 +4495,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="57"/>
+      <c r="B113" s="58"/>
       <c r="C113" s="4">
         <v>0.80555555555555547</v>
       </c>
@@ -4524,7 +4524,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="57" t="s">
+      <c r="B114" s="58" t="s">
         <v>53</v>
       </c>
       <c r="C114" s="4">
@@ -4555,7 +4555,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="57"/>
+      <c r="B115" s="58"/>
       <c r="C115" s="4">
         <v>0.69097222222222221</v>
       </c>
@@ -4618,7 +4618,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="57" t="s">
+      <c r="B117" s="58" t="s">
         <v>55</v>
       </c>
       <c r="C117" s="4">
@@ -4649,7 +4649,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="57"/>
+      <c r="B118" s="58"/>
       <c r="C118" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4678,7 +4678,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="57"/>
+      <c r="B119" s="58"/>
       <c r="C119" s="4">
         <v>0.59375</v>
       </c>
@@ -4707,7 +4707,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="57"/>
+      <c r="B120" s="58"/>
       <c r="C120" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4736,7 +4736,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="59"/>
+      <c r="B121" s="61"/>
       <c r="C121" s="38">
         <v>0.77777777777777779</v>
       </c>
@@ -4785,10 +4785,10 @@
       <c r="B123" s="51"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
-      <c r="E123" s="60" t="s">
+      <c r="E123" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F123" s="58" t="s">
+      <c r="F123" s="60" t="s">
         <v>18</v>
       </c>
       <c r="G123" s="17" t="s">
@@ -4811,8 +4811,8 @@
       <c r="D124" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="60"/>
-      <c r="F124" s="58"/>
+      <c r="E124" s="59"/>
+      <c r="F124" s="60"/>
       <c r="G124" s="12" t="s">
         <v>14</v>
       </c>
@@ -6897,27 +6897,31 @@
       </c>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C197" s="4"/>
-      <c r="D197" s="18"/>
+      <c r="C197" s="4">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="D197" s="18">
+        <v>0.54722222222222217</v>
+      </c>
       <c r="E197" s="20">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>4.6527777777777724E-2</v>
       </c>
       <c r="F197" s="21">
         <f t="shared" si="57"/>
-        <v>0.85347222222222219</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="G197" s="15">
         <f t="shared" si="58"/>
-        <v>0.85347222222222219</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="H197" s="15">
         <f t="shared" si="59"/>
-        <v>2.9159722222222237</v>
+        <v>2.9625000000000012</v>
       </c>
       <c r="I197" s="23">
         <f t="shared" si="60"/>
-        <v>11897.166666666673</v>
+        <v>12087.000000000004</v>
       </c>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.25">
@@ -6929,19 +6933,19 @@
       </c>
       <c r="F198" s="21">
         <f t="shared" si="57"/>
-        <v>0.85347222222222219</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="G198" s="15">
         <f t="shared" si="58"/>
-        <v>0.85347222222222219</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="H198" s="15">
         <f t="shared" si="59"/>
-        <v>2.9159722222222237</v>
+        <v>2.9625000000000012</v>
       </c>
       <c r="I198" s="23">
         <f t="shared" si="60"/>
-        <v>11897.166666666673</v>
+        <v>12087.000000000004</v>
       </c>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.25">
@@ -6953,28 +6957,52 @@
       </c>
       <c r="F199" s="21">
         <f t="shared" si="57"/>
-        <v>0.85347222222222219</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="G199" s="15">
         <f t="shared" si="58"/>
-        <v>0.85347222222222219</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="H199" s="15">
         <f t="shared" si="59"/>
-        <v>2.9159722222222237</v>
+        <v>2.9625000000000012</v>
       </c>
       <c r="I199" s="23">
         <f t="shared" si="60"/>
-        <v>11897.166666666673</v>
+        <v>12087.000000000004</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="B178:B183"/>
-    <mergeCell ref="B184:B187"/>
-    <mergeCell ref="B164:B170"/>
+    <mergeCell ref="B188:B192"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B61:B62"/>
     <mergeCell ref="B151:B155"/>
     <mergeCell ref="B156:B162"/>
     <mergeCell ref="B142:B144"/>
@@ -6991,35 +7019,11 @@
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="B70:B71"/>
     <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B188:B192"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B164:B170"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5CA40E-6043-4B1C-B682-762E05219235}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E5DE61-93C9-4FD2-9C43-0E822B9CF30C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="1305" windowWidth="14670" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,14 +750,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -765,8 +759,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X199"/>
+  <dimension ref="A1:X217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="D198" sqref="D198"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="B195" sqref="B195:B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,10 +1131,10 @@
       <c r="B1" s="51"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="58" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -1155,8 +1155,8 @@
       <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>16716.666666666664</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="57"/>
+      <c r="K13" s="62"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
@@ -1352,7 +1352,7 @@
       <c r="X13" s="6"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="57" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="4">
@@ -1382,7 +1382,7 @@
         <v>16915</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="57"/>
+      <c r="K14" s="62"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
@@ -1398,7 +1398,7 @@
       <c r="X14" s="6"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="58"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>17184.166666666664</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="57"/>
+      <c r="K15" s="62"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
@@ -1442,7 +1442,7 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="58"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>17269.166666666664</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="57"/>
+      <c r="K16" s="62"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
@@ -1486,7 +1486,7 @@
       <c r="X16" s="6"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="58"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="4">
         <v>0.80208333333333337</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>17524.166666666664</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="57"/>
+      <c r="K17" s="62"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
@@ -1530,7 +1530,7 @@
       <c r="X17" s="6"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="58"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="4">
         <v>0.875</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>17651.666666666664</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="57"/>
+      <c r="K18" s="62"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
@@ -1574,7 +1574,7 @@
       <c r="X18" s="6"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="57" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="4">
@@ -1604,7 +1604,7 @@
         <v>17878.333333333332</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="57"/>
+      <c r="K19" s="62"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
@@ -1620,7 +1620,7 @@
       <c r="X19" s="6"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="58"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>18246.666666666664</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="57"/>
+      <c r="K20" s="62"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
@@ -1664,7 +1664,7 @@
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="58"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>18388.333333333332</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="57"/>
+      <c r="K21" s="62"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
@@ -1708,7 +1708,7 @@
       <c r="X21" s="6"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="58"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="4">
         <v>0.75</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>18515.833333333332</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="57"/>
+      <c r="K22" s="62"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="9"/>
@@ -1752,7 +1752,7 @@
       <c r="X22" s="6"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="58"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -1796,7 +1796,7 @@
       <c r="X23" s="6"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="61" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="4">
@@ -1842,7 +1842,7 @@
       <c r="X24" s="6"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="62"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -1886,7 +1886,7 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="62"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1930,7 +1930,7 @@
       <c r="X26" s="6"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="62"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="4">
         <v>0.83333333333333337</v>
       </c>
@@ -1974,7 +1974,7 @@
       <c r="X27" s="6"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="57" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="4">
@@ -2020,7 +2020,7 @@
       <c r="X28" s="6"/>
     </row>
     <row r="29" spans="2:24" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="61"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="27">
         <v>0.61111111111111105</v>
       </c>
@@ -2065,10 +2065,10 @@
       <c r="B31" s="51"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="58" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="17" t="s">
@@ -2089,8 +2089,8 @@
       <c r="D32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="58"/>
       <c r="G32" s="12" t="s">
         <v>14</v>
       </c>
@@ -2105,7 +2105,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="57" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="24">
@@ -2136,7 +2136,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="58"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -2165,7 +2165,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="58"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="4">
         <v>0.67013888888888884</v>
       </c>
@@ -2225,7 +2225,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="57" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="4">
@@ -2256,7 +2256,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="58"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -2285,7 +2285,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="58"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="4">
         <v>0.77777777777777779</v>
       </c>
@@ -2314,7 +2314,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="58"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="4">
         <v>0.93055555555555547</v>
       </c>
@@ -2343,7 +2343,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="57" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="4">
@@ -2374,7 +2374,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="58"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="4">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -2403,7 +2403,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="58"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="4">
         <v>0.60069444444444442</v>
       </c>
@@ -2432,7 +2432,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="58"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2461,7 +2461,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="58"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="4">
         <v>0.78472222222222221</v>
       </c>
@@ -2490,7 +2490,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="58"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="4">
         <v>0.92708333333333337</v>
       </c>
@@ -2519,7 +2519,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="57" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="4">
@@ -2550,7 +2550,7 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="58"/>
+      <c r="B48" s="57"/>
       <c r="C48" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -2579,7 +2579,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="58"/>
+      <c r="B49" s="57"/>
       <c r="C49" s="4">
         <v>0.74305555555555547</v>
       </c>
@@ -2608,7 +2608,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="58"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="4">
         <v>0.78819444444444453</v>
       </c>
@@ -2637,7 +2637,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="58"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="4">
         <v>0.81597222222222221</v>
       </c>
@@ -2666,7 +2666,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="58"/>
+      <c r="B52" s="57"/>
       <c r="C52" s="4">
         <v>0.89583333333333337</v>
       </c>
@@ -2698,7 +2698,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="58"/>
+      <c r="B53" s="57"/>
       <c r="C53" s="4">
         <v>0.99652777777777779</v>
       </c>
@@ -2730,7 +2730,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="57" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="4">
@@ -2764,7 +2764,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="58"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="4">
         <v>0.19444444444444445</v>
       </c>
@@ -2793,7 +2793,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="58"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="4">
         <v>0.625</v>
       </c>
@@ -2822,7 +2822,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="58"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -2851,7 +2851,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="58"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2880,7 +2880,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="58"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -2940,7 +2940,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="57" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="4">
@@ -2971,7 +2971,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="58"/>
+      <c r="B62" s="57"/>
       <c r="C62" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -3000,7 +3000,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="58" t="s">
+      <c r="B63" s="57" t="s">
         <v>33</v>
       </c>
       <c r="C63" s="4">
@@ -3031,7 +3031,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="58"/>
+      <c r="B64" s="57"/>
       <c r="C64" s="4">
         <v>0.86111111111111116</v>
       </c>
@@ -3060,7 +3060,7 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="58"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="4">
         <v>0.88888888888888884</v>
       </c>
@@ -3089,7 +3089,7 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="58" t="s">
+      <c r="B66" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="4">
@@ -3120,7 +3120,7 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="58"/>
+      <c r="B67" s="57"/>
       <c r="C67" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -3149,7 +3149,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="58"/>
+      <c r="B68" s="57"/>
       <c r="C68" s="4">
         <v>0.89930555555555547</v>
       </c>
@@ -3178,7 +3178,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="58"/>
+      <c r="B69" s="57"/>
       <c r="C69" s="4">
         <v>0.92361111111111116</v>
       </c>
@@ -3207,7 +3207,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="57" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="4">
@@ -3238,7 +3238,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="58"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="4">
         <v>0.72222222222222221</v>
       </c>
@@ -3298,7 +3298,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="58" t="s">
+      <c r="B73" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C73" s="4">
@@ -3329,7 +3329,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="58"/>
+      <c r="B74" s="57"/>
       <c r="C74" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -3358,7 +3358,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="57" t="s">
         <v>38</v>
       </c>
       <c r="C75" s="4">
@@ -3389,7 +3389,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="58"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -3418,7 +3418,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="58"/>
+      <c r="B77" s="57"/>
       <c r="C77" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -3447,7 +3447,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="58"/>
+      <c r="B78" s="57"/>
       <c r="C78" s="4">
         <v>0.96875</v>
       </c>
@@ -3476,7 +3476,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="58" t="s">
+      <c r="B79" s="57" t="s">
         <v>39</v>
       </c>
       <c r="C79" s="4">
@@ -3510,7 +3510,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="58"/>
+      <c r="B80" s="57"/>
       <c r="C80" s="4">
         <v>0.65625</v>
       </c>
@@ -3539,7 +3539,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="58" t="s">
+      <c r="B81" s="57" t="s">
         <v>41</v>
       </c>
       <c r="C81" s="4">
@@ -3570,7 +3570,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="58"/>
+      <c r="B82" s="57"/>
       <c r="C82" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -3599,7 +3599,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="58"/>
+      <c r="B83" s="57"/>
       <c r="C83" s="4">
         <v>0.69791666666666663</v>
       </c>
@@ -3628,7 +3628,7 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="58" t="s">
+      <c r="B84" s="57" t="s">
         <v>42</v>
       </c>
       <c r="C84" s="4">
@@ -3659,7 +3659,7 @@
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="58"/>
+      <c r="B85" s="57"/>
       <c r="C85" s="4">
         <v>0.61805555555555558</v>
       </c>
@@ -3688,7 +3688,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="58"/>
+      <c r="B86" s="57"/>
       <c r="C86" s="4">
         <v>0.86805555555555547</v>
       </c>
@@ -3717,7 +3717,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="58" t="s">
+      <c r="B87" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="4">
@@ -3748,7 +3748,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="58"/>
+      <c r="B88" s="57"/>
       <c r="C88" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -3808,7 +3808,7 @@
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="58" t="s">
+      <c r="B90" s="57" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="4">
@@ -3839,7 +3839,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="58"/>
+      <c r="B91" s="57"/>
       <c r="C91" s="4">
         <v>0.3576388888888889</v>
       </c>
@@ -3868,7 +3868,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="58"/>
+      <c r="B92" s="57"/>
       <c r="C92" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -3897,7 +3897,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="58"/>
+      <c r="B93" s="57"/>
       <c r="C93" s="4">
         <v>0.4548611111111111</v>
       </c>
@@ -3926,7 +3926,7 @@
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="58"/>
+      <c r="B94" s="57"/>
       <c r="C94" s="4">
         <v>0.48958333333333331</v>
       </c>
@@ -3955,7 +3955,7 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="58" t="s">
+      <c r="B95" s="57" t="s">
         <v>46</v>
       </c>
       <c r="C95" s="4">
@@ -3986,7 +3986,7 @@
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="58"/>
+      <c r="B96" s="57"/>
       <c r="C96" s="4">
         <v>0.5</v>
       </c>
@@ -4015,7 +4015,7 @@
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="58"/>
+      <c r="B97" s="57"/>
       <c r="C97" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -4044,7 +4044,7 @@
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="58" t="s">
+      <c r="B98" s="57" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="4">
@@ -4075,7 +4075,7 @@
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="58"/>
+      <c r="B99" s="57"/>
       <c r="C99" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4104,7 +4104,7 @@
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="58"/>
+      <c r="B100" s="57"/>
       <c r="C100" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -4133,7 +4133,7 @@
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="58" t="s">
+      <c r="B101" s="57" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="4">
@@ -4164,7 +4164,7 @@
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="58"/>
+      <c r="B102" s="57"/>
       <c r="C102" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4193,7 +4193,7 @@
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="58" t="s">
+      <c r="B103" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C103" s="4">
@@ -4227,7 +4227,7 @@
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="58"/>
+      <c r="B104" s="57"/>
       <c r="C104" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -4256,7 +4256,7 @@
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="58"/>
+      <c r="B105" s="57"/>
       <c r="C105" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -4288,7 +4288,7 @@
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="58"/>
+      <c r="B106" s="57"/>
       <c r="C106" s="4">
         <v>0.70486111111111116</v>
       </c>
@@ -4317,7 +4317,7 @@
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="58" t="s">
+      <c r="B107" s="57" t="s">
         <v>51</v>
       </c>
       <c r="C107" s="4">
@@ -4348,7 +4348,7 @@
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="58"/>
+      <c r="B108" s="57"/>
       <c r="C108" s="4">
         <v>0.98958333333333337</v>
       </c>
@@ -4377,7 +4377,7 @@
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="58" t="s">
+      <c r="B109" s="57" t="s">
         <v>52</v>
       </c>
       <c r="C109" s="4">
@@ -4408,7 +4408,7 @@
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="58"/>
+      <c r="B110" s="57"/>
       <c r="C110" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -4437,7 +4437,7 @@
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="58"/>
+      <c r="B111" s="57"/>
       <c r="C111" s="4">
         <v>0.66319444444444442</v>
       </c>
@@ -4466,7 +4466,7 @@
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="58"/>
+      <c r="B112" s="57"/>
       <c r="C112" s="4">
         <v>0.73958333333333337</v>
       </c>
@@ -4495,7 +4495,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="58"/>
+      <c r="B113" s="57"/>
       <c r="C113" s="4">
         <v>0.80555555555555547</v>
       </c>
@@ -4524,7 +4524,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="58" t="s">
+      <c r="B114" s="57" t="s">
         <v>53</v>
       </c>
       <c r="C114" s="4">
@@ -4555,7 +4555,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="58"/>
+      <c r="B115" s="57"/>
       <c r="C115" s="4">
         <v>0.69097222222222221</v>
       </c>
@@ -4618,7 +4618,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="58" t="s">
+      <c r="B117" s="57" t="s">
         <v>55</v>
       </c>
       <c r="C117" s="4">
@@ -4649,7 +4649,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="58"/>
+      <c r="B118" s="57"/>
       <c r="C118" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4678,7 +4678,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="58"/>
+      <c r="B119" s="57"/>
       <c r="C119" s="4">
         <v>0.59375</v>
       </c>
@@ -4707,7 +4707,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="58"/>
+      <c r="B120" s="57"/>
       <c r="C120" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4736,7 +4736,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="61"/>
+      <c r="B121" s="59"/>
       <c r="C121" s="38">
         <v>0.77777777777777779</v>
       </c>
@@ -4785,10 +4785,10 @@
       <c r="B123" s="51"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
-      <c r="E123" s="59" t="s">
+      <c r="E123" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F123" s="60" t="s">
+      <c r="F123" s="58" t="s">
         <v>18</v>
       </c>
       <c r="G123" s="17" t="s">
@@ -4811,8 +4811,8 @@
       <c r="D124" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="59"/>
-      <c r="F124" s="60"/>
+      <c r="E124" s="60"/>
+      <c r="F124" s="58"/>
       <c r="G124" s="12" t="s">
         <v>14</v>
       </c>
@@ -6838,7 +6838,7 @@
       </c>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B195" s="49" t="s">
+      <c r="B195" s="56" t="s">
         <v>82</v>
       </c>
       <c r="C195" s="4">
@@ -6869,6 +6869,7 @@
       </c>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B196" s="56"/>
       <c r="C196" s="4">
         <v>0.41250000000000003</v>
       </c>
@@ -6897,6 +6898,7 @@
       </c>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B197" s="56"/>
       <c r="C197" s="4">
         <v>0.50069444444444444</v>
       </c>
@@ -6925,55 +6927,537 @@
       </c>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C198" s="4"/>
-      <c r="D198" s="18"/>
+      <c r="B198" s="56"/>
+      <c r="C198" s="4">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="D198" s="18">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="E198" s="20">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>2.6388888888888795E-2</v>
       </c>
       <c r="F198" s="21">
         <f t="shared" si="57"/>
-        <v>0.89999999999999991</v>
+        <v>0.92638888888888871</v>
       </c>
       <c r="G198" s="15">
         <f t="shared" si="58"/>
-        <v>0.89999999999999991</v>
+        <v>0.92638888888888871</v>
       </c>
       <c r="H198" s="15">
         <f t="shared" si="59"/>
-        <v>2.9625000000000012</v>
+        <v>2.9888888888888903</v>
       </c>
       <c r="I198" s="23">
         <f t="shared" si="60"/>
-        <v>12087.000000000004</v>
+        <v>12194.666666666672</v>
       </c>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C199" s="4"/>
-      <c r="D199" s="18"/>
+      <c r="B199" s="56"/>
+      <c r="C199" s="4">
+        <v>0.66041666666666665</v>
+      </c>
+      <c r="D199" s="18">
+        <v>0.75</v>
+      </c>
       <c r="E199" s="20">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>8.9583333333333348E-2</v>
       </c>
       <c r="F199" s="21">
         <f t="shared" si="57"/>
-        <v>0.89999999999999991</v>
+        <v>1.0159722222222221</v>
       </c>
       <c r="G199" s="15">
         <f t="shared" si="58"/>
-        <v>0.89999999999999991</v>
+        <v>1.0159722222222221</v>
       </c>
       <c r="H199" s="15">
         <f t="shared" si="59"/>
-        <v>2.9625000000000012</v>
+        <v>3.0784722222222234</v>
       </c>
       <c r="I199" s="23">
         <f t="shared" si="60"/>
-        <v>12087.000000000004</v>
+        <v>12560.16666666667</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B200" s="56"/>
+      <c r="C200" s="4">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D200" s="18">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="E200" s="20">
+        <f t="shared" ref="E200:E217" si="61">D200-C200</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F200" s="21">
+        <f t="shared" ref="F200:F217" si="62">F199+E200</f>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="G200" s="15">
+        <f t="shared" ref="G200:G217" si="63">F200</f>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="H200" s="15">
+        <f t="shared" ref="H200:H217" si="64">(H199+G200-G199)</f>
+        <v>3.1409722222222229</v>
+      </c>
+      <c r="I200" s="23">
+        <f t="shared" ref="I200:I217" si="65">H200*24*$J$32</f>
+        <v>12815.16666666667</v>
+      </c>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C201" s="4"/>
+      <c r="D201" s="18"/>
+      <c r="E201" s="20">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="F201" s="21">
+        <f t="shared" si="62"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="G201" s="15">
+        <f t="shared" si="63"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="H201" s="15">
+        <f t="shared" si="64"/>
+        <v>3.1409722222222229</v>
+      </c>
+      <c r="I201" s="23">
+        <f t="shared" si="65"/>
+        <v>12815.16666666667</v>
+      </c>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C202" s="4"/>
+      <c r="D202" s="18"/>
+      <c r="E202" s="20">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="F202" s="21">
+        <f t="shared" si="62"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="G202" s="15">
+        <f t="shared" si="63"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="H202" s="15">
+        <f t="shared" si="64"/>
+        <v>3.1409722222222229</v>
+      </c>
+      <c r="I202" s="23">
+        <f t="shared" si="65"/>
+        <v>12815.16666666667</v>
+      </c>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C203" s="4"/>
+      <c r="D203" s="18"/>
+      <c r="E203" s="20">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="F203" s="21">
+        <f t="shared" si="62"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="G203" s="15">
+        <f t="shared" si="63"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="H203" s="15">
+        <f t="shared" si="64"/>
+        <v>3.1409722222222229</v>
+      </c>
+      <c r="I203" s="23">
+        <f t="shared" si="65"/>
+        <v>12815.16666666667</v>
+      </c>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C204" s="4"/>
+      <c r="D204" s="18"/>
+      <c r="E204" s="20">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="F204" s="21">
+        <f t="shared" si="62"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="G204" s="15">
+        <f t="shared" si="63"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="H204" s="15">
+        <f t="shared" si="64"/>
+        <v>3.1409722222222229</v>
+      </c>
+      <c r="I204" s="23">
+        <f t="shared" si="65"/>
+        <v>12815.16666666667</v>
+      </c>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C205" s="4"/>
+      <c r="D205" s="18"/>
+      <c r="E205" s="20">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="F205" s="21">
+        <f t="shared" si="62"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="G205" s="15">
+        <f t="shared" si="63"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="H205" s="15">
+        <f t="shared" si="64"/>
+        <v>3.1409722222222229</v>
+      </c>
+      <c r="I205" s="23">
+        <f t="shared" si="65"/>
+        <v>12815.16666666667</v>
+      </c>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C206" s="4"/>
+      <c r="D206" s="18"/>
+      <c r="E206" s="20">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="F206" s="21">
+        <f t="shared" si="62"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="G206" s="15">
+        <f t="shared" si="63"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="H206" s="15">
+        <f t="shared" si="64"/>
+        <v>3.1409722222222229</v>
+      </c>
+      <c r="I206" s="23">
+        <f t="shared" si="65"/>
+        <v>12815.16666666667</v>
+      </c>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C207" s="4"/>
+      <c r="D207" s="18"/>
+      <c r="E207" s="20">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="F207" s="21">
+        <f t="shared" si="62"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="G207" s="15">
+        <f t="shared" si="63"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="H207" s="15">
+        <f t="shared" si="64"/>
+        <v>3.1409722222222229</v>
+      </c>
+      <c r="I207" s="23">
+        <f t="shared" si="65"/>
+        <v>12815.16666666667</v>
+      </c>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C208" s="4"/>
+      <c r="D208" s="18"/>
+      <c r="E208" s="20">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="F208" s="21">
+        <f t="shared" si="62"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="G208" s="15">
+        <f t="shared" si="63"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="H208" s="15">
+        <f t="shared" si="64"/>
+        <v>3.1409722222222229</v>
+      </c>
+      <c r="I208" s="23">
+        <f t="shared" si="65"/>
+        <v>12815.16666666667</v>
+      </c>
+    </row>
+    <row r="209" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C209" s="4"/>
+      <c r="D209" s="18"/>
+      <c r="E209" s="20">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="F209" s="21">
+        <f t="shared" si="62"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="G209" s="15">
+        <f t="shared" si="63"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="H209" s="15">
+        <f t="shared" si="64"/>
+        <v>3.1409722222222229</v>
+      </c>
+      <c r="I209" s="23">
+        <f t="shared" si="65"/>
+        <v>12815.16666666667</v>
+      </c>
+    </row>
+    <row r="210" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C210" s="4"/>
+      <c r="D210" s="18"/>
+      <c r="E210" s="20">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="F210" s="21">
+        <f t="shared" si="62"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="G210" s="15">
+        <f t="shared" si="63"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="H210" s="15">
+        <f t="shared" si="64"/>
+        <v>3.1409722222222229</v>
+      </c>
+      <c r="I210" s="23">
+        <f t="shared" si="65"/>
+        <v>12815.16666666667</v>
+      </c>
+    </row>
+    <row r="211" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C211" s="4"/>
+      <c r="D211" s="18"/>
+      <c r="E211" s="20">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="F211" s="21">
+        <f t="shared" si="62"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="G211" s="15">
+        <f t="shared" si="63"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="H211" s="15">
+        <f t="shared" si="64"/>
+        <v>3.1409722222222229</v>
+      </c>
+      <c r="I211" s="23">
+        <f t="shared" si="65"/>
+        <v>12815.16666666667</v>
+      </c>
+    </row>
+    <row r="212" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C212" s="4"/>
+      <c r="D212" s="18"/>
+      <c r="E212" s="20">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="F212" s="21">
+        <f t="shared" si="62"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="G212" s="15">
+        <f t="shared" si="63"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="H212" s="15">
+        <f t="shared" si="64"/>
+        <v>3.1409722222222229</v>
+      </c>
+      <c r="I212" s="23">
+        <f t="shared" si="65"/>
+        <v>12815.16666666667</v>
+      </c>
+    </row>
+    <row r="213" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C213" s="4"/>
+      <c r="D213" s="18"/>
+      <c r="E213" s="20">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="F213" s="21">
+        <f t="shared" si="62"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="G213" s="15">
+        <f t="shared" si="63"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="H213" s="15">
+        <f t="shared" si="64"/>
+        <v>3.1409722222222229</v>
+      </c>
+      <c r="I213" s="23">
+        <f t="shared" si="65"/>
+        <v>12815.16666666667</v>
+      </c>
+    </row>
+    <row r="214" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C214" s="4"/>
+      <c r="D214" s="18"/>
+      <c r="E214" s="20">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="F214" s="21">
+        <f t="shared" si="62"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="G214" s="15">
+        <f t="shared" si="63"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="H214" s="15">
+        <f t="shared" si="64"/>
+        <v>3.1409722222222229</v>
+      </c>
+      <c r="I214" s="23">
+        <f t="shared" si="65"/>
+        <v>12815.16666666667</v>
+      </c>
+    </row>
+    <row r="215" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C215" s="4"/>
+      <c r="D215" s="18"/>
+      <c r="E215" s="20">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="F215" s="21">
+        <f t="shared" si="62"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="G215" s="15">
+        <f t="shared" si="63"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="H215" s="15">
+        <f t="shared" si="64"/>
+        <v>3.1409722222222229</v>
+      </c>
+      <c r="I215" s="23">
+        <f t="shared" si="65"/>
+        <v>12815.16666666667</v>
+      </c>
+    </row>
+    <row r="216" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C216" s="4"/>
+      <c r="D216" s="18"/>
+      <c r="E216" s="20">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="F216" s="21">
+        <f t="shared" si="62"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="G216" s="15">
+        <f t="shared" si="63"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="H216" s="15">
+        <f t="shared" si="64"/>
+        <v>3.1409722222222229</v>
+      </c>
+      <c r="I216" s="23">
+        <f t="shared" si="65"/>
+        <v>12815.16666666667</v>
+      </c>
+    </row>
+    <row r="217" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C217" s="4"/>
+      <c r="D217" s="18"/>
+      <c r="E217" s="20">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="F217" s="21">
+        <f t="shared" si="62"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="G217" s="15">
+        <f t="shared" si="63"/>
+        <v>1.0784722222222221</v>
+      </c>
+      <c r="H217" s="15">
+        <f t="shared" si="64"/>
+        <v>3.1409722222222229</v>
+      </c>
+      <c r="I217" s="23">
+        <f t="shared" si="65"/>
+        <v>12815.16666666667</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="51">
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B164:B170"/>
+    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="B156:B162"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
     <mergeCell ref="B188:B192"/>
     <mergeCell ref="B146:B149"/>
     <mergeCell ref="B75:B78"/>
@@ -6990,40 +7474,6 @@
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="B109:B113"/>
     <mergeCell ref="B90:B94"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B151:B155"/>
-    <mergeCell ref="B156:B162"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="K13:K17"/>
-    <mergeCell ref="K18:K22"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B47:B53"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="B178:B183"/>
-    <mergeCell ref="B184:B187"/>
-    <mergeCell ref="B164:B170"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E5DE61-93C9-4FD2-9C43-0E822B9CF30C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE6D5CB-5DA1-4377-B20B-8C3BC65A6FCE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="1305" windowWidth="14670" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
   <si>
     <t>Vektorizace, první sada</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>11.2.</t>
+  </si>
+  <si>
+    <t>12.2.</t>
   </si>
 </sst>
 </file>
@@ -750,8 +753,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -759,14 +768,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1109,7 +1112,7 @@
   <dimension ref="A1:X217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="B195" sqref="B195:B200"/>
+      <selection activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,10 +1134,10 @@
       <c r="B1" s="51"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="60" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -1155,8 +1158,8 @@
       <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>16716.666666666664</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="62"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
@@ -1352,7 +1355,7 @@
       <c r="X13" s="6"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="58" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="4">
@@ -1382,7 +1385,7 @@
         <v>16915</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="62"/>
+      <c r="K14" s="57"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
@@ -1398,7 +1401,7 @@
       <c r="X14" s="6"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="57"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -1426,7 +1429,7 @@
         <v>17184.166666666664</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="62"/>
+      <c r="K15" s="57"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
@@ -1442,7 +1445,7 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="57"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -1470,7 +1473,7 @@
         <v>17269.166666666664</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="62"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
@@ -1486,7 +1489,7 @@
       <c r="X16" s="6"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="57"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="4">
         <v>0.80208333333333337</v>
       </c>
@@ -1514,7 +1517,7 @@
         <v>17524.166666666664</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="62"/>
+      <c r="K17" s="57"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
@@ -1530,7 +1533,7 @@
       <c r="X17" s="6"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="57"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="4">
         <v>0.875</v>
       </c>
@@ -1558,7 +1561,7 @@
         <v>17651.666666666664</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="62"/>
+      <c r="K18" s="57"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
@@ -1574,7 +1577,7 @@
       <c r="X18" s="6"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="4">
@@ -1604,7 +1607,7 @@
         <v>17878.333333333332</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="62"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
@@ -1620,7 +1623,7 @@
       <c r="X19" s="6"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="57"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>18246.666666666664</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="62"/>
+      <c r="K20" s="57"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
@@ -1664,7 +1667,7 @@
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="57"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1692,7 +1695,7 @@
         <v>18388.333333333332</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="62"/>
+      <c r="K21" s="57"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
@@ -1708,7 +1711,7 @@
       <c r="X21" s="6"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="57"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="4">
         <v>0.75</v>
       </c>
@@ -1736,7 +1739,7 @@
         <v>18515.833333333332</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="62"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="9"/>
@@ -1752,7 +1755,7 @@
       <c r="X22" s="6"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="57"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -1796,7 +1799,7 @@
       <c r="X23" s="6"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="62" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="4">
@@ -1842,7 +1845,7 @@
       <c r="X24" s="6"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="61"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -1886,7 +1889,7 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="61"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1930,7 +1933,7 @@
       <c r="X26" s="6"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="61"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="4">
         <v>0.83333333333333337</v>
       </c>
@@ -1974,7 +1977,7 @@
       <c r="X27" s="6"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="58" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="4">
@@ -2020,7 +2023,7 @@
       <c r="X28" s="6"/>
     </row>
     <row r="29" spans="2:24" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="59"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="27">
         <v>0.61111111111111105</v>
       </c>
@@ -2065,10 +2068,10 @@
       <c r="B31" s="51"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="60" t="s">
+      <c r="E31" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="58" t="s">
+      <c r="F31" s="60" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="17" t="s">
@@ -2089,8 +2092,8 @@
       <c r="D32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="60"/>
-      <c r="F32" s="58"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="12" t="s">
         <v>14</v>
       </c>
@@ -2105,7 +2108,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="58" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="24">
@@ -2136,7 +2139,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="57"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -2165,7 +2168,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="57"/>
+      <c r="B35" s="58"/>
       <c r="C35" s="4">
         <v>0.67013888888888884</v>
       </c>
@@ -2225,7 +2228,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="4">
@@ -2256,7 +2259,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="57"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -2285,7 +2288,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="57"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="4">
         <v>0.77777777777777779</v>
       </c>
@@ -2314,7 +2317,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="57"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="4">
         <v>0.93055555555555547</v>
       </c>
@@ -2343,7 +2346,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="58" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="4">
@@ -2374,7 +2377,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="57"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="4">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -2403,7 +2406,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="57"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="4">
         <v>0.60069444444444442</v>
       </c>
@@ -2432,7 +2435,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="57"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2461,7 +2464,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="57"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="4">
         <v>0.78472222222222221</v>
       </c>
@@ -2490,7 +2493,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="57"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="4">
         <v>0.92708333333333337</v>
       </c>
@@ -2519,7 +2522,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="58" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="4">
@@ -2550,7 +2553,7 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="57"/>
+      <c r="B48" s="58"/>
       <c r="C48" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -2579,7 +2582,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="57"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="4">
         <v>0.74305555555555547</v>
       </c>
@@ -2608,7 +2611,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="57"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="4">
         <v>0.78819444444444453</v>
       </c>
@@ -2637,7 +2640,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="57"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="4">
         <v>0.81597222222222221</v>
       </c>
@@ -2666,7 +2669,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="57"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="4">
         <v>0.89583333333333337</v>
       </c>
@@ -2698,7 +2701,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="57"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="4">
         <v>0.99652777777777779</v>
       </c>
@@ -2730,7 +2733,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="58" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="4">
@@ -2764,7 +2767,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="57"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="4">
         <v>0.19444444444444445</v>
       </c>
@@ -2793,7 +2796,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="57"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="4">
         <v>0.625</v>
       </c>
@@ -2822,7 +2825,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="57"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -2851,7 +2854,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="57"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2880,7 +2883,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="57"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -2940,7 +2943,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="58" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="4">
@@ -2971,7 +2974,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="57"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -3000,7 +3003,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="58" t="s">
         <v>33</v>
       </c>
       <c r="C63" s="4">
@@ -3031,7 +3034,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="57"/>
+      <c r="B64" s="58"/>
       <c r="C64" s="4">
         <v>0.86111111111111116</v>
       </c>
@@ -3060,7 +3063,7 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="57"/>
+      <c r="B65" s="58"/>
       <c r="C65" s="4">
         <v>0.88888888888888884</v>
       </c>
@@ -3089,7 +3092,7 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="57" t="s">
+      <c r="B66" s="58" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="4">
@@ -3120,7 +3123,7 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="57"/>
+      <c r="B67" s="58"/>
       <c r="C67" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -3149,7 +3152,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="57"/>
+      <c r="B68" s="58"/>
       <c r="C68" s="4">
         <v>0.89930555555555547</v>
       </c>
@@ -3178,7 +3181,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="57"/>
+      <c r="B69" s="58"/>
       <c r="C69" s="4">
         <v>0.92361111111111116</v>
       </c>
@@ -3207,7 +3210,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="57" t="s">
+      <c r="B70" s="58" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="4">
@@ -3238,7 +3241,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="57"/>
+      <c r="B71" s="58"/>
       <c r="C71" s="4">
         <v>0.72222222222222221</v>
       </c>
@@ -3298,7 +3301,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="57" t="s">
+      <c r="B73" s="58" t="s">
         <v>37</v>
       </c>
       <c r="C73" s="4">
@@ -3329,7 +3332,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="57"/>
+      <c r="B74" s="58"/>
       <c r="C74" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -3358,7 +3361,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="58" t="s">
         <v>38</v>
       </c>
       <c r="C75" s="4">
@@ -3389,7 +3392,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="57"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -3418,7 +3421,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="57"/>
+      <c r="B77" s="58"/>
       <c r="C77" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -3447,7 +3450,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="57"/>
+      <c r="B78" s="58"/>
       <c r="C78" s="4">
         <v>0.96875</v>
       </c>
@@ -3476,7 +3479,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="57" t="s">
+      <c r="B79" s="58" t="s">
         <v>39</v>
       </c>
       <c r="C79" s="4">
@@ -3510,7 +3513,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="57"/>
+      <c r="B80" s="58"/>
       <c r="C80" s="4">
         <v>0.65625</v>
       </c>
@@ -3539,7 +3542,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="57" t="s">
+      <c r="B81" s="58" t="s">
         <v>41</v>
       </c>
       <c r="C81" s="4">
@@ -3570,7 +3573,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="57"/>
+      <c r="B82" s="58"/>
       <c r="C82" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -3599,7 +3602,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="57"/>
+      <c r="B83" s="58"/>
       <c r="C83" s="4">
         <v>0.69791666666666663</v>
       </c>
@@ -3628,7 +3631,7 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="57" t="s">
+      <c r="B84" s="58" t="s">
         <v>42</v>
       </c>
       <c r="C84" s="4">
@@ -3659,7 +3662,7 @@
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="57"/>
+      <c r="B85" s="58"/>
       <c r="C85" s="4">
         <v>0.61805555555555558</v>
       </c>
@@ -3688,7 +3691,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="57"/>
+      <c r="B86" s="58"/>
       <c r="C86" s="4">
         <v>0.86805555555555547</v>
       </c>
@@ -3717,7 +3720,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="57" t="s">
+      <c r="B87" s="58" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="4">
@@ -3748,7 +3751,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="57"/>
+      <c r="B88" s="58"/>
       <c r="C88" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -3808,7 +3811,7 @@
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="57" t="s">
+      <c r="B90" s="58" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="4">
@@ -3839,7 +3842,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="57"/>
+      <c r="B91" s="58"/>
       <c r="C91" s="4">
         <v>0.3576388888888889</v>
       </c>
@@ -3868,7 +3871,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="57"/>
+      <c r="B92" s="58"/>
       <c r="C92" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -3897,7 +3900,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="57"/>
+      <c r="B93" s="58"/>
       <c r="C93" s="4">
         <v>0.4548611111111111</v>
       </c>
@@ -3926,7 +3929,7 @@
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="57"/>
+      <c r="B94" s="58"/>
       <c r="C94" s="4">
         <v>0.48958333333333331</v>
       </c>
@@ -3955,7 +3958,7 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="57" t="s">
+      <c r="B95" s="58" t="s">
         <v>46</v>
       </c>
       <c r="C95" s="4">
@@ -3986,7 +3989,7 @@
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="57"/>
+      <c r="B96" s="58"/>
       <c r="C96" s="4">
         <v>0.5</v>
       </c>
@@ -4015,7 +4018,7 @@
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="57"/>
+      <c r="B97" s="58"/>
       <c r="C97" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -4044,7 +4047,7 @@
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="57" t="s">
+      <c r="B98" s="58" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="4">
@@ -4075,7 +4078,7 @@
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="57"/>
+      <c r="B99" s="58"/>
       <c r="C99" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4104,7 +4107,7 @@
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="57"/>
+      <c r="B100" s="58"/>
       <c r="C100" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -4133,7 +4136,7 @@
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="57" t="s">
+      <c r="B101" s="58" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="4">
@@ -4164,7 +4167,7 @@
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="57"/>
+      <c r="B102" s="58"/>
       <c r="C102" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4193,7 +4196,7 @@
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="57" t="s">
+      <c r="B103" s="58" t="s">
         <v>50</v>
       </c>
       <c r="C103" s="4">
@@ -4227,7 +4230,7 @@
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="57"/>
+      <c r="B104" s="58"/>
       <c r="C104" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -4256,7 +4259,7 @@
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="57"/>
+      <c r="B105" s="58"/>
       <c r="C105" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -4288,7 +4291,7 @@
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="57"/>
+      <c r="B106" s="58"/>
       <c r="C106" s="4">
         <v>0.70486111111111116</v>
       </c>
@@ -4317,7 +4320,7 @@
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="57" t="s">
+      <c r="B107" s="58" t="s">
         <v>51</v>
       </c>
       <c r="C107" s="4">
@@ -4348,7 +4351,7 @@
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="57"/>
+      <c r="B108" s="58"/>
       <c r="C108" s="4">
         <v>0.98958333333333337</v>
       </c>
@@ -4377,7 +4380,7 @@
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="57" t="s">
+      <c r="B109" s="58" t="s">
         <v>52</v>
       </c>
       <c r="C109" s="4">
@@ -4408,7 +4411,7 @@
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="57"/>
+      <c r="B110" s="58"/>
       <c r="C110" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -4437,7 +4440,7 @@
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="57"/>
+      <c r="B111" s="58"/>
       <c r="C111" s="4">
         <v>0.66319444444444442</v>
       </c>
@@ -4466,7 +4469,7 @@
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="57"/>
+      <c r="B112" s="58"/>
       <c r="C112" s="4">
         <v>0.73958333333333337</v>
       </c>
@@ -4495,7 +4498,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="57"/>
+      <c r="B113" s="58"/>
       <c r="C113" s="4">
         <v>0.80555555555555547</v>
       </c>
@@ -4524,7 +4527,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="57" t="s">
+      <c r="B114" s="58" t="s">
         <v>53</v>
       </c>
       <c r="C114" s="4">
@@ -4555,7 +4558,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="57"/>
+      <c r="B115" s="58"/>
       <c r="C115" s="4">
         <v>0.69097222222222221</v>
       </c>
@@ -4618,7 +4621,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="57" t="s">
+      <c r="B117" s="58" t="s">
         <v>55</v>
       </c>
       <c r="C117" s="4">
@@ -4649,7 +4652,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="57"/>
+      <c r="B118" s="58"/>
       <c r="C118" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4678,7 +4681,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="57"/>
+      <c r="B119" s="58"/>
       <c r="C119" s="4">
         <v>0.59375</v>
       </c>
@@ -4707,7 +4710,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="57"/>
+      <c r="B120" s="58"/>
       <c r="C120" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4736,7 +4739,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="59"/>
+      <c r="B121" s="61"/>
       <c r="C121" s="38">
         <v>0.77777777777777779</v>
       </c>
@@ -4785,10 +4788,10 @@
       <c r="B123" s="51"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
-      <c r="E123" s="60" t="s">
+      <c r="E123" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F123" s="58" t="s">
+      <c r="F123" s="60" t="s">
         <v>18</v>
       </c>
       <c r="G123" s="17" t="s">
@@ -4811,8 +4814,8 @@
       <c r="D124" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="60"/>
-      <c r="F124" s="58"/>
+      <c r="E124" s="59"/>
+      <c r="F124" s="60"/>
       <c r="G124" s="12" t="s">
         <v>14</v>
       </c>
@@ -7014,75 +7017,90 @@
       </c>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C201" s="4"/>
-      <c r="D201" s="18"/>
+      <c r="B201" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C201" s="4">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D201" s="18">
+        <v>0.68055555555555547</v>
+      </c>
       <c r="E201" s="20">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>2.7777777777777679E-2</v>
       </c>
       <c r="F201" s="21">
         <f t="shared" si="62"/>
-        <v>1.0784722222222221</v>
+        <v>1.1062499999999997</v>
       </c>
       <c r="G201" s="15">
         <f t="shared" si="63"/>
-        <v>1.0784722222222221</v>
+        <v>1.1062499999999997</v>
       </c>
       <c r="H201" s="15">
         <f t="shared" si="64"/>
-        <v>3.1409722222222229</v>
+        <v>3.1687500000000006</v>
       </c>
       <c r="I201" s="23">
         <f t="shared" si="65"/>
-        <v>12815.16666666667</v>
+        <v>12928.500000000002</v>
       </c>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C202" s="4"/>
-      <c r="D202" s="18"/>
+      <c r="C202" s="4">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D202" s="18">
+        <v>0.71250000000000002</v>
+      </c>
       <c r="E202" s="20">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1.1111111111111183E-2</v>
       </c>
       <c r="F202" s="21">
         <f t="shared" si="62"/>
-        <v>1.0784722222222221</v>
+        <v>1.1173611111111108</v>
       </c>
       <c r="G202" s="15">
         <f t="shared" si="63"/>
-        <v>1.0784722222222221</v>
+        <v>1.1173611111111108</v>
       </c>
       <c r="H202" s="15">
         <f t="shared" si="64"/>
-        <v>3.1409722222222229</v>
+        <v>3.1798611111111117</v>
       </c>
       <c r="I202" s="23">
         <f t="shared" si="65"/>
-        <v>12815.16666666667</v>
+        <v>12973.833333333336</v>
       </c>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C203" s="4"/>
-      <c r="D203" s="18"/>
+      <c r="C203" s="4">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="D203" s="18">
+        <v>0.74305555555555547</v>
+      </c>
       <c r="E203" s="20">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>2.3611111111111027E-2</v>
       </c>
       <c r="F203" s="21">
         <f t="shared" si="62"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="G203" s="15">
         <f t="shared" si="63"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="H203" s="15">
         <f t="shared" si="64"/>
-        <v>3.1409722222222229</v>
+        <v>3.2034722222222229</v>
       </c>
       <c r="I203" s="23">
         <f t="shared" si="65"/>
-        <v>12815.16666666667</v>
+        <v>13070.16666666667</v>
       </c>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.25">
@@ -7094,19 +7112,19 @@
       </c>
       <c r="F204" s="21">
         <f t="shared" si="62"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="G204" s="15">
         <f t="shared" si="63"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="H204" s="15">
         <f t="shared" si="64"/>
-        <v>3.1409722222222229</v>
+        <v>3.2034722222222234</v>
       </c>
       <c r="I204" s="23">
         <f t="shared" si="65"/>
-        <v>12815.16666666667</v>
+        <v>13070.16666666667</v>
       </c>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.25">
@@ -7118,19 +7136,19 @@
       </c>
       <c r="F205" s="21">
         <f t="shared" si="62"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="G205" s="15">
         <f t="shared" si="63"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="H205" s="15">
         <f t="shared" si="64"/>
-        <v>3.1409722222222229</v>
+        <v>3.2034722222222234</v>
       </c>
       <c r="I205" s="23">
         <f t="shared" si="65"/>
-        <v>12815.16666666667</v>
+        <v>13070.16666666667</v>
       </c>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.25">
@@ -7142,19 +7160,19 @@
       </c>
       <c r="F206" s="21">
         <f t="shared" si="62"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="G206" s="15">
         <f t="shared" si="63"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="H206" s="15">
         <f t="shared" si="64"/>
-        <v>3.1409722222222229</v>
+        <v>3.2034722222222234</v>
       </c>
       <c r="I206" s="23">
         <f t="shared" si="65"/>
-        <v>12815.16666666667</v>
+        <v>13070.16666666667</v>
       </c>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.25">
@@ -7166,19 +7184,19 @@
       </c>
       <c r="F207" s="21">
         <f t="shared" si="62"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="G207" s="15">
         <f t="shared" si="63"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="H207" s="15">
         <f t="shared" si="64"/>
-        <v>3.1409722222222229</v>
+        <v>3.2034722222222234</v>
       </c>
       <c r="I207" s="23">
         <f t="shared" si="65"/>
-        <v>12815.16666666667</v>
+        <v>13070.16666666667</v>
       </c>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.25">
@@ -7190,19 +7208,19 @@
       </c>
       <c r="F208" s="21">
         <f t="shared" si="62"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="G208" s="15">
         <f t="shared" si="63"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="H208" s="15">
         <f t="shared" si="64"/>
-        <v>3.1409722222222229</v>
+        <v>3.2034722222222234</v>
       </c>
       <c r="I208" s="23">
         <f t="shared" si="65"/>
-        <v>12815.16666666667</v>
+        <v>13070.16666666667</v>
       </c>
     </row>
     <row r="209" spans="3:9" x14ac:dyDescent="0.25">
@@ -7214,19 +7232,19 @@
       </c>
       <c r="F209" s="21">
         <f t="shared" si="62"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="G209" s="15">
         <f t="shared" si="63"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="H209" s="15">
         <f t="shared" si="64"/>
-        <v>3.1409722222222229</v>
+        <v>3.2034722222222234</v>
       </c>
       <c r="I209" s="23">
         <f t="shared" si="65"/>
-        <v>12815.16666666667</v>
+        <v>13070.16666666667</v>
       </c>
     </row>
     <row r="210" spans="3:9" x14ac:dyDescent="0.25">
@@ -7238,19 +7256,19 @@
       </c>
       <c r="F210" s="21">
         <f t="shared" si="62"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="G210" s="15">
         <f t="shared" si="63"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="H210" s="15">
         <f t="shared" si="64"/>
-        <v>3.1409722222222229</v>
+        <v>3.2034722222222234</v>
       </c>
       <c r="I210" s="23">
         <f t="shared" si="65"/>
-        <v>12815.16666666667</v>
+        <v>13070.16666666667</v>
       </c>
     </row>
     <row r="211" spans="3:9" x14ac:dyDescent="0.25">
@@ -7262,19 +7280,19 @@
       </c>
       <c r="F211" s="21">
         <f t="shared" si="62"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="G211" s="15">
         <f t="shared" si="63"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="H211" s="15">
         <f t="shared" si="64"/>
-        <v>3.1409722222222229</v>
+        <v>3.2034722222222234</v>
       </c>
       <c r="I211" s="23">
         <f t="shared" si="65"/>
-        <v>12815.16666666667</v>
+        <v>13070.16666666667</v>
       </c>
     </row>
     <row r="212" spans="3:9" x14ac:dyDescent="0.25">
@@ -7286,19 +7304,19 @@
       </c>
       <c r="F212" s="21">
         <f t="shared" si="62"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="G212" s="15">
         <f t="shared" si="63"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="H212" s="15">
         <f t="shared" si="64"/>
-        <v>3.1409722222222229</v>
+        <v>3.2034722222222234</v>
       </c>
       <c r="I212" s="23">
         <f t="shared" si="65"/>
-        <v>12815.16666666667</v>
+        <v>13070.16666666667</v>
       </c>
     </row>
     <row r="213" spans="3:9" x14ac:dyDescent="0.25">
@@ -7310,19 +7328,19 @@
       </c>
       <c r="F213" s="21">
         <f t="shared" si="62"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="G213" s="15">
         <f t="shared" si="63"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="H213" s="15">
         <f t="shared" si="64"/>
-        <v>3.1409722222222229</v>
+        <v>3.2034722222222234</v>
       </c>
       <c r="I213" s="23">
         <f t="shared" si="65"/>
-        <v>12815.16666666667</v>
+        <v>13070.16666666667</v>
       </c>
     </row>
     <row r="214" spans="3:9" x14ac:dyDescent="0.25">
@@ -7334,19 +7352,19 @@
       </c>
       <c r="F214" s="21">
         <f t="shared" si="62"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="G214" s="15">
         <f t="shared" si="63"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="H214" s="15">
         <f t="shared" si="64"/>
-        <v>3.1409722222222229</v>
+        <v>3.2034722222222234</v>
       </c>
       <c r="I214" s="23">
         <f t="shared" si="65"/>
-        <v>12815.16666666667</v>
+        <v>13070.16666666667</v>
       </c>
     </row>
     <row r="215" spans="3:9" x14ac:dyDescent="0.25">
@@ -7358,19 +7376,19 @@
       </c>
       <c r="F215" s="21">
         <f t="shared" si="62"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="G215" s="15">
         <f t="shared" si="63"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="H215" s="15">
         <f t="shared" si="64"/>
-        <v>3.1409722222222229</v>
+        <v>3.2034722222222234</v>
       </c>
       <c r="I215" s="23">
         <f t="shared" si="65"/>
-        <v>12815.16666666667</v>
+        <v>13070.16666666667</v>
       </c>
     </row>
     <row r="216" spans="3:9" x14ac:dyDescent="0.25">
@@ -7382,19 +7400,19 @@
       </c>
       <c r="F216" s="21">
         <f t="shared" si="62"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="G216" s="15">
         <f t="shared" si="63"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="H216" s="15">
         <f t="shared" si="64"/>
-        <v>3.1409722222222229</v>
+        <v>3.2034722222222234</v>
       </c>
       <c r="I216" s="23">
         <f t="shared" si="65"/>
-        <v>12815.16666666667</v>
+        <v>13070.16666666667</v>
       </c>
     </row>
     <row r="217" spans="3:9" x14ac:dyDescent="0.25">
@@ -7406,28 +7424,52 @@
       </c>
       <c r="F217" s="21">
         <f t="shared" si="62"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="G217" s="15">
         <f t="shared" si="63"/>
-        <v>1.0784722222222221</v>
+        <v>1.1409722222222218</v>
       </c>
       <c r="H217" s="15">
         <f t="shared" si="64"/>
-        <v>3.1409722222222229</v>
+        <v>3.2034722222222234</v>
       </c>
       <c r="I217" s="23">
         <f t="shared" si="65"/>
-        <v>12815.16666666667</v>
+        <v>13070.16666666667</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="B178:B183"/>
-    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
     <mergeCell ref="B164:B170"/>
     <mergeCell ref="B151:B155"/>
     <mergeCell ref="B156:B162"/>
@@ -7444,36 +7486,12 @@
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="B70:B71"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="B184:B187"/>
     <mergeCell ref="B188:B192"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="B90:B94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE6D5CB-5DA1-4377-B20B-8C3BC65A6FCE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5628DA01-8CCE-4D7C-81CE-AAEFA6CB33AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="1305" windowWidth="14670" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
   <si>
     <t>Vektorizace, první sada</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>12.2.</t>
+  </si>
+  <si>
+    <t>13.2.</t>
   </si>
 </sst>
 </file>
@@ -753,9 +756,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -770,6 +770,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1112,7 +1115,7 @@
   <dimension ref="A1:X217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="D204" sqref="D204"/>
+      <selection activeCell="D208" sqref="D208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,10 +1137,10 @@
       <c r="B1" s="51"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="59" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -1158,8 +1161,8 @@
       <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
@@ -1339,7 +1342,7 @@
         <v>16716.666666666664</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="57"/>
+      <c r="K13" s="62"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
@@ -1355,7 +1358,7 @@
       <c r="X13" s="6"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="57" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="4">
@@ -1385,7 +1388,7 @@
         <v>16915</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="57"/>
+      <c r="K14" s="62"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
@@ -1401,7 +1404,7 @@
       <c r="X14" s="6"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="58"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -1429,7 +1432,7 @@
         <v>17184.166666666664</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="57"/>
+      <c r="K15" s="62"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
@@ -1445,7 +1448,7 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="58"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>17269.166666666664</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="57"/>
+      <c r="K16" s="62"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
@@ -1489,7 +1492,7 @@
       <c r="X16" s="6"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="58"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="4">
         <v>0.80208333333333337</v>
       </c>
@@ -1517,7 +1520,7 @@
         <v>17524.166666666664</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="57"/>
+      <c r="K17" s="62"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
@@ -1533,7 +1536,7 @@
       <c r="X17" s="6"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="58"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="4">
         <v>0.875</v>
       </c>
@@ -1561,7 +1564,7 @@
         <v>17651.666666666664</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="57"/>
+      <c r="K18" s="62"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
@@ -1577,7 +1580,7 @@
       <c r="X18" s="6"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="57" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="4">
@@ -1607,7 +1610,7 @@
         <v>17878.333333333332</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="57"/>
+      <c r="K19" s="62"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
@@ -1623,7 +1626,7 @@
       <c r="X19" s="6"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="58"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1651,7 +1654,7 @@
         <v>18246.666666666664</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="57"/>
+      <c r="K20" s="62"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
@@ -1667,7 +1670,7 @@
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="58"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1695,7 +1698,7 @@
         <v>18388.333333333332</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="57"/>
+      <c r="K21" s="62"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
@@ -1711,7 +1714,7 @@
       <c r="X21" s="6"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="58"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="4">
         <v>0.75</v>
       </c>
@@ -1739,7 +1742,7 @@
         <v>18515.833333333332</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="57"/>
+      <c r="K22" s="62"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="9"/>
@@ -1755,7 +1758,7 @@
       <c r="X22" s="6"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="58"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -1799,7 +1802,7 @@
       <c r="X23" s="6"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="61" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="4">
@@ -1845,7 +1848,7 @@
       <c r="X24" s="6"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="62"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -1889,7 +1892,7 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="62"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1933,7 +1936,7 @@
       <c r="X26" s="6"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="62"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="4">
         <v>0.83333333333333337</v>
       </c>
@@ -1977,7 +1980,7 @@
       <c r="X27" s="6"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="57" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="4">
@@ -2023,7 +2026,7 @@
       <c r="X28" s="6"/>
     </row>
     <row r="29" spans="2:24" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="61"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="27">
         <v>0.61111111111111105</v>
       </c>
@@ -2068,10 +2071,10 @@
       <c r="B31" s="51"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="59" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="17" t="s">
@@ -2092,8 +2095,8 @@
       <c r="D32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="60"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="59"/>
       <c r="G32" s="12" t="s">
         <v>14</v>
       </c>
@@ -2108,7 +2111,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="57" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="24">
@@ -2139,7 +2142,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="58"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -2168,7 +2171,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="58"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="4">
         <v>0.67013888888888884</v>
       </c>
@@ -2228,7 +2231,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="57" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="4">
@@ -2259,7 +2262,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="58"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -2288,7 +2291,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="58"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="4">
         <v>0.77777777777777779</v>
       </c>
@@ -2317,7 +2320,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="58"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="4">
         <v>0.93055555555555547</v>
       </c>
@@ -2346,7 +2349,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="57" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="4">
@@ -2377,7 +2380,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="58"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="4">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -2406,7 +2409,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="58"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="4">
         <v>0.60069444444444442</v>
       </c>
@@ -2435,7 +2438,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="58"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2464,7 +2467,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="58"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="4">
         <v>0.78472222222222221</v>
       </c>
@@ -2493,7 +2496,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="58"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="4">
         <v>0.92708333333333337</v>
       </c>
@@ -2522,7 +2525,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="57" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="4">
@@ -2553,7 +2556,7 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="58"/>
+      <c r="B48" s="57"/>
       <c r="C48" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -2582,7 +2585,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="58"/>
+      <c r="B49" s="57"/>
       <c r="C49" s="4">
         <v>0.74305555555555547</v>
       </c>
@@ -2611,7 +2614,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="58"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="4">
         <v>0.78819444444444453</v>
       </c>
@@ -2640,7 +2643,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="58"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="4">
         <v>0.81597222222222221</v>
       </c>
@@ -2669,7 +2672,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="58"/>
+      <c r="B52" s="57"/>
       <c r="C52" s="4">
         <v>0.89583333333333337</v>
       </c>
@@ -2701,7 +2704,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="58"/>
+      <c r="B53" s="57"/>
       <c r="C53" s="4">
         <v>0.99652777777777779</v>
       </c>
@@ -2733,7 +2736,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="57" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="4">
@@ -2767,7 +2770,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="58"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="4">
         <v>0.19444444444444445</v>
       </c>
@@ -2796,7 +2799,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="58"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="4">
         <v>0.625</v>
       </c>
@@ -2825,7 +2828,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="58"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -2854,7 +2857,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="58"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2883,7 +2886,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="58"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -2943,7 +2946,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="57" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="4">
@@ -2974,7 +2977,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="58"/>
+      <c r="B62" s="57"/>
       <c r="C62" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -3003,7 +3006,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="58" t="s">
+      <c r="B63" s="57" t="s">
         <v>33</v>
       </c>
       <c r="C63" s="4">
@@ -3034,7 +3037,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="58"/>
+      <c r="B64" s="57"/>
       <c r="C64" s="4">
         <v>0.86111111111111116</v>
       </c>
@@ -3063,7 +3066,7 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="58"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="4">
         <v>0.88888888888888884</v>
       </c>
@@ -3092,7 +3095,7 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="58" t="s">
+      <c r="B66" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="4">
@@ -3123,7 +3126,7 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="58"/>
+      <c r="B67" s="57"/>
       <c r="C67" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -3152,7 +3155,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="58"/>
+      <c r="B68" s="57"/>
       <c r="C68" s="4">
         <v>0.89930555555555547</v>
       </c>
@@ -3181,7 +3184,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="58"/>
+      <c r="B69" s="57"/>
       <c r="C69" s="4">
         <v>0.92361111111111116</v>
       </c>
@@ -3210,7 +3213,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="57" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="4">
@@ -3241,7 +3244,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="58"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="4">
         <v>0.72222222222222221</v>
       </c>
@@ -3301,7 +3304,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="58" t="s">
+      <c r="B73" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C73" s="4">
@@ -3332,7 +3335,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="58"/>
+      <c r="B74" s="57"/>
       <c r="C74" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -3361,7 +3364,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="57" t="s">
         <v>38</v>
       </c>
       <c r="C75" s="4">
@@ -3392,7 +3395,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="58"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -3421,7 +3424,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="58"/>
+      <c r="B77" s="57"/>
       <c r="C77" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -3450,7 +3453,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="58"/>
+      <c r="B78" s="57"/>
       <c r="C78" s="4">
         <v>0.96875</v>
       </c>
@@ -3479,7 +3482,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="58" t="s">
+      <c r="B79" s="57" t="s">
         <v>39</v>
       </c>
       <c r="C79" s="4">
@@ -3513,7 +3516,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="58"/>
+      <c r="B80" s="57"/>
       <c r="C80" s="4">
         <v>0.65625</v>
       </c>
@@ -3542,7 +3545,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="58" t="s">
+      <c r="B81" s="57" t="s">
         <v>41</v>
       </c>
       <c r="C81" s="4">
@@ -3573,7 +3576,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="58"/>
+      <c r="B82" s="57"/>
       <c r="C82" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -3602,7 +3605,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="58"/>
+      <c r="B83" s="57"/>
       <c r="C83" s="4">
         <v>0.69791666666666663</v>
       </c>
@@ -3631,7 +3634,7 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="58" t="s">
+      <c r="B84" s="57" t="s">
         <v>42</v>
       </c>
       <c r="C84" s="4">
@@ -3662,7 +3665,7 @@
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="58"/>
+      <c r="B85" s="57"/>
       <c r="C85" s="4">
         <v>0.61805555555555558</v>
       </c>
@@ -3691,7 +3694,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="58"/>
+      <c r="B86" s="57"/>
       <c r="C86" s="4">
         <v>0.86805555555555547</v>
       </c>
@@ -3720,7 +3723,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="58" t="s">
+      <c r="B87" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="4">
@@ -3751,7 +3754,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="58"/>
+      <c r="B88" s="57"/>
       <c r="C88" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -3811,7 +3814,7 @@
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="58" t="s">
+      <c r="B90" s="57" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="4">
@@ -3842,7 +3845,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="58"/>
+      <c r="B91" s="57"/>
       <c r="C91" s="4">
         <v>0.3576388888888889</v>
       </c>
@@ -3871,7 +3874,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="58"/>
+      <c r="B92" s="57"/>
       <c r="C92" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -3900,7 +3903,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="58"/>
+      <c r="B93" s="57"/>
       <c r="C93" s="4">
         <v>0.4548611111111111</v>
       </c>
@@ -3929,7 +3932,7 @@
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="58"/>
+      <c r="B94" s="57"/>
       <c r="C94" s="4">
         <v>0.48958333333333331</v>
       </c>
@@ -3958,7 +3961,7 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="58" t="s">
+      <c r="B95" s="57" t="s">
         <v>46</v>
       </c>
       <c r="C95" s="4">
@@ -3989,7 +3992,7 @@
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="58"/>
+      <c r="B96" s="57"/>
       <c r="C96" s="4">
         <v>0.5</v>
       </c>
@@ -4018,7 +4021,7 @@
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="58"/>
+      <c r="B97" s="57"/>
       <c r="C97" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -4047,7 +4050,7 @@
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="58" t="s">
+      <c r="B98" s="57" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="4">
@@ -4078,7 +4081,7 @@
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="58"/>
+      <c r="B99" s="57"/>
       <c r="C99" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4107,7 +4110,7 @@
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="58"/>
+      <c r="B100" s="57"/>
       <c r="C100" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -4136,7 +4139,7 @@
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="58" t="s">
+      <c r="B101" s="57" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="4">
@@ -4167,7 +4170,7 @@
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="58"/>
+      <c r="B102" s="57"/>
       <c r="C102" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4196,7 +4199,7 @@
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="58" t="s">
+      <c r="B103" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C103" s="4">
@@ -4230,7 +4233,7 @@
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="58"/>
+      <c r="B104" s="57"/>
       <c r="C104" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -4259,7 +4262,7 @@
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="58"/>
+      <c r="B105" s="57"/>
       <c r="C105" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -4291,7 +4294,7 @@
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="58"/>
+      <c r="B106" s="57"/>
       <c r="C106" s="4">
         <v>0.70486111111111116</v>
       </c>
@@ -4320,7 +4323,7 @@
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="58" t="s">
+      <c r="B107" s="57" t="s">
         <v>51</v>
       </c>
       <c r="C107" s="4">
@@ -4351,7 +4354,7 @@
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="58"/>
+      <c r="B108" s="57"/>
       <c r="C108" s="4">
         <v>0.98958333333333337</v>
       </c>
@@ -4380,7 +4383,7 @@
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="58" t="s">
+      <c r="B109" s="57" t="s">
         <v>52</v>
       </c>
       <c r="C109" s="4">
@@ -4411,7 +4414,7 @@
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="58"/>
+      <c r="B110" s="57"/>
       <c r="C110" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -4440,7 +4443,7 @@
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="58"/>
+      <c r="B111" s="57"/>
       <c r="C111" s="4">
         <v>0.66319444444444442</v>
       </c>
@@ -4469,7 +4472,7 @@
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="58"/>
+      <c r="B112" s="57"/>
       <c r="C112" s="4">
         <v>0.73958333333333337</v>
       </c>
@@ -4498,7 +4501,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="58"/>
+      <c r="B113" s="57"/>
       <c r="C113" s="4">
         <v>0.80555555555555547</v>
       </c>
@@ -4527,7 +4530,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="58" t="s">
+      <c r="B114" s="57" t="s">
         <v>53</v>
       </c>
       <c r="C114" s="4">
@@ -4558,7 +4561,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="58"/>
+      <c r="B115" s="57"/>
       <c r="C115" s="4">
         <v>0.69097222222222221</v>
       </c>
@@ -4621,7 +4624,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="58" t="s">
+      <c r="B117" s="57" t="s">
         <v>55</v>
       </c>
       <c r="C117" s="4">
@@ -4652,7 +4655,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="58"/>
+      <c r="B118" s="57"/>
       <c r="C118" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4681,7 +4684,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="58"/>
+      <c r="B119" s="57"/>
       <c r="C119" s="4">
         <v>0.59375</v>
       </c>
@@ -4710,7 +4713,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="58"/>
+      <c r="B120" s="57"/>
       <c r="C120" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4739,7 +4742,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="61"/>
+      <c r="B121" s="60"/>
       <c r="C121" s="38">
         <v>0.77777777777777779</v>
       </c>
@@ -4788,10 +4791,10 @@
       <c r="B123" s="51"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
-      <c r="E123" s="59" t="s">
+      <c r="E123" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F123" s="60" t="s">
+      <c r="F123" s="59" t="s">
         <v>18</v>
       </c>
       <c r="G123" s="17" t="s">
@@ -4814,8 +4817,8 @@
       <c r="D124" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="59"/>
-      <c r="F124" s="60"/>
+      <c r="E124" s="58"/>
+      <c r="F124" s="59"/>
       <c r="G124" s="12" t="s">
         <v>14</v>
       </c>
@@ -7017,7 +7020,7 @@
       </c>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B201" s="49" t="s">
+      <c r="B201" s="56" t="s">
         <v>83</v>
       </c>
       <c r="C201" s="4">
@@ -7048,6 +7051,7 @@
       </c>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B202" s="56"/>
       <c r="C202" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -7076,6 +7080,7 @@
       </c>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B203" s="56"/>
       <c r="C203" s="4">
         <v>0.71944444444444444</v>
       </c>
@@ -7104,99 +7109,118 @@
       </c>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C204" s="4"/>
-      <c r="D204" s="18"/>
+      <c r="B204" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C204" s="4">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="D204" s="18">
+        <v>0.55763888888888891</v>
+      </c>
       <c r="E204" s="20">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1.9444444444444486E-2</v>
       </c>
       <c r="F204" s="21">
         <f t="shared" si="62"/>
-        <v>1.1409722222222218</v>
+        <v>1.1604166666666664</v>
       </c>
       <c r="G204" s="15">
         <f t="shared" si="63"/>
-        <v>1.1409722222222218</v>
+        <v>1.1604166666666664</v>
       </c>
       <c r="H204" s="15">
         <f t="shared" si="64"/>
-        <v>3.2034722222222234</v>
+        <v>3.2229166666666673</v>
       </c>
       <c r="I204" s="23">
         <f t="shared" si="65"/>
-        <v>13070.16666666667</v>
+        <v>13149.500000000004</v>
       </c>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C205" s="4"/>
-      <c r="D205" s="18"/>
+      <c r="C205" s="4">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="D205" s="18">
+        <v>0.63750000000000007</v>
+      </c>
       <c r="E205" s="20">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>6.8055555555555647E-2</v>
       </c>
       <c r="F205" s="21">
         <f t="shared" si="62"/>
-        <v>1.1409722222222218</v>
+        <v>1.228472222222222</v>
       </c>
       <c r="G205" s="15">
         <f t="shared" si="63"/>
-        <v>1.1409722222222218</v>
+        <v>1.228472222222222</v>
       </c>
       <c r="H205" s="15">
         <f t="shared" si="64"/>
-        <v>3.2034722222222234</v>
+        <v>3.2909722222222229</v>
       </c>
       <c r="I205" s="23">
         <f t="shared" si="65"/>
-        <v>13070.16666666667</v>
+        <v>13427.16666666667</v>
       </c>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C206" s="4"/>
-      <c r="D206" s="18"/>
+      <c r="C206" s="4">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="D206" s="18">
+        <v>0.65347222222222223</v>
+      </c>
       <c r="E206" s="20">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>4.8611111111110938E-3</v>
       </c>
       <c r="F206" s="21">
         <f t="shared" si="62"/>
-        <v>1.1409722222222218</v>
+        <v>1.2333333333333329</v>
       </c>
       <c r="G206" s="15">
         <f t="shared" si="63"/>
-        <v>1.1409722222222218</v>
+        <v>1.2333333333333329</v>
       </c>
       <c r="H206" s="15">
         <f t="shared" si="64"/>
-        <v>3.2034722222222234</v>
+        <v>3.2958333333333334</v>
       </c>
       <c r="I206" s="23">
         <f t="shared" si="65"/>
-        <v>13070.16666666667</v>
+        <v>13446.999999999998</v>
       </c>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C207" s="4"/>
-      <c r="D207" s="18"/>
+      <c r="C207" s="4">
+        <v>0.65694444444444444</v>
+      </c>
+      <c r="D207" s="18">
+        <v>0.66736111111111107</v>
+      </c>
       <c r="E207" s="20">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="F207" s="21">
         <f t="shared" si="62"/>
-        <v>1.1409722222222218</v>
+        <v>1.2437499999999995</v>
       </c>
       <c r="G207" s="15">
         <f t="shared" si="63"/>
-        <v>1.1409722222222218</v>
+        <v>1.2437499999999995</v>
       </c>
       <c r="H207" s="15">
         <f t="shared" si="64"/>
-        <v>3.2034722222222234</v>
+        <v>3.3062499999999999</v>
       </c>
       <c r="I207" s="23">
         <f t="shared" si="65"/>
-        <v>13070.16666666667</v>
+        <v>13489.499999999998</v>
       </c>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.25">
@@ -7208,19 +7232,19 @@
       </c>
       <c r="F208" s="21">
         <f t="shared" si="62"/>
-        <v>1.1409722222222218</v>
+        <v>1.2437499999999995</v>
       </c>
       <c r="G208" s="15">
         <f t="shared" si="63"/>
-        <v>1.1409722222222218</v>
+        <v>1.2437499999999995</v>
       </c>
       <c r="H208" s="15">
         <f t="shared" si="64"/>
-        <v>3.2034722222222234</v>
+        <v>3.3062499999999995</v>
       </c>
       <c r="I208" s="23">
         <f t="shared" si="65"/>
-        <v>13070.16666666667</v>
+        <v>13489.499999999998</v>
       </c>
     </row>
     <row r="209" spans="3:9" x14ac:dyDescent="0.25">
@@ -7232,19 +7256,19 @@
       </c>
       <c r="F209" s="21">
         <f t="shared" si="62"/>
-        <v>1.1409722222222218</v>
+        <v>1.2437499999999995</v>
       </c>
       <c r="G209" s="15">
         <f t="shared" si="63"/>
-        <v>1.1409722222222218</v>
+        <v>1.2437499999999995</v>
       </c>
       <c r="H209" s="15">
         <f t="shared" si="64"/>
-        <v>3.2034722222222234</v>
+        <v>3.3062499999999995</v>
       </c>
       <c r="I209" s="23">
         <f t="shared" si="65"/>
-        <v>13070.16666666667</v>
+        <v>13489.499999999998</v>
       </c>
     </row>
     <row r="210" spans="3:9" x14ac:dyDescent="0.25">
@@ -7256,19 +7280,19 @@
       </c>
       <c r="F210" s="21">
         <f t="shared" si="62"/>
-        <v>1.1409722222222218</v>
+        <v>1.2437499999999995</v>
       </c>
       <c r="G210" s="15">
         <f t="shared" si="63"/>
-        <v>1.1409722222222218</v>
+        <v>1.2437499999999995</v>
       </c>
       <c r="H210" s="15">
         <f t="shared" si="64"/>
-        <v>3.2034722222222234</v>
+        <v>3.3062499999999995</v>
       </c>
       <c r="I210" s="23">
         <f t="shared" si="65"/>
-        <v>13070.16666666667</v>
+        <v>13489.499999999998</v>
       </c>
     </row>
     <row r="211" spans="3:9" x14ac:dyDescent="0.25">
@@ -7280,19 +7304,19 @@
       </c>
       <c r="F211" s="21">
         <f t="shared" si="62"/>
-        <v>1.1409722222222218</v>
+        <v>1.2437499999999995</v>
       </c>
       <c r="G211" s="15">
         <f t="shared" si="63"/>
-        <v>1.1409722222222218</v>
+        <v>1.2437499999999995</v>
       </c>
       <c r="H211" s="15">
         <f t="shared" si="64"/>
-        <v>3.2034722222222234</v>
+        <v>3.3062499999999995</v>
       </c>
       <c r="I211" s="23">
         <f t="shared" si="65"/>
-        <v>13070.16666666667</v>
+        <v>13489.499999999998</v>
       </c>
     </row>
     <row r="212" spans="3:9" x14ac:dyDescent="0.25">
@@ -7304,19 +7328,19 @@
       </c>
       <c r="F212" s="21">
         <f t="shared" si="62"/>
-        <v>1.1409722222222218</v>
+        <v>1.2437499999999995</v>
       </c>
       <c r="G212" s="15">
         <f t="shared" si="63"/>
-        <v>1.1409722222222218</v>
+        <v>1.2437499999999995</v>
       </c>
       <c r="H212" s="15">
         <f t="shared" si="64"/>
-        <v>3.2034722222222234</v>
+        <v>3.3062499999999995</v>
       </c>
       <c r="I212" s="23">
         <f t="shared" si="65"/>
-        <v>13070.16666666667</v>
+        <v>13489.499999999998</v>
       </c>
     </row>
     <row r="213" spans="3:9" x14ac:dyDescent="0.25">
@@ -7328,19 +7352,19 @@
       </c>
       <c r="F213" s="21">
         <f t="shared" si="62"/>
-        <v>1.1409722222222218</v>
+        <v>1.2437499999999995</v>
       </c>
       <c r="G213" s="15">
         <f t="shared" si="63"/>
-        <v>1.1409722222222218</v>
+        <v>1.2437499999999995</v>
       </c>
       <c r="H213" s="15">
         <f t="shared" si="64"/>
-        <v>3.2034722222222234</v>
+        <v>3.3062499999999995</v>
       </c>
       <c r="I213" s="23">
         <f t="shared" si="65"/>
-        <v>13070.16666666667</v>
+        <v>13489.499999999998</v>
       </c>
     </row>
     <row r="214" spans="3:9" x14ac:dyDescent="0.25">
@@ -7352,19 +7376,19 @@
       </c>
       <c r="F214" s="21">
         <f t="shared" si="62"/>
-        <v>1.1409722222222218</v>
+        <v>1.2437499999999995</v>
       </c>
       <c r="G214" s="15">
         <f t="shared" si="63"/>
-        <v>1.1409722222222218</v>
+        <v>1.2437499999999995</v>
       </c>
       <c r="H214" s="15">
         <f t="shared" si="64"/>
-        <v>3.2034722222222234</v>
+        <v>3.3062499999999995</v>
       </c>
       <c r="I214" s="23">
         <f t="shared" si="65"/>
-        <v>13070.16666666667</v>
+        <v>13489.499999999998</v>
       </c>
     </row>
     <row r="215" spans="3:9" x14ac:dyDescent="0.25">
@@ -7376,19 +7400,19 @@
       </c>
       <c r="F215" s="21">
         <f t="shared" si="62"/>
-        <v>1.1409722222222218</v>
+        <v>1.2437499999999995</v>
       </c>
       <c r="G215" s="15">
         <f t="shared" si="63"/>
-        <v>1.1409722222222218</v>
+        <v>1.2437499999999995</v>
       </c>
       <c r="H215" s="15">
         <f t="shared" si="64"/>
-        <v>3.2034722222222234</v>
+        <v>3.3062499999999995</v>
       </c>
       <c r="I215" s="23">
         <f t="shared" si="65"/>
-        <v>13070.16666666667</v>
+        <v>13489.499999999998</v>
       </c>
     </row>
     <row r="216" spans="3:9" x14ac:dyDescent="0.25">
@@ -7400,19 +7424,19 @@
       </c>
       <c r="F216" s="21">
         <f t="shared" si="62"/>
-        <v>1.1409722222222218</v>
+        <v>1.2437499999999995</v>
       </c>
       <c r="G216" s="15">
         <f t="shared" si="63"/>
-        <v>1.1409722222222218</v>
+        <v>1.2437499999999995</v>
       </c>
       <c r="H216" s="15">
         <f t="shared" si="64"/>
-        <v>3.2034722222222234</v>
+        <v>3.3062499999999995</v>
       </c>
       <c r="I216" s="23">
         <f t="shared" si="65"/>
-        <v>13070.16666666667</v>
+        <v>13489.499999999998</v>
       </c>
     </row>
     <row r="217" spans="3:9" x14ac:dyDescent="0.25">
@@ -7424,52 +7448,30 @@
       </c>
       <c r="F217" s="21">
         <f t="shared" si="62"/>
-        <v>1.1409722222222218</v>
+        <v>1.2437499999999995</v>
       </c>
       <c r="G217" s="15">
         <f t="shared" si="63"/>
-        <v>1.1409722222222218</v>
+        <v>1.2437499999999995</v>
       </c>
       <c r="H217" s="15">
         <f t="shared" si="64"/>
-        <v>3.2034722222222234</v>
+        <v>3.3062499999999995</v>
       </c>
       <c r="I217" s="23">
         <f t="shared" si="65"/>
-        <v>13070.16666666667</v>
+        <v>13489.499999999998</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
+  <mergeCells count="52">
+    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B188:B192"/>
     <mergeCell ref="B164:B170"/>
     <mergeCell ref="B151:B155"/>
     <mergeCell ref="B156:B162"/>
@@ -7486,12 +7488,35 @@
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="B178:B183"/>
-    <mergeCell ref="B184:B187"/>
-    <mergeCell ref="B188:B192"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B90:B94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5628DA01-8CCE-4D7C-81CE-AAEFA6CB33AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACF4BD5-4D7C-43E2-AA3C-2CE7C2A895C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="1305" windowWidth="14670" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -756,6 +756,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -770,9 +773,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:X217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="D208" sqref="D208"/>
+      <selection activeCell="B204" sqref="B204:B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,10 +1137,10 @@
       <c r="B1" s="51"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="60" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -1161,8 +1161,8 @@
       <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>16716.666666666664</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="62"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
@@ -1358,7 +1358,7 @@
       <c r="X13" s="6"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="58" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="4">
@@ -1388,7 +1388,7 @@
         <v>16915</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="62"/>
+      <c r="K14" s="57"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
@@ -1404,7 +1404,7 @@
       <c r="X14" s="6"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="57"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>17184.166666666664</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="62"/>
+      <c r="K15" s="57"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
@@ -1448,7 +1448,7 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="57"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>17269.166666666664</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="62"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
@@ -1492,7 +1492,7 @@
       <c r="X16" s="6"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="57"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="4">
         <v>0.80208333333333337</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>17524.166666666664</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="62"/>
+      <c r="K17" s="57"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
@@ -1536,7 +1536,7 @@
       <c r="X17" s="6"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="57"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="4">
         <v>0.875</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>17651.666666666664</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="62"/>
+      <c r="K18" s="57"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
@@ -1580,7 +1580,7 @@
       <c r="X18" s="6"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="4">
@@ -1610,7 +1610,7 @@
         <v>17878.333333333332</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="62"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
@@ -1626,7 +1626,7 @@
       <c r="X19" s="6"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="57"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>18246.666666666664</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="62"/>
+      <c r="K20" s="57"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
@@ -1670,7 +1670,7 @@
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="57"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>18388.333333333332</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="62"/>
+      <c r="K21" s="57"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
@@ -1714,7 +1714,7 @@
       <c r="X21" s="6"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="57"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="4">
         <v>0.75</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>18515.833333333332</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="62"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="9"/>
@@ -1758,7 +1758,7 @@
       <c r="X22" s="6"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="57"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -1802,7 +1802,7 @@
       <c r="X23" s="6"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="62" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="4">
@@ -1848,7 +1848,7 @@
       <c r="X24" s="6"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="61"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="61"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1936,7 +1936,7 @@
       <c r="X26" s="6"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="61"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="4">
         <v>0.83333333333333337</v>
       </c>
@@ -1980,7 +1980,7 @@
       <c r="X27" s="6"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="58" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="4">
@@ -2026,7 +2026,7 @@
       <c r="X28" s="6"/>
     </row>
     <row r="29" spans="2:24" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="60"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="27">
         <v>0.61111111111111105</v>
       </c>
@@ -2071,10 +2071,10 @@
       <c r="B31" s="51"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="58" t="s">
+      <c r="E31" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="59" t="s">
+      <c r="F31" s="60" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="17" t="s">
@@ -2095,8 +2095,8 @@
       <c r="D32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="12" t="s">
         <v>14</v>
       </c>
@@ -2111,7 +2111,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="58" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="24">
@@ -2142,7 +2142,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="57"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -2171,7 +2171,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="57"/>
+      <c r="B35" s="58"/>
       <c r="C35" s="4">
         <v>0.67013888888888884</v>
       </c>
@@ -2231,7 +2231,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="4">
@@ -2262,7 +2262,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="57"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -2291,7 +2291,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="57"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="4">
         <v>0.77777777777777779</v>
       </c>
@@ -2320,7 +2320,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="57"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="4">
         <v>0.93055555555555547</v>
       </c>
@@ -2349,7 +2349,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="58" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="4">
@@ -2380,7 +2380,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="57"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="4">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -2409,7 +2409,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="57"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="4">
         <v>0.60069444444444442</v>
       </c>
@@ -2438,7 +2438,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="57"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2467,7 +2467,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="57"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="4">
         <v>0.78472222222222221</v>
       </c>
@@ -2496,7 +2496,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="57"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="4">
         <v>0.92708333333333337</v>
       </c>
@@ -2525,7 +2525,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="58" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="4">
@@ -2556,7 +2556,7 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="57"/>
+      <c r="B48" s="58"/>
       <c r="C48" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -2585,7 +2585,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="57"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="4">
         <v>0.74305555555555547</v>
       </c>
@@ -2614,7 +2614,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="57"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="4">
         <v>0.78819444444444453</v>
       </c>
@@ -2643,7 +2643,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="57"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="4">
         <v>0.81597222222222221</v>
       </c>
@@ -2672,7 +2672,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="57"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="4">
         <v>0.89583333333333337</v>
       </c>
@@ -2704,7 +2704,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="57"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="4">
         <v>0.99652777777777779</v>
       </c>
@@ -2736,7 +2736,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="58" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="4">
@@ -2770,7 +2770,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="57"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="4">
         <v>0.19444444444444445</v>
       </c>
@@ -2799,7 +2799,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="57"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="4">
         <v>0.625</v>
       </c>
@@ -2828,7 +2828,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="57"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -2857,7 +2857,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="57"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2886,7 +2886,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="57"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -2946,7 +2946,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="58" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="4">
@@ -2977,7 +2977,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="57"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -3006,7 +3006,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="58" t="s">
         <v>33</v>
       </c>
       <c r="C63" s="4">
@@ -3037,7 +3037,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="57"/>
+      <c r="B64" s="58"/>
       <c r="C64" s="4">
         <v>0.86111111111111116</v>
       </c>
@@ -3066,7 +3066,7 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="57"/>
+      <c r="B65" s="58"/>
       <c r="C65" s="4">
         <v>0.88888888888888884</v>
       </c>
@@ -3095,7 +3095,7 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="57" t="s">
+      <c r="B66" s="58" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="4">
@@ -3126,7 +3126,7 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="57"/>
+      <c r="B67" s="58"/>
       <c r="C67" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -3155,7 +3155,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="57"/>
+      <c r="B68" s="58"/>
       <c r="C68" s="4">
         <v>0.89930555555555547</v>
       </c>
@@ -3184,7 +3184,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="57"/>
+      <c r="B69" s="58"/>
       <c r="C69" s="4">
         <v>0.92361111111111116</v>
       </c>
@@ -3213,7 +3213,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="57" t="s">
+      <c r="B70" s="58" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="4">
@@ -3244,7 +3244,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="57"/>
+      <c r="B71" s="58"/>
       <c r="C71" s="4">
         <v>0.72222222222222221</v>
       </c>
@@ -3304,7 +3304,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="57" t="s">
+      <c r="B73" s="58" t="s">
         <v>37</v>
       </c>
       <c r="C73" s="4">
@@ -3335,7 +3335,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="57"/>
+      <c r="B74" s="58"/>
       <c r="C74" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -3364,7 +3364,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="58" t="s">
         <v>38</v>
       </c>
       <c r="C75" s="4">
@@ -3395,7 +3395,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="57"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -3424,7 +3424,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="57"/>
+      <c r="B77" s="58"/>
       <c r="C77" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -3453,7 +3453,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="57"/>
+      <c r="B78" s="58"/>
       <c r="C78" s="4">
         <v>0.96875</v>
       </c>
@@ -3482,7 +3482,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="57" t="s">
+      <c r="B79" s="58" t="s">
         <v>39</v>
       </c>
       <c r="C79" s="4">
@@ -3516,7 +3516,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="57"/>
+      <c r="B80" s="58"/>
       <c r="C80" s="4">
         <v>0.65625</v>
       </c>
@@ -3545,7 +3545,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="57" t="s">
+      <c r="B81" s="58" t="s">
         <v>41</v>
       </c>
       <c r="C81" s="4">
@@ -3576,7 +3576,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="57"/>
+      <c r="B82" s="58"/>
       <c r="C82" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -3605,7 +3605,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="57"/>
+      <c r="B83" s="58"/>
       <c r="C83" s="4">
         <v>0.69791666666666663</v>
       </c>
@@ -3634,7 +3634,7 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="57" t="s">
+      <c r="B84" s="58" t="s">
         <v>42</v>
       </c>
       <c r="C84" s="4">
@@ -3665,7 +3665,7 @@
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="57"/>
+      <c r="B85" s="58"/>
       <c r="C85" s="4">
         <v>0.61805555555555558</v>
       </c>
@@ -3694,7 +3694,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="57"/>
+      <c r="B86" s="58"/>
       <c r="C86" s="4">
         <v>0.86805555555555547</v>
       </c>
@@ -3723,7 +3723,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="57" t="s">
+      <c r="B87" s="58" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="4">
@@ -3754,7 +3754,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="57"/>
+      <c r="B88" s="58"/>
       <c r="C88" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -3814,7 +3814,7 @@
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="57" t="s">
+      <c r="B90" s="58" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="4">
@@ -3845,7 +3845,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="57"/>
+      <c r="B91" s="58"/>
       <c r="C91" s="4">
         <v>0.3576388888888889</v>
       </c>
@@ -3874,7 +3874,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="57"/>
+      <c r="B92" s="58"/>
       <c r="C92" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -3903,7 +3903,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="57"/>
+      <c r="B93" s="58"/>
       <c r="C93" s="4">
         <v>0.4548611111111111</v>
       </c>
@@ -3932,7 +3932,7 @@
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="57"/>
+      <c r="B94" s="58"/>
       <c r="C94" s="4">
         <v>0.48958333333333331</v>
       </c>
@@ -3961,7 +3961,7 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="57" t="s">
+      <c r="B95" s="58" t="s">
         <v>46</v>
       </c>
       <c r="C95" s="4">
@@ -3992,7 +3992,7 @@
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="57"/>
+      <c r="B96" s="58"/>
       <c r="C96" s="4">
         <v>0.5</v>
       </c>
@@ -4021,7 +4021,7 @@
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="57"/>
+      <c r="B97" s="58"/>
       <c r="C97" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -4050,7 +4050,7 @@
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="57" t="s">
+      <c r="B98" s="58" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="4">
@@ -4081,7 +4081,7 @@
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="57"/>
+      <c r="B99" s="58"/>
       <c r="C99" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4110,7 +4110,7 @@
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="57"/>
+      <c r="B100" s="58"/>
       <c r="C100" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -4139,7 +4139,7 @@
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="57" t="s">
+      <c r="B101" s="58" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="4">
@@ -4170,7 +4170,7 @@
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="57"/>
+      <c r="B102" s="58"/>
       <c r="C102" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4199,7 +4199,7 @@
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="57" t="s">
+      <c r="B103" s="58" t="s">
         <v>50</v>
       </c>
       <c r="C103" s="4">
@@ -4233,7 +4233,7 @@
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="57"/>
+      <c r="B104" s="58"/>
       <c r="C104" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -4262,7 +4262,7 @@
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="57"/>
+      <c r="B105" s="58"/>
       <c r="C105" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -4294,7 +4294,7 @@
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="57"/>
+      <c r="B106" s="58"/>
       <c r="C106" s="4">
         <v>0.70486111111111116</v>
       </c>
@@ -4323,7 +4323,7 @@
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="57" t="s">
+      <c r="B107" s="58" t="s">
         <v>51</v>
       </c>
       <c r="C107" s="4">
@@ -4354,7 +4354,7 @@
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="57"/>
+      <c r="B108" s="58"/>
       <c r="C108" s="4">
         <v>0.98958333333333337</v>
       </c>
@@ -4383,7 +4383,7 @@
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="57" t="s">
+      <c r="B109" s="58" t="s">
         <v>52</v>
       </c>
       <c r="C109" s="4">
@@ -4414,7 +4414,7 @@
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="57"/>
+      <c r="B110" s="58"/>
       <c r="C110" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -4443,7 +4443,7 @@
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="57"/>
+      <c r="B111" s="58"/>
       <c r="C111" s="4">
         <v>0.66319444444444442</v>
       </c>
@@ -4472,7 +4472,7 @@
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="57"/>
+      <c r="B112" s="58"/>
       <c r="C112" s="4">
         <v>0.73958333333333337</v>
       </c>
@@ -4501,7 +4501,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="57"/>
+      <c r="B113" s="58"/>
       <c r="C113" s="4">
         <v>0.80555555555555547</v>
       </c>
@@ -4530,7 +4530,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="57" t="s">
+      <c r="B114" s="58" t="s">
         <v>53</v>
       </c>
       <c r="C114" s="4">
@@ -4561,7 +4561,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="57"/>
+      <c r="B115" s="58"/>
       <c r="C115" s="4">
         <v>0.69097222222222221</v>
       </c>
@@ -4624,7 +4624,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="57" t="s">
+      <c r="B117" s="58" t="s">
         <v>55</v>
       </c>
       <c r="C117" s="4">
@@ -4655,7 +4655,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="57"/>
+      <c r="B118" s="58"/>
       <c r="C118" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4684,7 +4684,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="57"/>
+      <c r="B119" s="58"/>
       <c r="C119" s="4">
         <v>0.59375</v>
       </c>
@@ -4713,7 +4713,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="57"/>
+      <c r="B120" s="58"/>
       <c r="C120" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4742,7 +4742,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="60"/>
+      <c r="B121" s="61"/>
       <c r="C121" s="38">
         <v>0.77777777777777779</v>
       </c>
@@ -4791,10 +4791,10 @@
       <c r="B123" s="51"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
-      <c r="E123" s="58" t="s">
+      <c r="E123" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F123" s="59" t="s">
+      <c r="F123" s="60" t="s">
         <v>18</v>
       </c>
       <c r="G123" s="17" t="s">
@@ -4817,8 +4817,8 @@
       <c r="D124" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="58"/>
-      <c r="F124" s="59"/>
+      <c r="E124" s="59"/>
+      <c r="F124" s="60"/>
       <c r="G124" s="12" t="s">
         <v>14</v>
       </c>
@@ -7109,7 +7109,7 @@
       </c>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B204" s="49" t="s">
+      <c r="B204" s="56" t="s">
         <v>84</v>
       </c>
       <c r="C204" s="4">
@@ -7140,6 +7140,7 @@
       </c>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B205" s="56"/>
       <c r="C205" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -7168,6 +7169,7 @@
       </c>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B206" s="56"/>
       <c r="C206" s="4">
         <v>0.64861111111111114</v>
       </c>
@@ -7196,6 +7198,7 @@
       </c>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B207" s="56"/>
       <c r="C207" s="4">
         <v>0.65694444444444444</v>
       </c>
@@ -7224,54 +7227,64 @@
       </c>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C208" s="4"/>
-      <c r="D208" s="18"/>
+      <c r="B208" s="56"/>
+      <c r="C208" s="4">
+        <v>0.68333333333333324</v>
+      </c>
+      <c r="D208" s="18">
+        <v>0.68819444444444444</v>
+      </c>
       <c r="E208" s="20">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>4.8611111111112049E-3</v>
       </c>
       <c r="F208" s="21">
         <f t="shared" si="62"/>
-        <v>1.2437499999999995</v>
+        <v>1.2486111111111107</v>
       </c>
       <c r="G208" s="15">
         <f t="shared" si="63"/>
-        <v>1.2437499999999995</v>
+        <v>1.2486111111111107</v>
       </c>
       <c r="H208" s="15">
         <f t="shared" si="64"/>
-        <v>3.3062499999999995</v>
+        <v>3.3111111111111109</v>
       </c>
       <c r="I208" s="23">
         <f t="shared" si="65"/>
-        <v>13489.499999999998</v>
-      </c>
-    </row>
-    <row r="209" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C209" s="4"/>
-      <c r="D209" s="18"/>
+        <v>13509.333333333334</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B209" s="56"/>
+      <c r="C209" s="4">
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="D209" s="18">
+        <v>0.7715277777777777</v>
+      </c>
       <c r="E209" s="20">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>5.0694444444444375E-2</v>
       </c>
       <c r="F209" s="21">
         <f t="shared" si="62"/>
-        <v>1.2437499999999995</v>
+        <v>1.299305555555555</v>
       </c>
       <c r="G209" s="15">
         <f t="shared" si="63"/>
-        <v>1.2437499999999995</v>
+        <v>1.299305555555555</v>
       </c>
       <c r="H209" s="15">
         <f t="shared" si="64"/>
-        <v>3.3062499999999995</v>
+        <v>3.3618055555555548</v>
       </c>
       <c r="I209" s="23">
         <f t="shared" si="65"/>
-        <v>13489.499999999998</v>
-      </c>
-    </row>
-    <row r="210" spans="3:9" x14ac:dyDescent="0.25">
+        <v>13716.166666666662</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C210" s="4"/>
       <c r="D210" s="18"/>
       <c r="E210" s="20">
@@ -7280,22 +7293,22 @@
       </c>
       <c r="F210" s="21">
         <f t="shared" si="62"/>
-        <v>1.2437499999999995</v>
+        <v>1.299305555555555</v>
       </c>
       <c r="G210" s="15">
         <f t="shared" si="63"/>
-        <v>1.2437499999999995</v>
+        <v>1.299305555555555</v>
       </c>
       <c r="H210" s="15">
         <f t="shared" si="64"/>
-        <v>3.3062499999999995</v>
+        <v>3.3618055555555548</v>
       </c>
       <c r="I210" s="23">
         <f t="shared" si="65"/>
-        <v>13489.499999999998</v>
-      </c>
-    </row>
-    <row r="211" spans="3:9" x14ac:dyDescent="0.25">
+        <v>13716.166666666662</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C211" s="4"/>
       <c r="D211" s="18"/>
       <c r="E211" s="20">
@@ -7304,22 +7317,22 @@
       </c>
       <c r="F211" s="21">
         <f t="shared" si="62"/>
-        <v>1.2437499999999995</v>
+        <v>1.299305555555555</v>
       </c>
       <c r="G211" s="15">
         <f t="shared" si="63"/>
-        <v>1.2437499999999995</v>
+        <v>1.299305555555555</v>
       </c>
       <c r="H211" s="15">
         <f t="shared" si="64"/>
-        <v>3.3062499999999995</v>
+        <v>3.3618055555555548</v>
       </c>
       <c r="I211" s="23">
         <f t="shared" si="65"/>
-        <v>13489.499999999998</v>
-      </c>
-    </row>
-    <row r="212" spans="3:9" x14ac:dyDescent="0.25">
+        <v>13716.166666666662</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C212" s="4"/>
       <c r="D212" s="18"/>
       <c r="E212" s="20">
@@ -7328,22 +7341,22 @@
       </c>
       <c r="F212" s="21">
         <f t="shared" si="62"/>
-        <v>1.2437499999999995</v>
+        <v>1.299305555555555</v>
       </c>
       <c r="G212" s="15">
         <f t="shared" si="63"/>
-        <v>1.2437499999999995</v>
+        <v>1.299305555555555</v>
       </c>
       <c r="H212" s="15">
         <f t="shared" si="64"/>
-        <v>3.3062499999999995</v>
+        <v>3.3618055555555548</v>
       </c>
       <c r="I212" s="23">
         <f t="shared" si="65"/>
-        <v>13489.499999999998</v>
-      </c>
-    </row>
-    <row r="213" spans="3:9" x14ac:dyDescent="0.25">
+        <v>13716.166666666662</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C213" s="4"/>
       <c r="D213" s="18"/>
       <c r="E213" s="20">
@@ -7352,22 +7365,22 @@
       </c>
       <c r="F213" s="21">
         <f t="shared" si="62"/>
-        <v>1.2437499999999995</v>
+        <v>1.299305555555555</v>
       </c>
       <c r="G213" s="15">
         <f t="shared" si="63"/>
-        <v>1.2437499999999995</v>
+        <v>1.299305555555555</v>
       </c>
       <c r="H213" s="15">
         <f t="shared" si="64"/>
-        <v>3.3062499999999995</v>
+        <v>3.3618055555555548</v>
       </c>
       <c r="I213" s="23">
         <f t="shared" si="65"/>
-        <v>13489.499999999998</v>
-      </c>
-    </row>
-    <row r="214" spans="3:9" x14ac:dyDescent="0.25">
+        <v>13716.166666666662</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C214" s="4"/>
       <c r="D214" s="18"/>
       <c r="E214" s="20">
@@ -7376,22 +7389,22 @@
       </c>
       <c r="F214" s="21">
         <f t="shared" si="62"/>
-        <v>1.2437499999999995</v>
+        <v>1.299305555555555</v>
       </c>
       <c r="G214" s="15">
         <f t="shared" si="63"/>
-        <v>1.2437499999999995</v>
+        <v>1.299305555555555</v>
       </c>
       <c r="H214" s="15">
         <f t="shared" si="64"/>
-        <v>3.3062499999999995</v>
+        <v>3.3618055555555548</v>
       </c>
       <c r="I214" s="23">
         <f t="shared" si="65"/>
-        <v>13489.499999999998</v>
-      </c>
-    </row>
-    <row r="215" spans="3:9" x14ac:dyDescent="0.25">
+        <v>13716.166666666662</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C215" s="4"/>
       <c r="D215" s="18"/>
       <c r="E215" s="20">
@@ -7400,22 +7413,22 @@
       </c>
       <c r="F215" s="21">
         <f t="shared" si="62"/>
-        <v>1.2437499999999995</v>
+        <v>1.299305555555555</v>
       </c>
       <c r="G215" s="15">
         <f t="shared" si="63"/>
-        <v>1.2437499999999995</v>
+        <v>1.299305555555555</v>
       </c>
       <c r="H215" s="15">
         <f t="shared" si="64"/>
-        <v>3.3062499999999995</v>
+        <v>3.3618055555555548</v>
       </c>
       <c r="I215" s="23">
         <f t="shared" si="65"/>
-        <v>13489.499999999998</v>
-      </c>
-    </row>
-    <row r="216" spans="3:9" x14ac:dyDescent="0.25">
+        <v>13716.166666666662</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C216" s="4"/>
       <c r="D216" s="18"/>
       <c r="E216" s="20">
@@ -7424,22 +7437,22 @@
       </c>
       <c r="F216" s="21">
         <f t="shared" si="62"/>
-        <v>1.2437499999999995</v>
+        <v>1.299305555555555</v>
       </c>
       <c r="G216" s="15">
         <f t="shared" si="63"/>
-        <v>1.2437499999999995</v>
+        <v>1.299305555555555</v>
       </c>
       <c r="H216" s="15">
         <f t="shared" si="64"/>
-        <v>3.3062499999999995</v>
+        <v>3.3618055555555548</v>
       </c>
       <c r="I216" s="23">
         <f t="shared" si="65"/>
-        <v>13489.499999999998</v>
-      </c>
-    </row>
-    <row r="217" spans="3:9" x14ac:dyDescent="0.25">
+        <v>13716.166666666662</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C217" s="4"/>
       <c r="D217" s="18"/>
       <c r="E217" s="20">
@@ -7448,30 +7461,53 @@
       </c>
       <c r="F217" s="21">
         <f t="shared" si="62"/>
-        <v>1.2437499999999995</v>
+        <v>1.299305555555555</v>
       </c>
       <c r="G217" s="15">
         <f t="shared" si="63"/>
-        <v>1.2437499999999995</v>
+        <v>1.299305555555555</v>
       </c>
       <c r="H217" s="15">
         <f t="shared" si="64"/>
-        <v>3.3062499999999995</v>
+        <v>3.3618055555555548</v>
       </c>
       <c r="I217" s="23">
         <f t="shared" si="65"/>
-        <v>13489.499999999998</v>
+        <v>13716.166666666662</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="B201:B203"/>
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="B178:B183"/>
-    <mergeCell ref="B184:B187"/>
-    <mergeCell ref="B188:B192"/>
+  <mergeCells count="53">
+    <mergeCell ref="B204:B209"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
     <mergeCell ref="B164:B170"/>
     <mergeCell ref="B151:B155"/>
     <mergeCell ref="B156:B162"/>
@@ -7488,35 +7524,13 @@
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="B70:B71"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B188:B192"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACF4BD5-4D7C-43E2-AA3C-2CE7C2A895C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD69BB32-1208-492C-B39C-850613217B14}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="1305" windowWidth="14670" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
   <si>
     <t>Vektorizace, první sada</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>13.2.</t>
+  </si>
+  <si>
+    <t>14.2.</t>
   </si>
 </sst>
 </file>
@@ -756,9 +759,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -773,6 +773,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1115,7 +1118,7 @@
   <dimension ref="A1:X217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="B204" sqref="B204:B209"/>
+      <selection activeCell="D213" sqref="D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,10 +1140,10 @@
       <c r="B1" s="51"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="59" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -1161,8 +1164,8 @@
       <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
@@ -1342,7 +1345,7 @@
         <v>16716.666666666664</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="57"/>
+      <c r="K13" s="62"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
@@ -1358,7 +1361,7 @@
       <c r="X13" s="6"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="57" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="4">
@@ -1388,7 +1391,7 @@
         <v>16915</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="57"/>
+      <c r="K14" s="62"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
@@ -1404,7 +1407,7 @@
       <c r="X14" s="6"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="58"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -1432,7 +1435,7 @@
         <v>17184.166666666664</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="57"/>
+      <c r="K15" s="62"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
@@ -1448,7 +1451,7 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="58"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -1476,7 +1479,7 @@
         <v>17269.166666666664</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="57"/>
+      <c r="K16" s="62"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
@@ -1492,7 +1495,7 @@
       <c r="X16" s="6"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="58"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="4">
         <v>0.80208333333333337</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>17524.166666666664</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="57"/>
+      <c r="K17" s="62"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
@@ -1536,7 +1539,7 @@
       <c r="X17" s="6"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="58"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="4">
         <v>0.875</v>
       </c>
@@ -1564,7 +1567,7 @@
         <v>17651.666666666664</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="57"/>
+      <c r="K18" s="62"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
@@ -1580,7 +1583,7 @@
       <c r="X18" s="6"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="57" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="4">
@@ -1610,7 +1613,7 @@
         <v>17878.333333333332</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="57"/>
+      <c r="K19" s="62"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
@@ -1626,7 +1629,7 @@
       <c r="X19" s="6"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="58"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>18246.666666666664</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="57"/>
+      <c r="K20" s="62"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
@@ -1670,7 +1673,7 @@
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="58"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1698,7 +1701,7 @@
         <v>18388.333333333332</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="57"/>
+      <c r="K21" s="62"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
@@ -1714,7 +1717,7 @@
       <c r="X21" s="6"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="58"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="4">
         <v>0.75</v>
       </c>
@@ -1742,7 +1745,7 @@
         <v>18515.833333333332</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="57"/>
+      <c r="K22" s="62"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="9"/>
@@ -1758,7 +1761,7 @@
       <c r="X22" s="6"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="58"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -1802,7 +1805,7 @@
       <c r="X23" s="6"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="61" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="4">
@@ -1848,7 +1851,7 @@
       <c r="X24" s="6"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="62"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -1892,7 +1895,7 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="62"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1936,7 +1939,7 @@
       <c r="X26" s="6"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="62"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="4">
         <v>0.83333333333333337</v>
       </c>
@@ -1980,7 +1983,7 @@
       <c r="X27" s="6"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="57" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="4">
@@ -2026,7 +2029,7 @@
       <c r="X28" s="6"/>
     </row>
     <row r="29" spans="2:24" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="61"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="27">
         <v>0.61111111111111105</v>
       </c>
@@ -2071,10 +2074,10 @@
       <c r="B31" s="51"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="59" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="17" t="s">
@@ -2095,8 +2098,8 @@
       <c r="D32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="60"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="59"/>
       <c r="G32" s="12" t="s">
         <v>14</v>
       </c>
@@ -2111,7 +2114,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="57" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="24">
@@ -2142,7 +2145,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="58"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -2171,7 +2174,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="58"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="4">
         <v>0.67013888888888884</v>
       </c>
@@ -2231,7 +2234,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="57" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="4">
@@ -2262,7 +2265,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="58"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -2291,7 +2294,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="58"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="4">
         <v>0.77777777777777779</v>
       </c>
@@ -2320,7 +2323,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="58"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="4">
         <v>0.93055555555555547</v>
       </c>
@@ -2349,7 +2352,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="57" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="4">
@@ -2380,7 +2383,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="58"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="4">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -2409,7 +2412,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="58"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="4">
         <v>0.60069444444444442</v>
       </c>
@@ -2438,7 +2441,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="58"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2467,7 +2470,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="58"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="4">
         <v>0.78472222222222221</v>
       </c>
@@ -2496,7 +2499,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="58"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="4">
         <v>0.92708333333333337</v>
       </c>
@@ -2525,7 +2528,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="57" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="4">
@@ -2556,7 +2559,7 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="58"/>
+      <c r="B48" s="57"/>
       <c r="C48" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -2585,7 +2588,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="58"/>
+      <c r="B49" s="57"/>
       <c r="C49" s="4">
         <v>0.74305555555555547</v>
       </c>
@@ -2614,7 +2617,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="58"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="4">
         <v>0.78819444444444453</v>
       </c>
@@ -2643,7 +2646,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="58"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="4">
         <v>0.81597222222222221</v>
       </c>
@@ -2672,7 +2675,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="58"/>
+      <c r="B52" s="57"/>
       <c r="C52" s="4">
         <v>0.89583333333333337</v>
       </c>
@@ -2704,7 +2707,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="58"/>
+      <c r="B53" s="57"/>
       <c r="C53" s="4">
         <v>0.99652777777777779</v>
       </c>
@@ -2736,7 +2739,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="57" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="4">
@@ -2770,7 +2773,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="58"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="4">
         <v>0.19444444444444445</v>
       </c>
@@ -2799,7 +2802,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="58"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="4">
         <v>0.625</v>
       </c>
@@ -2828,7 +2831,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="58"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -2857,7 +2860,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="58"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2886,7 +2889,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="58"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -2946,7 +2949,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="57" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="4">
@@ -2977,7 +2980,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="58"/>
+      <c r="B62" s="57"/>
       <c r="C62" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -3006,7 +3009,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="58" t="s">
+      <c r="B63" s="57" t="s">
         <v>33</v>
       </c>
       <c r="C63" s="4">
@@ -3037,7 +3040,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="58"/>
+      <c r="B64" s="57"/>
       <c r="C64" s="4">
         <v>0.86111111111111116</v>
       </c>
@@ -3066,7 +3069,7 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="58"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="4">
         <v>0.88888888888888884</v>
       </c>
@@ -3095,7 +3098,7 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="58" t="s">
+      <c r="B66" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="4">
@@ -3126,7 +3129,7 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="58"/>
+      <c r="B67" s="57"/>
       <c r="C67" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -3155,7 +3158,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="58"/>
+      <c r="B68" s="57"/>
       <c r="C68" s="4">
         <v>0.89930555555555547</v>
       </c>
@@ -3184,7 +3187,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="58"/>
+      <c r="B69" s="57"/>
       <c r="C69" s="4">
         <v>0.92361111111111116</v>
       </c>
@@ -3213,7 +3216,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="57" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="4">
@@ -3244,7 +3247,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="58"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="4">
         <v>0.72222222222222221</v>
       </c>
@@ -3304,7 +3307,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="58" t="s">
+      <c r="B73" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C73" s="4">
@@ -3335,7 +3338,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="58"/>
+      <c r="B74" s="57"/>
       <c r="C74" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -3364,7 +3367,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="57" t="s">
         <v>38</v>
       </c>
       <c r="C75" s="4">
@@ -3395,7 +3398,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="58"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -3424,7 +3427,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="58"/>
+      <c r="B77" s="57"/>
       <c r="C77" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -3453,7 +3456,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="58"/>
+      <c r="B78" s="57"/>
       <c r="C78" s="4">
         <v>0.96875</v>
       </c>
@@ -3482,7 +3485,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="58" t="s">
+      <c r="B79" s="57" t="s">
         <v>39</v>
       </c>
       <c r="C79" s="4">
@@ -3516,7 +3519,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="58"/>
+      <c r="B80" s="57"/>
       <c r="C80" s="4">
         <v>0.65625</v>
       </c>
@@ -3545,7 +3548,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="58" t="s">
+      <c r="B81" s="57" t="s">
         <v>41</v>
       </c>
       <c r="C81" s="4">
@@ -3576,7 +3579,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="58"/>
+      <c r="B82" s="57"/>
       <c r="C82" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -3605,7 +3608,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="58"/>
+      <c r="B83" s="57"/>
       <c r="C83" s="4">
         <v>0.69791666666666663</v>
       </c>
@@ -3634,7 +3637,7 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="58" t="s">
+      <c r="B84" s="57" t="s">
         <v>42</v>
       </c>
       <c r="C84" s="4">
@@ -3665,7 +3668,7 @@
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="58"/>
+      <c r="B85" s="57"/>
       <c r="C85" s="4">
         <v>0.61805555555555558</v>
       </c>
@@ -3694,7 +3697,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="58"/>
+      <c r="B86" s="57"/>
       <c r="C86" s="4">
         <v>0.86805555555555547</v>
       </c>
@@ -3723,7 +3726,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="58" t="s">
+      <c r="B87" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="4">
@@ -3754,7 +3757,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="58"/>
+      <c r="B88" s="57"/>
       <c r="C88" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -3814,7 +3817,7 @@
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="58" t="s">
+      <c r="B90" s="57" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="4">
@@ -3845,7 +3848,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="58"/>
+      <c r="B91" s="57"/>
       <c r="C91" s="4">
         <v>0.3576388888888889</v>
       </c>
@@ -3874,7 +3877,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="58"/>
+      <c r="B92" s="57"/>
       <c r="C92" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -3903,7 +3906,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="58"/>
+      <c r="B93" s="57"/>
       <c r="C93" s="4">
         <v>0.4548611111111111</v>
       </c>
@@ -3932,7 +3935,7 @@
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="58"/>
+      <c r="B94" s="57"/>
       <c r="C94" s="4">
         <v>0.48958333333333331</v>
       </c>
@@ -3961,7 +3964,7 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="58" t="s">
+      <c r="B95" s="57" t="s">
         <v>46</v>
       </c>
       <c r="C95" s="4">
@@ -3992,7 +3995,7 @@
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="58"/>
+      <c r="B96" s="57"/>
       <c r="C96" s="4">
         <v>0.5</v>
       </c>
@@ -4021,7 +4024,7 @@
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="58"/>
+      <c r="B97" s="57"/>
       <c r="C97" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -4050,7 +4053,7 @@
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="58" t="s">
+      <c r="B98" s="57" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="4">
@@ -4081,7 +4084,7 @@
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="58"/>
+      <c r="B99" s="57"/>
       <c r="C99" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4110,7 +4113,7 @@
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="58"/>
+      <c r="B100" s="57"/>
       <c r="C100" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -4139,7 +4142,7 @@
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="58" t="s">
+      <c r="B101" s="57" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="4">
@@ -4170,7 +4173,7 @@
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="58"/>
+      <c r="B102" s="57"/>
       <c r="C102" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4199,7 +4202,7 @@
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="58" t="s">
+      <c r="B103" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C103" s="4">
@@ -4233,7 +4236,7 @@
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="58"/>
+      <c r="B104" s="57"/>
       <c r="C104" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -4262,7 +4265,7 @@
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="58"/>
+      <c r="B105" s="57"/>
       <c r="C105" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -4294,7 +4297,7 @@
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="58"/>
+      <c r="B106" s="57"/>
       <c r="C106" s="4">
         <v>0.70486111111111116</v>
       </c>
@@ -4323,7 +4326,7 @@
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="58" t="s">
+      <c r="B107" s="57" t="s">
         <v>51</v>
       </c>
       <c r="C107" s="4">
@@ -4354,7 +4357,7 @@
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="58"/>
+      <c r="B108" s="57"/>
       <c r="C108" s="4">
         <v>0.98958333333333337</v>
       </c>
@@ -4383,7 +4386,7 @@
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="58" t="s">
+      <c r="B109" s="57" t="s">
         <v>52</v>
       </c>
       <c r="C109" s="4">
@@ -4414,7 +4417,7 @@
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="58"/>
+      <c r="B110" s="57"/>
       <c r="C110" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -4443,7 +4446,7 @@
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="58"/>
+      <c r="B111" s="57"/>
       <c r="C111" s="4">
         <v>0.66319444444444442</v>
       </c>
@@ -4472,7 +4475,7 @@
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="58"/>
+      <c r="B112" s="57"/>
       <c r="C112" s="4">
         <v>0.73958333333333337</v>
       </c>
@@ -4501,7 +4504,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="58"/>
+      <c r="B113" s="57"/>
       <c r="C113" s="4">
         <v>0.80555555555555547</v>
       </c>
@@ -4530,7 +4533,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="58" t="s">
+      <c r="B114" s="57" t="s">
         <v>53</v>
       </c>
       <c r="C114" s="4">
@@ -4561,7 +4564,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="58"/>
+      <c r="B115" s="57"/>
       <c r="C115" s="4">
         <v>0.69097222222222221</v>
       </c>
@@ -4624,7 +4627,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="58" t="s">
+      <c r="B117" s="57" t="s">
         <v>55</v>
       </c>
       <c r="C117" s="4">
@@ -4655,7 +4658,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="58"/>
+      <c r="B118" s="57"/>
       <c r="C118" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4684,7 +4687,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="58"/>
+      <c r="B119" s="57"/>
       <c r="C119" s="4">
         <v>0.59375</v>
       </c>
@@ -4713,7 +4716,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="58"/>
+      <c r="B120" s="57"/>
       <c r="C120" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4742,7 +4745,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="61"/>
+      <c r="B121" s="60"/>
       <c r="C121" s="38">
         <v>0.77777777777777779</v>
       </c>
@@ -4791,10 +4794,10 @@
       <c r="B123" s="51"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
-      <c r="E123" s="59" t="s">
+      <c r="E123" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F123" s="60" t="s">
+      <c r="F123" s="59" t="s">
         <v>18</v>
       </c>
       <c r="G123" s="17" t="s">
@@ -4817,8 +4820,8 @@
       <c r="D124" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="59"/>
-      <c r="F124" s="60"/>
+      <c r="E124" s="58"/>
+      <c r="F124" s="59"/>
       <c r="G124" s="12" t="s">
         <v>14</v>
       </c>
@@ -7285,75 +7288,90 @@
       </c>
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C210" s="4"/>
-      <c r="D210" s="18"/>
+      <c r="B210" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C210" s="4">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="D210" s="18">
+        <v>0.68333333333333324</v>
+      </c>
       <c r="E210" s="20">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>4.0972222222222188E-2</v>
       </c>
       <c r="F210" s="21">
         <f t="shared" si="62"/>
-        <v>1.299305555555555</v>
+        <v>1.3402777777777772</v>
       </c>
       <c r="G210" s="15">
         <f t="shared" si="63"/>
-        <v>1.299305555555555</v>
+        <v>1.3402777777777772</v>
       </c>
       <c r="H210" s="15">
         <f t="shared" si="64"/>
-        <v>3.3618055555555548</v>
+        <v>3.4027777777777777</v>
       </c>
       <c r="I210" s="23">
         <f t="shared" si="65"/>
-        <v>13716.166666666662</v>
+        <v>13883.333333333332</v>
       </c>
     </row>
     <row r="211" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C211" s="4"/>
-      <c r="D211" s="18"/>
+      <c r="C211" s="4">
+        <v>0.68819444444444444</v>
+      </c>
+      <c r="D211" s="18">
+        <v>0.70624999999999993</v>
+      </c>
       <c r="E211" s="20">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1.8055555555555491E-2</v>
       </c>
       <c r="F211" s="21">
         <f t="shared" si="62"/>
-        <v>1.299305555555555</v>
+        <v>1.3583333333333327</v>
       </c>
       <c r="G211" s="15">
         <f t="shared" si="63"/>
-        <v>1.299305555555555</v>
+        <v>1.3583333333333327</v>
       </c>
       <c r="H211" s="15">
         <f t="shared" si="64"/>
-        <v>3.3618055555555548</v>
+        <v>3.4208333333333329</v>
       </c>
       <c r="I211" s="23">
         <f t="shared" si="65"/>
-        <v>13716.166666666662</v>
+        <v>13956.999999999998</v>
       </c>
     </row>
     <row r="212" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C212" s="4"/>
-      <c r="D212" s="18"/>
+      <c r="C212" s="4">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="D212" s="18">
+        <v>0.76111111111111107</v>
+      </c>
       <c r="E212" s="20">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>3.6805555555555536E-2</v>
       </c>
       <c r="F212" s="21">
         <f t="shared" si="62"/>
-        <v>1.299305555555555</v>
+        <v>1.3951388888888883</v>
       </c>
       <c r="G212" s="15">
         <f t="shared" si="63"/>
-        <v>1.299305555555555</v>
+        <v>1.3951388888888883</v>
       </c>
       <c r="H212" s="15">
         <f t="shared" si="64"/>
-        <v>3.3618055555555548</v>
+        <v>3.4576388888888889</v>
       </c>
       <c r="I212" s="23">
         <f t="shared" si="65"/>
-        <v>13716.166666666662</v>
+        <v>14107.166666666666</v>
       </c>
     </row>
     <row r="213" spans="2:9" x14ac:dyDescent="0.25">
@@ -7365,19 +7383,19 @@
       </c>
       <c r="F213" s="21">
         <f t="shared" si="62"/>
-        <v>1.299305555555555</v>
+        <v>1.3951388888888883</v>
       </c>
       <c r="G213" s="15">
         <f t="shared" si="63"/>
-        <v>1.299305555555555</v>
+        <v>1.3951388888888883</v>
       </c>
       <c r="H213" s="15">
         <f t="shared" si="64"/>
-        <v>3.3618055555555548</v>
+        <v>3.4576388888888889</v>
       </c>
       <c r="I213" s="23">
         <f t="shared" si="65"/>
-        <v>13716.166666666662</v>
+        <v>14107.166666666666</v>
       </c>
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.25">
@@ -7389,19 +7407,19 @@
       </c>
       <c r="F214" s="21">
         <f t="shared" si="62"/>
-        <v>1.299305555555555</v>
+        <v>1.3951388888888883</v>
       </c>
       <c r="G214" s="15">
         <f t="shared" si="63"/>
-        <v>1.299305555555555</v>
+        <v>1.3951388888888883</v>
       </c>
       <c r="H214" s="15">
         <f t="shared" si="64"/>
-        <v>3.3618055555555548</v>
+        <v>3.4576388888888889</v>
       </c>
       <c r="I214" s="23">
         <f t="shared" si="65"/>
-        <v>13716.166666666662</v>
+        <v>14107.166666666666</v>
       </c>
     </row>
     <row r="215" spans="2:9" x14ac:dyDescent="0.25">
@@ -7413,19 +7431,19 @@
       </c>
       <c r="F215" s="21">
         <f t="shared" si="62"/>
-        <v>1.299305555555555</v>
+        <v>1.3951388888888883</v>
       </c>
       <c r="G215" s="15">
         <f t="shared" si="63"/>
-        <v>1.299305555555555</v>
+        <v>1.3951388888888883</v>
       </c>
       <c r="H215" s="15">
         <f t="shared" si="64"/>
-        <v>3.3618055555555548</v>
+        <v>3.4576388888888889</v>
       </c>
       <c r="I215" s="23">
         <f t="shared" si="65"/>
-        <v>13716.166666666662</v>
+        <v>14107.166666666666</v>
       </c>
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.25">
@@ -7437,19 +7455,19 @@
       </c>
       <c r="F216" s="21">
         <f t="shared" si="62"/>
-        <v>1.299305555555555</v>
+        <v>1.3951388888888883</v>
       </c>
       <c r="G216" s="15">
         <f t="shared" si="63"/>
-        <v>1.299305555555555</v>
+        <v>1.3951388888888883</v>
       </c>
       <c r="H216" s="15">
         <f t="shared" si="64"/>
-        <v>3.3618055555555548</v>
+        <v>3.4576388888888889</v>
       </c>
       <c r="I216" s="23">
         <f t="shared" si="65"/>
-        <v>13716.166666666662</v>
+        <v>14107.166666666666</v>
       </c>
     </row>
     <row r="217" spans="2:9" x14ac:dyDescent="0.25">
@@ -7461,23 +7479,60 @@
       </c>
       <c r="F217" s="21">
         <f t="shared" si="62"/>
-        <v>1.299305555555555</v>
+        <v>1.3951388888888883</v>
       </c>
       <c r="G217" s="15">
         <f t="shared" si="63"/>
-        <v>1.299305555555555</v>
+        <v>1.3951388888888883</v>
       </c>
       <c r="H217" s="15">
         <f t="shared" si="64"/>
-        <v>3.3618055555555548</v>
+        <v>3.4576388888888889</v>
       </c>
       <c r="I217" s="23">
         <f t="shared" si="65"/>
-        <v>13716.166666666662</v>
+        <v>14107.166666666666</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B188:B192"/>
+    <mergeCell ref="B164:B170"/>
+    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="B156:B162"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
     <mergeCell ref="B204:B209"/>
     <mergeCell ref="B146:B149"/>
     <mergeCell ref="B75:B78"/>
@@ -7494,43 +7549,6 @@
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="B109:B113"/>
     <mergeCell ref="B90:B94"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B164:B170"/>
-    <mergeCell ref="B151:B155"/>
-    <mergeCell ref="B156:B162"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="K13:K17"/>
-    <mergeCell ref="K18:K22"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B47:B53"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B201:B203"/>
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="B178:B183"/>
-    <mergeCell ref="B184:B187"/>
-    <mergeCell ref="B188:B192"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD69BB32-1208-492C-B39C-850613217B14}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74259ADD-914D-4B23-9632-9A92FEBB4664}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="1305" windowWidth="14670" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
   <si>
     <t>Vektorizace, první sada</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>14.2.</t>
+  </si>
+  <si>
+    <t>15.2.</t>
   </si>
 </sst>
 </file>
@@ -759,6 +762,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -773,9 +779,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1118,7 +1121,7 @@
   <dimension ref="A1:X217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="D213" sqref="D213"/>
+      <selection activeCell="D214" sqref="D214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,10 +1143,10 @@
       <c r="B1" s="51"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="60" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -1164,8 +1167,8 @@
       <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>16716.666666666664</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="62"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
@@ -1361,7 +1364,7 @@
       <c r="X13" s="6"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="58" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="4">
@@ -1391,7 +1394,7 @@
         <v>16915</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="62"/>
+      <c r="K14" s="57"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
@@ -1407,7 +1410,7 @@
       <c r="X14" s="6"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="57"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>17184.166666666664</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="62"/>
+      <c r="K15" s="57"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
@@ -1451,7 +1454,7 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="57"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -1479,7 +1482,7 @@
         <v>17269.166666666664</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="62"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
@@ -1495,7 +1498,7 @@
       <c r="X16" s="6"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="57"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="4">
         <v>0.80208333333333337</v>
       </c>
@@ -1523,7 +1526,7 @@
         <v>17524.166666666664</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="62"/>
+      <c r="K17" s="57"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
@@ -1539,7 +1542,7 @@
       <c r="X17" s="6"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="57"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="4">
         <v>0.875</v>
       </c>
@@ -1567,7 +1570,7 @@
         <v>17651.666666666664</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="62"/>
+      <c r="K18" s="57"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
@@ -1583,7 +1586,7 @@
       <c r="X18" s="6"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="4">
@@ -1613,7 +1616,7 @@
         <v>17878.333333333332</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="62"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
@@ -1629,7 +1632,7 @@
       <c r="X19" s="6"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="57"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1657,7 +1660,7 @@
         <v>18246.666666666664</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="62"/>
+      <c r="K20" s="57"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
@@ -1673,7 +1676,7 @@
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="57"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1701,7 +1704,7 @@
         <v>18388.333333333332</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="62"/>
+      <c r="K21" s="57"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
@@ -1717,7 +1720,7 @@
       <c r="X21" s="6"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="57"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="4">
         <v>0.75</v>
       </c>
@@ -1745,7 +1748,7 @@
         <v>18515.833333333332</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="62"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="9"/>
@@ -1761,7 +1764,7 @@
       <c r="X22" s="6"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="57"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -1805,7 +1808,7 @@
       <c r="X23" s="6"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="62" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="4">
@@ -1851,7 +1854,7 @@
       <c r="X24" s="6"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="61"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -1895,7 +1898,7 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="61"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1939,7 +1942,7 @@
       <c r="X26" s="6"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="61"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="4">
         <v>0.83333333333333337</v>
       </c>
@@ -1983,7 +1986,7 @@
       <c r="X27" s="6"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="58" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="4">
@@ -2029,7 +2032,7 @@
       <c r="X28" s="6"/>
     </row>
     <row r="29" spans="2:24" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="60"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="27">
         <v>0.61111111111111105</v>
       </c>
@@ -2074,10 +2077,10 @@
       <c r="B31" s="51"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="58" t="s">
+      <c r="E31" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="59" t="s">
+      <c r="F31" s="60" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="17" t="s">
@@ -2098,8 +2101,8 @@
       <c r="D32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="12" t="s">
         <v>14</v>
       </c>
@@ -2114,7 +2117,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="58" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="24">
@@ -2145,7 +2148,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="57"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -2174,7 +2177,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="57"/>
+      <c r="B35" s="58"/>
       <c r="C35" s="4">
         <v>0.67013888888888884</v>
       </c>
@@ -2234,7 +2237,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="4">
@@ -2265,7 +2268,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="57"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -2294,7 +2297,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="57"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="4">
         <v>0.77777777777777779</v>
       </c>
@@ -2323,7 +2326,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="57"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="4">
         <v>0.93055555555555547</v>
       </c>
@@ -2352,7 +2355,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="58" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="4">
@@ -2383,7 +2386,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="57"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="4">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -2412,7 +2415,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="57"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="4">
         <v>0.60069444444444442</v>
       </c>
@@ -2441,7 +2444,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="57"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2470,7 +2473,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="57"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="4">
         <v>0.78472222222222221</v>
       </c>
@@ -2499,7 +2502,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="57"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="4">
         <v>0.92708333333333337</v>
       </c>
@@ -2528,7 +2531,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="58" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="4">
@@ -2559,7 +2562,7 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="57"/>
+      <c r="B48" s="58"/>
       <c r="C48" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -2588,7 +2591,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="57"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="4">
         <v>0.74305555555555547</v>
       </c>
@@ -2617,7 +2620,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="57"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="4">
         <v>0.78819444444444453</v>
       </c>
@@ -2646,7 +2649,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="57"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="4">
         <v>0.81597222222222221</v>
       </c>
@@ -2675,7 +2678,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="57"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="4">
         <v>0.89583333333333337</v>
       </c>
@@ -2707,7 +2710,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="57"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="4">
         <v>0.99652777777777779</v>
       </c>
@@ -2739,7 +2742,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="58" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="4">
@@ -2773,7 +2776,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="57"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="4">
         <v>0.19444444444444445</v>
       </c>
@@ -2802,7 +2805,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="57"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="4">
         <v>0.625</v>
       </c>
@@ -2831,7 +2834,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="57"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -2860,7 +2863,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="57"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2889,7 +2892,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="57"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -2949,7 +2952,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="58" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="4">
@@ -2980,7 +2983,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="57"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -3009,7 +3012,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="58" t="s">
         <v>33</v>
       </c>
       <c r="C63" s="4">
@@ -3040,7 +3043,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="57"/>
+      <c r="B64" s="58"/>
       <c r="C64" s="4">
         <v>0.86111111111111116</v>
       </c>
@@ -3069,7 +3072,7 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="57"/>
+      <c r="B65" s="58"/>
       <c r="C65" s="4">
         <v>0.88888888888888884</v>
       </c>
@@ -3098,7 +3101,7 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="57" t="s">
+      <c r="B66" s="58" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="4">
@@ -3129,7 +3132,7 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="57"/>
+      <c r="B67" s="58"/>
       <c r="C67" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -3158,7 +3161,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="57"/>
+      <c r="B68" s="58"/>
       <c r="C68" s="4">
         <v>0.89930555555555547</v>
       </c>
@@ -3187,7 +3190,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="57"/>
+      <c r="B69" s="58"/>
       <c r="C69" s="4">
         <v>0.92361111111111116</v>
       </c>
@@ -3216,7 +3219,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="57" t="s">
+      <c r="B70" s="58" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="4">
@@ -3247,7 +3250,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="57"/>
+      <c r="B71" s="58"/>
       <c r="C71" s="4">
         <v>0.72222222222222221</v>
       </c>
@@ -3307,7 +3310,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="57" t="s">
+      <c r="B73" s="58" t="s">
         <v>37</v>
       </c>
       <c r="C73" s="4">
@@ -3338,7 +3341,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="57"/>
+      <c r="B74" s="58"/>
       <c r="C74" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -3367,7 +3370,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="58" t="s">
         <v>38</v>
       </c>
       <c r="C75" s="4">
@@ -3398,7 +3401,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="57"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -3427,7 +3430,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="57"/>
+      <c r="B77" s="58"/>
       <c r="C77" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -3456,7 +3459,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="57"/>
+      <c r="B78" s="58"/>
       <c r="C78" s="4">
         <v>0.96875</v>
       </c>
@@ -3485,7 +3488,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="57" t="s">
+      <c r="B79" s="58" t="s">
         <v>39</v>
       </c>
       <c r="C79" s="4">
@@ -3519,7 +3522,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="57"/>
+      <c r="B80" s="58"/>
       <c r="C80" s="4">
         <v>0.65625</v>
       </c>
@@ -3548,7 +3551,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="57" t="s">
+      <c r="B81" s="58" t="s">
         <v>41</v>
       </c>
       <c r="C81" s="4">
@@ -3579,7 +3582,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="57"/>
+      <c r="B82" s="58"/>
       <c r="C82" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -3608,7 +3611,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="57"/>
+      <c r="B83" s="58"/>
       <c r="C83" s="4">
         <v>0.69791666666666663</v>
       </c>
@@ -3637,7 +3640,7 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="57" t="s">
+      <c r="B84" s="58" t="s">
         <v>42</v>
       </c>
       <c r="C84" s="4">
@@ -3668,7 +3671,7 @@
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="57"/>
+      <c r="B85" s="58"/>
       <c r="C85" s="4">
         <v>0.61805555555555558</v>
       </c>
@@ -3697,7 +3700,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="57"/>
+      <c r="B86" s="58"/>
       <c r="C86" s="4">
         <v>0.86805555555555547</v>
       </c>
@@ -3726,7 +3729,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="57" t="s">
+      <c r="B87" s="58" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="4">
@@ -3757,7 +3760,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="57"/>
+      <c r="B88" s="58"/>
       <c r="C88" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -3817,7 +3820,7 @@
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="57" t="s">
+      <c r="B90" s="58" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="4">
@@ -3848,7 +3851,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="57"/>
+      <c r="B91" s="58"/>
       <c r="C91" s="4">
         <v>0.3576388888888889</v>
       </c>
@@ -3877,7 +3880,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="57"/>
+      <c r="B92" s="58"/>
       <c r="C92" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -3906,7 +3909,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="57"/>
+      <c r="B93" s="58"/>
       <c r="C93" s="4">
         <v>0.4548611111111111</v>
       </c>
@@ -3935,7 +3938,7 @@
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="57"/>
+      <c r="B94" s="58"/>
       <c r="C94" s="4">
         <v>0.48958333333333331</v>
       </c>
@@ -3964,7 +3967,7 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="57" t="s">
+      <c r="B95" s="58" t="s">
         <v>46</v>
       </c>
       <c r="C95" s="4">
@@ -3995,7 +3998,7 @@
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="57"/>
+      <c r="B96" s="58"/>
       <c r="C96" s="4">
         <v>0.5</v>
       </c>
@@ -4024,7 +4027,7 @@
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="57"/>
+      <c r="B97" s="58"/>
       <c r="C97" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -4053,7 +4056,7 @@
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="57" t="s">
+      <c r="B98" s="58" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="4">
@@ -4084,7 +4087,7 @@
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="57"/>
+      <c r="B99" s="58"/>
       <c r="C99" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4113,7 +4116,7 @@
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="57"/>
+      <c r="B100" s="58"/>
       <c r="C100" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -4142,7 +4145,7 @@
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="57" t="s">
+      <c r="B101" s="58" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="4">
@@ -4173,7 +4176,7 @@
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="57"/>
+      <c r="B102" s="58"/>
       <c r="C102" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4202,7 +4205,7 @@
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="57" t="s">
+      <c r="B103" s="58" t="s">
         <v>50</v>
       </c>
       <c r="C103" s="4">
@@ -4236,7 +4239,7 @@
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="57"/>
+      <c r="B104" s="58"/>
       <c r="C104" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -4265,7 +4268,7 @@
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="57"/>
+      <c r="B105" s="58"/>
       <c r="C105" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -4297,7 +4300,7 @@
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="57"/>
+      <c r="B106" s="58"/>
       <c r="C106" s="4">
         <v>0.70486111111111116</v>
       </c>
@@ -4326,7 +4329,7 @@
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="57" t="s">
+      <c r="B107" s="58" t="s">
         <v>51</v>
       </c>
       <c r="C107" s="4">
@@ -4357,7 +4360,7 @@
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="57"/>
+      <c r="B108" s="58"/>
       <c r="C108" s="4">
         <v>0.98958333333333337</v>
       </c>
@@ -4386,7 +4389,7 @@
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="57" t="s">
+      <c r="B109" s="58" t="s">
         <v>52</v>
       </c>
       <c r="C109" s="4">
@@ -4417,7 +4420,7 @@
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="57"/>
+      <c r="B110" s="58"/>
       <c r="C110" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -4446,7 +4449,7 @@
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="57"/>
+      <c r="B111" s="58"/>
       <c r="C111" s="4">
         <v>0.66319444444444442</v>
       </c>
@@ -4475,7 +4478,7 @@
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="57"/>
+      <c r="B112" s="58"/>
       <c r="C112" s="4">
         <v>0.73958333333333337</v>
       </c>
@@ -4504,7 +4507,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="57"/>
+      <c r="B113" s="58"/>
       <c r="C113" s="4">
         <v>0.80555555555555547</v>
       </c>
@@ -4533,7 +4536,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="57" t="s">
+      <c r="B114" s="58" t="s">
         <v>53</v>
       </c>
       <c r="C114" s="4">
@@ -4564,7 +4567,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="57"/>
+      <c r="B115" s="58"/>
       <c r="C115" s="4">
         <v>0.69097222222222221</v>
       </c>
@@ -4627,7 +4630,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="57" t="s">
+      <c r="B117" s="58" t="s">
         <v>55</v>
       </c>
       <c r="C117" s="4">
@@ -4658,7 +4661,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="57"/>
+      <c r="B118" s="58"/>
       <c r="C118" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4687,7 +4690,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="57"/>
+      <c r="B119" s="58"/>
       <c r="C119" s="4">
         <v>0.59375</v>
       </c>
@@ -4716,7 +4719,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="57"/>
+      <c r="B120" s="58"/>
       <c r="C120" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4745,7 +4748,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="60"/>
+      <c r="B121" s="61"/>
       <c r="C121" s="38">
         <v>0.77777777777777779</v>
       </c>
@@ -4794,10 +4797,10 @@
       <c r="B123" s="51"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
-      <c r="E123" s="58" t="s">
+      <c r="E123" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F123" s="59" t="s">
+      <c r="F123" s="60" t="s">
         <v>18</v>
       </c>
       <c r="G123" s="17" t="s">
@@ -4820,8 +4823,8 @@
       <c r="D124" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="58"/>
-      <c r="F124" s="59"/>
+      <c r="E124" s="59"/>
+      <c r="F124" s="60"/>
       <c r="G124" s="12" t="s">
         <v>14</v>
       </c>
@@ -7288,7 +7291,7 @@
       </c>
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B210" s="49" t="s">
+      <c r="B210" s="56" t="s">
         <v>85</v>
       </c>
       <c r="C210" s="4">
@@ -7319,6 +7322,7 @@
       </c>
     </row>
     <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B211" s="56"/>
       <c r="C211" s="4">
         <v>0.68819444444444444</v>
       </c>
@@ -7347,6 +7351,7 @@
       </c>
     </row>
     <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B212" s="56"/>
       <c r="C212" s="4">
         <v>0.72430555555555554</v>
       </c>
@@ -7375,27 +7380,34 @@
       </c>
     </row>
     <row r="213" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C213" s="4"/>
-      <c r="D213" s="18"/>
+      <c r="B213" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C213" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D213" s="18">
+        <v>0.66319444444444442</v>
+      </c>
       <c r="E213" s="20">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>7.291666666666663E-2</v>
       </c>
       <c r="F213" s="21">
         <f t="shared" si="62"/>
-        <v>1.3951388888888883</v>
+        <v>1.468055555555555</v>
       </c>
       <c r="G213" s="15">
         <f t="shared" si="63"/>
-        <v>1.3951388888888883</v>
+        <v>1.468055555555555</v>
       </c>
       <c r="H213" s="15">
         <f t="shared" si="64"/>
-        <v>3.4576388888888889</v>
+        <v>3.5305555555555559</v>
       </c>
       <c r="I213" s="23">
         <f t="shared" si="65"/>
-        <v>14107.166666666666</v>
+        <v>14404.66666666667</v>
       </c>
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.25">
@@ -7407,19 +7419,19 @@
       </c>
       <c r="F214" s="21">
         <f t="shared" si="62"/>
-        <v>1.3951388888888883</v>
+        <v>1.468055555555555</v>
       </c>
       <c r="G214" s="15">
         <f t="shared" si="63"/>
-        <v>1.3951388888888883</v>
+        <v>1.468055555555555</v>
       </c>
       <c r="H214" s="15">
         <f t="shared" si="64"/>
-        <v>3.4576388888888889</v>
+        <v>3.5305555555555559</v>
       </c>
       <c r="I214" s="23">
         <f t="shared" si="65"/>
-        <v>14107.166666666666</v>
+        <v>14404.66666666667</v>
       </c>
     </row>
     <row r="215" spans="2:9" x14ac:dyDescent="0.25">
@@ -7431,19 +7443,19 @@
       </c>
       <c r="F215" s="21">
         <f t="shared" si="62"/>
-        <v>1.3951388888888883</v>
+        <v>1.468055555555555</v>
       </c>
       <c r="G215" s="15">
         <f t="shared" si="63"/>
-        <v>1.3951388888888883</v>
+        <v>1.468055555555555</v>
       </c>
       <c r="H215" s="15">
         <f t="shared" si="64"/>
-        <v>3.4576388888888889</v>
+        <v>3.5305555555555559</v>
       </c>
       <c r="I215" s="23">
         <f t="shared" si="65"/>
-        <v>14107.166666666666</v>
+        <v>14404.66666666667</v>
       </c>
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.25">
@@ -7455,19 +7467,19 @@
       </c>
       <c r="F216" s="21">
         <f t="shared" si="62"/>
-        <v>1.3951388888888883</v>
+        <v>1.468055555555555</v>
       </c>
       <c r="G216" s="15">
         <f t="shared" si="63"/>
-        <v>1.3951388888888883</v>
+        <v>1.468055555555555</v>
       </c>
       <c r="H216" s="15">
         <f t="shared" si="64"/>
-        <v>3.4576388888888889</v>
+        <v>3.5305555555555559</v>
       </c>
       <c r="I216" s="23">
         <f t="shared" si="65"/>
-        <v>14107.166666666666</v>
+        <v>14404.66666666667</v>
       </c>
     </row>
     <row r="217" spans="2:9" x14ac:dyDescent="0.25">
@@ -7479,30 +7491,54 @@
       </c>
       <c r="F217" s="21">
         <f t="shared" si="62"/>
-        <v>1.3951388888888883</v>
+        <v>1.468055555555555</v>
       </c>
       <c r="G217" s="15">
         <f t="shared" si="63"/>
-        <v>1.3951388888888883</v>
+        <v>1.468055555555555</v>
       </c>
       <c r="H217" s="15">
         <f t="shared" si="64"/>
-        <v>3.4576388888888889</v>
+        <v>3.5305555555555559</v>
       </c>
       <c r="I217" s="23">
         <f t="shared" si="65"/>
-        <v>14107.166666666666</v>
+        <v>14404.66666666667</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="B201:B203"/>
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="B178:B183"/>
-    <mergeCell ref="B184:B187"/>
-    <mergeCell ref="B188:B192"/>
+  <mergeCells count="54">
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="B204:B209"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
     <mergeCell ref="B164:B170"/>
     <mergeCell ref="B151:B155"/>
     <mergeCell ref="B156:B162"/>
@@ -7519,36 +7555,13 @@
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="B70:B71"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B204:B209"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B188:B192"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74259ADD-914D-4B23-9632-9A92FEBB4664}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CB5454-1147-4293-9D21-39B18C0741B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="1305" windowWidth="14670" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -762,9 +762,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -779,6 +776,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1118,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X217"/>
+  <dimension ref="A1:X342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="D214" sqref="D214"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="K211" sqref="K211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,10 +1143,10 @@
       <c r="B1" s="51"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="59" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -1167,8 +1167,8 @@
       <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>16716.666666666664</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="57"/>
+      <c r="K13" s="62"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
@@ -1364,7 +1364,7 @@
       <c r="X13" s="6"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="57" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="4">
@@ -1394,7 +1394,7 @@
         <v>16915</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="57"/>
+      <c r="K14" s="62"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
@@ -1410,7 +1410,7 @@
       <c r="X14" s="6"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="58"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>17184.166666666664</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="57"/>
+      <c r="K15" s="62"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
@@ -1454,7 +1454,7 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="58"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>17269.166666666664</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="57"/>
+      <c r="K16" s="62"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
@@ -1498,7 +1498,7 @@
       <c r="X16" s="6"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="58"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="4">
         <v>0.80208333333333337</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>17524.166666666664</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="57"/>
+      <c r="K17" s="62"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
@@ -1542,7 +1542,7 @@
       <c r="X17" s="6"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="58"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="4">
         <v>0.875</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>17651.666666666664</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="57"/>
+      <c r="K18" s="62"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
@@ -1586,7 +1586,7 @@
       <c r="X18" s="6"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="57" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="4">
@@ -1616,7 +1616,7 @@
         <v>17878.333333333332</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="57"/>
+      <c r="K19" s="62"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
@@ -1632,7 +1632,7 @@
       <c r="X19" s="6"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="58"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>18246.666666666664</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="57"/>
+      <c r="K20" s="62"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
@@ -1676,7 +1676,7 @@
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="58"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>18388.333333333332</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="57"/>
+      <c r="K21" s="62"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
@@ -1720,7 +1720,7 @@
       <c r="X21" s="6"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="58"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="4">
         <v>0.75</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>18515.833333333332</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="57"/>
+      <c r="K22" s="62"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="9"/>
@@ -1764,7 +1764,7 @@
       <c r="X22" s="6"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="58"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -1808,7 +1808,7 @@
       <c r="X23" s="6"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="61" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="4">
@@ -1854,7 +1854,7 @@
       <c r="X24" s="6"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="62"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -1898,7 +1898,7 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="62"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1942,7 +1942,7 @@
       <c r="X26" s="6"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="62"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="4">
         <v>0.83333333333333337</v>
       </c>
@@ -1986,7 +1986,7 @@
       <c r="X27" s="6"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="57" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="4">
@@ -2032,7 +2032,7 @@
       <c r="X28" s="6"/>
     </row>
     <row r="29" spans="2:24" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="61"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="27">
         <v>0.61111111111111105</v>
       </c>
@@ -2077,10 +2077,10 @@
       <c r="B31" s="51"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="59" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="17" t="s">
@@ -2101,8 +2101,8 @@
       <c r="D32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="60"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="59"/>
       <c r="G32" s="12" t="s">
         <v>14</v>
       </c>
@@ -2117,7 +2117,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="57" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="24">
@@ -2148,7 +2148,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="58"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -2177,7 +2177,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="58"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="4">
         <v>0.67013888888888884</v>
       </c>
@@ -2237,7 +2237,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="57" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="4">
@@ -2268,7 +2268,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="58"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -2297,7 +2297,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="58"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="4">
         <v>0.77777777777777779</v>
       </c>
@@ -2326,7 +2326,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="58"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="4">
         <v>0.93055555555555547</v>
       </c>
@@ -2355,7 +2355,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="57" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="4">
@@ -2386,7 +2386,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="58"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="4">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -2415,7 +2415,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="58"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="4">
         <v>0.60069444444444442</v>
       </c>
@@ -2444,7 +2444,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="58"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2473,7 +2473,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="58"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="4">
         <v>0.78472222222222221</v>
       </c>
@@ -2502,7 +2502,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="58"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="4">
         <v>0.92708333333333337</v>
       </c>
@@ -2531,7 +2531,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="57" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="4">
@@ -2562,7 +2562,7 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="58"/>
+      <c r="B48" s="57"/>
       <c r="C48" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -2591,7 +2591,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="58"/>
+      <c r="B49" s="57"/>
       <c r="C49" s="4">
         <v>0.74305555555555547</v>
       </c>
@@ -2620,7 +2620,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="58"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="4">
         <v>0.78819444444444453</v>
       </c>
@@ -2649,7 +2649,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="58"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="4">
         <v>0.81597222222222221</v>
       </c>
@@ -2678,7 +2678,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="58"/>
+      <c r="B52" s="57"/>
       <c r="C52" s="4">
         <v>0.89583333333333337</v>
       </c>
@@ -2710,7 +2710,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="58"/>
+      <c r="B53" s="57"/>
       <c r="C53" s="4">
         <v>0.99652777777777779</v>
       </c>
@@ -2742,7 +2742,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="57" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="4">
@@ -2776,7 +2776,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="58"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="4">
         <v>0.19444444444444445</v>
       </c>
@@ -2805,7 +2805,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="58"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="4">
         <v>0.625</v>
       </c>
@@ -2834,7 +2834,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="58"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -2863,7 +2863,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="58"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2892,7 +2892,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="58"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -2952,7 +2952,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="57" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="4">
@@ -2983,7 +2983,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="58"/>
+      <c r="B62" s="57"/>
       <c r="C62" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -3012,7 +3012,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="58" t="s">
+      <c r="B63" s="57" t="s">
         <v>33</v>
       </c>
       <c r="C63" s="4">
@@ -3043,7 +3043,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="58"/>
+      <c r="B64" s="57"/>
       <c r="C64" s="4">
         <v>0.86111111111111116</v>
       </c>
@@ -3072,7 +3072,7 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="58"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="4">
         <v>0.88888888888888884</v>
       </c>
@@ -3101,7 +3101,7 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="58" t="s">
+      <c r="B66" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="4">
@@ -3132,7 +3132,7 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="58"/>
+      <c r="B67" s="57"/>
       <c r="C67" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -3161,7 +3161,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="58"/>
+      <c r="B68" s="57"/>
       <c r="C68" s="4">
         <v>0.89930555555555547</v>
       </c>
@@ -3190,7 +3190,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="58"/>
+      <c r="B69" s="57"/>
       <c r="C69" s="4">
         <v>0.92361111111111116</v>
       </c>
@@ -3219,7 +3219,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="57" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="4">
@@ -3250,7 +3250,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="58"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="4">
         <v>0.72222222222222221</v>
       </c>
@@ -3310,7 +3310,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="58" t="s">
+      <c r="B73" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C73" s="4">
@@ -3341,7 +3341,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="58"/>
+      <c r="B74" s="57"/>
       <c r="C74" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -3370,7 +3370,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="57" t="s">
         <v>38</v>
       </c>
       <c r="C75" s="4">
@@ -3401,7 +3401,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="58"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -3430,7 +3430,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="58"/>
+      <c r="B77" s="57"/>
       <c r="C77" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -3459,7 +3459,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="58"/>
+      <c r="B78" s="57"/>
       <c r="C78" s="4">
         <v>0.96875</v>
       </c>
@@ -3488,7 +3488,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="58" t="s">
+      <c r="B79" s="57" t="s">
         <v>39</v>
       </c>
       <c r="C79" s="4">
@@ -3522,7 +3522,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="58"/>
+      <c r="B80" s="57"/>
       <c r="C80" s="4">
         <v>0.65625</v>
       </c>
@@ -3551,7 +3551,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="58" t="s">
+      <c r="B81" s="57" t="s">
         <v>41</v>
       </c>
       <c r="C81" s="4">
@@ -3582,7 +3582,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="58"/>
+      <c r="B82" s="57"/>
       <c r="C82" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -3611,7 +3611,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="58"/>
+      <c r="B83" s="57"/>
       <c r="C83" s="4">
         <v>0.69791666666666663</v>
       </c>
@@ -3640,7 +3640,7 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="58" t="s">
+      <c r="B84" s="57" t="s">
         <v>42</v>
       </c>
       <c r="C84" s="4">
@@ -3671,7 +3671,7 @@
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="58"/>
+      <c r="B85" s="57"/>
       <c r="C85" s="4">
         <v>0.61805555555555558</v>
       </c>
@@ -3700,7 +3700,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="58"/>
+      <c r="B86" s="57"/>
       <c r="C86" s="4">
         <v>0.86805555555555547</v>
       </c>
@@ -3729,7 +3729,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="58" t="s">
+      <c r="B87" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="4">
@@ -3760,7 +3760,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="58"/>
+      <c r="B88" s="57"/>
       <c r="C88" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -3820,7 +3820,7 @@
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="58" t="s">
+      <c r="B90" s="57" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="4">
@@ -3851,7 +3851,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="58"/>
+      <c r="B91" s="57"/>
       <c r="C91" s="4">
         <v>0.3576388888888889</v>
       </c>
@@ -3880,7 +3880,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="58"/>
+      <c r="B92" s="57"/>
       <c r="C92" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -3909,7 +3909,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="58"/>
+      <c r="B93" s="57"/>
       <c r="C93" s="4">
         <v>0.4548611111111111</v>
       </c>
@@ -3938,7 +3938,7 @@
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="58"/>
+      <c r="B94" s="57"/>
       <c r="C94" s="4">
         <v>0.48958333333333331</v>
       </c>
@@ -3967,7 +3967,7 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="58" t="s">
+      <c r="B95" s="57" t="s">
         <v>46</v>
       </c>
       <c r="C95" s="4">
@@ -3998,7 +3998,7 @@
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="58"/>
+      <c r="B96" s="57"/>
       <c r="C96" s="4">
         <v>0.5</v>
       </c>
@@ -4027,7 +4027,7 @@
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="58"/>
+      <c r="B97" s="57"/>
       <c r="C97" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -4056,7 +4056,7 @@
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="58" t="s">
+      <c r="B98" s="57" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="4">
@@ -4087,7 +4087,7 @@
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="58"/>
+      <c r="B99" s="57"/>
       <c r="C99" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4116,7 +4116,7 @@
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="58"/>
+      <c r="B100" s="57"/>
       <c r="C100" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -4145,7 +4145,7 @@
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="58" t="s">
+      <c r="B101" s="57" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="4">
@@ -4176,7 +4176,7 @@
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="58"/>
+      <c r="B102" s="57"/>
       <c r="C102" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4205,7 +4205,7 @@
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="58" t="s">
+      <c r="B103" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C103" s="4">
@@ -4239,7 +4239,7 @@
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="58"/>
+      <c r="B104" s="57"/>
       <c r="C104" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -4268,7 +4268,7 @@
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="58"/>
+      <c r="B105" s="57"/>
       <c r="C105" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -4300,7 +4300,7 @@
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="58"/>
+      <c r="B106" s="57"/>
       <c r="C106" s="4">
         <v>0.70486111111111116</v>
       </c>
@@ -4329,7 +4329,7 @@
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="58" t="s">
+      <c r="B107" s="57" t="s">
         <v>51</v>
       </c>
       <c r="C107" s="4">
@@ -4360,7 +4360,7 @@
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="58"/>
+      <c r="B108" s="57"/>
       <c r="C108" s="4">
         <v>0.98958333333333337</v>
       </c>
@@ -4389,7 +4389,7 @@
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="58" t="s">
+      <c r="B109" s="57" t="s">
         <v>52</v>
       </c>
       <c r="C109" s="4">
@@ -4420,7 +4420,7 @@
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="58"/>
+      <c r="B110" s="57"/>
       <c r="C110" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -4449,7 +4449,7 @@
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="58"/>
+      <c r="B111" s="57"/>
       <c r="C111" s="4">
         <v>0.66319444444444442</v>
       </c>
@@ -4478,7 +4478,7 @@
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="58"/>
+      <c r="B112" s="57"/>
       <c r="C112" s="4">
         <v>0.73958333333333337</v>
       </c>
@@ -4507,7 +4507,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="58"/>
+      <c r="B113" s="57"/>
       <c r="C113" s="4">
         <v>0.80555555555555547</v>
       </c>
@@ -4536,7 +4536,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="58" t="s">
+      <c r="B114" s="57" t="s">
         <v>53</v>
       </c>
       <c r="C114" s="4">
@@ -4567,7 +4567,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="58"/>
+      <c r="B115" s="57"/>
       <c r="C115" s="4">
         <v>0.69097222222222221</v>
       </c>
@@ -4630,7 +4630,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="58" t="s">
+      <c r="B117" s="57" t="s">
         <v>55</v>
       </c>
       <c r="C117" s="4">
@@ -4661,7 +4661,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="58"/>
+      <c r="B118" s="57"/>
       <c r="C118" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4690,7 +4690,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="58"/>
+      <c r="B119" s="57"/>
       <c r="C119" s="4">
         <v>0.59375</v>
       </c>
@@ -4719,7 +4719,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="58"/>
+      <c r="B120" s="57"/>
       <c r="C120" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4748,7 +4748,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="61"/>
+      <c r="B121" s="60"/>
       <c r="C121" s="38">
         <v>0.77777777777777779</v>
       </c>
@@ -4797,10 +4797,10 @@
       <c r="B123" s="51"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
-      <c r="E123" s="59" t="s">
+      <c r="E123" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F123" s="60" t="s">
+      <c r="F123" s="59" t="s">
         <v>18</v>
       </c>
       <c r="G123" s="17" t="s">
@@ -4823,8 +4823,8 @@
       <c r="D124" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="59"/>
-      <c r="F124" s="60"/>
+      <c r="E124" s="58"/>
+      <c r="F124" s="59"/>
       <c r="G124" s="12" t="s">
         <v>14</v>
       </c>
@@ -7380,7 +7380,7 @@
       </c>
     </row>
     <row r="213" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B213" s="49" t="s">
+      <c r="B213" s="56" t="s">
         <v>86</v>
       </c>
       <c r="C213" s="4">
@@ -7411,103 +7411,3167 @@
       </c>
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C214" s="4"/>
-      <c r="D214" s="18"/>
+      <c r="B214" s="56"/>
+      <c r="C214" s="4">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="D214" s="18">
+        <v>0.72430555555555554</v>
+      </c>
       <c r="E214" s="20">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>3.3333333333333326E-2</v>
       </c>
       <c r="F214" s="21">
         <f t="shared" si="62"/>
-        <v>1.468055555555555</v>
+        <v>1.5013888888888882</v>
       </c>
       <c r="G214" s="15">
         <f t="shared" si="63"/>
-        <v>1.468055555555555</v>
+        <v>1.5013888888888882</v>
       </c>
       <c r="H214" s="15">
         <f t="shared" si="64"/>
-        <v>3.5305555555555559</v>
+        <v>3.5638888888888891</v>
       </c>
       <c r="I214" s="23">
         <f t="shared" si="65"/>
-        <v>14404.66666666667</v>
+        <v>14540.666666666666</v>
       </c>
     </row>
     <row r="215" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C215" s="4"/>
-      <c r="D215" s="18"/>
+      <c r="B215" s="56"/>
+      <c r="C215" s="4">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="D215" s="18">
+        <v>0.73541666666666661</v>
+      </c>
       <c r="E215" s="20">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>2.7777777777777679E-3</v>
       </c>
       <c r="F215" s="21">
         <f t="shared" si="62"/>
-        <v>1.468055555555555</v>
+        <v>1.504166666666666</v>
       </c>
       <c r="G215" s="15">
         <f t="shared" si="63"/>
-        <v>1.468055555555555</v>
+        <v>1.504166666666666</v>
       </c>
       <c r="H215" s="15">
         <f t="shared" si="64"/>
-        <v>3.5305555555555559</v>
+        <v>3.5666666666666664</v>
       </c>
       <c r="I215" s="23">
         <f t="shared" si="65"/>
-        <v>14404.66666666667</v>
+        <v>14551.999999999998</v>
       </c>
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C216" s="4"/>
-      <c r="D216" s="18"/>
+      <c r="B216" s="56"/>
+      <c r="C216" s="4">
+        <v>0.7368055555555556</v>
+      </c>
+      <c r="D216" s="18">
+        <v>0.81597222222222221</v>
+      </c>
       <c r="E216" s="20">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>7.9166666666666607E-2</v>
       </c>
       <c r="F216" s="21">
         <f t="shared" si="62"/>
-        <v>1.468055555555555</v>
+        <v>1.5833333333333326</v>
       </c>
       <c r="G216" s="15">
         <f t="shared" si="63"/>
-        <v>1.468055555555555</v>
+        <v>1.5833333333333326</v>
       </c>
       <c r="H216" s="15">
         <f t="shared" si="64"/>
-        <v>3.5305555555555559</v>
+        <v>3.6458333333333326</v>
       </c>
       <c r="I216" s="23">
         <f t="shared" si="65"/>
-        <v>14404.66666666667</v>
+        <v>14874.999999999998</v>
       </c>
     </row>
     <row r="217" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C217" s="4"/>
-      <c r="D217" s="18"/>
+      <c r="B217" s="56"/>
+      <c r="C217" s="4">
+        <v>0.82361111111111107</v>
+      </c>
+      <c r="D217" s="18">
+        <v>0.82847222222222217</v>
+      </c>
       <c r="E217" s="20">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>4.8611111111110938E-3</v>
       </c>
       <c r="F217" s="21">
         <f t="shared" si="62"/>
-        <v>1.468055555555555</v>
+        <v>1.5881944444444436</v>
       </c>
       <c r="G217" s="15">
         <f t="shared" si="63"/>
-        <v>1.468055555555555</v>
+        <v>1.5881944444444436</v>
       </c>
       <c r="H217" s="15">
         <f t="shared" si="64"/>
-        <v>3.5305555555555559</v>
+        <v>3.6506944444444431</v>
       </c>
       <c r="I217" s="23">
         <f t="shared" si="65"/>
-        <v>14404.66666666667</v>
+        <v>14894.833333333327</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B218" s="56"/>
+      <c r="C218" s="4">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="D218" s="18">
+        <v>0.8534722222222223</v>
+      </c>
+      <c r="E218" s="20">
+        <f t="shared" ref="E218:E281" si="66">D218-C218</f>
+        <v>2.1527777777777923E-2</v>
+      </c>
+      <c r="F218" s="21">
+        <f t="shared" ref="F218:F281" si="67">F217+E218</f>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G218" s="15">
+        <f t="shared" ref="G218:G281" si="68">F218</f>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H218" s="15">
+        <f t="shared" ref="H218:H281" si="69">(H217+G218-G217)</f>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I218" s="23">
+        <f t="shared" ref="I218:I281" si="70">H218*24*$J$32</f>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C219" s="4"/>
+      <c r="D219" s="18"/>
+      <c r="E219" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F219" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G219" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H219" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I219" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C220" s="4"/>
+      <c r="D220" s="18"/>
+      <c r="E220" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F220" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G220" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H220" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I220" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C221" s="4"/>
+      <c r="D221" s="18"/>
+      <c r="E221" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F221" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G221" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H221" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I221" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C222" s="4"/>
+      <c r="D222" s="18"/>
+      <c r="E222" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F222" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G222" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H222" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I222" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C223" s="4"/>
+      <c r="D223" s="18"/>
+      <c r="E223" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F223" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G223" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H223" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I223" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C224" s="4"/>
+      <c r="D224" s="18"/>
+      <c r="E224" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F224" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G224" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H224" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I224" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="225" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C225" s="4"/>
+      <c r="D225" s="18"/>
+      <c r="E225" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F225" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G225" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H225" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I225" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="226" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C226" s="4"/>
+      <c r="D226" s="18"/>
+      <c r="E226" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F226" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G226" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H226" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I226" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="227" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C227" s="4"/>
+      <c r="D227" s="18"/>
+      <c r="E227" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F227" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G227" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H227" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I227" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="228" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C228" s="4"/>
+      <c r="D228" s="18"/>
+      <c r="E228" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F228" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G228" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H228" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I228" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="229" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C229" s="4"/>
+      <c r="D229" s="18"/>
+      <c r="E229" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F229" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G229" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H229" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I229" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="230" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C230" s="4"/>
+      <c r="D230" s="18"/>
+      <c r="E230" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F230" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G230" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H230" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I230" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="231" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C231" s="4"/>
+      <c r="D231" s="18"/>
+      <c r="E231" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F231" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G231" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H231" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I231" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="232" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C232" s="4"/>
+      <c r="D232" s="18"/>
+      <c r="E232" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F232" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G232" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H232" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I232" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="233" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C233" s="4"/>
+      <c r="D233" s="18"/>
+      <c r="E233" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F233" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G233" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H233" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I233" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="234" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C234" s="4"/>
+      <c r="D234" s="18"/>
+      <c r="E234" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F234" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G234" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H234" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I234" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="235" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C235" s="4"/>
+      <c r="D235" s="18"/>
+      <c r="E235" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F235" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G235" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H235" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I235" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="236" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C236" s="4"/>
+      <c r="D236" s="18"/>
+      <c r="E236" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F236" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G236" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H236" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I236" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="237" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C237" s="4"/>
+      <c r="D237" s="18"/>
+      <c r="E237" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F237" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G237" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H237" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I237" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="238" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C238" s="4"/>
+      <c r="D238" s="18"/>
+      <c r="E238" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F238" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G238" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H238" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I238" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="239" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C239" s="4"/>
+      <c r="D239" s="18"/>
+      <c r="E239" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F239" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G239" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H239" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I239" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="240" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C240" s="4"/>
+      <c r="D240" s="18"/>
+      <c r="E240" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F240" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G240" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H240" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I240" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="241" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C241" s="4"/>
+      <c r="D241" s="18"/>
+      <c r="E241" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F241" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G241" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H241" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I241" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="242" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C242" s="4"/>
+      <c r="D242" s="18"/>
+      <c r="E242" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F242" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G242" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H242" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I242" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="243" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C243" s="4"/>
+      <c r="D243" s="18"/>
+      <c r="E243" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F243" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G243" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H243" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I243" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="244" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C244" s="4"/>
+      <c r="D244" s="18"/>
+      <c r="E244" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F244" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G244" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H244" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I244" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="245" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C245" s="4"/>
+      <c r="D245" s="18"/>
+      <c r="E245" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F245" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G245" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H245" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I245" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="246" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C246" s="4"/>
+      <c r="D246" s="18"/>
+      <c r="E246" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F246" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G246" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H246" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I246" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="247" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C247" s="4"/>
+      <c r="D247" s="18"/>
+      <c r="E247" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F247" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G247" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H247" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I247" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="248" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C248" s="4"/>
+      <c r="D248" s="18"/>
+      <c r="E248" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F248" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G248" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H248" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I248" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="249" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C249" s="4"/>
+      <c r="D249" s="18"/>
+      <c r="E249" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F249" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G249" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H249" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I249" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="250" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C250" s="4"/>
+      <c r="D250" s="18"/>
+      <c r="E250" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F250" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G250" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H250" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I250" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="251" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C251" s="4"/>
+      <c r="D251" s="18"/>
+      <c r="E251" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F251" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G251" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H251" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I251" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="252" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C252" s="4"/>
+      <c r="D252" s="18"/>
+      <c r="E252" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F252" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G252" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H252" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I252" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="253" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C253" s="4"/>
+      <c r="D253" s="18"/>
+      <c r="E253" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F253" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G253" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H253" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I253" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="254" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C254" s="4"/>
+      <c r="D254" s="18"/>
+      <c r="E254" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F254" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G254" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H254" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I254" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="255" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C255" s="4"/>
+      <c r="D255" s="18"/>
+      <c r="E255" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F255" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G255" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H255" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I255" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="256" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C256" s="4"/>
+      <c r="D256" s="18"/>
+      <c r="E256" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F256" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G256" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H256" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I256" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="257" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C257" s="4"/>
+      <c r="D257" s="18"/>
+      <c r="E257" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F257" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G257" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H257" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I257" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="258" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C258" s="4"/>
+      <c r="D258" s="18"/>
+      <c r="E258" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F258" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G258" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H258" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I258" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="259" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C259" s="4"/>
+      <c r="D259" s="18"/>
+      <c r="E259" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F259" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G259" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H259" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I259" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="260" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C260" s="4"/>
+      <c r="D260" s="18"/>
+      <c r="E260" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F260" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G260" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H260" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I260" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="261" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C261" s="4"/>
+      <c r="D261" s="18"/>
+      <c r="E261" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F261" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G261" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H261" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I261" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="262" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C262" s="4"/>
+      <c r="D262" s="18"/>
+      <c r="E262" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F262" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G262" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H262" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I262" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="263" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C263" s="4"/>
+      <c r="D263" s="18"/>
+      <c r="E263" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F263" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G263" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H263" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I263" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="264" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C264" s="4"/>
+      <c r="D264" s="18"/>
+      <c r="E264" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F264" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G264" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H264" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I264" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="265" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C265" s="4"/>
+      <c r="D265" s="18"/>
+      <c r="E265" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F265" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G265" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H265" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I265" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="266" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C266" s="4"/>
+      <c r="D266" s="18"/>
+      <c r="E266" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F266" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G266" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H266" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I266" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="267" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C267" s="4"/>
+      <c r="D267" s="18"/>
+      <c r="E267" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F267" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G267" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H267" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I267" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="268" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C268" s="4"/>
+      <c r="D268" s="18"/>
+      <c r="E268" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F268" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G268" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H268" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I268" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="269" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C269" s="4"/>
+      <c r="D269" s="18"/>
+      <c r="E269" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F269" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G269" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H269" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I269" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="270" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C270" s="4"/>
+      <c r="D270" s="18"/>
+      <c r="E270" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F270" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G270" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H270" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I270" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="271" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C271" s="4"/>
+      <c r="D271" s="18"/>
+      <c r="E271" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F271" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G271" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H271" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I271" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="272" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C272" s="4"/>
+      <c r="D272" s="18"/>
+      <c r="E272" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F272" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G272" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H272" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I272" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="273" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C273" s="4"/>
+      <c r="D273" s="18"/>
+      <c r="E273" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F273" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G273" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H273" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I273" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="274" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C274" s="4"/>
+      <c r="D274" s="18"/>
+      <c r="E274" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F274" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G274" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H274" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I274" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="275" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C275" s="4"/>
+      <c r="D275" s="18"/>
+      <c r="E275" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F275" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G275" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H275" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I275" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="276" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C276" s="4"/>
+      <c r="D276" s="18"/>
+      <c r="E276" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F276" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G276" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H276" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I276" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="277" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C277" s="4"/>
+      <c r="D277" s="18"/>
+      <c r="E277" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F277" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G277" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H277" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I277" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="278" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C278" s="4"/>
+      <c r="D278" s="18"/>
+      <c r="E278" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F278" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G278" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H278" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I278" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="279" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C279" s="4"/>
+      <c r="D279" s="18"/>
+      <c r="E279" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F279" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G279" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H279" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I279" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="280" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C280" s="4"/>
+      <c r="D280" s="18"/>
+      <c r="E280" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F280" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G280" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H280" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I280" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="281" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C281" s="4"/>
+      <c r="D281" s="18"/>
+      <c r="E281" s="20">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F281" s="21">
+        <f t="shared" si="67"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G281" s="15">
+        <f t="shared" si="68"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H281" s="15">
+        <f t="shared" si="69"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I281" s="23">
+        <f t="shared" si="70"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="282" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C282" s="4"/>
+      <c r="D282" s="18"/>
+      <c r="E282" s="20">
+        <f t="shared" ref="E282:E342" si="71">D282-C282</f>
+        <v>0</v>
+      </c>
+      <c r="F282" s="21">
+        <f t="shared" ref="F282:F342" si="72">F281+E282</f>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G282" s="15">
+        <f t="shared" ref="G282:G342" si="73">F282</f>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H282" s="15">
+        <f t="shared" ref="H282:H342" si="74">(H281+G282-G281)</f>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I282" s="23">
+        <f t="shared" ref="I282:I342" si="75">H282*24*$J$32</f>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="283" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C283" s="4"/>
+      <c r="D283" s="18"/>
+      <c r="E283" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F283" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G283" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H283" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I283" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="284" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C284" s="4"/>
+      <c r="D284" s="18"/>
+      <c r="E284" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F284" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G284" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H284" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I284" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="285" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C285" s="4"/>
+      <c r="D285" s="18"/>
+      <c r="E285" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F285" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G285" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H285" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I285" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="286" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C286" s="4"/>
+      <c r="D286" s="18"/>
+      <c r="E286" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F286" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G286" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H286" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I286" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="287" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C287" s="4"/>
+      <c r="D287" s="18"/>
+      <c r="E287" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F287" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G287" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H287" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I287" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="288" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C288" s="4"/>
+      <c r="D288" s="18"/>
+      <c r="E288" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F288" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G288" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H288" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I288" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="289" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C289" s="4"/>
+      <c r="D289" s="18"/>
+      <c r="E289" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F289" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G289" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H289" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I289" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="290" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C290" s="4"/>
+      <c r="D290" s="18"/>
+      <c r="E290" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F290" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G290" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H290" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I290" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="291" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C291" s="4"/>
+      <c r="D291" s="18"/>
+      <c r="E291" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F291" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G291" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H291" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I291" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="292" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C292" s="4"/>
+      <c r="D292" s="18"/>
+      <c r="E292" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F292" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G292" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H292" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I292" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="293" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C293" s="4"/>
+      <c r="D293" s="18"/>
+      <c r="E293" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F293" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G293" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H293" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I293" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="294" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C294" s="4"/>
+      <c r="D294" s="18"/>
+      <c r="E294" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F294" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G294" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H294" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I294" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="295" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C295" s="4"/>
+      <c r="D295" s="18"/>
+      <c r="E295" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F295" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G295" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H295" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I295" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="296" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C296" s="4"/>
+      <c r="D296" s="18"/>
+      <c r="E296" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F296" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G296" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H296" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I296" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="297" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C297" s="4"/>
+      <c r="D297" s="18"/>
+      <c r="E297" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F297" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G297" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H297" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I297" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="298" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C298" s="4"/>
+      <c r="D298" s="18"/>
+      <c r="E298" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F298" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G298" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H298" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I298" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="299" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C299" s="4"/>
+      <c r="D299" s="18"/>
+      <c r="E299" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F299" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G299" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H299" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I299" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="300" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C300" s="4"/>
+      <c r="D300" s="18"/>
+      <c r="E300" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F300" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G300" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H300" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I300" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="301" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C301" s="4"/>
+      <c r="D301" s="18"/>
+      <c r="E301" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F301" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G301" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H301" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I301" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="302" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C302" s="4"/>
+      <c r="D302" s="18"/>
+      <c r="E302" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F302" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G302" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H302" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I302" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="303" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C303" s="4"/>
+      <c r="D303" s="18"/>
+      <c r="E303" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F303" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G303" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H303" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I303" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="304" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C304" s="4"/>
+      <c r="D304" s="18"/>
+      <c r="E304" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F304" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G304" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H304" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I304" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="305" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C305" s="4"/>
+      <c r="D305" s="18"/>
+      <c r="E305" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F305" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G305" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H305" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I305" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="306" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C306" s="4"/>
+      <c r="D306" s="18"/>
+      <c r="E306" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F306" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G306" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H306" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I306" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="307" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C307" s="4"/>
+      <c r="D307" s="18"/>
+      <c r="E307" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F307" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G307" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H307" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I307" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="308" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C308" s="4"/>
+      <c r="D308" s="18"/>
+      <c r="E308" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F308" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G308" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H308" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I308" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="309" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C309" s="4"/>
+      <c r="D309" s="18"/>
+      <c r="E309" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F309" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G309" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H309" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I309" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="310" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C310" s="4"/>
+      <c r="D310" s="18"/>
+      <c r="E310" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F310" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G310" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H310" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I310" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="311" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C311" s="4"/>
+      <c r="D311" s="18"/>
+      <c r="E311" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F311" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G311" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H311" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I311" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="312" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C312" s="4"/>
+      <c r="D312" s="18"/>
+      <c r="E312" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F312" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G312" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H312" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I312" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="313" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C313" s="4"/>
+      <c r="D313" s="18"/>
+      <c r="E313" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F313" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G313" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H313" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I313" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="314" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C314" s="4"/>
+      <c r="D314" s="18"/>
+      <c r="E314" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F314" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G314" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H314" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I314" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="315" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C315" s="4"/>
+      <c r="D315" s="18"/>
+      <c r="E315" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F315" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G315" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H315" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I315" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="316" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C316" s="4"/>
+      <c r="D316" s="18"/>
+      <c r="E316" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F316" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G316" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H316" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I316" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="317" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C317" s="4"/>
+      <c r="D317" s="18"/>
+      <c r="E317" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F317" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G317" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H317" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I317" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="318" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C318" s="4"/>
+      <c r="D318" s="18"/>
+      <c r="E318" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F318" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G318" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H318" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I318" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="319" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C319" s="4"/>
+      <c r="D319" s="18"/>
+      <c r="E319" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F319" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G319" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H319" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I319" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="320" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C320" s="4"/>
+      <c r="D320" s="18"/>
+      <c r="E320" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F320" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G320" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H320" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I320" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="321" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C321" s="4"/>
+      <c r="D321" s="18"/>
+      <c r="E321" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F321" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G321" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H321" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I321" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="322" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C322" s="4"/>
+      <c r="D322" s="18"/>
+      <c r="E322" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F322" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G322" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H322" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I322" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="323" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C323" s="4"/>
+      <c r="D323" s="18"/>
+      <c r="E323" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F323" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G323" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H323" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I323" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="324" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C324" s="4"/>
+      <c r="D324" s="18"/>
+      <c r="E324" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F324" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G324" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H324" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I324" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="325" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C325" s="4"/>
+      <c r="D325" s="18"/>
+      <c r="E325" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F325" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G325" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H325" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I325" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="326" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C326" s="4"/>
+      <c r="D326" s="18"/>
+      <c r="E326" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F326" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G326" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H326" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I326" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="327" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C327" s="4"/>
+      <c r="D327" s="18"/>
+      <c r="E327" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F327" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G327" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H327" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I327" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="328" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C328" s="4"/>
+      <c r="D328" s="18"/>
+      <c r="E328" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F328" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G328" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H328" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I328" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="329" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C329" s="4"/>
+      <c r="D329" s="18"/>
+      <c r="E329" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F329" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G329" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H329" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I329" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="330" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C330" s="4"/>
+      <c r="D330" s="18"/>
+      <c r="E330" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F330" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G330" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H330" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I330" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="331" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C331" s="4"/>
+      <c r="D331" s="18"/>
+      <c r="E331" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F331" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G331" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H331" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I331" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="332" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C332" s="4"/>
+      <c r="D332" s="18"/>
+      <c r="E332" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F332" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G332" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H332" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I332" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="333" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C333" s="4"/>
+      <c r="D333" s="18"/>
+      <c r="E333" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F333" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G333" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H333" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I333" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="334" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C334" s="4"/>
+      <c r="D334" s="18"/>
+      <c r="E334" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F334" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G334" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H334" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I334" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="335" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C335" s="4"/>
+      <c r="D335" s="18"/>
+      <c r="E335" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F335" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G335" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H335" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I335" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="336" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C336" s="4"/>
+      <c r="D336" s="18"/>
+      <c r="E336" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F336" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G336" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H336" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I336" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="337" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C337" s="4"/>
+      <c r="D337" s="18"/>
+      <c r="E337" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F337" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G337" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H337" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I337" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="338" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C338" s="4"/>
+      <c r="D338" s="18"/>
+      <c r="E338" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F338" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G338" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H338" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I338" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="339" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C339" s="4"/>
+      <c r="D339" s="18"/>
+      <c r="E339" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F339" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G339" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H339" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I339" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="340" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C340" s="4"/>
+      <c r="D340" s="18"/>
+      <c r="E340" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F340" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G340" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H340" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I340" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="341" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C341" s="4"/>
+      <c r="D341" s="18"/>
+      <c r="E341" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F341" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G341" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H341" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I341" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
+      </c>
+    </row>
+    <row r="342" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C342" s="4"/>
+      <c r="D342" s="18"/>
+      <c r="E342" s="20">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F342" s="21">
+        <f t="shared" si="72"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="G342" s="15">
+        <f t="shared" si="73"/>
+        <v>1.6097222222222216</v>
+      </c>
+      <c r="H342" s="15">
+        <f t="shared" si="74"/>
+        <v>3.6722222222222207</v>
+      </c>
+      <c r="I342" s="23">
+        <f t="shared" si="75"/>
+        <v>14982.666666666661</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="55">
+    <mergeCell ref="B213:B218"/>
+    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B188:B192"/>
+    <mergeCell ref="B164:B170"/>
+    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="B156:B162"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
     <mergeCell ref="B210:B212"/>
     <mergeCell ref="B204:B209"/>
     <mergeCell ref="B146:B149"/>
@@ -7524,44 +10588,6 @@
     <mergeCell ref="B107:B108"/>
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="B109:B113"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B164:B170"/>
-    <mergeCell ref="B151:B155"/>
-    <mergeCell ref="B156:B162"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="K13:K17"/>
-    <mergeCell ref="K18:K22"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B47:B53"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B201:B203"/>
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="B178:B183"/>
-    <mergeCell ref="B184:B187"/>
-    <mergeCell ref="B188:B192"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CB5454-1147-4293-9D21-39B18C0741B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F23A5E-C0A2-470D-B681-2B313EEA3F63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="1305" windowWidth="14670" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -762,6 +762,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -776,9 +779,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:X342"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="K211" sqref="K211"/>
+      <selection activeCell="K215" sqref="K215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,10 +1143,10 @@
       <c r="B1" s="51"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="60" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -1167,8 +1167,8 @@
       <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>16716.666666666664</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="62"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
@@ -1364,7 +1364,7 @@
       <c r="X13" s="6"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="58" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="4">
@@ -1394,7 +1394,7 @@
         <v>16915</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="62"/>
+      <c r="K14" s="57"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
@@ -1410,7 +1410,7 @@
       <c r="X14" s="6"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="57"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>17184.166666666664</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="62"/>
+      <c r="K15" s="57"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
@@ -1454,7 +1454,7 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="57"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>17269.166666666664</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="62"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
@@ -1498,7 +1498,7 @@
       <c r="X16" s="6"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="57"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="4">
         <v>0.80208333333333337</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>17524.166666666664</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="62"/>
+      <c r="K17" s="57"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
@@ -1542,7 +1542,7 @@
       <c r="X17" s="6"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="57"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="4">
         <v>0.875</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>17651.666666666664</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="62"/>
+      <c r="K18" s="57"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
@@ -1586,7 +1586,7 @@
       <c r="X18" s="6"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="4">
@@ -1616,7 +1616,7 @@
         <v>17878.333333333332</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="62"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
@@ -1632,7 +1632,7 @@
       <c r="X19" s="6"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="57"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>18246.666666666664</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="62"/>
+      <c r="K20" s="57"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
@@ -1676,7 +1676,7 @@
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="57"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>18388.333333333332</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="62"/>
+      <c r="K21" s="57"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
@@ -1720,7 +1720,7 @@
       <c r="X21" s="6"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="57"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="4">
         <v>0.75</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>18515.833333333332</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="62"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="9"/>
@@ -1764,7 +1764,7 @@
       <c r="X22" s="6"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="57"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -1808,7 +1808,7 @@
       <c r="X23" s="6"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="62" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="4">
@@ -1854,7 +1854,7 @@
       <c r="X24" s="6"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="61"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -1898,7 +1898,7 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="61"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1942,7 +1942,7 @@
       <c r="X26" s="6"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="61"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="4">
         <v>0.83333333333333337</v>
       </c>
@@ -1986,7 +1986,7 @@
       <c r="X27" s="6"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="58" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="4">
@@ -2032,7 +2032,7 @@
       <c r="X28" s="6"/>
     </row>
     <row r="29" spans="2:24" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="60"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="27">
         <v>0.61111111111111105</v>
       </c>
@@ -2077,10 +2077,10 @@
       <c r="B31" s="51"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="58" t="s">
+      <c r="E31" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="59" t="s">
+      <c r="F31" s="60" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="17" t="s">
@@ -2101,8 +2101,8 @@
       <c r="D32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="12" t="s">
         <v>14</v>
       </c>
@@ -2117,7 +2117,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="58" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="24">
@@ -2148,7 +2148,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="57"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -2177,7 +2177,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="57"/>
+      <c r="B35" s="58"/>
       <c r="C35" s="4">
         <v>0.67013888888888884</v>
       </c>
@@ -2237,7 +2237,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="4">
@@ -2268,7 +2268,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="57"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -2297,7 +2297,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="57"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="4">
         <v>0.77777777777777779</v>
       </c>
@@ -2326,7 +2326,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="57"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="4">
         <v>0.93055555555555547</v>
       </c>
@@ -2355,7 +2355,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="58" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="4">
@@ -2386,7 +2386,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="57"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="4">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -2415,7 +2415,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="57"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="4">
         <v>0.60069444444444442</v>
       </c>
@@ -2444,7 +2444,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="57"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2473,7 +2473,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="57"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="4">
         <v>0.78472222222222221</v>
       </c>
@@ -2502,7 +2502,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="57"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="4">
         <v>0.92708333333333337</v>
       </c>
@@ -2531,7 +2531,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="58" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="4">
@@ -2562,7 +2562,7 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="57"/>
+      <c r="B48" s="58"/>
       <c r="C48" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -2591,7 +2591,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="57"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="4">
         <v>0.74305555555555547</v>
       </c>
@@ -2620,7 +2620,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="57"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="4">
         <v>0.78819444444444453</v>
       </c>
@@ -2649,7 +2649,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="57"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="4">
         <v>0.81597222222222221</v>
       </c>
@@ -2678,7 +2678,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="57"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="4">
         <v>0.89583333333333337</v>
       </c>
@@ -2710,7 +2710,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="57"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="4">
         <v>0.99652777777777779</v>
       </c>
@@ -2742,7 +2742,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="58" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="4">
@@ -2776,7 +2776,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="57"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="4">
         <v>0.19444444444444445</v>
       </c>
@@ -2805,7 +2805,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="57"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="4">
         <v>0.625</v>
       </c>
@@ -2834,7 +2834,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="57"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -2863,7 +2863,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="57"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2892,7 +2892,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="57"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -2952,7 +2952,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="58" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="4">
@@ -2983,7 +2983,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="57"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -3012,7 +3012,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="58" t="s">
         <v>33</v>
       </c>
       <c r="C63" s="4">
@@ -3043,7 +3043,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="57"/>
+      <c r="B64" s="58"/>
       <c r="C64" s="4">
         <v>0.86111111111111116</v>
       </c>
@@ -3072,7 +3072,7 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="57"/>
+      <c r="B65" s="58"/>
       <c r="C65" s="4">
         <v>0.88888888888888884</v>
       </c>
@@ -3101,7 +3101,7 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="57" t="s">
+      <c r="B66" s="58" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="4">
@@ -3132,7 +3132,7 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="57"/>
+      <c r="B67" s="58"/>
       <c r="C67" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -3161,7 +3161,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="57"/>
+      <c r="B68" s="58"/>
       <c r="C68" s="4">
         <v>0.89930555555555547</v>
       </c>
@@ -3190,7 +3190,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="57"/>
+      <c r="B69" s="58"/>
       <c r="C69" s="4">
         <v>0.92361111111111116</v>
       </c>
@@ -3219,7 +3219,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="57" t="s">
+      <c r="B70" s="58" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="4">
@@ -3250,7 +3250,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="57"/>
+      <c r="B71" s="58"/>
       <c r="C71" s="4">
         <v>0.72222222222222221</v>
       </c>
@@ -3310,7 +3310,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="57" t="s">
+      <c r="B73" s="58" t="s">
         <v>37</v>
       </c>
       <c r="C73" s="4">
@@ -3341,7 +3341,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="57"/>
+      <c r="B74" s="58"/>
       <c r="C74" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -3370,7 +3370,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="58" t="s">
         <v>38</v>
       </c>
       <c r="C75" s="4">
@@ -3401,7 +3401,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="57"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -3430,7 +3430,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="57"/>
+      <c r="B77" s="58"/>
       <c r="C77" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -3459,7 +3459,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="57"/>
+      <c r="B78" s="58"/>
       <c r="C78" s="4">
         <v>0.96875</v>
       </c>
@@ -3488,7 +3488,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="57" t="s">
+      <c r="B79" s="58" t="s">
         <v>39</v>
       </c>
       <c r="C79" s="4">
@@ -3522,7 +3522,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="57"/>
+      <c r="B80" s="58"/>
       <c r="C80" s="4">
         <v>0.65625</v>
       </c>
@@ -3551,7 +3551,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="57" t="s">
+      <c r="B81" s="58" t="s">
         <v>41</v>
       </c>
       <c r="C81" s="4">
@@ -3582,7 +3582,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="57"/>
+      <c r="B82" s="58"/>
       <c r="C82" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -3611,7 +3611,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="57"/>
+      <c r="B83" s="58"/>
       <c r="C83" s="4">
         <v>0.69791666666666663</v>
       </c>
@@ -3640,7 +3640,7 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="57" t="s">
+      <c r="B84" s="58" t="s">
         <v>42</v>
       </c>
       <c r="C84" s="4">
@@ -3671,7 +3671,7 @@
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="57"/>
+      <c r="B85" s="58"/>
       <c r="C85" s="4">
         <v>0.61805555555555558</v>
       </c>
@@ -3700,7 +3700,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="57"/>
+      <c r="B86" s="58"/>
       <c r="C86" s="4">
         <v>0.86805555555555547</v>
       </c>
@@ -3729,7 +3729,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="57" t="s">
+      <c r="B87" s="58" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="4">
@@ -3760,7 +3760,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="57"/>
+      <c r="B88" s="58"/>
       <c r="C88" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -3820,7 +3820,7 @@
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="57" t="s">
+      <c r="B90" s="58" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="4">
@@ -3851,7 +3851,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="57"/>
+      <c r="B91" s="58"/>
       <c r="C91" s="4">
         <v>0.3576388888888889</v>
       </c>
@@ -3880,7 +3880,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="57"/>
+      <c r="B92" s="58"/>
       <c r="C92" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -3909,7 +3909,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="57"/>
+      <c r="B93" s="58"/>
       <c r="C93" s="4">
         <v>0.4548611111111111</v>
       </c>
@@ -3938,7 +3938,7 @@
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="57"/>
+      <c r="B94" s="58"/>
       <c r="C94" s="4">
         <v>0.48958333333333331</v>
       </c>
@@ -3967,7 +3967,7 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="57" t="s">
+      <c r="B95" s="58" t="s">
         <v>46</v>
       </c>
       <c r="C95" s="4">
@@ -3998,7 +3998,7 @@
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="57"/>
+      <c r="B96" s="58"/>
       <c r="C96" s="4">
         <v>0.5</v>
       </c>
@@ -4027,7 +4027,7 @@
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="57"/>
+      <c r="B97" s="58"/>
       <c r="C97" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -4056,7 +4056,7 @@
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="57" t="s">
+      <c r="B98" s="58" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="4">
@@ -4087,7 +4087,7 @@
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="57"/>
+      <c r="B99" s="58"/>
       <c r="C99" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4116,7 +4116,7 @@
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="57"/>
+      <c r="B100" s="58"/>
       <c r="C100" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -4145,7 +4145,7 @@
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="57" t="s">
+      <c r="B101" s="58" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="4">
@@ -4176,7 +4176,7 @@
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="57"/>
+      <c r="B102" s="58"/>
       <c r="C102" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4205,7 +4205,7 @@
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="57" t="s">
+      <c r="B103" s="58" t="s">
         <v>50</v>
       </c>
       <c r="C103" s="4">
@@ -4239,7 +4239,7 @@
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="57"/>
+      <c r="B104" s="58"/>
       <c r="C104" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -4268,7 +4268,7 @@
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="57"/>
+      <c r="B105" s="58"/>
       <c r="C105" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -4300,7 +4300,7 @@
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="57"/>
+      <c r="B106" s="58"/>
       <c r="C106" s="4">
         <v>0.70486111111111116</v>
       </c>
@@ -4329,7 +4329,7 @@
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="57" t="s">
+      <c r="B107" s="58" t="s">
         <v>51</v>
       </c>
       <c r="C107" s="4">
@@ -4360,7 +4360,7 @@
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="57"/>
+      <c r="B108" s="58"/>
       <c r="C108" s="4">
         <v>0.98958333333333337</v>
       </c>
@@ -4389,7 +4389,7 @@
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="57" t="s">
+      <c r="B109" s="58" t="s">
         <v>52</v>
       </c>
       <c r="C109" s="4">
@@ -4420,7 +4420,7 @@
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="57"/>
+      <c r="B110" s="58"/>
       <c r="C110" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -4449,7 +4449,7 @@
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="57"/>
+      <c r="B111" s="58"/>
       <c r="C111" s="4">
         <v>0.66319444444444442</v>
       </c>
@@ -4478,7 +4478,7 @@
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="57"/>
+      <c r="B112" s="58"/>
       <c r="C112" s="4">
         <v>0.73958333333333337</v>
       </c>
@@ -4507,7 +4507,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="57"/>
+      <c r="B113" s="58"/>
       <c r="C113" s="4">
         <v>0.80555555555555547</v>
       </c>
@@ -4536,7 +4536,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="57" t="s">
+      <c r="B114" s="58" t="s">
         <v>53</v>
       </c>
       <c r="C114" s="4">
@@ -4567,7 +4567,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="57"/>
+      <c r="B115" s="58"/>
       <c r="C115" s="4">
         <v>0.69097222222222221</v>
       </c>
@@ -4630,7 +4630,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="57" t="s">
+      <c r="B117" s="58" t="s">
         <v>55</v>
       </c>
       <c r="C117" s="4">
@@ -4661,7 +4661,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="57"/>
+      <c r="B118" s="58"/>
       <c r="C118" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4690,7 +4690,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="57"/>
+      <c r="B119" s="58"/>
       <c r="C119" s="4">
         <v>0.59375</v>
       </c>
@@ -4719,7 +4719,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="57"/>
+      <c r="B120" s="58"/>
       <c r="C120" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4748,7 +4748,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="60"/>
+      <c r="B121" s="61"/>
       <c r="C121" s="38">
         <v>0.77777777777777779</v>
       </c>
@@ -4797,10 +4797,10 @@
       <c r="B123" s="51"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
-      <c r="E123" s="58" t="s">
+      <c r="E123" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F123" s="59" t="s">
+      <c r="F123" s="60" t="s">
         <v>18</v>
       </c>
       <c r="G123" s="17" t="s">
@@ -4823,8 +4823,8 @@
       <c r="D124" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="58"/>
-      <c r="F124" s="59"/>
+      <c r="E124" s="59"/>
+      <c r="F124" s="60"/>
       <c r="G124" s="12" t="s">
         <v>14</v>
       </c>
@@ -7556,27 +7556,32 @@
       </c>
     </row>
     <row r="219" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C219" s="4"/>
-      <c r="D219" s="18"/>
+      <c r="B219" s="56"/>
+      <c r="C219" s="4">
+        <v>0.87291666666666667</v>
+      </c>
+      <c r="D219" s="18">
+        <v>0.94166666666666676</v>
+      </c>
       <c r="E219" s="20">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>6.8750000000000089E-2</v>
       </c>
       <c r="F219" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G219" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H219" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222213</v>
       </c>
       <c r="I219" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="220" spans="2:9" x14ac:dyDescent="0.25">
@@ -7588,19 +7593,19 @@
       </c>
       <c r="F220" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G220" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H220" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I220" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.25">
@@ -7612,19 +7617,19 @@
       </c>
       <c r="F221" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G221" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H221" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I221" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="222" spans="2:9" x14ac:dyDescent="0.25">
@@ -7636,19 +7641,19 @@
       </c>
       <c r="F222" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G222" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H222" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I222" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.25">
@@ -7660,19 +7665,19 @@
       </c>
       <c r="F223" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G223" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H223" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I223" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="224" spans="2:9" x14ac:dyDescent="0.25">
@@ -7684,19 +7689,19 @@
       </c>
       <c r="F224" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G224" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H224" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I224" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="225" spans="3:9" x14ac:dyDescent="0.25">
@@ -7708,19 +7713,19 @@
       </c>
       <c r="F225" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G225" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H225" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I225" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="226" spans="3:9" x14ac:dyDescent="0.25">
@@ -7732,19 +7737,19 @@
       </c>
       <c r="F226" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G226" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H226" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I226" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="227" spans="3:9" x14ac:dyDescent="0.25">
@@ -7756,19 +7761,19 @@
       </c>
       <c r="F227" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G227" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H227" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I227" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="228" spans="3:9" x14ac:dyDescent="0.25">
@@ -7780,19 +7785,19 @@
       </c>
       <c r="F228" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G228" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H228" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I228" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="229" spans="3:9" x14ac:dyDescent="0.25">
@@ -7804,19 +7809,19 @@
       </c>
       <c r="F229" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G229" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H229" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I229" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="230" spans="3:9" x14ac:dyDescent="0.25">
@@ -7828,19 +7833,19 @@
       </c>
       <c r="F230" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G230" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H230" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I230" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="231" spans="3:9" x14ac:dyDescent="0.25">
@@ -7852,19 +7857,19 @@
       </c>
       <c r="F231" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G231" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H231" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I231" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="232" spans="3:9" x14ac:dyDescent="0.25">
@@ -7876,19 +7881,19 @@
       </c>
       <c r="F232" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G232" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H232" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I232" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="233" spans="3:9" x14ac:dyDescent="0.25">
@@ -7900,19 +7905,19 @@
       </c>
       <c r="F233" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G233" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H233" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I233" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="234" spans="3:9" x14ac:dyDescent="0.25">
@@ -7924,19 +7929,19 @@
       </c>
       <c r="F234" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G234" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H234" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I234" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="235" spans="3:9" x14ac:dyDescent="0.25">
@@ -7948,19 +7953,19 @@
       </c>
       <c r="F235" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G235" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H235" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I235" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="236" spans="3:9" x14ac:dyDescent="0.25">
@@ -7972,19 +7977,19 @@
       </c>
       <c r="F236" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G236" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H236" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I236" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="237" spans="3:9" x14ac:dyDescent="0.25">
@@ -7996,19 +8001,19 @@
       </c>
       <c r="F237" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G237" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H237" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I237" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="238" spans="3:9" x14ac:dyDescent="0.25">
@@ -8020,19 +8025,19 @@
       </c>
       <c r="F238" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G238" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H238" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I238" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="239" spans="3:9" x14ac:dyDescent="0.25">
@@ -8044,19 +8049,19 @@
       </c>
       <c r="F239" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G239" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H239" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I239" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="240" spans="3:9" x14ac:dyDescent="0.25">
@@ -8068,19 +8073,19 @@
       </c>
       <c r="F240" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G240" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H240" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I240" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="241" spans="3:9" x14ac:dyDescent="0.25">
@@ -8092,19 +8097,19 @@
       </c>
       <c r="F241" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G241" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H241" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I241" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="242" spans="3:9" x14ac:dyDescent="0.25">
@@ -8116,19 +8121,19 @@
       </c>
       <c r="F242" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G242" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H242" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I242" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="243" spans="3:9" x14ac:dyDescent="0.25">
@@ -8140,19 +8145,19 @@
       </c>
       <c r="F243" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G243" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H243" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I243" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="244" spans="3:9" x14ac:dyDescent="0.25">
@@ -8164,19 +8169,19 @@
       </c>
       <c r="F244" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G244" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H244" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I244" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="245" spans="3:9" x14ac:dyDescent="0.25">
@@ -8188,19 +8193,19 @@
       </c>
       <c r="F245" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G245" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H245" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I245" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="246" spans="3:9" x14ac:dyDescent="0.25">
@@ -8212,19 +8217,19 @@
       </c>
       <c r="F246" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G246" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H246" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I246" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="247" spans="3:9" x14ac:dyDescent="0.25">
@@ -8236,19 +8241,19 @@
       </c>
       <c r="F247" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G247" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H247" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I247" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="248" spans="3:9" x14ac:dyDescent="0.25">
@@ -8260,19 +8265,19 @@
       </c>
       <c r="F248" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G248" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H248" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I248" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="249" spans="3:9" x14ac:dyDescent="0.25">
@@ -8284,19 +8289,19 @@
       </c>
       <c r="F249" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G249" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H249" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I249" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="250" spans="3:9" x14ac:dyDescent="0.25">
@@ -8308,19 +8313,19 @@
       </c>
       <c r="F250" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G250" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H250" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I250" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="251" spans="3:9" x14ac:dyDescent="0.25">
@@ -8332,19 +8337,19 @@
       </c>
       <c r="F251" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G251" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H251" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I251" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="252" spans="3:9" x14ac:dyDescent="0.25">
@@ -8356,19 +8361,19 @@
       </c>
       <c r="F252" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G252" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H252" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I252" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="253" spans="3:9" x14ac:dyDescent="0.25">
@@ -8380,19 +8385,19 @@
       </c>
       <c r="F253" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G253" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H253" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I253" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="254" spans="3:9" x14ac:dyDescent="0.25">
@@ -8404,19 +8409,19 @@
       </c>
       <c r="F254" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G254" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H254" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I254" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="255" spans="3:9" x14ac:dyDescent="0.25">
@@ -8428,19 +8433,19 @@
       </c>
       <c r="F255" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G255" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H255" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I255" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="256" spans="3:9" x14ac:dyDescent="0.25">
@@ -8452,19 +8457,19 @@
       </c>
       <c r="F256" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G256" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H256" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I256" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="257" spans="3:9" x14ac:dyDescent="0.25">
@@ -8476,19 +8481,19 @@
       </c>
       <c r="F257" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G257" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H257" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I257" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="258" spans="3:9" x14ac:dyDescent="0.25">
@@ -8500,19 +8505,19 @@
       </c>
       <c r="F258" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G258" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H258" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I258" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="259" spans="3:9" x14ac:dyDescent="0.25">
@@ -8524,19 +8529,19 @@
       </c>
       <c r="F259" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G259" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H259" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I259" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="260" spans="3:9" x14ac:dyDescent="0.25">
@@ -8548,19 +8553,19 @@
       </c>
       <c r="F260" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G260" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H260" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I260" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="261" spans="3:9" x14ac:dyDescent="0.25">
@@ -8572,19 +8577,19 @@
       </c>
       <c r="F261" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G261" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H261" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I261" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="262" spans="3:9" x14ac:dyDescent="0.25">
@@ -8596,19 +8601,19 @@
       </c>
       <c r="F262" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G262" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H262" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I262" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="263" spans="3:9" x14ac:dyDescent="0.25">
@@ -8620,19 +8625,19 @@
       </c>
       <c r="F263" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G263" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H263" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I263" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="264" spans="3:9" x14ac:dyDescent="0.25">
@@ -8644,19 +8649,19 @@
       </c>
       <c r="F264" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G264" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H264" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I264" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="265" spans="3:9" x14ac:dyDescent="0.25">
@@ -8668,19 +8673,19 @@
       </c>
       <c r="F265" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G265" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H265" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I265" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="266" spans="3:9" x14ac:dyDescent="0.25">
@@ -8692,19 +8697,19 @@
       </c>
       <c r="F266" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G266" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H266" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I266" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="267" spans="3:9" x14ac:dyDescent="0.25">
@@ -8716,19 +8721,19 @@
       </c>
       <c r="F267" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G267" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H267" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I267" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="268" spans="3:9" x14ac:dyDescent="0.25">
@@ -8740,19 +8745,19 @@
       </c>
       <c r="F268" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G268" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H268" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I268" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="269" spans="3:9" x14ac:dyDescent="0.25">
@@ -8764,19 +8769,19 @@
       </c>
       <c r="F269" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G269" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H269" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I269" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="270" spans="3:9" x14ac:dyDescent="0.25">
@@ -8788,19 +8793,19 @@
       </c>
       <c r="F270" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G270" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H270" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I270" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="271" spans="3:9" x14ac:dyDescent="0.25">
@@ -8812,19 +8817,19 @@
       </c>
       <c r="F271" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G271" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H271" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I271" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="272" spans="3:9" x14ac:dyDescent="0.25">
@@ -8836,19 +8841,19 @@
       </c>
       <c r="F272" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G272" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H272" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I272" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="273" spans="3:9" x14ac:dyDescent="0.25">
@@ -8860,19 +8865,19 @@
       </c>
       <c r="F273" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G273" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H273" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I273" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="274" spans="3:9" x14ac:dyDescent="0.25">
@@ -8884,19 +8889,19 @@
       </c>
       <c r="F274" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G274" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H274" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I274" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="275" spans="3:9" x14ac:dyDescent="0.25">
@@ -8908,19 +8913,19 @@
       </c>
       <c r="F275" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G275" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H275" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I275" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="276" spans="3:9" x14ac:dyDescent="0.25">
@@ -8932,19 +8937,19 @@
       </c>
       <c r="F276" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G276" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H276" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I276" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="277" spans="3:9" x14ac:dyDescent="0.25">
@@ -8956,19 +8961,19 @@
       </c>
       <c r="F277" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G277" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H277" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I277" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="278" spans="3:9" x14ac:dyDescent="0.25">
@@ -8980,19 +8985,19 @@
       </c>
       <c r="F278" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G278" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H278" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I278" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="279" spans="3:9" x14ac:dyDescent="0.25">
@@ -9004,19 +9009,19 @@
       </c>
       <c r="F279" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G279" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H279" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I279" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="280" spans="3:9" x14ac:dyDescent="0.25">
@@ -9028,19 +9033,19 @@
       </c>
       <c r="F280" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G280" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H280" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I280" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="281" spans="3:9" x14ac:dyDescent="0.25">
@@ -9052,19 +9057,19 @@
       </c>
       <c r="F281" s="21">
         <f t="shared" si="67"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G281" s="15">
         <f t="shared" si="68"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H281" s="15">
         <f t="shared" si="69"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I281" s="23">
         <f t="shared" si="70"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="282" spans="3:9" x14ac:dyDescent="0.25">
@@ -9076,19 +9081,19 @@
       </c>
       <c r="F282" s="21">
         <f t="shared" ref="F282:F342" si="72">F281+E282</f>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G282" s="15">
         <f t="shared" ref="G282:G342" si="73">F282</f>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H282" s="15">
         <f t="shared" ref="H282:H342" si="74">(H281+G282-G281)</f>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I282" s="23">
         <f t="shared" ref="I282:I342" si="75">H282*24*$J$32</f>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="283" spans="3:9" x14ac:dyDescent="0.25">
@@ -9100,19 +9105,19 @@
       </c>
       <c r="F283" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G283" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H283" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I283" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="284" spans="3:9" x14ac:dyDescent="0.25">
@@ -9124,19 +9129,19 @@
       </c>
       <c r="F284" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G284" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H284" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I284" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="285" spans="3:9" x14ac:dyDescent="0.25">
@@ -9148,19 +9153,19 @@
       </c>
       <c r="F285" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G285" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H285" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I285" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="286" spans="3:9" x14ac:dyDescent="0.25">
@@ -9172,19 +9177,19 @@
       </c>
       <c r="F286" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G286" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H286" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I286" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="287" spans="3:9" x14ac:dyDescent="0.25">
@@ -9196,19 +9201,19 @@
       </c>
       <c r="F287" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G287" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H287" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I287" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="288" spans="3:9" x14ac:dyDescent="0.25">
@@ -9220,19 +9225,19 @@
       </c>
       <c r="F288" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G288" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H288" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I288" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="289" spans="3:9" x14ac:dyDescent="0.25">
@@ -9244,19 +9249,19 @@
       </c>
       <c r="F289" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G289" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H289" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I289" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="290" spans="3:9" x14ac:dyDescent="0.25">
@@ -9268,19 +9273,19 @@
       </c>
       <c r="F290" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G290" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H290" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I290" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="291" spans="3:9" x14ac:dyDescent="0.25">
@@ -9292,19 +9297,19 @@
       </c>
       <c r="F291" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G291" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H291" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I291" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="292" spans="3:9" x14ac:dyDescent="0.25">
@@ -9316,19 +9321,19 @@
       </c>
       <c r="F292" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G292" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H292" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I292" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="293" spans="3:9" x14ac:dyDescent="0.25">
@@ -9340,19 +9345,19 @@
       </c>
       <c r="F293" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G293" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H293" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I293" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="294" spans="3:9" x14ac:dyDescent="0.25">
@@ -9364,19 +9369,19 @@
       </c>
       <c r="F294" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G294" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H294" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I294" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="295" spans="3:9" x14ac:dyDescent="0.25">
@@ -9388,19 +9393,19 @@
       </c>
       <c r="F295" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G295" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H295" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I295" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="296" spans="3:9" x14ac:dyDescent="0.25">
@@ -9412,19 +9417,19 @@
       </c>
       <c r="F296" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G296" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H296" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I296" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="297" spans="3:9" x14ac:dyDescent="0.25">
@@ -9436,19 +9441,19 @@
       </c>
       <c r="F297" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G297" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H297" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I297" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="298" spans="3:9" x14ac:dyDescent="0.25">
@@ -9460,19 +9465,19 @@
       </c>
       <c r="F298" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G298" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H298" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I298" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="299" spans="3:9" x14ac:dyDescent="0.25">
@@ -9484,19 +9489,19 @@
       </c>
       <c r="F299" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G299" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H299" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I299" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="300" spans="3:9" x14ac:dyDescent="0.25">
@@ -9508,19 +9513,19 @@
       </c>
       <c r="F300" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G300" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H300" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I300" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="301" spans="3:9" x14ac:dyDescent="0.25">
@@ -9532,19 +9537,19 @@
       </c>
       <c r="F301" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G301" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H301" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I301" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="302" spans="3:9" x14ac:dyDescent="0.25">
@@ -9556,19 +9561,19 @@
       </c>
       <c r="F302" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G302" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H302" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I302" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="303" spans="3:9" x14ac:dyDescent="0.25">
@@ -9580,19 +9585,19 @@
       </c>
       <c r="F303" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G303" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H303" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I303" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="304" spans="3:9" x14ac:dyDescent="0.25">
@@ -9604,19 +9609,19 @@
       </c>
       <c r="F304" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G304" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H304" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I304" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="305" spans="3:9" x14ac:dyDescent="0.25">
@@ -9628,19 +9633,19 @@
       </c>
       <c r="F305" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G305" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H305" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I305" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="306" spans="3:9" x14ac:dyDescent="0.25">
@@ -9652,19 +9657,19 @@
       </c>
       <c r="F306" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G306" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H306" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I306" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="307" spans="3:9" x14ac:dyDescent="0.25">
@@ -9676,19 +9681,19 @@
       </c>
       <c r="F307" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G307" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H307" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I307" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="308" spans="3:9" x14ac:dyDescent="0.25">
@@ -9700,19 +9705,19 @@
       </c>
       <c r="F308" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G308" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H308" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I308" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="309" spans="3:9" x14ac:dyDescent="0.25">
@@ -9724,19 +9729,19 @@
       </c>
       <c r="F309" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G309" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H309" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I309" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="310" spans="3:9" x14ac:dyDescent="0.25">
@@ -9748,19 +9753,19 @@
       </c>
       <c r="F310" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G310" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H310" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I310" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="311" spans="3:9" x14ac:dyDescent="0.25">
@@ -9772,19 +9777,19 @@
       </c>
       <c r="F311" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G311" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H311" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I311" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="312" spans="3:9" x14ac:dyDescent="0.25">
@@ -9796,19 +9801,19 @@
       </c>
       <c r="F312" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G312" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H312" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I312" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="313" spans="3:9" x14ac:dyDescent="0.25">
@@ -9820,19 +9825,19 @@
       </c>
       <c r="F313" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G313" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H313" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I313" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="314" spans="3:9" x14ac:dyDescent="0.25">
@@ -9844,19 +9849,19 @@
       </c>
       <c r="F314" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G314" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H314" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I314" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="315" spans="3:9" x14ac:dyDescent="0.25">
@@ -9868,19 +9873,19 @@
       </c>
       <c r="F315" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G315" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H315" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I315" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="316" spans="3:9" x14ac:dyDescent="0.25">
@@ -9892,19 +9897,19 @@
       </c>
       <c r="F316" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G316" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H316" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I316" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="317" spans="3:9" x14ac:dyDescent="0.25">
@@ -9916,19 +9921,19 @@
       </c>
       <c r="F317" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G317" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H317" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I317" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="318" spans="3:9" x14ac:dyDescent="0.25">
@@ -9940,19 +9945,19 @@
       </c>
       <c r="F318" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G318" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H318" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I318" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="319" spans="3:9" x14ac:dyDescent="0.25">
@@ -9964,19 +9969,19 @@
       </c>
       <c r="F319" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G319" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H319" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I319" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="320" spans="3:9" x14ac:dyDescent="0.25">
@@ -9988,19 +9993,19 @@
       </c>
       <c r="F320" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G320" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H320" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I320" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="321" spans="3:9" x14ac:dyDescent="0.25">
@@ -10012,19 +10017,19 @@
       </c>
       <c r="F321" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G321" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H321" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I321" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="322" spans="3:9" x14ac:dyDescent="0.25">
@@ -10036,19 +10041,19 @@
       </c>
       <c r="F322" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G322" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H322" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I322" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="323" spans="3:9" x14ac:dyDescent="0.25">
@@ -10060,19 +10065,19 @@
       </c>
       <c r="F323" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G323" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H323" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I323" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="324" spans="3:9" x14ac:dyDescent="0.25">
@@ -10084,19 +10089,19 @@
       </c>
       <c r="F324" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G324" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H324" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I324" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="325" spans="3:9" x14ac:dyDescent="0.25">
@@ -10108,19 +10113,19 @@
       </c>
       <c r="F325" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G325" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H325" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I325" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="326" spans="3:9" x14ac:dyDescent="0.25">
@@ -10132,19 +10137,19 @@
       </c>
       <c r="F326" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G326" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H326" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I326" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="327" spans="3:9" x14ac:dyDescent="0.25">
@@ -10156,19 +10161,19 @@
       </c>
       <c r="F327" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G327" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H327" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I327" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="328" spans="3:9" x14ac:dyDescent="0.25">
@@ -10180,19 +10185,19 @@
       </c>
       <c r="F328" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G328" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H328" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I328" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="329" spans="3:9" x14ac:dyDescent="0.25">
@@ -10204,19 +10209,19 @@
       </c>
       <c r="F329" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G329" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H329" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I329" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="330" spans="3:9" x14ac:dyDescent="0.25">
@@ -10228,19 +10233,19 @@
       </c>
       <c r="F330" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G330" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H330" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I330" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="331" spans="3:9" x14ac:dyDescent="0.25">
@@ -10252,19 +10257,19 @@
       </c>
       <c r="F331" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G331" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H331" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I331" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="332" spans="3:9" x14ac:dyDescent="0.25">
@@ -10276,19 +10281,19 @@
       </c>
       <c r="F332" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G332" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H332" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I332" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="333" spans="3:9" x14ac:dyDescent="0.25">
@@ -10300,19 +10305,19 @@
       </c>
       <c r="F333" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G333" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H333" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I333" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="334" spans="3:9" x14ac:dyDescent="0.25">
@@ -10324,19 +10329,19 @@
       </c>
       <c r="F334" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G334" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H334" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I334" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="335" spans="3:9" x14ac:dyDescent="0.25">
@@ -10348,19 +10353,19 @@
       </c>
       <c r="F335" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G335" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H335" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I335" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="336" spans="3:9" x14ac:dyDescent="0.25">
@@ -10372,19 +10377,19 @@
       </c>
       <c r="F336" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G336" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H336" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I336" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="337" spans="3:9" x14ac:dyDescent="0.25">
@@ -10396,19 +10401,19 @@
       </c>
       <c r="F337" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G337" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H337" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I337" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="338" spans="3:9" x14ac:dyDescent="0.25">
@@ -10420,19 +10425,19 @@
       </c>
       <c r="F338" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G338" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H338" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I338" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="339" spans="3:9" x14ac:dyDescent="0.25">
@@ -10444,19 +10449,19 @@
       </c>
       <c r="F339" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G339" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H339" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I339" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="340" spans="3:9" x14ac:dyDescent="0.25">
@@ -10468,19 +10473,19 @@
       </c>
       <c r="F340" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G340" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H340" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I340" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="341" spans="3:9" x14ac:dyDescent="0.25">
@@ -10492,19 +10497,19 @@
       </c>
       <c r="F341" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G341" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H341" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I341" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
     <row r="342" spans="3:9" x14ac:dyDescent="0.25">
@@ -10516,31 +10521,52 @@
       </c>
       <c r="F342" s="21">
         <f t="shared" si="72"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="G342" s="15">
         <f t="shared" si="73"/>
-        <v>1.6097222222222216</v>
+        <v>1.6784722222222217</v>
       </c>
       <c r="H342" s="15">
         <f t="shared" si="74"/>
-        <v>3.6722222222222207</v>
+        <v>3.7409722222222208</v>
       </c>
       <c r="I342" s="23">
         <f t="shared" si="75"/>
-        <v>14982.666666666661</v>
+        <v>15263.166666666661</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B213:B218"/>
-    <mergeCell ref="B201:B203"/>
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="B178:B183"/>
-    <mergeCell ref="B184:B187"/>
-    <mergeCell ref="B188:B192"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
     <mergeCell ref="B164:B170"/>
     <mergeCell ref="B151:B155"/>
     <mergeCell ref="B156:B162"/>
@@ -10557,37 +10583,16 @@
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B188:B192"/>
     <mergeCell ref="B210:B212"/>
     <mergeCell ref="B204:B209"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B213:B219"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F23A5E-C0A2-470D-B681-2B313EEA3F63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BEC2C7-CA90-4AAE-AE4C-3D36DF07E55B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="1305" windowWidth="14670" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
   <si>
     <t>Vektorizace, první sada</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>15.2.</t>
+  </si>
+  <si>
+    <t>16.2.</t>
   </si>
 </sst>
 </file>
@@ -762,9 +765,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -779,6 +779,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,7 +1124,7 @@
   <dimension ref="A1:X342"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="K215" sqref="K215"/>
+      <selection activeCell="D224" sqref="D224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,10 +1146,10 @@
       <c r="B1" s="51"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="59" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -1167,8 +1170,8 @@
       <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
@@ -1348,7 +1351,7 @@
         <v>16716.666666666664</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="57"/>
+      <c r="K13" s="62"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
@@ -1364,7 +1367,7 @@
       <c r="X13" s="6"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="57" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="4">
@@ -1394,7 +1397,7 @@
         <v>16915</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="57"/>
+      <c r="K14" s="62"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
@@ -1410,7 +1413,7 @@
       <c r="X14" s="6"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="58"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -1438,7 +1441,7 @@
         <v>17184.166666666664</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="57"/>
+      <c r="K15" s="62"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
@@ -1454,7 +1457,7 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="58"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>17269.166666666664</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="57"/>
+      <c r="K16" s="62"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
@@ -1498,7 +1501,7 @@
       <c r="X16" s="6"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="58"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="4">
         <v>0.80208333333333337</v>
       </c>
@@ -1526,7 +1529,7 @@
         <v>17524.166666666664</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="57"/>
+      <c r="K17" s="62"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
@@ -1542,7 +1545,7 @@
       <c r="X17" s="6"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="58"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="4">
         <v>0.875</v>
       </c>
@@ -1570,7 +1573,7 @@
         <v>17651.666666666664</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="57"/>
+      <c r="K18" s="62"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
@@ -1586,7 +1589,7 @@
       <c r="X18" s="6"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="57" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="4">
@@ -1616,7 +1619,7 @@
         <v>17878.333333333332</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="57"/>
+      <c r="K19" s="62"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
@@ -1632,7 +1635,7 @@
       <c r="X19" s="6"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="58"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1660,7 +1663,7 @@
         <v>18246.666666666664</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="57"/>
+      <c r="K20" s="62"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
@@ -1676,7 +1679,7 @@
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="58"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1704,7 +1707,7 @@
         <v>18388.333333333332</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="57"/>
+      <c r="K21" s="62"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
@@ -1720,7 +1723,7 @@
       <c r="X21" s="6"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="58"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="4">
         <v>0.75</v>
       </c>
@@ -1748,7 +1751,7 @@
         <v>18515.833333333332</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="57"/>
+      <c r="K22" s="62"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="9"/>
@@ -1764,7 +1767,7 @@
       <c r="X22" s="6"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="58"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -1808,7 +1811,7 @@
       <c r="X23" s="6"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="61" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="4">
@@ -1854,7 +1857,7 @@
       <c r="X24" s="6"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="62"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -1898,7 +1901,7 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="62"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1942,7 +1945,7 @@
       <c r="X26" s="6"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="62"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="4">
         <v>0.83333333333333337</v>
       </c>
@@ -1986,7 +1989,7 @@
       <c r="X27" s="6"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="57" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="4">
@@ -2032,7 +2035,7 @@
       <c r="X28" s="6"/>
     </row>
     <row r="29" spans="2:24" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="61"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="27">
         <v>0.61111111111111105</v>
       </c>
@@ -2077,10 +2080,10 @@
       <c r="B31" s="51"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="59" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="17" t="s">
@@ -2101,8 +2104,8 @@
       <c r="D32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="60"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="59"/>
       <c r="G32" s="12" t="s">
         <v>14</v>
       </c>
@@ -2117,7 +2120,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="57" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="24">
@@ -2148,7 +2151,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="58"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -2177,7 +2180,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="58"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="4">
         <v>0.67013888888888884</v>
       </c>
@@ -2237,7 +2240,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="57" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="4">
@@ -2268,7 +2271,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="58"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -2297,7 +2300,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="58"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="4">
         <v>0.77777777777777779</v>
       </c>
@@ -2326,7 +2329,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="58"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="4">
         <v>0.93055555555555547</v>
       </c>
@@ -2355,7 +2358,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="57" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="4">
@@ -2386,7 +2389,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="58"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="4">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -2415,7 +2418,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="58"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="4">
         <v>0.60069444444444442</v>
       </c>
@@ -2444,7 +2447,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="58"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2473,7 +2476,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="58"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="4">
         <v>0.78472222222222221</v>
       </c>
@@ -2502,7 +2505,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="58"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="4">
         <v>0.92708333333333337</v>
       </c>
@@ -2531,7 +2534,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="57" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="4">
@@ -2562,7 +2565,7 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="58"/>
+      <c r="B48" s="57"/>
       <c r="C48" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -2591,7 +2594,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="58"/>
+      <c r="B49" s="57"/>
       <c r="C49" s="4">
         <v>0.74305555555555547</v>
       </c>
@@ -2620,7 +2623,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="58"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="4">
         <v>0.78819444444444453</v>
       </c>
@@ -2649,7 +2652,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="58"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="4">
         <v>0.81597222222222221</v>
       </c>
@@ -2678,7 +2681,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="58"/>
+      <c r="B52" s="57"/>
       <c r="C52" s="4">
         <v>0.89583333333333337</v>
       </c>
@@ -2710,7 +2713,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="58"/>
+      <c r="B53" s="57"/>
       <c r="C53" s="4">
         <v>0.99652777777777779</v>
       </c>
@@ -2742,7 +2745,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="57" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="4">
@@ -2776,7 +2779,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="58"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="4">
         <v>0.19444444444444445</v>
       </c>
@@ -2805,7 +2808,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="58"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="4">
         <v>0.625</v>
       </c>
@@ -2834,7 +2837,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="58"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -2863,7 +2866,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="58"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2892,7 +2895,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="58"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -2952,7 +2955,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="57" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="4">
@@ -2983,7 +2986,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="58"/>
+      <c r="B62" s="57"/>
       <c r="C62" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -3012,7 +3015,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="58" t="s">
+      <c r="B63" s="57" t="s">
         <v>33</v>
       </c>
       <c r="C63" s="4">
@@ -3043,7 +3046,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="58"/>
+      <c r="B64" s="57"/>
       <c r="C64" s="4">
         <v>0.86111111111111116</v>
       </c>
@@ -3072,7 +3075,7 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="58"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="4">
         <v>0.88888888888888884</v>
       </c>
@@ -3101,7 +3104,7 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="58" t="s">
+      <c r="B66" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="4">
@@ -3132,7 +3135,7 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="58"/>
+      <c r="B67" s="57"/>
       <c r="C67" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -3161,7 +3164,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="58"/>
+      <c r="B68" s="57"/>
       <c r="C68" s="4">
         <v>0.89930555555555547</v>
       </c>
@@ -3190,7 +3193,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="58"/>
+      <c r="B69" s="57"/>
       <c r="C69" s="4">
         <v>0.92361111111111116</v>
       </c>
@@ -3219,7 +3222,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="57" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="4">
@@ -3250,7 +3253,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="58"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="4">
         <v>0.72222222222222221</v>
       </c>
@@ -3310,7 +3313,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="58" t="s">
+      <c r="B73" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C73" s="4">
@@ -3341,7 +3344,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="58"/>
+      <c r="B74" s="57"/>
       <c r="C74" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -3370,7 +3373,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="57" t="s">
         <v>38</v>
       </c>
       <c r="C75" s="4">
@@ -3401,7 +3404,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="58"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -3430,7 +3433,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="58"/>
+      <c r="B77" s="57"/>
       <c r="C77" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -3459,7 +3462,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="58"/>
+      <c r="B78" s="57"/>
       <c r="C78" s="4">
         <v>0.96875</v>
       </c>
@@ -3488,7 +3491,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="58" t="s">
+      <c r="B79" s="57" t="s">
         <v>39</v>
       </c>
       <c r="C79" s="4">
@@ -3522,7 +3525,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="58"/>
+      <c r="B80" s="57"/>
       <c r="C80" s="4">
         <v>0.65625</v>
       </c>
@@ -3551,7 +3554,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="58" t="s">
+      <c r="B81" s="57" t="s">
         <v>41</v>
       </c>
       <c r="C81" s="4">
@@ -3582,7 +3585,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="58"/>
+      <c r="B82" s="57"/>
       <c r="C82" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -3611,7 +3614,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="58"/>
+      <c r="B83" s="57"/>
       <c r="C83" s="4">
         <v>0.69791666666666663</v>
       </c>
@@ -3640,7 +3643,7 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="58" t="s">
+      <c r="B84" s="57" t="s">
         <v>42</v>
       </c>
       <c r="C84" s="4">
@@ -3671,7 +3674,7 @@
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="58"/>
+      <c r="B85" s="57"/>
       <c r="C85" s="4">
         <v>0.61805555555555558</v>
       </c>
@@ -3700,7 +3703,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="58"/>
+      <c r="B86" s="57"/>
       <c r="C86" s="4">
         <v>0.86805555555555547</v>
       </c>
@@ -3729,7 +3732,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="58" t="s">
+      <c r="B87" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="4">
@@ -3760,7 +3763,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="58"/>
+      <c r="B88" s="57"/>
       <c r="C88" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -3820,7 +3823,7 @@
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="58" t="s">
+      <c r="B90" s="57" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="4">
@@ -3851,7 +3854,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="58"/>
+      <c r="B91" s="57"/>
       <c r="C91" s="4">
         <v>0.3576388888888889</v>
       </c>
@@ -3880,7 +3883,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="58"/>
+      <c r="B92" s="57"/>
       <c r="C92" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -3909,7 +3912,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="58"/>
+      <c r="B93" s="57"/>
       <c r="C93" s="4">
         <v>0.4548611111111111</v>
       </c>
@@ -3938,7 +3941,7 @@
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="58"/>
+      <c r="B94" s="57"/>
       <c r="C94" s="4">
         <v>0.48958333333333331</v>
       </c>
@@ -3967,7 +3970,7 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="58" t="s">
+      <c r="B95" s="57" t="s">
         <v>46</v>
       </c>
       <c r="C95" s="4">
@@ -3998,7 +4001,7 @@
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="58"/>
+      <c r="B96" s="57"/>
       <c r="C96" s="4">
         <v>0.5</v>
       </c>
@@ -4027,7 +4030,7 @@
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="58"/>
+      <c r="B97" s="57"/>
       <c r="C97" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -4056,7 +4059,7 @@
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="58" t="s">
+      <c r="B98" s="57" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="4">
@@ -4087,7 +4090,7 @@
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="58"/>
+      <c r="B99" s="57"/>
       <c r="C99" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4116,7 +4119,7 @@
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="58"/>
+      <c r="B100" s="57"/>
       <c r="C100" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -4145,7 +4148,7 @@
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="58" t="s">
+      <c r="B101" s="57" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="4">
@@ -4176,7 +4179,7 @@
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="58"/>
+      <c r="B102" s="57"/>
       <c r="C102" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4205,7 +4208,7 @@
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="58" t="s">
+      <c r="B103" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C103" s="4">
@@ -4239,7 +4242,7 @@
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="58"/>
+      <c r="B104" s="57"/>
       <c r="C104" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -4268,7 +4271,7 @@
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="58"/>
+      <c r="B105" s="57"/>
       <c r="C105" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -4300,7 +4303,7 @@
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="58"/>
+      <c r="B106" s="57"/>
       <c r="C106" s="4">
         <v>0.70486111111111116</v>
       </c>
@@ -4329,7 +4332,7 @@
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="58" t="s">
+      <c r="B107" s="57" t="s">
         <v>51</v>
       </c>
       <c r="C107" s="4">
@@ -4360,7 +4363,7 @@
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="58"/>
+      <c r="B108" s="57"/>
       <c r="C108" s="4">
         <v>0.98958333333333337</v>
       </c>
@@ -4389,7 +4392,7 @@
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="58" t="s">
+      <c r="B109" s="57" t="s">
         <v>52</v>
       </c>
       <c r="C109" s="4">
@@ -4420,7 +4423,7 @@
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="58"/>
+      <c r="B110" s="57"/>
       <c r="C110" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -4449,7 +4452,7 @@
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="58"/>
+      <c r="B111" s="57"/>
       <c r="C111" s="4">
         <v>0.66319444444444442</v>
       </c>
@@ -4478,7 +4481,7 @@
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="58"/>
+      <c r="B112" s="57"/>
       <c r="C112" s="4">
         <v>0.73958333333333337</v>
       </c>
@@ -4507,7 +4510,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="58"/>
+      <c r="B113" s="57"/>
       <c r="C113" s="4">
         <v>0.80555555555555547</v>
       </c>
@@ -4536,7 +4539,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="58" t="s">
+      <c r="B114" s="57" t="s">
         <v>53</v>
       </c>
       <c r="C114" s="4">
@@ -4567,7 +4570,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="58"/>
+      <c r="B115" s="57"/>
       <c r="C115" s="4">
         <v>0.69097222222222221</v>
       </c>
@@ -4630,7 +4633,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="58" t="s">
+      <c r="B117" s="57" t="s">
         <v>55</v>
       </c>
       <c r="C117" s="4">
@@ -4661,7 +4664,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="58"/>
+      <c r="B118" s="57"/>
       <c r="C118" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4690,7 +4693,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="58"/>
+      <c r="B119" s="57"/>
       <c r="C119" s="4">
         <v>0.59375</v>
       </c>
@@ -4719,7 +4722,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="58"/>
+      <c r="B120" s="57"/>
       <c r="C120" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4748,7 +4751,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="61"/>
+      <c r="B121" s="60"/>
       <c r="C121" s="38">
         <v>0.77777777777777779</v>
       </c>
@@ -4797,10 +4800,10 @@
       <c r="B123" s="51"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
-      <c r="E123" s="59" t="s">
+      <c r="E123" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F123" s="60" t="s">
+      <c r="F123" s="59" t="s">
         <v>18</v>
       </c>
       <c r="G123" s="17" t="s">
@@ -4823,8 +4826,8 @@
       <c r="D124" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="59"/>
-      <c r="F124" s="60"/>
+      <c r="E124" s="58"/>
+      <c r="F124" s="59"/>
       <c r="G124" s="12" t="s">
         <v>14</v>
       </c>
@@ -7585,99 +7588,118 @@
       </c>
     </row>
     <row r="220" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C220" s="4"/>
-      <c r="D220" s="18"/>
+      <c r="B220" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C220" s="4">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="D220" s="18">
+        <v>0.40763888888888888</v>
+      </c>
       <c r="E220" s="20">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>4.1666666666666519E-3</v>
       </c>
       <c r="F220" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.6826388888888884</v>
       </c>
       <c r="G220" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.6826388888888884</v>
       </c>
       <c r="H220" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.7451388888888881</v>
       </c>
       <c r="I220" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15280.166666666662</v>
       </c>
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C221" s="4"/>
-      <c r="D221" s="18"/>
+      <c r="C221" s="4">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="D221" s="18">
+        <v>0.4826388888888889</v>
+      </c>
       <c r="E221" s="20">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>6.5277777777777768E-2</v>
       </c>
       <c r="F221" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.7479166666666661</v>
       </c>
       <c r="G221" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.7479166666666661</v>
       </c>
       <c r="H221" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8104166666666659</v>
       </c>
       <c r="I221" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15546.499999999998</v>
       </c>
     </row>
     <row r="222" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C222" s="4"/>
-      <c r="D222" s="18"/>
+      <c r="C222" s="4">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="D222" s="18">
+        <v>0.4916666666666667</v>
+      </c>
       <c r="E222" s="20">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>2.7777777777778234E-3</v>
       </c>
       <c r="F222" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.7506944444444439</v>
       </c>
       <c r="G222" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.7506944444444439</v>
       </c>
       <c r="H222" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8131944444444441</v>
       </c>
       <c r="I222" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15557.83333333333</v>
       </c>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C223" s="4"/>
-      <c r="D223" s="18"/>
+      <c r="C223" s="4">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="D223" s="18">
+        <v>0.56388888888888888</v>
+      </c>
       <c r="E223" s="20">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>6.1805555555555558E-2</v>
       </c>
       <c r="F223" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G223" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H223" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999991</v>
       </c>
       <c r="I223" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="224" spans="2:9" x14ac:dyDescent="0.25">
@@ -7689,19 +7711,19 @@
       </c>
       <c r="F224" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G224" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H224" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I224" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="225" spans="3:9" x14ac:dyDescent="0.25">
@@ -7713,19 +7735,19 @@
       </c>
       <c r="F225" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G225" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H225" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I225" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="226" spans="3:9" x14ac:dyDescent="0.25">
@@ -7737,19 +7759,19 @@
       </c>
       <c r="F226" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G226" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H226" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I226" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="227" spans="3:9" x14ac:dyDescent="0.25">
@@ -7761,19 +7783,19 @@
       </c>
       <c r="F227" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G227" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H227" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I227" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="228" spans="3:9" x14ac:dyDescent="0.25">
@@ -7785,19 +7807,19 @@
       </c>
       <c r="F228" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G228" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H228" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I228" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="229" spans="3:9" x14ac:dyDescent="0.25">
@@ -7809,19 +7831,19 @@
       </c>
       <c r="F229" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G229" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H229" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I229" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="230" spans="3:9" x14ac:dyDescent="0.25">
@@ -7833,19 +7855,19 @@
       </c>
       <c r="F230" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G230" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H230" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I230" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="231" spans="3:9" x14ac:dyDescent="0.25">
@@ -7857,19 +7879,19 @@
       </c>
       <c r="F231" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G231" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H231" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I231" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="232" spans="3:9" x14ac:dyDescent="0.25">
@@ -7881,19 +7903,19 @@
       </c>
       <c r="F232" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G232" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H232" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I232" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="233" spans="3:9" x14ac:dyDescent="0.25">
@@ -7905,19 +7927,19 @@
       </c>
       <c r="F233" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G233" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H233" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I233" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="234" spans="3:9" x14ac:dyDescent="0.25">
@@ -7929,19 +7951,19 @@
       </c>
       <c r="F234" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G234" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H234" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I234" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="235" spans="3:9" x14ac:dyDescent="0.25">
@@ -7953,19 +7975,19 @@
       </c>
       <c r="F235" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G235" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H235" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I235" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="236" spans="3:9" x14ac:dyDescent="0.25">
@@ -7977,19 +7999,19 @@
       </c>
       <c r="F236" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G236" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H236" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I236" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="237" spans="3:9" x14ac:dyDescent="0.25">
@@ -8001,19 +8023,19 @@
       </c>
       <c r="F237" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G237" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H237" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I237" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="238" spans="3:9" x14ac:dyDescent="0.25">
@@ -8025,19 +8047,19 @@
       </c>
       <c r="F238" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G238" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H238" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I238" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="239" spans="3:9" x14ac:dyDescent="0.25">
@@ -8049,19 +8071,19 @@
       </c>
       <c r="F239" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G239" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H239" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I239" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="240" spans="3:9" x14ac:dyDescent="0.25">
@@ -8073,19 +8095,19 @@
       </c>
       <c r="F240" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G240" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H240" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I240" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="241" spans="3:9" x14ac:dyDescent="0.25">
@@ -8097,19 +8119,19 @@
       </c>
       <c r="F241" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G241" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H241" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I241" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="242" spans="3:9" x14ac:dyDescent="0.25">
@@ -8121,19 +8143,19 @@
       </c>
       <c r="F242" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G242" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H242" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I242" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="243" spans="3:9" x14ac:dyDescent="0.25">
@@ -8145,19 +8167,19 @@
       </c>
       <c r="F243" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G243" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H243" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I243" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="244" spans="3:9" x14ac:dyDescent="0.25">
@@ -8169,19 +8191,19 @@
       </c>
       <c r="F244" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G244" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H244" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I244" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="245" spans="3:9" x14ac:dyDescent="0.25">
@@ -8193,19 +8215,19 @@
       </c>
       <c r="F245" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G245" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H245" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I245" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="246" spans="3:9" x14ac:dyDescent="0.25">
@@ -8217,19 +8239,19 @@
       </c>
       <c r="F246" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G246" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H246" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I246" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="247" spans="3:9" x14ac:dyDescent="0.25">
@@ -8241,19 +8263,19 @@
       </c>
       <c r="F247" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G247" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H247" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I247" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="248" spans="3:9" x14ac:dyDescent="0.25">
@@ -8265,19 +8287,19 @@
       </c>
       <c r="F248" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G248" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H248" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I248" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="249" spans="3:9" x14ac:dyDescent="0.25">
@@ -8289,19 +8311,19 @@
       </c>
       <c r="F249" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G249" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H249" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I249" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="250" spans="3:9" x14ac:dyDescent="0.25">
@@ -8313,19 +8335,19 @@
       </c>
       <c r="F250" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G250" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H250" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I250" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="251" spans="3:9" x14ac:dyDescent="0.25">
@@ -8337,19 +8359,19 @@
       </c>
       <c r="F251" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G251" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H251" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I251" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="252" spans="3:9" x14ac:dyDescent="0.25">
@@ -8361,19 +8383,19 @@
       </c>
       <c r="F252" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G252" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H252" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I252" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="253" spans="3:9" x14ac:dyDescent="0.25">
@@ -8385,19 +8407,19 @@
       </c>
       <c r="F253" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G253" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H253" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I253" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="254" spans="3:9" x14ac:dyDescent="0.25">
@@ -8409,19 +8431,19 @@
       </c>
       <c r="F254" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G254" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H254" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I254" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="255" spans="3:9" x14ac:dyDescent="0.25">
@@ -8433,19 +8455,19 @@
       </c>
       <c r="F255" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G255" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H255" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I255" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="256" spans="3:9" x14ac:dyDescent="0.25">
@@ -8457,19 +8479,19 @@
       </c>
       <c r="F256" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G256" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H256" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I256" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="257" spans="3:9" x14ac:dyDescent="0.25">
@@ -8481,19 +8503,19 @@
       </c>
       <c r="F257" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G257" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H257" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I257" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="258" spans="3:9" x14ac:dyDescent="0.25">
@@ -8505,19 +8527,19 @@
       </c>
       <c r="F258" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G258" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H258" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I258" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="259" spans="3:9" x14ac:dyDescent="0.25">
@@ -8529,19 +8551,19 @@
       </c>
       <c r="F259" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G259" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H259" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I259" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="260" spans="3:9" x14ac:dyDescent="0.25">
@@ -8553,19 +8575,19 @@
       </c>
       <c r="F260" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G260" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H260" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I260" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="261" spans="3:9" x14ac:dyDescent="0.25">
@@ -8577,19 +8599,19 @@
       </c>
       <c r="F261" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G261" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H261" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I261" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="262" spans="3:9" x14ac:dyDescent="0.25">
@@ -8601,19 +8623,19 @@
       </c>
       <c r="F262" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G262" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H262" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I262" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="263" spans="3:9" x14ac:dyDescent="0.25">
@@ -8625,19 +8647,19 @@
       </c>
       <c r="F263" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G263" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H263" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I263" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="264" spans="3:9" x14ac:dyDescent="0.25">
@@ -8649,19 +8671,19 @@
       </c>
       <c r="F264" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G264" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H264" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I264" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="265" spans="3:9" x14ac:dyDescent="0.25">
@@ -8673,19 +8695,19 @@
       </c>
       <c r="F265" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G265" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H265" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I265" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="266" spans="3:9" x14ac:dyDescent="0.25">
@@ -8697,19 +8719,19 @@
       </c>
       <c r="F266" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G266" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H266" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I266" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="267" spans="3:9" x14ac:dyDescent="0.25">
@@ -8721,19 +8743,19 @@
       </c>
       <c r="F267" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G267" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H267" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I267" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="268" spans="3:9" x14ac:dyDescent="0.25">
@@ -8745,19 +8767,19 @@
       </c>
       <c r="F268" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G268" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H268" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I268" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="269" spans="3:9" x14ac:dyDescent="0.25">
@@ -8769,19 +8791,19 @@
       </c>
       <c r="F269" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G269" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H269" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I269" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="270" spans="3:9" x14ac:dyDescent="0.25">
@@ -8793,19 +8815,19 @@
       </c>
       <c r="F270" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G270" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H270" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I270" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="271" spans="3:9" x14ac:dyDescent="0.25">
@@ -8817,19 +8839,19 @@
       </c>
       <c r="F271" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G271" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H271" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I271" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="272" spans="3:9" x14ac:dyDescent="0.25">
@@ -8841,19 +8863,19 @@
       </c>
       <c r="F272" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G272" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H272" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I272" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="273" spans="3:9" x14ac:dyDescent="0.25">
@@ -8865,19 +8887,19 @@
       </c>
       <c r="F273" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G273" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H273" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I273" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="274" spans="3:9" x14ac:dyDescent="0.25">
@@ -8889,19 +8911,19 @@
       </c>
       <c r="F274" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G274" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H274" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I274" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="275" spans="3:9" x14ac:dyDescent="0.25">
@@ -8913,19 +8935,19 @@
       </c>
       <c r="F275" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G275" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H275" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I275" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="276" spans="3:9" x14ac:dyDescent="0.25">
@@ -8937,19 +8959,19 @@
       </c>
       <c r="F276" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G276" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H276" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I276" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="277" spans="3:9" x14ac:dyDescent="0.25">
@@ -8961,19 +8983,19 @@
       </c>
       <c r="F277" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G277" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H277" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I277" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="278" spans="3:9" x14ac:dyDescent="0.25">
@@ -8985,19 +9007,19 @@
       </c>
       <c r="F278" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G278" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H278" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I278" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="279" spans="3:9" x14ac:dyDescent="0.25">
@@ -9009,19 +9031,19 @@
       </c>
       <c r="F279" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G279" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H279" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I279" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="280" spans="3:9" x14ac:dyDescent="0.25">
@@ -9033,19 +9055,19 @@
       </c>
       <c r="F280" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G280" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H280" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I280" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="281" spans="3:9" x14ac:dyDescent="0.25">
@@ -9057,19 +9079,19 @@
       </c>
       <c r="F281" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G281" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H281" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I281" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="282" spans="3:9" x14ac:dyDescent="0.25">
@@ -9081,19 +9103,19 @@
       </c>
       <c r="F282" s="21">
         <f t="shared" ref="F282:F342" si="72">F281+E282</f>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G282" s="15">
         <f t="shared" ref="G282:G342" si="73">F282</f>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H282" s="15">
         <f t="shared" ref="H282:H342" si="74">(H281+G282-G281)</f>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I282" s="23">
         <f t="shared" ref="I282:I342" si="75">H282*24*$J$32</f>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="283" spans="3:9" x14ac:dyDescent="0.25">
@@ -9105,19 +9127,19 @@
       </c>
       <c r="F283" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G283" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H283" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I283" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="284" spans="3:9" x14ac:dyDescent="0.25">
@@ -9129,19 +9151,19 @@
       </c>
       <c r="F284" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G284" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H284" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I284" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="285" spans="3:9" x14ac:dyDescent="0.25">
@@ -9153,19 +9175,19 @@
       </c>
       <c r="F285" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G285" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H285" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I285" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="286" spans="3:9" x14ac:dyDescent="0.25">
@@ -9177,19 +9199,19 @@
       </c>
       <c r="F286" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G286" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H286" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I286" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="287" spans="3:9" x14ac:dyDescent="0.25">
@@ -9201,19 +9223,19 @@
       </c>
       <c r="F287" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G287" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H287" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I287" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="288" spans="3:9" x14ac:dyDescent="0.25">
@@ -9225,19 +9247,19 @@
       </c>
       <c r="F288" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G288" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H288" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I288" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="289" spans="3:9" x14ac:dyDescent="0.25">
@@ -9249,19 +9271,19 @@
       </c>
       <c r="F289" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G289" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H289" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I289" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="290" spans="3:9" x14ac:dyDescent="0.25">
@@ -9273,19 +9295,19 @@
       </c>
       <c r="F290" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G290" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H290" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I290" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="291" spans="3:9" x14ac:dyDescent="0.25">
@@ -9297,19 +9319,19 @@
       </c>
       <c r="F291" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G291" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H291" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I291" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="292" spans="3:9" x14ac:dyDescent="0.25">
@@ -9321,19 +9343,19 @@
       </c>
       <c r="F292" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G292" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H292" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I292" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="293" spans="3:9" x14ac:dyDescent="0.25">
@@ -9345,19 +9367,19 @@
       </c>
       <c r="F293" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G293" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H293" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I293" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="294" spans="3:9" x14ac:dyDescent="0.25">
@@ -9369,19 +9391,19 @@
       </c>
       <c r="F294" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G294" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H294" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I294" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="295" spans="3:9" x14ac:dyDescent="0.25">
@@ -9393,19 +9415,19 @@
       </c>
       <c r="F295" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G295" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H295" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I295" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="296" spans="3:9" x14ac:dyDescent="0.25">
@@ -9417,19 +9439,19 @@
       </c>
       <c r="F296" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G296" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H296" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I296" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="297" spans="3:9" x14ac:dyDescent="0.25">
@@ -9441,19 +9463,19 @@
       </c>
       <c r="F297" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G297" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H297" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I297" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="298" spans="3:9" x14ac:dyDescent="0.25">
@@ -9465,19 +9487,19 @@
       </c>
       <c r="F298" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G298" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H298" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I298" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="299" spans="3:9" x14ac:dyDescent="0.25">
@@ -9489,19 +9511,19 @@
       </c>
       <c r="F299" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G299" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H299" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I299" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="300" spans="3:9" x14ac:dyDescent="0.25">
@@ -9513,19 +9535,19 @@
       </c>
       <c r="F300" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G300" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H300" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I300" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="301" spans="3:9" x14ac:dyDescent="0.25">
@@ -9537,19 +9559,19 @@
       </c>
       <c r="F301" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G301" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H301" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I301" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="302" spans="3:9" x14ac:dyDescent="0.25">
@@ -9561,19 +9583,19 @@
       </c>
       <c r="F302" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G302" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H302" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I302" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="303" spans="3:9" x14ac:dyDescent="0.25">
@@ -9585,19 +9607,19 @@
       </c>
       <c r="F303" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G303" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H303" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I303" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="304" spans="3:9" x14ac:dyDescent="0.25">
@@ -9609,19 +9631,19 @@
       </c>
       <c r="F304" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G304" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H304" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I304" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="305" spans="3:9" x14ac:dyDescent="0.25">
@@ -9633,19 +9655,19 @@
       </c>
       <c r="F305" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G305" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H305" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I305" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="306" spans="3:9" x14ac:dyDescent="0.25">
@@ -9657,19 +9679,19 @@
       </c>
       <c r="F306" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G306" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H306" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I306" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="307" spans="3:9" x14ac:dyDescent="0.25">
@@ -9681,19 +9703,19 @@
       </c>
       <c r="F307" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G307" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H307" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I307" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="308" spans="3:9" x14ac:dyDescent="0.25">
@@ -9705,19 +9727,19 @@
       </c>
       <c r="F308" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G308" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H308" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I308" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="309" spans="3:9" x14ac:dyDescent="0.25">
@@ -9729,19 +9751,19 @@
       </c>
       <c r="F309" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G309" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H309" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I309" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="310" spans="3:9" x14ac:dyDescent="0.25">
@@ -9753,19 +9775,19 @@
       </c>
       <c r="F310" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G310" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H310" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I310" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="311" spans="3:9" x14ac:dyDescent="0.25">
@@ -9777,19 +9799,19 @@
       </c>
       <c r="F311" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G311" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H311" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I311" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="312" spans="3:9" x14ac:dyDescent="0.25">
@@ -9801,19 +9823,19 @@
       </c>
       <c r="F312" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G312" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H312" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I312" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="313" spans="3:9" x14ac:dyDescent="0.25">
@@ -9825,19 +9847,19 @@
       </c>
       <c r="F313" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G313" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H313" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I313" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="314" spans="3:9" x14ac:dyDescent="0.25">
@@ -9849,19 +9871,19 @@
       </c>
       <c r="F314" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G314" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H314" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I314" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="315" spans="3:9" x14ac:dyDescent="0.25">
@@ -9873,19 +9895,19 @@
       </c>
       <c r="F315" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G315" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H315" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I315" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="316" spans="3:9" x14ac:dyDescent="0.25">
@@ -9897,19 +9919,19 @@
       </c>
       <c r="F316" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G316" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H316" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I316" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="317" spans="3:9" x14ac:dyDescent="0.25">
@@ -9921,19 +9943,19 @@
       </c>
       <c r="F317" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G317" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H317" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I317" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="318" spans="3:9" x14ac:dyDescent="0.25">
@@ -9945,19 +9967,19 @@
       </c>
       <c r="F318" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G318" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H318" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I318" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="319" spans="3:9" x14ac:dyDescent="0.25">
@@ -9969,19 +9991,19 @@
       </c>
       <c r="F319" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G319" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H319" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I319" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="320" spans="3:9" x14ac:dyDescent="0.25">
@@ -9993,19 +10015,19 @@
       </c>
       <c r="F320" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G320" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H320" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I320" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="321" spans="3:9" x14ac:dyDescent="0.25">
@@ -10017,19 +10039,19 @@
       </c>
       <c r="F321" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G321" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H321" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I321" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="322" spans="3:9" x14ac:dyDescent="0.25">
@@ -10041,19 +10063,19 @@
       </c>
       <c r="F322" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G322" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H322" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I322" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="323" spans="3:9" x14ac:dyDescent="0.25">
@@ -10065,19 +10087,19 @@
       </c>
       <c r="F323" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G323" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H323" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I323" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="324" spans="3:9" x14ac:dyDescent="0.25">
@@ -10089,19 +10111,19 @@
       </c>
       <c r="F324" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G324" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H324" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I324" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="325" spans="3:9" x14ac:dyDescent="0.25">
@@ -10113,19 +10135,19 @@
       </c>
       <c r="F325" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G325" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H325" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I325" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="326" spans="3:9" x14ac:dyDescent="0.25">
@@ -10137,19 +10159,19 @@
       </c>
       <c r="F326" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G326" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H326" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I326" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="327" spans="3:9" x14ac:dyDescent="0.25">
@@ -10161,19 +10183,19 @@
       </c>
       <c r="F327" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G327" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H327" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I327" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="328" spans="3:9" x14ac:dyDescent="0.25">
@@ -10185,19 +10207,19 @@
       </c>
       <c r="F328" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G328" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H328" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I328" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="329" spans="3:9" x14ac:dyDescent="0.25">
@@ -10209,19 +10231,19 @@
       </c>
       <c r="F329" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G329" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H329" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I329" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="330" spans="3:9" x14ac:dyDescent="0.25">
@@ -10233,19 +10255,19 @@
       </c>
       <c r="F330" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G330" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H330" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I330" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="331" spans="3:9" x14ac:dyDescent="0.25">
@@ -10257,19 +10279,19 @@
       </c>
       <c r="F331" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G331" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H331" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I331" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="332" spans="3:9" x14ac:dyDescent="0.25">
@@ -10281,19 +10303,19 @@
       </c>
       <c r="F332" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G332" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H332" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I332" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="333" spans="3:9" x14ac:dyDescent="0.25">
@@ -10305,19 +10327,19 @@
       </c>
       <c r="F333" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G333" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H333" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I333" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="334" spans="3:9" x14ac:dyDescent="0.25">
@@ -10329,19 +10351,19 @@
       </c>
       <c r="F334" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G334" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H334" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I334" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="335" spans="3:9" x14ac:dyDescent="0.25">
@@ -10353,19 +10375,19 @@
       </c>
       <c r="F335" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G335" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H335" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I335" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="336" spans="3:9" x14ac:dyDescent="0.25">
@@ -10377,19 +10399,19 @@
       </c>
       <c r="F336" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G336" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H336" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I336" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="337" spans="3:9" x14ac:dyDescent="0.25">
@@ -10401,19 +10423,19 @@
       </c>
       <c r="F337" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G337" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H337" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I337" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="338" spans="3:9" x14ac:dyDescent="0.25">
@@ -10425,19 +10447,19 @@
       </c>
       <c r="F338" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G338" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H338" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I338" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="339" spans="3:9" x14ac:dyDescent="0.25">
@@ -10449,19 +10471,19 @@
       </c>
       <c r="F339" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G339" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H339" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I339" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="340" spans="3:9" x14ac:dyDescent="0.25">
@@ -10473,19 +10495,19 @@
       </c>
       <c r="F340" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G340" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H340" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I340" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="341" spans="3:9" x14ac:dyDescent="0.25">
@@ -10497,19 +10519,19 @@
       </c>
       <c r="F341" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G341" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H341" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I341" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
     <row r="342" spans="3:9" x14ac:dyDescent="0.25">
@@ -10521,52 +10543,33 @@
       </c>
       <c r="F342" s="21">
         <f t="shared" si="72"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="G342" s="15">
         <f t="shared" si="73"/>
-        <v>1.6784722222222217</v>
+        <v>1.8124999999999996</v>
       </c>
       <c r="H342" s="15">
         <f t="shared" si="74"/>
-        <v>3.7409722222222208</v>
+        <v>3.8749999999999987</v>
       </c>
       <c r="I342" s="23">
         <f t="shared" si="75"/>
-        <v>15263.166666666661</v>
+        <v>15809.999999999995</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="B204:B209"/>
+    <mergeCell ref="B213:B219"/>
+    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B188:B192"/>
     <mergeCell ref="B164:B170"/>
     <mergeCell ref="B151:B155"/>
     <mergeCell ref="B156:B162"/>
@@ -10583,16 +10586,35 @@
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B201:B203"/>
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="B178:B183"/>
-    <mergeCell ref="B184:B187"/>
-    <mergeCell ref="B188:B192"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="B204:B209"/>
-    <mergeCell ref="B213:B219"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B90:B94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BEC2C7-CA90-4AAE-AE4C-3D36DF07E55B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA529779-517C-45DE-AD15-411A693FB4B4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="1305" windowWidth="14670" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -667,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -765,6 +765,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -780,9 +783,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -1123,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="D224" sqref="D224"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="L227" sqref="L227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,10 +1147,10 @@
       <c r="B1" s="51"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="60" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -1170,8 +1171,8 @@
       <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
@@ -1351,7 +1352,7 @@
         <v>16716.666666666664</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="62"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
@@ -1367,7 +1368,7 @@
       <c r="X13" s="6"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="58" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="4">
@@ -1397,7 +1398,7 @@
         <v>16915</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="62"/>
+      <c r="K14" s="57"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
@@ -1413,7 +1414,7 @@
       <c r="X14" s="6"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="57"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -1441,7 +1442,7 @@
         <v>17184.166666666664</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="62"/>
+      <c r="K15" s="57"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
@@ -1457,7 +1458,7 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="57"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -1485,7 +1486,7 @@
         <v>17269.166666666664</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="62"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
@@ -1501,7 +1502,7 @@
       <c r="X16" s="6"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="57"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="4">
         <v>0.80208333333333337</v>
       </c>
@@ -1529,7 +1530,7 @@
         <v>17524.166666666664</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="62"/>
+      <c r="K17" s="57"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
@@ -1545,7 +1546,7 @@
       <c r="X17" s="6"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="57"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="4">
         <v>0.875</v>
       </c>
@@ -1573,7 +1574,7 @@
         <v>17651.666666666664</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="62"/>
+      <c r="K18" s="57"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
@@ -1589,7 +1590,7 @@
       <c r="X18" s="6"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="4">
@@ -1619,7 +1620,7 @@
         <v>17878.333333333332</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="62"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
@@ -1635,7 +1636,7 @@
       <c r="X19" s="6"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="57"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1663,7 +1664,7 @@
         <v>18246.666666666664</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="62"/>
+      <c r="K20" s="57"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
@@ -1679,7 +1680,7 @@
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="57"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1707,7 +1708,7 @@
         <v>18388.333333333332</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="62"/>
+      <c r="K21" s="57"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
@@ -1723,7 +1724,7 @@
       <c r="X21" s="6"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="57"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="4">
         <v>0.75</v>
       </c>
@@ -1751,7 +1752,7 @@
         <v>18515.833333333332</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="62"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="9"/>
@@ -1767,7 +1768,7 @@
       <c r="X22" s="6"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="57"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -1811,7 +1812,7 @@
       <c r="X23" s="6"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="62" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="4">
@@ -1857,7 +1858,7 @@
       <c r="X24" s="6"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="61"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -1901,7 +1902,7 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="61"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1945,7 +1946,7 @@
       <c r="X26" s="6"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="61"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="4">
         <v>0.83333333333333337</v>
       </c>
@@ -1989,7 +1990,7 @@
       <c r="X27" s="6"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="58" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="4">
@@ -2035,7 +2036,7 @@
       <c r="X28" s="6"/>
     </row>
     <row r="29" spans="2:24" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="60"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="27">
         <v>0.61111111111111105</v>
       </c>
@@ -2080,10 +2081,10 @@
       <c r="B31" s="51"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="58" t="s">
+      <c r="E31" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="59" t="s">
+      <c r="F31" s="60" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="17" t="s">
@@ -2104,8 +2105,8 @@
       <c r="D32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="12" t="s">
         <v>14</v>
       </c>
@@ -2120,7 +2121,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="58" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="24">
@@ -2151,7 +2152,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="57"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -2180,7 +2181,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="57"/>
+      <c r="B35" s="58"/>
       <c r="C35" s="4">
         <v>0.67013888888888884</v>
       </c>
@@ -2240,7 +2241,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="4">
@@ -2271,7 +2272,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="57"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -2300,7 +2301,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="57"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="4">
         <v>0.77777777777777779</v>
       </c>
@@ -2329,7 +2330,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="57"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="4">
         <v>0.93055555555555547</v>
       </c>
@@ -2358,7 +2359,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="58" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="4">
@@ -2389,7 +2390,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="57"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="4">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -2418,7 +2419,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="57"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="4">
         <v>0.60069444444444442</v>
       </c>
@@ -2447,7 +2448,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="57"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2476,7 +2477,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="57"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="4">
         <v>0.78472222222222221</v>
       </c>
@@ -2505,7 +2506,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="57"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="4">
         <v>0.92708333333333337</v>
       </c>
@@ -2534,7 +2535,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="58" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="4">
@@ -2565,7 +2566,7 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="57"/>
+      <c r="B48" s="58"/>
       <c r="C48" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -2594,7 +2595,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="57"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="4">
         <v>0.74305555555555547</v>
       </c>
@@ -2623,7 +2624,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="57"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="4">
         <v>0.78819444444444453</v>
       </c>
@@ -2652,7 +2653,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="57"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="4">
         <v>0.81597222222222221</v>
       </c>
@@ -2681,7 +2682,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="57"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="4">
         <v>0.89583333333333337</v>
       </c>
@@ -2713,7 +2714,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="57"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="4">
         <v>0.99652777777777779</v>
       </c>
@@ -2745,7 +2746,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="58" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="4">
@@ -2779,7 +2780,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="57"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="4">
         <v>0.19444444444444445</v>
       </c>
@@ -2808,7 +2809,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="57"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="4">
         <v>0.625</v>
       </c>
@@ -2837,7 +2838,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="57"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -2866,7 +2867,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="57"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2895,7 +2896,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="57"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -2955,7 +2956,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="58" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="4">
@@ -2986,7 +2987,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="57"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -3015,7 +3016,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="58" t="s">
         <v>33</v>
       </c>
       <c r="C63" s="4">
@@ -3046,7 +3047,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="57"/>
+      <c r="B64" s="58"/>
       <c r="C64" s="4">
         <v>0.86111111111111116</v>
       </c>
@@ -3075,7 +3076,7 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="57"/>
+      <c r="B65" s="58"/>
       <c r="C65" s="4">
         <v>0.88888888888888884</v>
       </c>
@@ -3104,7 +3105,7 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="57" t="s">
+      <c r="B66" s="58" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="4">
@@ -3135,7 +3136,7 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="57"/>
+      <c r="B67" s="58"/>
       <c r="C67" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -3164,7 +3165,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="57"/>
+      <c r="B68" s="58"/>
       <c r="C68" s="4">
         <v>0.89930555555555547</v>
       </c>
@@ -3193,7 +3194,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="57"/>
+      <c r="B69" s="58"/>
       <c r="C69" s="4">
         <v>0.92361111111111116</v>
       </c>
@@ -3222,7 +3223,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="57" t="s">
+      <c r="B70" s="58" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="4">
@@ -3253,7 +3254,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="57"/>
+      <c r="B71" s="58"/>
       <c r="C71" s="4">
         <v>0.72222222222222221</v>
       </c>
@@ -3313,7 +3314,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="57" t="s">
+      <c r="B73" s="58" t="s">
         <v>37</v>
       </c>
       <c r="C73" s="4">
@@ -3344,7 +3345,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="57"/>
+      <c r="B74" s="58"/>
       <c r="C74" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -3373,7 +3374,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="58" t="s">
         <v>38</v>
       </c>
       <c r="C75" s="4">
@@ -3404,7 +3405,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="57"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -3433,7 +3434,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="57"/>
+      <c r="B77" s="58"/>
       <c r="C77" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -3462,7 +3463,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="57"/>
+      <c r="B78" s="58"/>
       <c r="C78" s="4">
         <v>0.96875</v>
       </c>
@@ -3491,7 +3492,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="57" t="s">
+      <c r="B79" s="58" t="s">
         <v>39</v>
       </c>
       <c r="C79" s="4">
@@ -3525,7 +3526,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="57"/>
+      <c r="B80" s="58"/>
       <c r="C80" s="4">
         <v>0.65625</v>
       </c>
@@ -3554,7 +3555,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="57" t="s">
+      <c r="B81" s="58" t="s">
         <v>41</v>
       </c>
       <c r="C81" s="4">
@@ -3585,7 +3586,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="57"/>
+      <c r="B82" s="58"/>
       <c r="C82" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -3614,7 +3615,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="57"/>
+      <c r="B83" s="58"/>
       <c r="C83" s="4">
         <v>0.69791666666666663</v>
       </c>
@@ -3643,7 +3644,7 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="57" t="s">
+      <c r="B84" s="58" t="s">
         <v>42</v>
       </c>
       <c r="C84" s="4">
@@ -3674,7 +3675,7 @@
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="57"/>
+      <c r="B85" s="58"/>
       <c r="C85" s="4">
         <v>0.61805555555555558</v>
       </c>
@@ -3703,7 +3704,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="57"/>
+      <c r="B86" s="58"/>
       <c r="C86" s="4">
         <v>0.86805555555555547</v>
       </c>
@@ -3732,7 +3733,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="57" t="s">
+      <c r="B87" s="58" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="4">
@@ -3763,7 +3764,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="57"/>
+      <c r="B88" s="58"/>
       <c r="C88" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -3823,7 +3824,7 @@
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="57" t="s">
+      <c r="B90" s="58" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="4">
@@ -3854,7 +3855,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="57"/>
+      <c r="B91" s="58"/>
       <c r="C91" s="4">
         <v>0.3576388888888889</v>
       </c>
@@ -3883,7 +3884,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="57"/>
+      <c r="B92" s="58"/>
       <c r="C92" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -3912,7 +3913,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="57"/>
+      <c r="B93" s="58"/>
       <c r="C93" s="4">
         <v>0.4548611111111111</v>
       </c>
@@ -3941,7 +3942,7 @@
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="57"/>
+      <c r="B94" s="58"/>
       <c r="C94" s="4">
         <v>0.48958333333333331</v>
       </c>
@@ -3970,7 +3971,7 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="57" t="s">
+      <c r="B95" s="58" t="s">
         <v>46</v>
       </c>
       <c r="C95" s="4">
@@ -4001,7 +4002,7 @@
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="57"/>
+      <c r="B96" s="58"/>
       <c r="C96" s="4">
         <v>0.5</v>
       </c>
@@ -4030,7 +4031,7 @@
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="57"/>
+      <c r="B97" s="58"/>
       <c r="C97" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -4059,7 +4060,7 @@
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="57" t="s">
+      <c r="B98" s="58" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="4">
@@ -4090,7 +4091,7 @@
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="57"/>
+      <c r="B99" s="58"/>
       <c r="C99" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4119,7 +4120,7 @@
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="57"/>
+      <c r="B100" s="58"/>
       <c r="C100" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -4148,7 +4149,7 @@
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="57" t="s">
+      <c r="B101" s="58" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="4">
@@ -4179,7 +4180,7 @@
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="57"/>
+      <c r="B102" s="58"/>
       <c r="C102" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4208,7 +4209,7 @@
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="57" t="s">
+      <c r="B103" s="58" t="s">
         <v>50</v>
       </c>
       <c r="C103" s="4">
@@ -4242,7 +4243,7 @@
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="57"/>
+      <c r="B104" s="58"/>
       <c r="C104" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -4271,7 +4272,7 @@
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="57"/>
+      <c r="B105" s="58"/>
       <c r="C105" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -4303,7 +4304,7 @@
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="57"/>
+      <c r="B106" s="58"/>
       <c r="C106" s="4">
         <v>0.70486111111111116</v>
       </c>
@@ -4332,7 +4333,7 @@
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="57" t="s">
+      <c r="B107" s="58" t="s">
         <v>51</v>
       </c>
       <c r="C107" s="4">
@@ -4363,7 +4364,7 @@
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="57"/>
+      <c r="B108" s="58"/>
       <c r="C108" s="4">
         <v>0.98958333333333337</v>
       </c>
@@ -4392,7 +4393,7 @@
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="57" t="s">
+      <c r="B109" s="58" t="s">
         <v>52</v>
       </c>
       <c r="C109" s="4">
@@ -4423,7 +4424,7 @@
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="57"/>
+      <c r="B110" s="58"/>
       <c r="C110" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -4452,7 +4453,7 @@
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="57"/>
+      <c r="B111" s="58"/>
       <c r="C111" s="4">
         <v>0.66319444444444442</v>
       </c>
@@ -4481,7 +4482,7 @@
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="57"/>
+      <c r="B112" s="58"/>
       <c r="C112" s="4">
         <v>0.73958333333333337</v>
       </c>
@@ -4510,7 +4511,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="57"/>
+      <c r="B113" s="58"/>
       <c r="C113" s="4">
         <v>0.80555555555555547</v>
       </c>
@@ -4539,7 +4540,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="57" t="s">
+      <c r="B114" s="58" t="s">
         <v>53</v>
       </c>
       <c r="C114" s="4">
@@ -4570,7 +4571,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="57"/>
+      <c r="B115" s="58"/>
       <c r="C115" s="4">
         <v>0.69097222222222221</v>
       </c>
@@ -4633,7 +4634,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="57" t="s">
+      <c r="B117" s="58" t="s">
         <v>55</v>
       </c>
       <c r="C117" s="4">
@@ -4664,7 +4665,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="57"/>
+      <c r="B118" s="58"/>
       <c r="C118" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4693,7 +4694,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="57"/>
+      <c r="B119" s="58"/>
       <c r="C119" s="4">
         <v>0.59375</v>
       </c>
@@ -4722,7 +4723,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="57"/>
+      <c r="B120" s="58"/>
       <c r="C120" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4751,7 +4752,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="60"/>
+      <c r="B121" s="61"/>
       <c r="C121" s="38">
         <v>0.77777777777777779</v>
       </c>
@@ -4800,10 +4801,10 @@
       <c r="B123" s="51"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
-      <c r="E123" s="58" t="s">
+      <c r="E123" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F123" s="59" t="s">
+      <c r="F123" s="60" t="s">
         <v>18</v>
       </c>
       <c r="G123" s="17" t="s">
@@ -4826,8 +4827,8 @@
       <c r="D124" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="58"/>
-      <c r="F124" s="59"/>
+      <c r="E124" s="59"/>
+      <c r="F124" s="60"/>
       <c r="G124" s="12" t="s">
         <v>14</v>
       </c>
@@ -7264,7 +7265,7 @@
         <v>13509.333333333334</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B209" s="56"/>
       <c r="C209" s="4">
         <v>0.72083333333333333</v>
@@ -7293,7 +7294,7 @@
         <v>13716.166666666662</v>
       </c>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B210" s="56" t="s">
         <v>85</v>
       </c>
@@ -7324,7 +7325,7 @@
         <v>13883.333333333332</v>
       </c>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B211" s="56"/>
       <c r="C211" s="4">
         <v>0.68819444444444444</v>
@@ -7353,7 +7354,7 @@
         <v>13956.999999999998</v>
       </c>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B212" s="56"/>
       <c r="C212" s="4">
         <v>0.72430555555555554</v>
@@ -7382,7 +7383,7 @@
         <v>14107.166666666666</v>
       </c>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B213" s="56" t="s">
         <v>86</v>
       </c>
@@ -7413,7 +7414,7 @@
         <v>14404.66666666667</v>
       </c>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B214" s="56"/>
       <c r="C214" s="4">
         <v>0.69097222222222221</v>
@@ -7442,7 +7443,7 @@
         <v>14540.666666666666</v>
       </c>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B215" s="56"/>
       <c r="C215" s="4">
         <v>0.73263888888888884</v>
@@ -7471,7 +7472,7 @@
         <v>14551.999999999998</v>
       </c>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B216" s="56"/>
       <c r="C216" s="4">
         <v>0.7368055555555556</v>
@@ -7500,7 +7501,7 @@
         <v>14874.999999999998</v>
       </c>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B217" s="56"/>
       <c r="C217" s="4">
         <v>0.82361111111111107</v>
@@ -7529,7 +7530,7 @@
         <v>14894.833333333327</v>
       </c>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B218" s="56"/>
       <c r="C218" s="4">
         <v>0.83194444444444438</v>
@@ -7558,7 +7559,7 @@
         <v>14982.666666666661</v>
       </c>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B219" s="56"/>
       <c r="C219" s="4">
         <v>0.87291666666666667</v>
@@ -7587,8 +7588,8 @@
         <v>15263.166666666661</v>
       </c>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B220" s="49" t="s">
+    <row r="220" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B220" s="56" t="s">
         <v>87</v>
       </c>
       <c r="C220" s="4">
@@ -7617,8 +7618,13 @@
         <f t="shared" si="70"/>
         <v>15280.166666666662</v>
       </c>
-    </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K220" s="63">
+        <f>SUM(E220:E227)</f>
+        <v>0.30555555555555564</v>
+      </c>
+    </row>
+    <row r="221" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B221" s="56"/>
       <c r="C221" s="4">
         <v>0.41736111111111113</v>
       </c>
@@ -7646,7 +7652,8 @@
         <v>15546.499999999998</v>
       </c>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B222" s="56"/>
       <c r="C222" s="4">
         <v>0.48888888888888887</v>
       </c>
@@ -7674,7 +7681,8 @@
         <v>15557.83333333333</v>
       </c>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B223" s="56"/>
       <c r="C223" s="4">
         <v>0.50208333333333333</v>
       </c>
@@ -7702,103 +7710,123 @@
         <v>15809.999999999995</v>
       </c>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C224" s="4"/>
-      <c r="D224" s="18"/>
+    <row r="224" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B224" s="56"/>
+      <c r="C224" s="4">
+        <v>0.62569444444444444</v>
+      </c>
+      <c r="D224" s="18">
+        <v>0.65902777777777777</v>
+      </c>
       <c r="E224" s="20">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>3.3333333333333326E-2</v>
       </c>
       <c r="F224" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.8458333333333328</v>
       </c>
       <c r="G224" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.8458333333333328</v>
       </c>
       <c r="H224" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>3.9083333333333319</v>
       </c>
       <c r="I224" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
-      </c>
-    </row>
-    <row r="225" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C225" s="4"/>
-      <c r="D225" s="18"/>
+        <v>15945.999999999995</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B225" s="56"/>
+      <c r="C225" s="4">
+        <v>0.66388888888888886</v>
+      </c>
+      <c r="D225" s="18">
+        <v>0.67361111111111116</v>
+      </c>
       <c r="E225" s="20">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>9.7222222222222987E-3</v>
       </c>
       <c r="F225" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.8555555555555552</v>
       </c>
       <c r="G225" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.8555555555555552</v>
       </c>
       <c r="H225" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>3.9180555555555547</v>
       </c>
       <c r="I225" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
-      </c>
-    </row>
-    <row r="226" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C226" s="4"/>
-      <c r="D226" s="18"/>
+        <v>15985.666666666664</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B226" s="56"/>
+      <c r="C226" s="4">
+        <v>0.70347222222222217</v>
+      </c>
+      <c r="D226" s="18">
+        <v>0.7631944444444444</v>
+      </c>
       <c r="E226" s="20">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>5.9722222222222232E-2</v>
       </c>
       <c r="F226" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9152777777777774</v>
       </c>
       <c r="G226" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9152777777777774</v>
       </c>
       <c r="H226" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>3.977777777777777</v>
       </c>
       <c r="I226" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
-      </c>
-    </row>
-    <row r="227" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C227" s="4"/>
-      <c r="D227" s="18"/>
+        <v>16229.333333333328</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B227" s="56"/>
+      <c r="C227" s="4">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="D227" s="18">
+        <v>0.83611111111111114</v>
+      </c>
       <c r="E227" s="20">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>6.8749999999999978E-2</v>
       </c>
       <c r="F227" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G227" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H227" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I227" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
-      </c>
-    </row>
-    <row r="228" spans="3:9" x14ac:dyDescent="0.25">
+        <v>16509.833333333332</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C228" s="4"/>
       <c r="D228" s="18"/>
       <c r="E228" s="20">
@@ -7807,22 +7835,22 @@
       </c>
       <c r="F228" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G228" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H228" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I228" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
-      </c>
-    </row>
-    <row r="229" spans="3:9" x14ac:dyDescent="0.25">
+        <v>16509.833333333332</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C229" s="4"/>
       <c r="D229" s="18"/>
       <c r="E229" s="20">
@@ -7831,22 +7859,22 @@
       </c>
       <c r="F229" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G229" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H229" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I229" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
-      </c>
-    </row>
-    <row r="230" spans="3:9" x14ac:dyDescent="0.25">
+        <v>16509.833333333332</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C230" s="4"/>
       <c r="D230" s="18"/>
       <c r="E230" s="20">
@@ -7855,22 +7883,22 @@
       </c>
       <c r="F230" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G230" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H230" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I230" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
-      </c>
-    </row>
-    <row r="231" spans="3:9" x14ac:dyDescent="0.25">
+        <v>16509.833333333332</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C231" s="4"/>
       <c r="D231" s="18"/>
       <c r="E231" s="20">
@@ -7879,22 +7907,22 @@
       </c>
       <c r="F231" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G231" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H231" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I231" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
-      </c>
-    </row>
-    <row r="232" spans="3:9" x14ac:dyDescent="0.25">
+        <v>16509.833333333332</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C232" s="4"/>
       <c r="D232" s="18"/>
       <c r="E232" s="20">
@@ -7903,22 +7931,22 @@
       </c>
       <c r="F232" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G232" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H232" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I232" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
-      </c>
-    </row>
-    <row r="233" spans="3:9" x14ac:dyDescent="0.25">
+        <v>16509.833333333332</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C233" s="4"/>
       <c r="D233" s="18"/>
       <c r="E233" s="20">
@@ -7927,22 +7955,22 @@
       </c>
       <c r="F233" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G233" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H233" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I233" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
-      </c>
-    </row>
-    <row r="234" spans="3:9" x14ac:dyDescent="0.25">
+        <v>16509.833333333332</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C234" s="4"/>
       <c r="D234" s="18"/>
       <c r="E234" s="20">
@@ -7951,22 +7979,22 @@
       </c>
       <c r="F234" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G234" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H234" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I234" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
-      </c>
-    </row>
-    <row r="235" spans="3:9" x14ac:dyDescent="0.25">
+        <v>16509.833333333332</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C235" s="4"/>
       <c r="D235" s="18"/>
       <c r="E235" s="20">
@@ -7975,22 +8003,22 @@
       </c>
       <c r="F235" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G235" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H235" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I235" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
-      </c>
-    </row>
-    <row r="236" spans="3:9" x14ac:dyDescent="0.25">
+        <v>16509.833333333332</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C236" s="4"/>
       <c r="D236" s="18"/>
       <c r="E236" s="20">
@@ -7999,22 +8027,22 @@
       </c>
       <c r="F236" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G236" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H236" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I236" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
-      </c>
-    </row>
-    <row r="237" spans="3:9" x14ac:dyDescent="0.25">
+        <v>16509.833333333332</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C237" s="4"/>
       <c r="D237" s="18"/>
       <c r="E237" s="20">
@@ -8023,22 +8051,22 @@
       </c>
       <c r="F237" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G237" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H237" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I237" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
-      </c>
-    </row>
-    <row r="238" spans="3:9" x14ac:dyDescent="0.25">
+        <v>16509.833333333332</v>
+      </c>
+    </row>
+    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C238" s="4"/>
       <c r="D238" s="18"/>
       <c r="E238" s="20">
@@ -8047,22 +8075,22 @@
       </c>
       <c r="F238" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G238" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H238" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I238" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
-      </c>
-    </row>
-    <row r="239" spans="3:9" x14ac:dyDescent="0.25">
+        <v>16509.833333333332</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C239" s="4"/>
       <c r="D239" s="18"/>
       <c r="E239" s="20">
@@ -8071,22 +8099,22 @@
       </c>
       <c r="F239" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G239" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H239" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I239" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
-      </c>
-    </row>
-    <row r="240" spans="3:9" x14ac:dyDescent="0.25">
+        <v>16509.833333333332</v>
+      </c>
+    </row>
+    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C240" s="4"/>
       <c r="D240" s="18"/>
       <c r="E240" s="20">
@@ -8095,19 +8123,19 @@
       </c>
       <c r="F240" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G240" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H240" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I240" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="241" spans="3:9" x14ac:dyDescent="0.25">
@@ -8119,19 +8147,19 @@
       </c>
       <c r="F241" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G241" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H241" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I241" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="242" spans="3:9" x14ac:dyDescent="0.25">
@@ -8143,19 +8171,19 @@
       </c>
       <c r="F242" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G242" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H242" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I242" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="243" spans="3:9" x14ac:dyDescent="0.25">
@@ -8167,19 +8195,19 @@
       </c>
       <c r="F243" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G243" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H243" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I243" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="244" spans="3:9" x14ac:dyDescent="0.25">
@@ -8191,19 +8219,19 @@
       </c>
       <c r="F244" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G244" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H244" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I244" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="245" spans="3:9" x14ac:dyDescent="0.25">
@@ -8215,19 +8243,19 @@
       </c>
       <c r="F245" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G245" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H245" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I245" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="246" spans="3:9" x14ac:dyDescent="0.25">
@@ -8239,19 +8267,19 @@
       </c>
       <c r="F246" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G246" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H246" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I246" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="247" spans="3:9" x14ac:dyDescent="0.25">
@@ -8263,19 +8291,19 @@
       </c>
       <c r="F247" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G247" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H247" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I247" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="248" spans="3:9" x14ac:dyDescent="0.25">
@@ -8287,19 +8315,19 @@
       </c>
       <c r="F248" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G248" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H248" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I248" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="249" spans="3:9" x14ac:dyDescent="0.25">
@@ -8311,19 +8339,19 @@
       </c>
       <c r="F249" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G249" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H249" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I249" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="250" spans="3:9" x14ac:dyDescent="0.25">
@@ -8335,19 +8363,19 @@
       </c>
       <c r="F250" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G250" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H250" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I250" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="251" spans="3:9" x14ac:dyDescent="0.25">
@@ -8359,19 +8387,19 @@
       </c>
       <c r="F251" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G251" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H251" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I251" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="252" spans="3:9" x14ac:dyDescent="0.25">
@@ -8383,19 +8411,19 @@
       </c>
       <c r="F252" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G252" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H252" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I252" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="253" spans="3:9" x14ac:dyDescent="0.25">
@@ -8407,19 +8435,19 @@
       </c>
       <c r="F253" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G253" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H253" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I253" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="254" spans="3:9" x14ac:dyDescent="0.25">
@@ -8431,19 +8459,19 @@
       </c>
       <c r="F254" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G254" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H254" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I254" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="255" spans="3:9" x14ac:dyDescent="0.25">
@@ -8455,19 +8483,19 @@
       </c>
       <c r="F255" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G255" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H255" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I255" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="256" spans="3:9" x14ac:dyDescent="0.25">
@@ -8479,19 +8507,19 @@
       </c>
       <c r="F256" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G256" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H256" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I256" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="257" spans="3:9" x14ac:dyDescent="0.25">
@@ -8503,19 +8531,19 @@
       </c>
       <c r="F257" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G257" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H257" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I257" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="258" spans="3:9" x14ac:dyDescent="0.25">
@@ -8527,19 +8555,19 @@
       </c>
       <c r="F258" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G258" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H258" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I258" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="259" spans="3:9" x14ac:dyDescent="0.25">
@@ -8551,19 +8579,19 @@
       </c>
       <c r="F259" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G259" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H259" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I259" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="260" spans="3:9" x14ac:dyDescent="0.25">
@@ -8575,19 +8603,19 @@
       </c>
       <c r="F260" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G260" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H260" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I260" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="261" spans="3:9" x14ac:dyDescent="0.25">
@@ -8599,19 +8627,19 @@
       </c>
       <c r="F261" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G261" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H261" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I261" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="262" spans="3:9" x14ac:dyDescent="0.25">
@@ -8623,19 +8651,19 @@
       </c>
       <c r="F262" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G262" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H262" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I262" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="263" spans="3:9" x14ac:dyDescent="0.25">
@@ -8647,19 +8675,19 @@
       </c>
       <c r="F263" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G263" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H263" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I263" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="264" spans="3:9" x14ac:dyDescent="0.25">
@@ -8671,19 +8699,19 @@
       </c>
       <c r="F264" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G264" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H264" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I264" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="265" spans="3:9" x14ac:dyDescent="0.25">
@@ -8695,19 +8723,19 @@
       </c>
       <c r="F265" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G265" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H265" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I265" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="266" spans="3:9" x14ac:dyDescent="0.25">
@@ -8719,19 +8747,19 @@
       </c>
       <c r="F266" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G266" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H266" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I266" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="267" spans="3:9" x14ac:dyDescent="0.25">
@@ -8743,19 +8771,19 @@
       </c>
       <c r="F267" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G267" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H267" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I267" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="268" spans="3:9" x14ac:dyDescent="0.25">
@@ -8767,19 +8795,19 @@
       </c>
       <c r="F268" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G268" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H268" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I268" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="269" spans="3:9" x14ac:dyDescent="0.25">
@@ -8791,19 +8819,19 @@
       </c>
       <c r="F269" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G269" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H269" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I269" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="270" spans="3:9" x14ac:dyDescent="0.25">
@@ -8815,19 +8843,19 @@
       </c>
       <c r="F270" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G270" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H270" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I270" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="271" spans="3:9" x14ac:dyDescent="0.25">
@@ -8839,19 +8867,19 @@
       </c>
       <c r="F271" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G271" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H271" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I271" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="272" spans="3:9" x14ac:dyDescent="0.25">
@@ -8863,19 +8891,19 @@
       </c>
       <c r="F272" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G272" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H272" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I272" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="273" spans="3:9" x14ac:dyDescent="0.25">
@@ -8887,19 +8915,19 @@
       </c>
       <c r="F273" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G273" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H273" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I273" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="274" spans="3:9" x14ac:dyDescent="0.25">
@@ -8911,19 +8939,19 @@
       </c>
       <c r="F274" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G274" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H274" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I274" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="275" spans="3:9" x14ac:dyDescent="0.25">
@@ -8935,19 +8963,19 @@
       </c>
       <c r="F275" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G275" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H275" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I275" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="276" spans="3:9" x14ac:dyDescent="0.25">
@@ -8959,19 +8987,19 @@
       </c>
       <c r="F276" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G276" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H276" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I276" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="277" spans="3:9" x14ac:dyDescent="0.25">
@@ -8983,19 +9011,19 @@
       </c>
       <c r="F277" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G277" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H277" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I277" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="278" spans="3:9" x14ac:dyDescent="0.25">
@@ -9007,19 +9035,19 @@
       </c>
       <c r="F278" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G278" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H278" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I278" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="279" spans="3:9" x14ac:dyDescent="0.25">
@@ -9031,19 +9059,19 @@
       </c>
       <c r="F279" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G279" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H279" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I279" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="280" spans="3:9" x14ac:dyDescent="0.25">
@@ -9055,19 +9083,19 @@
       </c>
       <c r="F280" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G280" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H280" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I280" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="281" spans="3:9" x14ac:dyDescent="0.25">
@@ -9079,19 +9107,19 @@
       </c>
       <c r="F281" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G281" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H281" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I281" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="282" spans="3:9" x14ac:dyDescent="0.25">
@@ -9103,19 +9131,19 @@
       </c>
       <c r="F282" s="21">
         <f t="shared" ref="F282:F342" si="72">F281+E282</f>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G282" s="15">
         <f t="shared" ref="G282:G342" si="73">F282</f>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H282" s="15">
         <f t="shared" ref="H282:H342" si="74">(H281+G282-G281)</f>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I282" s="23">
         <f t="shared" ref="I282:I342" si="75">H282*24*$J$32</f>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="283" spans="3:9" x14ac:dyDescent="0.25">
@@ -9127,19 +9155,19 @@
       </c>
       <c r="F283" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G283" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H283" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I283" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="284" spans="3:9" x14ac:dyDescent="0.25">
@@ -9151,19 +9179,19 @@
       </c>
       <c r="F284" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G284" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H284" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I284" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="285" spans="3:9" x14ac:dyDescent="0.25">
@@ -9175,19 +9203,19 @@
       </c>
       <c r="F285" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G285" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H285" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I285" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="286" spans="3:9" x14ac:dyDescent="0.25">
@@ -9199,19 +9227,19 @@
       </c>
       <c r="F286" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G286" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H286" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I286" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="287" spans="3:9" x14ac:dyDescent="0.25">
@@ -9223,19 +9251,19 @@
       </c>
       <c r="F287" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G287" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H287" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I287" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="288" spans="3:9" x14ac:dyDescent="0.25">
@@ -9247,19 +9275,19 @@
       </c>
       <c r="F288" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G288" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H288" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I288" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="289" spans="3:9" x14ac:dyDescent="0.25">
@@ -9271,19 +9299,19 @@
       </c>
       <c r="F289" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G289" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H289" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I289" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="290" spans="3:9" x14ac:dyDescent="0.25">
@@ -9295,19 +9323,19 @@
       </c>
       <c r="F290" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G290" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H290" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I290" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="291" spans="3:9" x14ac:dyDescent="0.25">
@@ -9319,19 +9347,19 @@
       </c>
       <c r="F291" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G291" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H291" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I291" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="292" spans="3:9" x14ac:dyDescent="0.25">
@@ -9343,19 +9371,19 @@
       </c>
       <c r="F292" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G292" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H292" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I292" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="293" spans="3:9" x14ac:dyDescent="0.25">
@@ -9367,19 +9395,19 @@
       </c>
       <c r="F293" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G293" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H293" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I293" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="294" spans="3:9" x14ac:dyDescent="0.25">
@@ -9391,19 +9419,19 @@
       </c>
       <c r="F294" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G294" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H294" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I294" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="295" spans="3:9" x14ac:dyDescent="0.25">
@@ -9415,19 +9443,19 @@
       </c>
       <c r="F295" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G295" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H295" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I295" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="296" spans="3:9" x14ac:dyDescent="0.25">
@@ -9439,19 +9467,19 @@
       </c>
       <c r="F296" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G296" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H296" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I296" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="297" spans="3:9" x14ac:dyDescent="0.25">
@@ -9463,19 +9491,19 @@
       </c>
       <c r="F297" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G297" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H297" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I297" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="298" spans="3:9" x14ac:dyDescent="0.25">
@@ -9487,19 +9515,19 @@
       </c>
       <c r="F298" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G298" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H298" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I298" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="299" spans="3:9" x14ac:dyDescent="0.25">
@@ -9511,19 +9539,19 @@
       </c>
       <c r="F299" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G299" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H299" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I299" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="300" spans="3:9" x14ac:dyDescent="0.25">
@@ -9535,19 +9563,19 @@
       </c>
       <c r="F300" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G300" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H300" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I300" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="301" spans="3:9" x14ac:dyDescent="0.25">
@@ -9559,19 +9587,19 @@
       </c>
       <c r="F301" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G301" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H301" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I301" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="302" spans="3:9" x14ac:dyDescent="0.25">
@@ -9583,19 +9611,19 @@
       </c>
       <c r="F302" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G302" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H302" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I302" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="303" spans="3:9" x14ac:dyDescent="0.25">
@@ -9607,19 +9635,19 @@
       </c>
       <c r="F303" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G303" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H303" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I303" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="304" spans="3:9" x14ac:dyDescent="0.25">
@@ -9631,19 +9659,19 @@
       </c>
       <c r="F304" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G304" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H304" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I304" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="305" spans="3:9" x14ac:dyDescent="0.25">
@@ -9655,19 +9683,19 @@
       </c>
       <c r="F305" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G305" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H305" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I305" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="306" spans="3:9" x14ac:dyDescent="0.25">
@@ -9679,19 +9707,19 @@
       </c>
       <c r="F306" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G306" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H306" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I306" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="307" spans="3:9" x14ac:dyDescent="0.25">
@@ -9703,19 +9731,19 @@
       </c>
       <c r="F307" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G307" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H307" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I307" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="308" spans="3:9" x14ac:dyDescent="0.25">
@@ -9727,19 +9755,19 @@
       </c>
       <c r="F308" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G308" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H308" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I308" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="309" spans="3:9" x14ac:dyDescent="0.25">
@@ -9751,19 +9779,19 @@
       </c>
       <c r="F309" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G309" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H309" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I309" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="310" spans="3:9" x14ac:dyDescent="0.25">
@@ -9775,19 +9803,19 @@
       </c>
       <c r="F310" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G310" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H310" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I310" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="311" spans="3:9" x14ac:dyDescent="0.25">
@@ -9799,19 +9827,19 @@
       </c>
       <c r="F311" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G311" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H311" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I311" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="312" spans="3:9" x14ac:dyDescent="0.25">
@@ -9823,19 +9851,19 @@
       </c>
       <c r="F312" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G312" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H312" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I312" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="313" spans="3:9" x14ac:dyDescent="0.25">
@@ -9847,19 +9875,19 @@
       </c>
       <c r="F313" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G313" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H313" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I313" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="314" spans="3:9" x14ac:dyDescent="0.25">
@@ -9871,19 +9899,19 @@
       </c>
       <c r="F314" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G314" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H314" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I314" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="315" spans="3:9" x14ac:dyDescent="0.25">
@@ -9895,19 +9923,19 @@
       </c>
       <c r="F315" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G315" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H315" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I315" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="316" spans="3:9" x14ac:dyDescent="0.25">
@@ -9919,19 +9947,19 @@
       </c>
       <c r="F316" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G316" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H316" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I316" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="317" spans="3:9" x14ac:dyDescent="0.25">
@@ -9943,19 +9971,19 @@
       </c>
       <c r="F317" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G317" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H317" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I317" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="318" spans="3:9" x14ac:dyDescent="0.25">
@@ -9967,19 +9995,19 @@
       </c>
       <c r="F318" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G318" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H318" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I318" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="319" spans="3:9" x14ac:dyDescent="0.25">
@@ -9991,19 +10019,19 @@
       </c>
       <c r="F319" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G319" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H319" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I319" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="320" spans="3:9" x14ac:dyDescent="0.25">
@@ -10015,19 +10043,19 @@
       </c>
       <c r="F320" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G320" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H320" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I320" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="321" spans="3:9" x14ac:dyDescent="0.25">
@@ -10039,19 +10067,19 @@
       </c>
       <c r="F321" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G321" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H321" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I321" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="322" spans="3:9" x14ac:dyDescent="0.25">
@@ -10063,19 +10091,19 @@
       </c>
       <c r="F322" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G322" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H322" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I322" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="323" spans="3:9" x14ac:dyDescent="0.25">
@@ -10087,19 +10115,19 @@
       </c>
       <c r="F323" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G323" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H323" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I323" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="324" spans="3:9" x14ac:dyDescent="0.25">
@@ -10111,19 +10139,19 @@
       </c>
       <c r="F324" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G324" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H324" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I324" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="325" spans="3:9" x14ac:dyDescent="0.25">
@@ -10135,19 +10163,19 @@
       </c>
       <c r="F325" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G325" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H325" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I325" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="326" spans="3:9" x14ac:dyDescent="0.25">
@@ -10159,19 +10187,19 @@
       </c>
       <c r="F326" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G326" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H326" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I326" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="327" spans="3:9" x14ac:dyDescent="0.25">
@@ -10183,19 +10211,19 @@
       </c>
       <c r="F327" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G327" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H327" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I327" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="328" spans="3:9" x14ac:dyDescent="0.25">
@@ -10207,19 +10235,19 @@
       </c>
       <c r="F328" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G328" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H328" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I328" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="329" spans="3:9" x14ac:dyDescent="0.25">
@@ -10231,19 +10259,19 @@
       </c>
       <c r="F329" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G329" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H329" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I329" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="330" spans="3:9" x14ac:dyDescent="0.25">
@@ -10255,19 +10283,19 @@
       </c>
       <c r="F330" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G330" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H330" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I330" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="331" spans="3:9" x14ac:dyDescent="0.25">
@@ -10279,19 +10307,19 @@
       </c>
       <c r="F331" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G331" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H331" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I331" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="332" spans="3:9" x14ac:dyDescent="0.25">
@@ -10303,19 +10331,19 @@
       </c>
       <c r="F332" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G332" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H332" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I332" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="333" spans="3:9" x14ac:dyDescent="0.25">
@@ -10327,19 +10355,19 @@
       </c>
       <c r="F333" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G333" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H333" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I333" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="334" spans="3:9" x14ac:dyDescent="0.25">
@@ -10351,19 +10379,19 @@
       </c>
       <c r="F334" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G334" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H334" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I334" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="335" spans="3:9" x14ac:dyDescent="0.25">
@@ -10375,19 +10403,19 @@
       </c>
       <c r="F335" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G335" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H335" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I335" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="336" spans="3:9" x14ac:dyDescent="0.25">
@@ -10399,19 +10427,19 @@
       </c>
       <c r="F336" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G336" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H336" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I336" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="337" spans="3:9" x14ac:dyDescent="0.25">
@@ -10423,19 +10451,19 @@
       </c>
       <c r="F337" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G337" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H337" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I337" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="338" spans="3:9" x14ac:dyDescent="0.25">
@@ -10447,19 +10475,19 @@
       </c>
       <c r="F338" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G338" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H338" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I338" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="339" spans="3:9" x14ac:dyDescent="0.25">
@@ -10471,19 +10499,19 @@
       </c>
       <c r="F339" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G339" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H339" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I339" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="340" spans="3:9" x14ac:dyDescent="0.25">
@@ -10495,19 +10523,19 @@
       </c>
       <c r="F340" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G340" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H340" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I340" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="341" spans="3:9" x14ac:dyDescent="0.25">
@@ -10519,19 +10547,19 @@
       </c>
       <c r="F341" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G341" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H341" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I341" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
     <row r="342" spans="3:9" x14ac:dyDescent="0.25">
@@ -10543,33 +10571,53 @@
       </c>
       <c r="F342" s="21">
         <f t="shared" si="72"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="G342" s="15">
         <f t="shared" si="73"/>
-        <v>1.8124999999999996</v>
+        <v>1.9840277777777775</v>
       </c>
       <c r="H342" s="15">
         <f t="shared" si="74"/>
-        <v>3.8749999999999987</v>
+        <v>4.0465277777777775</v>
       </c>
       <c r="I342" s="23">
         <f t="shared" si="75"/>
-        <v>15809.999999999995</v>
+        <v>16509.833333333332</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="B204:B209"/>
-    <mergeCell ref="B213:B219"/>
-    <mergeCell ref="B201:B203"/>
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="B178:B183"/>
-    <mergeCell ref="B184:B187"/>
-    <mergeCell ref="B188:B192"/>
+  <mergeCells count="56">
+    <mergeCell ref="B220:B227"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
     <mergeCell ref="B164:B170"/>
     <mergeCell ref="B151:B155"/>
     <mergeCell ref="B156:B162"/>
@@ -10586,35 +10634,16 @@
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="B70:B71"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B188:B192"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="B204:B209"/>
+    <mergeCell ref="B213:B219"/>
+    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="B195:B200"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA529779-517C-45DE-AD15-411A693FB4B4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC71E56B-AAB8-41E8-8573-2EB72A8285D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="1305" windowWidth="14670" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
   <si>
     <t>Vektorizace, první sada</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>16.2.</t>
+  </si>
+  <si>
+    <t>17.2.</t>
   </si>
 </sst>
 </file>
@@ -762,10 +765,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -783,7 +784,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -1125,7 +1128,7 @@
   <dimension ref="A1:X342"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="L227" sqref="L227"/>
+      <selection activeCell="D231" sqref="D231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,7 +1355,7 @@
         <v>16716.666666666664</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="57"/>
+      <c r="K13" s="63"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
@@ -1398,7 +1401,7 @@
         <v>16915</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="57"/>
+      <c r="K14" s="63"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
@@ -1442,7 +1445,7 @@
         <v>17184.166666666664</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="57"/>
+      <c r="K15" s="63"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
@@ -1486,7 +1489,7 @@
         <v>17269.166666666664</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="57"/>
+      <c r="K16" s="63"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
@@ -1530,7 +1533,7 @@
         <v>17524.166666666664</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="57"/>
+      <c r="K17" s="63"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
@@ -1574,7 +1577,7 @@
         <v>17651.666666666664</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="57"/>
+      <c r="K18" s="63"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
@@ -1620,7 +1623,7 @@
         <v>17878.333333333332</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="57"/>
+      <c r="K19" s="63"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
@@ -1664,7 +1667,7 @@
         <v>18246.666666666664</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="57"/>
+      <c r="K20" s="63"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
@@ -1708,7 +1711,7 @@
         <v>18388.333333333332</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="57"/>
+      <c r="K21" s="63"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
@@ -1752,7 +1755,7 @@
         <v>18515.833333333332</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="57"/>
+      <c r="K22" s="63"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="9"/>
@@ -4902,7 +4905,7 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B127" s="56" t="s">
+      <c r="B127" s="57" t="s">
         <v>58</v>
       </c>
       <c r="C127" s="4">
@@ -4933,7 +4936,7 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B128" s="56"/>
+      <c r="B128" s="57"/>
       <c r="C128" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -4962,7 +4965,7 @@
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="56"/>
+      <c r="B129" s="57"/>
       <c r="C129" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -4991,7 +4994,7 @@
       </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="56"/>
+      <c r="B130" s="57"/>
       <c r="C130" s="4">
         <v>0.78472222222222221</v>
       </c>
@@ -5020,7 +5023,7 @@
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B131" s="56" t="s">
+      <c r="B131" s="57" t="s">
         <v>60</v>
       </c>
       <c r="C131" s="4">
@@ -5051,7 +5054,7 @@
       </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B132" s="56"/>
+      <c r="B132" s="57"/>
       <c r="C132" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -5080,7 +5083,7 @@
       </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B133" s="56"/>
+      <c r="B133" s="57"/>
       <c r="C133" s="4">
         <v>0.71180555555555547</v>
       </c>
@@ -5109,7 +5112,7 @@
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B134" s="56"/>
+      <c r="B134" s="57"/>
       <c r="C134" s="4">
         <v>0.84375</v>
       </c>
@@ -5138,7 +5141,7 @@
       </c>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B135" s="56" t="s">
+      <c r="B135" s="57" t="s">
         <v>61</v>
       </c>
       <c r="C135" s="4">
@@ -5169,7 +5172,7 @@
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B136" s="56"/>
+      <c r="B136" s="57"/>
       <c r="C136" s="4">
         <v>0.74305555555555547</v>
       </c>
@@ -5198,7 +5201,7 @@
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B137" s="56"/>
+      <c r="B137" s="57"/>
       <c r="C137" s="4">
         <v>0.79861111111111116</v>
       </c>
@@ -5227,7 +5230,7 @@
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B138" s="56" t="s">
+      <c r="B138" s="57" t="s">
         <v>62</v>
       </c>
       <c r="C138" s="4">
@@ -5258,7 +5261,7 @@
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B139" s="56"/>
+      <c r="B139" s="57"/>
       <c r="C139" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -5287,7 +5290,7 @@
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B140" s="56"/>
+      <c r="B140" s="57"/>
       <c r="C140" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -5316,7 +5319,7 @@
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B141" s="56"/>
+      <c r="B141" s="57"/>
       <c r="C141" s="4">
         <v>0.83680555555555547</v>
       </c>
@@ -5345,7 +5348,7 @@
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B142" s="56" t="s">
+      <c r="B142" s="57" t="s">
         <v>63</v>
       </c>
       <c r="C142" s="4">
@@ -5376,7 +5379,7 @@
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B143" s="56"/>
+      <c r="B143" s="57"/>
       <c r="C143" s="4">
         <v>0.72222222222222221</v>
       </c>
@@ -5405,7 +5408,7 @@
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B144" s="56"/>
+      <c r="B144" s="57"/>
       <c r="C144" s="4">
         <v>0.79166666666666663</v>
       </c>
@@ -5465,7 +5468,7 @@
       </c>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B146" s="56" t="s">
+      <c r="B146" s="57" t="s">
         <v>65</v>
       </c>
       <c r="C146" s="4">
@@ -5496,7 +5499,7 @@
       </c>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B147" s="56"/>
+      <c r="B147" s="57"/>
       <c r="C147" s="4">
         <v>0.66319444444444442</v>
       </c>
@@ -5525,7 +5528,7 @@
       </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B148" s="56"/>
+      <c r="B148" s="57"/>
       <c r="C148" s="4">
         <v>0.78125</v>
       </c>
@@ -5554,7 +5557,7 @@
       </c>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B149" s="56"/>
+      <c r="B149" s="57"/>
       <c r="C149" s="4">
         <v>0.86111111111111116</v>
       </c>
@@ -5591,7 +5594,7 @@
       <c r="H150" s="15"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B151" s="56" t="s">
+      <c r="B151" s="57" t="s">
         <v>66</v>
       </c>
       <c r="C151" s="4">
@@ -5625,7 +5628,7 @@
       </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B152" s="56"/>
+      <c r="B152" s="57"/>
       <c r="C152" s="4">
         <v>0.70486111111111116</v>
       </c>
@@ -5654,7 +5657,7 @@
       </c>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B153" s="56"/>
+      <c r="B153" s="57"/>
       <c r="C153" s="4">
         <v>0.75347222222222221</v>
       </c>
@@ -5683,7 +5686,7 @@
       </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B154" s="56"/>
+      <c r="B154" s="57"/>
       <c r="C154" s="4">
         <v>0.84375</v>
       </c>
@@ -5712,7 +5715,7 @@
       </c>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B155" s="56"/>
+      <c r="B155" s="57"/>
       <c r="C155" s="4">
         <v>0.95486111111111116</v>
       </c>
@@ -5741,7 +5744,7 @@
       </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B156" s="56" t="s">
+      <c r="B156" s="57" t="s">
         <v>68</v>
       </c>
       <c r="C156" s="4">
@@ -5772,7 +5775,7 @@
       </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B157" s="56"/>
+      <c r="B157" s="57"/>
       <c r="C157" s="4">
         <v>0.1388888888888889</v>
       </c>
@@ -5801,7 +5804,7 @@
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B158" s="56"/>
+      <c r="B158" s="57"/>
       <c r="C158" s="4">
         <v>0.4548611111111111</v>
       </c>
@@ -5830,7 +5833,7 @@
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B159" s="56"/>
+      <c r="B159" s="57"/>
       <c r="C159" s="4">
         <v>0.49305555555555558</v>
       </c>
@@ -5859,7 +5862,7 @@
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B160" s="56"/>
+      <c r="B160" s="57"/>
       <c r="C160" s="4">
         <v>0.55555555555555558</v>
       </c>
@@ -5888,7 +5891,7 @@
       </c>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B161" s="56"/>
+      <c r="B161" s="57"/>
       <c r="C161" s="4">
         <v>0.84027777777777779</v>
       </c>
@@ -5917,7 +5920,7 @@
       </c>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B162" s="56"/>
+      <c r="B162" s="57"/>
       <c r="C162" s="4">
         <v>0.875</v>
       </c>
@@ -5956,7 +5959,7 @@
       <c r="H163" s="15"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B164" s="56" t="s">
+      <c r="B164" s="57" t="s">
         <v>70</v>
       </c>
       <c r="C164" s="4">
@@ -5990,7 +5993,7 @@
       </c>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B165" s="56"/>
+      <c r="B165" s="57"/>
       <c r="C165" s="4">
         <v>0.57291666666666663</v>
       </c>
@@ -6019,7 +6022,7 @@
       </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B166" s="56"/>
+      <c r="B166" s="57"/>
       <c r="C166" s="4">
         <v>0.73263888888888884</v>
       </c>
@@ -6048,7 +6051,7 @@
       </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B167" s="56"/>
+      <c r="B167" s="57"/>
       <c r="C167" s="4">
         <v>0.75</v>
       </c>
@@ -6077,7 +6080,7 @@
       </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B168" s="56"/>
+      <c r="B168" s="57"/>
       <c r="C168" s="4">
         <v>0.82986111111111116</v>
       </c>
@@ -6106,7 +6109,7 @@
       </c>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B169" s="56"/>
+      <c r="B169" s="57"/>
       <c r="C169" s="4">
         <v>0.84722222222222221</v>
       </c>
@@ -6135,7 +6138,7 @@
       </c>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B170" s="56"/>
+      <c r="B170" s="57"/>
       <c r="C170" s="4">
         <v>0.93402777777777779</v>
       </c>
@@ -6175,7 +6178,7 @@
       <c r="H171" s="15"/>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B172" s="56" t="s">
+      <c r="B172" s="57" t="s">
         <v>74</v>
       </c>
       <c r="C172" s="4">
@@ -6209,7 +6212,7 @@
       </c>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B173" s="56"/>
+      <c r="B173" s="57"/>
       <c r="C173" s="4">
         <v>0.51041666666666663</v>
       </c>
@@ -6238,7 +6241,7 @@
       </c>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B174" s="56"/>
+      <c r="B174" s="57"/>
       <c r="C174" s="4">
         <v>0.54513888888888895</v>
       </c>
@@ -6267,7 +6270,7 @@
       </c>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B175" s="56" t="s">
+      <c r="B175" s="57" t="s">
         <v>75</v>
       </c>
       <c r="C175" s="4">
@@ -6298,7 +6301,7 @@
       </c>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B176" s="56"/>
+      <c r="B176" s="57"/>
       <c r="C176" s="4">
         <v>0.4548611111111111</v>
       </c>
@@ -6327,7 +6330,7 @@
       </c>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B177" s="56"/>
+      <c r="B177" s="57"/>
       <c r="C177" s="4">
         <v>0.52430555555555558</v>
       </c>
@@ -6356,7 +6359,7 @@
       </c>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B178" s="56" t="s">
+      <c r="B178" s="57" t="s">
         <v>76</v>
       </c>
       <c r="C178" s="4">
@@ -6387,7 +6390,7 @@
       </c>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B179" s="56"/>
+      <c r="B179" s="57"/>
       <c r="C179" s="4">
         <v>0.57638888888888895</v>
       </c>
@@ -6416,7 +6419,7 @@
       </c>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B180" s="56"/>
+      <c r="B180" s="57"/>
       <c r="C180" s="4">
         <v>0.71527777777777779</v>
       </c>
@@ -6445,7 +6448,7 @@
       </c>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B181" s="56"/>
+      <c r="B181" s="57"/>
       <c r="C181" s="4">
         <v>0.75</v>
       </c>
@@ -6474,7 +6477,7 @@
       </c>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B182" s="56"/>
+      <c r="B182" s="57"/>
       <c r="C182" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -6506,7 +6509,7 @@
       </c>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B183" s="56"/>
+      <c r="B183" s="57"/>
       <c r="C183" s="4">
         <v>0.78125</v>
       </c>
@@ -6535,7 +6538,7 @@
       </c>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B184" s="56" t="s">
+      <c r="B184" s="57" t="s">
         <v>78</v>
       </c>
       <c r="C184" s="4">
@@ -6566,7 +6569,7 @@
       </c>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B185" s="56"/>
+      <c r="B185" s="57"/>
       <c r="C185" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -6595,7 +6598,7 @@
       </c>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B186" s="56"/>
+      <c r="B186" s="57"/>
       <c r="C186" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -6624,7 +6627,7 @@
       </c>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B187" s="56"/>
+      <c r="B187" s="57"/>
       <c r="C187" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -6653,7 +6656,7 @@
       </c>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B188" s="56" t="s">
+      <c r="B188" s="57" t="s">
         <v>79</v>
       </c>
       <c r="C188" s="4">
@@ -6684,7 +6687,7 @@
       </c>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B189" s="56"/>
+      <c r="B189" s="57"/>
       <c r="C189" s="4">
         <v>0.4201388888888889</v>
       </c>
@@ -6713,7 +6716,7 @@
       </c>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B190" s="56"/>
+      <c r="B190" s="57"/>
       <c r="C190" s="4">
         <v>0.52777777777777779</v>
       </c>
@@ -6742,7 +6745,7 @@
       </c>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B191" s="56"/>
+      <c r="B191" s="57"/>
       <c r="C191" s="4">
         <v>0.64236111111111105</v>
       </c>
@@ -6771,7 +6774,7 @@
       </c>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B192" s="56"/>
+      <c r="B192" s="57"/>
       <c r="C192" s="4">
         <v>0.71527777777777779</v>
       </c>
@@ -6854,7 +6857,7 @@
       </c>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B195" s="56" t="s">
+      <c r="B195" s="57" t="s">
         <v>82</v>
       </c>
       <c r="C195" s="4">
@@ -6885,7 +6888,7 @@
       </c>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B196" s="56"/>
+      <c r="B196" s="57"/>
       <c r="C196" s="4">
         <v>0.41250000000000003</v>
       </c>
@@ -6914,7 +6917,7 @@
       </c>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B197" s="56"/>
+      <c r="B197" s="57"/>
       <c r="C197" s="4">
         <v>0.50069444444444444</v>
       </c>
@@ -6943,7 +6946,7 @@
       </c>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B198" s="56"/>
+      <c r="B198" s="57"/>
       <c r="C198" s="4">
         <v>0.57777777777777783</v>
       </c>
@@ -6972,7 +6975,7 @@
       </c>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B199" s="56"/>
+      <c r="B199" s="57"/>
       <c r="C199" s="4">
         <v>0.66041666666666665</v>
       </c>
@@ -7001,7 +7004,7 @@
       </c>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B200" s="56"/>
+      <c r="B200" s="57"/>
       <c r="C200" s="4">
         <v>0.75694444444444453</v>
       </c>
@@ -7030,7 +7033,7 @@
       </c>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B201" s="56" t="s">
+      <c r="B201" s="57" t="s">
         <v>83</v>
       </c>
       <c r="C201" s="4">
@@ -7061,7 +7064,7 @@
       </c>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B202" s="56"/>
+      <c r="B202" s="57"/>
       <c r="C202" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -7090,7 +7093,7 @@
       </c>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B203" s="56"/>
+      <c r="B203" s="57"/>
       <c r="C203" s="4">
         <v>0.71944444444444444</v>
       </c>
@@ -7119,7 +7122,7 @@
       </c>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B204" s="56" t="s">
+      <c r="B204" s="57" t="s">
         <v>84</v>
       </c>
       <c r="C204" s="4">
@@ -7150,7 +7153,7 @@
       </c>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B205" s="56"/>
+      <c r="B205" s="57"/>
       <c r="C205" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -7179,7 +7182,7 @@
       </c>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B206" s="56"/>
+      <c r="B206" s="57"/>
       <c r="C206" s="4">
         <v>0.64861111111111114</v>
       </c>
@@ -7208,7 +7211,7 @@
       </c>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B207" s="56"/>
+      <c r="B207" s="57"/>
       <c r="C207" s="4">
         <v>0.65694444444444444</v>
       </c>
@@ -7237,7 +7240,7 @@
       </c>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B208" s="56"/>
+      <c r="B208" s="57"/>
       <c r="C208" s="4">
         <v>0.68333333333333324</v>
       </c>
@@ -7266,7 +7269,7 @@
       </c>
     </row>
     <row r="209" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B209" s="56"/>
+      <c r="B209" s="57"/>
       <c r="C209" s="4">
         <v>0.72083333333333333</v>
       </c>
@@ -7295,7 +7298,7 @@
       </c>
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B210" s="56" t="s">
+      <c r="B210" s="57" t="s">
         <v>85</v>
       </c>
       <c r="C210" s="4">
@@ -7326,7 +7329,7 @@
       </c>
     </row>
     <row r="211" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B211" s="56"/>
+      <c r="B211" s="57"/>
       <c r="C211" s="4">
         <v>0.68819444444444444</v>
       </c>
@@ -7355,7 +7358,7 @@
       </c>
     </row>
     <row r="212" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B212" s="56"/>
+      <c r="B212" s="57"/>
       <c r="C212" s="4">
         <v>0.72430555555555554</v>
       </c>
@@ -7384,7 +7387,7 @@
       </c>
     </row>
     <row r="213" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B213" s="56" t="s">
+      <c r="B213" s="57" t="s">
         <v>86</v>
       </c>
       <c r="C213" s="4">
@@ -7415,7 +7418,7 @@
       </c>
     </row>
     <row r="214" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B214" s="56"/>
+      <c r="B214" s="57"/>
       <c r="C214" s="4">
         <v>0.69097222222222221</v>
       </c>
@@ -7444,7 +7447,7 @@
       </c>
     </row>
     <row r="215" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B215" s="56"/>
+      <c r="B215" s="57"/>
       <c r="C215" s="4">
         <v>0.73263888888888884</v>
       </c>
@@ -7473,7 +7476,7 @@
       </c>
     </row>
     <row r="216" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B216" s="56"/>
+      <c r="B216" s="57"/>
       <c r="C216" s="4">
         <v>0.7368055555555556</v>
       </c>
@@ -7502,7 +7505,7 @@
       </c>
     </row>
     <row r="217" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B217" s="56"/>
+      <c r="B217" s="57"/>
       <c r="C217" s="4">
         <v>0.82361111111111107</v>
       </c>
@@ -7531,7 +7534,7 @@
       </c>
     </row>
     <row r="218" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B218" s="56"/>
+      <c r="B218" s="57"/>
       <c r="C218" s="4">
         <v>0.83194444444444438</v>
       </c>
@@ -7560,7 +7563,7 @@
       </c>
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B219" s="56"/>
+      <c r="B219" s="57"/>
       <c r="C219" s="4">
         <v>0.87291666666666667</v>
       </c>
@@ -7589,7 +7592,7 @@
       </c>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B220" s="56" t="s">
+      <c r="B220" s="57" t="s">
         <v>87</v>
       </c>
       <c r="C220" s="4">
@@ -7618,13 +7621,10 @@
         <f t="shared" si="70"/>
         <v>15280.166666666662</v>
       </c>
-      <c r="K220" s="63">
-        <f>SUM(E220:E227)</f>
-        <v>0.30555555555555564</v>
-      </c>
+      <c r="K220" s="56"/>
     </row>
     <row r="221" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B221" s="56"/>
+      <c r="B221" s="57"/>
       <c r="C221" s="4">
         <v>0.41736111111111113</v>
       </c>
@@ -7653,7 +7653,7 @@
       </c>
     </row>
     <row r="222" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B222" s="56"/>
+      <c r="B222" s="57"/>
       <c r="C222" s="4">
         <v>0.48888888888888887</v>
       </c>
@@ -7682,7 +7682,7 @@
       </c>
     </row>
     <row r="223" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B223" s="56"/>
+      <c r="B223" s="57"/>
       <c r="C223" s="4">
         <v>0.50208333333333333</v>
       </c>
@@ -7711,7 +7711,7 @@
       </c>
     </row>
     <row r="224" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B224" s="56"/>
+      <c r="B224" s="57"/>
       <c r="C224" s="4">
         <v>0.62569444444444444</v>
       </c>
@@ -7740,7 +7740,7 @@
       </c>
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B225" s="56"/>
+      <c r="B225" s="57"/>
       <c r="C225" s="4">
         <v>0.66388888888888886</v>
       </c>
@@ -7769,7 +7769,7 @@
       </c>
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B226" s="56"/>
+      <c r="B226" s="57"/>
       <c r="C226" s="4">
         <v>0.70347222222222217</v>
       </c>
@@ -7798,7 +7798,7 @@
       </c>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B227" s="56"/>
+      <c r="B227" s="57"/>
       <c r="C227" s="4">
         <v>0.76736111111111116</v>
       </c>
@@ -7827,51 +7827,62 @@
       </c>
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C228" s="4"/>
-      <c r="D228" s="18"/>
+      <c r="B228" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C228" s="4">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="D228" s="18">
+        <v>0.50277777777777777</v>
+      </c>
       <c r="E228" s="20">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>2.0138888888888873E-2</v>
       </c>
       <c r="F228" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0041666666666664</v>
       </c>
       <c r="G228" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0041666666666664</v>
       </c>
       <c r="H228" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0666666666666664</v>
       </c>
       <c r="I228" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16592</v>
       </c>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C229" s="4"/>
-      <c r="D229" s="18"/>
+      <c r="C229" s="4">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="D229" s="18">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="E229" s="20">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>2.2222222222222143E-2</v>
       </c>
       <c r="F229" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G229" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H229" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I229" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="230" spans="2:9" x14ac:dyDescent="0.25">
@@ -7883,19 +7894,19 @@
       </c>
       <c r="F230" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G230" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H230" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I230" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.25">
@@ -7907,19 +7918,19 @@
       </c>
       <c r="F231" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G231" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H231" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I231" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.25">
@@ -7931,19 +7942,19 @@
       </c>
       <c r="F232" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G232" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H232" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I232" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.25">
@@ -7955,19 +7966,19 @@
       </c>
       <c r="F233" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G233" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H233" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I233" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.25">
@@ -7979,19 +7990,19 @@
       </c>
       <c r="F234" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G234" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H234" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I234" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.25">
@@ -8003,19 +8014,19 @@
       </c>
       <c r="F235" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G235" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H235" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I235" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.25">
@@ -8027,19 +8038,19 @@
       </c>
       <c r="F236" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G236" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H236" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I236" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.25">
@@ -8051,19 +8062,19 @@
       </c>
       <c r="F237" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G237" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H237" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I237" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.25">
@@ -8075,19 +8086,19 @@
       </c>
       <c r="F238" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G238" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H238" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I238" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.25">
@@ -8099,19 +8110,19 @@
       </c>
       <c r="F239" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G239" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H239" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I239" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.25">
@@ -8123,19 +8134,19 @@
       </c>
       <c r="F240" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G240" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H240" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I240" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="241" spans="3:9" x14ac:dyDescent="0.25">
@@ -8147,19 +8158,19 @@
       </c>
       <c r="F241" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G241" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H241" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I241" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="242" spans="3:9" x14ac:dyDescent="0.25">
@@ -8171,19 +8182,19 @@
       </c>
       <c r="F242" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G242" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H242" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I242" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="243" spans="3:9" x14ac:dyDescent="0.25">
@@ -8195,19 +8206,19 @@
       </c>
       <c r="F243" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G243" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H243" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I243" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="244" spans="3:9" x14ac:dyDescent="0.25">
@@ -8219,19 +8230,19 @@
       </c>
       <c r="F244" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G244" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H244" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I244" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="245" spans="3:9" x14ac:dyDescent="0.25">
@@ -8243,19 +8254,19 @@
       </c>
       <c r="F245" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G245" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H245" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I245" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="246" spans="3:9" x14ac:dyDescent="0.25">
@@ -8267,19 +8278,19 @@
       </c>
       <c r="F246" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G246" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H246" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I246" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="247" spans="3:9" x14ac:dyDescent="0.25">
@@ -8291,19 +8302,19 @@
       </c>
       <c r="F247" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G247" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H247" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I247" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="248" spans="3:9" x14ac:dyDescent="0.25">
@@ -8315,19 +8326,19 @@
       </c>
       <c r="F248" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G248" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H248" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I248" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="249" spans="3:9" x14ac:dyDescent="0.25">
@@ -8339,19 +8350,19 @@
       </c>
       <c r="F249" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G249" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H249" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I249" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="250" spans="3:9" x14ac:dyDescent="0.25">
@@ -8363,19 +8374,19 @@
       </c>
       <c r="F250" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G250" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H250" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I250" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="251" spans="3:9" x14ac:dyDescent="0.25">
@@ -8387,19 +8398,19 @@
       </c>
       <c r="F251" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G251" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H251" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I251" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="252" spans="3:9" x14ac:dyDescent="0.25">
@@ -8411,19 +8422,19 @@
       </c>
       <c r="F252" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G252" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H252" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I252" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="253" spans="3:9" x14ac:dyDescent="0.25">
@@ -8435,19 +8446,19 @@
       </c>
       <c r="F253" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G253" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H253" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I253" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="254" spans="3:9" x14ac:dyDescent="0.25">
@@ -8459,19 +8470,19 @@
       </c>
       <c r="F254" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G254" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H254" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I254" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="255" spans="3:9" x14ac:dyDescent="0.25">
@@ -8483,19 +8494,19 @@
       </c>
       <c r="F255" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G255" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H255" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I255" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="256" spans="3:9" x14ac:dyDescent="0.25">
@@ -8507,19 +8518,19 @@
       </c>
       <c r="F256" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G256" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H256" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I256" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="257" spans="3:9" x14ac:dyDescent="0.25">
@@ -8531,19 +8542,19 @@
       </c>
       <c r="F257" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G257" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H257" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I257" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="258" spans="3:9" x14ac:dyDescent="0.25">
@@ -8555,19 +8566,19 @@
       </c>
       <c r="F258" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G258" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H258" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I258" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="259" spans="3:9" x14ac:dyDescent="0.25">
@@ -8579,19 +8590,19 @@
       </c>
       <c r="F259" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G259" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H259" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I259" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="260" spans="3:9" x14ac:dyDescent="0.25">
@@ -8603,19 +8614,19 @@
       </c>
       <c r="F260" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G260" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H260" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I260" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="261" spans="3:9" x14ac:dyDescent="0.25">
@@ -8627,19 +8638,19 @@
       </c>
       <c r="F261" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G261" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H261" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I261" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="262" spans="3:9" x14ac:dyDescent="0.25">
@@ -8651,19 +8662,19 @@
       </c>
       <c r="F262" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G262" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H262" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I262" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="263" spans="3:9" x14ac:dyDescent="0.25">
@@ -8675,19 +8686,19 @@
       </c>
       <c r="F263" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G263" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H263" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I263" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="264" spans="3:9" x14ac:dyDescent="0.25">
@@ -8699,19 +8710,19 @@
       </c>
       <c r="F264" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G264" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H264" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I264" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="265" spans="3:9" x14ac:dyDescent="0.25">
@@ -8723,19 +8734,19 @@
       </c>
       <c r="F265" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G265" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H265" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I265" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="266" spans="3:9" x14ac:dyDescent="0.25">
@@ -8747,19 +8758,19 @@
       </c>
       <c r="F266" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G266" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H266" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I266" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="267" spans="3:9" x14ac:dyDescent="0.25">
@@ -8771,19 +8782,19 @@
       </c>
       <c r="F267" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G267" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H267" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I267" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="268" spans="3:9" x14ac:dyDescent="0.25">
@@ -8795,19 +8806,19 @@
       </c>
       <c r="F268" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G268" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H268" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I268" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="269" spans="3:9" x14ac:dyDescent="0.25">
@@ -8819,19 +8830,19 @@
       </c>
       <c r="F269" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G269" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H269" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I269" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="270" spans="3:9" x14ac:dyDescent="0.25">
@@ -8843,19 +8854,19 @@
       </c>
       <c r="F270" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G270" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H270" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I270" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="271" spans="3:9" x14ac:dyDescent="0.25">
@@ -8867,19 +8878,19 @@
       </c>
       <c r="F271" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G271" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H271" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I271" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="272" spans="3:9" x14ac:dyDescent="0.25">
@@ -8891,19 +8902,19 @@
       </c>
       <c r="F272" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G272" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H272" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I272" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="273" spans="3:9" x14ac:dyDescent="0.25">
@@ -8915,19 +8926,19 @@
       </c>
       <c r="F273" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G273" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H273" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I273" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="274" spans="3:9" x14ac:dyDescent="0.25">
@@ -8939,19 +8950,19 @@
       </c>
       <c r="F274" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G274" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H274" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I274" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="275" spans="3:9" x14ac:dyDescent="0.25">
@@ -8963,19 +8974,19 @@
       </c>
       <c r="F275" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G275" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H275" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I275" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="276" spans="3:9" x14ac:dyDescent="0.25">
@@ -8987,19 +8998,19 @@
       </c>
       <c r="F276" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G276" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H276" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I276" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="277" spans="3:9" x14ac:dyDescent="0.25">
@@ -9011,19 +9022,19 @@
       </c>
       <c r="F277" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G277" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H277" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I277" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="278" spans="3:9" x14ac:dyDescent="0.25">
@@ -9035,19 +9046,19 @@
       </c>
       <c r="F278" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G278" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H278" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I278" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="279" spans="3:9" x14ac:dyDescent="0.25">
@@ -9059,19 +9070,19 @@
       </c>
       <c r="F279" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G279" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H279" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I279" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="280" spans="3:9" x14ac:dyDescent="0.25">
@@ -9083,19 +9094,19 @@
       </c>
       <c r="F280" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G280" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H280" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I280" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="281" spans="3:9" x14ac:dyDescent="0.25">
@@ -9107,19 +9118,19 @@
       </c>
       <c r="F281" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G281" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H281" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I281" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="282" spans="3:9" x14ac:dyDescent="0.25">
@@ -9131,19 +9142,19 @@
       </c>
       <c r="F282" s="21">
         <f t="shared" ref="F282:F342" si="72">F281+E282</f>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G282" s="15">
         <f t="shared" ref="G282:G342" si="73">F282</f>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H282" s="15">
         <f t="shared" ref="H282:H342" si="74">(H281+G282-G281)</f>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I282" s="23">
         <f t="shared" ref="I282:I342" si="75">H282*24*$J$32</f>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="283" spans="3:9" x14ac:dyDescent="0.25">
@@ -9155,19 +9166,19 @@
       </c>
       <c r="F283" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G283" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H283" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I283" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="284" spans="3:9" x14ac:dyDescent="0.25">
@@ -9179,19 +9190,19 @@
       </c>
       <c r="F284" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G284" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H284" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I284" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="285" spans="3:9" x14ac:dyDescent="0.25">
@@ -9203,19 +9214,19 @@
       </c>
       <c r="F285" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G285" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H285" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I285" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="286" spans="3:9" x14ac:dyDescent="0.25">
@@ -9227,19 +9238,19 @@
       </c>
       <c r="F286" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G286" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H286" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I286" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="287" spans="3:9" x14ac:dyDescent="0.25">
@@ -9251,19 +9262,19 @@
       </c>
       <c r="F287" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G287" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H287" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I287" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="288" spans="3:9" x14ac:dyDescent="0.25">
@@ -9275,19 +9286,19 @@
       </c>
       <c r="F288" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G288" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H288" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I288" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="289" spans="3:9" x14ac:dyDescent="0.25">
@@ -9299,19 +9310,19 @@
       </c>
       <c r="F289" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G289" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H289" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I289" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="290" spans="3:9" x14ac:dyDescent="0.25">
@@ -9323,19 +9334,19 @@
       </c>
       <c r="F290" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G290" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H290" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I290" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="291" spans="3:9" x14ac:dyDescent="0.25">
@@ -9347,19 +9358,19 @@
       </c>
       <c r="F291" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G291" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H291" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I291" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="292" spans="3:9" x14ac:dyDescent="0.25">
@@ -9371,19 +9382,19 @@
       </c>
       <c r="F292" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G292" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H292" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I292" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="293" spans="3:9" x14ac:dyDescent="0.25">
@@ -9395,19 +9406,19 @@
       </c>
       <c r="F293" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G293" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H293" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I293" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="294" spans="3:9" x14ac:dyDescent="0.25">
@@ -9419,19 +9430,19 @@
       </c>
       <c r="F294" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G294" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H294" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I294" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="295" spans="3:9" x14ac:dyDescent="0.25">
@@ -9443,19 +9454,19 @@
       </c>
       <c r="F295" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G295" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H295" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I295" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="296" spans="3:9" x14ac:dyDescent="0.25">
@@ -9467,19 +9478,19 @@
       </c>
       <c r="F296" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G296" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H296" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I296" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="297" spans="3:9" x14ac:dyDescent="0.25">
@@ -9491,19 +9502,19 @@
       </c>
       <c r="F297" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G297" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H297" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I297" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="298" spans="3:9" x14ac:dyDescent="0.25">
@@ -9515,19 +9526,19 @@
       </c>
       <c r="F298" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G298" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H298" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I298" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="299" spans="3:9" x14ac:dyDescent="0.25">
@@ -9539,19 +9550,19 @@
       </c>
       <c r="F299" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G299" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H299" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I299" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="300" spans="3:9" x14ac:dyDescent="0.25">
@@ -9563,19 +9574,19 @@
       </c>
       <c r="F300" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G300" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H300" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I300" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="301" spans="3:9" x14ac:dyDescent="0.25">
@@ -9587,19 +9598,19 @@
       </c>
       <c r="F301" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G301" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H301" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I301" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="302" spans="3:9" x14ac:dyDescent="0.25">
@@ -9611,19 +9622,19 @@
       </c>
       <c r="F302" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G302" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H302" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I302" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="303" spans="3:9" x14ac:dyDescent="0.25">
@@ -9635,19 +9646,19 @@
       </c>
       <c r="F303" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G303" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H303" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I303" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="304" spans="3:9" x14ac:dyDescent="0.25">
@@ -9659,19 +9670,19 @@
       </c>
       <c r="F304" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G304" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H304" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I304" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="305" spans="3:9" x14ac:dyDescent="0.25">
@@ -9683,19 +9694,19 @@
       </c>
       <c r="F305" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G305" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H305" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I305" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="306" spans="3:9" x14ac:dyDescent="0.25">
@@ -9707,19 +9718,19 @@
       </c>
       <c r="F306" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G306" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H306" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I306" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="307" spans="3:9" x14ac:dyDescent="0.25">
@@ -9731,19 +9742,19 @@
       </c>
       <c r="F307" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G307" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H307" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I307" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="308" spans="3:9" x14ac:dyDescent="0.25">
@@ -9755,19 +9766,19 @@
       </c>
       <c r="F308" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G308" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H308" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I308" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="309" spans="3:9" x14ac:dyDescent="0.25">
@@ -9779,19 +9790,19 @@
       </c>
       <c r="F309" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G309" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H309" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I309" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="310" spans="3:9" x14ac:dyDescent="0.25">
@@ -9803,19 +9814,19 @@
       </c>
       <c r="F310" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G310" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H310" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I310" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="311" spans="3:9" x14ac:dyDescent="0.25">
@@ -9827,19 +9838,19 @@
       </c>
       <c r="F311" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G311" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H311" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I311" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="312" spans="3:9" x14ac:dyDescent="0.25">
@@ -9851,19 +9862,19 @@
       </c>
       <c r="F312" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G312" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H312" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I312" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="313" spans="3:9" x14ac:dyDescent="0.25">
@@ -9875,19 +9886,19 @@
       </c>
       <c r="F313" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G313" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H313" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I313" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="314" spans="3:9" x14ac:dyDescent="0.25">
@@ -9899,19 +9910,19 @@
       </c>
       <c r="F314" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G314" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H314" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I314" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="315" spans="3:9" x14ac:dyDescent="0.25">
@@ -9923,19 +9934,19 @@
       </c>
       <c r="F315" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G315" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H315" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I315" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="316" spans="3:9" x14ac:dyDescent="0.25">
@@ -9947,19 +9958,19 @@
       </c>
       <c r="F316" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G316" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H316" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I316" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="317" spans="3:9" x14ac:dyDescent="0.25">
@@ -9971,19 +9982,19 @@
       </c>
       <c r="F317" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G317" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H317" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I317" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="318" spans="3:9" x14ac:dyDescent="0.25">
@@ -9995,19 +10006,19 @@
       </c>
       <c r="F318" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G318" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H318" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I318" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="319" spans="3:9" x14ac:dyDescent="0.25">
@@ -10019,19 +10030,19 @@
       </c>
       <c r="F319" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G319" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H319" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I319" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="320" spans="3:9" x14ac:dyDescent="0.25">
@@ -10043,19 +10054,19 @@
       </c>
       <c r="F320" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G320" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H320" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I320" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="321" spans="3:9" x14ac:dyDescent="0.25">
@@ -10067,19 +10078,19 @@
       </c>
       <c r="F321" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G321" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H321" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I321" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="322" spans="3:9" x14ac:dyDescent="0.25">
@@ -10091,19 +10102,19 @@
       </c>
       <c r="F322" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G322" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H322" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I322" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="323" spans="3:9" x14ac:dyDescent="0.25">
@@ -10115,19 +10126,19 @@
       </c>
       <c r="F323" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G323" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H323" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I323" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="324" spans="3:9" x14ac:dyDescent="0.25">
@@ -10139,19 +10150,19 @@
       </c>
       <c r="F324" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G324" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H324" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I324" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="325" spans="3:9" x14ac:dyDescent="0.25">
@@ -10163,19 +10174,19 @@
       </c>
       <c r="F325" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G325" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H325" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I325" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="326" spans="3:9" x14ac:dyDescent="0.25">
@@ -10187,19 +10198,19 @@
       </c>
       <c r="F326" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G326" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H326" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I326" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="327" spans="3:9" x14ac:dyDescent="0.25">
@@ -10211,19 +10222,19 @@
       </c>
       <c r="F327" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G327" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H327" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I327" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="328" spans="3:9" x14ac:dyDescent="0.25">
@@ -10235,19 +10246,19 @@
       </c>
       <c r="F328" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G328" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H328" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I328" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="329" spans="3:9" x14ac:dyDescent="0.25">
@@ -10259,19 +10270,19 @@
       </c>
       <c r="F329" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G329" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H329" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I329" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="330" spans="3:9" x14ac:dyDescent="0.25">
@@ -10283,19 +10294,19 @@
       </c>
       <c r="F330" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G330" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H330" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I330" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="331" spans="3:9" x14ac:dyDescent="0.25">
@@ -10307,19 +10318,19 @@
       </c>
       <c r="F331" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G331" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H331" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I331" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="332" spans="3:9" x14ac:dyDescent="0.25">
@@ -10331,19 +10342,19 @@
       </c>
       <c r="F332" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G332" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H332" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I332" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="333" spans="3:9" x14ac:dyDescent="0.25">
@@ -10355,19 +10366,19 @@
       </c>
       <c r="F333" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G333" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H333" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I333" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="334" spans="3:9" x14ac:dyDescent="0.25">
@@ -10379,19 +10390,19 @@
       </c>
       <c r="F334" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G334" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H334" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I334" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="335" spans="3:9" x14ac:dyDescent="0.25">
@@ -10403,19 +10414,19 @@
       </c>
       <c r="F335" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G335" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H335" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I335" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="336" spans="3:9" x14ac:dyDescent="0.25">
@@ -10427,19 +10438,19 @@
       </c>
       <c r="F336" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G336" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H336" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I336" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="337" spans="3:9" x14ac:dyDescent="0.25">
@@ -10451,19 +10462,19 @@
       </c>
       <c r="F337" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G337" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H337" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I337" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="338" spans="3:9" x14ac:dyDescent="0.25">
@@ -10475,19 +10486,19 @@
       </c>
       <c r="F338" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G338" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H338" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I338" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="339" spans="3:9" x14ac:dyDescent="0.25">
@@ -10499,19 +10510,19 @@
       </c>
       <c r="F339" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G339" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H339" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I339" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="340" spans="3:9" x14ac:dyDescent="0.25">
@@ -10523,19 +10534,19 @@
       </c>
       <c r="F340" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G340" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H340" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I340" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="341" spans="3:9" x14ac:dyDescent="0.25">
@@ -10547,19 +10558,19 @@
       </c>
       <c r="F341" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G341" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H341" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I341" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
     <row r="342" spans="3:9" x14ac:dyDescent="0.25">
@@ -10571,23 +10582,63 @@
       </c>
       <c r="F342" s="21">
         <f t="shared" si="72"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="G342" s="15">
         <f t="shared" si="73"/>
-        <v>1.9840277777777775</v>
+        <v>2.0263888888888886</v>
       </c>
       <c r="H342" s="15">
         <f t="shared" si="74"/>
-        <v>4.0465277777777775</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="I342" s="23">
         <f t="shared" si="75"/>
-        <v>16509.833333333332</v>
+        <v>16682.666666666664</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="B204:B209"/>
+    <mergeCell ref="B213:B219"/>
+    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B188:B192"/>
+    <mergeCell ref="B164:B170"/>
+    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="B156:B162"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
     <mergeCell ref="B220:B227"/>
     <mergeCell ref="B146:B149"/>
     <mergeCell ref="B75:B78"/>
@@ -10604,46 +10655,6 @@
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="B109:B113"/>
     <mergeCell ref="B90:B94"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B164:B170"/>
-    <mergeCell ref="B151:B155"/>
-    <mergeCell ref="B156:B162"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="K13:K17"/>
-    <mergeCell ref="K18:K22"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B47:B53"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="B178:B183"/>
-    <mergeCell ref="B184:B187"/>
-    <mergeCell ref="B188:B192"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="B204:B209"/>
-    <mergeCell ref="B213:B219"/>
-    <mergeCell ref="B201:B203"/>
-    <mergeCell ref="B195:B200"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC71E56B-AAB8-41E8-8573-2EB72A8285D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680B915D-C6F5-4799-9120-6D01443E8D31}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="1305" windowWidth="14670" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>Vektorizace, první sada</t>
   </si>
@@ -291,6 +291,12 @@
   <si>
     <t>17.2.</t>
   </si>
+  <si>
+    <t>18.2.</t>
+  </si>
+  <si>
+    <t>5.2-9.2</t>
+  </si>
 </sst>
 </file>
 
@@ -303,7 +309,7 @@
     <numFmt numFmtId="167" formatCode="[mm]"/>
     <numFmt numFmtId="168" formatCode="[h]:mm"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,8 +334,17 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,6 +360,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -769,6 +790,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -784,9 +808,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -1127,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="D231" sqref="D231"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="D233" sqref="D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,10 +1185,10 @@
       <c r="B1" s="51"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="61" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -1174,8 +1209,8 @@
       <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
@@ -1355,7 +1390,7 @@
         <v>16716.666666666664</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="63"/>
+      <c r="K13" s="58"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
@@ -1371,7 +1406,7 @@
       <c r="X13" s="6"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="59" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="4">
@@ -1401,7 +1436,7 @@
         <v>16915</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="63"/>
+      <c r="K14" s="58"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
@@ -1417,7 +1452,7 @@
       <c r="X14" s="6"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="58"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -1445,7 +1480,7 @@
         <v>17184.166666666664</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="63"/>
+      <c r="K15" s="58"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
@@ -1461,7 +1496,7 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="58"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -1489,7 +1524,7 @@
         <v>17269.166666666664</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="63"/>
+      <c r="K16" s="58"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
@@ -1505,7 +1540,7 @@
       <c r="X16" s="6"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="58"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="4">
         <v>0.80208333333333337</v>
       </c>
@@ -1533,7 +1568,7 @@
         <v>17524.166666666664</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="63"/>
+      <c r="K17" s="58"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
@@ -1549,7 +1584,7 @@
       <c r="X17" s="6"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="58"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="4">
         <v>0.875</v>
       </c>
@@ -1577,7 +1612,7 @@
         <v>17651.666666666664</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="63"/>
+      <c r="K18" s="58"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
@@ -1593,7 +1628,7 @@
       <c r="X18" s="6"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="59" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="4">
@@ -1623,7 +1658,7 @@
         <v>17878.333333333332</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="63"/>
+      <c r="K19" s="58"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
@@ -1639,7 +1674,7 @@
       <c r="X19" s="6"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="58"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1667,7 +1702,7 @@
         <v>18246.666666666664</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="63"/>
+      <c r="K20" s="58"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
@@ -1683,7 +1718,7 @@
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="58"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1711,7 +1746,7 @@
         <v>18388.333333333332</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="63"/>
+      <c r="K21" s="58"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
@@ -1727,7 +1762,7 @@
       <c r="X21" s="6"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="58"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="4">
         <v>0.75</v>
       </c>
@@ -1755,7 +1790,7 @@
         <v>18515.833333333332</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="63"/>
+      <c r="K22" s="58"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="9"/>
@@ -1771,7 +1806,7 @@
       <c r="X22" s="6"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="58"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -1815,7 +1850,7 @@
       <c r="X23" s="6"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="63" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="4">
@@ -1861,7 +1896,7 @@
       <c r="X24" s="6"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="62"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -1905,7 +1940,7 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="62"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1949,7 +1984,7 @@
       <c r="X26" s="6"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="62"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="4">
         <v>0.83333333333333337</v>
       </c>
@@ -1993,7 +2028,7 @@
       <c r="X27" s="6"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="59" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="4">
@@ -2039,7 +2074,7 @@
       <c r="X28" s="6"/>
     </row>
     <row r="29" spans="2:24" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="61"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="27">
         <v>0.61111111111111105</v>
       </c>
@@ -2084,10 +2119,10 @@
       <c r="B31" s="51"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="61" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="17" t="s">
@@ -2108,8 +2143,8 @@
       <c r="D32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="61"/>
       <c r="G32" s="12" t="s">
         <v>14</v>
       </c>
@@ -2124,7 +2159,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="59" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="24">
@@ -2155,7 +2190,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="58"/>
+      <c r="B34" s="59"/>
       <c r="C34" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -2184,7 +2219,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="58"/>
+      <c r="B35" s="59"/>
       <c r="C35" s="4">
         <v>0.67013888888888884</v>
       </c>
@@ -2244,7 +2279,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="59" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="4">
@@ -2275,7 +2310,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="58"/>
+      <c r="B38" s="59"/>
       <c r="C38" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -2304,7 +2339,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="58"/>
+      <c r="B39" s="59"/>
       <c r="C39" s="4">
         <v>0.77777777777777779</v>
       </c>
@@ -2333,7 +2368,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="58"/>
+      <c r="B40" s="59"/>
       <c r="C40" s="4">
         <v>0.93055555555555547</v>
       </c>
@@ -2362,7 +2397,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="59" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="4">
@@ -2393,7 +2428,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="58"/>
+      <c r="B42" s="59"/>
       <c r="C42" s="4">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -2422,7 +2457,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="58"/>
+      <c r="B43" s="59"/>
       <c r="C43" s="4">
         <v>0.60069444444444442</v>
       </c>
@@ -2451,7 +2486,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="58"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2480,7 +2515,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="58"/>
+      <c r="B45" s="59"/>
       <c r="C45" s="4">
         <v>0.78472222222222221</v>
       </c>
@@ -2509,7 +2544,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="58"/>
+      <c r="B46" s="59"/>
       <c r="C46" s="4">
         <v>0.92708333333333337</v>
       </c>
@@ -2538,7 +2573,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="59" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="4">
@@ -2569,7 +2604,7 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="58"/>
+      <c r="B48" s="59"/>
       <c r="C48" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -2598,7 +2633,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="58"/>
+      <c r="B49" s="59"/>
       <c r="C49" s="4">
         <v>0.74305555555555547</v>
       </c>
@@ -2627,7 +2662,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="58"/>
+      <c r="B50" s="59"/>
       <c r="C50" s="4">
         <v>0.78819444444444453</v>
       </c>
@@ -2656,7 +2691,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="58"/>
+      <c r="B51" s="59"/>
       <c r="C51" s="4">
         <v>0.81597222222222221</v>
       </c>
@@ -2685,7 +2720,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="58"/>
+      <c r="B52" s="59"/>
       <c r="C52" s="4">
         <v>0.89583333333333337</v>
       </c>
@@ -2717,7 +2752,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="58"/>
+      <c r="B53" s="59"/>
       <c r="C53" s="4">
         <v>0.99652777777777779</v>
       </c>
@@ -2749,7 +2784,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="59" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="4">
@@ -2783,7 +2818,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="58"/>
+      <c r="B55" s="59"/>
       <c r="C55" s="4">
         <v>0.19444444444444445</v>
       </c>
@@ -2812,7 +2847,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="58"/>
+      <c r="B56" s="59"/>
       <c r="C56" s="4">
         <v>0.625</v>
       </c>
@@ -2841,7 +2876,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="58"/>
+      <c r="B57" s="59"/>
       <c r="C57" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -2870,7 +2905,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="58"/>
+      <c r="B58" s="59"/>
       <c r="C58" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2899,7 +2934,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="58"/>
+      <c r="B59" s="59"/>
       <c r="C59" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -2959,7 +2994,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="59" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="4">
@@ -2990,7 +3025,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="58"/>
+      <c r="B62" s="59"/>
       <c r="C62" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -3019,7 +3054,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="58" t="s">
+      <c r="B63" s="59" t="s">
         <v>33</v>
       </c>
       <c r="C63" s="4">
@@ -3050,7 +3085,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="58"/>
+      <c r="B64" s="59"/>
       <c r="C64" s="4">
         <v>0.86111111111111116</v>
       </c>
@@ -3079,7 +3114,7 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="58"/>
+      <c r="B65" s="59"/>
       <c r="C65" s="4">
         <v>0.88888888888888884</v>
       </c>
@@ -3108,7 +3143,7 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="58" t="s">
+      <c r="B66" s="59" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="4">
@@ -3139,7 +3174,7 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="58"/>
+      <c r="B67" s="59"/>
       <c r="C67" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -3168,7 +3203,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="58"/>
+      <c r="B68" s="59"/>
       <c r="C68" s="4">
         <v>0.89930555555555547</v>
       </c>
@@ -3197,7 +3232,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="58"/>
+      <c r="B69" s="59"/>
       <c r="C69" s="4">
         <v>0.92361111111111116</v>
       </c>
@@ -3226,7 +3261,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="59" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="4">
@@ -3257,7 +3292,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="58"/>
+      <c r="B71" s="59"/>
       <c r="C71" s="4">
         <v>0.72222222222222221</v>
       </c>
@@ -3317,7 +3352,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="58" t="s">
+      <c r="B73" s="59" t="s">
         <v>37</v>
       </c>
       <c r="C73" s="4">
@@ -3348,7 +3383,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="58"/>
+      <c r="B74" s="59"/>
       <c r="C74" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -3377,7 +3412,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="59" t="s">
         <v>38</v>
       </c>
       <c r="C75" s="4">
@@ -3408,7 +3443,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="58"/>
+      <c r="B76" s="59"/>
       <c r="C76" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -3437,7 +3472,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="58"/>
+      <c r="B77" s="59"/>
       <c r="C77" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -3466,7 +3501,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="58"/>
+      <c r="B78" s="59"/>
       <c r="C78" s="4">
         <v>0.96875</v>
       </c>
@@ -3495,7 +3530,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="58" t="s">
+      <c r="B79" s="59" t="s">
         <v>39</v>
       </c>
       <c r="C79" s="4">
@@ -3529,7 +3564,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="58"/>
+      <c r="B80" s="59"/>
       <c r="C80" s="4">
         <v>0.65625</v>
       </c>
@@ -3558,7 +3593,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="58" t="s">
+      <c r="B81" s="59" t="s">
         <v>41</v>
       </c>
       <c r="C81" s="4">
@@ -3589,7 +3624,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="58"/>
+      <c r="B82" s="59"/>
       <c r="C82" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -3618,7 +3653,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="58"/>
+      <c r="B83" s="59"/>
       <c r="C83" s="4">
         <v>0.69791666666666663</v>
       </c>
@@ -3647,7 +3682,7 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="58" t="s">
+      <c r="B84" s="59" t="s">
         <v>42</v>
       </c>
       <c r="C84" s="4">
@@ -3678,7 +3713,7 @@
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="58"/>
+      <c r="B85" s="59"/>
       <c r="C85" s="4">
         <v>0.61805555555555558</v>
       </c>
@@ -3707,7 +3742,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="58"/>
+      <c r="B86" s="59"/>
       <c r="C86" s="4">
         <v>0.86805555555555547</v>
       </c>
@@ -3736,7 +3771,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="58" t="s">
+      <c r="B87" s="59" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="4">
@@ -3767,7 +3802,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="58"/>
+      <c r="B88" s="59"/>
       <c r="C88" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -3827,7 +3862,7 @@
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="58" t="s">
+      <c r="B90" s="59" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="4">
@@ -3858,7 +3893,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="58"/>
+      <c r="B91" s="59"/>
       <c r="C91" s="4">
         <v>0.3576388888888889</v>
       </c>
@@ -3887,7 +3922,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="58"/>
+      <c r="B92" s="59"/>
       <c r="C92" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -3916,7 +3951,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="58"/>
+      <c r="B93" s="59"/>
       <c r="C93" s="4">
         <v>0.4548611111111111</v>
       </c>
@@ -3945,7 +3980,7 @@
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="58"/>
+      <c r="B94" s="59"/>
       <c r="C94" s="4">
         <v>0.48958333333333331</v>
       </c>
@@ -3974,7 +4009,7 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="58" t="s">
+      <c r="B95" s="59" t="s">
         <v>46</v>
       </c>
       <c r="C95" s="4">
@@ -4005,7 +4040,7 @@
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="58"/>
+      <c r="B96" s="59"/>
       <c r="C96" s="4">
         <v>0.5</v>
       </c>
@@ -4034,7 +4069,7 @@
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="58"/>
+      <c r="B97" s="59"/>
       <c r="C97" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -4063,7 +4098,7 @@
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="58" t="s">
+      <c r="B98" s="59" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="4">
@@ -4094,7 +4129,7 @@
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="58"/>
+      <c r="B99" s="59"/>
       <c r="C99" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4123,7 +4158,7 @@
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="58"/>
+      <c r="B100" s="59"/>
       <c r="C100" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -4152,7 +4187,7 @@
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="58" t="s">
+      <c r="B101" s="59" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="4">
@@ -4183,7 +4218,7 @@
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="58"/>
+      <c r="B102" s="59"/>
       <c r="C102" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4212,7 +4247,7 @@
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="58" t="s">
+      <c r="B103" s="59" t="s">
         <v>50</v>
       </c>
       <c r="C103" s="4">
@@ -4246,7 +4281,7 @@
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="58"/>
+      <c r="B104" s="59"/>
       <c r="C104" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -4275,7 +4310,7 @@
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="58"/>
+      <c r="B105" s="59"/>
       <c r="C105" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -4307,7 +4342,7 @@
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="58"/>
+      <c r="B106" s="59"/>
       <c r="C106" s="4">
         <v>0.70486111111111116</v>
       </c>
@@ -4336,7 +4371,7 @@
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="58" t="s">
+      <c r="B107" s="59" t="s">
         <v>51</v>
       </c>
       <c r="C107" s="4">
@@ -4367,7 +4402,7 @@
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="58"/>
+      <c r="B108" s="59"/>
       <c r="C108" s="4">
         <v>0.98958333333333337</v>
       </c>
@@ -4396,7 +4431,7 @@
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="58" t="s">
+      <c r="B109" s="59" t="s">
         <v>52</v>
       </c>
       <c r="C109" s="4">
@@ -4427,7 +4462,7 @@
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="58"/>
+      <c r="B110" s="59"/>
       <c r="C110" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -4456,7 +4491,7 @@
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="58"/>
+      <c r="B111" s="59"/>
       <c r="C111" s="4">
         <v>0.66319444444444442</v>
       </c>
@@ -4485,7 +4520,7 @@
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="58"/>
+      <c r="B112" s="59"/>
       <c r="C112" s="4">
         <v>0.73958333333333337</v>
       </c>
@@ -4514,7 +4549,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="58"/>
+      <c r="B113" s="59"/>
       <c r="C113" s="4">
         <v>0.80555555555555547</v>
       </c>
@@ -4543,7 +4578,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="58" t="s">
+      <c r="B114" s="59" t="s">
         <v>53</v>
       </c>
       <c r="C114" s="4">
@@ -4574,7 +4609,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="58"/>
+      <c r="B115" s="59"/>
       <c r="C115" s="4">
         <v>0.69097222222222221</v>
       </c>
@@ -4637,7 +4672,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="58" t="s">
+      <c r="B117" s="59" t="s">
         <v>55</v>
       </c>
       <c r="C117" s="4">
@@ -4668,7 +4703,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="58"/>
+      <c r="B118" s="59"/>
       <c r="C118" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4697,7 +4732,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="58"/>
+      <c r="B119" s="59"/>
       <c r="C119" s="4">
         <v>0.59375</v>
       </c>
@@ -4726,7 +4761,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="58"/>
+      <c r="B120" s="59"/>
       <c r="C120" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4755,7 +4790,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="61"/>
+      <c r="B121" s="62"/>
       <c r="C121" s="38">
         <v>0.77777777777777779</v>
       </c>
@@ -4804,10 +4839,10 @@
       <c r="B123" s="51"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
-      <c r="E123" s="59" t="s">
+      <c r="E123" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F123" s="60" t="s">
+      <c r="F123" s="61" t="s">
         <v>18</v>
       </c>
       <c r="G123" s="17" t="s">
@@ -4830,8 +4865,8 @@
       <c r="D124" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="59"/>
-      <c r="F124" s="60"/>
+      <c r="E124" s="60"/>
+      <c r="F124" s="61"/>
       <c r="G124" s="12" t="s">
         <v>14</v>
       </c>
@@ -6802,30 +6837,42 @@
         <v>11262.500000000005</v>
       </c>
     </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C193" s="4"/>
-      <c r="D193" s="18"/>
-      <c r="E193" s="20">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B193" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C193" s="65">
+        <v>0</v>
+      </c>
+      <c r="D193" s="66">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E193" s="67">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="F193" s="21">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F193" s="68">
         <f t="shared" si="57"/>
-        <v>0.69791666666666674</v>
-      </c>
-      <c r="G193" s="15">
+        <v>1.6145833333333335</v>
+      </c>
+      <c r="G193" s="69">
         <f t="shared" si="58"/>
-        <v>0.69791666666666674</v>
-      </c>
-      <c r="H193" s="15">
+        <v>1.6145833333333335</v>
+      </c>
+      <c r="H193" s="69">
         <f t="shared" si="59"/>
-        <v>2.7604166666666679</v>
-      </c>
-      <c r="J193" s="1" t="s">
+        <v>3.6770833333333348</v>
+      </c>
+      <c r="I193" s="70"/>
+      <c r="J193" s="71" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K193" s="71"/>
+      <c r="L193" s="71"/>
+      <c r="M193" s="71"/>
+      <c r="N193" s="71"/>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" s="54" t="s">
         <v>80</v>
       </c>
@@ -6841,22 +6888,22 @@
       </c>
       <c r="F194" s="21">
         <f t="shared" si="57"/>
-        <v>0.75694444444444453</v>
+        <v>1.6736111111111112</v>
       </c>
       <c r="G194" s="15">
         <f t="shared" si="58"/>
-        <v>0.75694444444444453</v>
+        <v>1.6736111111111112</v>
       </c>
       <c r="H194" s="15">
         <f t="shared" si="59"/>
-        <v>2.8194444444444455</v>
+        <v>3.7361111111111129</v>
       </c>
       <c r="I194" s="23">
         <f>H194*24*$J$32</f>
-        <v>11503.333333333336</v>
-      </c>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+        <v>15243.333333333341</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B195" s="57" t="s">
         <v>82</v>
       </c>
@@ -6872,22 +6919,22 @@
       </c>
       <c r="F195" s="21">
         <f t="shared" si="57"/>
-        <v>0.79305555555555562</v>
+        <v>1.7097222222222224</v>
       </c>
       <c r="G195" s="15">
         <f t="shared" si="58"/>
-        <v>0.79305555555555562</v>
+        <v>1.7097222222222224</v>
       </c>
       <c r="H195" s="15">
         <f t="shared" si="59"/>
-        <v>2.8555555555555565</v>
+        <v>3.7722222222222244</v>
       </c>
       <c r="I195" s="23">
         <f t="shared" si="60"/>
-        <v>11650.666666666672</v>
-      </c>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+        <v>15390.666666666675</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" s="57"/>
       <c r="C196" s="4">
         <v>0.41250000000000003</v>
@@ -6901,22 +6948,22 @@
       </c>
       <c r="F196" s="21">
         <f t="shared" si="57"/>
-        <v>0.85347222222222219</v>
+        <v>1.7701388888888889</v>
       </c>
       <c r="G196" s="15">
         <f t="shared" si="58"/>
-        <v>0.85347222222222219</v>
+        <v>1.7701388888888889</v>
       </c>
       <c r="H196" s="15">
         <f t="shared" si="59"/>
-        <v>2.9159722222222233</v>
+        <v>3.8326388888888907</v>
       </c>
       <c r="I196" s="23">
         <f t="shared" si="60"/>
-        <v>11897.166666666672</v>
-      </c>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+        <v>15637.166666666673</v>
+      </c>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" s="57"/>
       <c r="C197" s="4">
         <v>0.50069444444444444</v>
@@ -6930,22 +6977,22 @@
       </c>
       <c r="F197" s="21">
         <f t="shared" si="57"/>
-        <v>0.89999999999999991</v>
+        <v>1.8166666666666667</v>
       </c>
       <c r="G197" s="15">
         <f t="shared" si="58"/>
-        <v>0.89999999999999991</v>
+        <v>1.8166666666666667</v>
       </c>
       <c r="H197" s="15">
         <f t="shared" si="59"/>
-        <v>2.9625000000000012</v>
+        <v>3.8791666666666682</v>
       </c>
       <c r="I197" s="23">
         <f t="shared" si="60"/>
-        <v>12087.000000000004</v>
-      </c>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
+        <v>15827.000000000005</v>
+      </c>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" s="57"/>
       <c r="C198" s="4">
         <v>0.57777777777777783</v>
@@ -6959,22 +7006,22 @@
       </c>
       <c r="F198" s="21">
         <f t="shared" si="57"/>
-        <v>0.92638888888888871</v>
+        <v>1.8430555555555554</v>
       </c>
       <c r="G198" s="15">
         <f t="shared" si="58"/>
-        <v>0.92638888888888871</v>
+        <v>1.8430555555555554</v>
       </c>
       <c r="H198" s="15">
         <f t="shared" si="59"/>
-        <v>2.9888888888888903</v>
+        <v>3.9055555555555568</v>
       </c>
       <c r="I198" s="23">
         <f t="shared" si="60"/>
-        <v>12194.666666666672</v>
-      </c>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+        <v>15934.666666666672</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199" s="57"/>
       <c r="C199" s="4">
         <v>0.66041666666666665</v>
@@ -6988,22 +7035,22 @@
       </c>
       <c r="F199" s="21">
         <f t="shared" si="57"/>
-        <v>1.0159722222222221</v>
+        <v>1.9326388888888888</v>
       </c>
       <c r="G199" s="15">
         <f t="shared" si="58"/>
-        <v>1.0159722222222221</v>
+        <v>1.9326388888888888</v>
       </c>
       <c r="H199" s="15">
         <f t="shared" si="59"/>
-        <v>3.0784722222222234</v>
+        <v>3.9951388888888899</v>
       </c>
       <c r="I199" s="23">
         <f t="shared" si="60"/>
-        <v>12560.16666666667</v>
-      </c>
-    </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+        <v>16300.16666666667</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200" s="57"/>
       <c r="C200" s="4">
         <v>0.75694444444444453</v>
@@ -7017,22 +7064,22 @@
       </c>
       <c r="F200" s="21">
         <f t="shared" ref="F200:F217" si="62">F199+E200</f>
-        <v>1.0784722222222221</v>
+        <v>1.9951388888888888</v>
       </c>
       <c r="G200" s="15">
         <f t="shared" ref="G200:G217" si="63">F200</f>
-        <v>1.0784722222222221</v>
+        <v>1.9951388888888888</v>
       </c>
       <c r="H200" s="15">
         <f t="shared" ref="H200:H217" si="64">(H199+G200-G199)</f>
-        <v>3.1409722222222229</v>
+        <v>4.0576388888888903</v>
       </c>
       <c r="I200" s="23">
         <f t="shared" ref="I200:I217" si="65">H200*24*$J$32</f>
-        <v>12815.16666666667</v>
-      </c>
-    </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
+        <v>16555.166666666672</v>
+      </c>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201" s="57" t="s">
         <v>83</v>
       </c>
@@ -7048,22 +7095,22 @@
       </c>
       <c r="F201" s="21">
         <f t="shared" si="62"/>
-        <v>1.1062499999999997</v>
+        <v>2.0229166666666663</v>
       </c>
       <c r="G201" s="15">
         <f t="shared" si="63"/>
-        <v>1.1062499999999997</v>
+        <v>2.0229166666666663</v>
       </c>
       <c r="H201" s="15">
         <f t="shared" si="64"/>
-        <v>3.1687500000000006</v>
+        <v>4.085416666666668</v>
       </c>
       <c r="I201" s="23">
         <f t="shared" si="65"/>
-        <v>12928.500000000002</v>
-      </c>
-    </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
+        <v>16668.500000000007</v>
+      </c>
+    </row>
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202" s="57"/>
       <c r="C202" s="4">
         <v>0.70138888888888884</v>
@@ -7077,22 +7124,22 @@
       </c>
       <c r="F202" s="21">
         <f t="shared" si="62"/>
-        <v>1.1173611111111108</v>
+        <v>2.0340277777777773</v>
       </c>
       <c r="G202" s="15">
         <f t="shared" si="63"/>
-        <v>1.1173611111111108</v>
+        <v>2.0340277777777773</v>
       </c>
       <c r="H202" s="15">
         <f t="shared" si="64"/>
-        <v>3.1798611111111117</v>
+        <v>4.0965277777777791</v>
       </c>
       <c r="I202" s="23">
         <f t="shared" si="65"/>
-        <v>12973.833333333336</v>
-      </c>
-    </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+        <v>16713.833333333336</v>
+      </c>
+    </row>
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B203" s="57"/>
       <c r="C203" s="4">
         <v>0.71944444444444444</v>
@@ -7106,22 +7153,22 @@
       </c>
       <c r="F203" s="21">
         <f t="shared" si="62"/>
-        <v>1.1409722222222218</v>
+        <v>2.0576388888888886</v>
       </c>
       <c r="G203" s="15">
         <f t="shared" si="63"/>
-        <v>1.1409722222222218</v>
+        <v>2.0576388888888886</v>
       </c>
       <c r="H203" s="15">
         <f t="shared" si="64"/>
-        <v>3.2034722222222229</v>
+        <v>4.1201388888888903</v>
       </c>
       <c r="I203" s="23">
         <f t="shared" si="65"/>
-        <v>13070.16666666667</v>
-      </c>
-    </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+        <v>16810.166666666672</v>
+      </c>
+    </row>
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204" s="57" t="s">
         <v>84</v>
       </c>
@@ -7137,22 +7184,22 @@
       </c>
       <c r="F204" s="21">
         <f t="shared" si="62"/>
-        <v>1.1604166666666664</v>
+        <v>2.0770833333333329</v>
       </c>
       <c r="G204" s="15">
         <f t="shared" si="63"/>
-        <v>1.1604166666666664</v>
+        <v>2.0770833333333329</v>
       </c>
       <c r="H204" s="15">
         <f t="shared" si="64"/>
-        <v>3.2229166666666673</v>
+        <v>4.1395833333333343</v>
       </c>
       <c r="I204" s="23">
         <f t="shared" si="65"/>
-        <v>13149.500000000004</v>
-      </c>
-    </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+        <v>16889.500000000004</v>
+      </c>
+    </row>
+    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B205" s="57"/>
       <c r="C205" s="4">
         <v>0.56944444444444442</v>
@@ -7166,22 +7213,22 @@
       </c>
       <c r="F205" s="21">
         <f t="shared" si="62"/>
-        <v>1.228472222222222</v>
+        <v>2.1451388888888885</v>
       </c>
       <c r="G205" s="15">
         <f t="shared" si="63"/>
-        <v>1.228472222222222</v>
+        <v>2.1451388888888885</v>
       </c>
       <c r="H205" s="15">
         <f t="shared" si="64"/>
-        <v>3.2909722222222229</v>
+        <v>4.2076388888888907</v>
       </c>
       <c r="I205" s="23">
         <f t="shared" si="65"/>
-        <v>13427.16666666667</v>
-      </c>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+        <v>17167.166666666675</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B206" s="57"/>
       <c r="C206" s="4">
         <v>0.64861111111111114</v>
@@ -7195,22 +7242,22 @@
       </c>
       <c r="F206" s="21">
         <f t="shared" si="62"/>
-        <v>1.2333333333333329</v>
+        <v>2.1499999999999995</v>
       </c>
       <c r="G206" s="15">
         <f t="shared" si="63"/>
-        <v>1.2333333333333329</v>
+        <v>2.1499999999999995</v>
       </c>
       <c r="H206" s="15">
         <f t="shared" si="64"/>
-        <v>3.2958333333333334</v>
+        <v>4.2125000000000021</v>
       </c>
       <c r="I206" s="23">
         <f t="shared" si="65"/>
-        <v>13446.999999999998</v>
-      </c>
-    </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+        <v>17187.000000000007</v>
+      </c>
+    </row>
+    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B207" s="57"/>
       <c r="C207" s="4">
         <v>0.65694444444444444</v>
@@ -7224,22 +7271,22 @@
       </c>
       <c r="F207" s="21">
         <f t="shared" si="62"/>
-        <v>1.2437499999999995</v>
+        <v>2.160416666666666</v>
       </c>
       <c r="G207" s="15">
         <f t="shared" si="63"/>
-        <v>1.2437499999999995</v>
+        <v>2.160416666666666</v>
       </c>
       <c r="H207" s="15">
         <f t="shared" si="64"/>
-        <v>3.3062499999999999</v>
+        <v>4.2229166666666691</v>
       </c>
       <c r="I207" s="23">
         <f t="shared" si="65"/>
-        <v>13489.499999999998</v>
-      </c>
-    </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+        <v>17229.500000000007</v>
+      </c>
+    </row>
+    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B208" s="57"/>
       <c r="C208" s="4">
         <v>0.68333333333333324</v>
@@ -7253,19 +7300,19 @@
       </c>
       <c r="F208" s="21">
         <f t="shared" si="62"/>
-        <v>1.2486111111111107</v>
+        <v>2.165277777777777</v>
       </c>
       <c r="G208" s="15">
         <f t="shared" si="63"/>
-        <v>1.2486111111111107</v>
+        <v>2.165277777777777</v>
       </c>
       <c r="H208" s="15">
         <f t="shared" si="64"/>
-        <v>3.3111111111111109</v>
+        <v>4.2277777777777796</v>
       </c>
       <c r="I208" s="23">
         <f t="shared" si="65"/>
-        <v>13509.333333333334</v>
+        <v>17249.333333333339</v>
       </c>
     </row>
     <row r="209" spans="2:11" x14ac:dyDescent="0.25">
@@ -7282,19 +7329,19 @@
       </c>
       <c r="F209" s="21">
         <f t="shared" si="62"/>
-        <v>1.299305555555555</v>
+        <v>2.2159722222222213</v>
       </c>
       <c r="G209" s="15">
         <f t="shared" si="63"/>
-        <v>1.299305555555555</v>
+        <v>2.2159722222222213</v>
       </c>
       <c r="H209" s="15">
         <f t="shared" si="64"/>
-        <v>3.3618055555555548</v>
+        <v>4.2784722222222245</v>
       </c>
       <c r="I209" s="23">
         <f t="shared" si="65"/>
-        <v>13716.166666666662</v>
+        <v>17456.166666666679</v>
       </c>
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.25">
@@ -7313,19 +7360,19 @@
       </c>
       <c r="F210" s="21">
         <f t="shared" si="62"/>
-        <v>1.3402777777777772</v>
+        <v>2.2569444444444438</v>
       </c>
       <c r="G210" s="15">
         <f t="shared" si="63"/>
-        <v>1.3402777777777772</v>
+        <v>2.2569444444444438</v>
       </c>
       <c r="H210" s="15">
         <f t="shared" si="64"/>
-        <v>3.4027777777777777</v>
+        <v>4.3194444444444464</v>
       </c>
       <c r="I210" s="23">
         <f t="shared" si="65"/>
-        <v>13883.333333333332</v>
+        <v>17623.333333333343</v>
       </c>
     </row>
     <row r="211" spans="2:11" x14ac:dyDescent="0.25">
@@ -7342,19 +7389,19 @@
       </c>
       <c r="F211" s="21">
         <f t="shared" si="62"/>
-        <v>1.3583333333333327</v>
+        <v>2.2749999999999995</v>
       </c>
       <c r="G211" s="15">
         <f t="shared" si="63"/>
-        <v>1.3583333333333327</v>
+        <v>2.2749999999999995</v>
       </c>
       <c r="H211" s="15">
         <f t="shared" si="64"/>
-        <v>3.4208333333333329</v>
+        <v>4.3375000000000021</v>
       </c>
       <c r="I211" s="23">
         <f t="shared" si="65"/>
-        <v>13956.999999999998</v>
+        <v>17697.000000000007</v>
       </c>
     </row>
     <row r="212" spans="2:11" x14ac:dyDescent="0.25">
@@ -7371,19 +7418,19 @@
       </c>
       <c r="F212" s="21">
         <f t="shared" si="62"/>
-        <v>1.3951388888888883</v>
+        <v>2.311805555555555</v>
       </c>
       <c r="G212" s="15">
         <f t="shared" si="63"/>
-        <v>1.3951388888888883</v>
+        <v>2.311805555555555</v>
       </c>
       <c r="H212" s="15">
         <f t="shared" si="64"/>
-        <v>3.4576388888888889</v>
+        <v>4.3743055555555577</v>
       </c>
       <c r="I212" s="23">
         <f t="shared" si="65"/>
-        <v>14107.166666666666</v>
+        <v>17847.166666666675</v>
       </c>
     </row>
     <row r="213" spans="2:11" x14ac:dyDescent="0.25">
@@ -7402,19 +7449,19 @@
       </c>
       <c r="F213" s="21">
         <f t="shared" si="62"/>
-        <v>1.468055555555555</v>
+        <v>2.3847222222222215</v>
       </c>
       <c r="G213" s="15">
         <f t="shared" si="63"/>
-        <v>1.468055555555555</v>
+        <v>2.3847222222222215</v>
       </c>
       <c r="H213" s="15">
         <f t="shared" si="64"/>
-        <v>3.5305555555555559</v>
+        <v>4.4472222222222246</v>
       </c>
       <c r="I213" s="23">
         <f t="shared" si="65"/>
-        <v>14404.66666666667</v>
+        <v>18144.666666666675</v>
       </c>
     </row>
     <row r="214" spans="2:11" x14ac:dyDescent="0.25">
@@ -7431,19 +7478,19 @@
       </c>
       <c r="F214" s="21">
         <f t="shared" si="62"/>
-        <v>1.5013888888888882</v>
+        <v>2.4180555555555547</v>
       </c>
       <c r="G214" s="15">
         <f t="shared" si="63"/>
-        <v>1.5013888888888882</v>
+        <v>2.4180555555555547</v>
       </c>
       <c r="H214" s="15">
         <f t="shared" si="64"/>
-        <v>3.5638888888888891</v>
+        <v>4.4805555555555578</v>
       </c>
       <c r="I214" s="23">
         <f t="shared" si="65"/>
-        <v>14540.666666666666</v>
+        <v>18280.666666666675</v>
       </c>
     </row>
     <row r="215" spans="2:11" x14ac:dyDescent="0.25">
@@ -7460,19 +7507,19 @@
       </c>
       <c r="F215" s="21">
         <f t="shared" si="62"/>
-        <v>1.504166666666666</v>
+        <v>2.4208333333333325</v>
       </c>
       <c r="G215" s="15">
         <f t="shared" si="63"/>
-        <v>1.504166666666666</v>
+        <v>2.4208333333333325</v>
       </c>
       <c r="H215" s="15">
         <f t="shared" si="64"/>
-        <v>3.5666666666666664</v>
+        <v>4.4833333333333361</v>
       </c>
       <c r="I215" s="23">
         <f t="shared" si="65"/>
-        <v>14551.999999999998</v>
+        <v>18292.000000000011</v>
       </c>
     </row>
     <row r="216" spans="2:11" x14ac:dyDescent="0.25">
@@ -7489,19 +7536,19 @@
       </c>
       <c r="F216" s="21">
         <f t="shared" si="62"/>
-        <v>1.5833333333333326</v>
+        <v>2.4999999999999991</v>
       </c>
       <c r="G216" s="15">
         <f t="shared" si="63"/>
-        <v>1.5833333333333326</v>
+        <v>2.4999999999999991</v>
       </c>
       <c r="H216" s="15">
         <f t="shared" si="64"/>
-        <v>3.6458333333333326</v>
+        <v>4.5625000000000027</v>
       </c>
       <c r="I216" s="23">
         <f t="shared" si="65"/>
-        <v>14874.999999999998</v>
+        <v>18615.000000000011</v>
       </c>
     </row>
     <row r="217" spans="2:11" x14ac:dyDescent="0.25">
@@ -7518,19 +7565,19 @@
       </c>
       <c r="F217" s="21">
         <f t="shared" si="62"/>
-        <v>1.5881944444444436</v>
+        <v>2.5048611111111101</v>
       </c>
       <c r="G217" s="15">
         <f t="shared" si="63"/>
-        <v>1.5881944444444436</v>
+        <v>2.5048611111111101</v>
       </c>
       <c r="H217" s="15">
         <f t="shared" si="64"/>
-        <v>3.6506944444444431</v>
+        <v>4.5673611111111141</v>
       </c>
       <c r="I217" s="23">
         <f t="shared" si="65"/>
-        <v>14894.833333333327</v>
+        <v>18634.833333333343</v>
       </c>
     </row>
     <row r="218" spans="2:11" x14ac:dyDescent="0.25">
@@ -7547,19 +7594,19 @@
       </c>
       <c r="F218" s="21">
         <f t="shared" ref="F218:F281" si="67">F217+E218</f>
-        <v>1.6097222222222216</v>
+        <v>2.5263888888888881</v>
       </c>
       <c r="G218" s="15">
         <f t="shared" ref="G218:G281" si="68">F218</f>
-        <v>1.6097222222222216</v>
+        <v>2.5263888888888881</v>
       </c>
       <c r="H218" s="15">
         <f t="shared" ref="H218:H281" si="69">(H217+G218-G217)</f>
-        <v>3.6722222222222207</v>
+        <v>4.5888888888888921</v>
       </c>
       <c r="I218" s="23">
         <f t="shared" ref="I218:I281" si="70">H218*24*$J$32</f>
-        <v>14982.666666666661</v>
+        <v>18722.666666666679</v>
       </c>
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.25">
@@ -7576,19 +7623,19 @@
       </c>
       <c r="F219" s="21">
         <f t="shared" si="67"/>
-        <v>1.6784722222222217</v>
+        <v>2.5951388888888882</v>
       </c>
       <c r="G219" s="15">
         <f t="shared" si="68"/>
-        <v>1.6784722222222217</v>
+        <v>2.5951388888888882</v>
       </c>
       <c r="H219" s="15">
         <f t="shared" si="69"/>
-        <v>3.7409722222222213</v>
+        <v>4.6576388888888918</v>
       </c>
       <c r="I219" s="23">
         <f t="shared" si="70"/>
-        <v>15263.166666666661</v>
+        <v>19003.166666666679</v>
       </c>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.25">
@@ -7607,19 +7654,19 @@
       </c>
       <c r="F220" s="21">
         <f t="shared" si="67"/>
-        <v>1.6826388888888884</v>
+        <v>2.5993055555555546</v>
       </c>
       <c r="G220" s="15">
         <f t="shared" si="68"/>
-        <v>1.6826388888888884</v>
+        <v>2.5993055555555546</v>
       </c>
       <c r="H220" s="15">
         <f t="shared" si="69"/>
-        <v>3.7451388888888881</v>
+        <v>4.6618055555555582</v>
       </c>
       <c r="I220" s="23">
         <f t="shared" si="70"/>
-        <v>15280.166666666662</v>
+        <v>19020.166666666679</v>
       </c>
       <c r="K220" s="56"/>
     </row>
@@ -7637,19 +7684,19 @@
       </c>
       <c r="F221" s="21">
         <f t="shared" si="67"/>
-        <v>1.7479166666666661</v>
+        <v>2.6645833333333324</v>
       </c>
       <c r="G221" s="15">
         <f t="shared" si="68"/>
-        <v>1.7479166666666661</v>
+        <v>2.6645833333333324</v>
       </c>
       <c r="H221" s="15">
         <f t="shared" si="69"/>
-        <v>3.8104166666666659</v>
+        <v>4.7270833333333364</v>
       </c>
       <c r="I221" s="23">
         <f t="shared" si="70"/>
-        <v>15546.499999999998</v>
+        <v>19286.500000000011</v>
       </c>
     </row>
     <row r="222" spans="2:11" x14ac:dyDescent="0.25">
@@ -7666,19 +7713,19 @@
       </c>
       <c r="F222" s="21">
         <f t="shared" si="67"/>
-        <v>1.7506944444444439</v>
+        <v>2.6673611111111102</v>
       </c>
       <c r="G222" s="15">
         <f t="shared" si="68"/>
-        <v>1.7506944444444439</v>
+        <v>2.6673611111111102</v>
       </c>
       <c r="H222" s="15">
         <f t="shared" si="69"/>
-        <v>3.8131944444444441</v>
+        <v>4.7298611111111146</v>
       </c>
       <c r="I222" s="23">
         <f t="shared" si="70"/>
-        <v>15557.83333333333</v>
+        <v>19297.833333333347</v>
       </c>
     </row>
     <row r="223" spans="2:11" x14ac:dyDescent="0.25">
@@ -7695,19 +7742,19 @@
       </c>
       <c r="F223" s="21">
         <f t="shared" si="67"/>
-        <v>1.8124999999999996</v>
+        <v>2.7291666666666656</v>
       </c>
       <c r="G223" s="15">
         <f t="shared" si="68"/>
-        <v>1.8124999999999996</v>
+        <v>2.7291666666666656</v>
       </c>
       <c r="H223" s="15">
         <f t="shared" si="69"/>
-        <v>3.8749999999999991</v>
+        <v>4.7916666666666705</v>
       </c>
       <c r="I223" s="23">
         <f t="shared" si="70"/>
-        <v>15809.999999999995</v>
+        <v>19550.000000000015</v>
       </c>
     </row>
     <row r="224" spans="2:11" x14ac:dyDescent="0.25">
@@ -7724,19 +7771,19 @@
       </c>
       <c r="F224" s="21">
         <f t="shared" si="67"/>
-        <v>1.8458333333333328</v>
+        <v>2.7624999999999988</v>
       </c>
       <c r="G224" s="15">
         <f t="shared" si="68"/>
-        <v>1.8458333333333328</v>
+        <v>2.7624999999999988</v>
       </c>
       <c r="H224" s="15">
         <f t="shared" si="69"/>
-        <v>3.9083333333333319</v>
+        <v>4.8250000000000028</v>
       </c>
       <c r="I224" s="23">
         <f t="shared" si="70"/>
-        <v>15945.999999999995</v>
+        <v>19686.000000000011</v>
       </c>
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.25">
@@ -7753,19 +7800,19 @@
       </c>
       <c r="F225" s="21">
         <f t="shared" si="67"/>
-        <v>1.8555555555555552</v>
+        <v>2.7722222222222213</v>
       </c>
       <c r="G225" s="15">
         <f t="shared" si="68"/>
-        <v>1.8555555555555552</v>
+        <v>2.7722222222222213</v>
       </c>
       <c r="H225" s="15">
         <f t="shared" si="69"/>
-        <v>3.9180555555555547</v>
+        <v>4.8347222222222257</v>
       </c>
       <c r="I225" s="23">
         <f t="shared" si="70"/>
-        <v>15985.666666666664</v>
+        <v>19725.666666666682</v>
       </c>
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.25">
@@ -7782,19 +7829,19 @@
       </c>
       <c r="F226" s="21">
         <f t="shared" si="67"/>
-        <v>1.9152777777777774</v>
+        <v>2.8319444444444435</v>
       </c>
       <c r="G226" s="15">
         <f t="shared" si="68"/>
-        <v>1.9152777777777774</v>
+        <v>2.8319444444444435</v>
       </c>
       <c r="H226" s="15">
         <f t="shared" si="69"/>
-        <v>3.977777777777777</v>
+        <v>4.8944444444444484</v>
       </c>
       <c r="I226" s="23">
         <f t="shared" si="70"/>
-        <v>16229.333333333328</v>
+        <v>19969.333333333347</v>
       </c>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
@@ -7811,23 +7858,23 @@
       </c>
       <c r="F227" s="21">
         <f t="shared" si="67"/>
-        <v>1.9840277777777775</v>
+        <v>2.9006944444444436</v>
       </c>
       <c r="G227" s="15">
         <f t="shared" si="68"/>
-        <v>1.9840277777777775</v>
+        <v>2.9006944444444436</v>
       </c>
       <c r="H227" s="15">
         <f t="shared" si="69"/>
-        <v>4.0465277777777775</v>
+        <v>4.9631944444444489</v>
       </c>
       <c r="I227" s="23">
         <f t="shared" si="70"/>
-        <v>16509.833333333332</v>
+        <v>20249.83333333335</v>
       </c>
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B228" s="49" t="s">
+      <c r="B228" s="57" t="s">
         <v>88</v>
       </c>
       <c r="C228" s="4">
@@ -7842,22 +7889,23 @@
       </c>
       <c r="F228" s="21">
         <f t="shared" si="67"/>
-        <v>2.0041666666666664</v>
+        <v>2.9208333333333325</v>
       </c>
       <c r="G228" s="15">
         <f t="shared" si="68"/>
-        <v>2.0041666666666664</v>
+        <v>2.9208333333333325</v>
       </c>
       <c r="H228" s="15">
         <f t="shared" si="69"/>
-        <v>4.0666666666666664</v>
+        <v>4.9833333333333378</v>
       </c>
       <c r="I228" s="23">
         <f t="shared" si="70"/>
-        <v>16592</v>
+        <v>20332.000000000018</v>
       </c>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B229" s="57"/>
       <c r="C229" s="4">
         <v>0.58194444444444449</v>
       </c>
@@ -7870,91 +7918,106 @@
       </c>
       <c r="F229" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>2.9430555555555546</v>
       </c>
       <c r="G229" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>2.9430555555555546</v>
       </c>
       <c r="H229" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.00555555555556</v>
       </c>
       <c r="I229" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>20422.666666666686</v>
       </c>
     </row>
     <row r="230" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C230" s="4"/>
-      <c r="D230" s="18"/>
+      <c r="B230" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C230" s="4">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="D230" s="18">
+        <v>0.60277777777777775</v>
+      </c>
       <c r="E230" s="20">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>0.1076388888888889</v>
       </c>
       <c r="F230" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.0506944444444435</v>
       </c>
       <c r="G230" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.0506944444444435</v>
       </c>
       <c r="H230" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1131944444444493</v>
       </c>
       <c r="I230" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>20861.833333333354</v>
       </c>
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C231" s="4"/>
-      <c r="D231" s="18"/>
+      <c r="C231" s="4">
+        <v>0.64097222222222217</v>
+      </c>
+      <c r="D231" s="18">
+        <v>0.67291666666666661</v>
+      </c>
       <c r="E231" s="20">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>3.1944444444444442E-2</v>
       </c>
       <c r="F231" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.082638888888888</v>
       </c>
       <c r="G231" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.082638888888888</v>
       </c>
       <c r="H231" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1451388888888925</v>
       </c>
       <c r="I231" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>20992.166666666682</v>
       </c>
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C232" s="4"/>
-      <c r="D232" s="18"/>
+      <c r="C232" s="4">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="D232" s="18">
+        <v>0.72083333333333333</v>
+      </c>
       <c r="E232" s="20">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>2.7083333333333348E-2</v>
       </c>
       <c r="F232" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G232" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H232" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I232" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.25">
@@ -7966,19 +8029,19 @@
       </c>
       <c r="F233" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G233" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H233" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I233" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.25">
@@ -7990,19 +8053,19 @@
       </c>
       <c r="F234" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G234" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H234" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I234" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.25">
@@ -8014,19 +8077,19 @@
       </c>
       <c r="F235" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G235" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H235" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I235" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.25">
@@ -8038,19 +8101,19 @@
       </c>
       <c r="F236" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G236" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H236" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I236" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.25">
@@ -8062,19 +8125,19 @@
       </c>
       <c r="F237" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G237" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H237" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I237" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.25">
@@ -8086,19 +8149,19 @@
       </c>
       <c r="F238" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G238" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H238" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I238" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.25">
@@ -8110,19 +8173,19 @@
       </c>
       <c r="F239" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G239" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H239" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I239" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.25">
@@ -8134,19 +8197,19 @@
       </c>
       <c r="F240" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G240" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H240" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I240" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="241" spans="3:9" x14ac:dyDescent="0.25">
@@ -8158,19 +8221,19 @@
       </c>
       <c r="F241" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G241" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H241" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I241" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="242" spans="3:9" x14ac:dyDescent="0.25">
@@ -8182,19 +8245,19 @@
       </c>
       <c r="F242" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G242" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H242" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I242" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="243" spans="3:9" x14ac:dyDescent="0.25">
@@ -8206,19 +8269,19 @@
       </c>
       <c r="F243" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G243" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H243" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I243" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="244" spans="3:9" x14ac:dyDescent="0.25">
@@ -8230,19 +8293,19 @@
       </c>
       <c r="F244" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G244" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H244" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I244" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="245" spans="3:9" x14ac:dyDescent="0.25">
@@ -8254,19 +8317,19 @@
       </c>
       <c r="F245" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G245" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H245" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I245" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="246" spans="3:9" x14ac:dyDescent="0.25">
@@ -8278,19 +8341,19 @@
       </c>
       <c r="F246" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G246" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H246" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I246" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="247" spans="3:9" x14ac:dyDescent="0.25">
@@ -8302,19 +8365,19 @@
       </c>
       <c r="F247" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G247" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H247" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I247" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="248" spans="3:9" x14ac:dyDescent="0.25">
@@ -8326,19 +8389,19 @@
       </c>
       <c r="F248" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G248" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H248" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I248" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="249" spans="3:9" x14ac:dyDescent="0.25">
@@ -8350,19 +8413,19 @@
       </c>
       <c r="F249" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G249" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H249" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I249" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="250" spans="3:9" x14ac:dyDescent="0.25">
@@ -8374,19 +8437,19 @@
       </c>
       <c r="F250" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G250" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H250" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I250" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="251" spans="3:9" x14ac:dyDescent="0.25">
@@ -8398,19 +8461,19 @@
       </c>
       <c r="F251" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G251" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H251" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I251" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="252" spans="3:9" x14ac:dyDescent="0.25">
@@ -8422,19 +8485,19 @@
       </c>
       <c r="F252" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G252" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H252" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I252" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="253" spans="3:9" x14ac:dyDescent="0.25">
@@ -8446,19 +8509,19 @@
       </c>
       <c r="F253" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G253" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H253" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I253" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="254" spans="3:9" x14ac:dyDescent="0.25">
@@ -8470,19 +8533,19 @@
       </c>
       <c r="F254" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G254" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H254" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I254" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="255" spans="3:9" x14ac:dyDescent="0.25">
@@ -8494,19 +8557,19 @@
       </c>
       <c r="F255" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G255" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H255" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I255" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="256" spans="3:9" x14ac:dyDescent="0.25">
@@ -8518,19 +8581,19 @@
       </c>
       <c r="F256" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G256" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H256" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I256" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="257" spans="3:9" x14ac:dyDescent="0.25">
@@ -8542,19 +8605,19 @@
       </c>
       <c r="F257" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G257" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H257" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I257" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="258" spans="3:9" x14ac:dyDescent="0.25">
@@ -8566,19 +8629,19 @@
       </c>
       <c r="F258" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G258" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H258" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I258" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="259" spans="3:9" x14ac:dyDescent="0.25">
@@ -8590,19 +8653,19 @@
       </c>
       <c r="F259" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G259" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H259" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I259" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="260" spans="3:9" x14ac:dyDescent="0.25">
@@ -8614,19 +8677,19 @@
       </c>
       <c r="F260" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G260" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H260" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I260" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="261" spans="3:9" x14ac:dyDescent="0.25">
@@ -8638,19 +8701,19 @@
       </c>
       <c r="F261" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G261" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H261" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I261" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="262" spans="3:9" x14ac:dyDescent="0.25">
@@ -8662,19 +8725,19 @@
       </c>
       <c r="F262" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G262" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H262" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I262" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="263" spans="3:9" x14ac:dyDescent="0.25">
@@ -8686,19 +8749,19 @@
       </c>
       <c r="F263" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G263" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H263" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I263" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="264" spans="3:9" x14ac:dyDescent="0.25">
@@ -8710,19 +8773,19 @@
       </c>
       <c r="F264" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G264" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H264" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I264" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="265" spans="3:9" x14ac:dyDescent="0.25">
@@ -8734,19 +8797,19 @@
       </c>
       <c r="F265" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G265" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H265" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I265" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="266" spans="3:9" x14ac:dyDescent="0.25">
@@ -8758,19 +8821,19 @@
       </c>
       <c r="F266" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G266" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H266" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I266" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="267" spans="3:9" x14ac:dyDescent="0.25">
@@ -8782,19 +8845,19 @@
       </c>
       <c r="F267" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G267" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H267" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I267" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="268" spans="3:9" x14ac:dyDescent="0.25">
@@ -8806,19 +8869,19 @@
       </c>
       <c r="F268" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G268" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H268" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I268" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="269" spans="3:9" x14ac:dyDescent="0.25">
@@ -8830,19 +8893,19 @@
       </c>
       <c r="F269" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G269" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H269" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I269" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="270" spans="3:9" x14ac:dyDescent="0.25">
@@ -8854,19 +8917,19 @@
       </c>
       <c r="F270" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G270" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H270" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I270" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="271" spans="3:9" x14ac:dyDescent="0.25">
@@ -8878,19 +8941,19 @@
       </c>
       <c r="F271" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G271" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H271" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I271" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="272" spans="3:9" x14ac:dyDescent="0.25">
@@ -8902,19 +8965,19 @@
       </c>
       <c r="F272" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G272" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H272" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I272" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="273" spans="3:9" x14ac:dyDescent="0.25">
@@ -8926,19 +8989,19 @@
       </c>
       <c r="F273" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G273" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H273" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I273" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="274" spans="3:9" x14ac:dyDescent="0.25">
@@ -8950,19 +9013,19 @@
       </c>
       <c r="F274" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G274" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H274" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I274" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="275" spans="3:9" x14ac:dyDescent="0.25">
@@ -8974,19 +9037,19 @@
       </c>
       <c r="F275" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G275" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H275" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I275" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="276" spans="3:9" x14ac:dyDescent="0.25">
@@ -8998,19 +9061,19 @@
       </c>
       <c r="F276" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G276" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H276" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I276" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="277" spans="3:9" x14ac:dyDescent="0.25">
@@ -9022,19 +9085,19 @@
       </c>
       <c r="F277" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G277" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H277" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I277" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="278" spans="3:9" x14ac:dyDescent="0.25">
@@ -9046,19 +9109,19 @@
       </c>
       <c r="F278" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G278" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H278" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I278" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="279" spans="3:9" x14ac:dyDescent="0.25">
@@ -9070,19 +9133,19 @@
       </c>
       <c r="F279" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G279" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H279" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I279" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="280" spans="3:9" x14ac:dyDescent="0.25">
@@ -9094,19 +9157,19 @@
       </c>
       <c r="F280" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G280" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H280" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I280" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="281" spans="3:9" x14ac:dyDescent="0.25">
@@ -9118,19 +9181,19 @@
       </c>
       <c r="F281" s="21">
         <f t="shared" si="67"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G281" s="15">
         <f t="shared" si="68"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H281" s="15">
         <f t="shared" si="69"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I281" s="23">
         <f t="shared" si="70"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="282" spans="3:9" x14ac:dyDescent="0.25">
@@ -9142,19 +9205,19 @@
       </c>
       <c r="F282" s="21">
         <f t="shared" ref="F282:F342" si="72">F281+E282</f>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G282" s="15">
         <f t="shared" ref="G282:G342" si="73">F282</f>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H282" s="15">
         <f t="shared" ref="H282:H342" si="74">(H281+G282-G281)</f>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I282" s="23">
         <f t="shared" ref="I282:I342" si="75">H282*24*$J$32</f>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="283" spans="3:9" x14ac:dyDescent="0.25">
@@ -9166,19 +9229,19 @@
       </c>
       <c r="F283" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G283" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H283" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I283" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="284" spans="3:9" x14ac:dyDescent="0.25">
@@ -9190,19 +9253,19 @@
       </c>
       <c r="F284" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G284" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H284" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I284" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="285" spans="3:9" x14ac:dyDescent="0.25">
@@ -9214,19 +9277,19 @@
       </c>
       <c r="F285" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G285" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H285" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I285" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="286" spans="3:9" x14ac:dyDescent="0.25">
@@ -9238,19 +9301,19 @@
       </c>
       <c r="F286" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G286" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H286" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I286" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="287" spans="3:9" x14ac:dyDescent="0.25">
@@ -9262,19 +9325,19 @@
       </c>
       <c r="F287" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G287" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H287" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I287" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="288" spans="3:9" x14ac:dyDescent="0.25">
@@ -9286,19 +9349,19 @@
       </c>
       <c r="F288" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G288" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H288" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I288" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="289" spans="3:9" x14ac:dyDescent="0.25">
@@ -9310,19 +9373,19 @@
       </c>
       <c r="F289" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G289" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H289" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I289" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="290" spans="3:9" x14ac:dyDescent="0.25">
@@ -9334,19 +9397,19 @@
       </c>
       <c r="F290" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G290" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H290" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I290" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="291" spans="3:9" x14ac:dyDescent="0.25">
@@ -9358,19 +9421,19 @@
       </c>
       <c r="F291" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G291" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H291" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I291" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="292" spans="3:9" x14ac:dyDescent="0.25">
@@ -9382,19 +9445,19 @@
       </c>
       <c r="F292" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G292" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H292" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I292" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="293" spans="3:9" x14ac:dyDescent="0.25">
@@ -9406,19 +9469,19 @@
       </c>
       <c r="F293" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G293" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H293" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I293" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="294" spans="3:9" x14ac:dyDescent="0.25">
@@ -9430,19 +9493,19 @@
       </c>
       <c r="F294" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G294" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H294" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I294" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="295" spans="3:9" x14ac:dyDescent="0.25">
@@ -9454,19 +9517,19 @@
       </c>
       <c r="F295" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G295" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H295" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I295" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="296" spans="3:9" x14ac:dyDescent="0.25">
@@ -9478,19 +9541,19 @@
       </c>
       <c r="F296" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G296" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H296" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I296" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="297" spans="3:9" x14ac:dyDescent="0.25">
@@ -9502,19 +9565,19 @@
       </c>
       <c r="F297" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G297" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H297" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I297" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="298" spans="3:9" x14ac:dyDescent="0.25">
@@ -9526,19 +9589,19 @@
       </c>
       <c r="F298" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G298" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H298" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I298" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="299" spans="3:9" x14ac:dyDescent="0.25">
@@ -9550,19 +9613,19 @@
       </c>
       <c r="F299" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G299" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H299" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I299" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="300" spans="3:9" x14ac:dyDescent="0.25">
@@ -9574,19 +9637,19 @@
       </c>
       <c r="F300" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G300" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H300" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I300" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="301" spans="3:9" x14ac:dyDescent="0.25">
@@ -9598,19 +9661,19 @@
       </c>
       <c r="F301" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G301" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H301" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I301" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="302" spans="3:9" x14ac:dyDescent="0.25">
@@ -9622,19 +9685,19 @@
       </c>
       <c r="F302" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G302" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H302" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I302" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="303" spans="3:9" x14ac:dyDescent="0.25">
@@ -9646,19 +9709,19 @@
       </c>
       <c r="F303" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G303" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H303" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I303" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="304" spans="3:9" x14ac:dyDescent="0.25">
@@ -9670,19 +9733,19 @@
       </c>
       <c r="F304" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G304" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H304" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I304" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="305" spans="3:9" x14ac:dyDescent="0.25">
@@ -9694,19 +9757,19 @@
       </c>
       <c r="F305" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G305" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H305" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I305" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="306" spans="3:9" x14ac:dyDescent="0.25">
@@ -9718,19 +9781,19 @@
       </c>
       <c r="F306" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G306" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H306" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I306" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="307" spans="3:9" x14ac:dyDescent="0.25">
@@ -9742,19 +9805,19 @@
       </c>
       <c r="F307" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G307" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H307" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I307" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="308" spans="3:9" x14ac:dyDescent="0.25">
@@ -9766,19 +9829,19 @@
       </c>
       <c r="F308" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G308" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H308" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I308" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="309" spans="3:9" x14ac:dyDescent="0.25">
@@ -9790,19 +9853,19 @@
       </c>
       <c r="F309" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G309" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H309" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I309" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="310" spans="3:9" x14ac:dyDescent="0.25">
@@ -9814,19 +9877,19 @@
       </c>
       <c r="F310" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G310" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H310" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I310" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="311" spans="3:9" x14ac:dyDescent="0.25">
@@ -9838,19 +9901,19 @@
       </c>
       <c r="F311" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G311" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H311" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I311" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="312" spans="3:9" x14ac:dyDescent="0.25">
@@ -9862,19 +9925,19 @@
       </c>
       <c r="F312" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G312" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H312" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I312" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="313" spans="3:9" x14ac:dyDescent="0.25">
@@ -9886,19 +9949,19 @@
       </c>
       <c r="F313" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G313" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H313" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I313" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="314" spans="3:9" x14ac:dyDescent="0.25">
@@ -9910,19 +9973,19 @@
       </c>
       <c r="F314" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G314" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H314" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I314" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="315" spans="3:9" x14ac:dyDescent="0.25">
@@ -9934,19 +9997,19 @@
       </c>
       <c r="F315" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G315" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H315" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I315" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="316" spans="3:9" x14ac:dyDescent="0.25">
@@ -9958,19 +10021,19 @@
       </c>
       <c r="F316" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G316" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H316" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I316" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="317" spans="3:9" x14ac:dyDescent="0.25">
@@ -9982,19 +10045,19 @@
       </c>
       <c r="F317" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G317" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H317" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I317" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="318" spans="3:9" x14ac:dyDescent="0.25">
@@ -10006,19 +10069,19 @@
       </c>
       <c r="F318" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G318" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H318" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I318" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="319" spans="3:9" x14ac:dyDescent="0.25">
@@ -10030,19 +10093,19 @@
       </c>
       <c r="F319" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G319" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H319" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I319" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="320" spans="3:9" x14ac:dyDescent="0.25">
@@ -10054,19 +10117,19 @@
       </c>
       <c r="F320" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G320" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H320" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I320" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="321" spans="3:9" x14ac:dyDescent="0.25">
@@ -10078,19 +10141,19 @@
       </c>
       <c r="F321" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G321" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H321" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I321" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="322" spans="3:9" x14ac:dyDescent="0.25">
@@ -10102,19 +10165,19 @@
       </c>
       <c r="F322" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G322" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H322" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I322" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="323" spans="3:9" x14ac:dyDescent="0.25">
@@ -10126,19 +10189,19 @@
       </c>
       <c r="F323" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G323" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H323" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I323" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="324" spans="3:9" x14ac:dyDescent="0.25">
@@ -10150,19 +10213,19 @@
       </c>
       <c r="F324" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G324" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H324" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I324" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="325" spans="3:9" x14ac:dyDescent="0.25">
@@ -10174,19 +10237,19 @@
       </c>
       <c r="F325" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G325" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H325" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I325" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="326" spans="3:9" x14ac:dyDescent="0.25">
@@ -10198,19 +10261,19 @@
       </c>
       <c r="F326" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G326" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H326" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I326" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="327" spans="3:9" x14ac:dyDescent="0.25">
@@ -10222,19 +10285,19 @@
       </c>
       <c r="F327" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G327" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H327" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I327" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="328" spans="3:9" x14ac:dyDescent="0.25">
@@ -10246,19 +10309,19 @@
       </c>
       <c r="F328" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G328" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H328" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I328" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="329" spans="3:9" x14ac:dyDescent="0.25">
@@ -10270,19 +10333,19 @@
       </c>
       <c r="F329" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G329" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H329" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I329" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="330" spans="3:9" x14ac:dyDescent="0.25">
@@ -10294,19 +10357,19 @@
       </c>
       <c r="F330" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G330" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H330" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I330" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="331" spans="3:9" x14ac:dyDescent="0.25">
@@ -10318,19 +10381,19 @@
       </c>
       <c r="F331" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G331" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H331" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I331" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="332" spans="3:9" x14ac:dyDescent="0.25">
@@ -10342,19 +10405,19 @@
       </c>
       <c r="F332" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G332" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H332" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I332" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="333" spans="3:9" x14ac:dyDescent="0.25">
@@ -10366,19 +10429,19 @@
       </c>
       <c r="F333" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G333" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H333" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I333" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="334" spans="3:9" x14ac:dyDescent="0.25">
@@ -10390,19 +10453,19 @@
       </c>
       <c r="F334" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G334" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H334" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I334" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="335" spans="3:9" x14ac:dyDescent="0.25">
@@ -10414,19 +10477,19 @@
       </c>
       <c r="F335" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G335" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H335" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I335" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="336" spans="3:9" x14ac:dyDescent="0.25">
@@ -10438,19 +10501,19 @@
       </c>
       <c r="F336" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G336" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H336" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I336" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="337" spans="3:9" x14ac:dyDescent="0.25">
@@ -10462,19 +10525,19 @@
       </c>
       <c r="F337" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G337" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H337" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I337" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="338" spans="3:9" x14ac:dyDescent="0.25">
@@ -10486,19 +10549,19 @@
       </c>
       <c r="F338" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G338" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H338" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I338" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="339" spans="3:9" x14ac:dyDescent="0.25">
@@ -10510,19 +10573,19 @@
       </c>
       <c r="F339" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G339" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H339" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I339" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="340" spans="3:9" x14ac:dyDescent="0.25">
@@ -10534,19 +10597,19 @@
       </c>
       <c r="F340" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G340" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H340" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I340" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="341" spans="3:9" x14ac:dyDescent="0.25">
@@ -10558,19 +10621,19 @@
       </c>
       <c r="F341" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G341" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H341" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I341" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
     <row r="342" spans="3:9" x14ac:dyDescent="0.25">
@@ -10582,33 +10645,54 @@
       </c>
       <c r="F342" s="21">
         <f t="shared" si="72"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="G342" s="15">
         <f t="shared" si="73"/>
-        <v>2.0263888888888886</v>
+        <v>3.1097222222222216</v>
       </c>
       <c r="H342" s="15">
         <f t="shared" si="74"/>
-        <v>4.0888888888888886</v>
+        <v>5.1722222222222269</v>
       </c>
       <c r="I342" s="23">
         <f t="shared" si="75"/>
-        <v>16682.666666666664</v>
+        <v>21102.666666666686</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="B204:B209"/>
-    <mergeCell ref="B213:B219"/>
-    <mergeCell ref="B201:B203"/>
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="B178:B183"/>
-    <mergeCell ref="B184:B187"/>
-    <mergeCell ref="B188:B192"/>
+  <mergeCells count="57">
+    <mergeCell ref="B228:B229"/>
+    <mergeCell ref="B220:B227"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
     <mergeCell ref="B164:B170"/>
     <mergeCell ref="B151:B155"/>
     <mergeCell ref="B156:B162"/>
@@ -10625,36 +10709,16 @@
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="B70:B71"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B220:B227"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B188:B192"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="B204:B209"/>
+    <mergeCell ref="B213:B219"/>
+    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="B195:B200"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680B915D-C6F5-4799-9120-6D01443E8D31}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8718453-4C7C-4745-9437-C5C052B2800A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="1305" windowWidth="14670" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -787,10 +787,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -808,20 +819,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -1162,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="D233" sqref="D233"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="M230" sqref="M230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,10 +1185,10 @@
       <c r="B1" s="51"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="68" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -1209,8 +1209,8 @@
       <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>16716.666666666664</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="58"/>
+      <c r="K13" s="71"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
@@ -1406,7 +1406,7 @@
       <c r="X13" s="6"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="66" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="4">
@@ -1436,7 +1436,7 @@
         <v>16915</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="58"/>
+      <c r="K14" s="71"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
@@ -1452,7 +1452,7 @@
       <c r="X14" s="6"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="59"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>17184.166666666664</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="58"/>
+      <c r="K15" s="71"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
@@ -1496,7 +1496,7 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="59"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>17269.166666666664</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="58"/>
+      <c r="K16" s="71"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
@@ -1540,7 +1540,7 @@
       <c r="X16" s="6"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="59"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="4">
         <v>0.80208333333333337</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>17524.166666666664</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="58"/>
+      <c r="K17" s="71"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
@@ -1584,7 +1584,7 @@
       <c r="X17" s="6"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="59"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="4">
         <v>0.875</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>17651.666666666664</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="58"/>
+      <c r="K18" s="71"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
@@ -1628,7 +1628,7 @@
       <c r="X18" s="6"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="66" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="4">
@@ -1658,7 +1658,7 @@
         <v>17878.333333333332</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="58"/>
+      <c r="K19" s="71"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
@@ -1674,7 +1674,7 @@
       <c r="X19" s="6"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="59"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>18246.666666666664</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="58"/>
+      <c r="K20" s="71"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
@@ -1718,7 +1718,7 @@
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="59"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>18388.333333333332</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="58"/>
+      <c r="K21" s="71"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
@@ -1762,7 +1762,7 @@
       <c r="X21" s="6"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="59"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="4">
         <v>0.75</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>18515.833333333332</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="58"/>
+      <c r="K22" s="71"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="9"/>
@@ -1806,7 +1806,7 @@
       <c r="X22" s="6"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="59"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -1850,7 +1850,7 @@
       <c r="X23" s="6"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="70" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="4">
@@ -1896,7 +1896,7 @@
       <c r="X24" s="6"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="63"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -1940,7 +1940,7 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="63"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1984,7 +1984,7 @@
       <c r="X26" s="6"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="63"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="4">
         <v>0.83333333333333337</v>
       </c>
@@ -2028,7 +2028,7 @@
       <c r="X27" s="6"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="66" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="4">
@@ -2074,7 +2074,7 @@
       <c r="X28" s="6"/>
     </row>
     <row r="29" spans="2:24" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="62"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="27">
         <v>0.61111111111111105</v>
       </c>
@@ -2119,10 +2119,10 @@
       <c r="B31" s="51"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="60" t="s">
+      <c r="E31" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="61" t="s">
+      <c r="F31" s="68" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="17" t="s">
@@ -2143,8 +2143,8 @@
       <c r="D32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="60"/>
-      <c r="F32" s="61"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="12" t="s">
         <v>14</v>
       </c>
@@ -2159,7 +2159,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="66" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="24">
@@ -2190,7 +2190,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="59"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -2219,7 +2219,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="59"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="4">
         <v>0.67013888888888884</v>
       </c>
@@ -2279,7 +2279,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="66" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="4">
@@ -2310,7 +2310,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="59"/>
+      <c r="B38" s="66"/>
       <c r="C38" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -2339,7 +2339,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="59"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="4">
         <v>0.77777777777777779</v>
       </c>
@@ -2368,7 +2368,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="59"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="4">
         <v>0.93055555555555547</v>
       </c>
@@ -2397,7 +2397,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="66" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="4">
@@ -2428,7 +2428,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="59"/>
+      <c r="B42" s="66"/>
       <c r="C42" s="4">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -2457,7 +2457,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="59"/>
+      <c r="B43" s="66"/>
       <c r="C43" s="4">
         <v>0.60069444444444442</v>
       </c>
@@ -2486,7 +2486,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="59"/>
+      <c r="B44" s="66"/>
       <c r="C44" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2515,7 +2515,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="59"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="4">
         <v>0.78472222222222221</v>
       </c>
@@ -2544,7 +2544,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="59"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="4">
         <v>0.92708333333333337</v>
       </c>
@@ -2573,7 +2573,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="59" t="s">
+      <c r="B47" s="66" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="4">
@@ -2604,7 +2604,7 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="59"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -2633,7 +2633,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="59"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="4">
         <v>0.74305555555555547</v>
       </c>
@@ -2662,7 +2662,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="59"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="4">
         <v>0.78819444444444453</v>
       </c>
@@ -2691,7 +2691,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="59"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="4">
         <v>0.81597222222222221</v>
       </c>
@@ -2720,7 +2720,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="59"/>
+      <c r="B52" s="66"/>
       <c r="C52" s="4">
         <v>0.89583333333333337</v>
       </c>
@@ -2752,7 +2752,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="59"/>
+      <c r="B53" s="66"/>
       <c r="C53" s="4">
         <v>0.99652777777777779</v>
       </c>
@@ -2784,7 +2784,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="59" t="s">
+      <c r="B54" s="66" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="4">
@@ -2818,7 +2818,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="59"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="4">
         <v>0.19444444444444445</v>
       </c>
@@ -2847,7 +2847,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="59"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="4">
         <v>0.625</v>
       </c>
@@ -2876,7 +2876,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="59"/>
+      <c r="B57" s="66"/>
       <c r="C57" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -2905,7 +2905,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="59"/>
+      <c r="B58" s="66"/>
       <c r="C58" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2934,7 +2934,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="59"/>
+      <c r="B59" s="66"/>
       <c r="C59" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -2994,7 +2994,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="66" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="4">
@@ -3025,7 +3025,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="59"/>
+      <c r="B62" s="66"/>
       <c r="C62" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -3054,7 +3054,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="59" t="s">
+      <c r="B63" s="66" t="s">
         <v>33</v>
       </c>
       <c r="C63" s="4">
@@ -3085,7 +3085,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="59"/>
+      <c r="B64" s="66"/>
       <c r="C64" s="4">
         <v>0.86111111111111116</v>
       </c>
@@ -3114,7 +3114,7 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="59"/>
+      <c r="B65" s="66"/>
       <c r="C65" s="4">
         <v>0.88888888888888884</v>
       </c>
@@ -3143,7 +3143,7 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="59" t="s">
+      <c r="B66" s="66" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="4">
@@ -3174,7 +3174,7 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="59"/>
+      <c r="B67" s="66"/>
       <c r="C67" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -3203,7 +3203,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="59"/>
+      <c r="B68" s="66"/>
       <c r="C68" s="4">
         <v>0.89930555555555547</v>
       </c>
@@ -3232,7 +3232,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="59"/>
+      <c r="B69" s="66"/>
       <c r="C69" s="4">
         <v>0.92361111111111116</v>
       </c>
@@ -3261,7 +3261,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="59" t="s">
+      <c r="B70" s="66" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="4">
@@ -3292,7 +3292,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="59"/>
+      <c r="B71" s="66"/>
       <c r="C71" s="4">
         <v>0.72222222222222221</v>
       </c>
@@ -3352,7 +3352,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="59" t="s">
+      <c r="B73" s="66" t="s">
         <v>37</v>
       </c>
       <c r="C73" s="4">
@@ -3383,7 +3383,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="59"/>
+      <c r="B74" s="66"/>
       <c r="C74" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -3412,7 +3412,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="59" t="s">
+      <c r="B75" s="66" t="s">
         <v>38</v>
       </c>
       <c r="C75" s="4">
@@ -3443,7 +3443,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="59"/>
+      <c r="B76" s="66"/>
       <c r="C76" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -3472,7 +3472,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="59"/>
+      <c r="B77" s="66"/>
       <c r="C77" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -3501,7 +3501,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="59"/>
+      <c r="B78" s="66"/>
       <c r="C78" s="4">
         <v>0.96875</v>
       </c>
@@ -3530,7 +3530,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="59" t="s">
+      <c r="B79" s="66" t="s">
         <v>39</v>
       </c>
       <c r="C79" s="4">
@@ -3564,7 +3564,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="59"/>
+      <c r="B80" s="66"/>
       <c r="C80" s="4">
         <v>0.65625</v>
       </c>
@@ -3593,7 +3593,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="59" t="s">
+      <c r="B81" s="66" t="s">
         <v>41</v>
       </c>
       <c r="C81" s="4">
@@ -3624,7 +3624,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="59"/>
+      <c r="B82" s="66"/>
       <c r="C82" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -3653,7 +3653,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="59"/>
+      <c r="B83" s="66"/>
       <c r="C83" s="4">
         <v>0.69791666666666663</v>
       </c>
@@ -3682,7 +3682,7 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="59" t="s">
+      <c r="B84" s="66" t="s">
         <v>42</v>
       </c>
       <c r="C84" s="4">
@@ -3713,7 +3713,7 @@
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="59"/>
+      <c r="B85" s="66"/>
       <c r="C85" s="4">
         <v>0.61805555555555558</v>
       </c>
@@ -3742,7 +3742,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="59"/>
+      <c r="B86" s="66"/>
       <c r="C86" s="4">
         <v>0.86805555555555547</v>
       </c>
@@ -3771,7 +3771,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="59" t="s">
+      <c r="B87" s="66" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="4">
@@ -3802,7 +3802,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="59"/>
+      <c r="B88" s="66"/>
       <c r="C88" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -3862,7 +3862,7 @@
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="59" t="s">
+      <c r="B90" s="66" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="4">
@@ -3893,7 +3893,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="59"/>
+      <c r="B91" s="66"/>
       <c r="C91" s="4">
         <v>0.3576388888888889</v>
       </c>
@@ -3922,7 +3922,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="59"/>
+      <c r="B92" s="66"/>
       <c r="C92" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -3951,7 +3951,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="59"/>
+      <c r="B93" s="66"/>
       <c r="C93" s="4">
         <v>0.4548611111111111</v>
       </c>
@@ -3980,7 +3980,7 @@
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="59"/>
+      <c r="B94" s="66"/>
       <c r="C94" s="4">
         <v>0.48958333333333331</v>
       </c>
@@ -4009,7 +4009,7 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="59" t="s">
+      <c r="B95" s="66" t="s">
         <v>46</v>
       </c>
       <c r="C95" s="4">
@@ -4040,7 +4040,7 @@
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="59"/>
+      <c r="B96" s="66"/>
       <c r="C96" s="4">
         <v>0.5</v>
       </c>
@@ -4069,7 +4069,7 @@
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="59"/>
+      <c r="B97" s="66"/>
       <c r="C97" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -4098,7 +4098,7 @@
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="59" t="s">
+      <c r="B98" s="66" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="4">
@@ -4129,7 +4129,7 @@
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="59"/>
+      <c r="B99" s="66"/>
       <c r="C99" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4158,7 +4158,7 @@
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="59"/>
+      <c r="B100" s="66"/>
       <c r="C100" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -4187,7 +4187,7 @@
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="59" t="s">
+      <c r="B101" s="66" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="4">
@@ -4218,7 +4218,7 @@
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="59"/>
+      <c r="B102" s="66"/>
       <c r="C102" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4247,7 +4247,7 @@
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="59" t="s">
+      <c r="B103" s="66" t="s">
         <v>50</v>
       </c>
       <c r="C103" s="4">
@@ -4281,7 +4281,7 @@
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="59"/>
+      <c r="B104" s="66"/>
       <c r="C104" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -4310,7 +4310,7 @@
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="59"/>
+      <c r="B105" s="66"/>
       <c r="C105" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -4342,7 +4342,7 @@
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="59"/>
+      <c r="B106" s="66"/>
       <c r="C106" s="4">
         <v>0.70486111111111116</v>
       </c>
@@ -4371,7 +4371,7 @@
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="59" t="s">
+      <c r="B107" s="66" t="s">
         <v>51</v>
       </c>
       <c r="C107" s="4">
@@ -4402,7 +4402,7 @@
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="59"/>
+      <c r="B108" s="66"/>
       <c r="C108" s="4">
         <v>0.98958333333333337</v>
       </c>
@@ -4431,7 +4431,7 @@
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="59" t="s">
+      <c r="B109" s="66" t="s">
         <v>52</v>
       </c>
       <c r="C109" s="4">
@@ -4462,7 +4462,7 @@
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="59"/>
+      <c r="B110" s="66"/>
       <c r="C110" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -4491,7 +4491,7 @@
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="59"/>
+      <c r="B111" s="66"/>
       <c r="C111" s="4">
         <v>0.66319444444444442</v>
       </c>
@@ -4520,7 +4520,7 @@
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="59"/>
+      <c r="B112" s="66"/>
       <c r="C112" s="4">
         <v>0.73958333333333337</v>
       </c>
@@ -4549,7 +4549,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="59"/>
+      <c r="B113" s="66"/>
       <c r="C113" s="4">
         <v>0.80555555555555547</v>
       </c>
@@ -4578,7 +4578,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="59" t="s">
+      <c r="B114" s="66" t="s">
         <v>53</v>
       </c>
       <c r="C114" s="4">
@@ -4609,7 +4609,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="59"/>
+      <c r="B115" s="66"/>
       <c r="C115" s="4">
         <v>0.69097222222222221</v>
       </c>
@@ -4672,7 +4672,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="59" t="s">
+      <c r="B117" s="66" t="s">
         <v>55</v>
       </c>
       <c r="C117" s="4">
@@ -4703,7 +4703,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="59"/>
+      <c r="B118" s="66"/>
       <c r="C118" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4732,7 +4732,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="59"/>
+      <c r="B119" s="66"/>
       <c r="C119" s="4">
         <v>0.59375</v>
       </c>
@@ -4761,7 +4761,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="59"/>
+      <c r="B120" s="66"/>
       <c r="C120" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4790,7 +4790,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="62"/>
+      <c r="B121" s="69"/>
       <c r="C121" s="38">
         <v>0.77777777777777779</v>
       </c>
@@ -4839,10 +4839,10 @@
       <c r="B123" s="51"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
-      <c r="E123" s="60" t="s">
+      <c r="E123" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="F123" s="61" t="s">
+      <c r="F123" s="68" t="s">
         <v>18</v>
       </c>
       <c r="G123" s="17" t="s">
@@ -4865,8 +4865,8 @@
       <c r="D124" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="60"/>
-      <c r="F124" s="61"/>
+      <c r="E124" s="67"/>
+      <c r="F124" s="68"/>
       <c r="G124" s="12" t="s">
         <v>14</v>
       </c>
@@ -4940,7 +4940,7 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B127" s="57" t="s">
+      <c r="B127" s="65" t="s">
         <v>58</v>
       </c>
       <c r="C127" s="4">
@@ -4971,7 +4971,7 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B128" s="57"/>
+      <c r="B128" s="65"/>
       <c r="C128" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -5000,7 +5000,7 @@
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="57"/>
+      <c r="B129" s="65"/>
       <c r="C129" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -5029,7 +5029,7 @@
       </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="57"/>
+      <c r="B130" s="65"/>
       <c r="C130" s="4">
         <v>0.78472222222222221</v>
       </c>
@@ -5058,7 +5058,7 @@
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B131" s="57" t="s">
+      <c r="B131" s="65" t="s">
         <v>60</v>
       </c>
       <c r="C131" s="4">
@@ -5089,7 +5089,7 @@
       </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B132" s="57"/>
+      <c r="B132" s="65"/>
       <c r="C132" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -5118,7 +5118,7 @@
       </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B133" s="57"/>
+      <c r="B133" s="65"/>
       <c r="C133" s="4">
         <v>0.71180555555555547</v>
       </c>
@@ -5147,7 +5147,7 @@
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B134" s="57"/>
+      <c r="B134" s="65"/>
       <c r="C134" s="4">
         <v>0.84375</v>
       </c>
@@ -5176,7 +5176,7 @@
       </c>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B135" s="57" t="s">
+      <c r="B135" s="65" t="s">
         <v>61</v>
       </c>
       <c r="C135" s="4">
@@ -5207,7 +5207,7 @@
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B136" s="57"/>
+      <c r="B136" s="65"/>
       <c r="C136" s="4">
         <v>0.74305555555555547</v>
       </c>
@@ -5236,7 +5236,7 @@
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B137" s="57"/>
+      <c r="B137" s="65"/>
       <c r="C137" s="4">
         <v>0.79861111111111116</v>
       </c>
@@ -5265,7 +5265,7 @@
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B138" s="57" t="s">
+      <c r="B138" s="65" t="s">
         <v>62</v>
       </c>
       <c r="C138" s="4">
@@ -5296,7 +5296,7 @@
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B139" s="57"/>
+      <c r="B139" s="65"/>
       <c r="C139" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -5325,7 +5325,7 @@
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B140" s="57"/>
+      <c r="B140" s="65"/>
       <c r="C140" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -5354,7 +5354,7 @@
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B141" s="57"/>
+      <c r="B141" s="65"/>
       <c r="C141" s="4">
         <v>0.83680555555555547</v>
       </c>
@@ -5383,7 +5383,7 @@
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B142" s="57" t="s">
+      <c r="B142" s="65" t="s">
         <v>63</v>
       </c>
       <c r="C142" s="4">
@@ -5414,7 +5414,7 @@
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B143" s="57"/>
+      <c r="B143" s="65"/>
       <c r="C143" s="4">
         <v>0.72222222222222221</v>
       </c>
@@ -5443,7 +5443,7 @@
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B144" s="57"/>
+      <c r="B144" s="65"/>
       <c r="C144" s="4">
         <v>0.79166666666666663</v>
       </c>
@@ -5503,7 +5503,7 @@
       </c>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B146" s="57" t="s">
+      <c r="B146" s="65" t="s">
         <v>65</v>
       </c>
       <c r="C146" s="4">
@@ -5534,7 +5534,7 @@
       </c>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B147" s="57"/>
+      <c r="B147" s="65"/>
       <c r="C147" s="4">
         <v>0.66319444444444442</v>
       </c>
@@ -5563,7 +5563,7 @@
       </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B148" s="57"/>
+      <c r="B148" s="65"/>
       <c r="C148" s="4">
         <v>0.78125</v>
       </c>
@@ -5592,7 +5592,7 @@
       </c>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B149" s="57"/>
+      <c r="B149" s="65"/>
       <c r="C149" s="4">
         <v>0.86111111111111116</v>
       </c>
@@ -5629,7 +5629,7 @@
       <c r="H150" s="15"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B151" s="57" t="s">
+      <c r="B151" s="65" t="s">
         <v>66</v>
       </c>
       <c r="C151" s="4">
@@ -5663,7 +5663,7 @@
       </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B152" s="57"/>
+      <c r="B152" s="65"/>
       <c r="C152" s="4">
         <v>0.70486111111111116</v>
       </c>
@@ -5692,7 +5692,7 @@
       </c>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B153" s="57"/>
+      <c r="B153" s="65"/>
       <c r="C153" s="4">
         <v>0.75347222222222221</v>
       </c>
@@ -5721,7 +5721,7 @@
       </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B154" s="57"/>
+      <c r="B154" s="65"/>
       <c r="C154" s="4">
         <v>0.84375</v>
       </c>
@@ -5750,7 +5750,7 @@
       </c>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B155" s="57"/>
+      <c r="B155" s="65"/>
       <c r="C155" s="4">
         <v>0.95486111111111116</v>
       </c>
@@ -5779,7 +5779,7 @@
       </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B156" s="57" t="s">
+      <c r="B156" s="65" t="s">
         <v>68</v>
       </c>
       <c r="C156" s="4">
@@ -5810,7 +5810,7 @@
       </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B157" s="57"/>
+      <c r="B157" s="65"/>
       <c r="C157" s="4">
         <v>0.1388888888888889</v>
       </c>
@@ -5839,7 +5839,7 @@
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B158" s="57"/>
+      <c r="B158" s="65"/>
       <c r="C158" s="4">
         <v>0.4548611111111111</v>
       </c>
@@ -5868,7 +5868,7 @@
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B159" s="57"/>
+      <c r="B159" s="65"/>
       <c r="C159" s="4">
         <v>0.49305555555555558</v>
       </c>
@@ -5897,7 +5897,7 @@
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B160" s="57"/>
+      <c r="B160" s="65"/>
       <c r="C160" s="4">
         <v>0.55555555555555558</v>
       </c>
@@ -5926,7 +5926,7 @@
       </c>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B161" s="57"/>
+      <c r="B161" s="65"/>
       <c r="C161" s="4">
         <v>0.84027777777777779</v>
       </c>
@@ -5955,7 +5955,7 @@
       </c>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B162" s="57"/>
+      <c r="B162" s="65"/>
       <c r="C162" s="4">
         <v>0.875</v>
       </c>
@@ -5994,7 +5994,7 @@
       <c r="H163" s="15"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B164" s="57" t="s">
+      <c r="B164" s="65" t="s">
         <v>70</v>
       </c>
       <c r="C164" s="4">
@@ -6028,7 +6028,7 @@
       </c>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B165" s="57"/>
+      <c r="B165" s="65"/>
       <c r="C165" s="4">
         <v>0.57291666666666663</v>
       </c>
@@ -6057,7 +6057,7 @@
       </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B166" s="57"/>
+      <c r="B166" s="65"/>
       <c r="C166" s="4">
         <v>0.73263888888888884</v>
       </c>
@@ -6086,7 +6086,7 @@
       </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B167" s="57"/>
+      <c r="B167" s="65"/>
       <c r="C167" s="4">
         <v>0.75</v>
       </c>
@@ -6115,7 +6115,7 @@
       </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B168" s="57"/>
+      <c r="B168" s="65"/>
       <c r="C168" s="4">
         <v>0.82986111111111116</v>
       </c>
@@ -6144,7 +6144,7 @@
       </c>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B169" s="57"/>
+      <c r="B169" s="65"/>
       <c r="C169" s="4">
         <v>0.84722222222222221</v>
       </c>
@@ -6173,7 +6173,7 @@
       </c>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B170" s="57"/>
+      <c r="B170" s="65"/>
       <c r="C170" s="4">
         <v>0.93402777777777779</v>
       </c>
@@ -6213,7 +6213,7 @@
       <c r="H171" s="15"/>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B172" s="57" t="s">
+      <c r="B172" s="65" t="s">
         <v>74</v>
       </c>
       <c r="C172" s="4">
@@ -6247,7 +6247,7 @@
       </c>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B173" s="57"/>
+      <c r="B173" s="65"/>
       <c r="C173" s="4">
         <v>0.51041666666666663</v>
       </c>
@@ -6276,7 +6276,7 @@
       </c>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B174" s="57"/>
+      <c r="B174" s="65"/>
       <c r="C174" s="4">
         <v>0.54513888888888895</v>
       </c>
@@ -6305,7 +6305,7 @@
       </c>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B175" s="57" t="s">
+      <c r="B175" s="65" t="s">
         <v>75</v>
       </c>
       <c r="C175" s="4">
@@ -6336,7 +6336,7 @@
       </c>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B176" s="57"/>
+      <c r="B176" s="65"/>
       <c r="C176" s="4">
         <v>0.4548611111111111</v>
       </c>
@@ -6365,7 +6365,7 @@
       </c>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B177" s="57"/>
+      <c r="B177" s="65"/>
       <c r="C177" s="4">
         <v>0.52430555555555558</v>
       </c>
@@ -6394,7 +6394,7 @@
       </c>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B178" s="57" t="s">
+      <c r="B178" s="65" t="s">
         <v>76</v>
       </c>
       <c r="C178" s="4">
@@ -6425,7 +6425,7 @@
       </c>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B179" s="57"/>
+      <c r="B179" s="65"/>
       <c r="C179" s="4">
         <v>0.57638888888888895</v>
       </c>
@@ -6454,7 +6454,7 @@
       </c>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B180" s="57"/>
+      <c r="B180" s="65"/>
       <c r="C180" s="4">
         <v>0.71527777777777779</v>
       </c>
@@ -6483,7 +6483,7 @@
       </c>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B181" s="57"/>
+      <c r="B181" s="65"/>
       <c r="C181" s="4">
         <v>0.75</v>
       </c>
@@ -6512,7 +6512,7 @@
       </c>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B182" s="57"/>
+      <c r="B182" s="65"/>
       <c r="C182" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -6544,7 +6544,7 @@
       </c>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B183" s="57"/>
+      <c r="B183" s="65"/>
       <c r="C183" s="4">
         <v>0.78125</v>
       </c>
@@ -6573,7 +6573,7 @@
       </c>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B184" s="57" t="s">
+      <c r="B184" s="65" t="s">
         <v>78</v>
       </c>
       <c r="C184" s="4">
@@ -6604,7 +6604,7 @@
       </c>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B185" s="57"/>
+      <c r="B185" s="65"/>
       <c r="C185" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -6633,7 +6633,7 @@
       </c>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B186" s="57"/>
+      <c r="B186" s="65"/>
       <c r="C186" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -6662,7 +6662,7 @@
       </c>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B187" s="57"/>
+      <c r="B187" s="65"/>
       <c r="C187" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -6691,7 +6691,7 @@
       </c>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B188" s="57" t="s">
+      <c r="B188" s="65" t="s">
         <v>79</v>
       </c>
       <c r="C188" s="4">
@@ -6722,7 +6722,7 @@
       </c>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B189" s="57"/>
+      <c r="B189" s="65"/>
       <c r="C189" s="4">
         <v>0.4201388888888889</v>
       </c>
@@ -6751,7 +6751,7 @@
       </c>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B190" s="57"/>
+      <c r="B190" s="65"/>
       <c r="C190" s="4">
         <v>0.52777777777777779</v>
       </c>
@@ -6780,7 +6780,7 @@
       </c>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B191" s="57"/>
+      <c r="B191" s="65"/>
       <c r="C191" s="4">
         <v>0.64236111111111105</v>
       </c>
@@ -6809,7 +6809,7 @@
       </c>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B192" s="57"/>
+      <c r="B192" s="65"/>
       <c r="C192" s="4">
         <v>0.71527777777777779</v>
       </c>
@@ -6838,39 +6838,39 @@
       </c>
     </row>
     <row r="193" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B193" s="64" t="s">
+      <c r="B193" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="C193" s="65">
-        <v>0</v>
-      </c>
-      <c r="D193" s="66">
+      <c r="C193" s="58">
+        <v>0</v>
+      </c>
+      <c r="D193" s="59">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E193" s="67">
+      <c r="E193" s="60">
         <f t="shared" si="56"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="F193" s="68">
+      <c r="F193" s="61">
         <f t="shared" si="57"/>
         <v>1.6145833333333335</v>
       </c>
-      <c r="G193" s="69">
+      <c r="G193" s="62">
         <f t="shared" si="58"/>
         <v>1.6145833333333335</v>
       </c>
-      <c r="H193" s="69">
+      <c r="H193" s="62">
         <f t="shared" si="59"/>
         <v>3.6770833333333348</v>
       </c>
-      <c r="I193" s="70"/>
-      <c r="J193" s="71" t="s">
+      <c r="I193" s="63"/>
+      <c r="J193" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="K193" s="71"/>
-      <c r="L193" s="71"/>
-      <c r="M193" s="71"/>
-      <c r="N193" s="71"/>
+      <c r="K193" s="64"/>
+      <c r="L193" s="64"/>
+      <c r="M193" s="64"/>
+      <c r="N193" s="64"/>
     </row>
     <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" s="54" t="s">
@@ -6904,7 +6904,7 @@
       </c>
     </row>
     <row r="195" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B195" s="57" t="s">
+      <c r="B195" s="65" t="s">
         <v>82</v>
       </c>
       <c r="C195" s="4">
@@ -6935,7 +6935,7 @@
       </c>
     </row>
     <row r="196" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B196" s="57"/>
+      <c r="B196" s="65"/>
       <c r="C196" s="4">
         <v>0.41250000000000003</v>
       </c>
@@ -6964,7 +6964,7 @@
       </c>
     </row>
     <row r="197" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B197" s="57"/>
+      <c r="B197" s="65"/>
       <c r="C197" s="4">
         <v>0.50069444444444444</v>
       </c>
@@ -6993,7 +6993,7 @@
       </c>
     </row>
     <row r="198" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B198" s="57"/>
+      <c r="B198" s="65"/>
       <c r="C198" s="4">
         <v>0.57777777777777783</v>
       </c>
@@ -7022,7 +7022,7 @@
       </c>
     </row>
     <row r="199" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B199" s="57"/>
+      <c r="B199" s="65"/>
       <c r="C199" s="4">
         <v>0.66041666666666665</v>
       </c>
@@ -7051,7 +7051,7 @@
       </c>
     </row>
     <row r="200" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B200" s="57"/>
+      <c r="B200" s="65"/>
       <c r="C200" s="4">
         <v>0.75694444444444453</v>
       </c>
@@ -7080,7 +7080,7 @@
       </c>
     </row>
     <row r="201" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B201" s="57" t="s">
+      <c r="B201" s="65" t="s">
         <v>83</v>
       </c>
       <c r="C201" s="4">
@@ -7111,7 +7111,7 @@
       </c>
     </row>
     <row r="202" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B202" s="57"/>
+      <c r="B202" s="65"/>
       <c r="C202" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -7140,7 +7140,7 @@
       </c>
     </row>
     <row r="203" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B203" s="57"/>
+      <c r="B203" s="65"/>
       <c r="C203" s="4">
         <v>0.71944444444444444</v>
       </c>
@@ -7169,7 +7169,7 @@
       </c>
     </row>
     <row r="204" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B204" s="57" t="s">
+      <c r="B204" s="65" t="s">
         <v>84</v>
       </c>
       <c r="C204" s="4">
@@ -7200,7 +7200,7 @@
       </c>
     </row>
     <row r="205" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B205" s="57"/>
+      <c r="B205" s="65"/>
       <c r="C205" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -7229,7 +7229,7 @@
       </c>
     </row>
     <row r="206" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B206" s="57"/>
+      <c r="B206" s="65"/>
       <c r="C206" s="4">
         <v>0.64861111111111114</v>
       </c>
@@ -7258,7 +7258,7 @@
       </c>
     </row>
     <row r="207" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B207" s="57"/>
+      <c r="B207" s="65"/>
       <c r="C207" s="4">
         <v>0.65694444444444444</v>
       </c>
@@ -7287,7 +7287,7 @@
       </c>
     </row>
     <row r="208" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B208" s="57"/>
+      <c r="B208" s="65"/>
       <c r="C208" s="4">
         <v>0.68333333333333324</v>
       </c>
@@ -7316,7 +7316,7 @@
       </c>
     </row>
     <row r="209" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B209" s="57"/>
+      <c r="B209" s="65"/>
       <c r="C209" s="4">
         <v>0.72083333333333333</v>
       </c>
@@ -7345,7 +7345,7 @@
       </c>
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B210" s="57" t="s">
+      <c r="B210" s="65" t="s">
         <v>85</v>
       </c>
       <c r="C210" s="4">
@@ -7376,7 +7376,7 @@
       </c>
     </row>
     <row r="211" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B211" s="57"/>
+      <c r="B211" s="65"/>
       <c r="C211" s="4">
         <v>0.68819444444444444</v>
       </c>
@@ -7405,7 +7405,7 @@
       </c>
     </row>
     <row r="212" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B212" s="57"/>
+      <c r="B212" s="65"/>
       <c r="C212" s="4">
         <v>0.72430555555555554</v>
       </c>
@@ -7434,7 +7434,7 @@
       </c>
     </row>
     <row r="213" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B213" s="57" t="s">
+      <c r="B213" s="65" t="s">
         <v>86</v>
       </c>
       <c r="C213" s="4">
@@ -7465,7 +7465,7 @@
       </c>
     </row>
     <row r="214" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B214" s="57"/>
+      <c r="B214" s="65"/>
       <c r="C214" s="4">
         <v>0.69097222222222221</v>
       </c>
@@ -7494,7 +7494,7 @@
       </c>
     </row>
     <row r="215" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B215" s="57"/>
+      <c r="B215" s="65"/>
       <c r="C215" s="4">
         <v>0.73263888888888884</v>
       </c>
@@ -7523,7 +7523,7 @@
       </c>
     </row>
     <row r="216" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B216" s="57"/>
+      <c r="B216" s="65"/>
       <c r="C216" s="4">
         <v>0.7368055555555556</v>
       </c>
@@ -7552,7 +7552,7 @@
       </c>
     </row>
     <row r="217" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B217" s="57"/>
+      <c r="B217" s="65"/>
       <c r="C217" s="4">
         <v>0.82361111111111107</v>
       </c>
@@ -7581,7 +7581,7 @@
       </c>
     </row>
     <row r="218" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B218" s="57"/>
+      <c r="B218" s="65"/>
       <c r="C218" s="4">
         <v>0.83194444444444438</v>
       </c>
@@ -7610,7 +7610,7 @@
       </c>
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B219" s="57"/>
+      <c r="B219" s="65"/>
       <c r="C219" s="4">
         <v>0.87291666666666667</v>
       </c>
@@ -7639,7 +7639,7 @@
       </c>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B220" s="57" t="s">
+      <c r="B220" s="65" t="s">
         <v>87</v>
       </c>
       <c r="C220" s="4">
@@ -7671,7 +7671,7 @@
       <c r="K220" s="56"/>
     </row>
     <row r="221" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B221" s="57"/>
+      <c r="B221" s="65"/>
       <c r="C221" s="4">
         <v>0.41736111111111113</v>
       </c>
@@ -7700,7 +7700,7 @@
       </c>
     </row>
     <row r="222" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B222" s="57"/>
+      <c r="B222" s="65"/>
       <c r="C222" s="4">
         <v>0.48888888888888887</v>
       </c>
@@ -7729,7 +7729,7 @@
       </c>
     </row>
     <row r="223" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B223" s="57"/>
+      <c r="B223" s="65"/>
       <c r="C223" s="4">
         <v>0.50208333333333333</v>
       </c>
@@ -7758,7 +7758,7 @@
       </c>
     </row>
     <row r="224" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B224" s="57"/>
+      <c r="B224" s="65"/>
       <c r="C224" s="4">
         <v>0.62569444444444444</v>
       </c>
@@ -7787,7 +7787,7 @@
       </c>
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B225" s="57"/>
+      <c r="B225" s="65"/>
       <c r="C225" s="4">
         <v>0.66388888888888886</v>
       </c>
@@ -7816,7 +7816,7 @@
       </c>
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B226" s="57"/>
+      <c r="B226" s="65"/>
       <c r="C226" s="4">
         <v>0.70347222222222217</v>
       </c>
@@ -7845,7 +7845,7 @@
       </c>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B227" s="57"/>
+      <c r="B227" s="65"/>
       <c r="C227" s="4">
         <v>0.76736111111111116</v>
       </c>
@@ -7874,7 +7874,7 @@
       </c>
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B228" s="57" t="s">
+      <c r="B228" s="65" t="s">
         <v>88</v>
       </c>
       <c r="C228" s="4">
@@ -7905,7 +7905,7 @@
       </c>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B229" s="57"/>
+      <c r="B229" s="65"/>
       <c r="C229" s="4">
         <v>0.58194444444444449</v>
       </c>
@@ -7934,7 +7934,7 @@
       </c>
     </row>
     <row r="230" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B230" s="49" t="s">
+      <c r="B230" s="65" t="s">
         <v>89</v>
       </c>
       <c r="C230" s="4">
@@ -7965,6 +7965,7 @@
       </c>
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B231" s="65"/>
       <c r="C231" s="4">
         <v>0.64097222222222217</v>
       </c>
@@ -7993,6 +7994,7 @@
       </c>
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B232" s="65"/>
       <c r="C232" s="4">
         <v>0.69374999999999998</v>
       </c>
@@ -8021,51 +8023,61 @@
       </c>
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C233" s="4"/>
-      <c r="D233" s="18"/>
+      <c r="B233" s="65"/>
+      <c r="C233" s="4">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="D233" s="18">
+        <v>0.75902777777777775</v>
+      </c>
       <c r="E233" s="20">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>2.6388888888888906E-2</v>
       </c>
       <c r="F233" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1361111111111106</v>
       </c>
       <c r="G233" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1361111111111106</v>
       </c>
       <c r="H233" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.1986111111111155</v>
       </c>
       <c r="I233" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21210.33333333335</v>
       </c>
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C234" s="4"/>
-      <c r="D234" s="18"/>
+      <c r="B234" s="65"/>
+      <c r="C234" s="4">
+        <v>0.77569444444444446</v>
+      </c>
+      <c r="D234" s="18">
+        <v>0.79305555555555562</v>
+      </c>
       <c r="E234" s="20">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1.736111111111116E-2</v>
       </c>
       <c r="F234" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G234" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H234" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I234" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.25">
@@ -8077,19 +8089,19 @@
       </c>
       <c r="F235" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G235" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H235" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I235" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.25">
@@ -8101,19 +8113,19 @@
       </c>
       <c r="F236" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G236" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H236" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I236" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.25">
@@ -8125,19 +8137,19 @@
       </c>
       <c r="F237" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G237" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H237" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I237" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.25">
@@ -8149,19 +8161,19 @@
       </c>
       <c r="F238" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G238" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H238" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I238" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.25">
@@ -8173,19 +8185,19 @@
       </c>
       <c r="F239" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G239" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H239" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I239" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.25">
@@ -8197,19 +8209,19 @@
       </c>
       <c r="F240" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G240" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H240" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I240" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="241" spans="3:9" x14ac:dyDescent="0.25">
@@ -8221,19 +8233,19 @@
       </c>
       <c r="F241" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G241" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H241" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I241" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="242" spans="3:9" x14ac:dyDescent="0.25">
@@ -8245,19 +8257,19 @@
       </c>
       <c r="F242" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G242" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H242" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I242" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="243" spans="3:9" x14ac:dyDescent="0.25">
@@ -8269,19 +8281,19 @@
       </c>
       <c r="F243" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G243" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H243" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I243" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="244" spans="3:9" x14ac:dyDescent="0.25">
@@ -8293,19 +8305,19 @@
       </c>
       <c r="F244" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G244" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H244" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I244" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="245" spans="3:9" x14ac:dyDescent="0.25">
@@ -8317,19 +8329,19 @@
       </c>
       <c r="F245" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G245" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H245" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I245" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="246" spans="3:9" x14ac:dyDescent="0.25">
@@ -8341,19 +8353,19 @@
       </c>
       <c r="F246" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G246" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H246" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I246" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="247" spans="3:9" x14ac:dyDescent="0.25">
@@ -8365,19 +8377,19 @@
       </c>
       <c r="F247" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G247" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H247" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I247" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="248" spans="3:9" x14ac:dyDescent="0.25">
@@ -8389,19 +8401,19 @@
       </c>
       <c r="F248" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G248" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H248" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I248" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="249" spans="3:9" x14ac:dyDescent="0.25">
@@ -8413,19 +8425,19 @@
       </c>
       <c r="F249" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G249" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H249" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I249" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="250" spans="3:9" x14ac:dyDescent="0.25">
@@ -8437,19 +8449,19 @@
       </c>
       <c r="F250" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G250" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H250" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I250" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="251" spans="3:9" x14ac:dyDescent="0.25">
@@ -8461,19 +8473,19 @@
       </c>
       <c r="F251" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G251" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H251" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I251" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="252" spans="3:9" x14ac:dyDescent="0.25">
@@ -8485,19 +8497,19 @@
       </c>
       <c r="F252" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G252" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H252" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I252" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="253" spans="3:9" x14ac:dyDescent="0.25">
@@ -8509,19 +8521,19 @@
       </c>
       <c r="F253" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G253" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H253" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I253" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="254" spans="3:9" x14ac:dyDescent="0.25">
@@ -8533,19 +8545,19 @@
       </c>
       <c r="F254" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G254" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H254" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I254" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="255" spans="3:9" x14ac:dyDescent="0.25">
@@ -8557,19 +8569,19 @@
       </c>
       <c r="F255" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G255" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H255" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I255" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="256" spans="3:9" x14ac:dyDescent="0.25">
@@ -8581,19 +8593,19 @@
       </c>
       <c r="F256" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G256" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H256" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I256" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="257" spans="3:9" x14ac:dyDescent="0.25">
@@ -8605,19 +8617,19 @@
       </c>
       <c r="F257" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G257" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H257" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I257" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="258" spans="3:9" x14ac:dyDescent="0.25">
@@ -8629,19 +8641,19 @@
       </c>
       <c r="F258" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G258" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H258" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I258" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="259" spans="3:9" x14ac:dyDescent="0.25">
@@ -8653,19 +8665,19 @@
       </c>
       <c r="F259" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G259" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H259" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I259" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="260" spans="3:9" x14ac:dyDescent="0.25">
@@ -8677,19 +8689,19 @@
       </c>
       <c r="F260" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G260" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H260" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I260" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="261" spans="3:9" x14ac:dyDescent="0.25">
@@ -8701,19 +8713,19 @@
       </c>
       <c r="F261" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G261" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H261" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I261" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="262" spans="3:9" x14ac:dyDescent="0.25">
@@ -8725,19 +8737,19 @@
       </c>
       <c r="F262" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G262" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H262" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I262" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="263" spans="3:9" x14ac:dyDescent="0.25">
@@ -8749,19 +8761,19 @@
       </c>
       <c r="F263" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G263" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H263" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I263" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="264" spans="3:9" x14ac:dyDescent="0.25">
@@ -8773,19 +8785,19 @@
       </c>
       <c r="F264" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G264" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H264" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I264" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="265" spans="3:9" x14ac:dyDescent="0.25">
@@ -8797,19 +8809,19 @@
       </c>
       <c r="F265" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G265" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H265" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I265" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="266" spans="3:9" x14ac:dyDescent="0.25">
@@ -8821,19 +8833,19 @@
       </c>
       <c r="F266" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G266" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H266" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I266" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="267" spans="3:9" x14ac:dyDescent="0.25">
@@ -8845,19 +8857,19 @@
       </c>
       <c r="F267" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G267" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H267" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I267" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="268" spans="3:9" x14ac:dyDescent="0.25">
@@ -8869,19 +8881,19 @@
       </c>
       <c r="F268" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G268" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H268" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I268" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="269" spans="3:9" x14ac:dyDescent="0.25">
@@ -8893,19 +8905,19 @@
       </c>
       <c r="F269" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G269" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H269" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I269" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="270" spans="3:9" x14ac:dyDescent="0.25">
@@ -8917,19 +8929,19 @@
       </c>
       <c r="F270" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G270" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H270" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I270" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="271" spans="3:9" x14ac:dyDescent="0.25">
@@ -8941,19 +8953,19 @@
       </c>
       <c r="F271" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G271" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H271" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I271" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="272" spans="3:9" x14ac:dyDescent="0.25">
@@ -8965,19 +8977,19 @@
       </c>
       <c r="F272" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G272" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H272" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I272" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="273" spans="3:9" x14ac:dyDescent="0.25">
@@ -8989,19 +9001,19 @@
       </c>
       <c r="F273" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G273" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H273" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I273" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="274" spans="3:9" x14ac:dyDescent="0.25">
@@ -9013,19 +9025,19 @@
       </c>
       <c r="F274" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G274" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H274" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I274" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="275" spans="3:9" x14ac:dyDescent="0.25">
@@ -9037,19 +9049,19 @@
       </c>
       <c r="F275" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G275" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H275" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I275" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="276" spans="3:9" x14ac:dyDescent="0.25">
@@ -9061,19 +9073,19 @@
       </c>
       <c r="F276" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G276" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H276" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I276" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="277" spans="3:9" x14ac:dyDescent="0.25">
@@ -9085,19 +9097,19 @@
       </c>
       <c r="F277" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G277" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H277" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I277" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="278" spans="3:9" x14ac:dyDescent="0.25">
@@ -9109,19 +9121,19 @@
       </c>
       <c r="F278" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G278" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H278" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I278" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="279" spans="3:9" x14ac:dyDescent="0.25">
@@ -9133,19 +9145,19 @@
       </c>
       <c r="F279" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G279" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H279" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I279" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="280" spans="3:9" x14ac:dyDescent="0.25">
@@ -9157,19 +9169,19 @@
       </c>
       <c r="F280" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G280" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H280" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I280" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="281" spans="3:9" x14ac:dyDescent="0.25">
@@ -9181,19 +9193,19 @@
       </c>
       <c r="F281" s="21">
         <f t="shared" si="67"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G281" s="15">
         <f t="shared" si="68"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H281" s="15">
         <f t="shared" si="69"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I281" s="23">
         <f t="shared" si="70"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="282" spans="3:9" x14ac:dyDescent="0.25">
@@ -9205,19 +9217,19 @@
       </c>
       <c r="F282" s="21">
         <f t="shared" ref="F282:F342" si="72">F281+E282</f>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G282" s="15">
         <f t="shared" ref="G282:G342" si="73">F282</f>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H282" s="15">
         <f t="shared" ref="H282:H342" si="74">(H281+G282-G281)</f>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I282" s="23">
         <f t="shared" ref="I282:I342" si="75">H282*24*$J$32</f>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="283" spans="3:9" x14ac:dyDescent="0.25">
@@ -9229,19 +9241,19 @@
       </c>
       <c r="F283" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G283" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H283" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I283" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="284" spans="3:9" x14ac:dyDescent="0.25">
@@ -9253,19 +9265,19 @@
       </c>
       <c r="F284" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G284" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H284" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I284" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="285" spans="3:9" x14ac:dyDescent="0.25">
@@ -9277,19 +9289,19 @@
       </c>
       <c r="F285" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G285" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H285" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I285" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="286" spans="3:9" x14ac:dyDescent="0.25">
@@ -9301,19 +9313,19 @@
       </c>
       <c r="F286" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G286" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H286" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I286" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="287" spans="3:9" x14ac:dyDescent="0.25">
@@ -9325,19 +9337,19 @@
       </c>
       <c r="F287" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G287" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H287" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I287" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="288" spans="3:9" x14ac:dyDescent="0.25">
@@ -9349,19 +9361,19 @@
       </c>
       <c r="F288" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G288" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H288" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I288" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="289" spans="3:9" x14ac:dyDescent="0.25">
@@ -9373,19 +9385,19 @@
       </c>
       <c r="F289" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G289" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H289" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I289" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="290" spans="3:9" x14ac:dyDescent="0.25">
@@ -9397,19 +9409,19 @@
       </c>
       <c r="F290" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G290" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H290" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I290" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="291" spans="3:9" x14ac:dyDescent="0.25">
@@ -9421,19 +9433,19 @@
       </c>
       <c r="F291" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G291" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H291" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I291" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="292" spans="3:9" x14ac:dyDescent="0.25">
@@ -9445,19 +9457,19 @@
       </c>
       <c r="F292" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G292" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H292" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I292" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="293" spans="3:9" x14ac:dyDescent="0.25">
@@ -9469,19 +9481,19 @@
       </c>
       <c r="F293" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G293" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H293" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I293" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="294" spans="3:9" x14ac:dyDescent="0.25">
@@ -9493,19 +9505,19 @@
       </c>
       <c r="F294" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G294" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H294" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I294" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="295" spans="3:9" x14ac:dyDescent="0.25">
@@ -9517,19 +9529,19 @@
       </c>
       <c r="F295" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G295" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H295" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I295" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="296" spans="3:9" x14ac:dyDescent="0.25">
@@ -9541,19 +9553,19 @@
       </c>
       <c r="F296" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G296" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H296" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I296" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="297" spans="3:9" x14ac:dyDescent="0.25">
@@ -9565,19 +9577,19 @@
       </c>
       <c r="F297" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G297" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H297" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I297" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="298" spans="3:9" x14ac:dyDescent="0.25">
@@ -9589,19 +9601,19 @@
       </c>
       <c r="F298" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G298" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H298" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I298" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="299" spans="3:9" x14ac:dyDescent="0.25">
@@ -9613,19 +9625,19 @@
       </c>
       <c r="F299" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G299" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H299" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I299" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="300" spans="3:9" x14ac:dyDescent="0.25">
@@ -9637,19 +9649,19 @@
       </c>
       <c r="F300" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G300" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H300" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I300" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="301" spans="3:9" x14ac:dyDescent="0.25">
@@ -9661,19 +9673,19 @@
       </c>
       <c r="F301" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G301" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H301" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I301" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="302" spans="3:9" x14ac:dyDescent="0.25">
@@ -9685,19 +9697,19 @@
       </c>
       <c r="F302" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G302" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H302" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I302" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="303" spans="3:9" x14ac:dyDescent="0.25">
@@ -9709,19 +9721,19 @@
       </c>
       <c r="F303" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G303" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H303" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I303" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="304" spans="3:9" x14ac:dyDescent="0.25">
@@ -9733,19 +9745,19 @@
       </c>
       <c r="F304" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G304" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H304" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I304" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="305" spans="3:9" x14ac:dyDescent="0.25">
@@ -9757,19 +9769,19 @@
       </c>
       <c r="F305" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G305" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H305" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I305" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="306" spans="3:9" x14ac:dyDescent="0.25">
@@ -9781,19 +9793,19 @@
       </c>
       <c r="F306" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G306" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H306" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I306" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="307" spans="3:9" x14ac:dyDescent="0.25">
@@ -9805,19 +9817,19 @@
       </c>
       <c r="F307" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G307" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H307" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I307" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="308" spans="3:9" x14ac:dyDescent="0.25">
@@ -9829,19 +9841,19 @@
       </c>
       <c r="F308" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G308" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H308" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I308" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="309" spans="3:9" x14ac:dyDescent="0.25">
@@ -9853,19 +9865,19 @@
       </c>
       <c r="F309" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G309" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H309" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I309" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="310" spans="3:9" x14ac:dyDescent="0.25">
@@ -9877,19 +9889,19 @@
       </c>
       <c r="F310" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G310" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H310" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I310" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="311" spans="3:9" x14ac:dyDescent="0.25">
@@ -9901,19 +9913,19 @@
       </c>
       <c r="F311" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G311" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H311" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I311" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="312" spans="3:9" x14ac:dyDescent="0.25">
@@ -9925,19 +9937,19 @@
       </c>
       <c r="F312" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G312" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H312" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I312" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="313" spans="3:9" x14ac:dyDescent="0.25">
@@ -9949,19 +9961,19 @@
       </c>
       <c r="F313" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G313" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H313" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I313" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="314" spans="3:9" x14ac:dyDescent="0.25">
@@ -9973,19 +9985,19 @@
       </c>
       <c r="F314" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G314" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H314" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I314" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="315" spans="3:9" x14ac:dyDescent="0.25">
@@ -9997,19 +10009,19 @@
       </c>
       <c r="F315" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G315" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H315" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I315" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="316" spans="3:9" x14ac:dyDescent="0.25">
@@ -10021,19 +10033,19 @@
       </c>
       <c r="F316" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G316" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H316" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I316" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="317" spans="3:9" x14ac:dyDescent="0.25">
@@ -10045,19 +10057,19 @@
       </c>
       <c r="F317" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G317" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H317" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I317" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="318" spans="3:9" x14ac:dyDescent="0.25">
@@ -10069,19 +10081,19 @@
       </c>
       <c r="F318" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G318" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H318" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I318" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="319" spans="3:9" x14ac:dyDescent="0.25">
@@ -10093,19 +10105,19 @@
       </c>
       <c r="F319" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G319" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H319" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I319" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="320" spans="3:9" x14ac:dyDescent="0.25">
@@ -10117,19 +10129,19 @@
       </c>
       <c r="F320" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G320" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H320" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I320" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="321" spans="3:9" x14ac:dyDescent="0.25">
@@ -10141,19 +10153,19 @@
       </c>
       <c r="F321" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G321" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H321" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I321" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="322" spans="3:9" x14ac:dyDescent="0.25">
@@ -10165,19 +10177,19 @@
       </c>
       <c r="F322" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G322" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H322" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I322" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="323" spans="3:9" x14ac:dyDescent="0.25">
@@ -10189,19 +10201,19 @@
       </c>
       <c r="F323" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G323" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H323" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I323" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="324" spans="3:9" x14ac:dyDescent="0.25">
@@ -10213,19 +10225,19 @@
       </c>
       <c r="F324" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G324" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H324" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I324" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="325" spans="3:9" x14ac:dyDescent="0.25">
@@ -10237,19 +10249,19 @@
       </c>
       <c r="F325" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G325" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H325" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I325" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="326" spans="3:9" x14ac:dyDescent="0.25">
@@ -10261,19 +10273,19 @@
       </c>
       <c r="F326" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G326" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H326" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I326" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="327" spans="3:9" x14ac:dyDescent="0.25">
@@ -10285,19 +10297,19 @@
       </c>
       <c r="F327" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G327" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H327" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I327" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="328" spans="3:9" x14ac:dyDescent="0.25">
@@ -10309,19 +10321,19 @@
       </c>
       <c r="F328" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G328" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H328" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I328" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="329" spans="3:9" x14ac:dyDescent="0.25">
@@ -10333,19 +10345,19 @@
       </c>
       <c r="F329" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G329" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H329" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I329" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="330" spans="3:9" x14ac:dyDescent="0.25">
@@ -10357,19 +10369,19 @@
       </c>
       <c r="F330" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G330" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H330" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I330" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="331" spans="3:9" x14ac:dyDescent="0.25">
@@ -10381,19 +10393,19 @@
       </c>
       <c r="F331" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G331" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H331" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I331" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="332" spans="3:9" x14ac:dyDescent="0.25">
@@ -10405,19 +10417,19 @@
       </c>
       <c r="F332" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G332" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H332" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I332" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="333" spans="3:9" x14ac:dyDescent="0.25">
@@ -10429,19 +10441,19 @@
       </c>
       <c r="F333" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G333" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H333" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I333" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="334" spans="3:9" x14ac:dyDescent="0.25">
@@ -10453,19 +10465,19 @@
       </c>
       <c r="F334" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G334" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H334" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I334" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="335" spans="3:9" x14ac:dyDescent="0.25">
@@ -10477,19 +10489,19 @@
       </c>
       <c r="F335" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G335" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H335" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I335" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="336" spans="3:9" x14ac:dyDescent="0.25">
@@ -10501,19 +10513,19 @@
       </c>
       <c r="F336" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G336" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H336" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I336" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="337" spans="3:9" x14ac:dyDescent="0.25">
@@ -10525,19 +10537,19 @@
       </c>
       <c r="F337" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G337" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H337" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I337" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="338" spans="3:9" x14ac:dyDescent="0.25">
@@ -10549,19 +10561,19 @@
       </c>
       <c r="F338" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G338" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H338" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I338" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="339" spans="3:9" x14ac:dyDescent="0.25">
@@ -10573,19 +10585,19 @@
       </c>
       <c r="F339" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G339" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H339" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I339" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="340" spans="3:9" x14ac:dyDescent="0.25">
@@ -10597,19 +10609,19 @@
       </c>
       <c r="F340" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G340" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H340" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I340" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="341" spans="3:9" x14ac:dyDescent="0.25">
@@ -10621,19 +10633,19 @@
       </c>
       <c r="F341" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G341" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H341" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I341" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
     <row r="342" spans="3:9" x14ac:dyDescent="0.25">
@@ -10645,23 +10657,65 @@
       </c>
       <c r="F342" s="21">
         <f t="shared" si="72"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="G342" s="15">
         <f t="shared" si="73"/>
-        <v>3.1097222222222216</v>
+        <v>3.1534722222222218</v>
       </c>
       <c r="H342" s="15">
         <f t="shared" si="74"/>
-        <v>5.1722222222222269</v>
+        <v>5.2159722222222253</v>
       </c>
       <c r="I342" s="23">
         <f t="shared" si="75"/>
-        <v>21102.666666666686</v>
+        <v>21281.166666666679</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="58">
+    <mergeCell ref="B230:B234"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="B204:B209"/>
+    <mergeCell ref="B213:B219"/>
+    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B188:B192"/>
+    <mergeCell ref="B164:B170"/>
+    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="B156:B162"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
     <mergeCell ref="B228:B229"/>
     <mergeCell ref="B220:B227"/>
     <mergeCell ref="B146:B149"/>
@@ -10678,47 +10732,6 @@
     <mergeCell ref="B107:B108"/>
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="B109:B113"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B164:B170"/>
-    <mergeCell ref="B151:B155"/>
-    <mergeCell ref="B156:B162"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="K13:K17"/>
-    <mergeCell ref="K18:K22"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B47:B53"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="B178:B183"/>
-    <mergeCell ref="B184:B187"/>
-    <mergeCell ref="B188:B192"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="B204:B209"/>
-    <mergeCell ref="B213:B219"/>
-    <mergeCell ref="B201:B203"/>
-    <mergeCell ref="B195:B200"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8718453-4C7C-4745-9437-C5C052B2800A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37CCCB9-77A0-4CBC-A425-DF44F6C083DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="1305" windowWidth="14670" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -804,6 +804,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -818,9 +821,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1163,7 +1163,7 @@
   <dimension ref="A1:X342"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="M230" sqref="M230"/>
+      <selection activeCell="B230" sqref="B230:B236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,10 +1185,10 @@
       <c r="B1" s="51"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="69" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -1209,8 +1209,8 @@
       <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>16716.666666666664</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="71"/>
+      <c r="K13" s="66"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
@@ -1406,7 +1406,7 @@
       <c r="X13" s="6"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="67" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="4">
@@ -1436,7 +1436,7 @@
         <v>16915</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="71"/>
+      <c r="K14" s="66"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
@@ -1452,7 +1452,7 @@
       <c r="X14" s="6"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="66"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>17184.166666666664</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="71"/>
+      <c r="K15" s="66"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
@@ -1496,7 +1496,7 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="66"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>17269.166666666664</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="71"/>
+      <c r="K16" s="66"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
@@ -1540,7 +1540,7 @@
       <c r="X16" s="6"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="66"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="4">
         <v>0.80208333333333337</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>17524.166666666664</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="71"/>
+      <c r="K17" s="66"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
@@ -1584,7 +1584,7 @@
       <c r="X17" s="6"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="66"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="4">
         <v>0.875</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>17651.666666666664</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="71"/>
+      <c r="K18" s="66"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
@@ -1628,7 +1628,7 @@
       <c r="X18" s="6"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="67" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="4">
@@ -1658,7 +1658,7 @@
         <v>17878.333333333332</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="71"/>
+      <c r="K19" s="66"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
@@ -1674,7 +1674,7 @@
       <c r="X19" s="6"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="66"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>18246.666666666664</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="71"/>
+      <c r="K20" s="66"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
@@ -1718,7 +1718,7 @@
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="66"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>18388.333333333332</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="71"/>
+      <c r="K21" s="66"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
@@ -1762,7 +1762,7 @@
       <c r="X21" s="6"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="66"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="4">
         <v>0.75</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>18515.833333333332</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="71"/>
+      <c r="K22" s="66"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="9"/>
@@ -1806,7 +1806,7 @@
       <c r="X22" s="6"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="66"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -1850,7 +1850,7 @@
       <c r="X23" s="6"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="71" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="4">
@@ -1896,7 +1896,7 @@
       <c r="X24" s="6"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="70"/>
+      <c r="B25" s="71"/>
       <c r="C25" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -1940,7 +1940,7 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="70"/>
+      <c r="B26" s="71"/>
       <c r="C26" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1984,7 +1984,7 @@
       <c r="X26" s="6"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="70"/>
+      <c r="B27" s="71"/>
       <c r="C27" s="4">
         <v>0.83333333333333337</v>
       </c>
@@ -2028,7 +2028,7 @@
       <c r="X27" s="6"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="67" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="4">
@@ -2074,7 +2074,7 @@
       <c r="X28" s="6"/>
     </row>
     <row r="29" spans="2:24" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="69"/>
+      <c r="B29" s="70"/>
       <c r="C29" s="27">
         <v>0.61111111111111105</v>
       </c>
@@ -2119,10 +2119,10 @@
       <c r="B31" s="51"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="67" t="s">
+      <c r="E31" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="68" t="s">
+      <c r="F31" s="69" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="17" t="s">
@@ -2143,8 +2143,8 @@
       <c r="D32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="69"/>
       <c r="G32" s="12" t="s">
         <v>14</v>
       </c>
@@ -2159,7 +2159,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="67" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="24">
@@ -2190,7 +2190,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="66"/>
+      <c r="B34" s="67"/>
       <c r="C34" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -2219,7 +2219,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="66"/>
+      <c r="B35" s="67"/>
       <c r="C35" s="4">
         <v>0.67013888888888884</v>
       </c>
@@ -2279,7 +2279,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="67" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="4">
@@ -2310,7 +2310,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="66"/>
+      <c r="B38" s="67"/>
       <c r="C38" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -2339,7 +2339,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="66"/>
+      <c r="B39" s="67"/>
       <c r="C39" s="4">
         <v>0.77777777777777779</v>
       </c>
@@ -2368,7 +2368,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="66"/>
+      <c r="B40" s="67"/>
       <c r="C40" s="4">
         <v>0.93055555555555547</v>
       </c>
@@ -2397,7 +2397,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="67" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="4">
@@ -2428,7 +2428,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="66"/>
+      <c r="B42" s="67"/>
       <c r="C42" s="4">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -2457,7 +2457,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="66"/>
+      <c r="B43" s="67"/>
       <c r="C43" s="4">
         <v>0.60069444444444442</v>
       </c>
@@ -2486,7 +2486,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="66"/>
+      <c r="B44" s="67"/>
       <c r="C44" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2515,7 +2515,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="66"/>
+      <c r="B45" s="67"/>
       <c r="C45" s="4">
         <v>0.78472222222222221</v>
       </c>
@@ -2544,7 +2544,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="66"/>
+      <c r="B46" s="67"/>
       <c r="C46" s="4">
         <v>0.92708333333333337</v>
       </c>
@@ -2573,7 +2573,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="67" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="4">
@@ -2604,7 +2604,7 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="66"/>
+      <c r="B48" s="67"/>
       <c r="C48" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -2633,7 +2633,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="66"/>
+      <c r="B49" s="67"/>
       <c r="C49" s="4">
         <v>0.74305555555555547</v>
       </c>
@@ -2662,7 +2662,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="66"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="4">
         <v>0.78819444444444453</v>
       </c>
@@ -2691,7 +2691,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="66"/>
+      <c r="B51" s="67"/>
       <c r="C51" s="4">
         <v>0.81597222222222221</v>
       </c>
@@ -2720,7 +2720,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="66"/>
+      <c r="B52" s="67"/>
       <c r="C52" s="4">
         <v>0.89583333333333337</v>
       </c>
@@ -2752,7 +2752,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="66"/>
+      <c r="B53" s="67"/>
       <c r="C53" s="4">
         <v>0.99652777777777779</v>
       </c>
@@ -2784,7 +2784,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="66" t="s">
+      <c r="B54" s="67" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="4">
@@ -2818,7 +2818,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="66"/>
+      <c r="B55" s="67"/>
       <c r="C55" s="4">
         <v>0.19444444444444445</v>
       </c>
@@ -2847,7 +2847,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="66"/>
+      <c r="B56" s="67"/>
       <c r="C56" s="4">
         <v>0.625</v>
       </c>
@@ -2876,7 +2876,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="66"/>
+      <c r="B57" s="67"/>
       <c r="C57" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -2905,7 +2905,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="66"/>
+      <c r="B58" s="67"/>
       <c r="C58" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -2934,7 +2934,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="66"/>
+      <c r="B59" s="67"/>
       <c r="C59" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -2994,7 +2994,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="66" t="s">
+      <c r="B61" s="67" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="4">
@@ -3025,7 +3025,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="66"/>
+      <c r="B62" s="67"/>
       <c r="C62" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -3054,7 +3054,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="66" t="s">
+      <c r="B63" s="67" t="s">
         <v>33</v>
       </c>
       <c r="C63" s="4">
@@ -3085,7 +3085,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="66"/>
+      <c r="B64" s="67"/>
       <c r="C64" s="4">
         <v>0.86111111111111116</v>
       </c>
@@ -3114,7 +3114,7 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="66"/>
+      <c r="B65" s="67"/>
       <c r="C65" s="4">
         <v>0.88888888888888884</v>
       </c>
@@ -3143,7 +3143,7 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="66" t="s">
+      <c r="B66" s="67" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="4">
@@ -3174,7 +3174,7 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="66"/>
+      <c r="B67" s="67"/>
       <c r="C67" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -3203,7 +3203,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="66"/>
+      <c r="B68" s="67"/>
       <c r="C68" s="4">
         <v>0.89930555555555547</v>
       </c>
@@ -3232,7 +3232,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="66"/>
+      <c r="B69" s="67"/>
       <c r="C69" s="4">
         <v>0.92361111111111116</v>
       </c>
@@ -3261,7 +3261,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="66" t="s">
+      <c r="B70" s="67" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="4">
@@ -3292,7 +3292,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="66"/>
+      <c r="B71" s="67"/>
       <c r="C71" s="4">
         <v>0.72222222222222221</v>
       </c>
@@ -3352,7 +3352,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="66" t="s">
+      <c r="B73" s="67" t="s">
         <v>37</v>
       </c>
       <c r="C73" s="4">
@@ -3383,7 +3383,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="66"/>
+      <c r="B74" s="67"/>
       <c r="C74" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -3412,7 +3412,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="66" t="s">
+      <c r="B75" s="67" t="s">
         <v>38</v>
       </c>
       <c r="C75" s="4">
@@ -3443,7 +3443,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="66"/>
+      <c r="B76" s="67"/>
       <c r="C76" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -3472,7 +3472,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="66"/>
+      <c r="B77" s="67"/>
       <c r="C77" s="4">
         <v>0.79513888888888884</v>
       </c>
@@ -3501,7 +3501,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="66"/>
+      <c r="B78" s="67"/>
       <c r="C78" s="4">
         <v>0.96875</v>
       </c>
@@ -3530,7 +3530,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="66" t="s">
+      <c r="B79" s="67" t="s">
         <v>39</v>
       </c>
       <c r="C79" s="4">
@@ -3564,7 +3564,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="66"/>
+      <c r="B80" s="67"/>
       <c r="C80" s="4">
         <v>0.65625</v>
       </c>
@@ -3593,7 +3593,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="66" t="s">
+      <c r="B81" s="67" t="s">
         <v>41</v>
       </c>
       <c r="C81" s="4">
@@ -3624,7 +3624,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="66"/>
+      <c r="B82" s="67"/>
       <c r="C82" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -3653,7 +3653,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="66"/>
+      <c r="B83" s="67"/>
       <c r="C83" s="4">
         <v>0.69791666666666663</v>
       </c>
@@ -3682,7 +3682,7 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="66" t="s">
+      <c r="B84" s="67" t="s">
         <v>42</v>
       </c>
       <c r="C84" s="4">
@@ -3713,7 +3713,7 @@
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="66"/>
+      <c r="B85" s="67"/>
       <c r="C85" s="4">
         <v>0.61805555555555558</v>
       </c>
@@ -3742,7 +3742,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="66"/>
+      <c r="B86" s="67"/>
       <c r="C86" s="4">
         <v>0.86805555555555547</v>
       </c>
@@ -3771,7 +3771,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="66" t="s">
+      <c r="B87" s="67" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="4">
@@ -3802,7 +3802,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="66"/>
+      <c r="B88" s="67"/>
       <c r="C88" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -3862,7 +3862,7 @@
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="66" t="s">
+      <c r="B90" s="67" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="4">
@@ -3893,7 +3893,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="66"/>
+      <c r="B91" s="67"/>
       <c r="C91" s="4">
         <v>0.3576388888888889</v>
       </c>
@@ -3922,7 +3922,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="66"/>
+      <c r="B92" s="67"/>
       <c r="C92" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -3951,7 +3951,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="66"/>
+      <c r="B93" s="67"/>
       <c r="C93" s="4">
         <v>0.4548611111111111</v>
       </c>
@@ -3980,7 +3980,7 @@
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="66"/>
+      <c r="B94" s="67"/>
       <c r="C94" s="4">
         <v>0.48958333333333331</v>
       </c>
@@ -4009,7 +4009,7 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="66" t="s">
+      <c r="B95" s="67" t="s">
         <v>46</v>
       </c>
       <c r="C95" s="4">
@@ -4040,7 +4040,7 @@
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="66"/>
+      <c r="B96" s="67"/>
       <c r="C96" s="4">
         <v>0.5</v>
       </c>
@@ -4069,7 +4069,7 @@
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="66"/>
+      <c r="B97" s="67"/>
       <c r="C97" s="4">
         <v>0.70138888888888884</v>
       </c>
@@ -4098,7 +4098,7 @@
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="66" t="s">
+      <c r="B98" s="67" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="4">
@@ -4129,7 +4129,7 @@
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="66"/>
+      <c r="B99" s="67"/>
       <c r="C99" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4158,7 +4158,7 @@
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="66"/>
+      <c r="B100" s="67"/>
       <c r="C100" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -4187,7 +4187,7 @@
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="66" t="s">
+      <c r="B101" s="67" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="4">
@@ -4218,7 +4218,7 @@
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="66"/>
+      <c r="B102" s="67"/>
       <c r="C102" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4247,7 +4247,7 @@
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="66" t="s">
+      <c r="B103" s="67" t="s">
         <v>50</v>
       </c>
       <c r="C103" s="4">
@@ -4281,7 +4281,7 @@
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="66"/>
+      <c r="B104" s="67"/>
       <c r="C104" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -4310,7 +4310,7 @@
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="66"/>
+      <c r="B105" s="67"/>
       <c r="C105" s="4">
         <v>0.68055555555555547</v>
       </c>
@@ -4342,7 +4342,7 @@
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="66"/>
+      <c r="B106" s="67"/>
       <c r="C106" s="4">
         <v>0.70486111111111116</v>
       </c>
@@ -4371,7 +4371,7 @@
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="66" t="s">
+      <c r="B107" s="67" t="s">
         <v>51</v>
       </c>
       <c r="C107" s="4">
@@ -4402,7 +4402,7 @@
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="66"/>
+      <c r="B108" s="67"/>
       <c r="C108" s="4">
         <v>0.98958333333333337</v>
       </c>
@@ -4431,7 +4431,7 @@
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="66" t="s">
+      <c r="B109" s="67" t="s">
         <v>52</v>
       </c>
       <c r="C109" s="4">
@@ -4462,7 +4462,7 @@
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="66"/>
+      <c r="B110" s="67"/>
       <c r="C110" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -4491,7 +4491,7 @@
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="66"/>
+      <c r="B111" s="67"/>
       <c r="C111" s="4">
         <v>0.66319444444444442</v>
       </c>
@@ -4520,7 +4520,7 @@
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="66"/>
+      <c r="B112" s="67"/>
       <c r="C112" s="4">
         <v>0.73958333333333337</v>
       </c>
@@ -4549,7 +4549,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="66"/>
+      <c r="B113" s="67"/>
       <c r="C113" s="4">
         <v>0.80555555555555547</v>
       </c>
@@ -4578,7 +4578,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="66" t="s">
+      <c r="B114" s="67" t="s">
         <v>53</v>
       </c>
       <c r="C114" s="4">
@@ -4609,7 +4609,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="66"/>
+      <c r="B115" s="67"/>
       <c r="C115" s="4">
         <v>0.69097222222222221</v>
       </c>
@@ -4672,7 +4672,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="66" t="s">
+      <c r="B117" s="67" t="s">
         <v>55</v>
       </c>
       <c r="C117" s="4">
@@ -4703,7 +4703,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="66"/>
+      <c r="B118" s="67"/>
       <c r="C118" s="4">
         <v>0.51736111111111105</v>
       </c>
@@ -4732,7 +4732,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="66"/>
+      <c r="B119" s="67"/>
       <c r="C119" s="4">
         <v>0.59375</v>
       </c>
@@ -4761,7 +4761,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="66"/>
+      <c r="B120" s="67"/>
       <c r="C120" s="4">
         <v>0.65277777777777779</v>
       </c>
@@ -4790,7 +4790,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="69"/>
+      <c r="B121" s="70"/>
       <c r="C121" s="38">
         <v>0.77777777777777779</v>
       </c>
@@ -4839,10 +4839,10 @@
       <c r="B123" s="51"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
-      <c r="E123" s="67" t="s">
+      <c r="E123" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="F123" s="68" t="s">
+      <c r="F123" s="69" t="s">
         <v>18</v>
       </c>
       <c r="G123" s="17" t="s">
@@ -4865,8 +4865,8 @@
       <c r="D124" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="67"/>
-      <c r="F124" s="68"/>
+      <c r="E124" s="68"/>
+      <c r="F124" s="69"/>
       <c r="G124" s="12" t="s">
         <v>14</v>
       </c>
@@ -8081,51 +8081,61 @@
       </c>
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C235" s="4"/>
-      <c r="D235" s="18"/>
+      <c r="B235" s="65"/>
+      <c r="C235" s="4">
+        <v>0.95486111111111116</v>
+      </c>
+      <c r="D235" s="18">
+        <v>0.96319444444444446</v>
+      </c>
       <c r="E235" s="20">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>8.3333333333333037E-3</v>
       </c>
       <c r="F235" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.1618055555555551</v>
       </c>
       <c r="G235" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.1618055555555551</v>
       </c>
       <c r="H235" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2243055555555582</v>
       </c>
       <c r="I235" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21315.166666666679</v>
       </c>
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C236" s="4"/>
-      <c r="D236" s="18"/>
+      <c r="B236" s="65"/>
+      <c r="C236" s="4">
+        <v>0.97638888888888886</v>
+      </c>
+      <c r="D236" s="18">
+        <v>0.99652777777777779</v>
+      </c>
       <c r="E236" s="20">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>2.0138888888888928E-2</v>
       </c>
       <c r="F236" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G236" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H236" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I236" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.25">
@@ -8137,19 +8147,19 @@
       </c>
       <c r="F237" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G237" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H237" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I237" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.25">
@@ -8161,19 +8171,19 @@
       </c>
       <c r="F238" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G238" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H238" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I238" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.25">
@@ -8185,19 +8195,19 @@
       </c>
       <c r="F239" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G239" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H239" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I239" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.25">
@@ -8209,19 +8219,19 @@
       </c>
       <c r="F240" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G240" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H240" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I240" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="241" spans="3:9" x14ac:dyDescent="0.25">
@@ -8233,19 +8243,19 @@
       </c>
       <c r="F241" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G241" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H241" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I241" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="242" spans="3:9" x14ac:dyDescent="0.25">
@@ -8257,19 +8267,19 @@
       </c>
       <c r="F242" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G242" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H242" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I242" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="243" spans="3:9" x14ac:dyDescent="0.25">
@@ -8281,19 +8291,19 @@
       </c>
       <c r="F243" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G243" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H243" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I243" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="244" spans="3:9" x14ac:dyDescent="0.25">
@@ -8305,19 +8315,19 @@
       </c>
       <c r="F244" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G244" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H244" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I244" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="245" spans="3:9" x14ac:dyDescent="0.25">
@@ -8329,19 +8339,19 @@
       </c>
       <c r="F245" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G245" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H245" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I245" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="246" spans="3:9" x14ac:dyDescent="0.25">
@@ -8353,19 +8363,19 @@
       </c>
       <c r="F246" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G246" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H246" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I246" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="247" spans="3:9" x14ac:dyDescent="0.25">
@@ -8377,19 +8387,19 @@
       </c>
       <c r="F247" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G247" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H247" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I247" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="248" spans="3:9" x14ac:dyDescent="0.25">
@@ -8401,19 +8411,19 @@
       </c>
       <c r="F248" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G248" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H248" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I248" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="249" spans="3:9" x14ac:dyDescent="0.25">
@@ -8425,19 +8435,19 @@
       </c>
       <c r="F249" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G249" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H249" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I249" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="250" spans="3:9" x14ac:dyDescent="0.25">
@@ -8449,19 +8459,19 @@
       </c>
       <c r="F250" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G250" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H250" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I250" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="251" spans="3:9" x14ac:dyDescent="0.25">
@@ -8473,19 +8483,19 @@
       </c>
       <c r="F251" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G251" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H251" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I251" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="252" spans="3:9" x14ac:dyDescent="0.25">
@@ -8497,19 +8507,19 @@
       </c>
       <c r="F252" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G252" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H252" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I252" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="253" spans="3:9" x14ac:dyDescent="0.25">
@@ -8521,19 +8531,19 @@
       </c>
       <c r="F253" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G253" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H253" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I253" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="254" spans="3:9" x14ac:dyDescent="0.25">
@@ -8545,19 +8555,19 @@
       </c>
       <c r="F254" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G254" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H254" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I254" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="255" spans="3:9" x14ac:dyDescent="0.25">
@@ -8569,19 +8579,19 @@
       </c>
       <c r="F255" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G255" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H255" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I255" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="256" spans="3:9" x14ac:dyDescent="0.25">
@@ -8593,19 +8603,19 @@
       </c>
       <c r="F256" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G256" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H256" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I256" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="257" spans="3:9" x14ac:dyDescent="0.25">
@@ -8617,19 +8627,19 @@
       </c>
       <c r="F257" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G257" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H257" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I257" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="258" spans="3:9" x14ac:dyDescent="0.25">
@@ -8641,19 +8651,19 @@
       </c>
       <c r="F258" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G258" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H258" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I258" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="259" spans="3:9" x14ac:dyDescent="0.25">
@@ -8665,19 +8675,19 @@
       </c>
       <c r="F259" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G259" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H259" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I259" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="260" spans="3:9" x14ac:dyDescent="0.25">
@@ -8689,19 +8699,19 @@
       </c>
       <c r="F260" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G260" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H260" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I260" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="261" spans="3:9" x14ac:dyDescent="0.25">
@@ -8713,19 +8723,19 @@
       </c>
       <c r="F261" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G261" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H261" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I261" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="262" spans="3:9" x14ac:dyDescent="0.25">
@@ -8737,19 +8747,19 @@
       </c>
       <c r="F262" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G262" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H262" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I262" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="263" spans="3:9" x14ac:dyDescent="0.25">
@@ -8761,19 +8771,19 @@
       </c>
       <c r="F263" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G263" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H263" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I263" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="264" spans="3:9" x14ac:dyDescent="0.25">
@@ -8785,19 +8795,19 @@
       </c>
       <c r="F264" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G264" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H264" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I264" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="265" spans="3:9" x14ac:dyDescent="0.25">
@@ -8809,19 +8819,19 @@
       </c>
       <c r="F265" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G265" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H265" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I265" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="266" spans="3:9" x14ac:dyDescent="0.25">
@@ -8833,19 +8843,19 @@
       </c>
       <c r="F266" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G266" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H266" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I266" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="267" spans="3:9" x14ac:dyDescent="0.25">
@@ -8857,19 +8867,19 @@
       </c>
       <c r="F267" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G267" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H267" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I267" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="268" spans="3:9" x14ac:dyDescent="0.25">
@@ -8881,19 +8891,19 @@
       </c>
       <c r="F268" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G268" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H268" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I268" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="269" spans="3:9" x14ac:dyDescent="0.25">
@@ -8905,19 +8915,19 @@
       </c>
       <c r="F269" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G269" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H269" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I269" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="270" spans="3:9" x14ac:dyDescent="0.25">
@@ -8929,19 +8939,19 @@
       </c>
       <c r="F270" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G270" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H270" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I270" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="271" spans="3:9" x14ac:dyDescent="0.25">
@@ -8953,19 +8963,19 @@
       </c>
       <c r="F271" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G271" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H271" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I271" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="272" spans="3:9" x14ac:dyDescent="0.25">
@@ -8977,19 +8987,19 @@
       </c>
       <c r="F272" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G272" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H272" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I272" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="273" spans="3:9" x14ac:dyDescent="0.25">
@@ -9001,19 +9011,19 @@
       </c>
       <c r="F273" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G273" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H273" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I273" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="274" spans="3:9" x14ac:dyDescent="0.25">
@@ -9025,19 +9035,19 @@
       </c>
       <c r="F274" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G274" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H274" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I274" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="275" spans="3:9" x14ac:dyDescent="0.25">
@@ -9049,19 +9059,19 @@
       </c>
       <c r="F275" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G275" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H275" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I275" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="276" spans="3:9" x14ac:dyDescent="0.25">
@@ -9073,19 +9083,19 @@
       </c>
       <c r="F276" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G276" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H276" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I276" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="277" spans="3:9" x14ac:dyDescent="0.25">
@@ -9097,19 +9107,19 @@
       </c>
       <c r="F277" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G277" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H277" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I277" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="278" spans="3:9" x14ac:dyDescent="0.25">
@@ -9121,19 +9131,19 @@
       </c>
       <c r="F278" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G278" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H278" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I278" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="279" spans="3:9" x14ac:dyDescent="0.25">
@@ -9145,19 +9155,19 @@
       </c>
       <c r="F279" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G279" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H279" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I279" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="280" spans="3:9" x14ac:dyDescent="0.25">
@@ -9169,19 +9179,19 @@
       </c>
       <c r="F280" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G280" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H280" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I280" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="281" spans="3:9" x14ac:dyDescent="0.25">
@@ -9193,19 +9203,19 @@
       </c>
       <c r="F281" s="21">
         <f t="shared" si="67"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G281" s="15">
         <f t="shared" si="68"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H281" s="15">
         <f t="shared" si="69"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I281" s="23">
         <f t="shared" si="70"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="282" spans="3:9" x14ac:dyDescent="0.25">
@@ -9217,19 +9227,19 @@
       </c>
       <c r="F282" s="21">
         <f t="shared" ref="F282:F342" si="72">F281+E282</f>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G282" s="15">
         <f t="shared" ref="G282:G342" si="73">F282</f>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H282" s="15">
         <f t="shared" ref="H282:H342" si="74">(H281+G282-G281)</f>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I282" s="23">
         <f t="shared" ref="I282:I342" si="75">H282*24*$J$32</f>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="283" spans="3:9" x14ac:dyDescent="0.25">
@@ -9241,19 +9251,19 @@
       </c>
       <c r="F283" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G283" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H283" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I283" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="284" spans="3:9" x14ac:dyDescent="0.25">
@@ -9265,19 +9275,19 @@
       </c>
       <c r="F284" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G284" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H284" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I284" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="285" spans="3:9" x14ac:dyDescent="0.25">
@@ -9289,19 +9299,19 @@
       </c>
       <c r="F285" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G285" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H285" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I285" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="286" spans="3:9" x14ac:dyDescent="0.25">
@@ -9313,19 +9323,19 @@
       </c>
       <c r="F286" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G286" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H286" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I286" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="287" spans="3:9" x14ac:dyDescent="0.25">
@@ -9337,19 +9347,19 @@
       </c>
       <c r="F287" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G287" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H287" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I287" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="288" spans="3:9" x14ac:dyDescent="0.25">
@@ -9361,19 +9371,19 @@
       </c>
       <c r="F288" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G288" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H288" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I288" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="289" spans="3:9" x14ac:dyDescent="0.25">
@@ -9385,19 +9395,19 @@
       </c>
       <c r="F289" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G289" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H289" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I289" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="290" spans="3:9" x14ac:dyDescent="0.25">
@@ -9409,19 +9419,19 @@
       </c>
       <c r="F290" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G290" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H290" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I290" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="291" spans="3:9" x14ac:dyDescent="0.25">
@@ -9433,19 +9443,19 @@
       </c>
       <c r="F291" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G291" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H291" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I291" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="292" spans="3:9" x14ac:dyDescent="0.25">
@@ -9457,19 +9467,19 @@
       </c>
       <c r="F292" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G292" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H292" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I292" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="293" spans="3:9" x14ac:dyDescent="0.25">
@@ -9481,19 +9491,19 @@
       </c>
       <c r="F293" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G293" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H293" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I293" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="294" spans="3:9" x14ac:dyDescent="0.25">
@@ -9505,19 +9515,19 @@
       </c>
       <c r="F294" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G294" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H294" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I294" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="295" spans="3:9" x14ac:dyDescent="0.25">
@@ -9529,19 +9539,19 @@
       </c>
       <c r="F295" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G295" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H295" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I295" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="296" spans="3:9" x14ac:dyDescent="0.25">
@@ -9553,19 +9563,19 @@
       </c>
       <c r="F296" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G296" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H296" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I296" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="297" spans="3:9" x14ac:dyDescent="0.25">
@@ -9577,19 +9587,19 @@
       </c>
       <c r="F297" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G297" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H297" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I297" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="298" spans="3:9" x14ac:dyDescent="0.25">
@@ -9601,19 +9611,19 @@
       </c>
       <c r="F298" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G298" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H298" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I298" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="299" spans="3:9" x14ac:dyDescent="0.25">
@@ -9625,19 +9635,19 @@
       </c>
       <c r="F299" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G299" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H299" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I299" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="300" spans="3:9" x14ac:dyDescent="0.25">
@@ -9649,19 +9659,19 @@
       </c>
       <c r="F300" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G300" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H300" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I300" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="301" spans="3:9" x14ac:dyDescent="0.25">
@@ -9673,19 +9683,19 @@
       </c>
       <c r="F301" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G301" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H301" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I301" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="302" spans="3:9" x14ac:dyDescent="0.25">
@@ -9697,19 +9707,19 @@
       </c>
       <c r="F302" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G302" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H302" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I302" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="303" spans="3:9" x14ac:dyDescent="0.25">
@@ -9721,19 +9731,19 @@
       </c>
       <c r="F303" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G303" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H303" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I303" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="304" spans="3:9" x14ac:dyDescent="0.25">
@@ -9745,19 +9755,19 @@
       </c>
       <c r="F304" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G304" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H304" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I304" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="305" spans="3:9" x14ac:dyDescent="0.25">
@@ -9769,19 +9779,19 @@
       </c>
       <c r="F305" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G305" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H305" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I305" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="306" spans="3:9" x14ac:dyDescent="0.25">
@@ -9793,19 +9803,19 @@
       </c>
       <c r="F306" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G306" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H306" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I306" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="307" spans="3:9" x14ac:dyDescent="0.25">
@@ -9817,19 +9827,19 @@
       </c>
       <c r="F307" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G307" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H307" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I307" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="308" spans="3:9" x14ac:dyDescent="0.25">
@@ -9841,19 +9851,19 @@
       </c>
       <c r="F308" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G308" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H308" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I308" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="309" spans="3:9" x14ac:dyDescent="0.25">
@@ -9865,19 +9875,19 @@
       </c>
       <c r="F309" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G309" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H309" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I309" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="310" spans="3:9" x14ac:dyDescent="0.25">
@@ -9889,19 +9899,19 @@
       </c>
       <c r="F310" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G310" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H310" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I310" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="311" spans="3:9" x14ac:dyDescent="0.25">
@@ -9913,19 +9923,19 @@
       </c>
       <c r="F311" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G311" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H311" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I311" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="312" spans="3:9" x14ac:dyDescent="0.25">
@@ -9937,19 +9947,19 @@
       </c>
       <c r="F312" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G312" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H312" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I312" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="313" spans="3:9" x14ac:dyDescent="0.25">
@@ -9961,19 +9971,19 @@
       </c>
       <c r="F313" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G313" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H313" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I313" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="314" spans="3:9" x14ac:dyDescent="0.25">
@@ -9985,19 +9995,19 @@
       </c>
       <c r="F314" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G314" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H314" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I314" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="315" spans="3:9" x14ac:dyDescent="0.25">
@@ -10009,19 +10019,19 @@
       </c>
       <c r="F315" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G315" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H315" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I315" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="316" spans="3:9" x14ac:dyDescent="0.25">
@@ -10033,19 +10043,19 @@
       </c>
       <c r="F316" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G316" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H316" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I316" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="317" spans="3:9" x14ac:dyDescent="0.25">
@@ -10057,19 +10067,19 @@
       </c>
       <c r="F317" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G317" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H317" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I317" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="318" spans="3:9" x14ac:dyDescent="0.25">
@@ -10081,19 +10091,19 @@
       </c>
       <c r="F318" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G318" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H318" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I318" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="319" spans="3:9" x14ac:dyDescent="0.25">
@@ -10105,19 +10115,19 @@
       </c>
       <c r="F319" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G319" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H319" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I319" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="320" spans="3:9" x14ac:dyDescent="0.25">
@@ -10129,19 +10139,19 @@
       </c>
       <c r="F320" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G320" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H320" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I320" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="321" spans="3:9" x14ac:dyDescent="0.25">
@@ -10153,19 +10163,19 @@
       </c>
       <c r="F321" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G321" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H321" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I321" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="322" spans="3:9" x14ac:dyDescent="0.25">
@@ -10177,19 +10187,19 @@
       </c>
       <c r="F322" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G322" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H322" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I322" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="323" spans="3:9" x14ac:dyDescent="0.25">
@@ -10201,19 +10211,19 @@
       </c>
       <c r="F323" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G323" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H323" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I323" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="324" spans="3:9" x14ac:dyDescent="0.25">
@@ -10225,19 +10235,19 @@
       </c>
       <c r="F324" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G324" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H324" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I324" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="325" spans="3:9" x14ac:dyDescent="0.25">
@@ -10249,19 +10259,19 @@
       </c>
       <c r="F325" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G325" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H325" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I325" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="326" spans="3:9" x14ac:dyDescent="0.25">
@@ -10273,19 +10283,19 @@
       </c>
       <c r="F326" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G326" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H326" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I326" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="327" spans="3:9" x14ac:dyDescent="0.25">
@@ -10297,19 +10307,19 @@
       </c>
       <c r="F327" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G327" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H327" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I327" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="328" spans="3:9" x14ac:dyDescent="0.25">
@@ -10321,19 +10331,19 @@
       </c>
       <c r="F328" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G328" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H328" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I328" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="329" spans="3:9" x14ac:dyDescent="0.25">
@@ -10345,19 +10355,19 @@
       </c>
       <c r="F329" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G329" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H329" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I329" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="330" spans="3:9" x14ac:dyDescent="0.25">
@@ -10369,19 +10379,19 @@
       </c>
       <c r="F330" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G330" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H330" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I330" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="331" spans="3:9" x14ac:dyDescent="0.25">
@@ -10393,19 +10403,19 @@
       </c>
       <c r="F331" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G331" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H331" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I331" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="332" spans="3:9" x14ac:dyDescent="0.25">
@@ -10417,19 +10427,19 @@
       </c>
       <c r="F332" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G332" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H332" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I332" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="333" spans="3:9" x14ac:dyDescent="0.25">
@@ -10441,19 +10451,19 @@
       </c>
       <c r="F333" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G333" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H333" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I333" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="334" spans="3:9" x14ac:dyDescent="0.25">
@@ -10465,19 +10475,19 @@
       </c>
       <c r="F334" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G334" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H334" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I334" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="335" spans="3:9" x14ac:dyDescent="0.25">
@@ -10489,19 +10499,19 @@
       </c>
       <c r="F335" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G335" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H335" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I335" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="336" spans="3:9" x14ac:dyDescent="0.25">
@@ -10513,19 +10523,19 @@
       </c>
       <c r="F336" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G336" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H336" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I336" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="337" spans="3:9" x14ac:dyDescent="0.25">
@@ -10537,19 +10547,19 @@
       </c>
       <c r="F337" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G337" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H337" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I337" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="338" spans="3:9" x14ac:dyDescent="0.25">
@@ -10561,19 +10571,19 @@
       </c>
       <c r="F338" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G338" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H338" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I338" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="339" spans="3:9" x14ac:dyDescent="0.25">
@@ -10585,19 +10595,19 @@
       </c>
       <c r="F339" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G339" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H339" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I339" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="340" spans="3:9" x14ac:dyDescent="0.25">
@@ -10609,19 +10619,19 @@
       </c>
       <c r="F340" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G340" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H340" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I340" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="341" spans="3:9" x14ac:dyDescent="0.25">
@@ -10633,19 +10643,19 @@
       </c>
       <c r="F341" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G341" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H341" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I341" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
     <row r="342" spans="3:9" x14ac:dyDescent="0.25">
@@ -10657,34 +10667,52 @@
       </c>
       <c r="F342" s="21">
         <f t="shared" si="72"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="G342" s="15">
         <f t="shared" si="73"/>
-        <v>3.1534722222222218</v>
+        <v>3.181944444444444</v>
       </c>
       <c r="H342" s="15">
         <f t="shared" si="74"/>
-        <v>5.2159722222222253</v>
+        <v>5.2444444444444471</v>
       </c>
       <c r="I342" s="23">
         <f t="shared" si="75"/>
-        <v>21281.166666666679</v>
+        <v>21397.333333333343</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B230:B234"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="B204:B209"/>
-    <mergeCell ref="B213:B219"/>
-    <mergeCell ref="B201:B203"/>
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="B178:B183"/>
-    <mergeCell ref="B184:B187"/>
-    <mergeCell ref="B188:B192"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
     <mergeCell ref="B164:B170"/>
     <mergeCell ref="B151:B155"/>
     <mergeCell ref="B156:B162"/>
@@ -10701,37 +10729,19 @@
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B188:B192"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="B204:B209"/>
+    <mergeCell ref="B213:B219"/>
+    <mergeCell ref="B201:B203"/>
     <mergeCell ref="B228:B229"/>
     <mergeCell ref="B220:B227"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B230:B236"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Vltava_prace.xlsx
+++ b/Vltava_prace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37CCCB9-77A0-4CBC-A425-DF44F6C083DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15410203-0EBB-4C00-BA71-9206D9A6B2CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="1305" windowWidth="14670" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>Vektorizace, první sada</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>5.2-9.2</t>
+  </si>
+  <si>
+    <t>19.2.</t>
   </si>
 </sst>
 </file>
@@ -804,9 +807,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -821,6 +821,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1163,7 +1166,7 @@
   <dimension ref="A1:X342"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="B230" sqref="B230:B236"/>
+      <selection activeCell="D240" sqref="D240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,10 +1188,10 @@
       <c r="B1" s="51"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="68" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -1209,8 +1212,8 @@
       <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="69"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
@@ -1390,7 +1393,7 @@
         <v>16716.666666666664</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="66"/>
+      <c r="K13" s="71"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
@@ -1406,7 +1409,7 @@
       <c r="X13" s="6"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="66" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="4">
@@ -1436,7 +1439,7 @@
         <v>16915</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="66"/>
+      <c r="K14" s="71"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
@@ -1452,7 +1455,7 @@
       <c r="X14" s="6"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="67"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="4">
         <v>0.68402777777777779</v>
       </c>
@@ -1480,7 +1483,7 @@
         <v>17184.166666666664</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="66"/>
+      <c r="K15" s="71"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
@@ -1496,7 +1499,7 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="67"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="4">
         <v>0.76041666666666663</v>
       </c>
@@ -1524,7 +1527,7 @@
         <v>17269.166666666664</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="66"/>
+      <c r="K16" s="71"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
@@ -1540,7 +1543,7 @@
       <c r="X16" s="6"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="67"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="4">
         <v>0.80208333333333337</v>
       </c>
@@ -1568,7 +1571,7 @@
         <v>17524.166666666664</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="66"/>
+      <c r="K17" s="71"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
@@ -1584,7 +1587,7 @@
       <c r="X17" s="6"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="67"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="4">
         <v>0.875</v>
       </c>
@@ -1612,7 +1615,7 @@
         <v>17651.666666666664</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="66"/>
+      <c r="K18" s="71"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
@@ -1628,7 +1631,7 @@
       <c r="X18" s="6"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="66" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="4">
@@ -1658,7 +1661,7 @@
         <v>17878.333333333332</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="66"/>
+      <c r="K19" s="71"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
@@ -1674,7 +1677,7 @@
       <c r="X19" s="6"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="67"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1702,7 +1705,7 @@
         <v>18246.666666666664</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="66"/>
+      <c r="K20" s="71"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
@@ -1718,7 +1721,7 @@
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="67"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -1746,7 +1749,7 @@
         <v>18388.333333333332</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="66"/>
+      <c r="K21" s="71"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
@@ -1762,7 +1765,7 @@
       <c r="X21" s="6"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="67"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="4">
         <v>0.75</v>
       </c>
@@ -1790,7 +1793,7 @@
         <v>18515.833333333332</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="66"/>
+      <c r="K22" s="71"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="9"/>
@@ -1806,7 +1809,7 @@
       <c r="X22" s="6"/>
     <